--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE58C25-8950-4879-8F1B-690FCAEE769E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FE7D16-AED7-4B2D-B7B1-FD11A1EAFF5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
     <sheet name="EnhanceTable" sheetId="2" r:id="rId2"/>
-    <sheet name="EquipOptionTable" sheetId="4" r:id="rId3"/>
+    <sheet name="EnhanceGradeTable" sheetId="5" r:id="rId3"/>
+    <sheet name="EquipOptionTable" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,6 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,56 +34,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="140">
   <si>
     <t>Equip0001</t>
   </si>
   <si>
-    <t>Equip0002</t>
-  </si>
-  <si>
-    <t>Equip0003</t>
-  </si>
-  <si>
     <t>Equip0101</t>
   </si>
   <si>
-    <t>Equip0102</t>
-  </si>
-  <si>
-    <t>Equip0103</t>
-  </si>
-  <si>
     <t>Equip0201</t>
   </si>
   <si>
     <t>Equip0202</t>
   </si>
   <si>
-    <t>Equip0203</t>
-  </si>
-  <si>
-    <t>Equip0204</t>
-  </si>
-  <si>
-    <t>Equip0205</t>
-  </si>
-  <si>
     <t>Equip0301</t>
   </si>
   <si>
     <t>Equip0302</t>
   </si>
   <si>
-    <t>Equip0303</t>
-  </si>
-  <si>
-    <t>Equip0304</t>
-  </si>
-  <si>
-    <t>Equip0305</t>
-  </si>
-  <si>
     <t>Equip0401</t>
   </si>
   <si>
@@ -97,84 +69,24 @@
     <t>Equip0405</t>
   </si>
   <si>
-    <t>Equip0406</t>
-  </si>
-  <si>
-    <t>Equip0407</t>
-  </si>
-  <si>
-    <t>Equip0408</t>
-  </si>
-  <si>
-    <t>Equip0409</t>
-  </si>
-  <si>
-    <t>Equip0410</t>
-  </si>
-  <si>
-    <t>Equip0411</t>
-  </si>
-  <si>
-    <t>Equip0412</t>
-  </si>
-  <si>
-    <t>Equip0413</t>
-  </si>
-  <si>
-    <t>Equip0414</t>
-  </si>
-  <si>
-    <t>Equip0415</t>
-  </si>
-  <si>
     <t>Equip1001</t>
   </si>
   <si>
-    <t>Equip1002</t>
-  </si>
-  <si>
-    <t>Equip1003</t>
-  </si>
-  <si>
     <t>Equip1101</t>
   </si>
   <si>
-    <t>Equip1102</t>
-  </si>
-  <si>
-    <t>Equip1103</t>
-  </si>
-  <si>
     <t>Equip1201</t>
   </si>
   <si>
     <t>Equip1202</t>
   </si>
   <si>
-    <t>Equip1203</t>
-  </si>
-  <si>
-    <t>Equip1204</t>
-  </si>
-  <si>
-    <t>Equip1205</t>
-  </si>
-  <si>
     <t>Equip1301</t>
   </si>
   <si>
     <t>Equip1302</t>
   </si>
   <si>
-    <t>Equip1303</t>
-  </si>
-  <si>
-    <t>Equip1304</t>
-  </si>
-  <si>
-    <t>Equip1305</t>
-  </si>
-  <si>
     <t>Equip1401</t>
   </si>
   <si>
@@ -188,36 +100,6 @@
   </si>
   <si>
     <t>Equip1405</t>
-  </si>
-  <si>
-    <t>Equip1406</t>
-  </si>
-  <si>
-    <t>Equip1407</t>
-  </si>
-  <si>
-    <t>Equip1408</t>
-  </si>
-  <si>
-    <t>Equip1409</t>
-  </si>
-  <si>
-    <t>Equip1410</t>
-  </si>
-  <si>
-    <t>Equip1411</t>
-  </si>
-  <si>
-    <t>Equip1412</t>
-  </si>
-  <si>
-    <t>Equip1413</t>
-  </si>
-  <si>
-    <t>Equip1414</t>
-  </si>
-  <si>
-    <t>Equip1415</t>
   </si>
   <si>
     <t>equipId|String</t>
@@ -312,6 +194,267 @@
   <si>
     <t>equipType|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>innergrade|Int</t>
+  </si>
+  <si>
+    <t>optionType|Int</t>
+  </si>
+  <si>
+    <t>Equip2001</t>
+  </si>
+  <si>
+    <t>Equip2101</t>
+  </si>
+  <si>
+    <t>Equip2201</t>
+  </si>
+  <si>
+    <t>Equip2202</t>
+  </si>
+  <si>
+    <t>Equip2301</t>
+  </si>
+  <si>
+    <t>Equip2302</t>
+  </si>
+  <si>
+    <t>Equip2401</t>
+  </si>
+  <si>
+    <t>Equip2402</t>
+  </si>
+  <si>
+    <t>Equip2403</t>
+  </si>
+  <si>
+    <t>Equip2404</t>
+  </si>
+  <si>
+    <t>Equip2405</t>
+  </si>
+  <si>
+    <t>Equip3001</t>
+  </si>
+  <si>
+    <t>Equip3101</t>
+  </si>
+  <si>
+    <t>Equip3201</t>
+  </si>
+  <si>
+    <t>Equip3202</t>
+  </si>
+  <si>
+    <t>Equip3301</t>
+  </si>
+  <si>
+    <t>Equip3302</t>
+  </si>
+  <si>
+    <t>Equip3401</t>
+  </si>
+  <si>
+    <t>Equip3402</t>
+  </si>
+  <si>
+    <t>Equip3403</t>
+  </si>
+  <si>
+    <t>Equip3404</t>
+  </si>
+  <si>
+    <t>Equip3405</t>
+  </si>
+  <si>
+    <t>Equip4001</t>
+  </si>
+  <si>
+    <t>Equip4101</t>
+  </si>
+  <si>
+    <t>Equip4201</t>
+  </si>
+  <si>
+    <t>Equip4202</t>
+  </si>
+  <si>
+    <t>Equip4301</t>
+  </si>
+  <si>
+    <t>Equip4302</t>
+  </si>
+  <si>
+    <t>Equip4401</t>
+  </si>
+  <si>
+    <t>Equip4402</t>
+  </si>
+  <si>
+    <t>Equip4403</t>
+  </si>
+  <si>
+    <t>Equip4404</t>
+  </si>
+  <si>
+    <t>Equip4405</t>
+  </si>
+  <si>
+    <t>Equip5001</t>
+  </si>
+  <si>
+    <t>Equip5101</t>
+  </si>
+  <si>
+    <t>Equip5201</t>
+  </si>
+  <si>
+    <t>Equip5202</t>
+  </si>
+  <si>
+    <t>Equip5301</t>
+  </si>
+  <si>
+    <t>Equip5302</t>
+  </si>
+  <si>
+    <t>Equip5401</t>
+  </si>
+  <si>
+    <t>Equip5402</t>
+  </si>
+  <si>
+    <t>Equip5403</t>
+  </si>
+  <si>
+    <t>Equip5404</t>
+  </si>
+  <si>
+    <t>Equip5405</t>
+  </si>
+  <si>
+    <t>Equip6001</t>
+  </si>
+  <si>
+    <t>Equip6101</t>
+  </si>
+  <si>
+    <t>Equip6201</t>
+  </si>
+  <si>
+    <t>Equip6202</t>
+  </si>
+  <si>
+    <t>Equip6301</t>
+  </si>
+  <si>
+    <t>Equip6302</t>
+  </si>
+  <si>
+    <t>Equip6401</t>
+  </si>
+  <si>
+    <t>Equip6402</t>
+  </si>
+  <si>
+    <t>Equip6403</t>
+  </si>
+  <si>
+    <t>Equip6404</t>
+  </si>
+  <si>
+    <t>Equip6405</t>
+  </si>
+  <si>
+    <t>Equip7001</t>
+  </si>
+  <si>
+    <t>Equip7101</t>
+  </si>
+  <si>
+    <t>Equip7201</t>
+  </si>
+  <si>
+    <t>Equip7202</t>
+  </si>
+  <si>
+    <t>Equip7301</t>
+  </si>
+  <si>
+    <t>Equip7302</t>
+  </si>
+  <si>
+    <t>Equip7401</t>
+  </si>
+  <si>
+    <t>Equip7402</t>
+  </si>
+  <si>
+    <t>Equip7403</t>
+  </si>
+  <si>
+    <t>Equip7404</t>
+  </si>
+  <si>
+    <t>Equip7405</t>
+  </si>
+  <si>
+    <t>Equip8001</t>
+  </si>
+  <si>
+    <t>Equip8101</t>
+  </si>
+  <si>
+    <t>Equip8201</t>
+  </si>
+  <si>
+    <t>Equip8202</t>
+  </si>
+  <si>
+    <t>Equip8301</t>
+  </si>
+  <si>
+    <t>Equip8302</t>
+  </si>
+  <si>
+    <t>Equip8401</t>
+  </si>
+  <si>
+    <t>Equip8402</t>
+  </si>
+  <si>
+    <t>Equip8403</t>
+  </si>
+  <si>
+    <t>Equip8404</t>
+  </si>
+  <si>
+    <t>Equip8405</t>
+  </si>
+  <si>
+    <t>requiredGold|Int</t>
+  </si>
+  <si>
+    <t>Probability|Float</t>
+  </si>
+  <si>
+    <t>max|Int</t>
+  </si>
+  <si>
+    <t>gradeZero|Float</t>
+  </si>
+  <si>
+    <t>gradeOne|Float</t>
+  </si>
+  <si>
+    <t>gradeTwo|Float</t>
+  </si>
+  <si>
+    <t>gradeThree|Float</t>
+  </si>
+  <si>
+    <t>gradeFour|Float</t>
   </si>
 </sst>
 </file>
@@ -678,7 +821,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -687,51 +830,33 @@
     <col min="1" max="1" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -742,16 +867,22 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -759,19 +890,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -779,19 +916,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>800</v>
+      </c>
+      <c r="H4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -799,19 +942,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -819,19 +968,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -839,19 +994,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -859,19 +1020,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
       <c r="E8">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -879,19 +1046,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
       <c r="E9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -899,19 +1072,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -919,19 +1098,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -939,184 +1124,238 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -1125,18 +1364,24 @@
         <v>5</v>
       </c>
       <c r="E21">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+      <c r="H21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -1145,198 +1390,258 @@
         <v>5</v>
       </c>
       <c r="E22">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>4</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E23">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>100</v>
+      </c>
+      <c r="H23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="H24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+      <c r="H25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+      <c r="H26">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
+      <c r="H27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+      <c r="H28">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>100</v>
+      </c>
+      <c r="H29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <v>4</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E30">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+      <c r="H30">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <v>4</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E31">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>100</v>
+      </c>
+      <c r="H31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -1345,438 +1650,570 @@
         <v>5</v>
       </c>
       <c r="E32">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>100</v>
+      </c>
+      <c r="H32">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E33">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>100</v>
+      </c>
+      <c r="H33">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E34">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
+      <c r="H34">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>100</v>
+      </c>
+      <c r="H35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>100</v>
+      </c>
+      <c r="H36">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>100</v>
+      </c>
+      <c r="H37">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>100</v>
+      </c>
+      <c r="H38">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E39">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>100</v>
+      </c>
+      <c r="H39">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E40">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+      <c r="H40">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41">
         <v>4</v>
       </c>
       <c r="E41">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>100</v>
+      </c>
+      <c r="H41">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42">
         <v>4</v>
       </c>
       <c r="E42">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>100</v>
+      </c>
+      <c r="H42">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E43">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>100</v>
+      </c>
+      <c r="H43">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E44">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G44">
+        <v>100</v>
+      </c>
+      <c r="H44">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E45">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>100</v>
+      </c>
+      <c r="H45">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>100</v>
+      </c>
+      <c r="H46">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>100</v>
+      </c>
+      <c r="H47">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>100</v>
+      </c>
+      <c r="H48">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E49">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>100</v>
+      </c>
+      <c r="H49">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E50">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>100</v>
+      </c>
+      <c r="H50">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E51">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>100</v>
+      </c>
+      <c r="H51">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C52">
         <v>4</v>
       </c>
       <c r="D52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E52">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>100</v>
+      </c>
+      <c r="H52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C53">
         <v>4</v>
       </c>
       <c r="D53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E53">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>100</v>
+      </c>
+      <c r="H53">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1785,18 +2222,24 @@
         <v>5</v>
       </c>
       <c r="E54">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>100</v>
+      </c>
+      <c r="H54">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1805,169 +2248,1185 @@
         <v>5</v>
       </c>
       <c r="E55">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>100</v>
+      </c>
+      <c r="H55">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C56">
         <v>4</v>
       </c>
       <c r="D56">
+        <v>6</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>100</v>
+      </c>
+      <c r="H56">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57">
         <v>5</v>
       </c>
-      <c r="E56">
-        <v>100</v>
-      </c>
-      <c r="F56">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
       <c r="C57">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>100</v>
+      </c>
+      <c r="H57">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58">
         <v>5</v>
       </c>
-      <c r="E57">
-        <v>100</v>
-      </c>
-      <c r="F57">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
       <c r="C58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>100</v>
+      </c>
+      <c r="H58">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59">
         <v>5</v>
       </c>
-      <c r="E58">
-        <v>100</v>
-      </c>
-      <c r="F58">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
       <c r="C59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>100</v>
+      </c>
+      <c r="H59">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60">
         <v>5</v>
       </c>
-      <c r="E59">
-        <v>100</v>
-      </c>
-      <c r="F59">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
       <c r="C60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>100</v>
+      </c>
+      <c r="H60">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61">
         <v>5</v>
       </c>
-      <c r="E60">
-        <v>100</v>
-      </c>
-      <c r="F60">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
       <c r="C61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>100</v>
+      </c>
+      <c r="H61">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>93</v>
+      </c>
+      <c r="B62">
         <v>5</v>
       </c>
-      <c r="E61">
-        <v>100</v>
-      </c>
-      <c r="F61">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
       <c r="C62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>100</v>
+      </c>
+      <c r="H62">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>94</v>
+      </c>
+      <c r="B63">
         <v>5</v>
       </c>
-      <c r="E62">
-        <v>100</v>
-      </c>
-      <c r="F62">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
       <c r="C63">
         <v>4</v>
       </c>
       <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>100</v>
+      </c>
+      <c r="H63">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>95</v>
+      </c>
+      <c r="B64">
         <v>5</v>
       </c>
-      <c r="E63">
-        <v>100</v>
-      </c>
-      <c r="F63">
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>100</v>
+      </c>
+      <c r="H64">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+      <c r="G65">
+        <v>100</v>
+      </c>
+      <c r="H65">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>97</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>100</v>
+      </c>
+      <c r="H66">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <v>6</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <v>100</v>
+      </c>
+      <c r="H67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>99</v>
+      </c>
+      <c r="B68">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>100</v>
+      </c>
+      <c r="H68">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69">
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>100</v>
+      </c>
+      <c r="H69">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>101</v>
+      </c>
+      <c r="B70">
+        <v>6</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>100</v>
+      </c>
+      <c r="H70">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>100</v>
+      </c>
+      <c r="H71">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>103</v>
+      </c>
+      <c r="B72">
+        <v>6</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <v>100</v>
+      </c>
+      <c r="H72">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>104</v>
+      </c>
+      <c r="B73">
+        <v>6</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <v>100</v>
+      </c>
+      <c r="H73">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74">
+        <v>6</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>3</v>
+      </c>
+      <c r="G74">
+        <v>100</v>
+      </c>
+      <c r="H74">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>106</v>
+      </c>
+      <c r="B75">
+        <v>6</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <v>100</v>
+      </c>
+      <c r="H75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76">
+        <v>6</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76">
+        <v>100</v>
+      </c>
+      <c r="H76">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>108</v>
+      </c>
+      <c r="B77">
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="G77">
+        <v>100</v>
+      </c>
+      <c r="H77">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78">
+        <v>6</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78">
+        <v>6</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>3</v>
+      </c>
+      <c r="G78">
+        <v>100</v>
+      </c>
+      <c r="H78">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>110</v>
+      </c>
+      <c r="B79">
+        <v>7</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>100</v>
+      </c>
+      <c r="H79">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>111</v>
+      </c>
+      <c r="B80">
+        <v>7</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>100</v>
+      </c>
+      <c r="H80">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>112</v>
+      </c>
+      <c r="B81">
+        <v>7</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81">
+        <v>100</v>
+      </c>
+      <c r="H81">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>113</v>
+      </c>
+      <c r="B82">
+        <v>7</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82">
+        <v>100</v>
+      </c>
+      <c r="H82">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>114</v>
+      </c>
+      <c r="B83">
+        <v>7</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83">
+        <v>100</v>
+      </c>
+      <c r="H83">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>115</v>
+      </c>
+      <c r="B84">
+        <v>7</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84">
+        <v>100</v>
+      </c>
+      <c r="H84">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>116</v>
+      </c>
+      <c r="B85">
+        <v>7</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>3</v>
+      </c>
+      <c r="G85">
+        <v>100</v>
+      </c>
+      <c r="H85">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>117</v>
+      </c>
+      <c r="B86">
+        <v>7</v>
+      </c>
+      <c r="C86">
+        <v>4</v>
+      </c>
+      <c r="D86">
+        <v>4</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>3</v>
+      </c>
+      <c r="G86">
+        <v>100</v>
+      </c>
+      <c r="H86">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>118</v>
+      </c>
+      <c r="B87">
+        <v>7</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <v>5</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>3</v>
+      </c>
+      <c r="G87">
+        <v>100</v>
+      </c>
+      <c r="H87">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>119</v>
+      </c>
+      <c r="B88">
+        <v>7</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+      <c r="D88">
+        <v>5</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>3</v>
+      </c>
+      <c r="G88">
+        <v>100</v>
+      </c>
+      <c r="H88">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>120</v>
+      </c>
+      <c r="B89">
+        <v>7</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <v>6</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>3</v>
+      </c>
+      <c r="G89">
+        <v>100</v>
+      </c>
+      <c r="H89">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>121</v>
+      </c>
+      <c r="B90">
+        <v>8</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>100</v>
+      </c>
+      <c r="H90">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>122</v>
+      </c>
+      <c r="B91">
+        <v>8</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>100</v>
+      </c>
+      <c r="H91">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>123</v>
+      </c>
+      <c r="B92">
+        <v>8</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92">
+        <v>100</v>
+      </c>
+      <c r="H92">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>124</v>
+      </c>
+      <c r="B93">
+        <v>8</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93">
+        <v>100</v>
+      </c>
+      <c r="H93">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>125</v>
+      </c>
+      <c r="B94">
+        <v>8</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="G94">
+        <v>100</v>
+      </c>
+      <c r="H94">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>126</v>
+      </c>
+      <c r="B95">
+        <v>8</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95">
+        <v>100</v>
+      </c>
+      <c r="H95">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>127</v>
+      </c>
+      <c r="B96">
+        <v>8</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <v>4</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>3</v>
+      </c>
+      <c r="G96">
+        <v>100</v>
+      </c>
+      <c r="H96">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>128</v>
+      </c>
+      <c r="B97">
+        <v>8</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97">
+        <v>4</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>3</v>
+      </c>
+      <c r="G97">
+        <v>100</v>
+      </c>
+      <c r="H97">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>129</v>
+      </c>
+      <c r="B98">
+        <v>8</v>
+      </c>
+      <c r="C98">
+        <v>4</v>
+      </c>
+      <c r="D98">
+        <v>5</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>3</v>
+      </c>
+      <c r="G98">
+        <v>100</v>
+      </c>
+      <c r="H98">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>130</v>
+      </c>
+      <c r="B99">
+        <v>8</v>
+      </c>
+      <c r="C99">
+        <v>4</v>
+      </c>
+      <c r="D99">
+        <v>5</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>3</v>
+      </c>
+      <c r="G99">
+        <v>100</v>
+      </c>
+      <c r="H99">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>131</v>
+      </c>
+      <c r="B100">
+        <v>8</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <v>6</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="G100">
+        <v>100</v>
+      </c>
+      <c r="H100">
         <v>1000</v>
       </c>
     </row>
@@ -1980,11 +3439,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D1C7CA-62FC-48B9-BBD8-4025BB82F174}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1992,92 +3451,452 @@
     <col min="1" max="1" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="C3">
+        <v>2500</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="C4">
+        <v>5000</v>
+      </c>
+      <c r="D4">
+        <v>0.95238095199999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.2949999999999999</v>
+      </c>
+      <c r="C5">
+        <v>7500</v>
+      </c>
+      <c r="D5">
+        <v>0.907029478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>2.0699999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.4119999999999999</v>
+      </c>
+      <c r="C6">
+        <v>10000</v>
+      </c>
+      <c r="D6">
+        <v>0.86383759900000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>2.4900000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.5389999999999999</v>
+      </c>
+      <c r="C7">
+        <v>12500</v>
+      </c>
+      <c r="D7">
+        <v>0.82270247500000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>2.99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.677</v>
+      </c>
+      <c r="C8">
+        <v>15000</v>
+      </c>
+      <c r="D8">
+        <v>0.78352616600000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>3.58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.8280000000000001</v>
+      </c>
+      <c r="C9">
+        <v>17500</v>
+      </c>
+      <c r="D9">
+        <v>0.74621539699999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="C10">
+        <v>20000</v>
+      </c>
+      <c r="D10">
+        <v>0.71068133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>5.16</v>
+        <v>2.1720000000000002</v>
+      </c>
+      <c r="C11">
+        <v>22500</v>
+      </c>
+      <c r="D11">
+        <v>0.67683936200000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2.367</v>
+      </c>
+      <c r="C12">
+        <v>25000</v>
+      </c>
+      <c r="D12">
+        <v>0.64460891600000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>2.58</v>
+      </c>
+      <c r="C13">
+        <v>27500</v>
+      </c>
+      <c r="D13">
+        <v>0.61391325399999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2.8130000000000002</v>
+      </c>
+      <c r="C14">
+        <v>30000</v>
+      </c>
+      <c r="D14">
+        <v>0.58467928899999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>3.0659999999999998</v>
+      </c>
+      <c r="C15">
+        <v>32500</v>
+      </c>
+      <c r="D15">
+        <v>0.55683741799999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>3.3420000000000001</v>
+      </c>
+      <c r="C16">
+        <v>35000</v>
+      </c>
+      <c r="D16">
+        <v>0.530321351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>3.6419999999999999</v>
+      </c>
+      <c r="C17">
+        <v>37500</v>
+      </c>
+      <c r="D17">
+        <v>0.50506795299999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>3.97</v>
+      </c>
+      <c r="C18">
+        <v>40000</v>
+      </c>
+      <c r="D18">
+        <v>0.48101709799999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>4.3280000000000003</v>
+      </c>
+      <c r="C19">
+        <v>42500</v>
+      </c>
+      <c r="D19">
+        <v>0.45811152199999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>4.7169999999999996</v>
+      </c>
+      <c r="C20">
+        <v>45000</v>
+      </c>
+      <c r="D20">
+        <v>0.43629668799999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>5.1420000000000003</v>
+      </c>
+      <c r="C21">
+        <v>47500</v>
+      </c>
+      <c r="D21">
+        <v>0.41552065500000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>5.6040000000000001</v>
+      </c>
+      <c r="C22">
+        <v>50000</v>
+      </c>
+      <c r="D22">
+        <v>0.39573395700000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>6.109</v>
+      </c>
+      <c r="C23">
+        <v>52500</v>
+      </c>
+      <c r="D23">
+        <v>0.37688948300000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>6.6589999999999998</v>
+      </c>
+      <c r="C24">
+        <v>55000</v>
+      </c>
+      <c r="D24">
+        <v>0.35894236499999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>7.258</v>
+      </c>
+      <c r="C25">
+        <v>57500</v>
+      </c>
+      <c r="D25">
+        <v>0.34184987100000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>7.9109999999999996</v>
+      </c>
+      <c r="C26">
+        <v>60000</v>
+      </c>
+      <c r="D26">
+        <v>0.325571306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>8.6229999999999993</v>
+      </c>
+      <c r="C27">
+        <v>62500</v>
+      </c>
+      <c r="D27">
+        <v>0.31006791</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>9.3989999999999991</v>
+      </c>
+      <c r="C28">
+        <v>65000</v>
+      </c>
+      <c r="D28">
+        <v>0.29530277199999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>10.244999999999999</v>
+      </c>
+      <c r="C29">
+        <v>67500</v>
+      </c>
+      <c r="D29">
+        <v>0.28124073500000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>11.167</v>
+      </c>
+      <c r="C30">
+        <v>70000</v>
+      </c>
+      <c r="D30">
+        <v>0.267848319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>12.172000000000001</v>
+      </c>
+      <c r="C31">
+        <v>72500</v>
+      </c>
+      <c r="D31">
+        <v>0.25509363699999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>13.268000000000001</v>
+      </c>
+      <c r="C32">
+        <v>75000</v>
+      </c>
+      <c r="D32">
+        <v>0.24294632099999999</v>
       </c>
     </row>
   </sheetData>
@@ -2088,10 +3907,164 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82CFE85-E5BF-4028-97DD-0FD3D41C3DD1}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>0.34722222200000002</v>
+      </c>
+      <c r="D3">
+        <v>0.41666666699999999</v>
+      </c>
+      <c r="E3">
+        <v>0.83333333300000001</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>0.241126543</v>
+      </c>
+      <c r="D4">
+        <v>0.28935185200000002</v>
+      </c>
+      <c r="E4">
+        <v>0.34722222200000002</v>
+      </c>
+      <c r="F4">
+        <v>0.69444444400000005</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>0.16744898799999999</v>
+      </c>
+      <c r="D5">
+        <v>0.20093878600000001</v>
+      </c>
+      <c r="E5">
+        <v>0.241126543</v>
+      </c>
+      <c r="F5">
+        <v>0.28935185200000002</v>
+      </c>
+      <c r="G5">
+        <v>0.57870370400000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>1.5070409E-2</v>
+      </c>
+      <c r="D6">
+        <v>3.0140818E-2</v>
+      </c>
+      <c r="E6">
+        <v>6.0281636E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.120563272</v>
+      </c>
+      <c r="G6">
+        <v>0.241126543</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1831AD9F-ED0A-47CF-B524-8603AB7A285B}">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2100,43 +4073,43 @@
   <sheetData>
     <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="H1" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="K1" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="L1" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="M1" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -2144,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2161,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2178,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2195,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2212,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2229,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2246,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2263,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2280,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2297,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -2314,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2331,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2348,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -2365,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -2382,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -2399,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2416,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2433,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -2450,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -2467,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -2484,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2501,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2518,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -2535,7 +4508,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -2552,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -2569,7 +4542,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -2586,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2603,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -2620,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -2637,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -2654,7 +4627,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2671,7 +4644,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2688,7 +4661,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -2705,7 +4678,7 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -2722,7 +4695,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -2739,7 +4712,7 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2756,7 +4729,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2773,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -2790,7 +4763,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -2807,7 +4780,7 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -2824,7 +4797,7 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2841,7 +4814,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2858,7 +4831,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -2875,7 +4848,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -2892,7 +4865,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -2909,7 +4882,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -2926,7 +4899,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2943,7 +4916,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -2960,7 +4933,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -2977,7 +4950,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -2994,7 +4967,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -3011,7 +4984,7 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3028,7 +5001,7 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -3045,7 +5018,7 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -3062,7 +5035,7 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -3079,7 +5052,7 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -3096,7 +5069,7 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -3113,7 +5086,7 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -3130,7 +5103,7 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -3147,7 +5120,7 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -3164,7 +5137,7 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -3181,7 +5154,7 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -3198,7 +5171,7 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -3215,7 +5188,7 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -3232,7 +5205,7 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="C66">
         <v>4</v>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FE7D16-AED7-4B2D-B7B1-FD11A1EAFF5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8A7C58-F5B3-4626-B745-9D0729D08EAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="139">
   <si>
     <t>Equip0001</t>
   </si>
@@ -436,25 +436,22 @@
     <t>requiredGold|Int</t>
   </si>
   <si>
-    <t>Probability|Float</t>
-  </si>
-  <si>
     <t>max|Int</t>
   </si>
   <si>
-    <t>gradeZero|Float</t>
-  </si>
-  <si>
-    <t>gradeOne|Float</t>
-  </si>
-  <si>
-    <t>gradeTwo|Float</t>
-  </si>
-  <si>
-    <t>gradeThree|Float</t>
-  </si>
-  <si>
-    <t>gradeFour|Float</t>
+    <t>gradeZeroProb|Float</t>
+  </si>
+  <si>
+    <t>gradeOneProb|Float</t>
+  </si>
+  <si>
+    <t>gradeTwoProb|Float</t>
+  </si>
+  <si>
+    <t>gradeThreeProb|Float</t>
+  </si>
+  <si>
+    <t>gradeFourProb|Float</t>
   </si>
 </sst>
 </file>
@@ -504,7 +501,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3439,11 +3436,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D1C7CA-62FC-48B9-BBD8-4025BB82F174}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3451,452 +3448,2498 @@
     <col min="1" max="1" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>132</v>
       </c>
-      <c r="D1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>1.0900000000000001</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2500</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
         <v>1.1879999999999999</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>5000</v>
       </c>
-      <c r="D4">
-        <v>0.95238095199999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>0.92592592600000001</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>1.2949999999999999</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>7500</v>
       </c>
-      <c r="D5">
-        <v>0.907029478</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>0.85733881999999995</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
         <v>1.4119999999999999</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>10000</v>
       </c>
-      <c r="D6">
-        <v>0.86383759900000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>0.79383224100000005</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7">
         <v>1.5389999999999999</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>12500</v>
       </c>
-      <c r="D7">
-        <v>0.82270247500000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>0.66152686800000005</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D9">
+        <v>2500</v>
+      </c>
+      <c r="E9">
+        <v>0.28571428599999998</v>
+      </c>
+      <c r="F9">
+        <v>0.71428571399999996</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="D10">
+        <v>5000</v>
+      </c>
+      <c r="E10">
+        <v>0.26455026500000001</v>
+      </c>
+      <c r="F10">
+        <v>0.661375661</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1.2949999999999999</v>
+      </c>
+      <c r="D11">
+        <v>7500</v>
+      </c>
+      <c r="E11">
+        <v>0.244953949</v>
+      </c>
+      <c r="F11">
+        <v>0.61238487200000002</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>1.4119999999999999</v>
+      </c>
+      <c r="D12">
+        <v>10000</v>
+      </c>
+      <c r="E12">
+        <v>0.22680921200000001</v>
+      </c>
+      <c r="F12">
+        <v>0.56702302900000001</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>1.5389999999999999</v>
+      </c>
+      <c r="D13">
+        <v>12500</v>
+      </c>
+      <c r="E13">
+        <v>0.18900767600000001</v>
+      </c>
+      <c r="F13">
+        <v>0.47251919100000001</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C14">
         <v>1.677</v>
       </c>
-      <c r="C8">
+      <c r="D14">
         <v>15000</v>
       </c>
-      <c r="D8">
-        <v>0.78352616600000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="E14">
+        <v>0.17500710799999999</v>
+      </c>
+      <c r="F14">
+        <v>0.43751776999999997</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C15">
         <v>1.8280000000000001</v>
       </c>
-      <c r="C9">
+      <c r="D15">
         <v>17500</v>
       </c>
-      <c r="D9">
-        <v>0.74621539699999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="E15">
+        <v>0.162043618</v>
+      </c>
+      <c r="F15">
+        <v>0.40510904599999997</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C16">
         <v>1.9930000000000001</v>
       </c>
-      <c r="C10">
+      <c r="D16">
         <v>20000</v>
       </c>
-      <c r="D10">
-        <v>0.71068133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="E16">
+        <v>0.150040387</v>
+      </c>
+      <c r="F16">
+        <v>0.37510096799999998</v>
+      </c>
+      <c r="G16">
+        <v>0.937752421</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C17">
         <v>2.1720000000000002</v>
       </c>
-      <c r="C11">
+      <c r="D17">
         <v>22500</v>
       </c>
-      <c r="D11">
-        <v>0.67683936200000006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="E17">
+        <v>0.13892628500000001</v>
+      </c>
+      <c r="F17">
+        <v>0.34731571100000003</v>
+      </c>
+      <c r="G17">
+        <v>0.86828927899999997</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="C18">
         <v>2.367</v>
       </c>
-      <c r="C12">
+      <c r="D18">
         <v>25000</v>
       </c>
-      <c r="D12">
-        <v>0.64460891600000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="E18">
+        <v>0.106866373</v>
+      </c>
+      <c r="F18">
+        <v>0.26716593199999999</v>
+      </c>
+      <c r="G18">
+        <v>0.66791482999999996</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D20">
+        <v>2500</v>
+      </c>
+      <c r="E20">
+        <v>8.1632652999999999E-2</v>
+      </c>
+      <c r="F20">
+        <v>0.20408163300000001</v>
+      </c>
+      <c r="G20">
+        <v>0.510204082</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="D21">
+        <v>5000</v>
+      </c>
+      <c r="E21">
+        <v>7.558579E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.18896447499999999</v>
+      </c>
+      <c r="G21">
+        <v>0.47241118700000001</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>1.2949999999999999</v>
+      </c>
+      <c r="D22">
+        <v>7500</v>
+      </c>
+      <c r="E22">
+        <v>6.9986841999999994E-2</v>
+      </c>
+      <c r="F22">
+        <v>0.17496710600000001</v>
+      </c>
+      <c r="G22">
+        <v>0.43741776500000001</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>1.4119999999999999</v>
+      </c>
+      <c r="D23">
+        <v>10000</v>
+      </c>
+      <c r="E23">
+        <v>6.4802631999999999E-2</v>
+      </c>
+      <c r="F23">
+        <v>0.16200658000000001</v>
+      </c>
+      <c r="G23">
+        <v>0.40501644999999997</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>1.5389999999999999</v>
+      </c>
+      <c r="D24">
+        <v>12500</v>
+      </c>
+      <c r="E24">
+        <v>5.4002192999999997E-2</v>
+      </c>
+      <c r="F24">
+        <v>0.13500548300000001</v>
+      </c>
+      <c r="G24">
+        <v>0.33751370800000002</v>
+      </c>
+      <c r="H24">
+        <v>0.84378427</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>1.677</v>
+      </c>
+      <c r="D25">
+        <v>15000</v>
+      </c>
+      <c r="E25">
+        <v>5.0002031000000002E-2</v>
+      </c>
+      <c r="F25">
+        <v>0.12500507699999999</v>
+      </c>
+      <c r="G25">
+        <v>0.31251269300000001</v>
+      </c>
+      <c r="H25">
+        <v>0.78128173099999998</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>1.8280000000000001</v>
+      </c>
+      <c r="D26">
+        <v>17500</v>
+      </c>
+      <c r="E26">
+        <v>4.6298177000000003E-2</v>
+      </c>
+      <c r="F26">
+        <v>0.115745442</v>
+      </c>
+      <c r="G26">
+        <v>0.289363604</v>
+      </c>
+      <c r="H26">
+        <v>0.72340901000000002</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="D27">
+        <v>20000</v>
+      </c>
+      <c r="E27">
+        <v>4.2868681999999998E-2</v>
+      </c>
+      <c r="F27">
+        <v>0.10717170500000001</v>
+      </c>
+      <c r="G27">
+        <v>0.26792926299999997</v>
+      </c>
+      <c r="H27">
+        <v>0.66982315800000003</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>2.1720000000000002</v>
+      </c>
+      <c r="D28">
+        <v>22500</v>
+      </c>
+      <c r="E28">
+        <v>3.9693223999999999E-2</v>
+      </c>
+      <c r="F28">
+        <v>9.9233059999999998E-2</v>
+      </c>
+      <c r="G28">
+        <v>0.24808265099999999</v>
+      </c>
+      <c r="H28">
+        <v>0.62020662800000004</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>2.367</v>
+      </c>
+      <c r="D29">
+        <v>25000</v>
+      </c>
+      <c r="E29">
+        <v>3.0533248999999998E-2</v>
+      </c>
+      <c r="F29">
+        <v>7.6333123000000003E-2</v>
+      </c>
+      <c r="G29">
+        <v>0.19083280799999999</v>
+      </c>
+      <c r="H29">
+        <v>0.47708202100000002</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="C30">
         <v>2.58</v>
       </c>
-      <c r="C13">
+      <c r="D30">
         <v>27500</v>
       </c>
-      <c r="D13">
-        <v>0.61391325399999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="E30">
+        <v>2.8271527000000001E-2</v>
+      </c>
+      <c r="F30">
+        <v>7.0678818000000004E-2</v>
+      </c>
+      <c r="G30">
+        <v>0.176697045</v>
+      </c>
+      <c r="H30">
+        <v>0.44174261199999998</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="C31">
         <v>2.8130000000000002</v>
       </c>
-      <c r="C14">
+      <c r="D31">
         <v>30000</v>
       </c>
-      <c r="D14">
-        <v>0.58467928899999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="E31">
+        <v>2.617734E-2</v>
+      </c>
+      <c r="F31">
+        <v>6.5443349999999997E-2</v>
+      </c>
+      <c r="G31">
+        <v>0.163608375</v>
+      </c>
+      <c r="H31">
+        <v>0.40902093699999997</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="C32">
         <v>3.0659999999999998</v>
       </c>
-      <c r="C15">
+      <c r="D32">
         <v>32500</v>
       </c>
-      <c r="D15">
-        <v>0.55683741799999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="E32">
+        <v>2.4238277999999999E-2</v>
+      </c>
+      <c r="F32">
+        <v>6.0595693999999999E-2</v>
+      </c>
+      <c r="G32">
+        <v>0.151489236</v>
+      </c>
+      <c r="H32">
+        <v>0.37872308999999998</v>
+      </c>
+      <c r="I32">
+        <v>0.94680772499999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="C33">
         <v>3.3420000000000001</v>
       </c>
-      <c r="C16">
+      <c r="D33">
         <v>35000</v>
       </c>
-      <c r="D16">
-        <v>0.530321351</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="E33">
+        <v>2.244285E-2</v>
+      </c>
+      <c r="F33">
+        <v>5.6107124000000001E-2</v>
+      </c>
+      <c r="G33">
+        <v>0.14026781099999999</v>
+      </c>
+      <c r="H33">
+        <v>0.35066952800000001</v>
+      </c>
+      <c r="I33">
+        <v>0.87667382000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="C34">
         <v>3.6419999999999999</v>
       </c>
-      <c r="C17">
+      <c r="D34">
         <v>37500</v>
       </c>
-      <c r="D17">
-        <v>0.50506795299999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="E34">
+        <v>1.4026781E-2</v>
+      </c>
+      <c r="F34">
+        <v>3.5066952999999998E-2</v>
+      </c>
+      <c r="G34">
+        <v>8.7667382000000002E-2</v>
+      </c>
+      <c r="H34">
+        <v>0.21916845500000001</v>
+      </c>
+      <c r="I34">
+        <v>0.547921137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D36">
+        <v>2500</v>
+      </c>
+      <c r="E36">
+        <v>2.3323614999999999E-2</v>
+      </c>
+      <c r="F36">
+        <v>5.8309038000000001E-2</v>
+      </c>
+      <c r="G36">
+        <v>0.145772595</v>
+      </c>
+      <c r="H36">
+        <v>0.364431487</v>
+      </c>
+      <c r="I36">
+        <v>0.91107871699999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="D37">
+        <v>5000</v>
+      </c>
+      <c r="E37">
+        <v>2.1595940000000001E-2</v>
+      </c>
+      <c r="F37">
+        <v>5.3989849999999999E-2</v>
+      </c>
+      <c r="G37">
+        <v>0.13497462499999999</v>
+      </c>
+      <c r="H37">
+        <v>0.337436562</v>
+      </c>
+      <c r="I37">
+        <v>0.84359140499999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>1.2949999999999999</v>
+      </c>
+      <c r="D38">
+        <v>7500</v>
+      </c>
+      <c r="E38">
+        <v>1.9996241000000001E-2</v>
+      </c>
+      <c r="F38">
+        <v>4.9990602000000002E-2</v>
+      </c>
+      <c r="G38">
+        <v>0.124976504</v>
+      </c>
+      <c r="H38">
+        <v>0.31244126100000003</v>
+      </c>
+      <c r="I38">
+        <v>0.78110315299999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>1.4119999999999999</v>
+      </c>
+      <c r="D39">
+        <v>10000</v>
+      </c>
+      <c r="E39">
+        <v>1.8515038000000001E-2</v>
+      </c>
+      <c r="F39">
+        <v>4.6287594000000001E-2</v>
+      </c>
+      <c r="G39">
+        <v>0.115718986</v>
+      </c>
+      <c r="H39">
+        <v>0.289297464</v>
+      </c>
+      <c r="I39">
+        <v>0.72324365999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>1.5389999999999999</v>
+      </c>
+      <c r="D40">
+        <v>12500</v>
+      </c>
+      <c r="E40">
+        <v>1.5429198E-2</v>
+      </c>
+      <c r="F40">
+        <v>3.8572994999999999E-2</v>
+      </c>
+      <c r="G40">
+        <v>9.6432487999999997E-2</v>
+      </c>
+      <c r="H40">
+        <v>0.24108122000000001</v>
+      </c>
+      <c r="I40">
+        <v>0.60270305000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>1.677</v>
+      </c>
+      <c r="D41">
+        <v>15000</v>
+      </c>
+      <c r="E41">
+        <v>1.4286294999999999E-2</v>
+      </c>
+      <c r="F41">
+        <v>3.5715735999999998E-2</v>
+      </c>
+      <c r="G41">
+        <v>8.9289340999999994E-2</v>
+      </c>
+      <c r="H41">
+        <v>0.22322335200000001</v>
+      </c>
+      <c r="I41">
+        <v>0.55805837899999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>1.8280000000000001</v>
+      </c>
+      <c r="D42">
+        <v>17500</v>
+      </c>
+      <c r="E42">
+        <v>1.322805E-2</v>
+      </c>
+      <c r="F42">
+        <v>3.3070125999999998E-2</v>
+      </c>
+      <c r="G42">
+        <v>8.2675314999999999E-2</v>
+      </c>
+      <c r="H42">
+        <v>0.206688289</v>
+      </c>
+      <c r="I42">
+        <v>0.51672072199999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="D43">
+        <v>20000</v>
+      </c>
+      <c r="E43">
+        <v>1.2248195E-2</v>
+      </c>
+      <c r="F43">
+        <v>3.0620486999999998E-2</v>
+      </c>
+      <c r="G43">
+        <v>7.6551218000000004E-2</v>
+      </c>
+      <c r="H43">
+        <v>0.191378045</v>
+      </c>
+      <c r="I43">
+        <v>0.47844511299999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>2.1720000000000002</v>
+      </c>
+      <c r="D44">
+        <v>22500</v>
+      </c>
+      <c r="E44">
+        <v>1.1340921E-2</v>
+      </c>
+      <c r="F44">
+        <v>2.8352302999999999E-2</v>
+      </c>
+      <c r="G44">
+        <v>7.0880757000000003E-2</v>
+      </c>
+      <c r="H44">
+        <v>0.177201894</v>
+      </c>
+      <c r="I44">
+        <v>0.44300473400000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>2.367</v>
+      </c>
+      <c r="D45">
+        <v>25000</v>
+      </c>
+      <c r="E45">
+        <v>8.7237860000000007E-3</v>
+      </c>
+      <c r="F45">
+        <v>2.1809464000000001E-2</v>
+      </c>
+      <c r="G45">
+        <v>5.4523660000000002E-2</v>
+      </c>
+      <c r="H45">
+        <v>0.13630914899999999</v>
+      </c>
+      <c r="I45">
+        <v>0.340772872</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>2.58</v>
+      </c>
+      <c r="D46">
+        <v>27500</v>
+      </c>
+      <c r="E46">
+        <v>8.0775789999999997E-3</v>
+      </c>
+      <c r="F46">
+        <v>2.0193948E-2</v>
+      </c>
+      <c r="G46">
+        <v>5.0484870000000001E-2</v>
+      </c>
+      <c r="H46">
+        <v>0.12621217500000001</v>
+      </c>
+      <c r="I46">
+        <v>0.315530437</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>12</v>
+      </c>
+      <c r="C47">
+        <v>2.8130000000000002</v>
+      </c>
+      <c r="D47">
+        <v>30000</v>
+      </c>
+      <c r="E47">
+        <v>7.4792399999999998E-3</v>
+      </c>
+      <c r="F47">
+        <v>1.8698099999999999E-2</v>
+      </c>
+      <c r="G47">
+        <v>4.6745250000000002E-2</v>
+      </c>
+      <c r="H47">
+        <v>0.116863125</v>
+      </c>
+      <c r="I47">
+        <v>0.29215781200000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>13</v>
+      </c>
+      <c r="C48">
+        <v>3.0659999999999998</v>
+      </c>
+      <c r="D48">
+        <v>32500</v>
+      </c>
+      <c r="E48">
+        <v>6.925222E-3</v>
+      </c>
+      <c r="F48">
+        <v>1.7313056E-2</v>
+      </c>
+      <c r="G48">
+        <v>4.3282638999999998E-2</v>
+      </c>
+      <c r="H48">
+        <v>0.108206597</v>
+      </c>
+      <c r="I48">
+        <v>0.27051649300000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>14</v>
+      </c>
+      <c r="C49">
+        <v>3.3420000000000001</v>
+      </c>
+      <c r="D49">
+        <v>35000</v>
+      </c>
+      <c r="E49">
+        <v>6.4122429999999998E-3</v>
+      </c>
+      <c r="F49">
+        <v>1.6030606999999999E-2</v>
+      </c>
+      <c r="G49">
+        <v>4.0076516999999999E-2</v>
+      </c>
+      <c r="H49">
+        <v>0.100191294</v>
+      </c>
+      <c r="I49">
+        <v>0.25047823400000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>15</v>
+      </c>
+      <c r="C50">
+        <v>3.6419999999999999</v>
+      </c>
+      <c r="D50">
+        <v>37500</v>
+      </c>
+      <c r="E50">
+        <v>4.0076519999999996E-3</v>
+      </c>
+      <c r="F50">
+        <v>1.0019129E-2</v>
+      </c>
+      <c r="G50">
+        <v>2.5047823E-2</v>
+      </c>
+      <c r="H50">
+        <v>6.2619559000000005E-2</v>
+      </c>
+      <c r="I50">
+        <v>0.15654889599999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="C51">
         <v>3.97</v>
       </c>
-      <c r="C18">
+      <c r="D51">
         <v>40000</v>
       </c>
-      <c r="D18">
-        <v>0.48101709799999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="E51">
+        <v>3.7107889999999999E-3</v>
+      </c>
+      <c r="F51">
+        <v>9.2769719999999996E-3</v>
+      </c>
+      <c r="G51">
+        <v>2.3192429000000001E-2</v>
+      </c>
+      <c r="H51">
+        <v>5.7981073000000001E-2</v>
+      </c>
+      <c r="I51">
+        <v>0.144952682</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="C52">
         <v>4.3280000000000003</v>
       </c>
-      <c r="C19">
+      <c r="D52">
         <v>42500</v>
       </c>
-      <c r="D19">
-        <v>0.45811152199999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="E52">
+        <v>3.4359149999999999E-3</v>
+      </c>
+      <c r="F52">
+        <v>8.5897890000000005E-3</v>
+      </c>
+      <c r="G52">
+        <v>2.1474470999999998E-2</v>
+      </c>
+      <c r="H52">
+        <v>5.3686178000000001E-2</v>
+      </c>
+      <c r="I52">
+        <v>0.13421544599999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="C53">
         <v>4.7169999999999996</v>
       </c>
-      <c r="C20">
+      <c r="D53">
         <v>45000</v>
       </c>
-      <c r="D20">
-        <v>0.43629668799999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="E53">
+        <v>3.1814030000000002E-3</v>
+      </c>
+      <c r="F53">
+        <v>7.9535079999999998E-3</v>
+      </c>
+      <c r="G53">
+        <v>1.9883769999999999E-2</v>
+      </c>
+      <c r="H53">
+        <v>4.9709424000000002E-2</v>
+      </c>
+      <c r="I53">
+        <v>0.124273561</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="C54">
         <v>5.1420000000000003</v>
       </c>
-      <c r="C21">
+      <c r="D54">
         <v>47500</v>
       </c>
-      <c r="D21">
-        <v>0.41552065500000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="E54">
+        <v>2.9457440000000001E-3</v>
+      </c>
+      <c r="F54">
+        <v>7.364359E-3</v>
+      </c>
+      <c r="G54">
+        <v>1.8410897999999998E-2</v>
+      </c>
+      <c r="H54">
+        <v>4.6027245000000001E-2</v>
+      </c>
+      <c r="I54">
+        <v>0.115068112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="C55">
         <v>5.6040000000000001</v>
       </c>
-      <c r="C22">
+      <c r="D55">
         <v>50000</v>
       </c>
-      <c r="D22">
-        <v>0.39573395700000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="E55">
+        <v>1.7327899999999999E-3</v>
+      </c>
+      <c r="F55">
+        <v>4.3319760000000004E-3</v>
+      </c>
+      <c r="G55">
+        <v>1.082994E-2</v>
+      </c>
+      <c r="H55">
+        <v>2.7074850000000001E-2</v>
+      </c>
+      <c r="I55">
+        <v>6.7687125000000001E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D57">
+        <v>2500</v>
+      </c>
+      <c r="E57">
+        <v>6.6638899999999996E-3</v>
+      </c>
+      <c r="F57">
+        <v>1.6659725E-2</v>
+      </c>
+      <c r="G57">
+        <v>4.1649313E-2</v>
+      </c>
+      <c r="H57">
+        <v>0.104123282</v>
+      </c>
+      <c r="I57">
+        <v>0.26030820500000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="D58">
+        <v>5000</v>
+      </c>
+      <c r="E58">
+        <v>6.1702689999999999E-3</v>
+      </c>
+      <c r="F58">
+        <v>1.5425671E-2</v>
+      </c>
+      <c r="G58">
+        <v>3.8564178999999997E-2</v>
+      </c>
+      <c r="H58">
+        <v>9.6410445999999997E-2</v>
+      </c>
+      <c r="I58">
+        <v>0.24102611600000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>4</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>1.2949999999999999</v>
+      </c>
+      <c r="D59">
+        <v>7500</v>
+      </c>
+      <c r="E59">
+        <v>5.7132119999999996E-3</v>
+      </c>
+      <c r="F59">
+        <v>1.4283028999999999E-2</v>
+      </c>
+      <c r="G59">
+        <v>3.5707572999999999E-2</v>
+      </c>
+      <c r="H59">
+        <v>8.9268931999999995E-2</v>
+      </c>
+      <c r="I59">
+        <v>0.223172329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>1.4119999999999999</v>
+      </c>
+      <c r="D60">
+        <v>10000</v>
+      </c>
+      <c r="E60">
+        <v>5.2900109999999998E-3</v>
+      </c>
+      <c r="F60">
+        <v>1.3225027E-2</v>
+      </c>
+      <c r="G60">
+        <v>3.3062567000000001E-2</v>
+      </c>
+      <c r="H60">
+        <v>8.2656417999999995E-2</v>
+      </c>
+      <c r="I60">
+        <v>0.20664104599999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>1.5389999999999999</v>
+      </c>
+      <c r="D61">
+        <v>12500</v>
+      </c>
+      <c r="E61">
+        <v>4.408342E-3</v>
+      </c>
+      <c r="F61">
+        <v>1.1020856000000001E-2</v>
+      </c>
+      <c r="G61">
+        <v>2.7552139E-2</v>
+      </c>
+      <c r="H61">
+        <v>6.8880348999999993E-2</v>
+      </c>
+      <c r="I61">
+        <v>0.17220087100000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>4</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>1.677</v>
+      </c>
+      <c r="D62">
+        <v>15000</v>
+      </c>
+      <c r="E62">
+        <v>4.0817980000000002E-3</v>
+      </c>
+      <c r="F62">
+        <v>1.0204496E-2</v>
+      </c>
+      <c r="G62">
+        <v>2.5511240000000001E-2</v>
+      </c>
+      <c r="H62">
+        <v>6.3778101000000004E-2</v>
+      </c>
+      <c r="I62">
+        <v>0.15944525100000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <v>7</v>
+      </c>
+      <c r="C63">
+        <v>1.8280000000000001</v>
+      </c>
+      <c r="D63">
+        <v>17500</v>
+      </c>
+      <c r="E63">
+        <v>3.779443E-3</v>
+      </c>
+      <c r="F63">
+        <v>9.4486069999999995E-3</v>
+      </c>
+      <c r="G63">
+        <v>2.3621519000000001E-2</v>
+      </c>
+      <c r="H63">
+        <v>5.9053796999999998E-2</v>
+      </c>
+      <c r="I63">
+        <v>0.14763449200000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="D64">
+        <v>20000</v>
+      </c>
+      <c r="E64">
+        <v>3.4994840000000002E-3</v>
+      </c>
+      <c r="F64">
+        <v>8.7487109999999993E-3</v>
+      </c>
+      <c r="G64">
+        <v>2.1871776999999998E-2</v>
+      </c>
+      <c r="H64">
+        <v>5.4679441000000002E-2</v>
+      </c>
+      <c r="I64">
+        <v>0.136698604</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>2.1720000000000002</v>
+      </c>
+      <c r="D65">
+        <v>22500</v>
+      </c>
+      <c r="E65">
+        <v>3.2402630000000002E-3</v>
+      </c>
+      <c r="F65">
+        <v>8.1006580000000002E-3</v>
+      </c>
+      <c r="G65">
+        <v>2.0251644999999999E-2</v>
+      </c>
+      <c r="H65">
+        <v>5.0629111999999997E-2</v>
+      </c>
+      <c r="I65">
+        <v>0.126572781</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>2.367</v>
+      </c>
+      <c r="D66">
+        <v>25000</v>
+      </c>
+      <c r="E66">
+        <v>2.4925099999999999E-3</v>
+      </c>
+      <c r="F66">
+        <v>6.2312749999999997E-3</v>
+      </c>
+      <c r="G66">
+        <v>1.5578188E-2</v>
+      </c>
+      <c r="H66">
+        <v>3.8945471000000002E-2</v>
+      </c>
+      <c r="I66">
+        <v>9.7363677999999995E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <v>11</v>
+      </c>
+      <c r="C67">
+        <v>2.58</v>
+      </c>
+      <c r="D67">
+        <v>27500</v>
+      </c>
+      <c r="E67">
+        <v>2.30788E-3</v>
+      </c>
+      <c r="F67">
+        <v>5.7696989999999997E-3</v>
+      </c>
+      <c r="G67">
+        <v>1.4424249E-2</v>
+      </c>
+      <c r="H67">
+        <v>3.6060621000000001E-2</v>
+      </c>
+      <c r="I67">
+        <v>9.0151553999999995E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>4</v>
+      </c>
+      <c r="B68">
+        <v>12</v>
+      </c>
+      <c r="C68">
+        <v>2.8130000000000002</v>
+      </c>
+      <c r="D68">
+        <v>30000</v>
+      </c>
+      <c r="E68">
+        <v>2.1369259999999999E-3</v>
+      </c>
+      <c r="F68">
+        <v>5.3423139999999999E-3</v>
+      </c>
+      <c r="G68">
+        <v>1.3355786E-2</v>
+      </c>
+      <c r="H68">
+        <v>3.3389464000000001E-2</v>
+      </c>
+      <c r="I68">
+        <v>8.3473661000000005E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <v>13</v>
+      </c>
+      <c r="C69">
+        <v>3.0659999999999998</v>
+      </c>
+      <c r="D69">
+        <v>32500</v>
+      </c>
+      <c r="E69">
+        <v>1.9786349999999999E-3</v>
+      </c>
+      <c r="F69">
+        <v>4.9465869999999997E-3</v>
+      </c>
+      <c r="G69">
+        <v>1.2366468E-2</v>
+      </c>
+      <c r="H69">
+        <v>3.0916170999999999E-2</v>
+      </c>
+      <c r="I69">
+        <v>7.7290426999999995E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>4</v>
+      </c>
+      <c r="B70">
+        <v>14</v>
+      </c>
+      <c r="C70">
+        <v>3.3420000000000001</v>
+      </c>
+      <c r="D70">
+        <v>35000</v>
+      </c>
+      <c r="E70">
+        <v>1.832069E-3</v>
+      </c>
+      <c r="F70">
+        <v>4.5801729999999999E-3</v>
+      </c>
+      <c r="G70">
+        <v>1.1450434000000001E-2</v>
+      </c>
+      <c r="H70">
+        <v>2.8626084E-2</v>
+      </c>
+      <c r="I70">
+        <v>7.1565210000000004E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>4</v>
+      </c>
+      <c r="B71">
+        <v>15</v>
+      </c>
+      <c r="C71">
+        <v>3.6419999999999999</v>
+      </c>
+      <c r="D71">
+        <v>37500</v>
+      </c>
+      <c r="E71">
+        <v>1.1450430000000001E-3</v>
+      </c>
+      <c r="F71">
+        <v>2.862608E-3</v>
+      </c>
+      <c r="G71">
+        <v>7.1565209999999999E-3</v>
+      </c>
+      <c r="H71">
+        <v>1.7891302000000001E-2</v>
+      </c>
+      <c r="I71">
+        <v>4.4728256000000001E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>4</v>
+      </c>
+      <c r="B72">
+        <v>16</v>
+      </c>
+      <c r="C72">
+        <v>3.97</v>
+      </c>
+      <c r="D72">
+        <v>40000</v>
+      </c>
+      <c r="E72">
+        <v>1.0602249999999999E-3</v>
+      </c>
+      <c r="F72">
+        <v>2.6505629999999999E-3</v>
+      </c>
+      <c r="G72">
+        <v>6.6264080000000003E-3</v>
+      </c>
+      <c r="H72">
+        <v>1.6566021E-2</v>
+      </c>
+      <c r="I72">
+        <v>4.1415052000000001E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>4</v>
+      </c>
+      <c r="B73">
+        <v>17</v>
+      </c>
+      <c r="C73">
+        <v>4.3280000000000003</v>
+      </c>
+      <c r="D73">
+        <v>42500</v>
+      </c>
+      <c r="E73">
+        <v>9.8168999999999991E-4</v>
+      </c>
+      <c r="F73">
+        <v>2.454225E-3</v>
+      </c>
+      <c r="G73">
+        <v>6.1355630000000001E-3</v>
+      </c>
+      <c r="H73">
+        <v>1.5338908E-2</v>
+      </c>
+      <c r="I73">
+        <v>3.8347270000000003E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>4</v>
+      </c>
+      <c r="B74">
+        <v>18</v>
+      </c>
+      <c r="C74">
+        <v>4.7169999999999996</v>
+      </c>
+      <c r="D74">
+        <v>45000</v>
+      </c>
+      <c r="E74">
+        <v>9.0897199999999997E-4</v>
+      </c>
+      <c r="F74">
+        <v>2.2724310000000001E-3</v>
+      </c>
+      <c r="G74">
+        <v>5.6810769999999997E-3</v>
+      </c>
+      <c r="H74">
+        <v>1.4202693000000001E-2</v>
+      </c>
+      <c r="I74">
+        <v>3.5506731999999999E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>4</v>
+      </c>
+      <c r="B75">
+        <v>19</v>
+      </c>
+      <c r="C75">
+        <v>5.1420000000000003</v>
+      </c>
+      <c r="D75">
+        <v>47500</v>
+      </c>
+      <c r="E75">
+        <v>8.4164099999999996E-4</v>
+      </c>
+      <c r="F75">
+        <v>2.104103E-3</v>
+      </c>
+      <c r="G75">
+        <v>5.260257E-3</v>
+      </c>
+      <c r="H75">
+        <v>1.3150640999999999E-2</v>
+      </c>
+      <c r="I75">
+        <v>3.2876602999999997E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>4</v>
+      </c>
+      <c r="B76">
+        <v>20</v>
+      </c>
+      <c r="C76">
+        <v>5.6040000000000001</v>
+      </c>
+      <c r="D76">
+        <v>50000</v>
+      </c>
+      <c r="E76">
+        <v>4.95083E-4</v>
+      </c>
+      <c r="F76">
+        <v>1.237707E-3</v>
+      </c>
+      <c r="G76">
+        <v>3.0942690000000002E-3</v>
+      </c>
+      <c r="H76">
+        <v>7.7356710000000004E-3</v>
+      </c>
+      <c r="I76">
+        <v>1.9339179000000001E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>4</v>
+      </c>
+      <c r="B77">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="C77">
         <v>6.109</v>
       </c>
-      <c r="C23">
+      <c r="D77">
         <v>52500</v>
       </c>
-      <c r="D23">
-        <v>0.37688948300000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="E77">
+        <v>4.5841000000000002E-4</v>
+      </c>
+      <c r="F77">
+        <v>1.146025E-3</v>
+      </c>
+      <c r="G77">
+        <v>2.8650630000000002E-3</v>
+      </c>
+      <c r="H77">
+        <v>7.162659E-3</v>
+      </c>
+      <c r="I77">
+        <v>1.7906647000000001E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>4</v>
+      </c>
+      <c r="B78">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="C78">
         <v>6.6589999999999998</v>
       </c>
-      <c r="C24">
+      <c r="D78">
         <v>55000</v>
       </c>
-      <c r="D24">
-        <v>0.35894236499999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="E78">
+        <v>4.24454E-4</v>
+      </c>
+      <c r="F78">
+        <v>1.0611349999999999E-3</v>
+      </c>
+      <c r="G78">
+        <v>2.6528369999999999E-3</v>
+      </c>
+      <c r="H78">
+        <v>6.6320909999999997E-3</v>
+      </c>
+      <c r="I78">
+        <v>1.6580228999999998E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>4</v>
+      </c>
+      <c r="B79">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="C79">
         <v>7.258</v>
       </c>
-      <c r="C25">
+      <c r="D79">
         <v>57500</v>
       </c>
-      <c r="D25">
-        <v>0.34184987100000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="E79">
+        <v>3.93013E-4</v>
+      </c>
+      <c r="F79">
+        <v>9.8253199999999994E-4</v>
+      </c>
+      <c r="G79">
+        <v>2.4563300000000001E-3</v>
+      </c>
+      <c r="H79">
+        <v>6.1408249999999999E-3</v>
+      </c>
+      <c r="I79">
+        <v>1.5352063000000001E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>4</v>
+      </c>
+      <c r="B80">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="C80">
         <v>7.9109999999999996</v>
       </c>
-      <c r="C26">
+      <c r="D80">
         <v>60000</v>
       </c>
-      <c r="D26">
-        <v>0.325571306</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="E80">
+        <v>3.6390100000000002E-4</v>
+      </c>
+      <c r="F80">
+        <v>9.09752E-4</v>
+      </c>
+      <c r="G80">
+        <v>2.2743799999999999E-3</v>
+      </c>
+      <c r="H80">
+        <v>5.685949E-3</v>
+      </c>
+      <c r="I80">
+        <v>1.4214874000000001E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>4</v>
+      </c>
+      <c r="B81">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="C81">
         <v>8.6229999999999993</v>
       </c>
-      <c r="C27">
+      <c r="D81">
         <v>62500</v>
       </c>
-      <c r="D27">
-        <v>0.31006791</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="E81">
+        <v>1.8195E-4</v>
+      </c>
+      <c r="F81">
+        <v>4.54876E-4</v>
+      </c>
+      <c r="G81">
+        <v>1.1371899999999999E-3</v>
+      </c>
+      <c r="H81">
+        <v>2.8429750000000002E-3</v>
+      </c>
+      <c r="I81">
+        <v>7.1074370000000003E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>4</v>
+      </c>
+      <c r="B82">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="C82">
         <v>9.3989999999999991</v>
       </c>
-      <c r="C28">
+      <c r="D82">
         <v>65000</v>
       </c>
-      <c r="D28">
-        <v>0.29530277199999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="E82">
+        <v>1.6847300000000001E-4</v>
+      </c>
+      <c r="F82">
+        <v>4.2118100000000002E-4</v>
+      </c>
+      <c r="G82">
+        <v>1.052954E-3</v>
+      </c>
+      <c r="H82">
+        <v>2.6323840000000002E-3</v>
+      </c>
+      <c r="I82">
+        <v>6.5809600000000003E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>4</v>
+      </c>
+      <c r="B83">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="C83">
         <v>10.244999999999999</v>
       </c>
-      <c r="C29">
+      <c r="D83">
         <v>67500</v>
       </c>
-      <c r="D29">
-        <v>0.28124073500000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="E83">
+        <v>1.55993E-4</v>
+      </c>
+      <c r="F83">
+        <v>3.89983E-4</v>
+      </c>
+      <c r="G83">
+        <v>9.7495700000000004E-4</v>
+      </c>
+      <c r="H83">
+        <v>2.4373929999999999E-3</v>
+      </c>
+      <c r="I83">
+        <v>6.0934810000000004E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>4</v>
+      </c>
+      <c r="B84">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="C84">
         <v>11.167</v>
       </c>
-      <c r="C30">
+      <c r="D84">
         <v>70000</v>
       </c>
-      <c r="D30">
-        <v>0.267848319</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="E84">
+        <v>1.4443799999999999E-4</v>
+      </c>
+      <c r="F84">
+        <v>3.6109500000000002E-4</v>
+      </c>
+      <c r="G84">
+        <v>9.0273800000000004E-4</v>
+      </c>
+      <c r="H84">
+        <v>2.2568449999999999E-3</v>
+      </c>
+      <c r="I84">
+        <v>5.6421120000000003E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>4</v>
+      </c>
+      <c r="B85">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="C85">
         <v>12.172000000000001</v>
       </c>
-      <c r="C31">
+      <c r="D85">
         <v>72500</v>
       </c>
-      <c r="D31">
-        <v>0.25509363699999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="E85">
+        <v>1.3373899999999999E-4</v>
+      </c>
+      <c r="F85">
+        <v>3.3434699999999998E-4</v>
+      </c>
+      <c r="G85">
+        <v>8.3586900000000004E-4</v>
+      </c>
+      <c r="H85">
+        <v>2.089671E-3</v>
+      </c>
+      <c r="I85">
+        <v>5.2241780000000003E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>4</v>
+      </c>
+      <c r="B86">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="C86">
         <v>13.268000000000001</v>
       </c>
-      <c r="C32">
+      <c r="D86">
         <v>75000</v>
       </c>
-      <c r="D32">
-        <v>0.24294632099999999</v>
+      <c r="E86" s="1">
+        <v>4.4579700000000003E-5</v>
+      </c>
+      <c r="F86">
+        <v>1.11449E-4</v>
+      </c>
+      <c r="G86">
+        <v>2.7862299999999998E-4</v>
+      </c>
+      <c r="H86">
+        <v>6.9655699999999999E-4</v>
+      </c>
+      <c r="I86">
+        <v>1.7413929999999999E-3</v>
       </c>
     </row>
   </sheetData>
@@ -3908,148 +5951,58 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82CFE85-E5BF-4028-97DD-0FD3D41C3DD1}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>0.5</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>0.34722222200000002</v>
-      </c>
-      <c r="D3">
-        <v>0.41666666699999999</v>
-      </c>
-      <c r="E3">
-        <v>0.83333333300000001</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>15</v>
       </c>
-      <c r="C4">
-        <v>0.241126543</v>
-      </c>
-      <c r="D4">
-        <v>0.28935185200000002</v>
-      </c>
-      <c r="E4">
-        <v>0.34722222200000002</v>
-      </c>
-      <c r="F4">
-        <v>0.69444444400000005</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>20</v>
       </c>
-      <c r="C5">
-        <v>0.16744898799999999</v>
-      </c>
-      <c r="D5">
-        <v>0.20093878600000001</v>
-      </c>
-      <c r="E5">
-        <v>0.241126543</v>
-      </c>
-      <c r="F5">
-        <v>0.28935185200000002</v>
-      </c>
-      <c r="G5">
-        <v>0.57870370400000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>30</v>
-      </c>
-      <c r="C6">
-        <v>1.5070409E-2</v>
-      </c>
-      <c r="D6">
-        <v>3.0140818E-2</v>
-      </c>
-      <c r="E6">
-        <v>6.0281636E-2</v>
-      </c>
-      <c r="F6">
-        <v>0.120563272</v>
-      </c>
-      <c r="G6">
-        <v>0.241126543</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8A7C58-F5B3-4626-B745-9D0729D08EAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6029F8B-14DA-4247-A7CD-DB22A74186DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-240" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="142">
   <si>
     <t>Equip0001</t>
   </si>
@@ -452,6 +452,15 @@
   </si>
   <si>
     <t>gradeFourProb|Float</t>
+  </si>
+  <si>
+    <t>prefabAddress|String</t>
+  </si>
+  <si>
+    <t>shotAddress|String</t>
+  </si>
+  <si>
+    <t>Shot_RunicAxe</t>
   </si>
 </sst>
 </file>
@@ -818,16 +827,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -852,8 +863,14 @@
       <c r="H1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -878,8 +895,11 @@
       <c r="H2">
         <v>115</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -905,7 +925,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -931,7 +951,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -957,7 +977,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -983,7 +1003,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1009,7 +1029,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1035,7 +1055,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1061,7 +1081,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1087,7 +1107,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1113,7 +1133,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1139,7 +1159,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1165,7 +1185,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1191,7 +1211,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1217,7 +1237,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -6015,7 +6035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1831AD9F-ED0A-47CF-B524-8603AB7A285B}">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6029F8B-14DA-4247-A7CD-DB22A74186DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB836FD0-2281-4097-B3D2-B9638AF124FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="145">
   <si>
     <t>Equip0001</t>
   </si>
@@ -461,6 +461,15 @@
   </si>
   <si>
     <t>Shot_RunicAxe</t>
+  </si>
+  <si>
+    <t>name|String</t>
+  </si>
+  <si>
+    <t>RunicAxe</t>
+  </si>
+  <si>
+    <t>EquipName_RunicAxe</t>
   </si>
 </sst>
 </file>
@@ -827,7 +836,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
-  <dimension ref="A1:J100"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -838,7 +847,7 @@
     <col min="1" max="1" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -869,8 +878,11 @@
       <c r="J1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -895,11 +907,17 @@
       <c r="H2">
         <v>115</v>
       </c>
+      <c r="I2" t="s">
+        <v>143</v>
+      </c>
       <c r="J2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -925,7 +943,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -951,7 +969,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -977,7 +995,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1003,7 +1021,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1029,7 +1047,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1055,7 +1073,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1081,7 +1099,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1107,7 +1125,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1133,7 +1151,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1159,7 +1177,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1185,7 +1203,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1211,7 +1229,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1237,7 +1255,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB836FD0-2281-4097-B3D2-B9638AF124FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30B3F26-B860-4BFA-B163-C710F1C7F105}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -463,13 +463,13 @@
     <t>Shot_RunicAxe</t>
   </si>
   <si>
-    <t>name|String</t>
-  </si>
-  <si>
     <t>RunicAxe</t>
   </si>
   <si>
     <t>EquipName_RunicAxe</t>
+  </si>
+  <si>
+    <t>nameId|String</t>
   </si>
 </sst>
 </file>
@@ -879,7 +879,7 @@
         <v>140</v>
       </c>
       <c r="K1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -908,13 +908,13 @@
         <v>115</v>
       </c>
       <c r="I2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J2" t="s">
         <v>141</v>
       </c>
       <c r="K2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30B3F26-B860-4BFA-B163-C710F1C7F105}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85993F7D-9078-46E0-A643-4AA85F294C6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="149">
   <si>
     <t>Equip0001</t>
   </si>
@@ -470,6 +470,18 @@
   </si>
   <si>
     <t>nameId|String</t>
+  </si>
+  <si>
+    <t>randType|Int</t>
+  </si>
+  <si>
+    <t>leftRight|Int</t>
+  </si>
+  <si>
+    <t>Equip0002</t>
+  </si>
+  <si>
+    <t>Equip0102</t>
   </si>
 </sst>
 </file>
@@ -836,18 +848,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -873,16 +883,25 @@
         <v>27</v>
       </c>
       <c r="I1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" t="s">
         <v>139</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>140</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -907,28 +926,31 @@
       <c r="H2">
         <v>115</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>142</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>141</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -940,73 +962,124 @@
         <v>100</v>
       </c>
       <c r="H3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1.0000009999999999</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>142</v>
+      </c>
+      <c r="M3" t="s">
+        <v>141</v>
+      </c>
+      <c r="N3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>142</v>
+      </c>
+      <c r="M4" t="s">
+        <v>141</v>
+      </c>
+      <c r="N4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>148</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>100</v>
       </c>
       <c r="H5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>142</v>
+      </c>
+      <c r="M5" t="s">
+        <v>141</v>
+      </c>
+      <c r="N5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1018,1425 +1091,1599 @@
         <v>100</v>
       </c>
       <c r="H6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>142</v>
+      </c>
+      <c r="M6" t="s">
+        <v>141</v>
+      </c>
+      <c r="N6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>115</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>115</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>100</v>
-      </c>
-      <c r="H7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>115</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>100</v>
-      </c>
-      <c r="H8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>115</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>100</v>
-      </c>
-      <c r="H9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>115</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
         <v>5</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>100</v>
-      </c>
-      <c r="H10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>115</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
         <v>5</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>100</v>
-      </c>
-      <c r="H11">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>115</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
         <v>6</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="G12">
-        <v>100</v>
-      </c>
-      <c r="H12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>115</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>100</v>
-      </c>
-      <c r="H13">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>115</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>100</v>
-      </c>
-      <c r="H14">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>115</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>100</v>
-      </c>
-      <c r="H15">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>115</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>100</v>
-      </c>
-      <c r="H16">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>115</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>100</v>
-      </c>
-      <c r="H17">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>115</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>100</v>
-      </c>
-      <c r="H18">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <v>115</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-      <c r="G19">
-        <v>100</v>
-      </c>
-      <c r="H19">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+      <c r="H21">
+        <v>115</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-      <c r="G20">
-        <v>100</v>
-      </c>
-      <c r="H20">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>115</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="D21">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
         <v>5</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <v>100</v>
-      </c>
-      <c r="H21">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>100</v>
+      </c>
+      <c r="H23">
+        <v>115</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
-      </c>
-      <c r="D22">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
         <v>5</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="G22">
-        <v>100</v>
-      </c>
-      <c r="H22">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="H24">
+        <v>115</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>4</v>
-      </c>
-      <c r="D23">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
         <v>6</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="G23">
-        <v>100</v>
-      </c>
-      <c r="H23">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+      <c r="H25">
+        <v>115</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>55</v>
       </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>100</v>
-      </c>
-      <c r="H24">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+      <c r="H26">
+        <v>115</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>56</v>
       </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>100</v>
-      </c>
-      <c r="H25">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
+      <c r="H27">
+        <v>115</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>57</v>
       </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <v>100</v>
-      </c>
-      <c r="H26">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+      <c r="H28">
+        <v>115</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <v>100</v>
-      </c>
-      <c r="H27">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>100</v>
+      </c>
+      <c r="H29">
+        <v>115</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>59</v>
       </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <v>100</v>
-      </c>
-      <c r="H28">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+      <c r="H30">
+        <v>115</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>60</v>
       </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29">
-        <v>100</v>
-      </c>
-      <c r="H29">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>100</v>
+      </c>
+      <c r="H31">
+        <v>115</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>61</v>
       </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30">
-        <v>4</v>
-      </c>
-      <c r="D30">
-        <v>4</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>3</v>
-      </c>
-      <c r="G30">
-        <v>100</v>
-      </c>
-      <c r="H30">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>100</v>
+      </c>
+      <c r="H32">
+        <v>115</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>62</v>
       </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
-      <c r="D31">
-        <v>4</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>3</v>
-      </c>
-      <c r="G31">
-        <v>100</v>
-      </c>
-      <c r="H31">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>100</v>
+      </c>
+      <c r="H33">
+        <v>115</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>63</v>
       </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32">
-        <v>4</v>
-      </c>
-      <c r="D32">
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
         <v>5</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>3</v>
-      </c>
-      <c r="G32">
-        <v>100</v>
-      </c>
-      <c r="H32">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
+      <c r="H34">
+        <v>115</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>64</v>
       </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33">
-        <v>4</v>
-      </c>
-      <c r="D33">
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
         <v>5</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>3</v>
-      </c>
-      <c r="G33">
-        <v>100</v>
-      </c>
-      <c r="H33">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>100</v>
+      </c>
+      <c r="H35">
+        <v>115</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>65</v>
       </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34">
-        <v>4</v>
-      </c>
-      <c r="D34">
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
         <v>6</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>100</v>
-      </c>
-      <c r="H34">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>100</v>
+      </c>
+      <c r="H36">
+        <v>115</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>66</v>
       </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>100</v>
-      </c>
-      <c r="H35">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>100</v>
+      </c>
+      <c r="H37">
+        <v>115</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>67</v>
       </c>
-      <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>100</v>
-      </c>
-      <c r="H36">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>100</v>
+      </c>
+      <c r="H38">
+        <v>115</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>68</v>
       </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37">
-        <v>100</v>
-      </c>
-      <c r="H37">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>100</v>
+      </c>
+      <c r="H39">
+        <v>115</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>69</v>
       </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-      <c r="G38">
-        <v>100</v>
-      </c>
-      <c r="H38">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+      <c r="H40">
+        <v>115</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>70</v>
       </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39">
-        <v>3</v>
-      </c>
-      <c r="D39">
-        <v>3</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-      <c r="G39">
-        <v>100</v>
-      </c>
-      <c r="H39">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>100</v>
+      </c>
+      <c r="H41">
+        <v>115</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>71</v>
       </c>
-      <c r="B40">
-        <v>3</v>
-      </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="D40">
-        <v>3</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-      <c r="G40">
-        <v>100</v>
-      </c>
-      <c r="H40">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>100</v>
+      </c>
+      <c r="H42">
+        <v>115</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>72</v>
       </c>
-      <c r="B41">
-        <v>3</v>
-      </c>
-      <c r="C41">
-        <v>4</v>
-      </c>
-      <c r="D41">
-        <v>4</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>3</v>
-      </c>
-      <c r="G41">
-        <v>100</v>
-      </c>
-      <c r="H41">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>100</v>
+      </c>
+      <c r="H43">
+        <v>115</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>73</v>
       </c>
-      <c r="B42">
-        <v>3</v>
-      </c>
-      <c r="C42">
-        <v>4</v>
-      </c>
-      <c r="D42">
-        <v>4</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>3</v>
-      </c>
-      <c r="G42">
-        <v>100</v>
-      </c>
-      <c r="H42">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="G44">
+        <v>100</v>
+      </c>
+      <c r="H44">
+        <v>115</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>74</v>
       </c>
-      <c r="B43">
-        <v>3</v>
-      </c>
-      <c r="C43">
-        <v>4</v>
-      </c>
-      <c r="D43">
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
         <v>5</v>
       </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>3</v>
-      </c>
-      <c r="G43">
-        <v>100</v>
-      </c>
-      <c r="H43">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>100</v>
+      </c>
+      <c r="H45">
+        <v>115</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>75</v>
       </c>
-      <c r="B44">
-        <v>3</v>
-      </c>
-      <c r="C44">
-        <v>4</v>
-      </c>
-      <c r="D44">
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
         <v>5</v>
       </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>3</v>
-      </c>
-      <c r="G44">
-        <v>100</v>
-      </c>
-      <c r="H44">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>100</v>
+      </c>
+      <c r="H46">
+        <v>115</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>76</v>
       </c>
-      <c r="B45">
-        <v>3</v>
-      </c>
-      <c r="C45">
-        <v>4</v>
-      </c>
-      <c r="D45">
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
         <v>6</v>
       </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>3</v>
-      </c>
-      <c r="G45">
-        <v>100</v>
-      </c>
-      <c r="H45">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>100</v>
+      </c>
+      <c r="H47">
+        <v>115</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>77</v>
       </c>
-      <c r="B46">
-        <v>4</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>100</v>
-      </c>
-      <c r="H46">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>100</v>
+      </c>
+      <c r="H48">
+        <v>115</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>78</v>
       </c>
-      <c r="B47">
-        <v>4</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>100</v>
-      </c>
-      <c r="H47">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>100</v>
+      </c>
+      <c r="H49">
+        <v>115</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>79</v>
       </c>
-      <c r="B48">
-        <v>4</v>
-      </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>2</v>
-      </c>
-      <c r="G48">
-        <v>100</v>
-      </c>
-      <c r="H48">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>100</v>
+      </c>
+      <c r="H50">
+        <v>115</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>80</v>
       </c>
-      <c r="B49">
-        <v>4</v>
-      </c>
-      <c r="C49">
-        <v>2</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>2</v>
-      </c>
-      <c r="G49">
-        <v>100</v>
-      </c>
-      <c r="H49">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>100</v>
+      </c>
+      <c r="H51">
+        <v>115</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>81</v>
       </c>
-      <c r="B50">
-        <v>4</v>
-      </c>
-      <c r="C50">
-        <v>3</v>
-      </c>
-      <c r="D50">
-        <v>3</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>2</v>
-      </c>
-      <c r="G50">
-        <v>100</v>
-      </c>
-      <c r="H50">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>100</v>
+      </c>
+      <c r="H52">
+        <v>115</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>82</v>
       </c>
-      <c r="B51">
-        <v>4</v>
-      </c>
-      <c r="C51">
-        <v>3</v>
-      </c>
-      <c r="D51">
-        <v>3</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>2</v>
-      </c>
-      <c r="G51">
-        <v>100</v>
-      </c>
-      <c r="H51">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>100</v>
+      </c>
+      <c r="H53">
+        <v>115</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>83</v>
       </c>
-      <c r="B52">
-        <v>4</v>
-      </c>
-      <c r="C52">
-        <v>4</v>
-      </c>
-      <c r="D52">
-        <v>4</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>3</v>
-      </c>
-      <c r="G52">
-        <v>100</v>
-      </c>
-      <c r="H52">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>100</v>
+      </c>
+      <c r="H54">
+        <v>115</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>84</v>
       </c>
-      <c r="B53">
-        <v>4</v>
-      </c>
-      <c r="C53">
-        <v>4</v>
-      </c>
-      <c r="D53">
-        <v>4</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>3</v>
-      </c>
-      <c r="G53">
-        <v>100</v>
-      </c>
-      <c r="H53">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>100</v>
+      </c>
+      <c r="H55">
+        <v>115</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>85</v>
       </c>
-      <c r="B54">
-        <v>4</v>
-      </c>
-      <c r="C54">
-        <v>4</v>
-      </c>
-      <c r="D54">
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56">
         <v>5</v>
       </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>3</v>
-      </c>
-      <c r="G54">
-        <v>100</v>
-      </c>
-      <c r="H54">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>100</v>
+      </c>
+      <c r="H56">
+        <v>115</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>86</v>
       </c>
-      <c r="B55">
-        <v>4</v>
-      </c>
-      <c r="C55">
-        <v>4</v>
-      </c>
-      <c r="D55">
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57">
         <v>5</v>
       </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>3</v>
-      </c>
-      <c r="G55">
-        <v>100</v>
-      </c>
-      <c r="H55">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>100</v>
+      </c>
+      <c r="H57">
+        <v>115</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>87</v>
       </c>
-      <c r="B56">
-        <v>4</v>
-      </c>
-      <c r="C56">
-        <v>4</v>
-      </c>
-      <c r="D56">
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58">
         <v>6</v>
       </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>3</v>
-      </c>
-      <c r="G56">
-        <v>100</v>
-      </c>
-      <c r="H56">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <v>100</v>
+      </c>
+      <c r="H58">
+        <v>115</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>88</v>
-      </c>
-      <c r="B57">
-        <v>5</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <v>100</v>
-      </c>
-      <c r="H57">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>89</v>
-      </c>
-      <c r="B58">
-        <v>5</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58">
-        <v>100</v>
-      </c>
-      <c r="H58">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>90</v>
       </c>
       <c r="B59">
         <v>5</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G59">
         <v>100</v>
       </c>
       <c r="H59">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B60">
         <v>5</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60">
         <v>100</v>
       </c>
       <c r="H60">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B61">
         <v>5</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2448,21 +2695,24 @@
         <v>100</v>
       </c>
       <c r="H61">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B62">
         <v>5</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2474,64 +2724,73 @@
         <v>100</v>
       </c>
       <c r="H62">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B63">
         <v>5</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G63">
         <v>100</v>
       </c>
       <c r="H63">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B64">
         <v>5</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G64">
         <v>100</v>
       </c>
       <c r="H64">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -2540,7 +2799,7 @@
         <v>4</v>
       </c>
       <c r="D65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -2552,12 +2811,15 @@
         <v>100</v>
       </c>
       <c r="H65">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -2566,7 +2828,7 @@
         <v>4</v>
       </c>
       <c r="D66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -2578,12 +2840,15 @@
         <v>100</v>
       </c>
       <c r="H66">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B67">
         <v>5</v>
@@ -2592,137 +2857,152 @@
         <v>4</v>
       </c>
       <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <v>100</v>
+      </c>
+      <c r="H67">
+        <v>115</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>97</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68">
+        <v>100</v>
+      </c>
+      <c r="H68">
+        <v>115</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>98</v>
+      </c>
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69">
         <v>6</v>
       </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67">
-        <v>3</v>
-      </c>
-      <c r="G67">
-        <v>100</v>
-      </c>
-      <c r="H67">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+      <c r="G69">
+        <v>100</v>
+      </c>
+      <c r="H69">
+        <v>115</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>99</v>
-      </c>
-      <c r="B68">
-        <v>6</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68">
-        <v>100</v>
-      </c>
-      <c r="H68">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>100</v>
-      </c>
-      <c r="B69">
-        <v>6</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69">
-        <v>100</v>
-      </c>
-      <c r="H69">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>101</v>
       </c>
       <c r="B70">
         <v>6</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G70">
         <v>100</v>
       </c>
       <c r="H70">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B71">
         <v>6</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G71">
         <v>100</v>
       </c>
       <c r="H71">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B72">
         <v>6</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2734,21 +3014,24 @@
         <v>100</v>
       </c>
       <c r="H72">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B73">
         <v>6</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2760,64 +3043,73 @@
         <v>100</v>
       </c>
       <c r="H73">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B74">
         <v>6</v>
       </c>
       <c r="C74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G74">
         <v>100</v>
       </c>
       <c r="H74">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B75">
         <v>6</v>
       </c>
       <c r="C75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G75">
         <v>100</v>
       </c>
       <c r="H75">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B76">
         <v>6</v>
@@ -2826,7 +3118,7 @@
         <v>4</v>
       </c>
       <c r="D76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2838,12 +3130,15 @@
         <v>100</v>
       </c>
       <c r="H76">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B77">
         <v>6</v>
@@ -2852,7 +3147,7 @@
         <v>4</v>
       </c>
       <c r="D77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -2864,12 +3159,15 @@
         <v>100</v>
       </c>
       <c r="H77">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B78">
         <v>6</v>
@@ -2878,137 +3176,152 @@
         <v>4</v>
       </c>
       <c r="D78">
+        <v>5</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>3</v>
+      </c>
+      <c r="G78">
+        <v>100</v>
+      </c>
+      <c r="H78">
+        <v>115</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>108</v>
+      </c>
+      <c r="B79">
         <v>6</v>
       </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>3</v>
-      </c>
-      <c r="G78">
-        <v>100</v>
-      </c>
-      <c r="H78">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <v>5</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="G79">
+        <v>100</v>
+      </c>
+      <c r="H79">
+        <v>115</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>109</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80">
+        <v>6</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+      <c r="G80">
+        <v>100</v>
+      </c>
+      <c r="H80">
+        <v>115</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>110</v>
-      </c>
-      <c r="B79">
-        <v>7</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-      <c r="G79">
-        <v>100</v>
-      </c>
-      <c r="H79">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>111</v>
-      </c>
-      <c r="B80">
-        <v>7</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80">
-        <v>100</v>
-      </c>
-      <c r="H80">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>112</v>
       </c>
       <c r="B81">
         <v>7</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E81">
         <v>1</v>
       </c>
       <c r="F81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G81">
         <v>100</v>
       </c>
       <c r="H81">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B82">
         <v>7</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
       <c r="F82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G82">
         <v>100</v>
       </c>
       <c r="H82">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B83">
         <v>7</v>
       </c>
       <c r="C83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -3020,21 +3333,24 @@
         <v>100</v>
       </c>
       <c r="H83">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B84">
         <v>7</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -3046,64 +3362,73 @@
         <v>100</v>
       </c>
       <c r="H84">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B85">
         <v>7</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E85">
         <v>1</v>
       </c>
       <c r="F85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G85">
         <v>100</v>
       </c>
       <c r="H85">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B86">
         <v>7</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="F86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G86">
         <v>100</v>
       </c>
       <c r="H86">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B87">
         <v>7</v>
@@ -3112,7 +3437,7 @@
         <v>4</v>
       </c>
       <c r="D87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -3124,12 +3449,15 @@
         <v>100</v>
       </c>
       <c r="H87">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B88">
         <v>7</v>
@@ -3138,7 +3466,7 @@
         <v>4</v>
       </c>
       <c r="D88">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -3150,12 +3478,15 @@
         <v>100</v>
       </c>
       <c r="H88">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B89">
         <v>7</v>
@@ -3164,137 +3495,152 @@
         <v>4</v>
       </c>
       <c r="D89">
+        <v>5</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>3</v>
+      </c>
+      <c r="G89">
+        <v>100</v>
+      </c>
+      <c r="H89">
+        <v>115</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>119</v>
+      </c>
+      <c r="B90">
+        <v>7</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+      <c r="D90">
+        <v>5</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>3</v>
+      </c>
+      <c r="G90">
+        <v>100</v>
+      </c>
+      <c r="H90">
+        <v>115</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>120</v>
+      </c>
+      <c r="B91">
+        <v>7</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91">
         <v>6</v>
       </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-      <c r="F89">
-        <v>3</v>
-      </c>
-      <c r="G89">
-        <v>100</v>
-      </c>
-      <c r="H89">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>3</v>
+      </c>
+      <c r="G91">
+        <v>100</v>
+      </c>
+      <c r="H91">
+        <v>115</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>121</v>
-      </c>
-      <c r="B90">
-        <v>8</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>1</v>
-      </c>
-      <c r="G90">
-        <v>100</v>
-      </c>
-      <c r="H90">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>122</v>
-      </c>
-      <c r="B91">
-        <v>8</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-      <c r="G91">
-        <v>100</v>
-      </c>
-      <c r="H91">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>123</v>
       </c>
       <c r="B92">
         <v>8</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G92">
         <v>100</v>
       </c>
       <c r="H92">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B93">
         <v>8</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G93">
         <v>100</v>
       </c>
       <c r="H93">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B94">
         <v>8</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -3306,21 +3652,24 @@
         <v>100</v>
       </c>
       <c r="H94">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B95">
         <v>8</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -3332,64 +3681,73 @@
         <v>100</v>
       </c>
       <c r="H95">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B96">
         <v>8</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G96">
         <v>100</v>
       </c>
       <c r="H96">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B97">
         <v>8</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G97">
         <v>100</v>
       </c>
       <c r="H97">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B98">
         <v>8</v>
@@ -3398,7 +3756,7 @@
         <v>4</v>
       </c>
       <c r="D98">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -3410,12 +3768,15 @@
         <v>100</v>
       </c>
       <c r="H98">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B99">
         <v>8</v>
@@ -3424,7 +3785,7 @@
         <v>4</v>
       </c>
       <c r="D99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -3436,12 +3797,15 @@
         <v>100</v>
       </c>
       <c r="H99">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B100">
         <v>8</v>
@@ -3450,19 +3814,80 @@
         <v>4</v>
       </c>
       <c r="D100">
+        <v>5</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="G100">
+        <v>100</v>
+      </c>
+      <c r="H100">
+        <v>115</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>130</v>
+      </c>
+      <c r="B101">
+        <v>8</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101">
+        <v>5</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>3</v>
+      </c>
+      <c r="G101">
+        <v>100</v>
+      </c>
+      <c r="H101">
+        <v>115</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>131</v>
+      </c>
+      <c r="B102">
+        <v>8</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102">
         <v>6</v>
       </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <v>3</v>
-      </c>
-      <c r="G100">
-        <v>100</v>
-      </c>
-      <c r="H100">
-        <v>1000</v>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>3</v>
+      </c>
+      <c r="G102">
+        <v>100</v>
+      </c>
+      <c r="H102">
+        <v>115</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85993F7D-9078-46E0-A643-4AA85F294C6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B275AFFA-03AF-4287-B370-A7B6A51155BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="165">
   <si>
     <t>Equip0001</t>
   </si>
@@ -482,6 +482,54 @@
   </si>
   <si>
     <t>Equip0102</t>
+  </si>
+  <si>
+    <t>Equip1002</t>
+  </si>
+  <si>
+    <t>Equip1102</t>
+  </si>
+  <si>
+    <t>Equip2002</t>
+  </si>
+  <si>
+    <t>Equip2102</t>
+  </si>
+  <si>
+    <t>Equip3002</t>
+  </si>
+  <si>
+    <t>Equip3102</t>
+  </si>
+  <si>
+    <t>Equip4002</t>
+  </si>
+  <si>
+    <t>Equip4102</t>
+  </si>
+  <si>
+    <t>Equip5002</t>
+  </si>
+  <si>
+    <t>Equip5102</t>
+  </si>
+  <si>
+    <t>Equip6002</t>
+  </si>
+  <si>
+    <t>Equip6102</t>
+  </si>
+  <si>
+    <t>Equip7002</t>
+  </si>
+  <si>
+    <t>Equip7102</t>
+  </si>
+  <si>
+    <t>Equip8002</t>
+  </si>
+  <si>
+    <t>Equip8102</t>
   </si>
 </sst>
 </file>
@@ -848,7 +896,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -927,6 +975,9 @@
         <v>115</v>
       </c>
       <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
         <v>0</v>
       </c>
       <c r="L2" t="s">
@@ -965,13 +1016,10 @@
         <v>115</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>1.0000009999999999</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L3" t="s">
         <v>142</v>
@@ -1009,13 +1057,10 @@
         <v>115</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4">
         <v>0</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
       </c>
       <c r="L4" t="s">
         <v>142</v>
@@ -1094,7 +1139,10 @@
         <v>115</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
       </c>
       <c r="L6" t="s">
         <v>142</v>
@@ -1132,6 +1180,9 @@
         <v>115</v>
       </c>
       <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
         <v>0</v>
       </c>
     </row>
@@ -1161,6 +1212,9 @@
         <v>115</v>
       </c>
       <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
         <v>0</v>
       </c>
     </row>
@@ -1190,6 +1244,9 @@
         <v>115</v>
       </c>
       <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
         <v>0</v>
       </c>
     </row>
@@ -1219,7 +1276,10 @@
         <v>115</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>-20</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -1248,7 +1308,10 @@
         <v>115</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>-20</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -1277,7 +1340,10 @@
         <v>115</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>-10</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1306,7 +1372,10 @@
         <v>115</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>-10</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1335,7 +1404,10 @@
         <v>115</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>-5</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1364,1506 +1436,1662 @@
         <v>115</v>
       </c>
       <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>115</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>100</v>
-      </c>
-      <c r="H16">
-        <v>115</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>115</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>115</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>100</v>
-      </c>
-      <c r="H17">
-        <v>115</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>115</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>100</v>
-      </c>
-      <c r="H18">
-        <v>115</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <v>115</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>15</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>100</v>
-      </c>
-      <c r="H19">
-        <v>115</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+      <c r="H21">
+        <v>115</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <v>100</v>
-      </c>
-      <c r="H20">
-        <v>115</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>115</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <v>100</v>
-      </c>
-      <c r="H21">
-        <v>115</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>100</v>
+      </c>
+      <c r="H23">
+        <v>115</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>18</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="G22">
-        <v>100</v>
-      </c>
-      <c r="H22">
-        <v>115</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="H24">
+        <v>115</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>19</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>4</v>
-      </c>
-      <c r="D23">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
         <v>5</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="G23">
-        <v>100</v>
-      </c>
-      <c r="H23">
-        <v>115</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+      <c r="H25">
+        <v>115</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>20</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>4</v>
-      </c>
-      <c r="D24">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
         <v>5</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-      <c r="G24">
-        <v>100</v>
-      </c>
-      <c r="H24">
-        <v>115</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+      <c r="H26">
+        <v>115</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>21</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="D25">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
         <v>6</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>3</v>
-      </c>
-      <c r="G25">
-        <v>100</v>
-      </c>
-      <c r="H25">
-        <v>115</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
+      <c r="H27">
+        <v>115</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>55</v>
       </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>100</v>
-      </c>
-      <c r="H26">
-        <v>115</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+      <c r="H28">
+        <v>115</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>100</v>
+      </c>
+      <c r="H29">
+        <v>115</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>56</v>
       </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>100</v>
-      </c>
-      <c r="H27">
-        <v>115</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+      <c r="H30">
+        <v>115</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>100</v>
+      </c>
+      <c r="H31">
+        <v>115</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>57</v>
       </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <v>100</v>
-      </c>
-      <c r="H28">
-        <v>115</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>100</v>
+      </c>
+      <c r="H32">
+        <v>115</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>58</v>
       </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29">
-        <v>100</v>
-      </c>
-      <c r="H29">
-        <v>115</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>100</v>
+      </c>
+      <c r="H33">
+        <v>115</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>59</v>
       </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30">
-        <v>3</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="G30">
-        <v>100</v>
-      </c>
-      <c r="H30">
-        <v>115</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
+      <c r="H34">
+        <v>115</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>60</v>
       </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="G31">
-        <v>100</v>
-      </c>
-      <c r="H31">
-        <v>115</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>100</v>
+      </c>
+      <c r="H35">
+        <v>115</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>61</v>
       </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32">
-        <v>4</v>
-      </c>
-      <c r="D32">
-        <v>4</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>3</v>
-      </c>
-      <c r="G32">
-        <v>100</v>
-      </c>
-      <c r="H32">
-        <v>115</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>100</v>
+      </c>
+      <c r="H36">
+        <v>115</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>62</v>
       </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33">
-        <v>4</v>
-      </c>
-      <c r="D33">
-        <v>4</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>3</v>
-      </c>
-      <c r="G33">
-        <v>100</v>
-      </c>
-      <c r="H33">
-        <v>115</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>100</v>
+      </c>
+      <c r="H37">
+        <v>115</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>63</v>
       </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34">
-        <v>4</v>
-      </c>
-      <c r="D34">
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
         <v>5</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>100</v>
-      </c>
-      <c r="H34">
-        <v>115</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>100</v>
+      </c>
+      <c r="H38">
+        <v>115</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>64</v>
       </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
-      <c r="D35">
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
         <v>5</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>3</v>
-      </c>
-      <c r="G35">
-        <v>100</v>
-      </c>
-      <c r="H35">
-        <v>115</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>100</v>
+      </c>
+      <c r="H39">
+        <v>115</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>65</v>
       </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36">
-        <v>4</v>
-      </c>
-      <c r="D36">
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
         <v>6</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>3</v>
-      </c>
-      <c r="G36">
-        <v>100</v>
-      </c>
-      <c r="H36">
-        <v>115</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+      <c r="H40">
+        <v>115</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>66</v>
       </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>100</v>
-      </c>
-      <c r="H37">
-        <v>115</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>100</v>
+      </c>
+      <c r="H41">
+        <v>115</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>100</v>
+      </c>
+      <c r="H42">
+        <v>115</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>67</v>
       </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>100</v>
-      </c>
-      <c r="H38">
-        <v>115</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>100</v>
+      </c>
+      <c r="H43">
+        <v>115</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>154</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>100</v>
+      </c>
+      <c r="H44">
+        <v>115</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>68</v>
       </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-      <c r="G39">
-        <v>100</v>
-      </c>
-      <c r="H39">
-        <v>115</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>100</v>
+      </c>
+      <c r="H45">
+        <v>115</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>69</v>
       </c>
-      <c r="B40">
-        <v>3</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-      <c r="G40">
-        <v>100</v>
-      </c>
-      <c r="H40">
-        <v>115</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>100</v>
+      </c>
+      <c r="H46">
+        <v>115</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>70</v>
       </c>
-      <c r="B41">
-        <v>3</v>
-      </c>
-      <c r="C41">
-        <v>3</v>
-      </c>
-      <c r="D41">
-        <v>3</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-      <c r="G41">
-        <v>100</v>
-      </c>
-      <c r="H41">
-        <v>115</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>100</v>
+      </c>
+      <c r="H47">
+        <v>115</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>71</v>
       </c>
-      <c r="B42">
-        <v>3</v>
-      </c>
-      <c r="C42">
-        <v>3</v>
-      </c>
-      <c r="D42">
-        <v>3</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-      <c r="G42">
-        <v>100</v>
-      </c>
-      <c r="H42">
-        <v>115</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>100</v>
+      </c>
+      <c r="H48">
+        <v>115</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>72</v>
       </c>
-      <c r="B43">
-        <v>3</v>
-      </c>
-      <c r="C43">
-        <v>4</v>
-      </c>
-      <c r="D43">
-        <v>4</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>3</v>
-      </c>
-      <c r="G43">
-        <v>100</v>
-      </c>
-      <c r="H43">
-        <v>115</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>100</v>
+      </c>
+      <c r="H49">
+        <v>115</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>73</v>
       </c>
-      <c r="B44">
-        <v>3</v>
-      </c>
-      <c r="C44">
-        <v>4</v>
-      </c>
-      <c r="D44">
-        <v>4</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>3</v>
-      </c>
-      <c r="G44">
-        <v>100</v>
-      </c>
-      <c r="H44">
-        <v>115</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>100</v>
+      </c>
+      <c r="H50">
+        <v>115</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>74</v>
       </c>
-      <c r="B45">
-        <v>3</v>
-      </c>
-      <c r="C45">
-        <v>4</v>
-      </c>
-      <c r="D45">
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
         <v>5</v>
       </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>3</v>
-      </c>
-      <c r="G45">
-        <v>100</v>
-      </c>
-      <c r="H45">
-        <v>115</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>100</v>
+      </c>
+      <c r="H51">
+        <v>115</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+      <c r="J51">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>75</v>
       </c>
-      <c r="B46">
-        <v>3</v>
-      </c>
-      <c r="C46">
-        <v>4</v>
-      </c>
-      <c r="D46">
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52">
         <v>5</v>
       </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>3</v>
-      </c>
-      <c r="G46">
-        <v>100</v>
-      </c>
-      <c r="H46">
-        <v>115</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>100</v>
+      </c>
+      <c r="H52">
+        <v>115</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>76</v>
       </c>
-      <c r="B47">
-        <v>3</v>
-      </c>
-      <c r="C47">
-        <v>4</v>
-      </c>
-      <c r="D47">
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
         <v>6</v>
       </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>3</v>
-      </c>
-      <c r="G47">
-        <v>100</v>
-      </c>
-      <c r="H47">
-        <v>115</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>100</v>
+      </c>
+      <c r="H53">
+        <v>115</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>77</v>
       </c>
-      <c r="B48">
-        <v>4</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>100</v>
-      </c>
-      <c r="H48">
-        <v>115</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>100</v>
+      </c>
+      <c r="H54">
+        <v>115</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>100</v>
+      </c>
+      <c r="H55">
+        <v>115</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>78</v>
       </c>
-      <c r="B49">
-        <v>4</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>100</v>
-      </c>
-      <c r="H49">
-        <v>115</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>100</v>
+      </c>
+      <c r="H56">
+        <v>115</v>
+      </c>
+      <c r="I56">
+        <v>3</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>100</v>
+      </c>
+      <c r="H57">
+        <v>115</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>79</v>
       </c>
-      <c r="B50">
-        <v>4</v>
-      </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>2</v>
-      </c>
-      <c r="G50">
-        <v>100</v>
-      </c>
-      <c r="H50">
-        <v>115</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>100</v>
+      </c>
+      <c r="H58">
+        <v>115</v>
+      </c>
+      <c r="I58">
+        <v>3</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>80</v>
       </c>
-      <c r="B51">
-        <v>4</v>
-      </c>
-      <c r="C51">
-        <v>2</v>
-      </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>2</v>
-      </c>
-      <c r="G51">
-        <v>100</v>
-      </c>
-      <c r="H51">
-        <v>115</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>100</v>
+      </c>
+      <c r="H59">
+        <v>115</v>
+      </c>
+      <c r="I59">
+        <v>3</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>81</v>
       </c>
-      <c r="B52">
-        <v>4</v>
-      </c>
-      <c r="C52">
-        <v>3</v>
-      </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>2</v>
-      </c>
-      <c r="G52">
-        <v>100</v>
-      </c>
-      <c r="H52">
-        <v>115</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>100</v>
+      </c>
+      <c r="H60">
+        <v>115</v>
+      </c>
+      <c r="I60">
+        <v>3</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>82</v>
       </c>
-      <c r="B53">
-        <v>4</v>
-      </c>
-      <c r="C53">
-        <v>3</v>
-      </c>
-      <c r="D53">
-        <v>3</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>2</v>
-      </c>
-      <c r="G53">
-        <v>100</v>
-      </c>
-      <c r="H53">
-        <v>115</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>100</v>
+      </c>
+      <c r="H61">
+        <v>115</v>
+      </c>
+      <c r="I61">
+        <v>3</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>83</v>
       </c>
-      <c r="B54">
-        <v>4</v>
-      </c>
-      <c r="C54">
-        <v>4</v>
-      </c>
-      <c r="D54">
-        <v>4</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>3</v>
-      </c>
-      <c r="G54">
-        <v>100</v>
-      </c>
-      <c r="H54">
-        <v>115</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>100</v>
+      </c>
+      <c r="H62">
+        <v>115</v>
+      </c>
+      <c r="I62">
+        <v>3</v>
+      </c>
+      <c r="J62">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>84</v>
       </c>
-      <c r="B55">
-        <v>4</v>
-      </c>
-      <c r="C55">
-        <v>4</v>
-      </c>
-      <c r="D55">
-        <v>4</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>3</v>
-      </c>
-      <c r="G55">
-        <v>100</v>
-      </c>
-      <c r="H55">
-        <v>115</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>100</v>
+      </c>
+      <c r="H63">
+        <v>115</v>
+      </c>
+      <c r="I63">
+        <v>3</v>
+      </c>
+      <c r="J63">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>85</v>
       </c>
-      <c r="B56">
-        <v>4</v>
-      </c>
-      <c r="C56">
-        <v>4</v>
-      </c>
-      <c r="D56">
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
         <v>5</v>
       </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>3</v>
-      </c>
-      <c r="G56">
-        <v>100</v>
-      </c>
-      <c r="H56">
-        <v>115</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>100</v>
+      </c>
+      <c r="H64">
+        <v>115</v>
+      </c>
+      <c r="I64">
+        <v>3</v>
+      </c>
+      <c r="J64">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>86</v>
       </c>
-      <c r="B57">
-        <v>4</v>
-      </c>
-      <c r="C57">
-        <v>4</v>
-      </c>
-      <c r="D57">
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65">
         <v>5</v>
       </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>3</v>
-      </c>
-      <c r="G57">
-        <v>100</v>
-      </c>
-      <c r="H57">
-        <v>115</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+      <c r="G65">
+        <v>100</v>
+      </c>
+      <c r="H65">
+        <v>115</v>
+      </c>
+      <c r="I65">
+        <v>3</v>
+      </c>
+      <c r="J65">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>87</v>
       </c>
-      <c r="B58">
-        <v>4</v>
-      </c>
-      <c r="C58">
-        <v>4</v>
-      </c>
-      <c r="D58">
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66">
         <v>6</v>
       </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>3</v>
-      </c>
-      <c r="G58">
-        <v>100</v>
-      </c>
-      <c r="H58">
-        <v>115</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>100</v>
+      </c>
+      <c r="H66">
+        <v>115</v>
+      </c>
+      <c r="I66">
+        <v>3</v>
+      </c>
+      <c r="J66">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>88</v>
-      </c>
-      <c r="B59">
-        <v>5</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59">
-        <v>100</v>
-      </c>
-      <c r="H59">
-        <v>115</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>89</v>
-      </c>
-      <c r="B60">
-        <v>5</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60">
-        <v>100</v>
-      </c>
-      <c r="H60">
-        <v>115</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>90</v>
-      </c>
-      <c r="B61">
-        <v>5</v>
-      </c>
-      <c r="C61">
-        <v>2</v>
-      </c>
-      <c r="D61">
-        <v>2</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>2</v>
-      </c>
-      <c r="G61">
-        <v>100</v>
-      </c>
-      <c r="H61">
-        <v>115</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>91</v>
-      </c>
-      <c r="B62">
-        <v>5</v>
-      </c>
-      <c r="C62">
-        <v>2</v>
-      </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62">
-        <v>2</v>
-      </c>
-      <c r="G62">
-        <v>100</v>
-      </c>
-      <c r="H62">
-        <v>115</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>92</v>
-      </c>
-      <c r="B63">
-        <v>5</v>
-      </c>
-      <c r="C63">
-        <v>3</v>
-      </c>
-      <c r="D63">
-        <v>3</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63">
-        <v>2</v>
-      </c>
-      <c r="G63">
-        <v>100</v>
-      </c>
-      <c r="H63">
-        <v>115</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>93</v>
-      </c>
-      <c r="B64">
-        <v>5</v>
-      </c>
-      <c r="C64">
-        <v>3</v>
-      </c>
-      <c r="D64">
-        <v>3</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64">
-        <v>2</v>
-      </c>
-      <c r="G64">
-        <v>100</v>
-      </c>
-      <c r="H64">
-        <v>115</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>94</v>
-      </c>
-      <c r="B65">
-        <v>5</v>
-      </c>
-      <c r="C65">
-        <v>4</v>
-      </c>
-      <c r="D65">
-        <v>4</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65">
-        <v>3</v>
-      </c>
-      <c r="G65">
-        <v>100</v>
-      </c>
-      <c r="H65">
-        <v>115</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>95</v>
-      </c>
-      <c r="B66">
-        <v>5</v>
-      </c>
-      <c r="C66">
-        <v>4</v>
-      </c>
-      <c r="D66">
-        <v>4</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>3</v>
-      </c>
-      <c r="G66">
-        <v>100</v>
-      </c>
-      <c r="H66">
-        <v>115</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>96</v>
       </c>
       <c r="B67">
         <v>5</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G67">
         <v>100</v>
@@ -2872,27 +3100,30 @@
         <v>115</v>
       </c>
       <c r="I67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="B68">
         <v>5</v>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G68">
         <v>100</v>
@@ -2901,27 +3132,30 @@
         <v>115</v>
       </c>
       <c r="I68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B69">
         <v>5</v>
       </c>
       <c r="C69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G69">
         <v>100</v>
@@ -2930,24 +3164,27 @@
         <v>115</v>
       </c>
       <c r="I69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B70">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -2959,27 +3196,30 @@
         <v>115</v>
       </c>
       <c r="I70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B71">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71">
         <v>100</v>
@@ -2988,15 +3228,18 @@
         <v>115</v>
       </c>
       <c r="I71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B72">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -3005,7 +3248,7 @@
         <v>2</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
         <v>2</v>
@@ -3017,24 +3260,27 @@
         <v>115</v>
       </c>
       <c r="I72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B73">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
         <v>2</v>
@@ -3046,15 +3292,18 @@
         <v>115</v>
       </c>
       <c r="I73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B74">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -3063,7 +3312,7 @@
         <v>3</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
         <v>2</v>
@@ -3075,27 +3324,30 @@
         <v>115</v>
       </c>
       <c r="I74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B75">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G75">
         <v>100</v>
@@ -3104,15 +3356,18 @@
         <v>115</v>
       </c>
       <c r="I75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J75">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B76">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -3121,7 +3376,7 @@
         <v>4</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
         <v>3</v>
@@ -3133,24 +3388,27 @@
         <v>115</v>
       </c>
       <c r="I76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J76">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C77">
         <v>4</v>
       </c>
       <c r="D77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
         <v>3</v>
@@ -3162,15 +3420,18 @@
         <v>115</v>
       </c>
       <c r="I77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J77">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B78">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -3179,7 +3440,7 @@
         <v>5</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
         <v>3</v>
@@ -3191,24 +3452,27 @@
         <v>115</v>
       </c>
       <c r="I78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J78">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79">
         <v>6</v>
       </c>
-      <c r="C79">
-        <v>4</v>
-      </c>
-      <c r="D79">
-        <v>5</v>
-      </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
         <v>3</v>
@@ -3220,45 +3484,51 @@
         <v>115</v>
       </c>
       <c r="I79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J79">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B80">
         <v>6</v>
       </c>
       <c r="C80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>100</v>
+      </c>
+      <c r="H80">
+        <v>115</v>
+      </c>
+      <c r="I80">
+        <v>3</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81">
         <v>6</v>
       </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>3</v>
-      </c>
-      <c r="G80">
-        <v>100</v>
-      </c>
-      <c r="H80">
-        <v>115</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>110</v>
-      </c>
-      <c r="B81">
-        <v>7</v>
-      </c>
       <c r="C81">
         <v>0</v>
       </c>
@@ -3266,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -3278,15 +3548,18 @@
         <v>115</v>
       </c>
       <c r="I81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B82">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -3295,7 +3568,7 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -3307,27 +3580,30 @@
         <v>115</v>
       </c>
       <c r="I82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="B83">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G83">
         <v>100</v>
@@ -3336,15 +3612,18 @@
         <v>115</v>
       </c>
       <c r="I83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B84">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -3353,7 +3632,7 @@
         <v>2</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
         <v>2</v>
@@ -3365,24 +3644,27 @@
         <v>115</v>
       </c>
       <c r="I84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B85">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
         <v>2</v>
@@ -3394,15 +3676,18 @@
         <v>115</v>
       </c>
       <c r="I85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B86">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -3411,7 +3696,7 @@
         <v>3</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
         <v>2</v>
@@ -3423,27 +3708,30 @@
         <v>115</v>
       </c>
       <c r="I86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B87">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G87">
         <v>100</v>
@@ -3452,15 +3740,18 @@
         <v>115</v>
       </c>
       <c r="I87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B88">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -3469,7 +3760,7 @@
         <v>4</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
         <v>3</v>
@@ -3481,24 +3772,27 @@
         <v>115</v>
       </c>
       <c r="I88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J88">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B89">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C89">
         <v>4</v>
       </c>
       <c r="D89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
         <v>3</v>
@@ -3510,15 +3804,18 @@
         <v>115</v>
       </c>
       <c r="I89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J89">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B90">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -3527,7 +3824,7 @@
         <v>5</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
         <v>3</v>
@@ -3539,355 +3836,906 @@
         <v>115</v>
       </c>
       <c r="I90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J90">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>108</v>
+      </c>
+      <c r="B91">
+        <v>6</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>5</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>3</v>
+      </c>
+      <c r="G91">
+        <v>100</v>
+      </c>
+      <c r="H91">
+        <v>115</v>
+      </c>
+      <c r="I91">
+        <v>3</v>
+      </c>
+      <c r="J91">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>109</v>
+      </c>
+      <c r="B92">
+        <v>6</v>
+      </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
+      <c r="D92">
+        <v>6</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>3</v>
+      </c>
+      <c r="G92">
+        <v>100</v>
+      </c>
+      <c r="H92">
+        <v>115</v>
+      </c>
+      <c r="I92">
+        <v>3</v>
+      </c>
+      <c r="J92">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>110</v>
+      </c>
+      <c r="B93">
+        <v>7</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>100</v>
+      </c>
+      <c r="H93">
+        <v>115</v>
+      </c>
+      <c r="I93">
+        <v>3</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>161</v>
+      </c>
+      <c r="B94">
+        <v>7</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>100</v>
+      </c>
+      <c r="H94">
+        <v>115</v>
+      </c>
+      <c r="I94">
+        <v>3</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>111</v>
+      </c>
+      <c r="B95">
+        <v>7</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>100</v>
+      </c>
+      <c r="H95">
+        <v>115</v>
+      </c>
+      <c r="I95">
+        <v>3</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>162</v>
+      </c>
+      <c r="B96">
+        <v>7</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>100</v>
+      </c>
+      <c r="H96">
+        <v>115</v>
+      </c>
+      <c r="I96">
+        <v>3</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>112</v>
+      </c>
+      <c r="B97">
+        <v>7</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97">
+        <v>100</v>
+      </c>
+      <c r="H97">
+        <v>115</v>
+      </c>
+      <c r="I97">
+        <v>3</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98">
+        <v>7</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98">
+        <v>100</v>
+      </c>
+      <c r="H98">
+        <v>115</v>
+      </c>
+      <c r="I98">
+        <v>3</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>114</v>
+      </c>
+      <c r="B99">
+        <v>7</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99">
+        <v>100</v>
+      </c>
+      <c r="H99">
+        <v>115</v>
+      </c>
+      <c r="I99">
+        <v>3</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>115</v>
+      </c>
+      <c r="B100">
+        <v>7</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100">
+        <v>100</v>
+      </c>
+      <c r="H100">
+        <v>115</v>
+      </c>
+      <c r="I100">
+        <v>3</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>116</v>
+      </c>
+      <c r="B101">
+        <v>7</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101">
+        <v>4</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>3</v>
+      </c>
+      <c r="G101">
+        <v>100</v>
+      </c>
+      <c r="H101">
+        <v>115</v>
+      </c>
+      <c r="I101">
+        <v>3</v>
+      </c>
+      <c r="J101">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>117</v>
+      </c>
+      <c r="B102">
+        <v>7</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102">
+        <v>4</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>3</v>
+      </c>
+      <c r="G102">
+        <v>100</v>
+      </c>
+      <c r="H102">
+        <v>115</v>
+      </c>
+      <c r="I102">
+        <v>3</v>
+      </c>
+      <c r="J102">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>118</v>
+      </c>
+      <c r="B103">
+        <v>7</v>
+      </c>
+      <c r="C103">
+        <v>4</v>
+      </c>
+      <c r="D103">
+        <v>5</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>3</v>
+      </c>
+      <c r="G103">
+        <v>100</v>
+      </c>
+      <c r="H103">
+        <v>115</v>
+      </c>
+      <c r="I103">
+        <v>3</v>
+      </c>
+      <c r="J103">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>119</v>
+      </c>
+      <c r="B104">
+        <v>7</v>
+      </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
+      <c r="D104">
+        <v>5</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>3</v>
+      </c>
+      <c r="G104">
+        <v>100</v>
+      </c>
+      <c r="H104">
+        <v>115</v>
+      </c>
+      <c r="I104">
+        <v>3</v>
+      </c>
+      <c r="J104">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>120</v>
       </c>
-      <c r="B91">
+      <c r="B105">
         <v>7</v>
       </c>
-      <c r="C91">
-        <v>4</v>
-      </c>
-      <c r="D91">
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105">
         <v>6</v>
       </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
-      <c r="F91">
-        <v>3</v>
-      </c>
-      <c r="G91">
-        <v>100</v>
-      </c>
-      <c r="H91">
-        <v>115</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>3</v>
+      </c>
+      <c r="G105">
+        <v>100</v>
+      </c>
+      <c r="H105">
+        <v>115</v>
+      </c>
+      <c r="I105">
+        <v>3</v>
+      </c>
+      <c r="J105">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>121</v>
       </c>
-      <c r="B92">
+      <c r="B106">
         <v>8</v>
       </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92">
-        <v>100</v>
-      </c>
-      <c r="H92">
-        <v>115</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>100</v>
+      </c>
+      <c r="H106">
+        <v>115</v>
+      </c>
+      <c r="I106">
+        <v>3</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>163</v>
+      </c>
+      <c r="B107">
+        <v>8</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>100</v>
+      </c>
+      <c r="H107">
+        <v>115</v>
+      </c>
+      <c r="I107">
+        <v>3</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>122</v>
       </c>
-      <c r="B93">
+      <c r="B108">
         <v>8</v>
       </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>1</v>
-      </c>
-      <c r="G93">
-        <v>100</v>
-      </c>
-      <c r="H93">
-        <v>115</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>100</v>
+      </c>
+      <c r="H108">
+        <v>115</v>
+      </c>
+      <c r="I108">
+        <v>3</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>164</v>
+      </c>
+      <c r="B109">
+        <v>8</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>100</v>
+      </c>
+      <c r="H109">
+        <v>115</v>
+      </c>
+      <c r="I109">
+        <v>3</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>123</v>
       </c>
-      <c r="B94">
+      <c r="B110">
         <v>8</v>
       </c>
-      <c r="C94">
-        <v>2</v>
-      </c>
-      <c r="D94">
-        <v>2</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>2</v>
-      </c>
-      <c r="G94">
-        <v>100</v>
-      </c>
-      <c r="H94">
-        <v>115</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+      <c r="C110">
+        <v>2</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="G110">
+        <v>100</v>
+      </c>
+      <c r="H110">
+        <v>115</v>
+      </c>
+      <c r="I110">
+        <v>3</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>124</v>
       </c>
-      <c r="B95">
+      <c r="B111">
         <v>8</v>
       </c>
-      <c r="C95">
-        <v>2</v>
-      </c>
-      <c r="D95">
-        <v>2</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>2</v>
-      </c>
-      <c r="G95">
-        <v>100</v>
-      </c>
-      <c r="H95">
-        <v>115</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+      <c r="C111">
+        <v>2</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>2</v>
+      </c>
+      <c r="G111">
+        <v>100</v>
+      </c>
+      <c r="H111">
+        <v>115</v>
+      </c>
+      <c r="I111">
+        <v>3</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>125</v>
       </c>
-      <c r="B96">
+      <c r="B112">
         <v>8</v>
       </c>
-      <c r="C96">
-        <v>3</v>
-      </c>
-      <c r="D96">
-        <v>3</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>2</v>
-      </c>
-      <c r="G96">
-        <v>100</v>
-      </c>
-      <c r="H96">
-        <v>115</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+      <c r="C112">
+        <v>3</v>
+      </c>
+      <c r="D112">
+        <v>3</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+      <c r="G112">
+        <v>100</v>
+      </c>
+      <c r="H112">
+        <v>115</v>
+      </c>
+      <c r="I112">
+        <v>3</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>126</v>
       </c>
-      <c r="B97">
+      <c r="B113">
         <v>8</v>
       </c>
-      <c r="C97">
-        <v>3</v>
-      </c>
-      <c r="D97">
-        <v>3</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97">
-        <v>2</v>
-      </c>
-      <c r="G97">
-        <v>100</v>
-      </c>
-      <c r="H97">
-        <v>115</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="C113">
+        <v>3</v>
+      </c>
+      <c r="D113">
+        <v>3</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>2</v>
+      </c>
+      <c r="G113">
+        <v>100</v>
+      </c>
+      <c r="H113">
+        <v>115</v>
+      </c>
+      <c r="I113">
+        <v>3</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>127</v>
       </c>
-      <c r="B98">
+      <c r="B114">
         <v>8</v>
       </c>
-      <c r="C98">
-        <v>4</v>
-      </c>
-      <c r="D98">
-        <v>4</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98">
-        <v>3</v>
-      </c>
-      <c r="G98">
-        <v>100</v>
-      </c>
-      <c r="H98">
-        <v>115</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+      <c r="C114">
+        <v>4</v>
+      </c>
+      <c r="D114">
+        <v>4</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>3</v>
+      </c>
+      <c r="G114">
+        <v>100</v>
+      </c>
+      <c r="H114">
+        <v>115</v>
+      </c>
+      <c r="I114">
+        <v>3</v>
+      </c>
+      <c r="J114">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>128</v>
       </c>
-      <c r="B99">
+      <c r="B115">
         <v>8</v>
       </c>
-      <c r="C99">
-        <v>4</v>
-      </c>
-      <c r="D99">
-        <v>4</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99">
-        <v>3</v>
-      </c>
-      <c r="G99">
-        <v>100</v>
-      </c>
-      <c r="H99">
-        <v>115</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115">
+        <v>4</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>3</v>
+      </c>
+      <c r="G115">
+        <v>100</v>
+      </c>
+      <c r="H115">
+        <v>115</v>
+      </c>
+      <c r="I115">
+        <v>3</v>
+      </c>
+      <c r="J115">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>129</v>
       </c>
-      <c r="B100">
+      <c r="B116">
         <v>8</v>
       </c>
-      <c r="C100">
-        <v>4</v>
-      </c>
-      <c r="D100">
+      <c r="C116">
+        <v>4</v>
+      </c>
+      <c r="D116">
         <v>5</v>
       </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <v>3</v>
-      </c>
-      <c r="G100">
-        <v>100</v>
-      </c>
-      <c r="H100">
-        <v>115</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>3</v>
+      </c>
+      <c r="G116">
+        <v>100</v>
+      </c>
+      <c r="H116">
+        <v>115</v>
+      </c>
+      <c r="I116">
+        <v>3</v>
+      </c>
+      <c r="J116">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>130</v>
       </c>
-      <c r="B101">
+      <c r="B117">
         <v>8</v>
       </c>
-      <c r="C101">
-        <v>4</v>
-      </c>
-      <c r="D101">
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117">
         <v>5</v>
       </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101">
-        <v>3</v>
-      </c>
-      <c r="G101">
-        <v>100</v>
-      </c>
-      <c r="H101">
-        <v>115</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>3</v>
+      </c>
+      <c r="G117">
+        <v>100</v>
+      </c>
+      <c r="H117">
+        <v>115</v>
+      </c>
+      <c r="I117">
+        <v>3</v>
+      </c>
+      <c r="J117">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>131</v>
       </c>
-      <c r="B102">
+      <c r="B118">
         <v>8</v>
       </c>
-      <c r="C102">
-        <v>4</v>
-      </c>
-      <c r="D102">
+      <c r="C118">
+        <v>4</v>
+      </c>
+      <c r="D118">
         <v>6</v>
       </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102">
-        <v>3</v>
-      </c>
-      <c r="G102">
-        <v>100</v>
-      </c>
-      <c r="H102">
-        <v>115</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>3</v>
+      </c>
+      <c r="G118">
+        <v>100</v>
+      </c>
+      <c r="H118">
+        <v>115</v>
+      </c>
+      <c r="I118">
+        <v>3</v>
+      </c>
+      <c r="J118">
+        <v>-5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B275AFFA-03AF-4287-B370-A7B6A51155BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC409FE-B6B3-4D52-84F2-8DF6FC495EEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="171">
   <si>
     <t>Equip0001</t>
   </si>
@@ -530,6 +530,24 @@
   </si>
   <si>
     <t>Equip8102</t>
+  </si>
+  <si>
+    <t>KenSword</t>
+  </si>
+  <si>
+    <t>Shot_KenSword</t>
+  </si>
+  <si>
+    <t>EquipName_KenSword</t>
+  </si>
+  <si>
+    <t>FrozenNightSword</t>
+  </si>
+  <si>
+    <t>Shot_FrozenNightSword</t>
+  </si>
+  <si>
+    <t>EquipName_FrozenNightSword</t>
   </si>
 </sst>
 </file>
@@ -1021,15 +1039,6 @@
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="L3" t="s">
-        <v>142</v>
-      </c>
-      <c r="M3" t="s">
-        <v>141</v>
-      </c>
-      <c r="N3" t="s">
-        <v>143</v>
-      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1061,15 +1070,6 @@
       </c>
       <c r="J4">
         <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>142</v>
-      </c>
-      <c r="M4" t="s">
-        <v>141</v>
-      </c>
-      <c r="N4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -1103,15 +1103,6 @@
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="L5" t="s">
-        <v>142</v>
-      </c>
-      <c r="M5" t="s">
-        <v>141</v>
-      </c>
-      <c r="N5" t="s">
-        <v>143</v>
-      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1143,15 +1134,6 @@
       </c>
       <c r="J6">
         <v>0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>142</v>
-      </c>
-      <c r="M6" t="s">
-        <v>141</v>
-      </c>
-      <c r="N6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -3010,7 +2992,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>86</v>
       </c>
@@ -3042,7 +3024,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>87</v>
       </c>
@@ -3074,7 +3056,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>88</v>
       </c>
@@ -3105,8 +3087,17 @@
       <c r="J67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L67" t="s">
+        <v>165</v>
+      </c>
+      <c r="M67" t="s">
+        <v>166</v>
+      </c>
+      <c r="N67" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>157</v>
       </c>
@@ -3138,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>89</v>
       </c>
@@ -3170,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>158</v>
       </c>
@@ -3202,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>90</v>
       </c>
@@ -3234,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>91</v>
       </c>
@@ -3266,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>92</v>
       </c>
@@ -3298,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>93</v>
       </c>
@@ -3330,7 +3321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>94</v>
       </c>
@@ -3362,7 +3353,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>95</v>
       </c>
@@ -3394,7 +3385,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>96</v>
       </c>
@@ -3426,7 +3417,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>97</v>
       </c>
@@ -3458,7 +3449,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>98</v>
       </c>
@@ -3490,7 +3481,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>99</v>
       </c>
@@ -4034,7 +4025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>112</v>
       </c>
@@ -4066,7 +4057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>113</v>
       </c>
@@ -4098,7 +4089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>114</v>
       </c>
@@ -4130,7 +4121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>115</v>
       </c>
@@ -4162,7 +4153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>116</v>
       </c>
@@ -4194,7 +4185,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>117</v>
       </c>
@@ -4226,7 +4217,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>118</v>
       </c>
@@ -4258,7 +4249,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>119</v>
       </c>
@@ -4290,7 +4281,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>120</v>
       </c>
@@ -4322,7 +4313,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>121</v>
       </c>
@@ -4353,8 +4344,17 @@
       <c r="J106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L106" t="s">
+        <v>168</v>
+      </c>
+      <c r="M106" t="s">
+        <v>169</v>
+      </c>
+      <c r="N106" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>163</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>122</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>164</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>123</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>124</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>125</v>
       </c>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC409FE-B6B3-4D52-84F2-8DF6FC495EEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CD336D-9745-42C1-9C2C-DC5F6FE3E524}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="174">
   <si>
     <t>Equip0001</t>
   </si>
@@ -548,6 +548,15 @@
   </si>
   <si>
     <t>EquipName_FrozenNightSword</t>
+  </si>
+  <si>
+    <t>DarkNpcSword</t>
+  </si>
+  <si>
+    <t>Shot_DarkNpcSword</t>
+  </si>
+  <si>
+    <t>EquipName_DarkNpcSword</t>
   </si>
 </sst>
 </file>
@@ -4385,6 +4394,15 @@
       <c r="J107">
         <v>0</v>
       </c>
+      <c r="L107" t="s">
+        <v>171</v>
+      </c>
+      <c r="M107" t="s">
+        <v>172</v>
+      </c>
+      <c r="N107" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CD336D-9745-42C1-9C2C-DC5F6FE3E524}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32334DB8-410B-49C1-96D6-DE2A49205883}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="183">
   <si>
     <t>Equip0001</t>
   </si>
@@ -557,6 +557,33 @@
   </si>
   <si>
     <t>EquipName_DarkNpcSword</t>
+  </si>
+  <si>
+    <t>StealthScythe</t>
+  </si>
+  <si>
+    <t>Shot_StealthScythe</t>
+  </si>
+  <si>
+    <t>EquipName_StealthScythe</t>
+  </si>
+  <si>
+    <t>StealthDagger</t>
+  </si>
+  <si>
+    <t>Shot_StealthDagger</t>
+  </si>
+  <si>
+    <t>EquipName_StealthDagger</t>
+  </si>
+  <si>
+    <t>StealthSword</t>
+  </si>
+  <si>
+    <t>Shot_StealthSword</t>
+  </si>
+  <si>
+    <t>EquipName_StealthSword</t>
   </si>
 </sst>
 </file>
@@ -925,7 +952,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1048,6 +1077,15 @@
       <c r="J3">
         <v>0</v>
       </c>
+      <c r="L3" t="s">
+        <v>174</v>
+      </c>
+      <c r="M3" t="s">
+        <v>175</v>
+      </c>
+      <c r="N3" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1432,6 +1470,15 @@
       <c r="J15">
         <v>0</v>
       </c>
+      <c r="L15" t="s">
+        <v>177</v>
+      </c>
+      <c r="M15" t="s">
+        <v>178</v>
+      </c>
+      <c r="N15" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -3136,6 +3183,15 @@
       </c>
       <c r="J68">
         <v>0</v>
+      </c>
+      <c r="L68" t="s">
+        <v>180</v>
+      </c>
+      <c r="M68" t="s">
+        <v>181</v>
+      </c>
+      <c r="N68" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32334DB8-410B-49C1-96D6-DE2A49205883}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50275726-B962-45BE-BED5-5AC3C402DD60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="186">
   <si>
     <t>Equip0001</t>
   </si>
@@ -584,6 +584,15 @@
   </si>
   <si>
     <t>EquipName_StealthSword</t>
+  </si>
+  <si>
+    <t>NecroScythe</t>
+  </si>
+  <si>
+    <t>Shot_NecroScythe</t>
+  </si>
+  <si>
+    <t>EquipName_NecroScythe</t>
   </si>
 </sst>
 </file>
@@ -953,7 +962,7 @@
   <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1117,6 +1126,15 @@
       </c>
       <c r="J4">
         <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>183</v>
+      </c>
+      <c r="M4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50275726-B962-45BE-BED5-5AC3C402DD60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B87CCB-3844-4418-B919-173A34C049B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="189">
   <si>
     <t>Equip0001</t>
   </si>
@@ -593,6 +593,15 @@
   </si>
   <si>
     <t>EquipName_NecroScythe</t>
+  </si>
+  <si>
+    <t>BatAngelSword</t>
+  </si>
+  <si>
+    <t>Shot_BatAngelSword</t>
+  </si>
+  <si>
+    <t>EquipName_BatAngelSword</t>
   </si>
 </sst>
 </file>
@@ -962,7 +971,7 @@
   <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3242,6 +3251,15 @@
       </c>
       <c r="J69">
         <v>0</v>
+      </c>
+      <c r="L69" t="s">
+        <v>186</v>
+      </c>
+      <c r="M69" t="s">
+        <v>187</v>
+      </c>
+      <c r="N69" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B87CCB-3844-4418-B919-173A34C049B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564D1A98-E116-4F70-9A48-0839097003EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="192">
   <si>
     <t>Equip0001</t>
   </si>
@@ -602,6 +602,15 @@
   </si>
   <si>
     <t>EquipName_BatAngelSword</t>
+  </si>
+  <si>
+    <t>StrongMaul</t>
+  </si>
+  <si>
+    <t>Shot_StrongMaul</t>
+  </si>
+  <si>
+    <t>EquipName_StrongMaul</t>
   </si>
 </sst>
 </file>
@@ -2563,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>72</v>
       </c>
@@ -2595,7 +2604,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -2627,7 +2636,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>74</v>
       </c>
@@ -2659,7 +2668,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>75</v>
       </c>
@@ -2691,7 +2700,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>76</v>
       </c>
@@ -2723,7 +2732,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>77</v>
       </c>
@@ -2754,8 +2763,17 @@
       <c r="J54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L54" t="s">
+        <v>189</v>
+      </c>
+      <c r="M54" t="s">
+        <v>190</v>
+      </c>
+      <c r="N54" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>155</v>
       </c>
@@ -2787,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>78</v>
       </c>
@@ -2819,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>156</v>
       </c>
@@ -2851,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>79</v>
       </c>
@@ -2883,7 +2901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>80</v>
       </c>
@@ -2915,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>81</v>
       </c>
@@ -2947,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>82</v>
       </c>
@@ -2979,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>83</v>
       </c>
@@ -3011,7 +3029,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>84</v>
       </c>
@@ -3043,7 +3061,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>85</v>
       </c>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564D1A98-E116-4F70-9A48-0839097003EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34542986-DFA3-433E-B39C-A24BAD60ECE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="195">
   <si>
     <t>Equip0001</t>
   </si>
@@ -611,6 +611,15 @@
   </si>
   <si>
     <t>EquipName_StrongMaul</t>
+  </si>
+  <si>
+    <t>SciFiWarriorGun</t>
+  </si>
+  <si>
+    <t>Shot_SciFiWarriorGun</t>
+  </si>
+  <si>
+    <t>EquipName_SciFiWarriorGun</t>
   </si>
 </sst>
 </file>
@@ -3631,6 +3640,15 @@
       <c r="J80">
         <v>0</v>
       </c>
+      <c r="L80" t="s">
+        <v>192</v>
+      </c>
+      <c r="M80" t="s">
+        <v>193</v>
+      </c>
+      <c r="N80" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34542986-DFA3-433E-B39C-A24BAD60ECE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E9FA7B-7D54-4679-BAA2-79B82C604747}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="198">
   <si>
     <t>Equip0001</t>
   </si>
@@ -620,6 +620,15 @@
   </si>
   <si>
     <t>EquipName_SciFiWarriorGun</t>
+  </si>
+  <si>
+    <t>FreeBlueStaff</t>
+  </si>
+  <si>
+    <t>Shot_FreeBlueStaff</t>
+  </si>
+  <si>
+    <t>EquipName_FreeBlueStaff</t>
   </si>
 </sst>
 </file>
@@ -989,7 +998,7 @@
   <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2069,7 +2078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -2101,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -2133,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -2165,7 +2174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -2197,7 +2206,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -2229,7 +2238,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -2261,7 +2270,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -2293,7 +2302,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -2325,7 +2334,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -2357,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>153</v>
       </c>
@@ -2389,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -2421,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>154</v>
       </c>
@@ -2453,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>68</v>
       </c>
@@ -2484,8 +2493,17 @@
       <c r="J45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L45" t="s">
+        <v>195</v>
+      </c>
+      <c r="M45" t="s">
+        <v>196</v>
+      </c>
+      <c r="N45" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>69</v>
       </c>
@@ -2517,7 +2535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>70</v>
       </c>
@@ -2549,7 +2567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>71</v>
       </c>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E9FA7B-7D54-4679-BAA2-79B82C604747}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F55DB3-2FF1-4576-A73B-93E2CBD072D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="204">
   <si>
     <t>Equip0001</t>
   </si>
@@ -629,6 +629,24 @@
   </si>
   <si>
     <t>EquipName_FreeBlueStaff</t>
+  </si>
+  <si>
+    <t>MyfgBowTen</t>
+  </si>
+  <si>
+    <t>Shot_MyfgBowTen</t>
+  </si>
+  <si>
+    <t>EquipName_MyfgBowTen</t>
+  </si>
+  <si>
+    <t>ElvenShield</t>
+  </si>
+  <si>
+    <t>Shot_ElvenShield</t>
+  </si>
+  <si>
+    <t>EquipName_ElvenShield</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1016,7 @@
   <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2141,6 +2159,15 @@
       <c r="J34">
         <v>0</v>
       </c>
+      <c r="L34" t="s">
+        <v>198</v>
+      </c>
+      <c r="M34" t="s">
+        <v>199</v>
+      </c>
+      <c r="N34" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -4338,6 +4365,15 @@
       </c>
       <c r="J101">
         <v>-20</v>
+      </c>
+      <c r="L101" t="s">
+        <v>201</v>
+      </c>
+      <c r="M101" t="s">
+        <v>202</v>
+      </c>
+      <c r="N101" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F55DB3-2FF1-4576-A73B-93E2CBD072D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15CF5B0-5954-424F-8363-9D12DDD3EDAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="207">
   <si>
     <t>Equip0001</t>
   </si>
@@ -647,6 +647,15 @@
   </si>
   <si>
     <t>EquipName_ElvenShield</t>
+  </si>
+  <si>
+    <t>VillagerDagger</t>
+  </si>
+  <si>
+    <t>Shot_VillagerDagger</t>
+  </si>
+  <si>
+    <t>EquipName_VillagerDagger</t>
   </si>
 </sst>
 </file>
@@ -1583,6 +1592,15 @@
       <c r="J16">
         <v>0</v>
       </c>
+      <c r="L16" t="s">
+        <v>204</v>
+      </c>
+      <c r="M16" t="s">
+        <v>205</v>
+      </c>
+      <c r="N16" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15CF5B0-5954-424F-8363-9D12DDD3EDAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AE0723-E700-4FC9-8137-E8AA18236767}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
     <sheet name="EnhanceTable" sheetId="2" r:id="rId2"/>
-    <sheet name="EnhanceGradeTable" sheetId="5" r:id="rId3"/>
-    <sheet name="EquipOptionTable" sheetId="4" r:id="rId4"/>
+    <sheet name="InnerGradeTable" sheetId="5" r:id="rId3"/>
+    <sheet name="OptionTable" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="200">
   <si>
     <t>Equip0001</t>
   </si>
@@ -123,79 +123,12 @@
     <t>f1|Float</t>
   </si>
   <si>
-    <t>f2|Float</t>
-  </si>
-  <si>
-    <t>f3|Float</t>
-  </si>
-  <si>
-    <t>f4|Float</t>
-  </si>
-  <si>
-    <t>upgradeF1|Float</t>
-  </si>
-  <si>
-    <t>upgradeF2|Float</t>
-  </si>
-  <si>
-    <t>upgradeF3|Float</t>
-  </si>
-  <si>
-    <t>upgradeF4|Float</t>
-  </si>
-  <si>
     <t>enhance|Int</t>
   </si>
   <si>
     <t>multi|Float</t>
   </si>
   <si>
-    <t>type|String</t>
-  </si>
-  <si>
-    <t>Ulti</t>
-  </si>
-  <si>
-    <t>공퍼</t>
-  </si>
-  <si>
-    <t>공격</t>
-  </si>
-  <si>
-    <t>보스몹</t>
-  </si>
-  <si>
-    <t>일반몹</t>
-  </si>
-  <si>
-    <t>이동</t>
-  </si>
-  <si>
-    <t>HP퍼</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>보스몹 대미지 경감</t>
-  </si>
-  <si>
-    <t>일반몹 대미지 경감</t>
-  </si>
-  <si>
-    <t>스왑 시 회복량 증가</t>
-  </si>
-  <si>
-    <t>하트의 회복량</t>
-  </si>
-  <si>
-    <t>전투 중 레벨업 회복량</t>
-  </si>
-  <si>
-    <t>equipType|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>innergrade|Int</t>
   </si>
   <si>
@@ -433,27 +366,9 @@
     <t>Equip8405</t>
   </si>
   <si>
-    <t>requiredGold|Int</t>
-  </si>
-  <si>
     <t>max|Int</t>
   </si>
   <si>
-    <t>gradeZeroProb|Float</t>
-  </si>
-  <si>
-    <t>gradeOneProb|Float</t>
-  </si>
-  <si>
-    <t>gradeTwoProb|Float</t>
-  </si>
-  <si>
-    <t>gradeThreeProb|Float</t>
-  </si>
-  <si>
-    <t>gradeFourProb|Float</t>
-  </si>
-  <si>
     <t>prefabAddress|String</t>
   </si>
   <si>
@@ -656,6 +571,69 @@
   </si>
   <si>
     <t>EquipName_VillagerDagger</t>
+  </si>
+  <si>
+    <t>innerGrade|Int</t>
+  </si>
+  <si>
+    <t>innerGradeZeroProb|Float</t>
+  </si>
+  <si>
+    <t>innerGradeOneProb|Float</t>
+  </si>
+  <si>
+    <t>innerGradeTwoProb|Float</t>
+  </si>
+  <si>
+    <t>innerGradeThreeProb|Float</t>
+  </si>
+  <si>
+    <t>innerGradeFourProb|Float</t>
+  </si>
+  <si>
+    <t>innerGradeFiveProb|Float</t>
+  </si>
+  <si>
+    <t>innerGradeSixProb|Float</t>
+  </si>
+  <si>
+    <t>innerGradeZeroGold|Int</t>
+  </si>
+  <si>
+    <t>innerGradeOneGold|Int</t>
+  </si>
+  <si>
+    <t>innerGradeTwoGold|Int</t>
+  </si>
+  <si>
+    <t>innerGradeThreeGold|Int</t>
+  </si>
+  <si>
+    <t>innerGradeFourGold|Int</t>
+  </si>
+  <si>
+    <t>innerGradeFiveGold|Int</t>
+  </si>
+  <si>
+    <t>innerGradeSixGold|Int</t>
+  </si>
+  <si>
+    <t>option|String</t>
+  </si>
+  <si>
+    <t>createWeight|Float</t>
+  </si>
+  <si>
+    <t>zeroOptionWeight|Float</t>
+  </si>
+  <si>
+    <t>oneOptionWeight|Float</t>
+  </si>
+  <si>
+    <t>twoOptionWeight|Float</t>
+  </si>
+  <si>
+    <t>threeOptionWeight|Float</t>
   </si>
 </sst>
 </file>
@@ -1024,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1044,10 +1022,10 @@
         <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
@@ -1059,22 +1037,22 @@
         <v>27</v>
       </c>
       <c r="I1" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="J1" t="s">
         <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="L1" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="M1" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="N1" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -1109,18 +1087,18 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="M2" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="N2" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1150,13 +1128,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="M3" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="N3" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -1191,18 +1169,18 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="M4" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="N4" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1552,18 +1530,18 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="M15" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="N15" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1593,13 +1571,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="M16" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="N16" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1636,7 +1614,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1956,7 +1934,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -1988,7 +1966,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -2020,7 +1998,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -2052,7 +2030,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -2084,7 +2062,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -2116,7 +2094,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -2148,7 +2126,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -2178,18 +2156,18 @@
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="M34" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="N34" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -2221,7 +2199,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -2253,7 +2231,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -2285,7 +2263,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -2317,7 +2295,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -2349,7 +2327,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -2381,7 +2359,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -2413,7 +2391,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -2445,7 +2423,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -2477,7 +2455,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -2509,7 +2487,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -2539,18 +2517,18 @@
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="M45" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="N45" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -2582,7 +2560,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -2614,7 +2592,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -2646,7 +2624,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -2678,7 +2656,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -2710,7 +2688,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -2742,7 +2720,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -2774,7 +2752,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -2806,7 +2784,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -2836,18 +2814,18 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="M54" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="N54" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -2879,7 +2857,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -2911,7 +2889,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -2943,7 +2921,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>4</v>
@@ -2975,7 +2953,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="B59">
         <v>4</v>
@@ -3007,7 +2985,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>4</v>
@@ -3039,7 +3017,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -3071,7 +3049,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -3103,7 +3081,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>4</v>
@@ -3135,7 +3113,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="B64">
         <v>4</v>
@@ -3167,7 +3145,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="B65">
         <v>4</v>
@@ -3199,7 +3177,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>4</v>
@@ -3231,7 +3209,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B67">
         <v>5</v>
@@ -3261,18 +3239,18 @@
         <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="M67" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="N67" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="B68">
         <v>5</v>
@@ -3302,18 +3280,18 @@
         <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="M68" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="N68" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -3343,18 +3321,18 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="M69" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="N69" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="B70">
         <v>5</v>
@@ -3386,7 +3364,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="B71">
         <v>5</v>
@@ -3418,7 +3396,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="B72">
         <v>5</v>
@@ -3450,7 +3428,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B73">
         <v>5</v>
@@ -3482,7 +3460,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="B74">
         <v>5</v>
@@ -3514,7 +3492,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B75">
         <v>5</v>
@@ -3546,7 +3524,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B76">
         <v>5</v>
@@ -3578,7 +3556,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B77">
         <v>5</v>
@@ -3610,7 +3588,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B78">
         <v>5</v>
@@ -3642,7 +3620,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B79">
         <v>5</v>
@@ -3674,7 +3652,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="B80">
         <v>6</v>
@@ -3704,18 +3682,18 @@
         <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="M80" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="N80" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="B81">
         <v>6</v>
@@ -3747,7 +3725,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B82">
         <v>6</v>
@@ -3779,7 +3757,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="B83">
         <v>6</v>
@@ -3811,7 +3789,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B84">
         <v>6</v>
@@ -3843,7 +3821,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B85">
         <v>6</v>
@@ -3875,7 +3853,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="B86">
         <v>6</v>
@@ -3907,7 +3885,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B87">
         <v>6</v>
@@ -3939,7 +3917,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B88">
         <v>6</v>
@@ -3971,7 +3949,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B89">
         <v>6</v>
@@ -4003,7 +3981,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B90">
         <v>6</v>
@@ -4035,7 +4013,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B91">
         <v>6</v>
@@ -4067,7 +4045,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B92">
         <v>6</v>
@@ -4099,7 +4077,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B93">
         <v>7</v>
@@ -4131,7 +4109,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="B94">
         <v>7</v>
@@ -4163,7 +4141,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="B95">
         <v>7</v>
@@ -4195,7 +4173,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="B96">
         <v>7</v>
@@ -4227,7 +4205,7 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B97">
         <v>7</v>
@@ -4259,7 +4237,7 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B98">
         <v>7</v>
@@ -4291,7 +4269,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B99">
         <v>7</v>
@@ -4323,7 +4301,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B100">
         <v>7</v>
@@ -4355,7 +4333,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="B101">
         <v>7</v>
@@ -4385,18 +4363,18 @@
         <v>-20</v>
       </c>
       <c r="L101" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="M101" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="N101" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B102">
         <v>7</v>
@@ -4428,7 +4406,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B103">
         <v>7</v>
@@ -4460,7 +4438,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B104">
         <v>7</v>
@@ -4492,7 +4470,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B105">
         <v>7</v>
@@ -4524,7 +4502,7 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B106">
         <v>8</v>
@@ -4554,18 +4532,18 @@
         <v>0</v>
       </c>
       <c r="L106" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="M106" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="N106" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="B107">
         <v>8</v>
@@ -4595,18 +4573,18 @@
         <v>0</v>
       </c>
       <c r="L107" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="M107" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="N107" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B108">
         <v>8</v>
@@ -4638,7 +4616,7 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="B109">
         <v>8</v>
@@ -4670,7 +4648,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B110">
         <v>8</v>
@@ -4702,7 +4680,7 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="B111">
         <v>8</v>
@@ -4734,7 +4712,7 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B112">
         <v>8</v>
@@ -4766,7 +4744,7 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="B113">
         <v>8</v>
@@ -4798,7 +4776,7 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B114">
         <v>8</v>
@@ -4830,7 +4808,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B115">
         <v>8</v>
@@ -4862,7 +4840,7 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B116">
         <v>8</v>
@@ -4894,7 +4872,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B117">
         <v>8</v>
@@ -4926,7 +4904,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B118">
         <v>8</v>
@@ -4965,7 +4943,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D1C7CA-62FC-48B9-BBD8-4025BB82F174}">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:J148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4977,36 +4955,39 @@
     <col min="1" max="1" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="E1" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="F1" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="G1" t="s">
-        <v>136</v>
+        <v>183</v>
       </c>
       <c r="H1" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="I1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+      <c r="J1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5034,8 +5015,11 @@
       <c r="I2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -5046,7 +5030,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="D3">
-        <v>2500</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -5063,8 +5047,11 @@
       <c r="I3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -5075,10 +5062,10 @@
         <v>1.1879999999999999</v>
       </c>
       <c r="D4">
-        <v>5000</v>
+        <v>0.92592592600000001</v>
       </c>
       <c r="E4">
-        <v>0.92592592600000001</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -5092,8 +5079,11 @@
       <c r="I4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -5104,10 +5094,10 @@
         <v>1.2949999999999999</v>
       </c>
       <c r="D5">
-        <v>7500</v>
+        <v>0.85733881999999995</v>
       </c>
       <c r="E5">
-        <v>0.85733881999999995</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -5121,8 +5111,11 @@
       <c r="I5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -5133,10 +5126,10 @@
         <v>1.4119999999999999</v>
       </c>
       <c r="D6">
-        <v>10000</v>
+        <v>0.79383224100000005</v>
       </c>
       <c r="E6">
-        <v>0.79383224100000005</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -5150,8 +5143,11 @@
       <c r="I6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -5162,10 +5158,10 @@
         <v>1.5389999999999999</v>
       </c>
       <c r="D7">
-        <v>12500</v>
+        <v>0.66152686800000005</v>
       </c>
       <c r="E7">
-        <v>0.66152686800000005</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -5179,8 +5175,11 @@
       <c r="I7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -5208,8 +5207,11 @@
       <c r="I8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -5220,13 +5222,13 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="D9">
-        <v>2500</v>
+        <v>0.28571428599999998</v>
       </c>
       <c r="E9">
-        <v>0.28571428599999998</v>
+        <v>0.71428571399999996</v>
       </c>
       <c r="F9">
-        <v>0.71428571399999996</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -5237,8 +5239,11 @@
       <c r="I9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -5249,13 +5254,13 @@
         <v>1.1879999999999999</v>
       </c>
       <c r="D10">
-        <v>5000</v>
+        <v>0.26455026500000001</v>
       </c>
       <c r="E10">
-        <v>0.26455026500000001</v>
+        <v>0.661375661</v>
       </c>
       <c r="F10">
-        <v>0.661375661</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -5266,8 +5271,11 @@
       <c r="I10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -5278,13 +5286,13 @@
         <v>1.2949999999999999</v>
       </c>
       <c r="D11">
-        <v>7500</v>
+        <v>0.244953949</v>
       </c>
       <c r="E11">
-        <v>0.244953949</v>
+        <v>0.61238487200000002</v>
       </c>
       <c r="F11">
-        <v>0.61238487200000002</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -5295,8 +5303,11 @@
       <c r="I11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -5307,13 +5318,13 @@
         <v>1.4119999999999999</v>
       </c>
       <c r="D12">
-        <v>10000</v>
+        <v>0.22680921200000001</v>
       </c>
       <c r="E12">
-        <v>0.22680921200000001</v>
+        <v>0.56702302900000001</v>
       </c>
       <c r="F12">
-        <v>0.56702302900000001</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -5324,8 +5335,11 @@
       <c r="I12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -5336,13 +5350,13 @@
         <v>1.5389999999999999</v>
       </c>
       <c r="D13">
-        <v>12500</v>
+        <v>0.18900767600000001</v>
       </c>
       <c r="E13">
-        <v>0.18900767600000001</v>
+        <v>0.47251919100000001</v>
       </c>
       <c r="F13">
-        <v>0.47251919100000001</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -5353,8 +5367,11 @@
       <c r="I13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -5365,13 +5382,13 @@
         <v>1.677</v>
       </c>
       <c r="D14">
-        <v>15000</v>
+        <v>0.17500710799999999</v>
       </c>
       <c r="E14">
-        <v>0.17500710799999999</v>
+        <v>0.43751776999999997</v>
       </c>
       <c r="F14">
-        <v>0.43751776999999997</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -5382,8 +5399,11 @@
       <c r="I14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -5394,13 +5414,13 @@
         <v>1.8280000000000001</v>
       </c>
       <c r="D15">
-        <v>17500</v>
+        <v>0.162043618</v>
       </c>
       <c r="E15">
-        <v>0.162043618</v>
+        <v>0.40510904599999997</v>
       </c>
       <c r="F15">
-        <v>0.40510904599999997</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -5411,8 +5431,11 @@
       <c r="I15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -5423,16 +5446,16 @@
         <v>1.9930000000000001</v>
       </c>
       <c r="D16">
-        <v>20000</v>
+        <v>0.150040387</v>
       </c>
       <c r="E16">
-        <v>0.150040387</v>
+        <v>0.37510096799999998</v>
       </c>
       <c r="F16">
-        <v>0.37510096799999998</v>
+        <v>0.937752421</v>
       </c>
       <c r="G16">
-        <v>0.937752421</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -5440,8 +5463,11 @@
       <c r="I16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -5452,16 +5478,16 @@
         <v>2.1720000000000002</v>
       </c>
       <c r="D17">
-        <v>22500</v>
+        <v>0.13892628500000001</v>
       </c>
       <c r="E17">
-        <v>0.13892628500000001</v>
+        <v>0.34731571100000003</v>
       </c>
       <c r="F17">
-        <v>0.34731571100000003</v>
+        <v>0.86828927899999997</v>
       </c>
       <c r="G17">
-        <v>0.86828927899999997</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -5469,8 +5495,11 @@
       <c r="I17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -5481,16 +5510,16 @@
         <v>2.367</v>
       </c>
       <c r="D18">
-        <v>25000</v>
+        <v>0.106866373</v>
       </c>
       <c r="E18">
-        <v>0.106866373</v>
+        <v>0.26716593199999999</v>
       </c>
       <c r="F18">
-        <v>0.26716593199999999</v>
+        <v>0.66791482999999996</v>
       </c>
       <c r="G18">
-        <v>0.66791482999999996</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -5498,8 +5527,11 @@
       <c r="I18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -5527,8 +5559,11 @@
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -5539,16 +5574,16 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="D20">
-        <v>2500</v>
+        <v>8.1632652999999999E-2</v>
       </c>
       <c r="E20">
-        <v>8.1632652999999999E-2</v>
+        <v>0.20408163300000001</v>
       </c>
       <c r="F20">
-        <v>0.20408163300000001</v>
+        <v>0.510204082</v>
       </c>
       <c r="G20">
-        <v>0.510204082</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -5556,8 +5591,11 @@
       <c r="I20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -5568,16 +5606,16 @@
         <v>1.1879999999999999</v>
       </c>
       <c r="D21">
-        <v>5000</v>
+        <v>7.558579E-2</v>
       </c>
       <c r="E21">
-        <v>7.558579E-2</v>
+        <v>0.18896447499999999</v>
       </c>
       <c r="F21">
-        <v>0.18896447499999999</v>
+        <v>0.47241118700000001</v>
       </c>
       <c r="G21">
-        <v>0.47241118700000001</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -5585,8 +5623,11 @@
       <c r="I21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -5597,16 +5638,16 @@
         <v>1.2949999999999999</v>
       </c>
       <c r="D22">
-        <v>7500</v>
+        <v>6.9986841999999994E-2</v>
       </c>
       <c r="E22">
-        <v>6.9986841999999994E-2</v>
+        <v>0.17496710600000001</v>
       </c>
       <c r="F22">
-        <v>0.17496710600000001</v>
+        <v>0.43741776500000001</v>
       </c>
       <c r="G22">
-        <v>0.43741776500000001</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -5614,8 +5655,11 @@
       <c r="I22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -5626,16 +5670,16 @@
         <v>1.4119999999999999</v>
       </c>
       <c r="D23">
-        <v>10000</v>
+        <v>6.4802631999999999E-2</v>
       </c>
       <c r="E23">
-        <v>6.4802631999999999E-2</v>
+        <v>0.16200658000000001</v>
       </c>
       <c r="F23">
-        <v>0.16200658000000001</v>
+        <v>0.40501644999999997</v>
       </c>
       <c r="G23">
-        <v>0.40501644999999997</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -5643,8 +5687,11 @@
       <c r="I23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -5655,25 +5702,28 @@
         <v>1.5389999999999999</v>
       </c>
       <c r="D24">
-        <v>12500</v>
+        <v>5.4002192999999997E-2</v>
       </c>
       <c r="E24">
-        <v>5.4002192999999997E-2</v>
+        <v>0.13500548300000001</v>
       </c>
       <c r="F24">
-        <v>0.13500548300000001</v>
+        <v>0.33751370800000002</v>
       </c>
       <c r="G24">
-        <v>0.33751370800000002</v>
+        <v>0.84378427</v>
       </c>
       <c r="H24">
-        <v>0.84378427</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -5684,25 +5734,28 @@
         <v>1.677</v>
       </c>
       <c r="D25">
-        <v>15000</v>
+        <v>5.0002031000000002E-2</v>
       </c>
       <c r="E25">
-        <v>5.0002031000000002E-2</v>
+        <v>0.12500507699999999</v>
       </c>
       <c r="F25">
-        <v>0.12500507699999999</v>
+        <v>0.31251269300000001</v>
       </c>
       <c r="G25">
-        <v>0.31251269300000001</v>
+        <v>0.78128173099999998</v>
       </c>
       <c r="H25">
-        <v>0.78128173099999998</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -5713,25 +5766,28 @@
         <v>1.8280000000000001</v>
       </c>
       <c r="D26">
-        <v>17500</v>
+        <v>4.6298177000000003E-2</v>
       </c>
       <c r="E26">
-        <v>4.6298177000000003E-2</v>
+        <v>0.115745442</v>
       </c>
       <c r="F26">
-        <v>0.115745442</v>
+        <v>0.289363604</v>
       </c>
       <c r="G26">
-        <v>0.289363604</v>
+        <v>0.72340901000000002</v>
       </c>
       <c r="H26">
-        <v>0.72340901000000002</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -5742,25 +5798,28 @@
         <v>1.9930000000000001</v>
       </c>
       <c r="D27">
-        <v>20000</v>
+        <v>4.2868681999999998E-2</v>
       </c>
       <c r="E27">
-        <v>4.2868681999999998E-2</v>
+        <v>0.10717170500000001</v>
       </c>
       <c r="F27">
-        <v>0.10717170500000001</v>
+        <v>0.26792926299999997</v>
       </c>
       <c r="G27">
-        <v>0.26792926299999997</v>
+        <v>0.66982315800000003</v>
       </c>
       <c r="H27">
-        <v>0.66982315800000003</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -5771,25 +5830,28 @@
         <v>2.1720000000000002</v>
       </c>
       <c r="D28">
-        <v>22500</v>
+        <v>3.9693223999999999E-2</v>
       </c>
       <c r="E28">
-        <v>3.9693223999999999E-2</v>
+        <v>9.9233059999999998E-2</v>
       </c>
       <c r="F28">
-        <v>9.9233059999999998E-2</v>
+        <v>0.24808265099999999</v>
       </c>
       <c r="G28">
-        <v>0.24808265099999999</v>
+        <v>0.62020662800000004</v>
       </c>
       <c r="H28">
-        <v>0.62020662800000004</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -5800,25 +5862,28 @@
         <v>2.367</v>
       </c>
       <c r="D29">
-        <v>25000</v>
+        <v>3.0533248999999998E-2</v>
       </c>
       <c r="E29">
-        <v>3.0533248999999998E-2</v>
+        <v>7.6333123000000003E-2</v>
       </c>
       <c r="F29">
-        <v>7.6333123000000003E-2</v>
+        <v>0.19083280799999999</v>
       </c>
       <c r="G29">
-        <v>0.19083280799999999</v>
+        <v>0.47708202100000002</v>
       </c>
       <c r="H29">
-        <v>0.47708202100000002</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -5829,25 +5894,28 @@
         <v>2.58</v>
       </c>
       <c r="D30">
-        <v>27500</v>
+        <v>2.8271527000000001E-2</v>
       </c>
       <c r="E30">
-        <v>2.8271527000000001E-2</v>
+        <v>7.0678818000000004E-2</v>
       </c>
       <c r="F30">
-        <v>7.0678818000000004E-2</v>
+        <v>0.176697045</v>
       </c>
       <c r="G30">
-        <v>0.176697045</v>
+        <v>0.44174261199999998</v>
       </c>
       <c r="H30">
-        <v>0.44174261199999998</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -5858,25 +5926,28 @@
         <v>2.8130000000000002</v>
       </c>
       <c r="D31">
-        <v>30000</v>
+        <v>2.617734E-2</v>
       </c>
       <c r="E31">
-        <v>2.617734E-2</v>
+        <v>6.5443349999999997E-2</v>
       </c>
       <c r="F31">
-        <v>6.5443349999999997E-2</v>
+        <v>0.163608375</v>
       </c>
       <c r="G31">
-        <v>0.163608375</v>
+        <v>0.40902093699999997</v>
       </c>
       <c r="H31">
-        <v>0.40902093699999997</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2</v>
       </c>
@@ -5887,25 +5958,28 @@
         <v>3.0659999999999998</v>
       </c>
       <c r="D32">
-        <v>32500</v>
+        <v>2.4238277999999999E-2</v>
       </c>
       <c r="E32">
-        <v>2.4238277999999999E-2</v>
+        <v>6.0595693999999999E-2</v>
       </c>
       <c r="F32">
-        <v>6.0595693999999999E-2</v>
+        <v>0.151489236</v>
       </c>
       <c r="G32">
-        <v>0.151489236</v>
+        <v>0.37872308999999998</v>
       </c>
       <c r="H32">
-        <v>0.37872308999999998</v>
+        <v>0.94680772499999999</v>
       </c>
       <c r="I32">
         <v>0.94680772499999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32">
+        <v>0.94680772499999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
@@ -5916,25 +5990,28 @@
         <v>3.3420000000000001</v>
       </c>
       <c r="D33">
-        <v>35000</v>
+        <v>2.244285E-2</v>
       </c>
       <c r="E33">
-        <v>2.244285E-2</v>
+        <v>5.6107124000000001E-2</v>
       </c>
       <c r="F33">
-        <v>5.6107124000000001E-2</v>
+        <v>0.14026781099999999</v>
       </c>
       <c r="G33">
-        <v>0.14026781099999999</v>
+        <v>0.35066952800000001</v>
       </c>
       <c r="H33">
-        <v>0.35066952800000001</v>
+        <v>0.87667382000000005</v>
       </c>
       <c r="I33">
         <v>0.87667382000000005</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <v>0.87667382000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2</v>
       </c>
@@ -5945,25 +6022,28 @@
         <v>3.6419999999999999</v>
       </c>
       <c r="D34">
-        <v>37500</v>
+        <v>1.4026781E-2</v>
       </c>
       <c r="E34">
-        <v>1.4026781E-2</v>
+        <v>3.5066952999999998E-2</v>
       </c>
       <c r="F34">
-        <v>3.5066952999999998E-2</v>
+        <v>8.7667382000000002E-2</v>
       </c>
       <c r="G34">
-        <v>8.7667382000000002E-2</v>
+        <v>0.21916845500000001</v>
       </c>
       <c r="H34">
-        <v>0.21916845500000001</v>
+        <v>0.547921137</v>
       </c>
       <c r="I34">
         <v>0.547921137</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <v>0.547921137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
@@ -5991,8 +6071,11 @@
       <c r="I35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
@@ -6003,25 +6086,28 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="D36">
-        <v>2500</v>
+        <v>2.3323614999999999E-2</v>
       </c>
       <c r="E36">
-        <v>2.3323614999999999E-2</v>
+        <v>5.8309038000000001E-2</v>
       </c>
       <c r="F36">
-        <v>5.8309038000000001E-2</v>
+        <v>0.145772595</v>
       </c>
       <c r="G36">
-        <v>0.145772595</v>
+        <v>0.364431487</v>
       </c>
       <c r="H36">
-        <v>0.364431487</v>
+        <v>0.91107871699999998</v>
       </c>
       <c r="I36">
         <v>0.91107871699999998</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36">
+        <v>0.91107871699999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3</v>
       </c>
@@ -6032,25 +6118,28 @@
         <v>1.1879999999999999</v>
       </c>
       <c r="D37">
-        <v>5000</v>
+        <v>2.1595940000000001E-2</v>
       </c>
       <c r="E37">
-        <v>2.1595940000000001E-2</v>
+        <v>5.3989849999999999E-2</v>
       </c>
       <c r="F37">
-        <v>5.3989849999999999E-2</v>
+        <v>0.13497462499999999</v>
       </c>
       <c r="G37">
-        <v>0.13497462499999999</v>
+        <v>0.337436562</v>
       </c>
       <c r="H37">
-        <v>0.337436562</v>
+        <v>0.84359140499999996</v>
       </c>
       <c r="I37">
         <v>0.84359140499999996</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37">
+        <v>0.84359140499999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -6061,25 +6150,28 @@
         <v>1.2949999999999999</v>
       </c>
       <c r="D38">
-        <v>7500</v>
+        <v>1.9996241000000001E-2</v>
       </c>
       <c r="E38">
-        <v>1.9996241000000001E-2</v>
+        <v>4.9990602000000002E-2</v>
       </c>
       <c r="F38">
-        <v>4.9990602000000002E-2</v>
+        <v>0.124976504</v>
       </c>
       <c r="G38">
-        <v>0.124976504</v>
+        <v>0.31244126100000003</v>
       </c>
       <c r="H38">
-        <v>0.31244126100000003</v>
+        <v>0.78110315299999999</v>
       </c>
       <c r="I38">
         <v>0.78110315299999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38">
+        <v>0.78110315299999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
@@ -6090,25 +6182,28 @@
         <v>1.4119999999999999</v>
       </c>
       <c r="D39">
-        <v>10000</v>
+        <v>1.8515038000000001E-2</v>
       </c>
       <c r="E39">
-        <v>1.8515038000000001E-2</v>
+        <v>4.6287594000000001E-2</v>
       </c>
       <c r="F39">
-        <v>4.6287594000000001E-2</v>
+        <v>0.115718986</v>
       </c>
       <c r="G39">
-        <v>0.115718986</v>
+        <v>0.289297464</v>
       </c>
       <c r="H39">
-        <v>0.289297464</v>
+        <v>0.72324365999999995</v>
       </c>
       <c r="I39">
         <v>0.72324365999999995</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39">
+        <v>0.72324365999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
@@ -6119,25 +6214,28 @@
         <v>1.5389999999999999</v>
       </c>
       <c r="D40">
-        <v>12500</v>
+        <v>1.5429198E-2</v>
       </c>
       <c r="E40">
-        <v>1.5429198E-2</v>
+        <v>3.8572994999999999E-2</v>
       </c>
       <c r="F40">
-        <v>3.8572994999999999E-2</v>
+        <v>9.6432487999999997E-2</v>
       </c>
       <c r="G40">
-        <v>9.6432487999999997E-2</v>
+        <v>0.24108122000000001</v>
       </c>
       <c r="H40">
-        <v>0.24108122000000001</v>
+        <v>0.60270305000000002</v>
       </c>
       <c r="I40">
         <v>0.60270305000000002</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40">
+        <v>0.60270305000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3</v>
       </c>
@@ -6148,25 +6246,28 @@
         <v>1.677</v>
       </c>
       <c r="D41">
-        <v>15000</v>
+        <v>1.4286294999999999E-2</v>
       </c>
       <c r="E41">
-        <v>1.4286294999999999E-2</v>
+        <v>3.5715735999999998E-2</v>
       </c>
       <c r="F41">
-        <v>3.5715735999999998E-2</v>
+        <v>8.9289340999999994E-2</v>
       </c>
       <c r="G41">
-        <v>8.9289340999999994E-2</v>
+        <v>0.22322335200000001</v>
       </c>
       <c r="H41">
-        <v>0.22322335200000001</v>
+        <v>0.55805837899999999</v>
       </c>
       <c r="I41">
         <v>0.55805837899999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41">
+        <v>0.55805837899999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3</v>
       </c>
@@ -6177,25 +6278,28 @@
         <v>1.8280000000000001</v>
       </c>
       <c r="D42">
-        <v>17500</v>
+        <v>1.322805E-2</v>
       </c>
       <c r="E42">
-        <v>1.322805E-2</v>
+        <v>3.3070125999999998E-2</v>
       </c>
       <c r="F42">
-        <v>3.3070125999999998E-2</v>
+        <v>8.2675314999999999E-2</v>
       </c>
       <c r="G42">
-        <v>8.2675314999999999E-2</v>
+        <v>0.206688289</v>
       </c>
       <c r="H42">
-        <v>0.206688289</v>
+        <v>0.51672072199999997</v>
       </c>
       <c r="I42">
         <v>0.51672072199999997</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42">
+        <v>0.51672072199999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3</v>
       </c>
@@ -6206,25 +6310,28 @@
         <v>1.9930000000000001</v>
       </c>
       <c r="D43">
-        <v>20000</v>
+        <v>1.2248195E-2</v>
       </c>
       <c r="E43">
-        <v>1.2248195E-2</v>
+        <v>3.0620486999999998E-2</v>
       </c>
       <c r="F43">
-        <v>3.0620486999999998E-2</v>
+        <v>7.6551218000000004E-2</v>
       </c>
       <c r="G43">
-        <v>7.6551218000000004E-2</v>
+        <v>0.191378045</v>
       </c>
       <c r="H43">
-        <v>0.191378045</v>
+        <v>0.47844511299999998</v>
       </c>
       <c r="I43">
         <v>0.47844511299999998</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43">
+        <v>0.47844511299999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
@@ -6235,25 +6342,28 @@
         <v>2.1720000000000002</v>
       </c>
       <c r="D44">
-        <v>22500</v>
+        <v>1.1340921E-2</v>
       </c>
       <c r="E44">
-        <v>1.1340921E-2</v>
+        <v>2.8352302999999999E-2</v>
       </c>
       <c r="F44">
-        <v>2.8352302999999999E-2</v>
+        <v>7.0880757000000003E-2</v>
       </c>
       <c r="G44">
-        <v>7.0880757000000003E-2</v>
+        <v>0.177201894</v>
       </c>
       <c r="H44">
-        <v>0.177201894</v>
+        <v>0.44300473400000001</v>
       </c>
       <c r="I44">
         <v>0.44300473400000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44">
+        <v>0.44300473400000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>3</v>
       </c>
@@ -6264,25 +6374,28 @@
         <v>2.367</v>
       </c>
       <c r="D45">
-        <v>25000</v>
+        <v>8.7237860000000007E-3</v>
       </c>
       <c r="E45">
-        <v>8.7237860000000007E-3</v>
+        <v>2.1809464000000001E-2</v>
       </c>
       <c r="F45">
-        <v>2.1809464000000001E-2</v>
+        <v>5.4523660000000002E-2</v>
       </c>
       <c r="G45">
-        <v>5.4523660000000002E-2</v>
+        <v>0.13630914899999999</v>
       </c>
       <c r="H45">
-        <v>0.13630914899999999</v>
+        <v>0.340772872</v>
       </c>
       <c r="I45">
         <v>0.340772872</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45">
+        <v>0.340772872</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -6293,25 +6406,28 @@
         <v>2.58</v>
       </c>
       <c r="D46">
-        <v>27500</v>
+        <v>8.0775789999999997E-3</v>
       </c>
       <c r="E46">
-        <v>8.0775789999999997E-3</v>
+        <v>2.0193948E-2</v>
       </c>
       <c r="F46">
-        <v>2.0193948E-2</v>
+        <v>5.0484870000000001E-2</v>
       </c>
       <c r="G46">
-        <v>5.0484870000000001E-2</v>
+        <v>0.12621217500000001</v>
       </c>
       <c r="H46">
-        <v>0.12621217500000001</v>
+        <v>0.315530437</v>
       </c>
       <c r="I46">
         <v>0.315530437</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46">
+        <v>0.315530437</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>3</v>
       </c>
@@ -6322,25 +6438,28 @@
         <v>2.8130000000000002</v>
       </c>
       <c r="D47">
-        <v>30000</v>
+        <v>7.4792399999999998E-3</v>
       </c>
       <c r="E47">
-        <v>7.4792399999999998E-3</v>
+        <v>1.8698099999999999E-2</v>
       </c>
       <c r="F47">
-        <v>1.8698099999999999E-2</v>
+        <v>4.6745250000000002E-2</v>
       </c>
       <c r="G47">
-        <v>4.6745250000000002E-2</v>
+        <v>0.116863125</v>
       </c>
       <c r="H47">
-        <v>0.116863125</v>
+        <v>0.29215781200000002</v>
       </c>
       <c r="I47">
         <v>0.29215781200000002</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47">
+        <v>0.29215781200000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>3</v>
       </c>
@@ -6351,25 +6470,28 @@
         <v>3.0659999999999998</v>
       </c>
       <c r="D48">
-        <v>32500</v>
+        <v>6.925222E-3</v>
       </c>
       <c r="E48">
-        <v>6.925222E-3</v>
+        <v>1.7313056E-2</v>
       </c>
       <c r="F48">
-        <v>1.7313056E-2</v>
+        <v>4.3282638999999998E-2</v>
       </c>
       <c r="G48">
-        <v>4.3282638999999998E-2</v>
+        <v>0.108206597</v>
       </c>
       <c r="H48">
-        <v>0.108206597</v>
+        <v>0.27051649300000002</v>
       </c>
       <c r="I48">
         <v>0.27051649300000002</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J48">
+        <v>0.27051649300000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>3</v>
       </c>
@@ -6380,25 +6502,28 @@
         <v>3.3420000000000001</v>
       </c>
       <c r="D49">
-        <v>35000</v>
+        <v>6.4122429999999998E-3</v>
       </c>
       <c r="E49">
-        <v>6.4122429999999998E-3</v>
+        <v>1.6030606999999999E-2</v>
       </c>
       <c r="F49">
-        <v>1.6030606999999999E-2</v>
+        <v>4.0076516999999999E-2</v>
       </c>
       <c r="G49">
-        <v>4.0076516999999999E-2</v>
+        <v>0.100191294</v>
       </c>
       <c r="H49">
-        <v>0.100191294</v>
+        <v>0.25047823400000002</v>
       </c>
       <c r="I49">
         <v>0.25047823400000002</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J49">
+        <v>0.25047823400000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>3</v>
       </c>
@@ -6409,25 +6534,28 @@
         <v>3.6419999999999999</v>
       </c>
       <c r="D50">
-        <v>37500</v>
+        <v>4.0076519999999996E-3</v>
       </c>
       <c r="E50">
-        <v>4.0076519999999996E-3</v>
+        <v>1.0019129E-2</v>
       </c>
       <c r="F50">
-        <v>1.0019129E-2</v>
+        <v>2.5047823E-2</v>
       </c>
       <c r="G50">
-        <v>2.5047823E-2</v>
+        <v>6.2619559000000005E-2</v>
       </c>
       <c r="H50">
-        <v>6.2619559000000005E-2</v>
+        <v>0.15654889599999999</v>
       </c>
       <c r="I50">
         <v>0.15654889599999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J50">
+        <v>0.15654889599999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>3</v>
       </c>
@@ -6438,25 +6566,28 @@
         <v>3.97</v>
       </c>
       <c r="D51">
-        <v>40000</v>
+        <v>3.7107889999999999E-3</v>
       </c>
       <c r="E51">
-        <v>3.7107889999999999E-3</v>
+        <v>9.2769719999999996E-3</v>
       </c>
       <c r="F51">
-        <v>9.2769719999999996E-3</v>
+        <v>2.3192429000000001E-2</v>
       </c>
       <c r="G51">
-        <v>2.3192429000000001E-2</v>
+        <v>5.7981073000000001E-2</v>
       </c>
       <c r="H51">
-        <v>5.7981073000000001E-2</v>
+        <v>0.144952682</v>
       </c>
       <c r="I51">
         <v>0.144952682</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51">
+        <v>0.144952682</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3</v>
       </c>
@@ -6467,25 +6598,28 @@
         <v>4.3280000000000003</v>
       </c>
       <c r="D52">
-        <v>42500</v>
+        <v>3.4359149999999999E-3</v>
       </c>
       <c r="E52">
-        <v>3.4359149999999999E-3</v>
+        <v>8.5897890000000005E-3</v>
       </c>
       <c r="F52">
-        <v>8.5897890000000005E-3</v>
+        <v>2.1474470999999998E-2</v>
       </c>
       <c r="G52">
-        <v>2.1474470999999998E-2</v>
+        <v>5.3686178000000001E-2</v>
       </c>
       <c r="H52">
-        <v>5.3686178000000001E-2</v>
+        <v>0.13421544599999999</v>
       </c>
       <c r="I52">
         <v>0.13421544599999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J52">
+        <v>0.13421544599999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>3</v>
       </c>
@@ -6496,25 +6630,28 @@
         <v>4.7169999999999996</v>
       </c>
       <c r="D53">
-        <v>45000</v>
+        <v>3.1814030000000002E-3</v>
       </c>
       <c r="E53">
-        <v>3.1814030000000002E-3</v>
+        <v>7.9535079999999998E-3</v>
       </c>
       <c r="F53">
-        <v>7.9535079999999998E-3</v>
+        <v>1.9883769999999999E-2</v>
       </c>
       <c r="G53">
-        <v>1.9883769999999999E-2</v>
+        <v>4.9709424000000002E-2</v>
       </c>
       <c r="H53">
-        <v>4.9709424000000002E-2</v>
+        <v>0.124273561</v>
       </c>
       <c r="I53">
         <v>0.124273561</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J53">
+        <v>0.124273561</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3</v>
       </c>
@@ -6525,25 +6662,28 @@
         <v>5.1420000000000003</v>
       </c>
       <c r="D54">
-        <v>47500</v>
+        <v>2.9457440000000001E-3</v>
       </c>
       <c r="E54">
-        <v>2.9457440000000001E-3</v>
+        <v>7.364359E-3</v>
       </c>
       <c r="F54">
-        <v>7.364359E-3</v>
+        <v>1.8410897999999998E-2</v>
       </c>
       <c r="G54">
-        <v>1.8410897999999998E-2</v>
+        <v>4.6027245000000001E-2</v>
       </c>
       <c r="H54">
-        <v>4.6027245000000001E-2</v>
+        <v>0.115068112</v>
       </c>
       <c r="I54">
         <v>0.115068112</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J54">
+        <v>0.115068112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3</v>
       </c>
@@ -6554,25 +6694,28 @@
         <v>5.6040000000000001</v>
       </c>
       <c r="D55">
-        <v>50000</v>
+        <v>1.7327899999999999E-3</v>
       </c>
       <c r="E55">
-        <v>1.7327899999999999E-3</v>
+        <v>4.3319760000000004E-3</v>
       </c>
       <c r="F55">
-        <v>4.3319760000000004E-3</v>
+        <v>1.082994E-2</v>
       </c>
       <c r="G55">
-        <v>1.082994E-2</v>
+        <v>2.7074850000000001E-2</v>
       </c>
       <c r="H55">
-        <v>2.7074850000000001E-2</v>
+        <v>6.7687125000000001E-2</v>
       </c>
       <c r="I55">
         <v>6.7687125000000001E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J55">
+        <v>6.7687125000000001E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>4</v>
       </c>
@@ -6600,8 +6743,11 @@
       <c r="I56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>4</v>
       </c>
@@ -6612,25 +6758,28 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="D57">
-        <v>2500</v>
+        <v>6.6638899999999996E-3</v>
       </c>
       <c r="E57">
-        <v>6.6638899999999996E-3</v>
+        <v>1.6659725E-2</v>
       </c>
       <c r="F57">
-        <v>1.6659725E-2</v>
+        <v>4.1649313E-2</v>
       </c>
       <c r="G57">
-        <v>4.1649313E-2</v>
+        <v>0.104123282</v>
       </c>
       <c r="H57">
-        <v>0.104123282</v>
+        <v>0.26030820500000001</v>
       </c>
       <c r="I57">
         <v>0.26030820500000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J57">
+        <v>0.26030820500000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>4</v>
       </c>
@@ -6641,25 +6790,28 @@
         <v>1.1879999999999999</v>
       </c>
       <c r="D58">
-        <v>5000</v>
+        <v>6.1702689999999999E-3</v>
       </c>
       <c r="E58">
-        <v>6.1702689999999999E-3</v>
+        <v>1.5425671E-2</v>
       </c>
       <c r="F58">
-        <v>1.5425671E-2</v>
+        <v>3.8564178999999997E-2</v>
       </c>
       <c r="G58">
-        <v>3.8564178999999997E-2</v>
+        <v>9.6410445999999997E-2</v>
       </c>
       <c r="H58">
-        <v>9.6410445999999997E-2</v>
+        <v>0.24102611600000001</v>
       </c>
       <c r="I58">
         <v>0.24102611600000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J58">
+        <v>0.24102611600000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>4</v>
       </c>
@@ -6670,25 +6822,28 @@
         <v>1.2949999999999999</v>
       </c>
       <c r="D59">
-        <v>7500</v>
+        <v>5.7132119999999996E-3</v>
       </c>
       <c r="E59">
-        <v>5.7132119999999996E-3</v>
+        <v>1.4283028999999999E-2</v>
       </c>
       <c r="F59">
-        <v>1.4283028999999999E-2</v>
+        <v>3.5707572999999999E-2</v>
       </c>
       <c r="G59">
-        <v>3.5707572999999999E-2</v>
+        <v>8.9268931999999995E-2</v>
       </c>
       <c r="H59">
-        <v>8.9268931999999995E-2</v>
+        <v>0.223172329</v>
       </c>
       <c r="I59">
         <v>0.223172329</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J59">
+        <v>0.223172329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>4</v>
       </c>
@@ -6699,25 +6854,28 @@
         <v>1.4119999999999999</v>
       </c>
       <c r="D60">
-        <v>10000</v>
+        <v>5.2900109999999998E-3</v>
       </c>
       <c r="E60">
-        <v>5.2900109999999998E-3</v>
+        <v>1.3225027E-2</v>
       </c>
       <c r="F60">
-        <v>1.3225027E-2</v>
+        <v>3.3062567000000001E-2</v>
       </c>
       <c r="G60">
-        <v>3.3062567000000001E-2</v>
+        <v>8.2656417999999995E-2</v>
       </c>
       <c r="H60">
-        <v>8.2656417999999995E-2</v>
+        <v>0.20664104599999999</v>
       </c>
       <c r="I60">
         <v>0.20664104599999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J60">
+        <v>0.20664104599999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>4</v>
       </c>
@@ -6728,25 +6886,28 @@
         <v>1.5389999999999999</v>
       </c>
       <c r="D61">
-        <v>12500</v>
+        <v>4.408342E-3</v>
       </c>
       <c r="E61">
-        <v>4.408342E-3</v>
+        <v>1.1020856000000001E-2</v>
       </c>
       <c r="F61">
-        <v>1.1020856000000001E-2</v>
+        <v>2.7552139E-2</v>
       </c>
       <c r="G61">
-        <v>2.7552139E-2</v>
+        <v>6.8880348999999993E-2</v>
       </c>
       <c r="H61">
-        <v>6.8880348999999993E-2</v>
+        <v>0.17220087100000001</v>
       </c>
       <c r="I61">
         <v>0.17220087100000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J61">
+        <v>0.17220087100000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>4</v>
       </c>
@@ -6757,25 +6918,28 @@
         <v>1.677</v>
       </c>
       <c r="D62">
-        <v>15000</v>
+        <v>4.0817980000000002E-3</v>
       </c>
       <c r="E62">
-        <v>4.0817980000000002E-3</v>
+        <v>1.0204496E-2</v>
       </c>
       <c r="F62">
-        <v>1.0204496E-2</v>
+        <v>2.5511240000000001E-2</v>
       </c>
       <c r="G62">
-        <v>2.5511240000000001E-2</v>
+        <v>6.3778101000000004E-2</v>
       </c>
       <c r="H62">
-        <v>6.3778101000000004E-2</v>
+        <v>0.15944525100000001</v>
       </c>
       <c r="I62">
         <v>0.15944525100000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J62">
+        <v>0.15944525100000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>4</v>
       </c>
@@ -6786,25 +6950,28 @@
         <v>1.8280000000000001</v>
       </c>
       <c r="D63">
-        <v>17500</v>
+        <v>3.779443E-3</v>
       </c>
       <c r="E63">
-        <v>3.779443E-3</v>
+        <v>9.4486069999999995E-3</v>
       </c>
       <c r="F63">
-        <v>9.4486069999999995E-3</v>
+        <v>2.3621519000000001E-2</v>
       </c>
       <c r="G63">
-        <v>2.3621519000000001E-2</v>
+        <v>5.9053796999999998E-2</v>
       </c>
       <c r="H63">
-        <v>5.9053796999999998E-2</v>
+        <v>0.14763449200000001</v>
       </c>
       <c r="I63">
         <v>0.14763449200000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J63">
+        <v>0.14763449200000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>4</v>
       </c>
@@ -6815,25 +6982,28 @@
         <v>1.9930000000000001</v>
       </c>
       <c r="D64">
-        <v>20000</v>
+        <v>3.4994840000000002E-3</v>
       </c>
       <c r="E64">
-        <v>3.4994840000000002E-3</v>
+        <v>8.7487109999999993E-3</v>
       </c>
       <c r="F64">
-        <v>8.7487109999999993E-3</v>
+        <v>2.1871776999999998E-2</v>
       </c>
       <c r="G64">
-        <v>2.1871776999999998E-2</v>
+        <v>5.4679441000000002E-2</v>
       </c>
       <c r="H64">
-        <v>5.4679441000000002E-2</v>
+        <v>0.136698604</v>
       </c>
       <c r="I64">
         <v>0.136698604</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J64">
+        <v>0.136698604</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>4</v>
       </c>
@@ -6844,25 +7014,28 @@
         <v>2.1720000000000002</v>
       </c>
       <c r="D65">
-        <v>22500</v>
+        <v>3.2402630000000002E-3</v>
       </c>
       <c r="E65">
-        <v>3.2402630000000002E-3</v>
+        <v>8.1006580000000002E-3</v>
       </c>
       <c r="F65">
-        <v>8.1006580000000002E-3</v>
+        <v>2.0251644999999999E-2</v>
       </c>
       <c r="G65">
-        <v>2.0251644999999999E-2</v>
+        <v>5.0629111999999997E-2</v>
       </c>
       <c r="H65">
-        <v>5.0629111999999997E-2</v>
+        <v>0.126572781</v>
       </c>
       <c r="I65">
         <v>0.126572781</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J65">
+        <v>0.126572781</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>4</v>
       </c>
@@ -6873,25 +7046,28 @@
         <v>2.367</v>
       </c>
       <c r="D66">
-        <v>25000</v>
+        <v>2.4925099999999999E-3</v>
       </c>
       <c r="E66">
-        <v>2.4925099999999999E-3</v>
+        <v>6.2312749999999997E-3</v>
       </c>
       <c r="F66">
-        <v>6.2312749999999997E-3</v>
+        <v>1.5578188E-2</v>
       </c>
       <c r="G66">
-        <v>1.5578188E-2</v>
+        <v>3.8945471000000002E-2</v>
       </c>
       <c r="H66">
-        <v>3.8945471000000002E-2</v>
+        <v>9.7363677999999995E-2</v>
       </c>
       <c r="I66">
         <v>9.7363677999999995E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J66">
+        <v>9.7363677999999995E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>4</v>
       </c>
@@ -6902,25 +7078,28 @@
         <v>2.58</v>
       </c>
       <c r="D67">
-        <v>27500</v>
+        <v>2.30788E-3</v>
       </c>
       <c r="E67">
-        <v>2.30788E-3</v>
+        <v>5.7696989999999997E-3</v>
       </c>
       <c r="F67">
-        <v>5.7696989999999997E-3</v>
+        <v>1.4424249E-2</v>
       </c>
       <c r="G67">
-        <v>1.4424249E-2</v>
+        <v>3.6060621000000001E-2</v>
       </c>
       <c r="H67">
-        <v>3.6060621000000001E-2</v>
+        <v>9.0151553999999995E-2</v>
       </c>
       <c r="I67">
         <v>9.0151553999999995E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J67">
+        <v>9.0151553999999995E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>4</v>
       </c>
@@ -6931,25 +7110,28 @@
         <v>2.8130000000000002</v>
       </c>
       <c r="D68">
-        <v>30000</v>
+        <v>2.1369259999999999E-3</v>
       </c>
       <c r="E68">
-        <v>2.1369259999999999E-3</v>
+        <v>5.3423139999999999E-3</v>
       </c>
       <c r="F68">
-        <v>5.3423139999999999E-3</v>
+        <v>1.3355786E-2</v>
       </c>
       <c r="G68">
-        <v>1.3355786E-2</v>
+        <v>3.3389464000000001E-2</v>
       </c>
       <c r="H68">
-        <v>3.3389464000000001E-2</v>
+        <v>8.3473661000000005E-2</v>
       </c>
       <c r="I68">
         <v>8.3473661000000005E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J68">
+        <v>8.3473661000000005E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>4</v>
       </c>
@@ -6960,25 +7142,28 @@
         <v>3.0659999999999998</v>
       </c>
       <c r="D69">
-        <v>32500</v>
+        <v>1.9786349999999999E-3</v>
       </c>
       <c r="E69">
-        <v>1.9786349999999999E-3</v>
+        <v>4.9465869999999997E-3</v>
       </c>
       <c r="F69">
-        <v>4.9465869999999997E-3</v>
+        <v>1.2366468E-2</v>
       </c>
       <c r="G69">
-        <v>1.2366468E-2</v>
+        <v>3.0916170999999999E-2</v>
       </c>
       <c r="H69">
-        <v>3.0916170999999999E-2</v>
+        <v>7.7290426999999995E-2</v>
       </c>
       <c r="I69">
         <v>7.7290426999999995E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J69">
+        <v>7.7290426999999995E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>4</v>
       </c>
@@ -6989,25 +7174,28 @@
         <v>3.3420000000000001</v>
       </c>
       <c r="D70">
-        <v>35000</v>
+        <v>1.832069E-3</v>
       </c>
       <c r="E70">
-        <v>1.832069E-3</v>
+        <v>4.5801729999999999E-3</v>
       </c>
       <c r="F70">
-        <v>4.5801729999999999E-3</v>
+        <v>1.1450434000000001E-2</v>
       </c>
       <c r="G70">
-        <v>1.1450434000000001E-2</v>
+        <v>2.8626084E-2</v>
       </c>
       <c r="H70">
-        <v>2.8626084E-2</v>
+        <v>7.1565210000000004E-2</v>
       </c>
       <c r="I70">
         <v>7.1565210000000004E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J70">
+        <v>7.1565210000000004E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>4</v>
       </c>
@@ -7018,25 +7206,28 @@
         <v>3.6419999999999999</v>
       </c>
       <c r="D71">
-        <v>37500</v>
+        <v>1.1450430000000001E-3</v>
       </c>
       <c r="E71">
-        <v>1.1450430000000001E-3</v>
+        <v>2.862608E-3</v>
       </c>
       <c r="F71">
-        <v>2.862608E-3</v>
+        <v>7.1565209999999999E-3</v>
       </c>
       <c r="G71">
-        <v>7.1565209999999999E-3</v>
+        <v>1.7891302000000001E-2</v>
       </c>
       <c r="H71">
-        <v>1.7891302000000001E-2</v>
+        <v>4.4728256000000001E-2</v>
       </c>
       <c r="I71">
         <v>4.4728256000000001E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J71">
+        <v>4.4728256000000001E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>4</v>
       </c>
@@ -7047,25 +7238,28 @@
         <v>3.97</v>
       </c>
       <c r="D72">
-        <v>40000</v>
+        <v>1.0602249999999999E-3</v>
       </c>
       <c r="E72">
-        <v>1.0602249999999999E-3</v>
+        <v>2.6505629999999999E-3</v>
       </c>
       <c r="F72">
-        <v>2.6505629999999999E-3</v>
+        <v>6.6264080000000003E-3</v>
       </c>
       <c r="G72">
-        <v>6.6264080000000003E-3</v>
+        <v>1.6566021E-2</v>
       </c>
       <c r="H72">
-        <v>1.6566021E-2</v>
+        <v>4.1415052000000001E-2</v>
       </c>
       <c r="I72">
         <v>4.1415052000000001E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J72">
+        <v>4.1415052000000001E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>4</v>
       </c>
@@ -7076,25 +7270,28 @@
         <v>4.3280000000000003</v>
       </c>
       <c r="D73">
-        <v>42500</v>
+        <v>9.8168999999999991E-4</v>
       </c>
       <c r="E73">
-        <v>9.8168999999999991E-4</v>
+        <v>2.454225E-3</v>
       </c>
       <c r="F73">
-        <v>2.454225E-3</v>
+        <v>6.1355630000000001E-3</v>
       </c>
       <c r="G73">
-        <v>6.1355630000000001E-3</v>
+        <v>1.5338908E-2</v>
       </c>
       <c r="H73">
-        <v>1.5338908E-2</v>
+        <v>3.8347270000000003E-2</v>
       </c>
       <c r="I73">
         <v>3.8347270000000003E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J73">
+        <v>3.8347270000000003E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>4</v>
       </c>
@@ -7105,25 +7302,28 @@
         <v>4.7169999999999996</v>
       </c>
       <c r="D74">
-        <v>45000</v>
+        <v>9.0897199999999997E-4</v>
       </c>
       <c r="E74">
-        <v>9.0897199999999997E-4</v>
+        <v>2.2724310000000001E-3</v>
       </c>
       <c r="F74">
-        <v>2.2724310000000001E-3</v>
+        <v>5.6810769999999997E-3</v>
       </c>
       <c r="G74">
-        <v>5.6810769999999997E-3</v>
+        <v>1.4202693000000001E-2</v>
       </c>
       <c r="H74">
-        <v>1.4202693000000001E-2</v>
+        <v>3.5506731999999999E-2</v>
       </c>
       <c r="I74">
         <v>3.5506731999999999E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J74">
+        <v>3.5506731999999999E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>4</v>
       </c>
@@ -7134,25 +7334,28 @@
         <v>5.1420000000000003</v>
       </c>
       <c r="D75">
-        <v>47500</v>
+        <v>8.4164099999999996E-4</v>
       </c>
       <c r="E75">
-        <v>8.4164099999999996E-4</v>
+        <v>2.104103E-3</v>
       </c>
       <c r="F75">
-        <v>2.104103E-3</v>
+        <v>5.260257E-3</v>
       </c>
       <c r="G75">
-        <v>5.260257E-3</v>
+        <v>1.3150640999999999E-2</v>
       </c>
       <c r="H75">
-        <v>1.3150640999999999E-2</v>
+        <v>3.2876602999999997E-2</v>
       </c>
       <c r="I75">
         <v>3.2876602999999997E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J75">
+        <v>3.2876602999999997E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>4</v>
       </c>
@@ -7163,25 +7366,28 @@
         <v>5.6040000000000001</v>
       </c>
       <c r="D76">
-        <v>50000</v>
+        <v>4.95083E-4</v>
       </c>
       <c r="E76">
-        <v>4.95083E-4</v>
+        <v>1.237707E-3</v>
       </c>
       <c r="F76">
-        <v>1.237707E-3</v>
+        <v>3.0942690000000002E-3</v>
       </c>
       <c r="G76">
-        <v>3.0942690000000002E-3</v>
+        <v>7.7356710000000004E-3</v>
       </c>
       <c r="H76">
-        <v>7.7356710000000004E-3</v>
+        <v>1.9339179000000001E-2</v>
       </c>
       <c r="I76">
         <v>1.9339179000000001E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J76">
+        <v>1.9339179000000001E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>4</v>
       </c>
@@ -7192,25 +7398,28 @@
         <v>6.109</v>
       </c>
       <c r="D77">
-        <v>52500</v>
+        <v>4.5841000000000002E-4</v>
       </c>
       <c r="E77">
-        <v>4.5841000000000002E-4</v>
+        <v>1.146025E-3</v>
       </c>
       <c r="F77">
-        <v>1.146025E-3</v>
+        <v>2.8650630000000002E-3</v>
       </c>
       <c r="G77">
-        <v>2.8650630000000002E-3</v>
+        <v>7.162659E-3</v>
       </c>
       <c r="H77">
-        <v>7.162659E-3</v>
+        <v>1.7906647000000001E-2</v>
       </c>
       <c r="I77">
         <v>1.7906647000000001E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J77">
+        <v>1.7906647000000001E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>4</v>
       </c>
@@ -7221,25 +7430,28 @@
         <v>6.6589999999999998</v>
       </c>
       <c r="D78">
-        <v>55000</v>
+        <v>4.24454E-4</v>
       </c>
       <c r="E78">
-        <v>4.24454E-4</v>
+        <v>1.0611349999999999E-3</v>
       </c>
       <c r="F78">
-        <v>1.0611349999999999E-3</v>
+        <v>2.6528369999999999E-3</v>
       </c>
       <c r="G78">
-        <v>2.6528369999999999E-3</v>
+        <v>6.6320909999999997E-3</v>
       </c>
       <c r="H78">
-        <v>6.6320909999999997E-3</v>
+        <v>1.6580228999999998E-2</v>
       </c>
       <c r="I78">
         <v>1.6580228999999998E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J78">
+        <v>1.6580228999999998E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>4</v>
       </c>
@@ -7250,25 +7462,28 @@
         <v>7.258</v>
       </c>
       <c r="D79">
-        <v>57500</v>
+        <v>3.93013E-4</v>
       </c>
       <c r="E79">
-        <v>3.93013E-4</v>
+        <v>9.8253199999999994E-4</v>
       </c>
       <c r="F79">
-        <v>9.8253199999999994E-4</v>
+        <v>2.4563300000000001E-3</v>
       </c>
       <c r="G79">
-        <v>2.4563300000000001E-3</v>
+        <v>6.1408249999999999E-3</v>
       </c>
       <c r="H79">
-        <v>6.1408249999999999E-3</v>
+        <v>1.5352063000000001E-2</v>
       </c>
       <c r="I79">
         <v>1.5352063000000001E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J79">
+        <v>1.5352063000000001E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>4</v>
       </c>
@@ -7279,25 +7494,28 @@
         <v>7.9109999999999996</v>
       </c>
       <c r="D80">
-        <v>60000</v>
+        <v>3.6390100000000002E-4</v>
       </c>
       <c r="E80">
-        <v>3.6390100000000002E-4</v>
+        <v>9.09752E-4</v>
       </c>
       <c r="F80">
-        <v>9.09752E-4</v>
+        <v>2.2743799999999999E-3</v>
       </c>
       <c r="G80">
-        <v>2.2743799999999999E-3</v>
+        <v>5.685949E-3</v>
       </c>
       <c r="H80">
-        <v>5.685949E-3</v>
+        <v>1.4214874000000001E-2</v>
       </c>
       <c r="I80">
         <v>1.4214874000000001E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J80">
+        <v>1.4214874000000001E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>4</v>
       </c>
@@ -7308,25 +7526,28 @@
         <v>8.6229999999999993</v>
       </c>
       <c r="D81">
-        <v>62500</v>
+        <v>1.8195E-4</v>
       </c>
       <c r="E81">
-        <v>1.8195E-4</v>
+        <v>4.54876E-4</v>
       </c>
       <c r="F81">
-        <v>4.54876E-4</v>
+        <v>1.1371899999999999E-3</v>
       </c>
       <c r="G81">
-        <v>1.1371899999999999E-3</v>
+        <v>2.8429750000000002E-3</v>
       </c>
       <c r="H81">
-        <v>2.8429750000000002E-3</v>
+        <v>7.1074370000000003E-3</v>
       </c>
       <c r="I81">
         <v>7.1074370000000003E-3</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J81">
+        <v>7.1074370000000003E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>4</v>
       </c>
@@ -7337,25 +7558,28 @@
         <v>9.3989999999999991</v>
       </c>
       <c r="D82">
-        <v>65000</v>
+        <v>1.6847300000000001E-4</v>
       </c>
       <c r="E82">
-        <v>1.6847300000000001E-4</v>
+        <v>4.2118100000000002E-4</v>
       </c>
       <c r="F82">
-        <v>4.2118100000000002E-4</v>
+        <v>1.052954E-3</v>
       </c>
       <c r="G82">
-        <v>1.052954E-3</v>
+        <v>2.6323840000000002E-3</v>
       </c>
       <c r="H82">
-        <v>2.6323840000000002E-3</v>
+        <v>6.5809600000000003E-3</v>
       </c>
       <c r="I82">
         <v>6.5809600000000003E-3</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J82">
+        <v>6.5809600000000003E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>4</v>
       </c>
@@ -7366,25 +7590,28 @@
         <v>10.244999999999999</v>
       </c>
       <c r="D83">
-        <v>67500</v>
+        <v>1.55993E-4</v>
       </c>
       <c r="E83">
-        <v>1.55993E-4</v>
+        <v>3.89983E-4</v>
       </c>
       <c r="F83">
-        <v>3.89983E-4</v>
+        <v>9.7495700000000004E-4</v>
       </c>
       <c r="G83">
-        <v>9.7495700000000004E-4</v>
+        <v>2.4373929999999999E-3</v>
       </c>
       <c r="H83">
-        <v>2.4373929999999999E-3</v>
+        <v>6.0934810000000004E-3</v>
       </c>
       <c r="I83">
         <v>6.0934810000000004E-3</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J83">
+        <v>6.0934810000000004E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>4</v>
       </c>
@@ -7395,25 +7622,28 @@
         <v>11.167</v>
       </c>
       <c r="D84">
-        <v>70000</v>
+        <v>1.4443799999999999E-4</v>
       </c>
       <c r="E84">
-        <v>1.4443799999999999E-4</v>
+        <v>3.6109500000000002E-4</v>
       </c>
       <c r="F84">
-        <v>3.6109500000000002E-4</v>
+        <v>9.0273800000000004E-4</v>
       </c>
       <c r="G84">
-        <v>9.0273800000000004E-4</v>
+        <v>2.2568449999999999E-3</v>
       </c>
       <c r="H84">
-        <v>2.2568449999999999E-3</v>
+        <v>5.6421120000000003E-3</v>
       </c>
       <c r="I84">
         <v>5.6421120000000003E-3</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J84">
+        <v>5.6421120000000003E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>4</v>
       </c>
@@ -7424,25 +7654,28 @@
         <v>12.172000000000001</v>
       </c>
       <c r="D85">
-        <v>72500</v>
+        <v>1.3373899999999999E-4</v>
       </c>
       <c r="E85">
-        <v>1.3373899999999999E-4</v>
+        <v>3.3434699999999998E-4</v>
       </c>
       <c r="F85">
-        <v>3.3434699999999998E-4</v>
+        <v>8.3586900000000004E-4</v>
       </c>
       <c r="G85">
-        <v>8.3586900000000004E-4</v>
+        <v>2.089671E-3</v>
       </c>
       <c r="H85">
-        <v>2.089671E-3</v>
+        <v>5.2241780000000003E-3</v>
       </c>
       <c r="I85">
         <v>5.2241780000000003E-3</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J85">
+        <v>5.2241780000000003E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>4</v>
       </c>
@@ -7452,22 +7685,2009 @@
       <c r="C86">
         <v>13.268000000000001</v>
       </c>
-      <c r="D86">
-        <v>75000</v>
+      <c r="D86" s="1">
+        <v>4.4579700000000003E-5</v>
       </c>
       <c r="E86" s="1">
+        <v>1.11449E-4</v>
+      </c>
+      <c r="F86">
+        <v>2.7862299999999998E-4</v>
+      </c>
+      <c r="G86">
+        <v>6.9655699999999999E-4</v>
+      </c>
+      <c r="H86">
+        <v>1.7413929999999999E-3</v>
+      </c>
+      <c r="I86">
+        <v>1.7413929999999999E-3</v>
+      </c>
+      <c r="J86">
+        <v>1.7413929999999999E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>5</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>5</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D88">
+        <v>6.6638899999999996E-3</v>
+      </c>
+      <c r="E88">
+        <v>1.6659725E-2</v>
+      </c>
+      <c r="F88">
+        <v>4.1649313E-2</v>
+      </c>
+      <c r="G88">
+        <v>0.104123282</v>
+      </c>
+      <c r="H88">
+        <v>0.26030820500000001</v>
+      </c>
+      <c r="I88">
+        <v>0.26030820500000001</v>
+      </c>
+      <c r="J88">
+        <v>0.26030820500000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>5</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="D89">
+        <v>6.1702689999999999E-3</v>
+      </c>
+      <c r="E89">
+        <v>1.5425671E-2</v>
+      </c>
+      <c r="F89">
+        <v>3.8564178999999997E-2</v>
+      </c>
+      <c r="G89">
+        <v>9.6410445999999997E-2</v>
+      </c>
+      <c r="H89">
+        <v>0.24102611600000001</v>
+      </c>
+      <c r="I89">
+        <v>0.24102611600000001</v>
+      </c>
+      <c r="J89">
+        <v>0.24102611600000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>5</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>1.2949999999999999</v>
+      </c>
+      <c r="D90">
+        <v>5.7132119999999996E-3</v>
+      </c>
+      <c r="E90">
+        <v>1.4283028999999999E-2</v>
+      </c>
+      <c r="F90">
+        <v>3.5707572999999999E-2</v>
+      </c>
+      <c r="G90">
+        <v>8.9268931999999995E-2</v>
+      </c>
+      <c r="H90">
+        <v>0.223172329</v>
+      </c>
+      <c r="I90">
+        <v>0.223172329</v>
+      </c>
+      <c r="J90">
+        <v>0.223172329</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>5</v>
+      </c>
+      <c r="B91">
+        <v>4</v>
+      </c>
+      <c r="C91">
+        <v>1.4119999999999999</v>
+      </c>
+      <c r="D91">
+        <v>5.2900109999999998E-3</v>
+      </c>
+      <c r="E91">
+        <v>1.3225027E-2</v>
+      </c>
+      <c r="F91">
+        <v>3.3062567000000001E-2</v>
+      </c>
+      <c r="G91">
+        <v>8.2656417999999995E-2</v>
+      </c>
+      <c r="H91">
+        <v>0.20664104599999999</v>
+      </c>
+      <c r="I91">
+        <v>0.20664104599999999</v>
+      </c>
+      <c r="J91">
+        <v>0.20664104599999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>5</v>
+      </c>
+      <c r="B92">
+        <v>5</v>
+      </c>
+      <c r="C92">
+        <v>1.5389999999999999</v>
+      </c>
+      <c r="D92">
+        <v>4.408342E-3</v>
+      </c>
+      <c r="E92">
+        <v>1.1020856000000001E-2</v>
+      </c>
+      <c r="F92">
+        <v>2.7552139E-2</v>
+      </c>
+      <c r="G92">
+        <v>6.8880348999999993E-2</v>
+      </c>
+      <c r="H92">
+        <v>0.17220087100000001</v>
+      </c>
+      <c r="I92">
+        <v>0.17220087100000001</v>
+      </c>
+      <c r="J92">
+        <v>0.17220087100000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>5</v>
+      </c>
+      <c r="B93">
+        <v>6</v>
+      </c>
+      <c r="C93">
+        <v>1.677</v>
+      </c>
+      <c r="D93">
+        <v>4.0817980000000002E-3</v>
+      </c>
+      <c r="E93">
+        <v>1.0204496E-2</v>
+      </c>
+      <c r="F93">
+        <v>2.5511240000000001E-2</v>
+      </c>
+      <c r="G93">
+        <v>6.3778101000000004E-2</v>
+      </c>
+      <c r="H93">
+        <v>0.15944525100000001</v>
+      </c>
+      <c r="I93">
+        <v>0.15944525100000001</v>
+      </c>
+      <c r="J93">
+        <v>0.15944525100000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>5</v>
+      </c>
+      <c r="B94">
+        <v>7</v>
+      </c>
+      <c r="C94">
+        <v>1.8280000000000001</v>
+      </c>
+      <c r="D94">
+        <v>3.779443E-3</v>
+      </c>
+      <c r="E94">
+        <v>9.4486069999999995E-3</v>
+      </c>
+      <c r="F94">
+        <v>2.3621519000000001E-2</v>
+      </c>
+      <c r="G94">
+        <v>5.9053796999999998E-2</v>
+      </c>
+      <c r="H94">
+        <v>0.14763449200000001</v>
+      </c>
+      <c r="I94">
+        <v>0.14763449200000001</v>
+      </c>
+      <c r="J94">
+        <v>0.14763449200000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>5</v>
+      </c>
+      <c r="B95">
+        <v>8</v>
+      </c>
+      <c r="C95">
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="D95">
+        <v>3.4994840000000002E-3</v>
+      </c>
+      <c r="E95">
+        <v>8.7487109999999993E-3</v>
+      </c>
+      <c r="F95">
+        <v>2.1871776999999998E-2</v>
+      </c>
+      <c r="G95">
+        <v>5.4679441000000002E-2</v>
+      </c>
+      <c r="H95">
+        <v>0.136698604</v>
+      </c>
+      <c r="I95">
+        <v>0.136698604</v>
+      </c>
+      <c r="J95">
+        <v>0.136698604</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>5</v>
+      </c>
+      <c r="B96">
+        <v>9</v>
+      </c>
+      <c r="C96">
+        <v>2.1720000000000002</v>
+      </c>
+      <c r="D96">
+        <v>3.2402630000000002E-3</v>
+      </c>
+      <c r="E96">
+        <v>8.1006580000000002E-3</v>
+      </c>
+      <c r="F96">
+        <v>2.0251644999999999E-2</v>
+      </c>
+      <c r="G96">
+        <v>5.0629111999999997E-2</v>
+      </c>
+      <c r="H96">
+        <v>0.126572781</v>
+      </c>
+      <c r="I96">
+        <v>0.126572781</v>
+      </c>
+      <c r="J96">
+        <v>0.126572781</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>5</v>
+      </c>
+      <c r="B97">
+        <v>10</v>
+      </c>
+      <c r="C97">
+        <v>2.367</v>
+      </c>
+      <c r="D97">
+        <v>2.4925099999999999E-3</v>
+      </c>
+      <c r="E97">
+        <v>6.2312749999999997E-3</v>
+      </c>
+      <c r="F97">
+        <v>1.5578188E-2</v>
+      </c>
+      <c r="G97">
+        <v>3.8945471000000002E-2</v>
+      </c>
+      <c r="H97">
+        <v>9.7363677999999995E-2</v>
+      </c>
+      <c r="I97">
+        <v>9.7363677999999995E-2</v>
+      </c>
+      <c r="J97">
+        <v>9.7363677999999995E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>5</v>
+      </c>
+      <c r="B98">
+        <v>11</v>
+      </c>
+      <c r="C98">
+        <v>2.58</v>
+      </c>
+      <c r="D98">
+        <v>2.30788E-3</v>
+      </c>
+      <c r="E98">
+        <v>5.7696989999999997E-3</v>
+      </c>
+      <c r="F98">
+        <v>1.4424249E-2</v>
+      </c>
+      <c r="G98">
+        <v>3.6060621000000001E-2</v>
+      </c>
+      <c r="H98">
+        <v>9.0151553999999995E-2</v>
+      </c>
+      <c r="I98">
+        <v>9.0151553999999995E-2</v>
+      </c>
+      <c r="J98">
+        <v>9.0151553999999995E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>5</v>
+      </c>
+      <c r="B99">
+        <v>12</v>
+      </c>
+      <c r="C99">
+        <v>2.8130000000000002</v>
+      </c>
+      <c r="D99">
+        <v>2.1369259999999999E-3</v>
+      </c>
+      <c r="E99">
+        <v>5.3423139999999999E-3</v>
+      </c>
+      <c r="F99">
+        <v>1.3355786E-2</v>
+      </c>
+      <c r="G99">
+        <v>3.3389464000000001E-2</v>
+      </c>
+      <c r="H99">
+        <v>8.3473661000000005E-2</v>
+      </c>
+      <c r="I99">
+        <v>8.3473661000000005E-2</v>
+      </c>
+      <c r="J99">
+        <v>8.3473661000000005E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>5</v>
+      </c>
+      <c r="B100">
+        <v>13</v>
+      </c>
+      <c r="C100">
+        <v>3.0659999999999998</v>
+      </c>
+      <c r="D100">
+        <v>1.9786349999999999E-3</v>
+      </c>
+      <c r="E100">
+        <v>4.9465869999999997E-3</v>
+      </c>
+      <c r="F100">
+        <v>1.2366468E-2</v>
+      </c>
+      <c r="G100">
+        <v>3.0916170999999999E-2</v>
+      </c>
+      <c r="H100">
+        <v>7.7290426999999995E-2</v>
+      </c>
+      <c r="I100">
+        <v>7.7290426999999995E-2</v>
+      </c>
+      <c r="J100">
+        <v>7.7290426999999995E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>5</v>
+      </c>
+      <c r="B101">
+        <v>14</v>
+      </c>
+      <c r="C101">
+        <v>3.3420000000000001</v>
+      </c>
+      <c r="D101">
+        <v>1.832069E-3</v>
+      </c>
+      <c r="E101">
+        <v>4.5801729999999999E-3</v>
+      </c>
+      <c r="F101">
+        <v>1.1450434000000001E-2</v>
+      </c>
+      <c r="G101">
+        <v>2.8626084E-2</v>
+      </c>
+      <c r="H101">
+        <v>7.1565210000000004E-2</v>
+      </c>
+      <c r="I101">
+        <v>7.1565210000000004E-2</v>
+      </c>
+      <c r="J101">
+        <v>7.1565210000000004E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>5</v>
+      </c>
+      <c r="B102">
+        <v>15</v>
+      </c>
+      <c r="C102">
+        <v>3.6419999999999999</v>
+      </c>
+      <c r="D102">
+        <v>1.1450430000000001E-3</v>
+      </c>
+      <c r="E102">
+        <v>2.862608E-3</v>
+      </c>
+      <c r="F102">
+        <v>7.1565209999999999E-3</v>
+      </c>
+      <c r="G102">
+        <v>1.7891302000000001E-2</v>
+      </c>
+      <c r="H102">
+        <v>4.4728256000000001E-2</v>
+      </c>
+      <c r="I102">
+        <v>4.4728256000000001E-2</v>
+      </c>
+      <c r="J102">
+        <v>4.4728256000000001E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>5</v>
+      </c>
+      <c r="B103">
+        <v>16</v>
+      </c>
+      <c r="C103">
+        <v>3.97</v>
+      </c>
+      <c r="D103">
+        <v>1.0602249999999999E-3</v>
+      </c>
+      <c r="E103">
+        <v>2.6505629999999999E-3</v>
+      </c>
+      <c r="F103">
+        <v>6.6264080000000003E-3</v>
+      </c>
+      <c r="G103">
+        <v>1.6566021E-2</v>
+      </c>
+      <c r="H103">
+        <v>4.1415052000000001E-2</v>
+      </c>
+      <c r="I103">
+        <v>4.1415052000000001E-2</v>
+      </c>
+      <c r="J103">
+        <v>4.1415052000000001E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>5</v>
+      </c>
+      <c r="B104">
+        <v>17</v>
+      </c>
+      <c r="C104">
+        <v>4.3280000000000003</v>
+      </c>
+      <c r="D104">
+        <v>9.8168999999999991E-4</v>
+      </c>
+      <c r="E104">
+        <v>2.454225E-3</v>
+      </c>
+      <c r="F104">
+        <v>6.1355630000000001E-3</v>
+      </c>
+      <c r="G104">
+        <v>1.5338908E-2</v>
+      </c>
+      <c r="H104">
+        <v>3.8347270000000003E-2</v>
+      </c>
+      <c r="I104">
+        <v>3.8347270000000003E-2</v>
+      </c>
+      <c r="J104">
+        <v>3.8347270000000003E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>5</v>
+      </c>
+      <c r="B105">
+        <v>18</v>
+      </c>
+      <c r="C105">
+        <v>4.7169999999999996</v>
+      </c>
+      <c r="D105">
+        <v>9.0897199999999997E-4</v>
+      </c>
+      <c r="E105">
+        <v>2.2724310000000001E-3</v>
+      </c>
+      <c r="F105">
+        <v>5.6810769999999997E-3</v>
+      </c>
+      <c r="G105">
+        <v>1.4202693000000001E-2</v>
+      </c>
+      <c r="H105">
+        <v>3.5506731999999999E-2</v>
+      </c>
+      <c r="I105">
+        <v>3.5506731999999999E-2</v>
+      </c>
+      <c r="J105">
+        <v>3.5506731999999999E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>5</v>
+      </c>
+      <c r="B106">
+        <v>19</v>
+      </c>
+      <c r="C106">
+        <v>5.1420000000000003</v>
+      </c>
+      <c r="D106">
+        <v>8.4164099999999996E-4</v>
+      </c>
+      <c r="E106">
+        <v>2.104103E-3</v>
+      </c>
+      <c r="F106">
+        <v>5.260257E-3</v>
+      </c>
+      <c r="G106">
+        <v>1.3150640999999999E-2</v>
+      </c>
+      <c r="H106">
+        <v>3.2876602999999997E-2</v>
+      </c>
+      <c r="I106">
+        <v>3.2876602999999997E-2</v>
+      </c>
+      <c r="J106">
+        <v>3.2876602999999997E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>5</v>
+      </c>
+      <c r="B107">
+        <v>20</v>
+      </c>
+      <c r="C107">
+        <v>5.6040000000000001</v>
+      </c>
+      <c r="D107">
+        <v>4.95083E-4</v>
+      </c>
+      <c r="E107">
+        <v>1.237707E-3</v>
+      </c>
+      <c r="F107">
+        <v>3.0942690000000002E-3</v>
+      </c>
+      <c r="G107">
+        <v>7.7356710000000004E-3</v>
+      </c>
+      <c r="H107">
+        <v>1.9339179000000001E-2</v>
+      </c>
+      <c r="I107">
+        <v>1.9339179000000001E-2</v>
+      </c>
+      <c r="J107">
+        <v>1.9339179000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>5</v>
+      </c>
+      <c r="B108">
+        <v>21</v>
+      </c>
+      <c r="C108">
+        <v>6.109</v>
+      </c>
+      <c r="D108">
+        <v>4.5841000000000002E-4</v>
+      </c>
+      <c r="E108">
+        <v>1.146025E-3</v>
+      </c>
+      <c r="F108">
+        <v>2.8650630000000002E-3</v>
+      </c>
+      <c r="G108">
+        <v>7.162659E-3</v>
+      </c>
+      <c r="H108">
+        <v>1.7906647000000001E-2</v>
+      </c>
+      <c r="I108">
+        <v>1.7906647000000001E-2</v>
+      </c>
+      <c r="J108">
+        <v>1.7906647000000001E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>5</v>
+      </c>
+      <c r="B109">
+        <v>22</v>
+      </c>
+      <c r="C109">
+        <v>6.6589999999999998</v>
+      </c>
+      <c r="D109">
+        <v>4.24454E-4</v>
+      </c>
+      <c r="E109">
+        <v>1.0611349999999999E-3</v>
+      </c>
+      <c r="F109">
+        <v>2.6528369999999999E-3</v>
+      </c>
+      <c r="G109">
+        <v>6.6320909999999997E-3</v>
+      </c>
+      <c r="H109">
+        <v>1.6580228999999998E-2</v>
+      </c>
+      <c r="I109">
+        <v>1.6580228999999998E-2</v>
+      </c>
+      <c r="J109">
+        <v>1.6580228999999998E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>5</v>
+      </c>
+      <c r="B110">
+        <v>23</v>
+      </c>
+      <c r="C110">
+        <v>7.258</v>
+      </c>
+      <c r="D110">
+        <v>3.93013E-4</v>
+      </c>
+      <c r="E110">
+        <v>9.8253199999999994E-4</v>
+      </c>
+      <c r="F110">
+        <v>2.4563300000000001E-3</v>
+      </c>
+      <c r="G110">
+        <v>6.1408249999999999E-3</v>
+      </c>
+      <c r="H110">
+        <v>1.5352063000000001E-2</v>
+      </c>
+      <c r="I110">
+        <v>1.5352063000000001E-2</v>
+      </c>
+      <c r="J110">
+        <v>1.5352063000000001E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>5</v>
+      </c>
+      <c r="B111">
+        <v>24</v>
+      </c>
+      <c r="C111">
+        <v>7.9109999999999996</v>
+      </c>
+      <c r="D111">
+        <v>3.6390100000000002E-4</v>
+      </c>
+      <c r="E111">
+        <v>9.09752E-4</v>
+      </c>
+      <c r="F111">
+        <v>2.2743799999999999E-3</v>
+      </c>
+      <c r="G111">
+        <v>5.685949E-3</v>
+      </c>
+      <c r="H111">
+        <v>1.4214874000000001E-2</v>
+      </c>
+      <c r="I111">
+        <v>1.4214874000000001E-2</v>
+      </c>
+      <c r="J111">
+        <v>1.4214874000000001E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>5</v>
+      </c>
+      <c r="B112">
+        <v>25</v>
+      </c>
+      <c r="C112">
+        <v>8.6229999999999993</v>
+      </c>
+      <c r="D112">
+        <v>1.8195E-4</v>
+      </c>
+      <c r="E112">
+        <v>4.54876E-4</v>
+      </c>
+      <c r="F112">
+        <v>1.1371899999999999E-3</v>
+      </c>
+      <c r="G112">
+        <v>2.8429750000000002E-3</v>
+      </c>
+      <c r="H112">
+        <v>7.1074370000000003E-3</v>
+      </c>
+      <c r="I112">
+        <v>7.1074370000000003E-3</v>
+      </c>
+      <c r="J112">
+        <v>7.1074370000000003E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>5</v>
+      </c>
+      <c r="B113">
+        <v>26</v>
+      </c>
+      <c r="C113">
+        <v>9.3989999999999991</v>
+      </c>
+      <c r="D113">
+        <v>1.6847300000000001E-4</v>
+      </c>
+      <c r="E113">
+        <v>4.2118100000000002E-4</v>
+      </c>
+      <c r="F113">
+        <v>1.052954E-3</v>
+      </c>
+      <c r="G113">
+        <v>2.6323840000000002E-3</v>
+      </c>
+      <c r="H113">
+        <v>6.5809600000000003E-3</v>
+      </c>
+      <c r="I113">
+        <v>6.5809600000000003E-3</v>
+      </c>
+      <c r="J113">
+        <v>6.5809600000000003E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>5</v>
+      </c>
+      <c r="B114">
+        <v>27</v>
+      </c>
+      <c r="C114">
+        <v>10.244999999999999</v>
+      </c>
+      <c r="D114">
+        <v>1.55993E-4</v>
+      </c>
+      <c r="E114">
+        <v>3.89983E-4</v>
+      </c>
+      <c r="F114">
+        <v>9.7495700000000004E-4</v>
+      </c>
+      <c r="G114">
+        <v>2.4373929999999999E-3</v>
+      </c>
+      <c r="H114">
+        <v>6.0934810000000004E-3</v>
+      </c>
+      <c r="I114">
+        <v>6.0934810000000004E-3</v>
+      </c>
+      <c r="J114">
+        <v>6.0934810000000004E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>5</v>
+      </c>
+      <c r="B115">
+        <v>28</v>
+      </c>
+      <c r="C115">
+        <v>11.167</v>
+      </c>
+      <c r="D115">
+        <v>1.4443799999999999E-4</v>
+      </c>
+      <c r="E115">
+        <v>3.6109500000000002E-4</v>
+      </c>
+      <c r="F115">
+        <v>9.0273800000000004E-4</v>
+      </c>
+      <c r="G115">
+        <v>2.2568449999999999E-3</v>
+      </c>
+      <c r="H115">
+        <v>5.6421120000000003E-3</v>
+      </c>
+      <c r="I115">
+        <v>5.6421120000000003E-3</v>
+      </c>
+      <c r="J115">
+        <v>5.6421120000000003E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>5</v>
+      </c>
+      <c r="B116">
+        <v>29</v>
+      </c>
+      <c r="C116">
+        <v>12.172000000000001</v>
+      </c>
+      <c r="D116">
+        <v>1.3373899999999999E-4</v>
+      </c>
+      <c r="E116">
+        <v>3.3434699999999998E-4</v>
+      </c>
+      <c r="F116">
+        <v>8.3586900000000004E-4</v>
+      </c>
+      <c r="G116">
+        <v>2.089671E-3</v>
+      </c>
+      <c r="H116">
+        <v>5.2241780000000003E-3</v>
+      </c>
+      <c r="I116">
+        <v>5.2241780000000003E-3</v>
+      </c>
+      <c r="J116">
+        <v>5.2241780000000003E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>5</v>
+      </c>
+      <c r="B117">
+        <v>30</v>
+      </c>
+      <c r="C117">
+        <v>13.268000000000001</v>
+      </c>
+      <c r="D117" s="1">
         <v>4.4579700000000003E-5</v>
       </c>
-      <c r="F86">
+      <c r="E117">
         <v>1.11449E-4</v>
       </c>
-      <c r="G86">
+      <c r="F117">
         <v>2.7862299999999998E-4</v>
       </c>
-      <c r="H86">
+      <c r="G117">
         <v>6.9655699999999999E-4</v>
       </c>
-      <c r="I86">
+      <c r="H117">
+        <v>1.7413929999999999E-3</v>
+      </c>
+      <c r="I117">
+        <v>1.7413929999999999E-3</v>
+      </c>
+      <c r="J117">
+        <v>1.7413929999999999E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>6</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>6</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D119">
+        <v>6.6638899999999996E-3</v>
+      </c>
+      <c r="E119">
+        <v>1.6659725E-2</v>
+      </c>
+      <c r="F119">
+        <v>4.1649313E-2</v>
+      </c>
+      <c r="G119">
+        <v>0.104123282</v>
+      </c>
+      <c r="H119">
+        <v>0.26030820500000001</v>
+      </c>
+      <c r="I119">
+        <v>0.26030820500000001</v>
+      </c>
+      <c r="J119">
+        <v>0.26030820500000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>6</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="D120">
+        <v>6.1702689999999999E-3</v>
+      </c>
+      <c r="E120">
+        <v>1.5425671E-2</v>
+      </c>
+      <c r="F120">
+        <v>3.8564178999999997E-2</v>
+      </c>
+      <c r="G120">
+        <v>9.6410445999999997E-2</v>
+      </c>
+      <c r="H120">
+        <v>0.24102611600000001</v>
+      </c>
+      <c r="I120">
+        <v>0.24102611600000001</v>
+      </c>
+      <c r="J120">
+        <v>0.24102611600000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>6</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <v>1.2949999999999999</v>
+      </c>
+      <c r="D121">
+        <v>5.7132119999999996E-3</v>
+      </c>
+      <c r="E121">
+        <v>1.4283028999999999E-2</v>
+      </c>
+      <c r="F121">
+        <v>3.5707572999999999E-2</v>
+      </c>
+      <c r="G121">
+        <v>8.9268931999999995E-2</v>
+      </c>
+      <c r="H121">
+        <v>0.223172329</v>
+      </c>
+      <c r="I121">
+        <v>0.223172329</v>
+      </c>
+      <c r="J121">
+        <v>0.223172329</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>6</v>
+      </c>
+      <c r="B122">
+        <v>4</v>
+      </c>
+      <c r="C122">
+        <v>1.4119999999999999</v>
+      </c>
+      <c r="D122">
+        <v>5.2900109999999998E-3</v>
+      </c>
+      <c r="E122">
+        <v>1.3225027E-2</v>
+      </c>
+      <c r="F122">
+        <v>3.3062567000000001E-2</v>
+      </c>
+      <c r="G122">
+        <v>8.2656417999999995E-2</v>
+      </c>
+      <c r="H122">
+        <v>0.20664104599999999</v>
+      </c>
+      <c r="I122">
+        <v>0.20664104599999999</v>
+      </c>
+      <c r="J122">
+        <v>0.20664104599999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>6</v>
+      </c>
+      <c r="B123">
+        <v>5</v>
+      </c>
+      <c r="C123">
+        <v>1.5389999999999999</v>
+      </c>
+      <c r="D123">
+        <v>4.408342E-3</v>
+      </c>
+      <c r="E123">
+        <v>1.1020856000000001E-2</v>
+      </c>
+      <c r="F123">
+        <v>2.7552139E-2</v>
+      </c>
+      <c r="G123">
+        <v>6.8880348999999993E-2</v>
+      </c>
+      <c r="H123">
+        <v>0.17220087100000001</v>
+      </c>
+      <c r="I123">
+        <v>0.17220087100000001</v>
+      </c>
+      <c r="J123">
+        <v>0.17220087100000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>6</v>
+      </c>
+      <c r="B124">
+        <v>6</v>
+      </c>
+      <c r="C124">
+        <v>1.677</v>
+      </c>
+      <c r="D124">
+        <v>4.0817980000000002E-3</v>
+      </c>
+      <c r="E124">
+        <v>1.0204496E-2</v>
+      </c>
+      <c r="F124">
+        <v>2.5511240000000001E-2</v>
+      </c>
+      <c r="G124">
+        <v>6.3778101000000004E-2</v>
+      </c>
+      <c r="H124">
+        <v>0.15944525100000001</v>
+      </c>
+      <c r="I124">
+        <v>0.15944525100000001</v>
+      </c>
+      <c r="J124">
+        <v>0.15944525100000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>6</v>
+      </c>
+      <c r="B125">
+        <v>7</v>
+      </c>
+      <c r="C125">
+        <v>1.8280000000000001</v>
+      </c>
+      <c r="D125">
+        <v>3.779443E-3</v>
+      </c>
+      <c r="E125">
+        <v>9.4486069999999995E-3</v>
+      </c>
+      <c r="F125">
+        <v>2.3621519000000001E-2</v>
+      </c>
+      <c r="G125">
+        <v>5.9053796999999998E-2</v>
+      </c>
+      <c r="H125">
+        <v>0.14763449200000001</v>
+      </c>
+      <c r="I125">
+        <v>0.14763449200000001</v>
+      </c>
+      <c r="J125">
+        <v>0.14763449200000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>6</v>
+      </c>
+      <c r="B126">
+        <v>8</v>
+      </c>
+      <c r="C126">
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="D126">
+        <v>3.4994840000000002E-3</v>
+      </c>
+      <c r="E126">
+        <v>8.7487109999999993E-3</v>
+      </c>
+      <c r="F126">
+        <v>2.1871776999999998E-2</v>
+      </c>
+      <c r="G126">
+        <v>5.4679441000000002E-2</v>
+      </c>
+      <c r="H126">
+        <v>0.136698604</v>
+      </c>
+      <c r="I126">
+        <v>0.136698604</v>
+      </c>
+      <c r="J126">
+        <v>0.136698604</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>6</v>
+      </c>
+      <c r="B127">
+        <v>9</v>
+      </c>
+      <c r="C127">
+        <v>2.1720000000000002</v>
+      </c>
+      <c r="D127">
+        <v>3.2402630000000002E-3</v>
+      </c>
+      <c r="E127">
+        <v>8.1006580000000002E-3</v>
+      </c>
+      <c r="F127">
+        <v>2.0251644999999999E-2</v>
+      </c>
+      <c r="G127">
+        <v>5.0629111999999997E-2</v>
+      </c>
+      <c r="H127">
+        <v>0.126572781</v>
+      </c>
+      <c r="I127">
+        <v>0.126572781</v>
+      </c>
+      <c r="J127">
+        <v>0.126572781</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>6</v>
+      </c>
+      <c r="B128">
+        <v>10</v>
+      </c>
+      <c r="C128">
+        <v>2.367</v>
+      </c>
+      <c r="D128">
+        <v>2.4925099999999999E-3</v>
+      </c>
+      <c r="E128">
+        <v>6.2312749999999997E-3</v>
+      </c>
+      <c r="F128">
+        <v>1.5578188E-2</v>
+      </c>
+      <c r="G128">
+        <v>3.8945471000000002E-2</v>
+      </c>
+      <c r="H128">
+        <v>9.7363677999999995E-2</v>
+      </c>
+      <c r="I128">
+        <v>9.7363677999999995E-2</v>
+      </c>
+      <c r="J128">
+        <v>9.7363677999999995E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>6</v>
+      </c>
+      <c r="B129">
+        <v>11</v>
+      </c>
+      <c r="C129">
+        <v>2.58</v>
+      </c>
+      <c r="D129">
+        <v>2.30788E-3</v>
+      </c>
+      <c r="E129">
+        <v>5.7696989999999997E-3</v>
+      </c>
+      <c r="F129">
+        <v>1.4424249E-2</v>
+      </c>
+      <c r="G129">
+        <v>3.6060621000000001E-2</v>
+      </c>
+      <c r="H129">
+        <v>9.0151553999999995E-2</v>
+      </c>
+      <c r="I129">
+        <v>9.0151553999999995E-2</v>
+      </c>
+      <c r="J129">
+        <v>9.0151553999999995E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>6</v>
+      </c>
+      <c r="B130">
+        <v>12</v>
+      </c>
+      <c r="C130">
+        <v>2.8130000000000002</v>
+      </c>
+      <c r="D130">
+        <v>2.1369259999999999E-3</v>
+      </c>
+      <c r="E130">
+        <v>5.3423139999999999E-3</v>
+      </c>
+      <c r="F130">
+        <v>1.3355786E-2</v>
+      </c>
+      <c r="G130">
+        <v>3.3389464000000001E-2</v>
+      </c>
+      <c r="H130">
+        <v>8.3473661000000005E-2</v>
+      </c>
+      <c r="I130">
+        <v>8.3473661000000005E-2</v>
+      </c>
+      <c r="J130">
+        <v>8.3473661000000005E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>6</v>
+      </c>
+      <c r="B131">
+        <v>13</v>
+      </c>
+      <c r="C131">
+        <v>3.0659999999999998</v>
+      </c>
+      <c r="D131">
+        <v>1.9786349999999999E-3</v>
+      </c>
+      <c r="E131">
+        <v>4.9465869999999997E-3</v>
+      </c>
+      <c r="F131">
+        <v>1.2366468E-2</v>
+      </c>
+      <c r="G131">
+        <v>3.0916170999999999E-2</v>
+      </c>
+      <c r="H131">
+        <v>7.7290426999999995E-2</v>
+      </c>
+      <c r="I131">
+        <v>7.7290426999999995E-2</v>
+      </c>
+      <c r="J131">
+        <v>7.7290426999999995E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>6</v>
+      </c>
+      <c r="B132">
+        <v>14</v>
+      </c>
+      <c r="C132">
+        <v>3.3420000000000001</v>
+      </c>
+      <c r="D132">
+        <v>1.832069E-3</v>
+      </c>
+      <c r="E132">
+        <v>4.5801729999999999E-3</v>
+      </c>
+      <c r="F132">
+        <v>1.1450434000000001E-2</v>
+      </c>
+      <c r="G132">
+        <v>2.8626084E-2</v>
+      </c>
+      <c r="H132">
+        <v>7.1565210000000004E-2</v>
+      </c>
+      <c r="I132">
+        <v>7.1565210000000004E-2</v>
+      </c>
+      <c r="J132">
+        <v>7.1565210000000004E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>6</v>
+      </c>
+      <c r="B133">
+        <v>15</v>
+      </c>
+      <c r="C133">
+        <v>3.6419999999999999</v>
+      </c>
+      <c r="D133">
+        <v>1.1450430000000001E-3</v>
+      </c>
+      <c r="E133">
+        <v>2.862608E-3</v>
+      </c>
+      <c r="F133">
+        <v>7.1565209999999999E-3</v>
+      </c>
+      <c r="G133">
+        <v>1.7891302000000001E-2</v>
+      </c>
+      <c r="H133">
+        <v>4.4728256000000001E-2</v>
+      </c>
+      <c r="I133">
+        <v>4.4728256000000001E-2</v>
+      </c>
+      <c r="J133">
+        <v>4.4728256000000001E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>6</v>
+      </c>
+      <c r="B134">
+        <v>16</v>
+      </c>
+      <c r="C134">
+        <v>3.97</v>
+      </c>
+      <c r="D134">
+        <v>1.0602249999999999E-3</v>
+      </c>
+      <c r="E134">
+        <v>2.6505629999999999E-3</v>
+      </c>
+      <c r="F134">
+        <v>6.6264080000000003E-3</v>
+      </c>
+      <c r="G134">
+        <v>1.6566021E-2</v>
+      </c>
+      <c r="H134">
+        <v>4.1415052000000001E-2</v>
+      </c>
+      <c r="I134">
+        <v>4.1415052000000001E-2</v>
+      </c>
+      <c r="J134">
+        <v>4.1415052000000001E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>6</v>
+      </c>
+      <c r="B135">
+        <v>17</v>
+      </c>
+      <c r="C135">
+        <v>4.3280000000000003</v>
+      </c>
+      <c r="D135">
+        <v>9.8168999999999991E-4</v>
+      </c>
+      <c r="E135">
+        <v>2.454225E-3</v>
+      </c>
+      <c r="F135">
+        <v>6.1355630000000001E-3</v>
+      </c>
+      <c r="G135">
+        <v>1.5338908E-2</v>
+      </c>
+      <c r="H135">
+        <v>3.8347270000000003E-2</v>
+      </c>
+      <c r="I135">
+        <v>3.8347270000000003E-2</v>
+      </c>
+      <c r="J135">
+        <v>3.8347270000000003E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>6</v>
+      </c>
+      <c r="B136">
+        <v>18</v>
+      </c>
+      <c r="C136">
+        <v>4.7169999999999996</v>
+      </c>
+      <c r="D136">
+        <v>9.0897199999999997E-4</v>
+      </c>
+      <c r="E136">
+        <v>2.2724310000000001E-3</v>
+      </c>
+      <c r="F136">
+        <v>5.6810769999999997E-3</v>
+      </c>
+      <c r="G136">
+        <v>1.4202693000000001E-2</v>
+      </c>
+      <c r="H136">
+        <v>3.5506731999999999E-2</v>
+      </c>
+      <c r="I136">
+        <v>3.5506731999999999E-2</v>
+      </c>
+      <c r="J136">
+        <v>3.5506731999999999E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>6</v>
+      </c>
+      <c r="B137">
+        <v>19</v>
+      </c>
+      <c r="C137">
+        <v>5.1420000000000003</v>
+      </c>
+      <c r="D137">
+        <v>8.4164099999999996E-4</v>
+      </c>
+      <c r="E137">
+        <v>2.104103E-3</v>
+      </c>
+      <c r="F137">
+        <v>5.260257E-3</v>
+      </c>
+      <c r="G137">
+        <v>1.3150640999999999E-2</v>
+      </c>
+      <c r="H137">
+        <v>3.2876602999999997E-2</v>
+      </c>
+      <c r="I137">
+        <v>3.2876602999999997E-2</v>
+      </c>
+      <c r="J137">
+        <v>3.2876602999999997E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>6</v>
+      </c>
+      <c r="B138">
+        <v>20</v>
+      </c>
+      <c r="C138">
+        <v>5.6040000000000001</v>
+      </c>
+      <c r="D138">
+        <v>4.95083E-4</v>
+      </c>
+      <c r="E138">
+        <v>1.237707E-3</v>
+      </c>
+      <c r="F138">
+        <v>3.0942690000000002E-3</v>
+      </c>
+      <c r="G138">
+        <v>7.7356710000000004E-3</v>
+      </c>
+      <c r="H138">
+        <v>1.9339179000000001E-2</v>
+      </c>
+      <c r="I138">
+        <v>1.9339179000000001E-2</v>
+      </c>
+      <c r="J138">
+        <v>1.9339179000000001E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>6</v>
+      </c>
+      <c r="B139">
+        <v>21</v>
+      </c>
+      <c r="C139">
+        <v>6.109</v>
+      </c>
+      <c r="D139">
+        <v>4.5841000000000002E-4</v>
+      </c>
+      <c r="E139">
+        <v>1.146025E-3</v>
+      </c>
+      <c r="F139">
+        <v>2.8650630000000002E-3</v>
+      </c>
+      <c r="G139">
+        <v>7.162659E-3</v>
+      </c>
+      <c r="H139">
+        <v>1.7906647000000001E-2</v>
+      </c>
+      <c r="I139">
+        <v>1.7906647000000001E-2</v>
+      </c>
+      <c r="J139">
+        <v>1.7906647000000001E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>6</v>
+      </c>
+      <c r="B140">
+        <v>22</v>
+      </c>
+      <c r="C140">
+        <v>6.6589999999999998</v>
+      </c>
+      <c r="D140">
+        <v>4.24454E-4</v>
+      </c>
+      <c r="E140">
+        <v>1.0611349999999999E-3</v>
+      </c>
+      <c r="F140">
+        <v>2.6528369999999999E-3</v>
+      </c>
+      <c r="G140">
+        <v>6.6320909999999997E-3</v>
+      </c>
+      <c r="H140">
+        <v>1.6580228999999998E-2</v>
+      </c>
+      <c r="I140">
+        <v>1.6580228999999998E-2</v>
+      </c>
+      <c r="J140">
+        <v>1.6580228999999998E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>6</v>
+      </c>
+      <c r="B141">
+        <v>23</v>
+      </c>
+      <c r="C141">
+        <v>7.258</v>
+      </c>
+      <c r="D141">
+        <v>3.93013E-4</v>
+      </c>
+      <c r="E141">
+        <v>9.8253199999999994E-4</v>
+      </c>
+      <c r="F141">
+        <v>2.4563300000000001E-3</v>
+      </c>
+      <c r="G141">
+        <v>6.1408249999999999E-3</v>
+      </c>
+      <c r="H141">
+        <v>1.5352063000000001E-2</v>
+      </c>
+      <c r="I141">
+        <v>1.5352063000000001E-2</v>
+      </c>
+      <c r="J141">
+        <v>1.5352063000000001E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>6</v>
+      </c>
+      <c r="B142">
+        <v>24</v>
+      </c>
+      <c r="C142">
+        <v>7.9109999999999996</v>
+      </c>
+      <c r="D142">
+        <v>3.6390100000000002E-4</v>
+      </c>
+      <c r="E142">
+        <v>9.09752E-4</v>
+      </c>
+      <c r="F142">
+        <v>2.2743799999999999E-3</v>
+      </c>
+      <c r="G142">
+        <v>5.685949E-3</v>
+      </c>
+      <c r="H142">
+        <v>1.4214874000000001E-2</v>
+      </c>
+      <c r="I142">
+        <v>1.4214874000000001E-2</v>
+      </c>
+      <c r="J142">
+        <v>1.4214874000000001E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>6</v>
+      </c>
+      <c r="B143">
+        <v>25</v>
+      </c>
+      <c r="C143">
+        <v>8.6229999999999993</v>
+      </c>
+      <c r="D143">
+        <v>1.8195E-4</v>
+      </c>
+      <c r="E143">
+        <v>4.54876E-4</v>
+      </c>
+      <c r="F143">
+        <v>1.1371899999999999E-3</v>
+      </c>
+      <c r="G143">
+        <v>2.8429750000000002E-3</v>
+      </c>
+      <c r="H143">
+        <v>7.1074370000000003E-3</v>
+      </c>
+      <c r="I143">
+        <v>7.1074370000000003E-3</v>
+      </c>
+      <c r="J143">
+        <v>7.1074370000000003E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>6</v>
+      </c>
+      <c r="B144">
+        <v>26</v>
+      </c>
+      <c r="C144">
+        <v>9.3989999999999991</v>
+      </c>
+      <c r="D144">
+        <v>1.6847300000000001E-4</v>
+      </c>
+      <c r="E144">
+        <v>4.2118100000000002E-4</v>
+      </c>
+      <c r="F144">
+        <v>1.052954E-3</v>
+      </c>
+      <c r="G144">
+        <v>2.6323840000000002E-3</v>
+      </c>
+      <c r="H144">
+        <v>6.5809600000000003E-3</v>
+      </c>
+      <c r="I144">
+        <v>6.5809600000000003E-3</v>
+      </c>
+      <c r="J144">
+        <v>6.5809600000000003E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>6</v>
+      </c>
+      <c r="B145">
+        <v>27</v>
+      </c>
+      <c r="C145">
+        <v>10.244999999999999</v>
+      </c>
+      <c r="D145">
+        <v>1.55993E-4</v>
+      </c>
+      <c r="E145">
+        <v>3.89983E-4</v>
+      </c>
+      <c r="F145">
+        <v>9.7495700000000004E-4</v>
+      </c>
+      <c r="G145">
+        <v>2.4373929999999999E-3</v>
+      </c>
+      <c r="H145">
+        <v>6.0934810000000004E-3</v>
+      </c>
+      <c r="I145">
+        <v>6.0934810000000004E-3</v>
+      </c>
+      <c r="J145">
+        <v>6.0934810000000004E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>6</v>
+      </c>
+      <c r="B146">
+        <v>28</v>
+      </c>
+      <c r="C146">
+        <v>11.167</v>
+      </c>
+      <c r="D146">
+        <v>1.4443799999999999E-4</v>
+      </c>
+      <c r="E146">
+        <v>3.6109500000000002E-4</v>
+      </c>
+      <c r="F146">
+        <v>9.0273800000000004E-4</v>
+      </c>
+      <c r="G146">
+        <v>2.2568449999999999E-3</v>
+      </c>
+      <c r="H146">
+        <v>5.6421120000000003E-3</v>
+      </c>
+      <c r="I146">
+        <v>5.6421120000000003E-3</v>
+      </c>
+      <c r="J146">
+        <v>5.6421120000000003E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>6</v>
+      </c>
+      <c r="B147">
+        <v>29</v>
+      </c>
+      <c r="C147">
+        <v>12.172000000000001</v>
+      </c>
+      <c r="D147">
+        <v>1.3373899999999999E-4</v>
+      </c>
+      <c r="E147">
+        <v>3.3434699999999998E-4</v>
+      </c>
+      <c r="F147">
+        <v>8.3586900000000004E-4</v>
+      </c>
+      <c r="G147">
+        <v>2.089671E-3</v>
+      </c>
+      <c r="H147">
+        <v>5.2241780000000003E-3</v>
+      </c>
+      <c r="I147">
+        <v>5.2241780000000003E-3</v>
+      </c>
+      <c r="J147">
+        <v>5.2241780000000003E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>6</v>
+      </c>
+      <c r="B148">
+        <v>30</v>
+      </c>
+      <c r="C148">
+        <v>13.268000000000001</v>
+      </c>
+      <c r="D148" s="1">
+        <v>4.4579700000000003E-5</v>
+      </c>
+      <c r="E148">
+        <v>1.11449E-4</v>
+      </c>
+      <c r="F148">
+        <v>2.7862299999999998E-4</v>
+      </c>
+      <c r="G148">
+        <v>6.9655699999999999E-4</v>
+      </c>
+      <c r="H148">
+        <v>1.7413929999999999E-3</v>
+      </c>
+      <c r="I148">
+        <v>1.7413929999999999E-3</v>
+      </c>
+      <c r="J148">
         <v>1.7413929999999999E-3</v>
       </c>
     </row>
@@ -7480,58 +9700,338 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82CFE85-E5BF-4028-97DD-0FD3D41C3DD1}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="C1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L1" t="s">
+        <v>198</v>
+      </c>
+      <c r="M1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>300</v>
+      </c>
+      <c r="D2">
+        <v>500</v>
+      </c>
+      <c r="E2">
+        <v>700</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
+      </c>
+      <c r="G2">
+        <v>1500</v>
+      </c>
+      <c r="H2">
+        <v>1500</v>
+      </c>
+      <c r="I2">
+        <v>1500</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>300</v>
+      </c>
+      <c r="D3">
+        <v>500</v>
+      </c>
+      <c r="E3">
+        <v>800</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
+      </c>
+      <c r="G3">
+        <v>1500</v>
+      </c>
+      <c r="H3">
+        <v>1500</v>
+      </c>
+      <c r="I3">
+        <v>1500</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>400</v>
+      </c>
+      <c r="D4">
+        <v>600</v>
+      </c>
+      <c r="E4">
+        <v>800</v>
+      </c>
+      <c r="F4">
+        <v>1500</v>
+      </c>
+      <c r="G4">
+        <v>2000</v>
+      </c>
+      <c r="H4">
+        <v>2000</v>
+      </c>
+      <c r="I4">
+        <v>2000</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>400</v>
+      </c>
+      <c r="D5">
+        <v>600</v>
+      </c>
+      <c r="E5">
+        <v>900</v>
+      </c>
+      <c r="F5">
+        <v>1500</v>
+      </c>
+      <c r="G5">
+        <v>2000</v>
+      </c>
+      <c r="H5">
+        <v>2000</v>
+      </c>
+      <c r="I5">
+        <v>2000</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>30</v>
+      </c>
+      <c r="C6">
+        <v>500</v>
+      </c>
+      <c r="D6">
+        <v>700</v>
+      </c>
+      <c r="E6">
+        <v>1000</v>
+      </c>
+      <c r="F6">
+        <v>1500</v>
+      </c>
+      <c r="G6">
+        <v>2500</v>
+      </c>
+      <c r="H6">
+        <v>2500</v>
+      </c>
+      <c r="I6">
+        <v>2500</v>
+      </c>
+      <c r="J6">
+        <v>27</v>
+      </c>
+      <c r="K6">
+        <v>9</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>500</v>
+      </c>
+      <c r="D7">
+        <v>700</v>
+      </c>
+      <c r="E7">
+        <v>1000</v>
+      </c>
+      <c r="F7">
+        <v>1500</v>
+      </c>
+      <c r="G7">
+        <v>2500</v>
+      </c>
+      <c r="H7">
+        <v>2500</v>
+      </c>
+      <c r="I7">
+        <v>2500</v>
+      </c>
+      <c r="J7">
+        <v>64</v>
+      </c>
+      <c r="K7">
+        <v>16</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>500</v>
+      </c>
+      <c r="D8">
+        <v>700</v>
+      </c>
+      <c r="E8">
+        <v>1000</v>
+      </c>
+      <c r="F8">
+        <v>1500</v>
+      </c>
+      <c r="G8">
+        <v>2500</v>
+      </c>
+      <c r="H8">
+        <v>2500</v>
+      </c>
+      <c r="I8">
+        <v>2500</v>
+      </c>
+      <c r="J8">
+        <v>125</v>
+      </c>
+      <c r="K8">
+        <v>25</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7542,10 +10042,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1831AD9F-ED0A-47CF-B524-8603AB7A285B}">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7553,1150 +10053,2035 @@
     <col min="1" max="1" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>194</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>179</v>
       </c>
       <c r="D1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1E-4</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1E-4</v>
+      </c>
+      <c r="F3">
+        <v>0.02</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1E-4</v>
+      </c>
+      <c r="F4">
+        <v>0.03</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1E-4</v>
+      </c>
+      <c r="F5">
+        <v>0.04</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1E-4</v>
+      </c>
+      <c r="F6">
+        <v>0.05</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1E-4</v>
+      </c>
+      <c r="F7">
+        <v>0.05</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1E-4</v>
+      </c>
+      <c r="F8">
+        <v>0.05</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>200</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>400</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <v>600</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>800</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>1000</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>1200</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>1400</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>1E-4</v>
+      </c>
+      <c r="F16">
+        <v>0.01</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>1E-4</v>
+      </c>
+      <c r="F17">
+        <v>0.02</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>1E-4</v>
+      </c>
+      <c r="F18">
+        <v>0.03</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>1E-4</v>
+      </c>
+      <c r="F19">
+        <v>0.04</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>1E-4</v>
+      </c>
+      <c r="F20">
+        <v>0.05</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>1E-4</v>
+      </c>
+      <c r="F21">
+        <v>0.05</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>1E-4</v>
+      </c>
+      <c r="F22">
+        <v>0.05</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>1E-4</v>
+      </c>
+      <c r="F23">
+        <v>0.01</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>1E-4</v>
+      </c>
+      <c r="F24">
+        <v>0.02</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>1E-4</v>
+      </c>
+      <c r="F25">
+        <v>0.03</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>1E-4</v>
+      </c>
+      <c r="F26">
+        <v>0.04</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>1E-4</v>
+      </c>
+      <c r="F27">
+        <v>0.05</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>1E-4</v>
+      </c>
+      <c r="F28">
+        <v>0.05</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>1E-4</v>
+      </c>
+      <c r="F29">
+        <v>0.05</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
         <v>30</v>
       </c>
-      <c r="I1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="E30">
+        <v>1E-4</v>
+      </c>
+      <c r="F30">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <v>1E-4</v>
+      </c>
+      <c r="F31">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <v>1E-4</v>
+      </c>
+      <c r="F32">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>30</v>
+      </c>
+      <c r="E33">
+        <v>1E-4</v>
+      </c>
+      <c r="F33">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>30</v>
+      </c>
+      <c r="E34">
+        <v>1E-4</v>
+      </c>
+      <c r="F34">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>30</v>
+      </c>
+      <c r="E35">
+        <v>1E-4</v>
+      </c>
+      <c r="F35">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>30</v>
+      </c>
+      <c r="E36">
+        <v>1E-4</v>
+      </c>
+      <c r="F36">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>30</v>
+      </c>
+      <c r="E37">
+        <v>1E-4</v>
+      </c>
+      <c r="F37">
+        <v>0.01</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>30</v>
+      </c>
+      <c r="E38">
+        <v>1E-4</v>
+      </c>
+      <c r="F38">
+        <v>0.02</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>30</v>
+      </c>
+      <c r="E39">
+        <v>1E-4</v>
+      </c>
+      <c r="F39">
+        <v>0.03</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>30</v>
+      </c>
+      <c r="E40">
+        <v>1E-4</v>
+      </c>
+      <c r="F40">
+        <v>0.04</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>30</v>
+      </c>
+      <c r="E41">
+        <v>1E-4</v>
+      </c>
+      <c r="F41">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>30</v>
+      </c>
+      <c r="E42">
+        <v>1E-4</v>
+      </c>
+      <c r="F42">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>30</v>
+      </c>
+      <c r="E43">
+        <v>1E-4</v>
+      </c>
+      <c r="F43">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1E-4</v>
+      </c>
+      <c r="F44">
+        <v>0.01</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1E-4</v>
+      </c>
+      <c r="F45">
+        <v>0.02</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1E-4</v>
+      </c>
+      <c r="F46">
+        <v>0.03</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1E-4</v>
+      </c>
+      <c r="F47">
+        <v>0.04</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1E-4</v>
+      </c>
+      <c r="F48">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1E-4</v>
+      </c>
+      <c r="F49">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1E-4</v>
+      </c>
+      <c r="F50">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>200</v>
+      </c>
+      <c r="F51">
+        <v>400</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>200</v>
+      </c>
+      <c r="F52">
+        <v>800</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>200</v>
+      </c>
+      <c r="F53">
+        <v>1200</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>200</v>
+      </c>
+      <c r="F54">
+        <v>1600</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>200</v>
+      </c>
+      <c r="F55">
+        <v>2000</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+      <c r="H55">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>200</v>
+      </c>
+      <c r="F56">
+        <v>2400</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>200</v>
+      </c>
+      <c r="F57">
+        <v>2800</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+      <c r="H57">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>10</v>
+      </c>
+      <c r="E58">
+        <v>1E-4</v>
+      </c>
+      <c r="F58">
+        <v>0.01</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>8</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+      <c r="E59">
+        <v>1E-4</v>
+      </c>
+      <c r="F59">
+        <v>0.02</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>8</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>10</v>
+      </c>
+      <c r="E60">
+        <v>1E-4</v>
+      </c>
+      <c r="F60">
+        <v>0.03</v>
+      </c>
+      <c r="G60">
+        <v>3</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>8</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="E61">
+        <v>1E-4</v>
+      </c>
+      <c r="F61">
+        <v>0.04</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>8</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>10</v>
+      </c>
+      <c r="E62">
+        <v>1E-4</v>
+      </c>
+      <c r="F62">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
+      <c r="G62">
+        <v>3</v>
+      </c>
+      <c r="H62">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>10</v>
+      </c>
+      <c r="E63">
+        <v>1E-4</v>
+      </c>
+      <c r="F63">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
+      <c r="G63">
+        <v>3</v>
+      </c>
+      <c r="H63">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>6</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64">
+        <v>1E-4</v>
+      </c>
+      <c r="F64">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
+      <c r="G64">
+        <v>3</v>
+      </c>
+      <c r="H64">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>10</v>
+      </c>
+      <c r="E65">
+        <v>1E-4</v>
+      </c>
+      <c r="F65">
+        <v>0.01</v>
+      </c>
+      <c r="G65">
+        <v>3</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>9</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>10</v>
+      </c>
+      <c r="E66">
+        <v>1E-4</v>
+      </c>
+      <c r="F66">
+        <v>0.02</v>
+      </c>
+      <c r="G66">
+        <v>3</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>9</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>10</v>
+      </c>
+      <c r="E67">
+        <v>1E-4</v>
+      </c>
+      <c r="F67">
+        <v>0.03</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>10</v>
+      </c>
+      <c r="E68">
+        <v>1E-4</v>
+      </c>
+      <c r="F68">
+        <v>0.04</v>
+      </c>
+      <c r="G68">
+        <v>3</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>9</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>10</v>
+      </c>
+      <c r="E69">
+        <v>1E-4</v>
+      </c>
+      <c r="F69">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
+      <c r="G69">
+        <v>3</v>
+      </c>
+      <c r="H69">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>9</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <v>10</v>
+      </c>
+      <c r="E70">
+        <v>1E-4</v>
+      </c>
+      <c r="F70">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
+      <c r="G70">
+        <v>3</v>
+      </c>
+      <c r="H70">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>9</v>
+      </c>
+      <c r="C71">
+        <v>6</v>
+      </c>
+      <c r="D71">
+        <v>10</v>
+      </c>
+      <c r="E71">
+        <v>1E-4</v>
+      </c>
+      <c r="F71">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
+      <c r="G71">
+        <v>3</v>
+      </c>
+      <c r="H71">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>10</v>
+      </c>
+      <c r="E72">
+        <v>1E-4</v>
+      </c>
+      <c r="F72">
+        <v>0.01</v>
+      </c>
+      <c r="G72">
+        <v>3</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>10</v>
+      </c>
+      <c r="E73">
+        <v>1E-4</v>
+      </c>
+      <c r="F73">
+        <v>0.02</v>
+      </c>
+      <c r="G73">
+        <v>3</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>10</v>
+      </c>
+      <c r="E74">
+        <v>1E-4</v>
+      </c>
+      <c r="F74">
+        <v>0.03</v>
+      </c>
+      <c r="G74">
+        <v>3</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>10</v>
+      </c>
+      <c r="E75">
+        <v>1E-4</v>
+      </c>
+      <c r="F75">
+        <v>0.04</v>
+      </c>
+      <c r="G75">
+        <v>3</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>10</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>10</v>
+      </c>
+      <c r="E76">
+        <v>1E-4</v>
+      </c>
+      <c r="F76">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
+      <c r="G76">
+        <v>3</v>
+      </c>
+      <c r="H76">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
+      <c r="D77">
+        <v>10</v>
+      </c>
+      <c r="E77">
+        <v>1E-4</v>
+      </c>
+      <c r="F77">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
+      <c r="G77">
+        <v>3</v>
+      </c>
+      <c r="H77">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <v>6</v>
+      </c>
+      <c r="D78">
+        <v>10</v>
+      </c>
+      <c r="E78">
+        <v>1E-4</v>
+      </c>
+      <c r="F78">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26">
-        <v>4</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>0</v>
-      </c>
-      <c r="B28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>0</v>
-      </c>
-      <c r="B29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36">
-        <v>4</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41">
-        <v>4</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44">
-        <v>2</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45">
-        <v>3</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46">
-        <v>4</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>1</v>
-      </c>
-      <c r="B49" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49">
-        <v>2</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50">
-        <v>3</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>1</v>
-      </c>
-      <c r="B51" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51">
-        <v>4</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>1</v>
-      </c>
-      <c r="B53" t="s">
-        <v>49</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>1</v>
-      </c>
-      <c r="B54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>1</v>
-      </c>
-      <c r="B55" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55">
-        <v>3</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>1</v>
-      </c>
-      <c r="B56" t="s">
-        <v>49</v>
-      </c>
-      <c r="C56">
-        <v>4</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>1</v>
-      </c>
-      <c r="B57" t="s">
-        <v>50</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>1</v>
-      </c>
-      <c r="B58" t="s">
-        <v>50</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>1</v>
-      </c>
-      <c r="B59" t="s">
-        <v>50</v>
-      </c>
-      <c r="C59">
-        <v>2</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>1</v>
-      </c>
-      <c r="B60" t="s">
-        <v>50</v>
-      </c>
-      <c r="C60">
-        <v>3</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>1</v>
-      </c>
-      <c r="B61" t="s">
-        <v>50</v>
-      </c>
-      <c r="C61">
-        <v>4</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>1</v>
-      </c>
-      <c r="B62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>1</v>
-      </c>
-      <c r="B63" t="s">
-        <v>51</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>1</v>
-      </c>
-      <c r="B64" t="s">
-        <v>51</v>
-      </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>1</v>
-      </c>
-      <c r="B65" t="s">
-        <v>51</v>
-      </c>
-      <c r="C65">
-        <v>3</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>1</v>
-      </c>
-      <c r="B66" t="s">
-        <v>51</v>
-      </c>
-      <c r="C66">
-        <v>4</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0.05</v>
+      <c r="G78">
+        <v>3</v>
+      </c>
+      <c r="H78">
+        <v>-5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AE0723-E700-4FC9-8137-E8AA18236767}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84595B73-403D-4CEB-AB4A-8E44B34BDBD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="199">
   <si>
     <t>Equip0001</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>multi|Float</t>
-  </si>
-  <si>
-    <t>innergrade|Int</t>
   </si>
   <si>
     <t>optionType|Int</t>
@@ -1002,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1022,10 +1019,10 @@
         <v>24</v>
       </c>
       <c r="D1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" t="s">
         <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
@@ -1037,22 +1034,22 @@
         <v>27</v>
       </c>
       <c r="I1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J1" t="s">
         <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" t="s">
         <v>111</v>
       </c>
-      <c r="M1" t="s">
-        <v>112</v>
-      </c>
       <c r="N1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -1087,18 +1084,18 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N2" t="s">
         <v>114</v>
-      </c>
-      <c r="M2" t="s">
-        <v>113</v>
-      </c>
-      <c r="N2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1128,13 +1125,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
+        <v>145</v>
+      </c>
+      <c r="M3" t="s">
         <v>146</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>147</v>
-      </c>
-      <c r="N3" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -1169,18 +1166,18 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
+        <v>154</v>
+      </c>
+      <c r="M4" t="s">
         <v>155</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>156</v>
-      </c>
-      <c r="N4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1530,18 +1527,18 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
+        <v>148</v>
+      </c>
+      <c r="M15" t="s">
         <v>149</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>150</v>
-      </c>
-      <c r="N15" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1571,13 +1568,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
+        <v>175</v>
+      </c>
+      <c r="M16" t="s">
         <v>176</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>177</v>
-      </c>
-      <c r="N16" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1614,7 +1611,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1934,7 +1931,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -1966,7 +1963,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1998,7 +1995,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -2030,7 +2027,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -2062,7 +2059,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -2094,7 +2091,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -2126,7 +2123,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -2156,18 +2153,18 @@
         <v>0</v>
       </c>
       <c r="L34" t="s">
+        <v>169</v>
+      </c>
+      <c r="M34" t="s">
         <v>170</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>171</v>
-      </c>
-      <c r="N34" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -2199,7 +2196,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -2231,7 +2228,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -2263,7 +2260,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -2295,7 +2292,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -2327,7 +2324,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -2359,7 +2356,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -2391,7 +2388,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -2423,7 +2420,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -2455,7 +2452,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -2487,7 +2484,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -2517,18 +2514,18 @@
         <v>0</v>
       </c>
       <c r="L45" t="s">
+        <v>166</v>
+      </c>
+      <c r="M45" t="s">
         <v>167</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>168</v>
-      </c>
-      <c r="N45" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -2560,7 +2557,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -2592,7 +2589,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -2624,7 +2621,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -2656,7 +2653,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -2688,7 +2685,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -2720,7 +2717,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -2752,7 +2749,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -2784,7 +2781,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -2814,18 +2811,18 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
+        <v>160</v>
+      </c>
+      <c r="M54" t="s">
         <v>161</v>
       </c>
-      <c r="M54" t="s">
+      <c r="N54" t="s">
         <v>162</v>
-      </c>
-      <c r="N54" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -2857,7 +2854,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -2889,7 +2886,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -2921,7 +2918,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>4</v>
@@ -2953,7 +2950,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>4</v>
@@ -2985,7 +2982,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>4</v>
@@ -3017,7 +3014,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -3049,7 +3046,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -3081,7 +3078,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>4</v>
@@ -3113,7 +3110,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>4</v>
@@ -3145,7 +3142,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>4</v>
@@ -3177,7 +3174,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>4</v>
@@ -3209,7 +3206,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>5</v>
@@ -3239,18 +3236,18 @@
         <v>0</v>
       </c>
       <c r="L67" t="s">
+        <v>136</v>
+      </c>
+      <c r="M67" t="s">
         <v>137</v>
       </c>
-      <c r="M67" t="s">
+      <c r="N67" t="s">
         <v>138</v>
-      </c>
-      <c r="N67" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B68">
         <v>5</v>
@@ -3280,18 +3277,18 @@
         <v>0</v>
       </c>
       <c r="L68" t="s">
+        <v>151</v>
+      </c>
+      <c r="M68" t="s">
         <v>152</v>
       </c>
-      <c r="M68" t="s">
+      <c r="N68" t="s">
         <v>153</v>
-      </c>
-      <c r="N68" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -3321,18 +3318,18 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
+        <v>157</v>
+      </c>
+      <c r="M69" t="s">
         <v>158</v>
       </c>
-      <c r="M69" t="s">
+      <c r="N69" t="s">
         <v>159</v>
-      </c>
-      <c r="N69" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B70">
         <v>5</v>
@@ -3364,7 +3361,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B71">
         <v>5</v>
@@ -3396,7 +3393,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B72">
         <v>5</v>
@@ -3428,7 +3425,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B73">
         <v>5</v>
@@ -3460,7 +3457,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B74">
         <v>5</v>
@@ -3492,7 +3489,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B75">
         <v>5</v>
@@ -3524,7 +3521,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B76">
         <v>5</v>
@@ -3556,7 +3553,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B77">
         <v>5</v>
@@ -3588,7 +3585,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B78">
         <v>5</v>
@@ -3620,7 +3617,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B79">
         <v>5</v>
@@ -3652,7 +3649,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B80">
         <v>6</v>
@@ -3682,18 +3679,18 @@
         <v>0</v>
       </c>
       <c r="L80" t="s">
+        <v>163</v>
+      </c>
+      <c r="M80" t="s">
         <v>164</v>
       </c>
-      <c r="M80" t="s">
+      <c r="N80" t="s">
         <v>165</v>
-      </c>
-      <c r="N80" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B81">
         <v>6</v>
@@ -3725,7 +3722,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B82">
         <v>6</v>
@@ -3757,7 +3754,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B83">
         <v>6</v>
@@ -3789,7 +3786,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B84">
         <v>6</v>
@@ -3821,7 +3818,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B85">
         <v>6</v>
@@ -3853,7 +3850,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B86">
         <v>6</v>
@@ -3885,7 +3882,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B87">
         <v>6</v>
@@ -3917,7 +3914,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B88">
         <v>6</v>
@@ -3949,7 +3946,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B89">
         <v>6</v>
@@ -3981,7 +3978,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B90">
         <v>6</v>
@@ -4013,7 +4010,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B91">
         <v>6</v>
@@ -4045,7 +4042,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B92">
         <v>6</v>
@@ -4077,7 +4074,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B93">
         <v>7</v>
@@ -4109,7 +4106,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B94">
         <v>7</v>
@@ -4141,7 +4138,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B95">
         <v>7</v>
@@ -4173,7 +4170,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B96">
         <v>7</v>
@@ -4205,7 +4202,7 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B97">
         <v>7</v>
@@ -4237,7 +4234,7 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B98">
         <v>7</v>
@@ -4269,7 +4266,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B99">
         <v>7</v>
@@ -4301,7 +4298,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B100">
         <v>7</v>
@@ -4333,7 +4330,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B101">
         <v>7</v>
@@ -4363,18 +4360,18 @@
         <v>-20</v>
       </c>
       <c r="L101" t="s">
+        <v>172</v>
+      </c>
+      <c r="M101" t="s">
         <v>173</v>
       </c>
-      <c r="M101" t="s">
+      <c r="N101" t="s">
         <v>174</v>
-      </c>
-      <c r="N101" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B102">
         <v>7</v>
@@ -4406,7 +4403,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B103">
         <v>7</v>
@@ -4438,7 +4435,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B104">
         <v>7</v>
@@ -4470,7 +4467,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B105">
         <v>7</v>
@@ -4502,7 +4499,7 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B106">
         <v>8</v>
@@ -4532,18 +4529,18 @@
         <v>0</v>
       </c>
       <c r="L106" t="s">
+        <v>139</v>
+      </c>
+      <c r="M106" t="s">
         <v>140</v>
       </c>
-      <c r="M106" t="s">
+      <c r="N106" t="s">
         <v>141</v>
-      </c>
-      <c r="N106" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B107">
         <v>8</v>
@@ -4573,18 +4570,18 @@
         <v>0</v>
       </c>
       <c r="L107" t="s">
+        <v>142</v>
+      </c>
+      <c r="M107" t="s">
         <v>143</v>
       </c>
-      <c r="M107" t="s">
+      <c r="N107" t="s">
         <v>144</v>
-      </c>
-      <c r="N107" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B108">
         <v>8</v>
@@ -4616,7 +4613,7 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B109">
         <v>8</v>
@@ -4648,7 +4645,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B110">
         <v>8</v>
@@ -4680,7 +4677,7 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B111">
         <v>8</v>
@@ -4712,7 +4709,7 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B112">
         <v>8</v>
@@ -4744,7 +4741,7 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B113">
         <v>8</v>
@@ -4776,7 +4773,7 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B114">
         <v>8</v>
@@ -4808,7 +4805,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B115">
         <v>8</v>
@@ -4840,7 +4837,7 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B116">
         <v>8</v>
@@ -4872,7 +4869,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B117">
         <v>8</v>
@@ -4904,7 +4901,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B118">
         <v>8</v>
@@ -4957,7 +4954,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
@@ -4966,25 +4963,25 @@
         <v>30</v>
       </c>
       <c r="D1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" t="s">
         <v>180</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>181</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>182</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>183</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>184</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>185</v>
-      </c>
-      <c r="J1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -9708,43 +9705,43 @@
   <sheetData>
     <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" t="s">
         <v>187</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>188</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>189</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>190</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>191</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>192</v>
       </c>
-      <c r="I1" t="s">
-        <v>193</v>
-      </c>
       <c r="J1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K1" t="s">
         <v>196</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>197</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>198</v>
-      </c>
-      <c r="M1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -10044,7 +10041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1831AD9F-ED0A-47CF-B524-8603AB7A285B}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -10055,16 +10052,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" t="s">
         <v>194</v>
-      </c>
-      <c r="C1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1" t="s">
-        <v>195</v>
       </c>
       <c r="E1" t="s">
         <v>26</v>
@@ -10073,13 +10070,13 @@
         <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H1" t="s">
         <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84595B73-403D-4CEB-AB4A-8E44B34BDBD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C41A20-EF4E-49F1-81D0-9256499E803E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="210">
   <si>
     <t>Equip0001</t>
   </si>
@@ -631,6 +631,39 @@
   </si>
   <si>
     <t>threeOptionWeight|Float</t>
+  </si>
+  <si>
+    <t>AttackAddRate</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>BossMonsterDamageIncreaseAddRate</t>
+  </si>
+  <si>
+    <t>NormalMonsterDamageIncreaseAddRate</t>
+  </si>
+  <si>
+    <t>BossMonsterDamageDecreaseAddRate</t>
+  </si>
+  <si>
+    <t>NormalMonsterDamageDecreaseAddRate</t>
+  </si>
+  <si>
+    <t>MaxHpAddRate</t>
+  </si>
+  <si>
+    <t>MaxHp</t>
+  </si>
+  <si>
+    <t>PowerSourceHealAddRate</t>
+  </si>
+  <si>
+    <t>SwapHealAddRate</t>
+  </si>
+  <si>
+    <t>LevelUpHealRate</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -10041,9 +10074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1831AD9F-ED0A-47CF-B524-8603AB7A285B}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10083,8 +10114,8 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>199</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -10109,8 +10140,8 @@
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>199</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -10135,8 +10166,8 @@
       <c r="A4">
         <v>0</v>
       </c>
-      <c r="B4">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>199</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -10161,8 +10192,8 @@
       <c r="A5">
         <v>0</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>199</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -10187,8 +10218,8 @@
       <c r="A6">
         <v>0</v>
       </c>
-      <c r="B6">
-        <v>0</v>
+      <c r="B6" t="s">
+        <v>199</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -10213,8 +10244,8 @@
       <c r="A7">
         <v>0</v>
       </c>
-      <c r="B7">
-        <v>0</v>
+      <c r="B7" t="s">
+        <v>199</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -10239,8 +10270,8 @@
       <c r="A8">
         <v>0</v>
       </c>
-      <c r="B8">
-        <v>0</v>
+      <c r="B8" t="s">
+        <v>199</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -10265,8 +10296,8 @@
       <c r="A9">
         <v>0</v>
       </c>
-      <c r="B9">
-        <v>1</v>
+      <c r="B9" t="s">
+        <v>200</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -10291,8 +10322,8 @@
       <c r="A10">
         <v>0</v>
       </c>
-      <c r="B10">
-        <v>1</v>
+      <c r="B10" t="s">
+        <v>200</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -10317,8 +10348,8 @@
       <c r="A11">
         <v>0</v>
       </c>
-      <c r="B11">
-        <v>1</v>
+      <c r="B11" t="s">
+        <v>200</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -10343,8 +10374,8 @@
       <c r="A12">
         <v>0</v>
       </c>
-      <c r="B12">
-        <v>1</v>
+      <c r="B12" t="s">
+        <v>200</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -10369,8 +10400,8 @@
       <c r="A13">
         <v>0</v>
       </c>
-      <c r="B13">
-        <v>1</v>
+      <c r="B13" t="s">
+        <v>200</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -10395,8 +10426,8 @@
       <c r="A14">
         <v>0</v>
       </c>
-      <c r="B14">
-        <v>1</v>
+      <c r="B14" t="s">
+        <v>200</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -10421,8 +10452,8 @@
       <c r="A15">
         <v>0</v>
       </c>
-      <c r="B15">
-        <v>1</v>
+      <c r="B15" t="s">
+        <v>200</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -10447,8 +10478,8 @@
       <c r="A16">
         <v>0</v>
       </c>
-      <c r="B16">
-        <v>2</v>
+      <c r="B16" t="s">
+        <v>201</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -10473,8 +10504,8 @@
       <c r="A17">
         <v>0</v>
       </c>
-      <c r="B17">
-        <v>2</v>
+      <c r="B17" t="s">
+        <v>201</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -10499,8 +10530,8 @@
       <c r="A18">
         <v>0</v>
       </c>
-      <c r="B18">
-        <v>2</v>
+      <c r="B18" t="s">
+        <v>201</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -10525,8 +10556,8 @@
       <c r="A19">
         <v>0</v>
       </c>
-      <c r="B19">
-        <v>2</v>
+      <c r="B19" t="s">
+        <v>201</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -10551,8 +10582,8 @@
       <c r="A20">
         <v>0</v>
       </c>
-      <c r="B20">
-        <v>2</v>
+      <c r="B20" t="s">
+        <v>201</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -10577,8 +10608,8 @@
       <c r="A21">
         <v>0</v>
       </c>
-      <c r="B21">
-        <v>2</v>
+      <c r="B21" t="s">
+        <v>201</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -10603,8 +10634,8 @@
       <c r="A22">
         <v>0</v>
       </c>
-      <c r="B22">
-        <v>2</v>
+      <c r="B22" t="s">
+        <v>201</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -10629,8 +10660,8 @@
       <c r="A23">
         <v>0</v>
       </c>
-      <c r="B23">
-        <v>3</v>
+      <c r="B23" t="s">
+        <v>202</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -10655,8 +10686,8 @@
       <c r="A24">
         <v>0</v>
       </c>
-      <c r="B24">
-        <v>3</v>
+      <c r="B24" t="s">
+        <v>202</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -10681,8 +10712,8 @@
       <c r="A25">
         <v>0</v>
       </c>
-      <c r="B25">
-        <v>3</v>
+      <c r="B25" t="s">
+        <v>202</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -10707,8 +10738,8 @@
       <c r="A26">
         <v>0</v>
       </c>
-      <c r="B26">
-        <v>3</v>
+      <c r="B26" t="s">
+        <v>202</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -10733,8 +10764,8 @@
       <c r="A27">
         <v>0</v>
       </c>
-      <c r="B27">
-        <v>3</v>
+      <c r="B27" t="s">
+        <v>202</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -10759,8 +10790,8 @@
       <c r="A28">
         <v>0</v>
       </c>
-      <c r="B28">
-        <v>3</v>
+      <c r="B28" t="s">
+        <v>202</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -10785,8 +10816,8 @@
       <c r="A29">
         <v>0</v>
       </c>
-      <c r="B29">
-        <v>3</v>
+      <c r="B29" t="s">
+        <v>202</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -10811,8 +10842,8 @@
       <c r="A30">
         <v>0</v>
       </c>
-      <c r="B30">
-        <v>4</v>
+      <c r="B30" t="s">
+        <v>203</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -10837,8 +10868,8 @@
       <c r="A31">
         <v>0</v>
       </c>
-      <c r="B31">
-        <v>4</v>
+      <c r="B31" t="s">
+        <v>203</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -10863,8 +10894,8 @@
       <c r="A32">
         <v>0</v>
       </c>
-      <c r="B32">
-        <v>4</v>
+      <c r="B32" t="s">
+        <v>203</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -10889,8 +10920,8 @@
       <c r="A33">
         <v>0</v>
       </c>
-      <c r="B33">
-        <v>4</v>
+      <c r="B33" t="s">
+        <v>203</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -10915,8 +10946,8 @@
       <c r="A34">
         <v>0</v>
       </c>
-      <c r="B34">
-        <v>4</v>
+      <c r="B34" t="s">
+        <v>203</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -10941,8 +10972,8 @@
       <c r="A35">
         <v>0</v>
       </c>
-      <c r="B35">
-        <v>4</v>
+      <c r="B35" t="s">
+        <v>203</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -10967,8 +10998,8 @@
       <c r="A36">
         <v>0</v>
       </c>
-      <c r="B36">
-        <v>4</v>
+      <c r="B36" t="s">
+        <v>203</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -10993,8 +11024,8 @@
       <c r="A37">
         <v>0</v>
       </c>
-      <c r="B37">
-        <v>5</v>
+      <c r="B37" t="s">
+        <v>204</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -11019,8 +11050,8 @@
       <c r="A38">
         <v>0</v>
       </c>
-      <c r="B38">
-        <v>5</v>
+      <c r="B38" t="s">
+        <v>204</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -11045,8 +11076,8 @@
       <c r="A39">
         <v>0</v>
       </c>
-      <c r="B39">
-        <v>5</v>
+      <c r="B39" t="s">
+        <v>204</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -11071,8 +11102,8 @@
       <c r="A40">
         <v>0</v>
       </c>
-      <c r="B40">
-        <v>5</v>
+      <c r="B40" t="s">
+        <v>204</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -11097,8 +11128,8 @@
       <c r="A41">
         <v>0</v>
       </c>
-      <c r="B41">
-        <v>5</v>
+      <c r="B41" t="s">
+        <v>204</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -11123,8 +11154,8 @@
       <c r="A42">
         <v>0</v>
       </c>
-      <c r="B42">
-        <v>5</v>
+      <c r="B42" t="s">
+        <v>204</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -11149,8 +11180,8 @@
       <c r="A43">
         <v>0</v>
       </c>
-      <c r="B43">
-        <v>5</v>
+      <c r="B43" t="s">
+        <v>204</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -11175,8 +11206,8 @@
       <c r="A44">
         <v>1</v>
       </c>
-      <c r="B44">
-        <v>6</v>
+      <c r="B44" t="s">
+        <v>205</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -11201,8 +11232,8 @@
       <c r="A45">
         <v>1</v>
       </c>
-      <c r="B45">
-        <v>6</v>
+      <c r="B45" t="s">
+        <v>205</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -11227,8 +11258,8 @@
       <c r="A46">
         <v>1</v>
       </c>
-      <c r="B46">
-        <v>6</v>
+      <c r="B46" t="s">
+        <v>205</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -11253,8 +11284,8 @@
       <c r="A47">
         <v>1</v>
       </c>
-      <c r="B47">
-        <v>6</v>
+      <c r="B47" t="s">
+        <v>205</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -11279,8 +11310,8 @@
       <c r="A48">
         <v>1</v>
       </c>
-      <c r="B48">
-        <v>6</v>
+      <c r="B48" t="s">
+        <v>205</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -11305,8 +11336,8 @@
       <c r="A49">
         <v>1</v>
       </c>
-      <c r="B49">
-        <v>6</v>
+      <c r="B49" t="s">
+        <v>205</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -11331,8 +11362,8 @@
       <c r="A50">
         <v>1</v>
       </c>
-      <c r="B50">
-        <v>6</v>
+      <c r="B50" t="s">
+        <v>205</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -11357,8 +11388,8 @@
       <c r="A51">
         <v>1</v>
       </c>
-      <c r="B51">
-        <v>7</v>
+      <c r="B51" t="s">
+        <v>206</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -11383,8 +11414,8 @@
       <c r="A52">
         <v>1</v>
       </c>
-      <c r="B52">
-        <v>7</v>
+      <c r="B52" t="s">
+        <v>206</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -11409,8 +11440,8 @@
       <c r="A53">
         <v>1</v>
       </c>
-      <c r="B53">
-        <v>7</v>
+      <c r="B53" t="s">
+        <v>206</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -11435,8 +11466,8 @@
       <c r="A54">
         <v>1</v>
       </c>
-      <c r="B54">
-        <v>7</v>
+      <c r="B54" t="s">
+        <v>206</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -11461,8 +11492,8 @@
       <c r="A55">
         <v>1</v>
       </c>
-      <c r="B55">
-        <v>7</v>
+      <c r="B55" t="s">
+        <v>206</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -11487,8 +11518,8 @@
       <c r="A56">
         <v>1</v>
       </c>
-      <c r="B56">
-        <v>7</v>
+      <c r="B56" t="s">
+        <v>206</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -11513,8 +11544,8 @@
       <c r="A57">
         <v>1</v>
       </c>
-      <c r="B57">
-        <v>7</v>
+      <c r="B57" t="s">
+        <v>206</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -11539,8 +11570,8 @@
       <c r="A58">
         <v>1</v>
       </c>
-      <c r="B58">
-        <v>8</v>
+      <c r="B58" t="s">
+        <v>207</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -11565,8 +11596,8 @@
       <c r="A59">
         <v>1</v>
       </c>
-      <c r="B59">
-        <v>8</v>
+      <c r="B59" t="s">
+        <v>207</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -11591,8 +11622,8 @@
       <c r="A60">
         <v>1</v>
       </c>
-      <c r="B60">
-        <v>8</v>
+      <c r="B60" t="s">
+        <v>207</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -11617,8 +11648,8 @@
       <c r="A61">
         <v>1</v>
       </c>
-      <c r="B61">
-        <v>8</v>
+      <c r="B61" t="s">
+        <v>207</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -11643,8 +11674,8 @@
       <c r="A62">
         <v>1</v>
       </c>
-      <c r="B62">
-        <v>8</v>
+      <c r="B62" t="s">
+        <v>207</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -11669,8 +11700,8 @@
       <c r="A63">
         <v>1</v>
       </c>
-      <c r="B63">
-        <v>8</v>
+      <c r="B63" t="s">
+        <v>207</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -11695,8 +11726,8 @@
       <c r="A64">
         <v>1</v>
       </c>
-      <c r="B64">
-        <v>8</v>
+      <c r="B64" t="s">
+        <v>207</v>
       </c>
       <c r="C64">
         <v>6</v>
@@ -11721,8 +11752,8 @@
       <c r="A65">
         <v>1</v>
       </c>
-      <c r="B65">
-        <v>9</v>
+      <c r="B65" t="s">
+        <v>208</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -11747,8 +11778,8 @@
       <c r="A66">
         <v>1</v>
       </c>
-      <c r="B66">
-        <v>9</v>
+      <c r="B66" t="s">
+        <v>208</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -11773,8 +11804,8 @@
       <c r="A67">
         <v>1</v>
       </c>
-      <c r="B67">
-        <v>9</v>
+      <c r="B67" t="s">
+        <v>208</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -11799,8 +11830,8 @@
       <c r="A68">
         <v>1</v>
       </c>
-      <c r="B68">
-        <v>9</v>
+      <c r="B68" t="s">
+        <v>208</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -11825,8 +11856,8 @@
       <c r="A69">
         <v>1</v>
       </c>
-      <c r="B69">
-        <v>9</v>
+      <c r="B69" t="s">
+        <v>208</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -11851,8 +11882,8 @@
       <c r="A70">
         <v>1</v>
       </c>
-      <c r="B70">
-        <v>9</v>
+      <c r="B70" t="s">
+        <v>208</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -11877,8 +11908,8 @@
       <c r="A71">
         <v>1</v>
       </c>
-      <c r="B71">
-        <v>9</v>
+      <c r="B71" t="s">
+        <v>208</v>
       </c>
       <c r="C71">
         <v>6</v>
@@ -11903,8 +11934,8 @@
       <c r="A72">
         <v>1</v>
       </c>
-      <c r="B72">
-        <v>10</v>
+      <c r="B72" t="s">
+        <v>209</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -11929,8 +11960,8 @@
       <c r="A73">
         <v>1</v>
       </c>
-      <c r="B73">
-        <v>10</v>
+      <c r="B73" t="s">
+        <v>209</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -11955,8 +11986,8 @@
       <c r="A74">
         <v>1</v>
       </c>
-      <c r="B74">
-        <v>10</v>
+      <c r="B74" t="s">
+        <v>209</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -11981,8 +12012,8 @@
       <c r="A75">
         <v>1</v>
       </c>
-      <c r="B75">
-        <v>10</v>
+      <c r="B75" t="s">
+        <v>209</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -12007,8 +12038,8 @@
       <c r="A76">
         <v>1</v>
       </c>
-      <c r="B76">
-        <v>10</v>
+      <c r="B76" t="s">
+        <v>209</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -12033,8 +12064,8 @@
       <c r="A77">
         <v>1</v>
       </c>
-      <c r="B77">
-        <v>10</v>
+      <c r="B77" t="s">
+        <v>209</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -12059,8 +12090,8 @@
       <c r="A78">
         <v>1</v>
       </c>
-      <c r="B78">
-        <v>10</v>
+      <c r="B78" t="s">
+        <v>209</v>
       </c>
       <c r="C78">
         <v>6</v>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C41A20-EF4E-49F1-81D0-9256499E803E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E17F6A-4F4B-46A0-8398-F87919E78299}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="231">
   <si>
     <t>Equip0001</t>
   </si>
@@ -594,27 +594,6 @@
     <t>innerGradeSixProb|Float</t>
   </si>
   <si>
-    <t>innerGradeZeroGold|Int</t>
-  </si>
-  <si>
-    <t>innerGradeOneGold|Int</t>
-  </si>
-  <si>
-    <t>innerGradeTwoGold|Int</t>
-  </si>
-  <si>
-    <t>innerGradeThreeGold|Int</t>
-  </si>
-  <si>
-    <t>innerGradeFourGold|Int</t>
-  </si>
-  <si>
-    <t>innerGradeFiveGold|Int</t>
-  </si>
-  <si>
-    <t>innerGradeSixGold|Int</t>
-  </si>
-  <si>
     <t>option|String</t>
   </si>
   <si>
@@ -664,6 +643,90 @@
   </si>
   <si>
     <t>LevelUpHealRate</t>
+  </si>
+  <si>
+    <t>amplifyMin|Float</t>
+  </si>
+  <si>
+    <t>amplifyMax|Float</t>
+  </si>
+  <si>
+    <t>amplifyRandType|Int</t>
+  </si>
+  <si>
+    <t>amplifyF1|Float</t>
+  </si>
+  <si>
+    <t>amplifyLeftRight|Int</t>
+  </si>
+  <si>
+    <t>innerGradeZeroEnhanceGold|Int</t>
+  </si>
+  <si>
+    <t>innerGradeOneEnhanceGold|Int</t>
+  </si>
+  <si>
+    <t>innerGradeTwoEnhanceGold|Int</t>
+  </si>
+  <si>
+    <t>innerGradeThreeEnhanceGold|Int</t>
+  </si>
+  <si>
+    <t>innerGradeFourEnhanceGold|Int</t>
+  </si>
+  <si>
+    <t>innerGradeFiveEnhanceGold|Int</t>
+  </si>
+  <si>
+    <t>innerGradeSixEnhanceGold|Int</t>
+  </si>
+  <si>
+    <t>zeroTransmuteWeight|Float</t>
+  </si>
+  <si>
+    <t>oneTransmuteWeight|Float</t>
+  </si>
+  <si>
+    <t>twoTransmuteWeight|Float</t>
+  </si>
+  <si>
+    <t>threeTransmuteWeight|Float</t>
+  </si>
+  <si>
+    <t>fourTransmuteWeight|Float</t>
+  </si>
+  <si>
+    <t>fiveTransmuteWeight|Float</t>
+  </si>
+  <si>
+    <t>sixTransmuteWeight|Float</t>
+  </si>
+  <si>
+    <t>sevenTransmuteWeight|Float</t>
+  </si>
+  <si>
+    <t>amplifyMainMin|Float</t>
+  </si>
+  <si>
+    <t>amplifyMainMax|Float</t>
+  </si>
+  <si>
+    <t>amplifyMainRandType|Int</t>
+  </si>
+  <si>
+    <t>amplifyMainF1|Float</t>
+  </si>
+  <si>
+    <t>amplifyMainLeftRight|Int</t>
+  </si>
+  <si>
+    <t>amplifyMainGold|Int</t>
+  </si>
+  <si>
+    <t>amplifyRandomGold|Int</t>
+  </si>
+  <si>
+    <t>transmuteRandomGold|Int</t>
   </si>
 </sst>
 </file>
@@ -1032,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1111,9 +1174,6 @@
         <v>115</v>
       </c>
       <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="J2">
         <v>0</v>
       </c>
       <c r="L2" t="s">
@@ -1152,9 +1212,6 @@
         <v>115</v>
       </c>
       <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3">
         <v>0</v>
       </c>
       <c r="L3" t="s">
@@ -1193,9 +1250,6 @@
         <v>115</v>
       </c>
       <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
         <v>0</v>
       </c>
       <c r="L4" t="s">
@@ -1234,9 +1288,6 @@
         <v>115</v>
       </c>
       <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
         <v>0</v>
       </c>
     </row>
@@ -1266,9 +1317,6 @@
         <v>115</v>
       </c>
       <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6">
         <v>0</v>
       </c>
     </row>
@@ -1298,9 +1346,6 @@
         <v>115</v>
       </c>
       <c r="I7">
-        <v>3</v>
-      </c>
-      <c r="J7">
         <v>0</v>
       </c>
     </row>
@@ -1330,9 +1375,6 @@
         <v>115</v>
       </c>
       <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8">
         <v>0</v>
       </c>
     </row>
@@ -1362,9 +1404,6 @@
         <v>115</v>
       </c>
       <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="J9">
         <v>0</v>
       </c>
     </row>
@@ -1554,9 +1593,6 @@
         <v>115</v>
       </c>
       <c r="I15">
-        <v>3</v>
-      </c>
-      <c r="J15">
         <v>0</v>
       </c>
       <c r="L15" t="s">
@@ -1595,9 +1631,6 @@
         <v>115</v>
       </c>
       <c r="I16">
-        <v>3</v>
-      </c>
-      <c r="J16">
         <v>0</v>
       </c>
       <c r="L16" t="s">
@@ -1636,9 +1669,6 @@
         <v>115</v>
       </c>
       <c r="I17">
-        <v>3</v>
-      </c>
-      <c r="J17">
         <v>0</v>
       </c>
     </row>
@@ -1668,9 +1698,6 @@
         <v>115</v>
       </c>
       <c r="I18">
-        <v>3</v>
-      </c>
-      <c r="J18">
         <v>0</v>
       </c>
     </row>
@@ -1700,9 +1727,6 @@
         <v>115</v>
       </c>
       <c r="I19">
-        <v>3</v>
-      </c>
-      <c r="J19">
         <v>0</v>
       </c>
     </row>
@@ -1732,9 +1756,6 @@
         <v>115</v>
       </c>
       <c r="I20">
-        <v>3</v>
-      </c>
-      <c r="J20">
         <v>0</v>
       </c>
     </row>
@@ -1764,9 +1785,6 @@
         <v>115</v>
       </c>
       <c r="I21">
-        <v>3</v>
-      </c>
-      <c r="J21">
         <v>0</v>
       </c>
     </row>
@@ -1796,9 +1814,6 @@
         <v>115</v>
       </c>
       <c r="I22">
-        <v>3</v>
-      </c>
-      <c r="J22">
         <v>0</v>
       </c>
     </row>
@@ -1988,9 +2003,6 @@
         <v>115</v>
       </c>
       <c r="I28">
-        <v>3</v>
-      </c>
-      <c r="J28">
         <v>0</v>
       </c>
     </row>
@@ -2020,9 +2032,6 @@
         <v>115</v>
       </c>
       <c r="I29">
-        <v>3</v>
-      </c>
-      <c r="J29">
         <v>0</v>
       </c>
     </row>
@@ -2052,9 +2061,6 @@
         <v>115</v>
       </c>
       <c r="I30">
-        <v>3</v>
-      </c>
-      <c r="J30">
         <v>0</v>
       </c>
     </row>
@@ -2084,9 +2090,6 @@
         <v>115</v>
       </c>
       <c r="I31">
-        <v>3</v>
-      </c>
-      <c r="J31">
         <v>0</v>
       </c>
     </row>
@@ -2116,9 +2119,6 @@
         <v>115</v>
       </c>
       <c r="I32">
-        <v>3</v>
-      </c>
-      <c r="J32">
         <v>0</v>
       </c>
     </row>
@@ -2148,9 +2148,6 @@
         <v>115</v>
       </c>
       <c r="I33">
-        <v>3</v>
-      </c>
-      <c r="J33">
         <v>0</v>
       </c>
     </row>
@@ -2180,9 +2177,6 @@
         <v>115</v>
       </c>
       <c r="I34">
-        <v>3</v>
-      </c>
-      <c r="J34">
         <v>0</v>
       </c>
       <c r="L34" t="s">
@@ -2221,9 +2215,6 @@
         <v>115</v>
       </c>
       <c r="I35">
-        <v>3</v>
-      </c>
-      <c r="J35">
         <v>0</v>
       </c>
     </row>
@@ -2413,9 +2404,6 @@
         <v>115</v>
       </c>
       <c r="I41">
-        <v>3</v>
-      </c>
-      <c r="J41">
         <v>0</v>
       </c>
     </row>
@@ -2445,9 +2433,6 @@
         <v>115</v>
       </c>
       <c r="I42">
-        <v>3</v>
-      </c>
-      <c r="J42">
         <v>0</v>
       </c>
     </row>
@@ -2477,9 +2462,6 @@
         <v>115</v>
       </c>
       <c r="I43">
-        <v>3</v>
-      </c>
-      <c r="J43">
         <v>0</v>
       </c>
     </row>
@@ -2509,9 +2491,6 @@
         <v>115</v>
       </c>
       <c r="I44">
-        <v>3</v>
-      </c>
-      <c r="J44">
         <v>0</v>
       </c>
     </row>
@@ -2541,9 +2520,6 @@
         <v>115</v>
       </c>
       <c r="I45">
-        <v>3</v>
-      </c>
-      <c r="J45">
         <v>0</v>
       </c>
       <c r="L45" t="s">
@@ -2582,9 +2558,6 @@
         <v>115</v>
       </c>
       <c r="I46">
-        <v>3</v>
-      </c>
-      <c r="J46">
         <v>0</v>
       </c>
     </row>
@@ -2614,9 +2587,6 @@
         <v>115</v>
       </c>
       <c r="I47">
-        <v>3</v>
-      </c>
-      <c r="J47">
         <v>0</v>
       </c>
     </row>
@@ -2646,9 +2616,6 @@
         <v>115</v>
       </c>
       <c r="I48">
-        <v>3</v>
-      </c>
-      <c r="J48">
         <v>0</v>
       </c>
     </row>
@@ -2838,9 +2805,6 @@
         <v>115</v>
       </c>
       <c r="I54">
-        <v>3</v>
-      </c>
-      <c r="J54">
         <v>0</v>
       </c>
       <c r="L54" t="s">
@@ -2879,9 +2843,6 @@
         <v>115</v>
       </c>
       <c r="I55">
-        <v>3</v>
-      </c>
-      <c r="J55">
         <v>0</v>
       </c>
     </row>
@@ -2911,9 +2872,6 @@
         <v>115</v>
       </c>
       <c r="I56">
-        <v>3</v>
-      </c>
-      <c r="J56">
         <v>0</v>
       </c>
     </row>
@@ -2943,9 +2901,6 @@
         <v>115</v>
       </c>
       <c r="I57">
-        <v>3</v>
-      </c>
-      <c r="J57">
         <v>0</v>
       </c>
     </row>
@@ -2975,9 +2930,6 @@
         <v>115</v>
       </c>
       <c r="I58">
-        <v>3</v>
-      </c>
-      <c r="J58">
         <v>0</v>
       </c>
     </row>
@@ -3007,9 +2959,6 @@
         <v>115</v>
       </c>
       <c r="I59">
-        <v>3</v>
-      </c>
-      <c r="J59">
         <v>0</v>
       </c>
     </row>
@@ -3039,9 +2988,6 @@
         <v>115</v>
       </c>
       <c r="I60">
-        <v>3</v>
-      </c>
-      <c r="J60">
         <v>0</v>
       </c>
     </row>
@@ -3071,9 +3017,6 @@
         <v>115</v>
       </c>
       <c r="I61">
-        <v>3</v>
-      </c>
-      <c r="J61">
         <v>0</v>
       </c>
     </row>
@@ -3263,9 +3206,6 @@
         <v>115</v>
       </c>
       <c r="I67">
-        <v>3</v>
-      </c>
-      <c r="J67">
         <v>0</v>
       </c>
       <c r="L67" t="s">
@@ -3304,9 +3244,6 @@
         <v>115</v>
       </c>
       <c r="I68">
-        <v>3</v>
-      </c>
-      <c r="J68">
         <v>0</v>
       </c>
       <c r="L68" t="s">
@@ -3345,9 +3282,6 @@
         <v>115</v>
       </c>
       <c r="I69">
-        <v>3</v>
-      </c>
-      <c r="J69">
         <v>0</v>
       </c>
       <c r="L69" t="s">
@@ -3386,9 +3320,6 @@
         <v>115</v>
       </c>
       <c r="I70">
-        <v>3</v>
-      </c>
-      <c r="J70">
         <v>0</v>
       </c>
     </row>
@@ -3418,9 +3349,6 @@
         <v>115</v>
       </c>
       <c r="I71">
-        <v>3</v>
-      </c>
-      <c r="J71">
         <v>0</v>
       </c>
     </row>
@@ -3450,9 +3378,6 @@
         <v>115</v>
       </c>
       <c r="I72">
-        <v>3</v>
-      </c>
-      <c r="J72">
         <v>0</v>
       </c>
     </row>
@@ -3482,9 +3407,6 @@
         <v>115</v>
       </c>
       <c r="I73">
-        <v>3</v>
-      </c>
-      <c r="J73">
         <v>0</v>
       </c>
     </row>
@@ -3514,9 +3436,6 @@
         <v>115</v>
       </c>
       <c r="I74">
-        <v>3</v>
-      </c>
-      <c r="J74">
         <v>0</v>
       </c>
     </row>
@@ -3706,9 +3625,6 @@
         <v>115</v>
       </c>
       <c r="I80">
-        <v>3</v>
-      </c>
-      <c r="J80">
         <v>0</v>
       </c>
       <c r="L80" t="s">
@@ -3747,9 +3663,6 @@
         <v>115</v>
       </c>
       <c r="I81">
-        <v>3</v>
-      </c>
-      <c r="J81">
         <v>0</v>
       </c>
     </row>
@@ -3779,9 +3692,6 @@
         <v>115</v>
       </c>
       <c r="I82">
-        <v>3</v>
-      </c>
-      <c r="J82">
         <v>0</v>
       </c>
     </row>
@@ -3811,9 +3721,6 @@
         <v>115</v>
       </c>
       <c r="I83">
-        <v>3</v>
-      </c>
-      <c r="J83">
         <v>0</v>
       </c>
     </row>
@@ -3843,9 +3750,6 @@
         <v>115</v>
       </c>
       <c r="I84">
-        <v>3</v>
-      </c>
-      <c r="J84">
         <v>0</v>
       </c>
     </row>
@@ -3875,9 +3779,6 @@
         <v>115</v>
       </c>
       <c r="I85">
-        <v>3</v>
-      </c>
-      <c r="J85">
         <v>0</v>
       </c>
     </row>
@@ -3907,9 +3808,6 @@
         <v>115</v>
       </c>
       <c r="I86">
-        <v>3</v>
-      </c>
-      <c r="J86">
         <v>0</v>
       </c>
     </row>
@@ -3939,9 +3837,6 @@
         <v>115</v>
       </c>
       <c r="I87">
-        <v>3</v>
-      </c>
-      <c r="J87">
         <v>0</v>
       </c>
     </row>
@@ -4131,9 +4026,6 @@
         <v>115</v>
       </c>
       <c r="I93">
-        <v>3</v>
-      </c>
-      <c r="J93">
         <v>0</v>
       </c>
     </row>
@@ -4163,9 +4055,6 @@
         <v>115</v>
       </c>
       <c r="I94">
-        <v>3</v>
-      </c>
-      <c r="J94">
         <v>0</v>
       </c>
     </row>
@@ -4195,9 +4084,6 @@
         <v>115</v>
       </c>
       <c r="I95">
-        <v>3</v>
-      </c>
-      <c r="J95">
         <v>0</v>
       </c>
     </row>
@@ -4227,9 +4113,6 @@
         <v>115</v>
       </c>
       <c r="I96">
-        <v>3</v>
-      </c>
-      <c r="J96">
         <v>0</v>
       </c>
     </row>
@@ -4259,9 +4142,6 @@
         <v>115</v>
       </c>
       <c r="I97">
-        <v>3</v>
-      </c>
-      <c r="J97">
         <v>0</v>
       </c>
     </row>
@@ -4291,9 +4171,6 @@
         <v>115</v>
       </c>
       <c r="I98">
-        <v>3</v>
-      </c>
-      <c r="J98">
         <v>0</v>
       </c>
     </row>
@@ -4323,9 +4200,6 @@
         <v>115</v>
       </c>
       <c r="I99">
-        <v>3</v>
-      </c>
-      <c r="J99">
         <v>0</v>
       </c>
     </row>
@@ -4355,9 +4229,6 @@
         <v>115</v>
       </c>
       <c r="I100">
-        <v>3</v>
-      </c>
-      <c r="J100">
         <v>0</v>
       </c>
     </row>
@@ -4556,9 +4427,6 @@
         <v>115</v>
       </c>
       <c r="I106">
-        <v>3</v>
-      </c>
-      <c r="J106">
         <v>0</v>
       </c>
       <c r="L106" t="s">
@@ -4597,9 +4465,6 @@
         <v>115</v>
       </c>
       <c r="I107">
-        <v>3</v>
-      </c>
-      <c r="J107">
         <v>0</v>
       </c>
       <c r="L107" t="s">
@@ -4638,9 +4503,6 @@
         <v>115</v>
       </c>
       <c r="I108">
-        <v>3</v>
-      </c>
-      <c r="J108">
         <v>0</v>
       </c>
     </row>
@@ -4670,9 +4532,6 @@
         <v>115</v>
       </c>
       <c r="I109">
-        <v>3</v>
-      </c>
-      <c r="J109">
         <v>0</v>
       </c>
     </row>
@@ -4702,9 +4561,6 @@
         <v>115</v>
       </c>
       <c r="I110">
-        <v>3</v>
-      </c>
-      <c r="J110">
         <v>0</v>
       </c>
     </row>
@@ -4734,9 +4590,6 @@
         <v>115</v>
       </c>
       <c r="I111">
-        <v>3</v>
-      </c>
-      <c r="J111">
         <v>0</v>
       </c>
     </row>
@@ -4766,9 +4619,6 @@
         <v>115</v>
       </c>
       <c r="I112">
-        <v>3</v>
-      </c>
-      <c r="J112">
         <v>0</v>
       </c>
     </row>
@@ -4798,9 +4648,6 @@
         <v>115</v>
       </c>
       <c r="I113">
-        <v>3</v>
-      </c>
-      <c r="J113">
         <v>0</v>
       </c>
     </row>
@@ -4977,7 +4824,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5089,7 +4936,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.1879999999999999</v>
+        <v>1.1880999999999999</v>
       </c>
       <c r="D4">
         <v>0.92592592600000001</v>
@@ -5153,7 +5000,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.4119999999999999</v>
+        <v>1.4116</v>
       </c>
       <c r="D6">
         <v>0.79383224100000005</v>
@@ -5185,7 +5032,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.5389999999999999</v>
+        <v>1.5386</v>
       </c>
       <c r="D7">
         <v>0.66152686800000005</v>
@@ -5281,7 +5128,7 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>1.1879999999999999</v>
+        <v>1.1880999999999999</v>
       </c>
       <c r="D10">
         <v>0.26455026500000001</v>
@@ -5345,7 +5192,7 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>1.4119999999999999</v>
+        <v>1.4116</v>
       </c>
       <c r="D12">
         <v>0.22680921200000001</v>
@@ -5377,7 +5224,7 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>1.5389999999999999</v>
+        <v>1.5386</v>
       </c>
       <c r="D13">
         <v>0.18900767600000001</v>
@@ -5409,7 +5256,7 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <v>1.677</v>
+        <v>1.6771</v>
       </c>
       <c r="D14">
         <v>0.17500710799999999</v>
@@ -5473,7 +5320,7 @@
         <v>8</v>
       </c>
       <c r="C16">
-        <v>1.9930000000000001</v>
+        <v>1.9925999999999999</v>
       </c>
       <c r="D16">
         <v>0.150040387</v>
@@ -5505,7 +5352,7 @@
         <v>9</v>
       </c>
       <c r="C17">
-        <v>2.1720000000000002</v>
+        <v>2.1718999999999999</v>
       </c>
       <c r="D17">
         <v>0.13892628500000001</v>
@@ -5537,7 +5384,7 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>2.367</v>
+        <v>2.3673999999999999</v>
       </c>
       <c r="D18">
         <v>0.106866373</v>
@@ -5633,7 +5480,7 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>1.1879999999999999</v>
+        <v>1.1880999999999999</v>
       </c>
       <c r="D21">
         <v>7.558579E-2</v>
@@ -5697,7 +5544,7 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>1.4119999999999999</v>
+        <v>1.4116</v>
       </c>
       <c r="D23">
         <v>6.4802631999999999E-2</v>
@@ -5729,7 +5576,7 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>1.5389999999999999</v>
+        <v>1.5386</v>
       </c>
       <c r="D24">
         <v>5.4002192999999997E-2</v>
@@ -5761,7 +5608,7 @@
         <v>6</v>
       </c>
       <c r="C25">
-        <v>1.677</v>
+        <v>1.6771</v>
       </c>
       <c r="D25">
         <v>5.0002031000000002E-2</v>
@@ -5825,7 +5672,7 @@
         <v>8</v>
       </c>
       <c r="C27">
-        <v>1.9930000000000001</v>
+        <v>1.9925999999999999</v>
       </c>
       <c r="D27">
         <v>4.2868681999999998E-2</v>
@@ -5857,7 +5704,7 @@
         <v>9</v>
       </c>
       <c r="C28">
-        <v>2.1720000000000002</v>
+        <v>2.1718999999999999</v>
       </c>
       <c r="D28">
         <v>3.9693223999999999E-2</v>
@@ -5889,7 +5736,7 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>2.367</v>
+        <v>2.3673999999999999</v>
       </c>
       <c r="D29">
         <v>3.0533248999999998E-2</v>
@@ -5921,7 +5768,7 @@
         <v>11</v>
       </c>
       <c r="C30">
-        <v>2.58</v>
+        <v>2.5804</v>
       </c>
       <c r="D30">
         <v>2.8271527000000001E-2</v>
@@ -5953,7 +5800,7 @@
         <v>12</v>
       </c>
       <c r="C31">
-        <v>2.8130000000000002</v>
+        <v>2.8127</v>
       </c>
       <c r="D31">
         <v>2.617734E-2</v>
@@ -5985,7 +5832,7 @@
         <v>13</v>
       </c>
       <c r="C32">
-        <v>3.0659999999999998</v>
+        <v>3.0657999999999999</v>
       </c>
       <c r="D32">
         <v>2.4238277999999999E-2</v>
@@ -6017,7 +5864,7 @@
         <v>14</v>
       </c>
       <c r="C33">
-        <v>3.3420000000000001</v>
+        <v>3.3416999999999999</v>
       </c>
       <c r="D33">
         <v>2.244285E-2</v>
@@ -6049,7 +5896,7 @@
         <v>15</v>
       </c>
       <c r="C34">
-        <v>3.6419999999999999</v>
+        <v>3.6425000000000001</v>
       </c>
       <c r="D34">
         <v>1.4026781E-2</v>
@@ -6145,7 +5992,7 @@
         <v>2</v>
       </c>
       <c r="C37">
-        <v>1.1879999999999999</v>
+        <v>1.1880999999999999</v>
       </c>
       <c r="D37">
         <v>2.1595940000000001E-2</v>
@@ -6209,7 +6056,7 @@
         <v>4</v>
       </c>
       <c r="C39">
-        <v>1.4119999999999999</v>
+        <v>1.4116</v>
       </c>
       <c r="D39">
         <v>1.8515038000000001E-2</v>
@@ -6241,7 +6088,7 @@
         <v>5</v>
       </c>
       <c r="C40">
-        <v>1.5389999999999999</v>
+        <v>1.5386</v>
       </c>
       <c r="D40">
         <v>1.5429198E-2</v>
@@ -6273,7 +6120,7 @@
         <v>6</v>
       </c>
       <c r="C41">
-        <v>1.677</v>
+        <v>1.6771</v>
       </c>
       <c r="D41">
         <v>1.4286294999999999E-2</v>
@@ -6337,7 +6184,7 @@
         <v>8</v>
       </c>
       <c r="C43">
-        <v>1.9930000000000001</v>
+        <v>1.9925999999999999</v>
       </c>
       <c r="D43">
         <v>1.2248195E-2</v>
@@ -6369,7 +6216,7 @@
         <v>9</v>
       </c>
       <c r="C44">
-        <v>2.1720000000000002</v>
+        <v>2.1718999999999999</v>
       </c>
       <c r="D44">
         <v>1.1340921E-2</v>
@@ -6401,7 +6248,7 @@
         <v>10</v>
       </c>
       <c r="C45">
-        <v>2.367</v>
+        <v>2.3673999999999999</v>
       </c>
       <c r="D45">
         <v>8.7237860000000007E-3</v>
@@ -6433,7 +6280,7 @@
         <v>11</v>
       </c>
       <c r="C46">
-        <v>2.58</v>
+        <v>2.5804</v>
       </c>
       <c r="D46">
         <v>8.0775789999999997E-3</v>
@@ -6465,7 +6312,7 @@
         <v>12</v>
       </c>
       <c r="C47">
-        <v>2.8130000000000002</v>
+        <v>2.8127</v>
       </c>
       <c r="D47">
         <v>7.4792399999999998E-3</v>
@@ -6497,7 +6344,7 @@
         <v>13</v>
       </c>
       <c r="C48">
-        <v>3.0659999999999998</v>
+        <v>3.0657999999999999</v>
       </c>
       <c r="D48">
         <v>6.925222E-3</v>
@@ -6529,7 +6376,7 @@
         <v>14</v>
       </c>
       <c r="C49">
-        <v>3.3420000000000001</v>
+        <v>3.3416999999999999</v>
       </c>
       <c r="D49">
         <v>6.4122429999999998E-3</v>
@@ -6561,7 +6408,7 @@
         <v>15</v>
       </c>
       <c r="C50">
-        <v>3.6419999999999999</v>
+        <v>3.6425000000000001</v>
       </c>
       <c r="D50">
         <v>4.0076519999999996E-3</v>
@@ -6593,7 +6440,7 @@
         <v>16</v>
       </c>
       <c r="C51">
-        <v>3.97</v>
+        <v>3.9702999999999999</v>
       </c>
       <c r="D51">
         <v>3.7107889999999999E-3</v>
@@ -6625,7 +6472,7 @@
         <v>17</v>
       </c>
       <c r="C52">
-        <v>4.3280000000000003</v>
+        <v>4.3276000000000003</v>
       </c>
       <c r="D52">
         <v>3.4359149999999999E-3</v>
@@ -6657,7 +6504,7 @@
         <v>18</v>
       </c>
       <c r="C53">
-        <v>4.7169999999999996</v>
+        <v>4.7171000000000003</v>
       </c>
       <c r="D53">
         <v>3.1814030000000002E-3</v>
@@ -6689,7 +6536,7 @@
         <v>19</v>
       </c>
       <c r="C54">
-        <v>5.1420000000000003</v>
+        <v>5.1417000000000002</v>
       </c>
       <c r="D54">
         <v>2.9457440000000001E-3</v>
@@ -6721,7 +6568,7 @@
         <v>20</v>
       </c>
       <c r="C55">
-        <v>5.6040000000000001</v>
+        <v>5.6044</v>
       </c>
       <c r="D55">
         <v>1.7327899999999999E-3</v>
@@ -6817,7 +6664,7 @@
         <v>2</v>
       </c>
       <c r="C58">
-        <v>1.1879999999999999</v>
+        <v>1.1880999999999999</v>
       </c>
       <c r="D58">
         <v>6.1702689999999999E-3</v>
@@ -6881,7 +6728,7 @@
         <v>4</v>
       </c>
       <c r="C60">
-        <v>1.4119999999999999</v>
+        <v>1.4116</v>
       </c>
       <c r="D60">
         <v>5.2900109999999998E-3</v>
@@ -6913,7 +6760,7 @@
         <v>5</v>
       </c>
       <c r="C61">
-        <v>1.5389999999999999</v>
+        <v>1.5386</v>
       </c>
       <c r="D61">
         <v>4.408342E-3</v>
@@ -6945,7 +6792,7 @@
         <v>6</v>
       </c>
       <c r="C62">
-        <v>1.677</v>
+        <v>1.6771</v>
       </c>
       <c r="D62">
         <v>4.0817980000000002E-3</v>
@@ -7009,7 +6856,7 @@
         <v>8</v>
       </c>
       <c r="C64">
-        <v>1.9930000000000001</v>
+        <v>1.9925999999999999</v>
       </c>
       <c r="D64">
         <v>3.4994840000000002E-3</v>
@@ -7041,7 +6888,7 @@
         <v>9</v>
       </c>
       <c r="C65">
-        <v>2.1720000000000002</v>
+        <v>2.1718999999999999</v>
       </c>
       <c r="D65">
         <v>3.2402630000000002E-3</v>
@@ -7073,7 +6920,7 @@
         <v>10</v>
       </c>
       <c r="C66">
-        <v>2.367</v>
+        <v>2.3673999999999999</v>
       </c>
       <c r="D66">
         <v>2.4925099999999999E-3</v>
@@ -7105,7 +6952,7 @@
         <v>11</v>
       </c>
       <c r="C67">
-        <v>2.58</v>
+        <v>2.5804</v>
       </c>
       <c r="D67">
         <v>2.30788E-3</v>
@@ -7137,7 +6984,7 @@
         <v>12</v>
       </c>
       <c r="C68">
-        <v>2.8130000000000002</v>
+        <v>2.8127</v>
       </c>
       <c r="D68">
         <v>2.1369259999999999E-3</v>
@@ -7169,7 +7016,7 @@
         <v>13</v>
       </c>
       <c r="C69">
-        <v>3.0659999999999998</v>
+        <v>3.0657999999999999</v>
       </c>
       <c r="D69">
         <v>1.9786349999999999E-3</v>
@@ -7201,7 +7048,7 @@
         <v>14</v>
       </c>
       <c r="C70">
-        <v>3.3420000000000001</v>
+        <v>3.3416999999999999</v>
       </c>
       <c r="D70">
         <v>1.832069E-3</v>
@@ -7233,7 +7080,7 @@
         <v>15</v>
       </c>
       <c r="C71">
-        <v>3.6419999999999999</v>
+        <v>3.6425000000000001</v>
       </c>
       <c r="D71">
         <v>1.1450430000000001E-3</v>
@@ -7265,7 +7112,7 @@
         <v>16</v>
       </c>
       <c r="C72">
-        <v>3.97</v>
+        <v>3.9702999999999999</v>
       </c>
       <c r="D72">
         <v>1.0602249999999999E-3</v>
@@ -7297,7 +7144,7 @@
         <v>17</v>
       </c>
       <c r="C73">
-        <v>4.3280000000000003</v>
+        <v>4.3276000000000003</v>
       </c>
       <c r="D73">
         <v>9.8168999999999991E-4</v>
@@ -7329,7 +7176,7 @@
         <v>18</v>
       </c>
       <c r="C74">
-        <v>4.7169999999999996</v>
+        <v>4.7171000000000003</v>
       </c>
       <c r="D74">
         <v>9.0897199999999997E-4</v>
@@ -7361,7 +7208,7 @@
         <v>19</v>
       </c>
       <c r="C75">
-        <v>5.1420000000000003</v>
+        <v>5.1417000000000002</v>
       </c>
       <c r="D75">
         <v>8.4164099999999996E-4</v>
@@ -7393,7 +7240,7 @@
         <v>20</v>
       </c>
       <c r="C76">
-        <v>5.6040000000000001</v>
+        <v>5.6044</v>
       </c>
       <c r="D76">
         <v>4.95083E-4</v>
@@ -7425,7 +7272,7 @@
         <v>21</v>
       </c>
       <c r="C77">
-        <v>6.109</v>
+        <v>6.1087999999999996</v>
       </c>
       <c r="D77">
         <v>4.5841000000000002E-4</v>
@@ -7457,7 +7304,7 @@
         <v>22</v>
       </c>
       <c r="C78">
-        <v>6.6589999999999998</v>
+        <v>6.6585999999999999</v>
       </c>
       <c r="D78">
         <v>4.24454E-4</v>
@@ -7489,7 +7336,7 @@
         <v>23</v>
       </c>
       <c r="C79">
-        <v>7.258</v>
+        <v>7.2579000000000002</v>
       </c>
       <c r="D79">
         <v>3.93013E-4</v>
@@ -7521,7 +7368,7 @@
         <v>24</v>
       </c>
       <c r="C80">
-        <v>7.9109999999999996</v>
+        <v>7.9111000000000002</v>
       </c>
       <c r="D80">
         <v>3.6390100000000002E-4</v>
@@ -7553,7 +7400,7 @@
         <v>25</v>
       </c>
       <c r="C81">
-        <v>8.6229999999999993</v>
+        <v>8.6231000000000009</v>
       </c>
       <c r="D81">
         <v>1.8195E-4</v>
@@ -7585,7 +7432,7 @@
         <v>26</v>
       </c>
       <c r="C82">
-        <v>9.3989999999999991</v>
+        <v>9.3992000000000004</v>
       </c>
       <c r="D82">
         <v>1.6847300000000001E-4</v>
@@ -7617,7 +7464,7 @@
         <v>27</v>
       </c>
       <c r="C83">
-        <v>10.244999999999999</v>
+        <v>10.245100000000001</v>
       </c>
       <c r="D83">
         <v>1.55993E-4</v>
@@ -7649,7 +7496,7 @@
         <v>28</v>
       </c>
       <c r="C84">
-        <v>11.167</v>
+        <v>11.1671</v>
       </c>
       <c r="D84">
         <v>1.4443799999999999E-4</v>
@@ -7681,7 +7528,7 @@
         <v>29</v>
       </c>
       <c r="C85">
-        <v>12.172000000000001</v>
+        <v>12.1722</v>
       </c>
       <c r="D85">
         <v>1.3373899999999999E-4</v>
@@ -7713,7 +7560,7 @@
         <v>30</v>
       </c>
       <c r="C86">
-        <v>13.268000000000001</v>
+        <v>13.2677</v>
       </c>
       <c r="D86" s="1">
         <v>4.4579700000000003E-5</v>
@@ -7809,7 +7656,7 @@
         <v>2</v>
       </c>
       <c r="C89">
-        <v>1.1879999999999999</v>
+        <v>1.1880999999999999</v>
       </c>
       <c r="D89">
         <v>6.1702689999999999E-3</v>
@@ -7873,7 +7720,7 @@
         <v>4</v>
       </c>
       <c r="C91">
-        <v>1.4119999999999999</v>
+        <v>1.4116</v>
       </c>
       <c r="D91">
         <v>5.2900109999999998E-3</v>
@@ -7905,7 +7752,7 @@
         <v>5</v>
       </c>
       <c r="C92">
-        <v>1.5389999999999999</v>
+        <v>1.5386</v>
       </c>
       <c r="D92">
         <v>4.408342E-3</v>
@@ -7937,7 +7784,7 @@
         <v>6</v>
       </c>
       <c r="C93">
-        <v>1.677</v>
+        <v>1.6771</v>
       </c>
       <c r="D93">
         <v>4.0817980000000002E-3</v>
@@ -8001,7 +7848,7 @@
         <v>8</v>
       </c>
       <c r="C95">
-        <v>1.9930000000000001</v>
+        <v>1.9925999999999999</v>
       </c>
       <c r="D95">
         <v>3.4994840000000002E-3</v>
@@ -8033,7 +7880,7 @@
         <v>9</v>
       </c>
       <c r="C96">
-        <v>2.1720000000000002</v>
+        <v>2.1718999999999999</v>
       </c>
       <c r="D96">
         <v>3.2402630000000002E-3</v>
@@ -8065,7 +7912,7 @@
         <v>10</v>
       </c>
       <c r="C97">
-        <v>2.367</v>
+        <v>2.3673999999999999</v>
       </c>
       <c r="D97">
         <v>2.4925099999999999E-3</v>
@@ -8097,7 +7944,7 @@
         <v>11</v>
       </c>
       <c r="C98">
-        <v>2.58</v>
+        <v>2.5804</v>
       </c>
       <c r="D98">
         <v>2.30788E-3</v>
@@ -8129,7 +7976,7 @@
         <v>12</v>
       </c>
       <c r="C99">
-        <v>2.8130000000000002</v>
+        <v>2.8127</v>
       </c>
       <c r="D99">
         <v>2.1369259999999999E-3</v>
@@ -8161,7 +8008,7 @@
         <v>13</v>
       </c>
       <c r="C100">
-        <v>3.0659999999999998</v>
+        <v>3.0657999999999999</v>
       </c>
       <c r="D100">
         <v>1.9786349999999999E-3</v>
@@ -8193,7 +8040,7 @@
         <v>14</v>
       </c>
       <c r="C101">
-        <v>3.3420000000000001</v>
+        <v>3.3416999999999999</v>
       </c>
       <c r="D101">
         <v>1.832069E-3</v>
@@ -8225,7 +8072,7 @@
         <v>15</v>
       </c>
       <c r="C102">
-        <v>3.6419999999999999</v>
+        <v>3.6425000000000001</v>
       </c>
       <c r="D102">
         <v>1.1450430000000001E-3</v>
@@ -8257,7 +8104,7 @@
         <v>16</v>
       </c>
       <c r="C103">
-        <v>3.97</v>
+        <v>3.9702999999999999</v>
       </c>
       <c r="D103">
         <v>1.0602249999999999E-3</v>
@@ -8289,7 +8136,7 @@
         <v>17</v>
       </c>
       <c r="C104">
-        <v>4.3280000000000003</v>
+        <v>4.3276000000000003</v>
       </c>
       <c r="D104">
         <v>9.8168999999999991E-4</v>
@@ -8321,7 +8168,7 @@
         <v>18</v>
       </c>
       <c r="C105">
-        <v>4.7169999999999996</v>
+        <v>4.7171000000000003</v>
       </c>
       <c r="D105">
         <v>9.0897199999999997E-4</v>
@@ -8353,7 +8200,7 @@
         <v>19</v>
       </c>
       <c r="C106">
-        <v>5.1420000000000003</v>
+        <v>5.1417000000000002</v>
       </c>
       <c r="D106">
         <v>8.4164099999999996E-4</v>
@@ -8385,7 +8232,7 @@
         <v>20</v>
       </c>
       <c r="C107">
-        <v>5.6040000000000001</v>
+        <v>5.6044</v>
       </c>
       <c r="D107">
         <v>4.95083E-4</v>
@@ -8417,7 +8264,7 @@
         <v>21</v>
       </c>
       <c r="C108">
-        <v>6.109</v>
+        <v>6.1087999999999996</v>
       </c>
       <c r="D108">
         <v>4.5841000000000002E-4</v>
@@ -8449,7 +8296,7 @@
         <v>22</v>
       </c>
       <c r="C109">
-        <v>6.6589999999999998</v>
+        <v>6.6585999999999999</v>
       </c>
       <c r="D109">
         <v>4.24454E-4</v>
@@ -8481,7 +8328,7 @@
         <v>23</v>
       </c>
       <c r="C110">
-        <v>7.258</v>
+        <v>7.2579000000000002</v>
       </c>
       <c r="D110">
         <v>3.93013E-4</v>
@@ -8513,7 +8360,7 @@
         <v>24</v>
       </c>
       <c r="C111">
-        <v>7.9109999999999996</v>
+        <v>7.9111000000000002</v>
       </c>
       <c r="D111">
         <v>3.6390100000000002E-4</v>
@@ -8545,7 +8392,7 @@
         <v>25</v>
       </c>
       <c r="C112">
-        <v>8.6229999999999993</v>
+        <v>8.6231000000000009</v>
       </c>
       <c r="D112">
         <v>1.8195E-4</v>
@@ -8577,7 +8424,7 @@
         <v>26</v>
       </c>
       <c r="C113">
-        <v>9.3989999999999991</v>
+        <v>9.3992000000000004</v>
       </c>
       <c r="D113">
         <v>1.6847300000000001E-4</v>
@@ -8609,7 +8456,7 @@
         <v>27</v>
       </c>
       <c r="C114">
-        <v>10.244999999999999</v>
+        <v>10.245100000000001</v>
       </c>
       <c r="D114">
         <v>1.55993E-4</v>
@@ -8641,7 +8488,7 @@
         <v>28</v>
       </c>
       <c r="C115">
-        <v>11.167</v>
+        <v>11.1671</v>
       </c>
       <c r="D115">
         <v>1.4443799999999999E-4</v>
@@ -8673,7 +8520,7 @@
         <v>29</v>
       </c>
       <c r="C116">
-        <v>12.172000000000001</v>
+        <v>12.1722</v>
       </c>
       <c r="D116">
         <v>1.3373899999999999E-4</v>
@@ -8705,7 +8552,7 @@
         <v>30</v>
       </c>
       <c r="C117">
-        <v>13.268000000000001</v>
+        <v>13.2677</v>
       </c>
       <c r="D117" s="1">
         <v>4.4579700000000003E-5</v>
@@ -8801,7 +8648,7 @@
         <v>2</v>
       </c>
       <c r="C120">
-        <v>1.1879999999999999</v>
+        <v>1.1880999999999999</v>
       </c>
       <c r="D120">
         <v>6.1702689999999999E-3</v>
@@ -8865,7 +8712,7 @@
         <v>4</v>
       </c>
       <c r="C122">
-        <v>1.4119999999999999</v>
+        <v>1.4116</v>
       </c>
       <c r="D122">
         <v>5.2900109999999998E-3</v>
@@ -8897,7 +8744,7 @@
         <v>5</v>
       </c>
       <c r="C123">
-        <v>1.5389999999999999</v>
+        <v>1.5386</v>
       </c>
       <c r="D123">
         <v>4.408342E-3</v>
@@ -8929,7 +8776,7 @@
         <v>6</v>
       </c>
       <c r="C124">
-        <v>1.677</v>
+        <v>1.6771</v>
       </c>
       <c r="D124">
         <v>4.0817980000000002E-3</v>
@@ -8993,7 +8840,7 @@
         <v>8</v>
       </c>
       <c r="C126">
-        <v>1.9930000000000001</v>
+        <v>1.9925999999999999</v>
       </c>
       <c r="D126">
         <v>3.4994840000000002E-3</v>
@@ -9025,7 +8872,7 @@
         <v>9</v>
       </c>
       <c r="C127">
-        <v>2.1720000000000002</v>
+        <v>2.1718999999999999</v>
       </c>
       <c r="D127">
         <v>3.2402630000000002E-3</v>
@@ -9057,7 +8904,7 @@
         <v>10</v>
       </c>
       <c r="C128">
-        <v>2.367</v>
+        <v>2.3673999999999999</v>
       </c>
       <c r="D128">
         <v>2.4925099999999999E-3</v>
@@ -9089,7 +8936,7 @@
         <v>11</v>
       </c>
       <c r="C129">
-        <v>2.58</v>
+        <v>2.5804</v>
       </c>
       <c r="D129">
         <v>2.30788E-3</v>
@@ -9121,7 +8968,7 @@
         <v>12</v>
       </c>
       <c r="C130">
-        <v>2.8130000000000002</v>
+        <v>2.8127</v>
       </c>
       <c r="D130">
         <v>2.1369259999999999E-3</v>
@@ -9153,7 +9000,7 @@
         <v>13</v>
       </c>
       <c r="C131">
-        <v>3.0659999999999998</v>
+        <v>3.0657999999999999</v>
       </c>
       <c r="D131">
         <v>1.9786349999999999E-3</v>
@@ -9185,7 +9032,7 @@
         <v>14</v>
       </c>
       <c r="C132">
-        <v>3.3420000000000001</v>
+        <v>3.3416999999999999</v>
       </c>
       <c r="D132">
         <v>1.832069E-3</v>
@@ -9217,7 +9064,7 @@
         <v>15</v>
       </c>
       <c r="C133">
-        <v>3.6419999999999999</v>
+        <v>3.6425000000000001</v>
       </c>
       <c r="D133">
         <v>1.1450430000000001E-3</v>
@@ -9249,7 +9096,7 @@
         <v>16</v>
       </c>
       <c r="C134">
-        <v>3.97</v>
+        <v>3.9702999999999999</v>
       </c>
       <c r="D134">
         <v>1.0602249999999999E-3</v>
@@ -9281,7 +9128,7 @@
         <v>17</v>
       </c>
       <c r="C135">
-        <v>4.3280000000000003</v>
+        <v>4.3276000000000003</v>
       </c>
       <c r="D135">
         <v>9.8168999999999991E-4</v>
@@ -9313,7 +9160,7 @@
         <v>18</v>
       </c>
       <c r="C136">
-        <v>4.7169999999999996</v>
+        <v>4.7171000000000003</v>
       </c>
       <c r="D136">
         <v>9.0897199999999997E-4</v>
@@ -9345,7 +9192,7 @@
         <v>19</v>
       </c>
       <c r="C137">
-        <v>5.1420000000000003</v>
+        <v>5.1417000000000002</v>
       </c>
       <c r="D137">
         <v>8.4164099999999996E-4</v>
@@ -9377,7 +9224,7 @@
         <v>20</v>
       </c>
       <c r="C138">
-        <v>5.6040000000000001</v>
+        <v>5.6044</v>
       </c>
       <c r="D138">
         <v>4.95083E-4</v>
@@ -9409,7 +9256,7 @@
         <v>21</v>
       </c>
       <c r="C139">
-        <v>6.109</v>
+        <v>6.1087999999999996</v>
       </c>
       <c r="D139">
         <v>4.5841000000000002E-4</v>
@@ -9441,7 +9288,7 @@
         <v>22</v>
       </c>
       <c r="C140">
-        <v>6.6589999999999998</v>
+        <v>6.6585999999999999</v>
       </c>
       <c r="D140">
         <v>4.24454E-4</v>
@@ -9473,7 +9320,7 @@
         <v>23</v>
       </c>
       <c r="C141">
-        <v>7.258</v>
+        <v>7.2579000000000002</v>
       </c>
       <c r="D141">
         <v>3.93013E-4</v>
@@ -9505,7 +9352,7 @@
         <v>24</v>
       </c>
       <c r="C142">
-        <v>7.9109999999999996</v>
+        <v>7.9111000000000002</v>
       </c>
       <c r="D142">
         <v>3.6390100000000002E-4</v>
@@ -9537,7 +9384,7 @@
         <v>25</v>
       </c>
       <c r="C143">
-        <v>8.6229999999999993</v>
+        <v>8.6231000000000009</v>
       </c>
       <c r="D143">
         <v>1.8195E-4</v>
@@ -9569,7 +9416,7 @@
         <v>26</v>
       </c>
       <c r="C144">
-        <v>9.3989999999999991</v>
+        <v>9.3992000000000004</v>
       </c>
       <c r="D144">
         <v>1.6847300000000001E-4</v>
@@ -9601,7 +9448,7 @@
         <v>27</v>
       </c>
       <c r="C145">
-        <v>10.244999999999999</v>
+        <v>10.245100000000001</v>
       </c>
       <c r="D145">
         <v>1.55993E-4</v>
@@ -9633,7 +9480,7 @@
         <v>28</v>
       </c>
       <c r="C146">
-        <v>11.167</v>
+        <v>11.1671</v>
       </c>
       <c r="D146">
         <v>1.4443799999999999E-4</v>
@@ -9665,7 +9512,7 @@
         <v>29</v>
       </c>
       <c r="C147">
-        <v>12.172000000000001</v>
+        <v>12.1722</v>
       </c>
       <c r="D147">
         <v>1.3373899999999999E-4</v>
@@ -9697,7 +9544,7 @@
         <v>30</v>
       </c>
       <c r="C148">
-        <v>13.268000000000001</v>
+        <v>13.2677</v>
       </c>
       <c r="D148" s="1">
         <v>4.4579700000000003E-5</v>
@@ -9730,13 +9577,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82CFE85-E5BF-4028-97DD-0FD3D41C3DD1}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>178</v>
       </c>
@@ -9744,40 +9591,88 @@
         <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="D1" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="E1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J1" t="s">
         <v>188</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>189</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>190</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>191</v>
       </c>
-      <c r="I1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K1" t="s">
-        <v>196</v>
-      </c>
-      <c r="L1" t="s">
-        <v>197</v>
-      </c>
-      <c r="M1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>215</v>
+      </c>
+      <c r="O1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P1" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>218</v>
+      </c>
+      <c r="R1" t="s">
+        <v>219</v>
+      </c>
+      <c r="S1" t="s">
+        <v>220</v>
+      </c>
+      <c r="T1" t="s">
+        <v>221</v>
+      </c>
+      <c r="U1" t="s">
+        <v>222</v>
+      </c>
+      <c r="V1" t="s">
+        <v>223</v>
+      </c>
+      <c r="W1" t="s">
+        <v>224</v>
+      </c>
+      <c r="X1" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -9817,8 +9712,50 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2">
+        <v>7</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>1.0204801539999999</v>
+      </c>
+      <c r="W2">
+        <v>1.06</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>1000</v>
+      </c>
+      <c r="AB2">
+        <v>200</v>
+      </c>
+      <c r="AC2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9858,8 +9795,50 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3">
+        <v>7</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>1.0204801539999999</v>
+      </c>
+      <c r="W3">
+        <v>1.06</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>2000</v>
+      </c>
+      <c r="AB3">
+        <v>400</v>
+      </c>
+      <c r="AC3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -9899,8 +9878,50 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>2.5</v>
+      </c>
+      <c r="P4">
+        <v>1.5</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>1.0204801539999999</v>
+      </c>
+      <c r="W4">
+        <v>1.06</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>3000</v>
+      </c>
+      <c r="AB4">
+        <v>600</v>
+      </c>
+      <c r="AC4">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -9940,8 +9961,50 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>2.5</v>
+      </c>
+      <c r="P5">
+        <v>1.5</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>1.0204801539999999</v>
+      </c>
+      <c r="W5">
+        <v>1.06</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>4000</v>
+      </c>
+      <c r="AB5">
+        <v>800</v>
+      </c>
+      <c r="AC5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -9981,8 +10044,53 @@
       <c r="M6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>0.8</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.2</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>1.0204801539999999</v>
+      </c>
+      <c r="W6">
+        <v>1.06</v>
+      </c>
+      <c r="X6">
+        <v>3</v>
+      </c>
+      <c r="Y6">
+        <v>-20</v>
+      </c>
+      <c r="AA6">
+        <v>5000</v>
+      </c>
+      <c r="AB6">
+        <v>1000</v>
+      </c>
+      <c r="AC6">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -10022,8 +10130,53 @@
       <c r="M7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>0.8</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.2</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>1.0204801539999999</v>
+      </c>
+      <c r="W7">
+        <v>1.06</v>
+      </c>
+      <c r="X7">
+        <v>3</v>
+      </c>
+      <c r="Y7">
+        <v>-10</v>
+      </c>
+      <c r="AA7">
+        <v>5000</v>
+      </c>
+      <c r="AB7">
+        <v>1000</v>
+      </c>
+      <c r="AC7">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10062,6 +10215,51 @@
       </c>
       <c r="M8">
         <v>1</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>0.8</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.2</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>1.0204801539999999</v>
+      </c>
+      <c r="W8">
+        <v>1.06</v>
+      </c>
+      <c r="X8">
+        <v>3</v>
+      </c>
+      <c r="Y8">
+        <v>-5</v>
+      </c>
+      <c r="AA8">
+        <v>5000</v>
+      </c>
+      <c r="AB8">
+        <v>1000</v>
+      </c>
+      <c r="AC8">
+        <v>3750</v>
       </c>
     </row>
   </sheetData>
@@ -10072,27 +10270,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1831AD9F-ED0A-47CF-B524-8603AB7A285B}">
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C1" t="s">
         <v>178</v>
       </c>
       <c r="D1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E1" t="s">
         <v>26</v>
@@ -10109,13 +10309,28 @@
       <c r="I1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K1" t="s">
+        <v>204</v>
+      </c>
+      <c r="L1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -10130,18 +10345,24 @@
         <v>0.01</v>
       </c>
       <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1E-4</v>
+      </c>
+      <c r="K2">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -10156,18 +10377,24 @@
         <v>0.02</v>
       </c>
       <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1E-4</v>
+      </c>
+      <c r="K3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -10182,18 +10409,24 @@
         <v>0.03</v>
       </c>
       <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1E-4</v>
+      </c>
+      <c r="K4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -10208,18 +10441,24 @@
         <v>0.04</v>
       </c>
       <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1E-4</v>
+      </c>
+      <c r="K5">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -10239,13 +10478,25 @@
       <c r="H6">
         <v>-20</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>1E-4</v>
+      </c>
+      <c r="K6">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -10265,13 +10516,25 @@
       <c r="H7">
         <v>-10</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>1E-4</v>
+      </c>
+      <c r="K7">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -10291,13 +10554,25 @@
       <c r="H8">
         <v>-5</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>1E-4</v>
+      </c>
+      <c r="K8">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -10312,18 +10587,24 @@
         <v>200</v>
       </c>
       <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9">
+        <v>200</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -10338,18 +10619,24 @@
         <v>400</v>
       </c>
       <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>100</v>
+      </c>
+      <c r="K10">
+        <v>400</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -10364,18 +10651,24 @@
         <v>600</v>
       </c>
       <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>100</v>
+      </c>
+      <c r="K11">
+        <v>600</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -10390,18 +10683,24 @@
         <v>800</v>
       </c>
       <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>100</v>
+      </c>
+      <c r="K12">
+        <v>800</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -10421,13 +10720,25 @@
       <c r="H13">
         <v>-20</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <v>100</v>
+      </c>
+      <c r="K13">
+        <v>1000</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -10447,13 +10758,25 @@
       <c r="H14">
         <v>-10</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>100</v>
+      </c>
+      <c r="K14">
+        <v>1200</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -10473,13 +10796,25 @@
       <c r="H15">
         <v>-5</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <v>100</v>
+      </c>
+      <c r="K15">
+        <v>1400</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -10494,18 +10829,24 @@
         <v>0.01</v>
       </c>
       <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1E-4</v>
+      </c>
+      <c r="K16">
+        <v>0.01</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -10520,18 +10861,24 @@
         <v>0.02</v>
       </c>
       <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1E-4</v>
+      </c>
+      <c r="K17">
+        <v>0.02</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -10546,18 +10893,24 @@
         <v>0.03</v>
       </c>
       <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1E-4</v>
+      </c>
+      <c r="K18">
+        <v>0.03</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -10572,18 +10925,24 @@
         <v>0.04</v>
       </c>
       <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1E-4</v>
+      </c>
+      <c r="K19">
+        <v>0.04</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -10603,13 +10962,25 @@
       <c r="H20">
         <v>-20</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>1E-4</v>
+      </c>
+      <c r="K20">
+        <v>0.05</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -10629,13 +11000,25 @@
       <c r="H21">
         <v>-10</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <v>1E-4</v>
+      </c>
+      <c r="K21">
+        <v>0.05</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -10655,13 +11038,25 @@
       <c r="H22">
         <v>-5</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <v>1E-4</v>
+      </c>
+      <c r="K22">
+        <v>0.05</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -10676,18 +11071,24 @@
         <v>0.01</v>
       </c>
       <c r="G23">
-        <v>3</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1E-4</v>
+      </c>
+      <c r="K23">
+        <v>0.01</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -10702,18 +11103,24 @@
         <v>0.02</v>
       </c>
       <c r="G24">
-        <v>3</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1E-4</v>
+      </c>
+      <c r="K24">
+        <v>0.02</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -10728,18 +11135,24 @@
         <v>0.03</v>
       </c>
       <c r="G25">
-        <v>3</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1E-4</v>
+      </c>
+      <c r="K25">
+        <v>0.03</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -10754,18 +11167,24 @@
         <v>0.04</v>
       </c>
       <c r="G26">
-        <v>3</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1E-4</v>
+      </c>
+      <c r="K26">
+        <v>0.04</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -10785,13 +11204,25 @@
       <c r="H27">
         <v>-20</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <v>1E-4</v>
+      </c>
+      <c r="K27">
+        <v>0.05</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -10811,13 +11242,25 @@
       <c r="H28">
         <v>-10</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J28">
+        <v>1E-4</v>
+      </c>
+      <c r="K28">
+        <v>0.05</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -10837,13 +11280,25 @@
       <c r="H29">
         <v>-5</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J29">
+        <v>1E-4</v>
+      </c>
+      <c r="K29">
+        <v>0.05</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="M29">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -10858,18 +11313,24 @@
         <v>0.01</v>
       </c>
       <c r="G30">
-        <v>3</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1E-4</v>
+      </c>
+      <c r="K30">
+        <v>0.01</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -10884,18 +11345,24 @@
         <v>0.02</v>
       </c>
       <c r="G31">
-        <v>3</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1E-4</v>
+      </c>
+      <c r="K31">
+        <v>0.02</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -10910,18 +11377,24 @@
         <v>0.03</v>
       </c>
       <c r="G32">
-        <v>3</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1E-4</v>
+      </c>
+      <c r="K32">
+        <v>0.03</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -10936,18 +11409,24 @@
         <v>0.04</v>
       </c>
       <c r="G33">
-        <v>3</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1E-4</v>
+      </c>
+      <c r="K33">
+        <v>0.04</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -10967,13 +11446,25 @@
       <c r="H34">
         <v>-20</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <v>1E-4</v>
+      </c>
+      <c r="K34">
+        <v>0.05</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -10993,13 +11484,25 @@
       <c r="H35">
         <v>-10</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J35">
+        <v>1E-4</v>
+      </c>
+      <c r="K35">
+        <v>0.05</v>
+      </c>
+      <c r="L35">
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -11019,13 +11522,25 @@
       <c r="H36">
         <v>-5</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J36">
+        <v>1E-4</v>
+      </c>
+      <c r="K36">
+        <v>0.05</v>
+      </c>
+      <c r="L36">
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -11040,18 +11555,24 @@
         <v>0.01</v>
       </c>
       <c r="G37">
-        <v>3</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1E-4</v>
+      </c>
+      <c r="K37">
+        <v>0.01</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -11066,18 +11587,24 @@
         <v>0.02</v>
       </c>
       <c r="G38">
-        <v>3</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1E-4</v>
+      </c>
+      <c r="K38">
+        <v>0.02</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -11092,18 +11619,24 @@
         <v>0.03</v>
       </c>
       <c r="G39">
-        <v>3</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1E-4</v>
+      </c>
+      <c r="K39">
+        <v>0.03</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -11118,18 +11651,24 @@
         <v>0.04</v>
       </c>
       <c r="G40">
-        <v>3</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1E-4</v>
+      </c>
+      <c r="K40">
+        <v>0.04</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -11149,13 +11688,25 @@
       <c r="H41">
         <v>-20</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J41">
+        <v>1E-4</v>
+      </c>
+      <c r="K41">
+        <v>0.05</v>
+      </c>
+      <c r="L41">
+        <v>3</v>
+      </c>
+      <c r="M41">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -11175,13 +11726,25 @@
       <c r="H42">
         <v>-10</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J42">
+        <v>1E-4</v>
+      </c>
+      <c r="K42">
+        <v>0.05</v>
+      </c>
+      <c r="L42">
+        <v>3</v>
+      </c>
+      <c r="M42">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -11201,13 +11764,25 @@
       <c r="H43">
         <v>-5</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J43">
+        <v>1E-4</v>
+      </c>
+      <c r="K43">
+        <v>0.05</v>
+      </c>
+      <c r="L43">
+        <v>3</v>
+      </c>
+      <c r="M43">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -11222,18 +11797,24 @@
         <v>0.01</v>
       </c>
       <c r="G44">
-        <v>3</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1E-4</v>
+      </c>
+      <c r="K44">
+        <v>0.01</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -11248,18 +11829,24 @@
         <v>0.02</v>
       </c>
       <c r="G45">
-        <v>3</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1E-4</v>
+      </c>
+      <c r="K45">
+        <v>0.02</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -11274,18 +11861,24 @@
         <v>0.03</v>
       </c>
       <c r="G46">
-        <v>3</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1E-4</v>
+      </c>
+      <c r="K46">
+        <v>0.03</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -11300,18 +11893,24 @@
         <v>0.04</v>
       </c>
       <c r="G47">
-        <v>3</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1E-4</v>
+      </c>
+      <c r="K47">
+        <v>0.04</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -11331,13 +11930,25 @@
       <c r="H48">
         <v>-20</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J48">
+        <v>1E-4</v>
+      </c>
+      <c r="K48">
+        <v>0.05</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -11357,13 +11968,25 @@
       <c r="H49">
         <v>-10</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J49">
+        <v>1E-4</v>
+      </c>
+      <c r="K49">
+        <v>0.05</v>
+      </c>
+      <c r="L49">
+        <v>3</v>
+      </c>
+      <c r="M49">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -11383,13 +12006,25 @@
       <c r="H50">
         <v>-5</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J50">
+        <v>1E-4</v>
+      </c>
+      <c r="K50">
+        <v>0.05</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="M50">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -11404,18 +12039,24 @@
         <v>400</v>
       </c>
       <c r="G51">
-        <v>3</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>200</v>
+      </c>
+      <c r="K51">
+        <v>400</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -11430,18 +12071,24 @@
         <v>800</v>
       </c>
       <c r="G52">
-        <v>3</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>200</v>
+      </c>
+      <c r="K52">
+        <v>800</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -11456,18 +12103,24 @@
         <v>1200</v>
       </c>
       <c r="G53">
-        <v>3</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>200</v>
+      </c>
+      <c r="K53">
+        <v>1200</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -11482,18 +12135,24 @@
         <v>1600</v>
       </c>
       <c r="G54">
-        <v>3</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>200</v>
+      </c>
+      <c r="K54">
+        <v>1600</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -11513,13 +12172,25 @@
       <c r="H55">
         <v>-20</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J55">
+        <v>200</v>
+      </c>
+      <c r="K55">
+        <v>2000</v>
+      </c>
+      <c r="L55">
+        <v>3</v>
+      </c>
+      <c r="M55">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -11539,13 +12210,25 @@
       <c r="H56">
         <v>-10</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J56">
+        <v>200</v>
+      </c>
+      <c r="K56">
+        <v>2400</v>
+      </c>
+      <c r="L56">
+        <v>3</v>
+      </c>
+      <c r="M56">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -11565,13 +12248,25 @@
       <c r="H57">
         <v>-5</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J57">
+        <v>200</v>
+      </c>
+      <c r="K57">
+        <v>2800</v>
+      </c>
+      <c r="L57">
+        <v>3</v>
+      </c>
+      <c r="M57">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -11586,18 +12281,24 @@
         <v>0.01</v>
       </c>
       <c r="G58">
-        <v>3</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1E-4</v>
+      </c>
+      <c r="K58">
+        <v>0.01</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -11612,18 +12313,24 @@
         <v>0.02</v>
       </c>
       <c r="G59">
-        <v>3</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1E-4</v>
+      </c>
+      <c r="K59">
+        <v>0.02</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -11638,18 +12345,24 @@
         <v>0.03</v>
       </c>
       <c r="G60">
-        <v>3</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1E-4</v>
+      </c>
+      <c r="K60">
+        <v>0.03</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -11664,18 +12377,24 @@
         <v>0.04</v>
       </c>
       <c r="G61">
-        <v>3</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1E-4</v>
+      </c>
+      <c r="K61">
+        <v>0.04</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -11695,13 +12414,25 @@
       <c r="H62">
         <v>-20</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J62">
+        <v>1E-4</v>
+      </c>
+      <c r="K62">
+        <v>0.05</v>
+      </c>
+      <c r="L62">
+        <v>3</v>
+      </c>
+      <c r="M62">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -11721,13 +12452,25 @@
       <c r="H63">
         <v>-10</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J63">
+        <v>1E-4</v>
+      </c>
+      <c r="K63">
+        <v>0.05</v>
+      </c>
+      <c r="L63">
+        <v>3</v>
+      </c>
+      <c r="M63">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C64">
         <v>6</v>
@@ -11747,13 +12490,25 @@
       <c r="H64">
         <v>-5</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J64">
+        <v>1E-4</v>
+      </c>
+      <c r="K64">
+        <v>0.05</v>
+      </c>
+      <c r="L64">
+        <v>3</v>
+      </c>
+      <c r="M64">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -11768,18 +12523,24 @@
         <v>0.01</v>
       </c>
       <c r="G65">
-        <v>3</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1E-4</v>
+      </c>
+      <c r="K65">
+        <v>0.01</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -11794,18 +12555,24 @@
         <v>0.02</v>
       </c>
       <c r="G66">
-        <v>3</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1E-4</v>
+      </c>
+      <c r="K66">
+        <v>0.02</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -11820,18 +12587,24 @@
         <v>0.03</v>
       </c>
       <c r="G67">
-        <v>3</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1E-4</v>
+      </c>
+      <c r="K67">
+        <v>0.03</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -11846,18 +12619,24 @@
         <v>0.04</v>
       </c>
       <c r="G68">
-        <v>3</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1E-4</v>
+      </c>
+      <c r="K68">
+        <v>0.04</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -11877,13 +12656,25 @@
       <c r="H69">
         <v>-20</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J69">
+        <v>1E-4</v>
+      </c>
+      <c r="K69">
+        <v>0.05</v>
+      </c>
+      <c r="L69">
+        <v>3</v>
+      </c>
+      <c r="M69">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -11903,13 +12694,25 @@
       <c r="H70">
         <v>-10</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J70">
+        <v>1E-4</v>
+      </c>
+      <c r="K70">
+        <v>0.05</v>
+      </c>
+      <c r="L70">
+        <v>3</v>
+      </c>
+      <c r="M70">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C71">
         <v>6</v>
@@ -11929,13 +12732,25 @@
       <c r="H71">
         <v>-5</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J71">
+        <v>1E-4</v>
+      </c>
+      <c r="K71">
+        <v>0.05</v>
+      </c>
+      <c r="L71">
+        <v>3</v>
+      </c>
+      <c r="M71">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -11950,18 +12765,24 @@
         <v>0.01</v>
       </c>
       <c r="G72">
-        <v>3</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1E-4</v>
+      </c>
+      <c r="K72">
+        <v>0.01</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -11976,18 +12797,24 @@
         <v>0.02</v>
       </c>
       <c r="G73">
-        <v>3</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1E-4</v>
+      </c>
+      <c r="K73">
+        <v>0.02</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -12002,18 +12829,24 @@
         <v>0.03</v>
       </c>
       <c r="G74">
-        <v>3</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1E-4</v>
+      </c>
+      <c r="K74">
+        <v>0.03</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -12028,18 +12861,24 @@
         <v>0.04</v>
       </c>
       <c r="G75">
-        <v>3</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1E-4</v>
+      </c>
+      <c r="K75">
+        <v>0.04</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -12059,13 +12898,25 @@
       <c r="H76">
         <v>-20</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J76">
+        <v>1E-4</v>
+      </c>
+      <c r="K76">
+        <v>0.05</v>
+      </c>
+      <c r="L76">
+        <v>3</v>
+      </c>
+      <c r="M76">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1</v>
       </c>
       <c r="B77" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -12085,13 +12936,25 @@
       <c r="H77">
         <v>-10</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J77">
+        <v>1E-4</v>
+      </c>
+      <c r="K77">
+        <v>0.05</v>
+      </c>
+      <c r="L77">
+        <v>3</v>
+      </c>
+      <c r="M77">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C78">
         <v>6</v>
@@ -12109,6 +12972,18 @@
         <v>3</v>
       </c>
       <c r="H78">
+        <v>-5</v>
+      </c>
+      <c r="J78">
+        <v>1E-4</v>
+      </c>
+      <c r="K78">
+        <v>0.05</v>
+      </c>
+      <c r="L78">
+        <v>3</v>
+      </c>
+      <c r="M78">
         <v>-5</v>
       </c>
     </row>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E17F6A-4F4B-46A0-8398-F87919E78299}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94C4196-B421-4A99-BD3A-C197CA4EC8C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -723,10 +723,10 @@
     <t>amplifyMainGold|Int</t>
   </si>
   <si>
-    <t>amplifyRandomGold|Int</t>
-  </si>
-  <si>
     <t>transmuteRandomGold|Int</t>
+  </si>
+  <si>
+    <t>amplifyGold|Int</t>
   </si>
 </sst>
 </file>
@@ -1095,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9577,13 +9577,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82CFE85-E5BF-4028-97DD-0FD3D41C3DD1}">
-  <dimension ref="A1:AC8"/>
+  <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:29" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>178</v>
       </c>
@@ -9668,11 +9668,8 @@
       <c r="AB1" t="s">
         <v>229</v>
       </c>
-      <c r="AC1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -9749,13 +9746,10 @@
         <v>1000</v>
       </c>
       <c r="AB2">
-        <v>200</v>
-      </c>
-      <c r="AC2">
         <v>750</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9832,13 +9826,10 @@
         <v>2000</v>
       </c>
       <c r="AB3">
-        <v>400</v>
-      </c>
-      <c r="AC3">
         <v>1500</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -9915,13 +9906,10 @@
         <v>3000</v>
       </c>
       <c r="AB4">
-        <v>600</v>
-      </c>
-      <c r="AC4">
         <v>2250</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -9998,13 +9986,10 @@
         <v>4000</v>
       </c>
       <c r="AB5">
-        <v>800</v>
-      </c>
-      <c r="AC5">
         <v>3000</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -10084,13 +10069,10 @@
         <v>5000</v>
       </c>
       <c r="AB6">
-        <v>1000</v>
-      </c>
-      <c r="AC6">
         <v>3750</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -10170,13 +10152,10 @@
         <v>5000</v>
       </c>
       <c r="AB7">
-        <v>1000</v>
-      </c>
-      <c r="AC7">
         <v>3750</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10256,9 +10235,6 @@
         <v>5000</v>
       </c>
       <c r="AB8">
-        <v>1000</v>
-      </c>
-      <c r="AC8">
         <v>3750</v>
       </c>
     </row>
@@ -10270,18 +10246,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1831AD9F-ED0A-47CF-B524-8603AB7A285B}">
-  <dimension ref="A1:N78"/>
+  <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -10324,8 +10298,11 @@
       <c r="N1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -10351,13 +10328,16 @@
         <v>1E-4</v>
       </c>
       <c r="K2">
-        <v>2.9999999999999997E-4</v>
+        <v>0.01</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -10383,13 +10363,16 @@
         <v>1E-4</v>
       </c>
       <c r="K3">
-        <v>2.9999999999999997E-4</v>
+        <v>0.01</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -10415,13 +10398,16 @@
         <v>1E-4</v>
       </c>
       <c r="K4">
-        <v>2.9999999999999997E-4</v>
+        <v>0.01</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -10447,13 +10433,16 @@
         <v>1E-4</v>
       </c>
       <c r="K5">
-        <v>2.9999999999999997E-4</v>
+        <v>0.01</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -10482,7 +10471,7 @@
         <v>1E-4</v>
       </c>
       <c r="K6">
-        <v>2.9999999999999997E-4</v>
+        <v>0.01</v>
       </c>
       <c r="L6">
         <v>3</v>
@@ -10490,8 +10479,11 @@
       <c r="M6">
         <v>-20</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -10520,7 +10512,7 @@
         <v>1E-4</v>
       </c>
       <c r="K7">
-        <v>2.9999999999999997E-4</v>
+        <v>0.01</v>
       </c>
       <c r="L7">
         <v>3</v>
@@ -10528,8 +10520,11 @@
       <c r="M7">
         <v>-10</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -10558,7 +10553,7 @@
         <v>1E-4</v>
       </c>
       <c r="K8">
-        <v>2.9999999999999997E-4</v>
+        <v>0.01</v>
       </c>
       <c r="L8">
         <v>3</v>
@@ -10566,8 +10561,11 @@
       <c r="M8">
         <v>-5</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -10590,16 +10588,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>100</v>
+        <v>1.0204801539999999</v>
       </c>
       <c r="K9">
+        <v>1.06</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>200</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -10622,16 +10623,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>100</v>
+        <v>1.0204801539999999</v>
       </c>
       <c r="K10">
+        <v>1.06</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>400</v>
       </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -10654,16 +10658,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>100</v>
+        <v>1.0204801539999999</v>
       </c>
       <c r="K11">
+        <v>1.06</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>600</v>
       </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -10686,16 +10693,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>100</v>
+        <v>1.0204801539999999</v>
       </c>
       <c r="K12">
+        <v>1.06</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="O12">
         <v>800</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -10721,10 +10731,10 @@
         <v>-20</v>
       </c>
       <c r="J13">
-        <v>100</v>
+        <v>1.0204801539999999</v>
       </c>
       <c r="K13">
-        <v>1000</v>
+        <v>1.06</v>
       </c>
       <c r="L13">
         <v>3</v>
@@ -10732,8 +10742,11 @@
       <c r="M13">
         <v>-20</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
@@ -10759,10 +10772,10 @@
         <v>-10</v>
       </c>
       <c r="J14">
-        <v>100</v>
+        <v>1.0204801539999999</v>
       </c>
       <c r="K14">
-        <v>1200</v>
+        <v>1.06</v>
       </c>
       <c r="L14">
         <v>3</v>
@@ -10770,8 +10783,11 @@
       <c r="M14">
         <v>-10</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
@@ -10797,10 +10813,10 @@
         <v>-5</v>
       </c>
       <c r="J15">
-        <v>100</v>
+        <v>1.0204801539999999</v>
       </c>
       <c r="K15">
-        <v>1400</v>
+        <v>1.06</v>
       </c>
       <c r="L15">
         <v>3</v>
@@ -10808,8 +10824,11 @@
       <c r="M15">
         <v>-5</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
@@ -10840,8 +10859,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
@@ -10867,13 +10889,16 @@
         <v>1E-4</v>
       </c>
       <c r="K17">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O17">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
@@ -10899,13 +10924,16 @@
         <v>1E-4</v>
       </c>
       <c r="K18">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O18">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
@@ -10931,13 +10959,16 @@
         <v>1E-4</v>
       </c>
       <c r="K19">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O19">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0</v>
       </c>
@@ -10966,7 +10997,7 @@
         <v>1E-4</v>
       </c>
       <c r="K20">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L20">
         <v>3</v>
@@ -10974,8 +11005,11 @@
       <c r="M20">
         <v>-20</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -11004,7 +11038,7 @@
         <v>1E-4</v>
       </c>
       <c r="K21">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L21">
         <v>3</v>
@@ -11012,8 +11046,11 @@
       <c r="M21">
         <v>-10</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0</v>
       </c>
@@ -11042,7 +11079,7 @@
         <v>1E-4</v>
       </c>
       <c r="K22">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L22">
         <v>3</v>
@@ -11050,8 +11087,11 @@
       <c r="M22">
         <v>-5</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0</v>
       </c>
@@ -11082,8 +11122,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0</v>
       </c>
@@ -11109,13 +11152,16 @@
         <v>1E-4</v>
       </c>
       <c r="K24">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O24">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0</v>
       </c>
@@ -11141,13 +11187,16 @@
         <v>1E-4</v>
       </c>
       <c r="K25">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0</v>
       </c>
@@ -11173,13 +11222,16 @@
         <v>1E-4</v>
       </c>
       <c r="K26">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O26">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0</v>
       </c>
@@ -11208,7 +11260,7 @@
         <v>1E-4</v>
       </c>
       <c r="K27">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L27">
         <v>3</v>
@@ -11216,8 +11268,11 @@
       <c r="M27">
         <v>-20</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0</v>
       </c>
@@ -11246,7 +11301,7 @@
         <v>1E-4</v>
       </c>
       <c r="K28">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L28">
         <v>3</v>
@@ -11254,8 +11309,11 @@
       <c r="M28">
         <v>-10</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O28">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0</v>
       </c>
@@ -11284,7 +11342,7 @@
         <v>1E-4</v>
       </c>
       <c r="K29">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L29">
         <v>3</v>
@@ -11292,8 +11350,11 @@
       <c r="M29">
         <v>-5</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0</v>
       </c>
@@ -11324,8 +11385,11 @@
       <c r="L30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0</v>
       </c>
@@ -11351,13 +11415,16 @@
         <v>1E-4</v>
       </c>
       <c r="K31">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O31">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0</v>
       </c>
@@ -11383,13 +11450,16 @@
         <v>1E-4</v>
       </c>
       <c r="K32">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O32">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0</v>
       </c>
@@ -11415,13 +11485,16 @@
         <v>1E-4</v>
       </c>
       <c r="K33">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O33">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0</v>
       </c>
@@ -11450,7 +11523,7 @@
         <v>1E-4</v>
       </c>
       <c r="K34">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L34">
         <v>3</v>
@@ -11458,8 +11531,11 @@
       <c r="M34">
         <v>-20</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O34">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0</v>
       </c>
@@ -11488,7 +11564,7 @@
         <v>1E-4</v>
       </c>
       <c r="K35">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L35">
         <v>3</v>
@@ -11496,8 +11572,11 @@
       <c r="M35">
         <v>-10</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0</v>
       </c>
@@ -11526,7 +11605,7 @@
         <v>1E-4</v>
       </c>
       <c r="K36">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L36">
         <v>3</v>
@@ -11534,8 +11613,11 @@
       <c r="M36">
         <v>-5</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O36">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0</v>
       </c>
@@ -11566,8 +11648,11 @@
       <c r="L37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0</v>
       </c>
@@ -11593,13 +11678,16 @@
         <v>1E-4</v>
       </c>
       <c r="K38">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O38">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0</v>
       </c>
@@ -11625,13 +11713,16 @@
         <v>1E-4</v>
       </c>
       <c r="K39">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O39">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0</v>
       </c>
@@ -11657,13 +11748,16 @@
         <v>1E-4</v>
       </c>
       <c r="K40">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O40">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0</v>
       </c>
@@ -11692,7 +11786,7 @@
         <v>1E-4</v>
       </c>
       <c r="K41">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L41">
         <v>3</v>
@@ -11700,8 +11794,11 @@
       <c r="M41">
         <v>-20</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O41">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0</v>
       </c>
@@ -11730,7 +11827,7 @@
         <v>1E-4</v>
       </c>
       <c r="K42">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L42">
         <v>3</v>
@@ -11738,8 +11835,11 @@
       <c r="M42">
         <v>-10</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O42">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0</v>
       </c>
@@ -11768,7 +11868,7 @@
         <v>1E-4</v>
       </c>
       <c r="K43">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L43">
         <v>3</v>
@@ -11776,8 +11876,11 @@
       <c r="M43">
         <v>-5</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O43">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -11808,8 +11911,11 @@
       <c r="L44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O44">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1</v>
       </c>
@@ -11835,13 +11941,16 @@
         <v>1E-4</v>
       </c>
       <c r="K45">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O45">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -11867,13 +11976,16 @@
         <v>1E-4</v>
       </c>
       <c r="K46">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O46">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1</v>
       </c>
@@ -11899,13 +12011,16 @@
         <v>1E-4</v>
       </c>
       <c r="K47">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="L47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O47">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1</v>
       </c>
@@ -11934,7 +12049,7 @@
         <v>1E-4</v>
       </c>
       <c r="K48">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L48">
         <v>3</v>
@@ -11942,8 +12057,11 @@
       <c r="M48">
         <v>-20</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O48">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1</v>
       </c>
@@ -11972,7 +12090,7 @@
         <v>1E-4</v>
       </c>
       <c r="K49">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L49">
         <v>3</v>
@@ -11980,8 +12098,11 @@
       <c r="M49">
         <v>-10</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O49">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1</v>
       </c>
@@ -12010,7 +12131,7 @@
         <v>1E-4</v>
       </c>
       <c r="K50">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L50">
         <v>3</v>
@@ -12018,8 +12139,11 @@
       <c r="M50">
         <v>-5</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O50">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1</v>
       </c>
@@ -12042,16 +12166,19 @@
         <v>0</v>
       </c>
       <c r="J51">
+        <v>1.0204801539999999</v>
+      </c>
+      <c r="K51">
+        <v>1.06</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="O51">
         <v>200</v>
       </c>
-      <c r="K51">
-        <v>400</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1</v>
       </c>
@@ -12074,16 +12201,19 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>200</v>
+        <v>1.0204801539999999</v>
       </c>
       <c r="K52">
-        <v>800</v>
+        <v>1.06</v>
       </c>
       <c r="L52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O52">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1</v>
       </c>
@@ -12106,16 +12236,19 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>200</v>
+        <v>1.0204801539999999</v>
       </c>
       <c r="K53">
-        <v>1200</v>
+        <v>1.06</v>
       </c>
       <c r="L53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O53">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1</v>
       </c>
@@ -12138,16 +12271,19 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>200</v>
+        <v>1.0204801539999999</v>
       </c>
       <c r="K54">
-        <v>1600</v>
+        <v>1.06</v>
       </c>
       <c r="L54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O54">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1</v>
       </c>
@@ -12173,10 +12309,10 @@
         <v>-20</v>
       </c>
       <c r="J55">
-        <v>200</v>
+        <v>1.0204801539999999</v>
       </c>
       <c r="K55">
-        <v>2000</v>
+        <v>1.06</v>
       </c>
       <c r="L55">
         <v>3</v>
@@ -12184,8 +12320,11 @@
       <c r="M55">
         <v>-20</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O55">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1</v>
       </c>
@@ -12211,10 +12350,10 @@
         <v>-10</v>
       </c>
       <c r="J56">
-        <v>200</v>
+        <v>1.0204801539999999</v>
       </c>
       <c r="K56">
-        <v>2400</v>
+        <v>1.06</v>
       </c>
       <c r="L56">
         <v>3</v>
@@ -12222,8 +12361,11 @@
       <c r="M56">
         <v>-10</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O56">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1</v>
       </c>
@@ -12249,10 +12391,10 @@
         <v>-5</v>
       </c>
       <c r="J57">
-        <v>200</v>
+        <v>1.0204801539999999</v>
       </c>
       <c r="K57">
-        <v>2800</v>
+        <v>1.06</v>
       </c>
       <c r="L57">
         <v>3</v>
@@ -12260,8 +12402,11 @@
       <c r="M57">
         <v>-5</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O57">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1</v>
       </c>
@@ -12292,8 +12437,11 @@
       <c r="L58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -12319,13 +12467,16 @@
         <v>1E-4</v>
       </c>
       <c r="K59">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O59">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1</v>
       </c>
@@ -12351,13 +12502,16 @@
         <v>1E-4</v>
       </c>
       <c r="K60">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="L60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O60">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1</v>
       </c>
@@ -12383,13 +12537,16 @@
         <v>1E-4</v>
       </c>
       <c r="K61">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="L61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O61">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1</v>
       </c>
@@ -12418,7 +12575,7 @@
         <v>1E-4</v>
       </c>
       <c r="K62">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L62">
         <v>3</v>
@@ -12426,8 +12583,11 @@
       <c r="M62">
         <v>-20</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O62">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1</v>
       </c>
@@ -12456,7 +12616,7 @@
         <v>1E-4</v>
       </c>
       <c r="K63">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L63">
         <v>3</v>
@@ -12464,8 +12624,11 @@
       <c r="M63">
         <v>-10</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O63">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1</v>
       </c>
@@ -12494,7 +12657,7 @@
         <v>1E-4</v>
       </c>
       <c r="K64">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L64">
         <v>3</v>
@@ -12502,8 +12665,11 @@
       <c r="M64">
         <v>-5</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O64">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1</v>
       </c>
@@ -12534,8 +12700,11 @@
       <c r="L65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O65">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1</v>
       </c>
@@ -12561,13 +12730,16 @@
         <v>1E-4</v>
       </c>
       <c r="K66">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="L66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O66">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1</v>
       </c>
@@ -12593,13 +12765,16 @@
         <v>1E-4</v>
       </c>
       <c r="K67">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="L67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O67">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1</v>
       </c>
@@ -12625,13 +12800,16 @@
         <v>1E-4</v>
       </c>
       <c r="K68">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="L68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O68">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1</v>
       </c>
@@ -12660,7 +12838,7 @@
         <v>1E-4</v>
       </c>
       <c r="K69">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L69">
         <v>3</v>
@@ -12668,8 +12846,11 @@
       <c r="M69">
         <v>-20</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O69">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1</v>
       </c>
@@ -12698,7 +12879,7 @@
         <v>1E-4</v>
       </c>
       <c r="K70">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L70">
         <v>3</v>
@@ -12706,8 +12887,11 @@
       <c r="M70">
         <v>-10</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O70">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1</v>
       </c>
@@ -12736,7 +12920,7 @@
         <v>1E-4</v>
       </c>
       <c r="K71">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L71">
         <v>3</v>
@@ -12744,8 +12928,11 @@
       <c r="M71">
         <v>-5</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O71">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1</v>
       </c>
@@ -12776,8 +12963,11 @@
       <c r="L72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O72">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1</v>
       </c>
@@ -12803,13 +12993,16 @@
         <v>1E-4</v>
       </c>
       <c r="K73">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="L73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O73">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1</v>
       </c>
@@ -12835,13 +13028,16 @@
         <v>1E-4</v>
       </c>
       <c r="K74">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="L74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O74">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -12867,13 +13063,16 @@
         <v>1E-4</v>
       </c>
       <c r="K75">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="L75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O75">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1</v>
       </c>
@@ -12902,7 +13101,7 @@
         <v>1E-4</v>
       </c>
       <c r="K76">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L76">
         <v>3</v>
@@ -12910,8 +13109,11 @@
       <c r="M76">
         <v>-20</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O76">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1</v>
       </c>
@@ -12940,7 +13142,7 @@
         <v>1E-4</v>
       </c>
       <c r="K77">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L77">
         <v>3</v>
@@ -12948,8 +13150,11 @@
       <c r="M77">
         <v>-10</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O77">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1</v>
       </c>
@@ -12978,13 +13183,16 @@
         <v>1E-4</v>
       </c>
       <c r="K78">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L78">
         <v>3</v>
       </c>
       <c r="M78">
         <v>-5</v>
+      </c>
+      <c r="O78">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94C4196-B421-4A99-BD3A-C197CA4EC8C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E886C04-20B3-480E-9AA4-6349F724EAC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
     <sheet name="EnhanceTable" sheetId="2" r:id="rId2"/>
     <sheet name="InnerGradeTable" sheetId="5" r:id="rId3"/>
     <sheet name="OptionTable" sheetId="4" r:id="rId4"/>
+    <sheet name="TransferTable" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="242">
   <si>
     <t>Equip0001</t>
   </si>
@@ -727,6 +728,39 @@
   </si>
   <si>
     <t>amplifyGold|Int</t>
+  </si>
+  <si>
+    <t>transferGold|Int</t>
+  </si>
+  <si>
+    <t>transferAvailableLevel|Int</t>
+  </si>
+  <si>
+    <t>transferRate|Float</t>
+  </si>
+  <si>
+    <t>sameSum|Float</t>
+  </si>
+  <si>
+    <t>innerGradeZeroAmount|Float</t>
+  </si>
+  <si>
+    <t>innerGradeOneAmount|Float</t>
+  </si>
+  <si>
+    <t>innerGradeTwoAmount|Float</t>
+  </si>
+  <si>
+    <t>innerGradeThreeAmount|Float</t>
+  </si>
+  <si>
+    <t>innerGradeFourAmount|Float</t>
+  </si>
+  <si>
+    <t>innerGradeFiveAmount|Float</t>
+  </si>
+  <si>
+    <t>innerGradeSixAmount|Float</t>
   </si>
 </sst>
 </file>
@@ -9577,13 +9611,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82CFE85-E5BF-4028-97DD-0FD3D41C3DD1}">
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1:AD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>178</v>
       </c>
@@ -9668,8 +9704,14 @@
       <c r="AB1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -9748,8 +9790,14 @@
       <c r="AB2">
         <v>750</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC2">
+        <v>500</v>
+      </c>
+      <c r="AD2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9828,8 +9876,14 @@
       <c r="AB3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC3">
+        <v>1000</v>
+      </c>
+      <c r="AD3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -9908,8 +9962,14 @@
       <c r="AB4">
         <v>2250</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC4">
+        <v>1500</v>
+      </c>
+      <c r="AD4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -9988,8 +10048,14 @@
       <c r="AB5">
         <v>3000</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC5">
+        <v>2000</v>
+      </c>
+      <c r="AD5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -10071,8 +10137,14 @@
       <c r="AB6">
         <v>3750</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC6">
+        <v>2500</v>
+      </c>
+      <c r="AD6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -10154,8 +10226,14 @@
       <c r="AB7">
         <v>3750</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC7">
+        <v>2500</v>
+      </c>
+      <c r="AD7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10236,6 +10314,12 @@
       </c>
       <c r="AB8">
         <v>3750</v>
+      </c>
+      <c r="AC8">
+        <v>2500</v>
+      </c>
+      <c r="AD8">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -13199,4 +13283,5200 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F218ED-5790-4589-A336-D604CD6FE4FD}">
+  <dimension ref="A1:K148"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2.08</v>
+      </c>
+      <c r="E4">
+        <v>1.08</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>3.2464</v>
+      </c>
+      <c r="E5">
+        <v>1.1664000000000001</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0.99</v>
+      </c>
+      <c r="D6">
+        <v>4.5061119999999999</v>
+      </c>
+      <c r="E6">
+        <v>1.2597119999999999</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0.99</v>
+      </c>
+      <c r="D7">
+        <v>6.0177664000000002</v>
+      </c>
+      <c r="E7">
+        <v>1.5116544000000001</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1.4</v>
+      </c>
+      <c r="E9">
+        <v>3.5</v>
+      </c>
+      <c r="F9">
+        <v>1.4</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2.9119999999999999</v>
+      </c>
+      <c r="E10">
+        <v>3.78</v>
+      </c>
+      <c r="F10">
+        <v>1.512</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>4.5449599999999997</v>
+      </c>
+      <c r="E11">
+        <v>4.0823999999999998</v>
+      </c>
+      <c r="F11">
+        <v>1.63296</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>0.99</v>
+      </c>
+      <c r="D12">
+        <v>6.3085567999999999</v>
+      </c>
+      <c r="E12">
+        <v>4.4089919999999996</v>
+      </c>
+      <c r="F12">
+        <v>1.7635968</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>0.99</v>
+      </c>
+      <c r="D13">
+        <v>8.4248729600000001</v>
+      </c>
+      <c r="E13">
+        <v>5.2907903999999997</v>
+      </c>
+      <c r="F13">
+        <v>2.1163161599999998</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>0.99</v>
+      </c>
+      <c r="D14">
+        <v>10.710494410000001</v>
+      </c>
+      <c r="E14">
+        <v>5.7140536319999997</v>
+      </c>
+      <c r="F14">
+        <v>2.2856214530000001</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>0.99</v>
+      </c>
+      <c r="D15">
+        <v>13.17896558</v>
+      </c>
+      <c r="E15">
+        <v>6.1711779230000001</v>
+      </c>
+      <c r="F15">
+        <v>2.4684711689999999</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>0.99</v>
+      </c>
+      <c r="D16">
+        <v>15.84491444</v>
+      </c>
+      <c r="E16">
+        <v>6.6648721560000004</v>
+      </c>
+      <c r="F16">
+        <v>2.6659488630000001</v>
+      </c>
+      <c r="G16">
+        <v>1.066379545</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>0.99</v>
+      </c>
+      <c r="D17">
+        <v>18.724139220000001</v>
+      </c>
+      <c r="E17">
+        <v>7.1980619289999996</v>
+      </c>
+      <c r="F17">
+        <v>2.8792247720000002</v>
+      </c>
+      <c r="G17">
+        <v>1.1516899089999999</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>0.99</v>
+      </c>
+      <c r="D18">
+        <v>22.467131420000001</v>
+      </c>
+      <c r="E18">
+        <v>9.3574805080000001</v>
+      </c>
+      <c r="F18">
+        <v>3.742992203</v>
+      </c>
+      <c r="G18">
+        <v>1.497196881</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1.96</v>
+      </c>
+      <c r="E20">
+        <v>12.25</v>
+      </c>
+      <c r="F20">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G20">
+        <v>1.96</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>4.0768000000000004</v>
+      </c>
+      <c r="E21">
+        <v>13.23</v>
+      </c>
+      <c r="F21">
+        <v>5.2919999999999998</v>
+      </c>
+      <c r="G21">
+        <v>2.1168</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>6.3629439999999997</v>
+      </c>
+      <c r="E22">
+        <v>14.288399999999999</v>
+      </c>
+      <c r="F22">
+        <v>5.7153600000000004</v>
+      </c>
+      <c r="G22">
+        <v>2.2861440000000002</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>0.99</v>
+      </c>
+      <c r="D23">
+        <v>8.8319795200000009</v>
+      </c>
+      <c r="E23">
+        <v>15.431471999999999</v>
+      </c>
+      <c r="F23">
+        <v>6.1725887999999998</v>
+      </c>
+      <c r="G23">
+        <v>2.4690355199999998</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>0.99</v>
+      </c>
+      <c r="D24">
+        <v>11.794822140000001</v>
+      </c>
+      <c r="E24">
+        <v>18.517766399999999</v>
+      </c>
+      <c r="F24">
+        <v>7.4071065599999999</v>
+      </c>
+      <c r="G24">
+        <v>2.9628426239999999</v>
+      </c>
+      <c r="H24">
+        <v>1.18513705</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>0.99</v>
+      </c>
+      <c r="D25">
+        <v>14.994692179999999</v>
+      </c>
+      <c r="E25">
+        <v>19.999187710000001</v>
+      </c>
+      <c r="F25">
+        <v>7.9996750849999998</v>
+      </c>
+      <c r="G25">
+        <v>3.1998700339999999</v>
+      </c>
+      <c r="H25">
+        <v>1.2799480139999999</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>0.99</v>
+      </c>
+      <c r="D26">
+        <v>18.45055181</v>
+      </c>
+      <c r="E26">
+        <v>21.599122730000001</v>
+      </c>
+      <c r="F26">
+        <v>8.6396490920000009</v>
+      </c>
+      <c r="G26">
+        <v>3.4558596370000001</v>
+      </c>
+      <c r="H26">
+        <v>1.382343855</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>0.99</v>
+      </c>
+      <c r="D27">
+        <v>22.182880220000001</v>
+      </c>
+      <c r="E27">
+        <v>23.327052550000001</v>
+      </c>
+      <c r="F27">
+        <v>9.330821019</v>
+      </c>
+      <c r="G27">
+        <v>3.7323284079999999</v>
+      </c>
+      <c r="H27">
+        <v>1.4929313630000001</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>0.99</v>
+      </c>
+      <c r="D28">
+        <v>26.2137949</v>
+      </c>
+      <c r="E28">
+        <v>25.193216750000001</v>
+      </c>
+      <c r="F28">
+        <v>10.0772867</v>
+      </c>
+      <c r="G28">
+        <v>4.0309146800000004</v>
+      </c>
+      <c r="H28">
+        <v>1.612365872</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>0.99</v>
+      </c>
+      <c r="D29">
+        <v>31.453983990000001</v>
+      </c>
+      <c r="E29">
+        <v>32.751181780000003</v>
+      </c>
+      <c r="F29">
+        <v>13.10047271</v>
+      </c>
+      <c r="G29">
+        <v>5.2401890839999998</v>
+      </c>
+      <c r="H29">
+        <v>2.096075634</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>0.9</v>
+      </c>
+      <c r="D30">
+        <v>37.113388200000003</v>
+      </c>
+      <c r="E30">
+        <v>35.37127632</v>
+      </c>
+      <c r="F30">
+        <v>14.148510529999999</v>
+      </c>
+      <c r="G30">
+        <v>5.659404211</v>
+      </c>
+      <c r="H30">
+        <v>2.2637616839999999</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>0.9</v>
+      </c>
+      <c r="D31">
+        <v>43.225544749999997</v>
+      </c>
+      <c r="E31">
+        <v>38.200978419999998</v>
+      </c>
+      <c r="F31">
+        <v>15.28039137</v>
+      </c>
+      <c r="G31">
+        <v>6.1121565479999997</v>
+      </c>
+      <c r="H31">
+        <v>2.4448626189999998</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>0.9</v>
+      </c>
+      <c r="D32">
+        <v>49.826673820000003</v>
+      </c>
+      <c r="E32">
+        <v>41.2570567</v>
+      </c>
+      <c r="F32">
+        <v>16.502822680000001</v>
+      </c>
+      <c r="G32">
+        <v>6.601129072</v>
+      </c>
+      <c r="H32">
+        <v>2.6404516290000002</v>
+      </c>
+      <c r="I32">
+        <v>1.056180651</v>
+      </c>
+      <c r="J32">
+        <v>1.056180651</v>
+      </c>
+      <c r="K32">
+        <v>1.056180651</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>0.9</v>
+      </c>
+      <c r="D33">
+        <v>56.955893209999999</v>
+      </c>
+      <c r="E33">
+        <v>44.557621230000002</v>
+      </c>
+      <c r="F33">
+        <v>17.823048490000001</v>
+      </c>
+      <c r="G33">
+        <v>7.129219397</v>
+      </c>
+      <c r="H33">
+        <v>2.8516877589999998</v>
+      </c>
+      <c r="I33">
+        <v>1.1406751040000001</v>
+      </c>
+      <c r="J33">
+        <v>1.1406751040000001</v>
+      </c>
+      <c r="K33">
+        <v>1.1406751040000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>0.9</v>
+      </c>
+      <c r="D34">
+        <v>68.362644250000002</v>
+      </c>
+      <c r="E34">
+        <v>71.29219397</v>
+      </c>
+      <c r="F34">
+        <v>28.51687759</v>
+      </c>
+      <c r="G34">
+        <v>11.40675104</v>
+      </c>
+      <c r="H34">
+        <v>4.562700414</v>
+      </c>
+      <c r="I34">
+        <v>1.825080166</v>
+      </c>
+      <c r="J34">
+        <v>1.825080166</v>
+      </c>
+      <c r="K34">
+        <v>1.825080166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>2.7440000000000002</v>
+      </c>
+      <c r="E36">
+        <v>42.875</v>
+      </c>
+      <c r="F36">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="G36">
+        <v>6.86</v>
+      </c>
+      <c r="H36">
+        <v>2.7440000000000002</v>
+      </c>
+      <c r="I36">
+        <v>1.0975999999999999</v>
+      </c>
+      <c r="J36">
+        <v>1.0975999999999999</v>
+      </c>
+      <c r="K36">
+        <v>1.0975999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>5.7075199999999997</v>
+      </c>
+      <c r="E37">
+        <v>46.305</v>
+      </c>
+      <c r="F37">
+        <v>18.521999999999998</v>
+      </c>
+      <c r="G37">
+        <v>7.4088000000000003</v>
+      </c>
+      <c r="H37">
+        <v>2.9635199999999999</v>
+      </c>
+      <c r="I37">
+        <v>1.185408</v>
+      </c>
+      <c r="J37">
+        <v>1.185408</v>
+      </c>
+      <c r="K37">
+        <v>1.185408</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>8.9081215999999994</v>
+      </c>
+      <c r="E38">
+        <v>50.009399999999999</v>
+      </c>
+      <c r="F38">
+        <v>20.00376</v>
+      </c>
+      <c r="G38">
+        <v>8.0015040000000006</v>
+      </c>
+      <c r="H38">
+        <v>3.2006016000000002</v>
+      </c>
+      <c r="I38">
+        <v>1.2802406399999999</v>
+      </c>
+      <c r="J38">
+        <v>1.2802406399999999</v>
+      </c>
+      <c r="K38">
+        <v>1.2802406399999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>0.99</v>
+      </c>
+      <c r="D39">
+        <v>12.36477133</v>
+      </c>
+      <c r="E39">
+        <v>54.010151999999998</v>
+      </c>
+      <c r="F39">
+        <v>21.604060799999999</v>
+      </c>
+      <c r="G39">
+        <v>8.64162432</v>
+      </c>
+      <c r="H39">
+        <v>3.4566497279999999</v>
+      </c>
+      <c r="I39">
+        <v>1.3826598910000001</v>
+      </c>
+      <c r="J39">
+        <v>1.3826598910000001</v>
+      </c>
+      <c r="K39">
+        <v>1.3826598910000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>0.99</v>
+      </c>
+      <c r="D40">
+        <v>16.512751000000002</v>
+      </c>
+      <c r="E40">
+        <v>64.812182399999998</v>
+      </c>
+      <c r="F40">
+        <v>25.924872959999998</v>
+      </c>
+      <c r="G40">
+        <v>10.369949180000001</v>
+      </c>
+      <c r="H40">
+        <v>4.1479796740000001</v>
+      </c>
+      <c r="I40">
+        <v>1.659191869</v>
+      </c>
+      <c r="J40">
+        <v>1.659191869</v>
+      </c>
+      <c r="K40">
+        <v>1.659191869</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>0.99</v>
+      </c>
+      <c r="D41">
+        <v>20.99256905</v>
+      </c>
+      <c r="E41">
+        <v>69.997156989999993</v>
+      </c>
+      <c r="F41">
+        <v>27.998862800000001</v>
+      </c>
+      <c r="G41">
+        <v>11.19954512</v>
+      </c>
+      <c r="H41">
+        <v>4.4798180470000002</v>
+      </c>
+      <c r="I41">
+        <v>1.791927219</v>
+      </c>
+      <c r="J41">
+        <v>1.791927219</v>
+      </c>
+      <c r="K41">
+        <v>1.791927219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>0.99</v>
+      </c>
+      <c r="D42">
+        <v>25.830772540000002</v>
+      </c>
+      <c r="E42">
+        <v>75.596929549999999</v>
+      </c>
+      <c r="F42">
+        <v>30.23877182</v>
+      </c>
+      <c r="G42">
+        <v>12.095508730000001</v>
+      </c>
+      <c r="H42">
+        <v>4.8382034909999998</v>
+      </c>
+      <c r="I42">
+        <v>1.935281397</v>
+      </c>
+      <c r="J42">
+        <v>1.935281397</v>
+      </c>
+      <c r="K42">
+        <v>1.935281397</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>0.99</v>
+      </c>
+      <c r="D43">
+        <v>31.056032309999999</v>
+      </c>
+      <c r="E43">
+        <v>81.644683920000006</v>
+      </c>
+      <c r="F43">
+        <v>32.65787357</v>
+      </c>
+      <c r="G43">
+        <v>13.063149429999999</v>
+      </c>
+      <c r="H43">
+        <v>5.2252597710000002</v>
+      </c>
+      <c r="I43">
+        <v>2.0901039080000001</v>
+      </c>
+      <c r="J43">
+        <v>2.0901039080000001</v>
+      </c>
+      <c r="K43">
+        <v>2.0901039080000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>0.99</v>
+      </c>
+      <c r="D44">
+        <v>36.699312859999999</v>
+      </c>
+      <c r="E44">
+        <v>88.176258630000007</v>
+      </c>
+      <c r="F44">
+        <v>35.27050345</v>
+      </c>
+      <c r="G44">
+        <v>14.108201380000001</v>
+      </c>
+      <c r="H44">
+        <v>5.6432805520000002</v>
+      </c>
+      <c r="I44">
+        <v>2.2573122209999998</v>
+      </c>
+      <c r="J44">
+        <v>2.2573122209999998</v>
+      </c>
+      <c r="K44">
+        <v>2.2573122209999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>0.99</v>
+      </c>
+      <c r="D45">
+        <v>44.035577580000002</v>
+      </c>
+      <c r="E45">
+        <v>114.6291362</v>
+      </c>
+      <c r="F45">
+        <v>45.851654490000001</v>
+      </c>
+      <c r="G45">
+        <v>18.340661789999999</v>
+      </c>
+      <c r="H45">
+        <v>7.3362647179999998</v>
+      </c>
+      <c r="I45">
+        <v>2.9345058869999998</v>
+      </c>
+      <c r="J45">
+        <v>2.9345058869999998</v>
+      </c>
+      <c r="K45">
+        <v>2.9345058869999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>0.9</v>
+      </c>
+      <c r="D46">
+        <v>51.958743480000003</v>
+      </c>
+      <c r="E46">
+        <v>123.7994671</v>
+      </c>
+      <c r="F46">
+        <v>49.519786850000003</v>
+      </c>
+      <c r="G46">
+        <v>19.807914740000001</v>
+      </c>
+      <c r="H46">
+        <v>7.9231658950000003</v>
+      </c>
+      <c r="I46">
+        <v>3.1692663579999998</v>
+      </c>
+      <c r="J46">
+        <v>3.1692663579999998</v>
+      </c>
+      <c r="K46">
+        <v>3.1692663579999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>12</v>
+      </c>
+      <c r="C47">
+        <v>0.9</v>
+      </c>
+      <c r="D47">
+        <v>60.515762639999998</v>
+      </c>
+      <c r="E47">
+        <v>133.70342450000001</v>
+      </c>
+      <c r="F47">
+        <v>53.481369790000002</v>
+      </c>
+      <c r="G47">
+        <v>21.392547919999998</v>
+      </c>
+      <c r="H47">
+        <v>8.557019167</v>
+      </c>
+      <c r="I47">
+        <v>3.4228076669999998</v>
+      </c>
+      <c r="J47">
+        <v>3.4228076669999998</v>
+      </c>
+      <c r="K47">
+        <v>3.4228076669999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>13</v>
+      </c>
+      <c r="C48">
+        <v>0.9</v>
+      </c>
+      <c r="D48">
+        <v>69.757343340000006</v>
+      </c>
+      <c r="E48">
+        <v>144.39969840000001</v>
+      </c>
+      <c r="F48">
+        <v>57.759879380000001</v>
+      </c>
+      <c r="G48">
+        <v>23.10395175</v>
+      </c>
+      <c r="H48">
+        <v>9.2415807000000001</v>
+      </c>
+      <c r="I48">
+        <v>3.6966322800000002</v>
+      </c>
+      <c r="J48">
+        <v>3.6966322800000002</v>
+      </c>
+      <c r="K48">
+        <v>3.6966322800000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>14</v>
+      </c>
+      <c r="C49">
+        <v>0.9</v>
+      </c>
+      <c r="D49">
+        <v>79.738250500000007</v>
+      </c>
+      <c r="E49">
+        <v>155.95167430000001</v>
+      </c>
+      <c r="F49">
+        <v>62.380669730000001</v>
+      </c>
+      <c r="G49">
+        <v>24.952267890000002</v>
+      </c>
+      <c r="H49">
+        <v>9.9809071560000007</v>
+      </c>
+      <c r="I49">
+        <v>3.9923628629999999</v>
+      </c>
+      <c r="J49">
+        <v>3.9923628629999999</v>
+      </c>
+      <c r="K49">
+        <v>3.9923628629999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>15</v>
+      </c>
+      <c r="C50">
+        <v>0.9</v>
+      </c>
+      <c r="D50">
+        <v>95.707701950000001</v>
+      </c>
+      <c r="E50">
+        <v>249.52267889999999</v>
+      </c>
+      <c r="F50">
+        <v>99.809071560000007</v>
+      </c>
+      <c r="G50">
+        <v>39.923628630000003</v>
+      </c>
+      <c r="H50">
+        <v>15.969451449999999</v>
+      </c>
+      <c r="I50">
+        <v>6.3877805800000003</v>
+      </c>
+      <c r="J50">
+        <v>6.3877805800000003</v>
+      </c>
+      <c r="K50">
+        <v>6.3877805800000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>16</v>
+      </c>
+      <c r="C51">
+        <v>0.9</v>
+      </c>
+      <c r="D51">
+        <v>112.95470950000001</v>
+      </c>
+      <c r="E51">
+        <v>269.48449319999997</v>
+      </c>
+      <c r="F51">
+        <v>107.79379729999999</v>
+      </c>
+      <c r="G51">
+        <v>43.117518920000002</v>
+      </c>
+      <c r="H51">
+        <v>17.247007570000001</v>
+      </c>
+      <c r="I51">
+        <v>6.8988030260000004</v>
+      </c>
+      <c r="J51">
+        <v>6.8988030260000004</v>
+      </c>
+      <c r="K51">
+        <v>6.8988030260000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>17</v>
+      </c>
+      <c r="C52">
+        <v>0.9</v>
+      </c>
+      <c r="D52">
+        <v>131.58147769999999</v>
+      </c>
+      <c r="E52">
+        <v>291.04325269999998</v>
+      </c>
+      <c r="F52">
+        <v>116.4173011</v>
+      </c>
+      <c r="G52">
+        <v>46.566920430000003</v>
+      </c>
+      <c r="H52">
+        <v>18.626768169999998</v>
+      </c>
+      <c r="I52">
+        <v>7.4507072689999996</v>
+      </c>
+      <c r="J52">
+        <v>7.4507072689999996</v>
+      </c>
+      <c r="K52">
+        <v>7.4507072689999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>18</v>
+      </c>
+      <c r="C53">
+        <v>0.9</v>
+      </c>
+      <c r="D53">
+        <v>151.69838730000001</v>
+      </c>
+      <c r="E53">
+        <v>314.32671290000002</v>
+      </c>
+      <c r="F53">
+        <v>125.7306852</v>
+      </c>
+      <c r="G53">
+        <v>50.292274059999997</v>
+      </c>
+      <c r="H53">
+        <v>20.116909629999999</v>
+      </c>
+      <c r="I53">
+        <v>8.0467638499999996</v>
+      </c>
+      <c r="J53">
+        <v>8.0467638499999996</v>
+      </c>
+      <c r="K53">
+        <v>8.0467638499999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <v>19</v>
+      </c>
+      <c r="C54">
+        <v>0.9</v>
+      </c>
+      <c r="D54">
+        <v>173.4246497</v>
+      </c>
+      <c r="E54">
+        <v>339.47284990000003</v>
+      </c>
+      <c r="F54">
+        <v>135.78914</v>
+      </c>
+      <c r="G54">
+        <v>54.315655990000003</v>
+      </c>
+      <c r="H54">
+        <v>21.7262624</v>
+      </c>
+      <c r="I54">
+        <v>8.690504958</v>
+      </c>
+      <c r="J54">
+        <v>8.690504958</v>
+      </c>
+      <c r="K54">
+        <v>8.690504958</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>20</v>
+      </c>
+      <c r="C55">
+        <v>0.9</v>
+      </c>
+      <c r="D55">
+        <v>210.35929580000001</v>
+      </c>
+      <c r="E55">
+        <v>577.10384490000001</v>
+      </c>
+      <c r="F55">
+        <v>230.84153789999999</v>
+      </c>
+      <c r="G55">
+        <v>92.336615179999995</v>
+      </c>
+      <c r="H55">
+        <v>36.934646069999999</v>
+      </c>
+      <c r="I55">
+        <v>14.773858430000001</v>
+      </c>
+      <c r="J55">
+        <v>14.773858430000001</v>
+      </c>
+      <c r="K55">
+        <v>14.773858430000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>3.8416000000000001</v>
+      </c>
+      <c r="E57">
+        <v>150.0625</v>
+      </c>
+      <c r="F57">
+        <v>60.024999999999999</v>
+      </c>
+      <c r="G57">
+        <v>24.01</v>
+      </c>
+      <c r="H57">
+        <v>9.6039999999999992</v>
+      </c>
+      <c r="I57">
+        <v>3.8416000000000001</v>
+      </c>
+      <c r="J57">
+        <v>3.8416000000000001</v>
+      </c>
+      <c r="K57">
+        <v>3.8416000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>7.9905280000000003</v>
+      </c>
+      <c r="E58">
+        <v>162.0675</v>
+      </c>
+      <c r="F58">
+        <v>64.826999999999998</v>
+      </c>
+      <c r="G58">
+        <v>25.930800000000001</v>
+      </c>
+      <c r="H58">
+        <v>10.37232</v>
+      </c>
+      <c r="I58">
+        <v>4.1489279999999997</v>
+      </c>
+      <c r="J58">
+        <v>4.1489279999999997</v>
+      </c>
+      <c r="K58">
+        <v>4.1489279999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>4</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>12.471370240000001</v>
+      </c>
+      <c r="E59">
+        <v>175.03290000000001</v>
+      </c>
+      <c r="F59">
+        <v>70.013159999999999</v>
+      </c>
+      <c r="G59">
+        <v>28.005264</v>
+      </c>
+      <c r="H59">
+        <v>11.202105599999999</v>
+      </c>
+      <c r="I59">
+        <v>4.4808422400000003</v>
+      </c>
+      <c r="J59">
+        <v>4.4808422400000003</v>
+      </c>
+      <c r="K59">
+        <v>4.4808422400000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>0.99</v>
+      </c>
+      <c r="D60">
+        <v>17.31067986</v>
+      </c>
+      <c r="E60">
+        <v>189.03553199999999</v>
+      </c>
+      <c r="F60">
+        <v>75.614212800000004</v>
+      </c>
+      <c r="G60">
+        <v>30.245685120000001</v>
+      </c>
+      <c r="H60">
+        <v>12.098274050000001</v>
+      </c>
+      <c r="I60">
+        <v>4.8393096189999998</v>
+      </c>
+      <c r="J60">
+        <v>4.8393096189999998</v>
+      </c>
+      <c r="K60">
+        <v>4.8393096189999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>0.99</v>
+      </c>
+      <c r="D61">
+        <v>23.117851399999999</v>
+      </c>
+      <c r="E61">
+        <v>226.8426384</v>
+      </c>
+      <c r="F61">
+        <v>90.737055359999999</v>
+      </c>
+      <c r="G61">
+        <v>36.294822140000001</v>
+      </c>
+      <c r="H61">
+        <v>14.51792886</v>
+      </c>
+      <c r="I61">
+        <v>5.8071715429999999</v>
+      </c>
+      <c r="J61">
+        <v>5.8071715429999999</v>
+      </c>
+      <c r="K61">
+        <v>5.8071715429999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>4</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>0.99</v>
+      </c>
+      <c r="D62">
+        <v>29.38959667</v>
+      </c>
+      <c r="E62">
+        <v>244.9900495</v>
+      </c>
+      <c r="F62">
+        <v>97.996019790000005</v>
+      </c>
+      <c r="G62">
+        <v>39.198407920000001</v>
+      </c>
+      <c r="H62">
+        <v>15.67936317</v>
+      </c>
+      <c r="I62">
+        <v>6.2717452659999999</v>
+      </c>
+      <c r="J62">
+        <v>6.2717452659999999</v>
+      </c>
+      <c r="K62">
+        <v>6.2717452659999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <v>7</v>
+      </c>
+      <c r="C63">
+        <v>0.99</v>
+      </c>
+      <c r="D63">
+        <v>36.163081560000002</v>
+      </c>
+      <c r="E63">
+        <v>264.58925340000002</v>
+      </c>
+      <c r="F63">
+        <v>105.8357014</v>
+      </c>
+      <c r="G63">
+        <v>42.334280550000003</v>
+      </c>
+      <c r="H63">
+        <v>16.93371222</v>
+      </c>
+      <c r="I63">
+        <v>6.7734848879999996</v>
+      </c>
+      <c r="J63">
+        <v>6.7734848879999996</v>
+      </c>
+      <c r="K63">
+        <v>6.7734848879999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>0.99</v>
+      </c>
+      <c r="D64">
+        <v>43.478445239999999</v>
+      </c>
+      <c r="E64">
+        <v>285.75639369999999</v>
+      </c>
+      <c r="F64">
+        <v>114.30255750000001</v>
+      </c>
+      <c r="G64">
+        <v>45.721022990000002</v>
+      </c>
+      <c r="H64">
+        <v>18.2884092</v>
+      </c>
+      <c r="I64">
+        <v>7.3153636789999998</v>
+      </c>
+      <c r="J64">
+        <v>7.3153636789999998</v>
+      </c>
+      <c r="K64">
+        <v>7.3153636789999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>0.99</v>
+      </c>
+      <c r="D65">
+        <v>51.379038010000002</v>
+      </c>
+      <c r="E65">
+        <v>308.61690520000002</v>
+      </c>
+      <c r="F65">
+        <v>123.4467621</v>
+      </c>
+      <c r="G65">
+        <v>49.378704829999997</v>
+      </c>
+      <c r="H65">
+        <v>19.751481930000001</v>
+      </c>
+      <c r="I65">
+        <v>7.9005927729999996</v>
+      </c>
+      <c r="J65">
+        <v>7.9005927729999996</v>
+      </c>
+      <c r="K65">
+        <v>7.9005927729999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>0.99</v>
+      </c>
+      <c r="D66">
+        <v>61.649808610000001</v>
+      </c>
+      <c r="E66">
+        <v>401.20197680000001</v>
+      </c>
+      <c r="F66">
+        <v>160.4807907</v>
+      </c>
+      <c r="G66">
+        <v>64.19231628</v>
+      </c>
+      <c r="H66">
+        <v>25.676926510000001</v>
+      </c>
+      <c r="I66">
+        <v>10.27077061</v>
+      </c>
+      <c r="J66">
+        <v>10.27077061</v>
+      </c>
+      <c r="K66">
+        <v>10.27077061</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <v>11</v>
+      </c>
+      <c r="C67">
+        <v>0.9</v>
+      </c>
+      <c r="D67">
+        <v>72.742240870000003</v>
+      </c>
+      <c r="E67">
+        <v>433.29813489999998</v>
+      </c>
+      <c r="F67">
+        <v>173.319254</v>
+      </c>
+      <c r="G67">
+        <v>69.327701579999996</v>
+      </c>
+      <c r="H67">
+        <v>27.731080630000001</v>
+      </c>
+      <c r="I67">
+        <v>11.09243225</v>
+      </c>
+      <c r="J67">
+        <v>11.09243225</v>
+      </c>
+      <c r="K67">
+        <v>11.09243225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>4</v>
+      </c>
+      <c r="B68">
+        <v>12</v>
+      </c>
+      <c r="C68">
+        <v>0.9</v>
+      </c>
+      <c r="D68">
+        <v>84.722067699999997</v>
+      </c>
+      <c r="E68">
+        <v>467.96198570000001</v>
+      </c>
+      <c r="F68">
+        <v>187.18479429999999</v>
+      </c>
+      <c r="G68">
+        <v>74.873917710000001</v>
+      </c>
+      <c r="H68">
+        <v>29.949567080000001</v>
+      </c>
+      <c r="I68">
+        <v>11.97982683</v>
+      </c>
+      <c r="J68">
+        <v>11.97982683</v>
+      </c>
+      <c r="K68">
+        <v>11.97982683</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <v>13</v>
+      </c>
+      <c r="C69">
+        <v>0.9</v>
+      </c>
+      <c r="D69">
+        <v>97.66028068</v>
+      </c>
+      <c r="E69">
+        <v>505.39894450000003</v>
+      </c>
+      <c r="F69">
+        <v>202.15957779999999</v>
+      </c>
+      <c r="G69">
+        <v>80.863831129999994</v>
+      </c>
+      <c r="H69">
+        <v>32.34553245</v>
+      </c>
+      <c r="I69">
+        <v>12.938212979999999</v>
+      </c>
+      <c r="J69">
+        <v>12.938212979999999</v>
+      </c>
+      <c r="K69">
+        <v>12.938212979999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>4</v>
+      </c>
+      <c r="B70">
+        <v>14</v>
+      </c>
+      <c r="C70">
+        <v>0.9</v>
+      </c>
+      <c r="D70">
+        <v>111.6335507</v>
+      </c>
+      <c r="E70">
+        <v>545.8308601</v>
+      </c>
+      <c r="F70">
+        <v>218.33234400000001</v>
+      </c>
+      <c r="G70">
+        <v>87.332937619999996</v>
+      </c>
+      <c r="H70">
+        <v>34.933175050000003</v>
+      </c>
+      <c r="I70">
+        <v>13.973270019999999</v>
+      </c>
+      <c r="J70">
+        <v>13.973270019999999</v>
+      </c>
+      <c r="K70">
+        <v>13.973270019999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>4</v>
+      </c>
+      <c r="B71">
+        <v>15</v>
+      </c>
+      <c r="C71">
+        <v>0.9</v>
+      </c>
+      <c r="D71">
+        <v>133.99078270000001</v>
+      </c>
+      <c r="E71">
+        <v>873.32937619999996</v>
+      </c>
+      <c r="F71">
+        <v>349.3317505</v>
+      </c>
+      <c r="G71">
+        <v>139.73270020000001</v>
+      </c>
+      <c r="H71">
+        <v>55.893080079999997</v>
+      </c>
+      <c r="I71">
+        <v>22.357232029999999</v>
+      </c>
+      <c r="J71">
+        <v>22.357232029999999</v>
+      </c>
+      <c r="K71">
+        <v>22.357232029999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>4</v>
+      </c>
+      <c r="B72">
+        <v>16</v>
+      </c>
+      <c r="C72">
+        <v>0.9</v>
+      </c>
+      <c r="D72">
+        <v>158.13659329999999</v>
+      </c>
+      <c r="E72">
+        <v>943.19572630000005</v>
+      </c>
+      <c r="F72">
+        <v>377.27829050000003</v>
+      </c>
+      <c r="G72">
+        <v>150.91131619999999</v>
+      </c>
+      <c r="H72">
+        <v>60.364526480000002</v>
+      </c>
+      <c r="I72">
+        <v>24.14581059</v>
+      </c>
+      <c r="J72">
+        <v>24.14581059</v>
+      </c>
+      <c r="K72">
+        <v>24.14581059</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>4</v>
+      </c>
+      <c r="B73">
+        <v>17</v>
+      </c>
+      <c r="C73">
+        <v>0.9</v>
+      </c>
+      <c r="D73">
+        <v>184.21406880000001</v>
+      </c>
+      <c r="E73">
+        <v>1018.651384</v>
+      </c>
+      <c r="F73">
+        <v>407.46055380000001</v>
+      </c>
+      <c r="G73">
+        <v>162.98422149999999</v>
+      </c>
+      <c r="H73">
+        <v>65.193688600000002</v>
+      </c>
+      <c r="I73">
+        <v>26.077475440000001</v>
+      </c>
+      <c r="J73">
+        <v>26.077475440000001</v>
+      </c>
+      <c r="K73">
+        <v>26.077475440000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>4</v>
+      </c>
+      <c r="B74">
+        <v>18</v>
+      </c>
+      <c r="C74">
+        <v>0.9</v>
+      </c>
+      <c r="D74">
+        <v>212.3777422</v>
+      </c>
+      <c r="E74">
+        <v>1100.143495</v>
+      </c>
+      <c r="F74">
+        <v>440.0573981</v>
+      </c>
+      <c r="G74">
+        <v>176.0229592</v>
+      </c>
+      <c r="H74">
+        <v>70.409183690000006</v>
+      </c>
+      <c r="I74">
+        <v>28.16367348</v>
+      </c>
+      <c r="J74">
+        <v>28.16367348</v>
+      </c>
+      <c r="K74">
+        <v>28.16367348</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>4</v>
+      </c>
+      <c r="B75">
+        <v>19</v>
+      </c>
+      <c r="C75">
+        <v>0.9</v>
+      </c>
+      <c r="D75">
+        <v>242.7945096</v>
+      </c>
+      <c r="E75">
+        <v>1188.1549749999999</v>
+      </c>
+      <c r="F75">
+        <v>475.2619899</v>
+      </c>
+      <c r="G75">
+        <v>190.10479599999999</v>
+      </c>
+      <c r="H75">
+        <v>76.041918379999998</v>
+      </c>
+      <c r="I75">
+        <v>30.416767350000001</v>
+      </c>
+      <c r="J75">
+        <v>30.416767350000001</v>
+      </c>
+      <c r="K75">
+        <v>30.416767350000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>4</v>
+      </c>
+      <c r="B76">
+        <v>20</v>
+      </c>
+      <c r="C76">
+        <v>0.9</v>
+      </c>
+      <c r="D76">
+        <v>294.50301409999997</v>
+      </c>
+      <c r="E76">
+        <v>2019.8634569999999</v>
+      </c>
+      <c r="F76">
+        <v>807.94538279999995</v>
+      </c>
+      <c r="G76">
+        <v>323.17815309999997</v>
+      </c>
+      <c r="H76">
+        <v>129.27126129999999</v>
+      </c>
+      <c r="I76">
+        <v>51.708504499999997</v>
+      </c>
+      <c r="J76">
+        <v>51.708504499999997</v>
+      </c>
+      <c r="K76">
+        <v>51.708504499999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>4</v>
+      </c>
+      <c r="B77">
+        <v>21</v>
+      </c>
+      <c r="C77">
+        <v>0.8</v>
+      </c>
+      <c r="D77">
+        <v>350.34819900000002</v>
+      </c>
+      <c r="E77">
+        <v>2181.452534</v>
+      </c>
+      <c r="F77">
+        <v>872.58101339999996</v>
+      </c>
+      <c r="G77">
+        <v>349.03240540000002</v>
+      </c>
+      <c r="H77">
+        <v>139.6129622</v>
+      </c>
+      <c r="I77">
+        <v>55.845184860000003</v>
+      </c>
+      <c r="J77">
+        <v>55.845184860000003</v>
+      </c>
+      <c r="K77">
+        <v>55.845184860000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>4</v>
+      </c>
+      <c r="B78">
+        <v>22</v>
+      </c>
+      <c r="C78">
+        <v>0.8</v>
+      </c>
+      <c r="D78">
+        <v>410.66099860000003</v>
+      </c>
+      <c r="E78">
+        <v>2355.9687359999998</v>
+      </c>
+      <c r="F78">
+        <v>942.3874945</v>
+      </c>
+      <c r="G78">
+        <v>376.9549978</v>
+      </c>
+      <c r="H78">
+        <v>150.78199910000001</v>
+      </c>
+      <c r="I78">
+        <v>60.312799650000002</v>
+      </c>
+      <c r="J78">
+        <v>60.312799650000002</v>
+      </c>
+      <c r="K78">
+        <v>60.312799650000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>4</v>
+      </c>
+      <c r="B79">
+        <v>23</v>
+      </c>
+      <c r="C79">
+        <v>0.8</v>
+      </c>
+      <c r="D79">
+        <v>475.79882220000002</v>
+      </c>
+      <c r="E79">
+        <v>2544.4462349999999</v>
+      </c>
+      <c r="F79">
+        <v>1017.778494</v>
+      </c>
+      <c r="G79">
+        <v>407.11139759999998</v>
+      </c>
+      <c r="H79">
+        <v>162.8445591</v>
+      </c>
+      <c r="I79">
+        <v>65.137823620000006</v>
+      </c>
+      <c r="J79">
+        <v>65.137823620000006</v>
+      </c>
+      <c r="K79">
+        <v>65.137823620000006</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>4</v>
+      </c>
+      <c r="B80">
+        <v>24</v>
+      </c>
+      <c r="C80">
+        <v>0.8</v>
+      </c>
+      <c r="D80">
+        <v>546.14767170000005</v>
+      </c>
+      <c r="E80">
+        <v>2748.0019339999999</v>
+      </c>
+      <c r="F80">
+        <v>1099.2007739999999</v>
+      </c>
+      <c r="G80">
+        <v>439.6803094</v>
+      </c>
+      <c r="H80">
+        <v>175.8721238</v>
+      </c>
+      <c r="I80">
+        <v>70.348849509999994</v>
+      </c>
+      <c r="J80">
+        <v>70.348849509999994</v>
+      </c>
+      <c r="K80">
+        <v>70.348849509999994</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>4</v>
+      </c>
+      <c r="B81">
+        <v>25</v>
+      </c>
+      <c r="C81">
+        <v>0.8</v>
+      </c>
+      <c r="D81">
+        <v>686.84537079999996</v>
+      </c>
+      <c r="E81">
+        <v>5496.0038679999998</v>
+      </c>
+      <c r="F81">
+        <v>2198.4015469999999</v>
+      </c>
+      <c r="G81">
+        <v>879.36061889999996</v>
+      </c>
+      <c r="H81">
+        <v>351.74424759999999</v>
+      </c>
+      <c r="I81">
+        <v>140.697699</v>
+      </c>
+      <c r="J81">
+        <v>140.697699</v>
+      </c>
+      <c r="K81">
+        <v>140.697699</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>4</v>
+      </c>
+      <c r="B82">
+        <v>26</v>
+      </c>
+      <c r="C82">
+        <v>0.8</v>
+      </c>
+      <c r="D82">
+        <v>838.79888570000003</v>
+      </c>
+      <c r="E82">
+        <v>5935.6841780000004</v>
+      </c>
+      <c r="F82">
+        <v>2374.2736709999999</v>
+      </c>
+      <c r="G82">
+        <v>949.70946839999999</v>
+      </c>
+      <c r="H82">
+        <v>379.88378740000002</v>
+      </c>
+      <c r="I82">
+        <v>151.95351489999999</v>
+      </c>
+      <c r="J82">
+        <v>151.95351489999999</v>
+      </c>
+      <c r="K82">
+        <v>151.95351489999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>4</v>
+      </c>
+      <c r="B83">
+        <v>27</v>
+      </c>
+      <c r="C83">
+        <v>0.8</v>
+      </c>
+      <c r="D83">
+        <v>1002.908682</v>
+      </c>
+      <c r="E83">
+        <v>6410.538912</v>
+      </c>
+      <c r="F83">
+        <v>2564.215565</v>
+      </c>
+      <c r="G83">
+        <v>1025.686226</v>
+      </c>
+      <c r="H83">
+        <v>410.27449030000002</v>
+      </c>
+      <c r="I83">
+        <v>164.10979610000001</v>
+      </c>
+      <c r="J83">
+        <v>164.10979610000001</v>
+      </c>
+      <c r="K83">
+        <v>164.10979610000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>4</v>
+      </c>
+      <c r="B84">
+        <v>28</v>
+      </c>
+      <c r="C84">
+        <v>0.8</v>
+      </c>
+      <c r="D84">
+        <v>1180.147262</v>
+      </c>
+      <c r="E84">
+        <v>6923.3820249999999</v>
+      </c>
+      <c r="F84">
+        <v>2769.3528099999999</v>
+      </c>
+      <c r="G84">
+        <v>1107.7411239999999</v>
+      </c>
+      <c r="H84">
+        <v>443.09644960000003</v>
+      </c>
+      <c r="I84">
+        <v>177.2385798</v>
+      </c>
+      <c r="J84">
+        <v>177.2385798</v>
+      </c>
+      <c r="K84">
+        <v>177.2385798</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>4</v>
+      </c>
+      <c r="B85">
+        <v>29</v>
+      </c>
+      <c r="C85">
+        <v>0.8</v>
+      </c>
+      <c r="D85">
+        <v>1371.564928</v>
+      </c>
+      <c r="E85">
+        <v>7477.2525869999999</v>
+      </c>
+      <c r="F85">
+        <v>2990.9010349999999</v>
+      </c>
+      <c r="G85">
+        <v>1196.360414</v>
+      </c>
+      <c r="H85">
+        <v>478.54416550000002</v>
+      </c>
+      <c r="I85">
+        <v>191.41766620000001</v>
+      </c>
+      <c r="J85">
+        <v>191.41766620000001</v>
+      </c>
+      <c r="K85">
+        <v>191.41766620000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>4</v>
+      </c>
+      <c r="B86">
+        <v>30</v>
+      </c>
+      <c r="C86">
+        <v>0.8</v>
+      </c>
+      <c r="D86">
+        <v>1945.8179270000001</v>
+      </c>
+      <c r="E86">
+        <v>22431.75776</v>
+      </c>
+      <c r="F86">
+        <v>8972.7031040000002</v>
+      </c>
+      <c r="G86">
+        <v>3589.0812420000002</v>
+      </c>
+      <c r="H86">
+        <v>1435.6324970000001</v>
+      </c>
+      <c r="I86">
+        <v>574.25299870000003</v>
+      </c>
+      <c r="J86">
+        <v>574.25299870000003</v>
+      </c>
+      <c r="K86">
+        <v>574.25299870000003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>5</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>5</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>3.8416000000000001</v>
+      </c>
+      <c r="E88">
+        <v>150.0625</v>
+      </c>
+      <c r="F88">
+        <v>60.024999999999999</v>
+      </c>
+      <c r="G88">
+        <v>24.01</v>
+      </c>
+      <c r="H88">
+        <v>9.6039999999999992</v>
+      </c>
+      <c r="I88">
+        <v>3.8416000000000001</v>
+      </c>
+      <c r="J88">
+        <v>3.8416000000000001</v>
+      </c>
+      <c r="K88">
+        <v>3.8416000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>5</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>7.9905280000000003</v>
+      </c>
+      <c r="E89">
+        <v>162.0675</v>
+      </c>
+      <c r="F89">
+        <v>64.826999999999998</v>
+      </c>
+      <c r="G89">
+        <v>25.930800000000001</v>
+      </c>
+      <c r="H89">
+        <v>10.37232</v>
+      </c>
+      <c r="I89">
+        <v>4.1489279999999997</v>
+      </c>
+      <c r="J89">
+        <v>4.1489279999999997</v>
+      </c>
+      <c r="K89">
+        <v>4.1489279999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>5</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>12.471370240000001</v>
+      </c>
+      <c r="E90">
+        <v>175.03290000000001</v>
+      </c>
+      <c r="F90">
+        <v>70.013159999999999</v>
+      </c>
+      <c r="G90">
+        <v>28.005264</v>
+      </c>
+      <c r="H90">
+        <v>11.202105599999999</v>
+      </c>
+      <c r="I90">
+        <v>4.4808422400000003</v>
+      </c>
+      <c r="J90">
+        <v>4.4808422400000003</v>
+      </c>
+      <c r="K90">
+        <v>4.4808422400000003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>5</v>
+      </c>
+      <c r="B91">
+        <v>4</v>
+      </c>
+      <c r="C91">
+        <v>0.99</v>
+      </c>
+      <c r="D91">
+        <v>17.31067986</v>
+      </c>
+      <c r="E91">
+        <v>189.03553199999999</v>
+      </c>
+      <c r="F91">
+        <v>75.614212800000004</v>
+      </c>
+      <c r="G91">
+        <v>30.245685120000001</v>
+      </c>
+      <c r="H91">
+        <v>12.098274050000001</v>
+      </c>
+      <c r="I91">
+        <v>4.8393096189999998</v>
+      </c>
+      <c r="J91">
+        <v>4.8393096189999998</v>
+      </c>
+      <c r="K91">
+        <v>4.8393096189999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>5</v>
+      </c>
+      <c r="B92">
+        <v>5</v>
+      </c>
+      <c r="C92">
+        <v>0.99</v>
+      </c>
+      <c r="D92">
+        <v>23.117851399999999</v>
+      </c>
+      <c r="E92">
+        <v>226.8426384</v>
+      </c>
+      <c r="F92">
+        <v>90.737055359999999</v>
+      </c>
+      <c r="G92">
+        <v>36.294822140000001</v>
+      </c>
+      <c r="H92">
+        <v>14.51792886</v>
+      </c>
+      <c r="I92">
+        <v>5.8071715429999999</v>
+      </c>
+      <c r="J92">
+        <v>5.8071715429999999</v>
+      </c>
+      <c r="K92">
+        <v>5.8071715429999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>5</v>
+      </c>
+      <c r="B93">
+        <v>6</v>
+      </c>
+      <c r="C93">
+        <v>0.99</v>
+      </c>
+      <c r="D93">
+        <v>29.38959667</v>
+      </c>
+      <c r="E93">
+        <v>244.9900495</v>
+      </c>
+      <c r="F93">
+        <v>97.996019790000005</v>
+      </c>
+      <c r="G93">
+        <v>39.198407920000001</v>
+      </c>
+      <c r="H93">
+        <v>15.67936317</v>
+      </c>
+      <c r="I93">
+        <v>6.2717452659999999</v>
+      </c>
+      <c r="J93">
+        <v>6.2717452659999999</v>
+      </c>
+      <c r="K93">
+        <v>6.2717452659999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>5</v>
+      </c>
+      <c r="B94">
+        <v>7</v>
+      </c>
+      <c r="C94">
+        <v>0.99</v>
+      </c>
+      <c r="D94">
+        <v>36.163081560000002</v>
+      </c>
+      <c r="E94">
+        <v>264.58925340000002</v>
+      </c>
+      <c r="F94">
+        <v>105.8357014</v>
+      </c>
+      <c r="G94">
+        <v>42.334280550000003</v>
+      </c>
+      <c r="H94">
+        <v>16.93371222</v>
+      </c>
+      <c r="I94">
+        <v>6.7734848879999996</v>
+      </c>
+      <c r="J94">
+        <v>6.7734848879999996</v>
+      </c>
+      <c r="K94">
+        <v>6.7734848879999996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>5</v>
+      </c>
+      <c r="B95">
+        <v>8</v>
+      </c>
+      <c r="C95">
+        <v>0.99</v>
+      </c>
+      <c r="D95">
+        <v>43.478445239999999</v>
+      </c>
+      <c r="E95">
+        <v>285.75639369999999</v>
+      </c>
+      <c r="F95">
+        <v>114.30255750000001</v>
+      </c>
+      <c r="G95">
+        <v>45.721022990000002</v>
+      </c>
+      <c r="H95">
+        <v>18.2884092</v>
+      </c>
+      <c r="I95">
+        <v>7.3153636789999998</v>
+      </c>
+      <c r="J95">
+        <v>7.3153636789999998</v>
+      </c>
+      <c r="K95">
+        <v>7.3153636789999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>5</v>
+      </c>
+      <c r="B96">
+        <v>9</v>
+      </c>
+      <c r="C96">
+        <v>0.99</v>
+      </c>
+      <c r="D96">
+        <v>51.379038010000002</v>
+      </c>
+      <c r="E96">
+        <v>308.61690520000002</v>
+      </c>
+      <c r="F96">
+        <v>123.4467621</v>
+      </c>
+      <c r="G96">
+        <v>49.378704829999997</v>
+      </c>
+      <c r="H96">
+        <v>19.751481930000001</v>
+      </c>
+      <c r="I96">
+        <v>7.9005927729999996</v>
+      </c>
+      <c r="J96">
+        <v>7.9005927729999996</v>
+      </c>
+      <c r="K96">
+        <v>7.9005927729999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>5</v>
+      </c>
+      <c r="B97">
+        <v>10</v>
+      </c>
+      <c r="C97">
+        <v>0.99</v>
+      </c>
+      <c r="D97">
+        <v>61.649808610000001</v>
+      </c>
+      <c r="E97">
+        <v>401.20197680000001</v>
+      </c>
+      <c r="F97">
+        <v>160.4807907</v>
+      </c>
+      <c r="G97">
+        <v>64.19231628</v>
+      </c>
+      <c r="H97">
+        <v>25.676926510000001</v>
+      </c>
+      <c r="I97">
+        <v>10.27077061</v>
+      </c>
+      <c r="J97">
+        <v>10.27077061</v>
+      </c>
+      <c r="K97">
+        <v>10.27077061</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>5</v>
+      </c>
+      <c r="B98">
+        <v>11</v>
+      </c>
+      <c r="C98">
+        <v>0.9</v>
+      </c>
+      <c r="D98">
+        <v>72.742240870000003</v>
+      </c>
+      <c r="E98">
+        <v>433.29813489999998</v>
+      </c>
+      <c r="F98">
+        <v>173.319254</v>
+      </c>
+      <c r="G98">
+        <v>69.327701579999996</v>
+      </c>
+      <c r="H98">
+        <v>27.731080630000001</v>
+      </c>
+      <c r="I98">
+        <v>11.09243225</v>
+      </c>
+      <c r="J98">
+        <v>11.09243225</v>
+      </c>
+      <c r="K98">
+        <v>11.09243225</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>5</v>
+      </c>
+      <c r="B99">
+        <v>12</v>
+      </c>
+      <c r="C99">
+        <v>0.9</v>
+      </c>
+      <c r="D99">
+        <v>84.722067699999997</v>
+      </c>
+      <c r="E99">
+        <v>467.96198570000001</v>
+      </c>
+      <c r="F99">
+        <v>187.18479429999999</v>
+      </c>
+      <c r="G99">
+        <v>74.873917710000001</v>
+      </c>
+      <c r="H99">
+        <v>29.949567080000001</v>
+      </c>
+      <c r="I99">
+        <v>11.97982683</v>
+      </c>
+      <c r="J99">
+        <v>11.97982683</v>
+      </c>
+      <c r="K99">
+        <v>11.97982683</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>5</v>
+      </c>
+      <c r="B100">
+        <v>13</v>
+      </c>
+      <c r="C100">
+        <v>0.9</v>
+      </c>
+      <c r="D100">
+        <v>97.66028068</v>
+      </c>
+      <c r="E100">
+        <v>505.39894450000003</v>
+      </c>
+      <c r="F100">
+        <v>202.15957779999999</v>
+      </c>
+      <c r="G100">
+        <v>80.863831129999994</v>
+      </c>
+      <c r="H100">
+        <v>32.34553245</v>
+      </c>
+      <c r="I100">
+        <v>12.938212979999999</v>
+      </c>
+      <c r="J100">
+        <v>12.938212979999999</v>
+      </c>
+      <c r="K100">
+        <v>12.938212979999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>5</v>
+      </c>
+      <c r="B101">
+        <v>14</v>
+      </c>
+      <c r="C101">
+        <v>0.9</v>
+      </c>
+      <c r="D101">
+        <v>111.6335507</v>
+      </c>
+      <c r="E101">
+        <v>545.8308601</v>
+      </c>
+      <c r="F101">
+        <v>218.33234400000001</v>
+      </c>
+      <c r="G101">
+        <v>87.332937619999996</v>
+      </c>
+      <c r="H101">
+        <v>34.933175050000003</v>
+      </c>
+      <c r="I101">
+        <v>13.973270019999999</v>
+      </c>
+      <c r="J101">
+        <v>13.973270019999999</v>
+      </c>
+      <c r="K101">
+        <v>13.973270019999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>5</v>
+      </c>
+      <c r="B102">
+        <v>15</v>
+      </c>
+      <c r="C102">
+        <v>0.9</v>
+      </c>
+      <c r="D102">
+        <v>133.99078270000001</v>
+      </c>
+      <c r="E102">
+        <v>873.32937619999996</v>
+      </c>
+      <c r="F102">
+        <v>349.3317505</v>
+      </c>
+      <c r="G102">
+        <v>139.73270020000001</v>
+      </c>
+      <c r="H102">
+        <v>55.893080079999997</v>
+      </c>
+      <c r="I102">
+        <v>22.357232029999999</v>
+      </c>
+      <c r="J102">
+        <v>22.357232029999999</v>
+      </c>
+      <c r="K102">
+        <v>22.357232029999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>5</v>
+      </c>
+      <c r="B103">
+        <v>16</v>
+      </c>
+      <c r="C103">
+        <v>0.9</v>
+      </c>
+      <c r="D103">
+        <v>158.13659329999999</v>
+      </c>
+      <c r="E103">
+        <v>943.19572630000005</v>
+      </c>
+      <c r="F103">
+        <v>377.27829050000003</v>
+      </c>
+      <c r="G103">
+        <v>150.91131619999999</v>
+      </c>
+      <c r="H103">
+        <v>60.364526480000002</v>
+      </c>
+      <c r="I103">
+        <v>24.14581059</v>
+      </c>
+      <c r="J103">
+        <v>24.14581059</v>
+      </c>
+      <c r="K103">
+        <v>24.14581059</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>5</v>
+      </c>
+      <c r="B104">
+        <v>17</v>
+      </c>
+      <c r="C104">
+        <v>0.9</v>
+      </c>
+      <c r="D104">
+        <v>184.21406880000001</v>
+      </c>
+      <c r="E104">
+        <v>1018.651384</v>
+      </c>
+      <c r="F104">
+        <v>407.46055380000001</v>
+      </c>
+      <c r="G104">
+        <v>162.98422149999999</v>
+      </c>
+      <c r="H104">
+        <v>65.193688600000002</v>
+      </c>
+      <c r="I104">
+        <v>26.077475440000001</v>
+      </c>
+      <c r="J104">
+        <v>26.077475440000001</v>
+      </c>
+      <c r="K104">
+        <v>26.077475440000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>5</v>
+      </c>
+      <c r="B105">
+        <v>18</v>
+      </c>
+      <c r="C105">
+        <v>0.9</v>
+      </c>
+      <c r="D105">
+        <v>212.3777422</v>
+      </c>
+      <c r="E105">
+        <v>1100.143495</v>
+      </c>
+      <c r="F105">
+        <v>440.0573981</v>
+      </c>
+      <c r="G105">
+        <v>176.0229592</v>
+      </c>
+      <c r="H105">
+        <v>70.409183690000006</v>
+      </c>
+      <c r="I105">
+        <v>28.16367348</v>
+      </c>
+      <c r="J105">
+        <v>28.16367348</v>
+      </c>
+      <c r="K105">
+        <v>28.16367348</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>5</v>
+      </c>
+      <c r="B106">
+        <v>19</v>
+      </c>
+      <c r="C106">
+        <v>0.9</v>
+      </c>
+      <c r="D106">
+        <v>242.7945096</v>
+      </c>
+      <c r="E106">
+        <v>1188.1549749999999</v>
+      </c>
+      <c r="F106">
+        <v>475.2619899</v>
+      </c>
+      <c r="G106">
+        <v>190.10479599999999</v>
+      </c>
+      <c r="H106">
+        <v>76.041918379999998</v>
+      </c>
+      <c r="I106">
+        <v>30.416767350000001</v>
+      </c>
+      <c r="J106">
+        <v>30.416767350000001</v>
+      </c>
+      <c r="K106">
+        <v>30.416767350000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>5</v>
+      </c>
+      <c r="B107">
+        <v>20</v>
+      </c>
+      <c r="C107">
+        <v>0.9</v>
+      </c>
+      <c r="D107">
+        <v>294.50301409999997</v>
+      </c>
+      <c r="E107">
+        <v>2019.8634569999999</v>
+      </c>
+      <c r="F107">
+        <v>807.94538279999995</v>
+      </c>
+      <c r="G107">
+        <v>323.17815309999997</v>
+      </c>
+      <c r="H107">
+        <v>129.27126129999999</v>
+      </c>
+      <c r="I107">
+        <v>51.708504499999997</v>
+      </c>
+      <c r="J107">
+        <v>51.708504499999997</v>
+      </c>
+      <c r="K107">
+        <v>51.708504499999997</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>5</v>
+      </c>
+      <c r="B108">
+        <v>21</v>
+      </c>
+      <c r="C108">
+        <v>0.8</v>
+      </c>
+      <c r="D108">
+        <v>350.34819900000002</v>
+      </c>
+      <c r="E108">
+        <v>2181.452534</v>
+      </c>
+      <c r="F108">
+        <v>872.58101339999996</v>
+      </c>
+      <c r="G108">
+        <v>349.03240540000002</v>
+      </c>
+      <c r="H108">
+        <v>139.6129622</v>
+      </c>
+      <c r="I108">
+        <v>55.845184860000003</v>
+      </c>
+      <c r="J108">
+        <v>55.845184860000003</v>
+      </c>
+      <c r="K108">
+        <v>55.845184860000003</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>5</v>
+      </c>
+      <c r="B109">
+        <v>22</v>
+      </c>
+      <c r="C109">
+        <v>0.8</v>
+      </c>
+      <c r="D109">
+        <v>410.66099860000003</v>
+      </c>
+      <c r="E109">
+        <v>2355.9687359999998</v>
+      </c>
+      <c r="F109">
+        <v>942.3874945</v>
+      </c>
+      <c r="G109">
+        <v>376.9549978</v>
+      </c>
+      <c r="H109">
+        <v>150.78199910000001</v>
+      </c>
+      <c r="I109">
+        <v>60.312799650000002</v>
+      </c>
+      <c r="J109">
+        <v>60.312799650000002</v>
+      </c>
+      <c r="K109">
+        <v>60.312799650000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>5</v>
+      </c>
+      <c r="B110">
+        <v>23</v>
+      </c>
+      <c r="C110">
+        <v>0.8</v>
+      </c>
+      <c r="D110">
+        <v>475.79882220000002</v>
+      </c>
+      <c r="E110">
+        <v>2544.4462349999999</v>
+      </c>
+      <c r="F110">
+        <v>1017.778494</v>
+      </c>
+      <c r="G110">
+        <v>407.11139759999998</v>
+      </c>
+      <c r="H110">
+        <v>162.8445591</v>
+      </c>
+      <c r="I110">
+        <v>65.137823620000006</v>
+      </c>
+      <c r="J110">
+        <v>65.137823620000006</v>
+      </c>
+      <c r="K110">
+        <v>65.137823620000006</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>5</v>
+      </c>
+      <c r="B111">
+        <v>24</v>
+      </c>
+      <c r="C111">
+        <v>0.8</v>
+      </c>
+      <c r="D111">
+        <v>546.14767170000005</v>
+      </c>
+      <c r="E111">
+        <v>2748.0019339999999</v>
+      </c>
+      <c r="F111">
+        <v>1099.2007739999999</v>
+      </c>
+      <c r="G111">
+        <v>439.6803094</v>
+      </c>
+      <c r="H111">
+        <v>175.8721238</v>
+      </c>
+      <c r="I111">
+        <v>70.348849509999994</v>
+      </c>
+      <c r="J111">
+        <v>70.348849509999994</v>
+      </c>
+      <c r="K111">
+        <v>70.348849509999994</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>5</v>
+      </c>
+      <c r="B112">
+        <v>25</v>
+      </c>
+      <c r="C112">
+        <v>0.8</v>
+      </c>
+      <c r="D112">
+        <v>686.84537079999996</v>
+      </c>
+      <c r="E112">
+        <v>5496.0038679999998</v>
+      </c>
+      <c r="F112">
+        <v>2198.4015469999999</v>
+      </c>
+      <c r="G112">
+        <v>879.36061889999996</v>
+      </c>
+      <c r="H112">
+        <v>351.74424759999999</v>
+      </c>
+      <c r="I112">
+        <v>140.697699</v>
+      </c>
+      <c r="J112">
+        <v>140.697699</v>
+      </c>
+      <c r="K112">
+        <v>140.697699</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>5</v>
+      </c>
+      <c r="B113">
+        <v>26</v>
+      </c>
+      <c r="C113">
+        <v>0.8</v>
+      </c>
+      <c r="D113">
+        <v>838.79888570000003</v>
+      </c>
+      <c r="E113">
+        <v>5935.6841780000004</v>
+      </c>
+      <c r="F113">
+        <v>2374.2736709999999</v>
+      </c>
+      <c r="G113">
+        <v>949.70946839999999</v>
+      </c>
+      <c r="H113">
+        <v>379.88378740000002</v>
+      </c>
+      <c r="I113">
+        <v>151.95351489999999</v>
+      </c>
+      <c r="J113">
+        <v>151.95351489999999</v>
+      </c>
+      <c r="K113">
+        <v>151.95351489999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>5</v>
+      </c>
+      <c r="B114">
+        <v>27</v>
+      </c>
+      <c r="C114">
+        <v>0.8</v>
+      </c>
+      <c r="D114">
+        <v>1002.908682</v>
+      </c>
+      <c r="E114">
+        <v>6410.538912</v>
+      </c>
+      <c r="F114">
+        <v>2564.215565</v>
+      </c>
+      <c r="G114">
+        <v>1025.686226</v>
+      </c>
+      <c r="H114">
+        <v>410.27449030000002</v>
+      </c>
+      <c r="I114">
+        <v>164.10979610000001</v>
+      </c>
+      <c r="J114">
+        <v>164.10979610000001</v>
+      </c>
+      <c r="K114">
+        <v>164.10979610000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>5</v>
+      </c>
+      <c r="B115">
+        <v>28</v>
+      </c>
+      <c r="C115">
+        <v>0.8</v>
+      </c>
+      <c r="D115">
+        <v>1180.147262</v>
+      </c>
+      <c r="E115">
+        <v>6923.3820249999999</v>
+      </c>
+      <c r="F115">
+        <v>2769.3528099999999</v>
+      </c>
+      <c r="G115">
+        <v>1107.7411239999999</v>
+      </c>
+      <c r="H115">
+        <v>443.09644960000003</v>
+      </c>
+      <c r="I115">
+        <v>177.2385798</v>
+      </c>
+      <c r="J115">
+        <v>177.2385798</v>
+      </c>
+      <c r="K115">
+        <v>177.2385798</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>5</v>
+      </c>
+      <c r="B116">
+        <v>29</v>
+      </c>
+      <c r="C116">
+        <v>0.8</v>
+      </c>
+      <c r="D116">
+        <v>1371.564928</v>
+      </c>
+      <c r="E116">
+        <v>7477.2525869999999</v>
+      </c>
+      <c r="F116">
+        <v>2990.9010349999999</v>
+      </c>
+      <c r="G116">
+        <v>1196.360414</v>
+      </c>
+      <c r="H116">
+        <v>478.54416550000002</v>
+      </c>
+      <c r="I116">
+        <v>191.41766620000001</v>
+      </c>
+      <c r="J116">
+        <v>191.41766620000001</v>
+      </c>
+      <c r="K116">
+        <v>191.41766620000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>5</v>
+      </c>
+      <c r="B117">
+        <v>30</v>
+      </c>
+      <c r="C117">
+        <v>0.8</v>
+      </c>
+      <c r="D117">
+        <v>1945.8179270000001</v>
+      </c>
+      <c r="E117">
+        <v>22431.75776</v>
+      </c>
+      <c r="F117">
+        <v>8972.7031040000002</v>
+      </c>
+      <c r="G117">
+        <v>3589.0812420000002</v>
+      </c>
+      <c r="H117">
+        <v>1435.6324970000001</v>
+      </c>
+      <c r="I117">
+        <v>574.25299870000003</v>
+      </c>
+      <c r="J117">
+        <v>574.25299870000003</v>
+      </c>
+      <c r="K117">
+        <v>574.25299870000003</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>6</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>6</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>3.8416000000000001</v>
+      </c>
+      <c r="E119">
+        <v>150.0625</v>
+      </c>
+      <c r="F119">
+        <v>60.024999999999999</v>
+      </c>
+      <c r="G119">
+        <v>24.01</v>
+      </c>
+      <c r="H119">
+        <v>9.6039999999999992</v>
+      </c>
+      <c r="I119">
+        <v>3.8416000000000001</v>
+      </c>
+      <c r="J119">
+        <v>3.8416000000000001</v>
+      </c>
+      <c r="K119">
+        <v>3.8416000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>6</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>7.9905280000000003</v>
+      </c>
+      <c r="E120">
+        <v>162.0675</v>
+      </c>
+      <c r="F120">
+        <v>64.826999999999998</v>
+      </c>
+      <c r="G120">
+        <v>25.930800000000001</v>
+      </c>
+      <c r="H120">
+        <v>10.37232</v>
+      </c>
+      <c r="I120">
+        <v>4.1489279999999997</v>
+      </c>
+      <c r="J120">
+        <v>4.1489279999999997</v>
+      </c>
+      <c r="K120">
+        <v>4.1489279999999997</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>6</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>12.471370240000001</v>
+      </c>
+      <c r="E121">
+        <v>175.03290000000001</v>
+      </c>
+      <c r="F121">
+        <v>70.013159999999999</v>
+      </c>
+      <c r="G121">
+        <v>28.005264</v>
+      </c>
+      <c r="H121">
+        <v>11.202105599999999</v>
+      </c>
+      <c r="I121">
+        <v>4.4808422400000003</v>
+      </c>
+      <c r="J121">
+        <v>4.4808422400000003</v>
+      </c>
+      <c r="K121">
+        <v>4.4808422400000003</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>6</v>
+      </c>
+      <c r="B122">
+        <v>4</v>
+      </c>
+      <c r="C122">
+        <v>0.99</v>
+      </c>
+      <c r="D122">
+        <v>17.31067986</v>
+      </c>
+      <c r="E122">
+        <v>189.03553199999999</v>
+      </c>
+      <c r="F122">
+        <v>75.614212800000004</v>
+      </c>
+      <c r="G122">
+        <v>30.245685120000001</v>
+      </c>
+      <c r="H122">
+        <v>12.098274050000001</v>
+      </c>
+      <c r="I122">
+        <v>4.8393096189999998</v>
+      </c>
+      <c r="J122">
+        <v>4.8393096189999998</v>
+      </c>
+      <c r="K122">
+        <v>4.8393096189999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>6</v>
+      </c>
+      <c r="B123">
+        <v>5</v>
+      </c>
+      <c r="C123">
+        <v>0.99</v>
+      </c>
+      <c r="D123">
+        <v>23.117851399999999</v>
+      </c>
+      <c r="E123">
+        <v>226.8426384</v>
+      </c>
+      <c r="F123">
+        <v>90.737055359999999</v>
+      </c>
+      <c r="G123">
+        <v>36.294822140000001</v>
+      </c>
+      <c r="H123">
+        <v>14.51792886</v>
+      </c>
+      <c r="I123">
+        <v>5.8071715429999999</v>
+      </c>
+      <c r="J123">
+        <v>5.8071715429999999</v>
+      </c>
+      <c r="K123">
+        <v>5.8071715429999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>6</v>
+      </c>
+      <c r="B124">
+        <v>6</v>
+      </c>
+      <c r="C124">
+        <v>0.99</v>
+      </c>
+      <c r="D124">
+        <v>29.38959667</v>
+      </c>
+      <c r="E124">
+        <v>244.9900495</v>
+      </c>
+      <c r="F124">
+        <v>97.996019790000005</v>
+      </c>
+      <c r="G124">
+        <v>39.198407920000001</v>
+      </c>
+      <c r="H124">
+        <v>15.67936317</v>
+      </c>
+      <c r="I124">
+        <v>6.2717452659999999</v>
+      </c>
+      <c r="J124">
+        <v>6.2717452659999999</v>
+      </c>
+      <c r="K124">
+        <v>6.2717452659999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>6</v>
+      </c>
+      <c r="B125">
+        <v>7</v>
+      </c>
+      <c r="C125">
+        <v>0.99</v>
+      </c>
+      <c r="D125">
+        <v>36.163081560000002</v>
+      </c>
+      <c r="E125">
+        <v>264.58925340000002</v>
+      </c>
+      <c r="F125">
+        <v>105.8357014</v>
+      </c>
+      <c r="G125">
+        <v>42.334280550000003</v>
+      </c>
+      <c r="H125">
+        <v>16.93371222</v>
+      </c>
+      <c r="I125">
+        <v>6.7734848879999996</v>
+      </c>
+      <c r="J125">
+        <v>6.7734848879999996</v>
+      </c>
+      <c r="K125">
+        <v>6.7734848879999996</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>6</v>
+      </c>
+      <c r="B126">
+        <v>8</v>
+      </c>
+      <c r="C126">
+        <v>0.99</v>
+      </c>
+      <c r="D126">
+        <v>43.478445239999999</v>
+      </c>
+      <c r="E126">
+        <v>285.75639369999999</v>
+      </c>
+      <c r="F126">
+        <v>114.30255750000001</v>
+      </c>
+      <c r="G126">
+        <v>45.721022990000002</v>
+      </c>
+      <c r="H126">
+        <v>18.2884092</v>
+      </c>
+      <c r="I126">
+        <v>7.3153636789999998</v>
+      </c>
+      <c r="J126">
+        <v>7.3153636789999998</v>
+      </c>
+      <c r="K126">
+        <v>7.3153636789999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>6</v>
+      </c>
+      <c r="B127">
+        <v>9</v>
+      </c>
+      <c r="C127">
+        <v>0.99</v>
+      </c>
+      <c r="D127">
+        <v>51.379038010000002</v>
+      </c>
+      <c r="E127">
+        <v>308.61690520000002</v>
+      </c>
+      <c r="F127">
+        <v>123.4467621</v>
+      </c>
+      <c r="G127">
+        <v>49.378704829999997</v>
+      </c>
+      <c r="H127">
+        <v>19.751481930000001</v>
+      </c>
+      <c r="I127">
+        <v>7.9005927729999996</v>
+      </c>
+      <c r="J127">
+        <v>7.9005927729999996</v>
+      </c>
+      <c r="K127">
+        <v>7.9005927729999996</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>6</v>
+      </c>
+      <c r="B128">
+        <v>10</v>
+      </c>
+      <c r="C128">
+        <v>0.99</v>
+      </c>
+      <c r="D128">
+        <v>61.649808610000001</v>
+      </c>
+      <c r="E128">
+        <v>401.20197680000001</v>
+      </c>
+      <c r="F128">
+        <v>160.4807907</v>
+      </c>
+      <c r="G128">
+        <v>64.19231628</v>
+      </c>
+      <c r="H128">
+        <v>25.676926510000001</v>
+      </c>
+      <c r="I128">
+        <v>10.27077061</v>
+      </c>
+      <c r="J128">
+        <v>10.27077061</v>
+      </c>
+      <c r="K128">
+        <v>10.27077061</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>6</v>
+      </c>
+      <c r="B129">
+        <v>11</v>
+      </c>
+      <c r="C129">
+        <v>0.9</v>
+      </c>
+      <c r="D129">
+        <v>72.742240870000003</v>
+      </c>
+      <c r="E129">
+        <v>433.29813489999998</v>
+      </c>
+      <c r="F129">
+        <v>173.319254</v>
+      </c>
+      <c r="G129">
+        <v>69.327701579999996</v>
+      </c>
+      <c r="H129">
+        <v>27.731080630000001</v>
+      </c>
+      <c r="I129">
+        <v>11.09243225</v>
+      </c>
+      <c r="J129">
+        <v>11.09243225</v>
+      </c>
+      <c r="K129">
+        <v>11.09243225</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>6</v>
+      </c>
+      <c r="B130">
+        <v>12</v>
+      </c>
+      <c r="C130">
+        <v>0.9</v>
+      </c>
+      <c r="D130">
+        <v>84.722067699999997</v>
+      </c>
+      <c r="E130">
+        <v>467.96198570000001</v>
+      </c>
+      <c r="F130">
+        <v>187.18479429999999</v>
+      </c>
+      <c r="G130">
+        <v>74.873917710000001</v>
+      </c>
+      <c r="H130">
+        <v>29.949567080000001</v>
+      </c>
+      <c r="I130">
+        <v>11.97982683</v>
+      </c>
+      <c r="J130">
+        <v>11.97982683</v>
+      </c>
+      <c r="K130">
+        <v>11.97982683</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>6</v>
+      </c>
+      <c r="B131">
+        <v>13</v>
+      </c>
+      <c r="C131">
+        <v>0.9</v>
+      </c>
+      <c r="D131">
+        <v>97.66028068</v>
+      </c>
+      <c r="E131">
+        <v>505.39894450000003</v>
+      </c>
+      <c r="F131">
+        <v>202.15957779999999</v>
+      </c>
+      <c r="G131">
+        <v>80.863831129999994</v>
+      </c>
+      <c r="H131">
+        <v>32.34553245</v>
+      </c>
+      <c r="I131">
+        <v>12.938212979999999</v>
+      </c>
+      <c r="J131">
+        <v>12.938212979999999</v>
+      </c>
+      <c r="K131">
+        <v>12.938212979999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>6</v>
+      </c>
+      <c r="B132">
+        <v>14</v>
+      </c>
+      <c r="C132">
+        <v>0.9</v>
+      </c>
+      <c r="D132">
+        <v>111.6335507</v>
+      </c>
+      <c r="E132">
+        <v>545.8308601</v>
+      </c>
+      <c r="F132">
+        <v>218.33234400000001</v>
+      </c>
+      <c r="G132">
+        <v>87.332937619999996</v>
+      </c>
+      <c r="H132">
+        <v>34.933175050000003</v>
+      </c>
+      <c r="I132">
+        <v>13.973270019999999</v>
+      </c>
+      <c r="J132">
+        <v>13.973270019999999</v>
+      </c>
+      <c r="K132">
+        <v>13.973270019999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>6</v>
+      </c>
+      <c r="B133">
+        <v>15</v>
+      </c>
+      <c r="C133">
+        <v>0.9</v>
+      </c>
+      <c r="D133">
+        <v>133.99078270000001</v>
+      </c>
+      <c r="E133">
+        <v>873.32937619999996</v>
+      </c>
+      <c r="F133">
+        <v>349.3317505</v>
+      </c>
+      <c r="G133">
+        <v>139.73270020000001</v>
+      </c>
+      <c r="H133">
+        <v>55.893080079999997</v>
+      </c>
+      <c r="I133">
+        <v>22.357232029999999</v>
+      </c>
+      <c r="J133">
+        <v>22.357232029999999</v>
+      </c>
+      <c r="K133">
+        <v>22.357232029999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>6</v>
+      </c>
+      <c r="B134">
+        <v>16</v>
+      </c>
+      <c r="C134">
+        <v>0.9</v>
+      </c>
+      <c r="D134">
+        <v>158.13659329999999</v>
+      </c>
+      <c r="E134">
+        <v>943.19572630000005</v>
+      </c>
+      <c r="F134">
+        <v>377.27829050000003</v>
+      </c>
+      <c r="G134">
+        <v>150.91131619999999</v>
+      </c>
+      <c r="H134">
+        <v>60.364526480000002</v>
+      </c>
+      <c r="I134">
+        <v>24.14581059</v>
+      </c>
+      <c r="J134">
+        <v>24.14581059</v>
+      </c>
+      <c r="K134">
+        <v>24.14581059</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>6</v>
+      </c>
+      <c r="B135">
+        <v>17</v>
+      </c>
+      <c r="C135">
+        <v>0.9</v>
+      </c>
+      <c r="D135">
+        <v>184.21406880000001</v>
+      </c>
+      <c r="E135">
+        <v>1018.651384</v>
+      </c>
+      <c r="F135">
+        <v>407.46055380000001</v>
+      </c>
+      <c r="G135">
+        <v>162.98422149999999</v>
+      </c>
+      <c r="H135">
+        <v>65.193688600000002</v>
+      </c>
+      <c r="I135">
+        <v>26.077475440000001</v>
+      </c>
+      <c r="J135">
+        <v>26.077475440000001</v>
+      </c>
+      <c r="K135">
+        <v>26.077475440000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>6</v>
+      </c>
+      <c r="B136">
+        <v>18</v>
+      </c>
+      <c r="C136">
+        <v>0.9</v>
+      </c>
+      <c r="D136">
+        <v>212.3777422</v>
+      </c>
+      <c r="E136">
+        <v>1100.143495</v>
+      </c>
+      <c r="F136">
+        <v>440.0573981</v>
+      </c>
+      <c r="G136">
+        <v>176.0229592</v>
+      </c>
+      <c r="H136">
+        <v>70.409183690000006</v>
+      </c>
+      <c r="I136">
+        <v>28.16367348</v>
+      </c>
+      <c r="J136">
+        <v>28.16367348</v>
+      </c>
+      <c r="K136">
+        <v>28.16367348</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>6</v>
+      </c>
+      <c r="B137">
+        <v>19</v>
+      </c>
+      <c r="C137">
+        <v>0.9</v>
+      </c>
+      <c r="D137">
+        <v>242.7945096</v>
+      </c>
+      <c r="E137">
+        <v>1188.1549749999999</v>
+      </c>
+      <c r="F137">
+        <v>475.2619899</v>
+      </c>
+      <c r="G137">
+        <v>190.10479599999999</v>
+      </c>
+      <c r="H137">
+        <v>76.041918379999998</v>
+      </c>
+      <c r="I137">
+        <v>30.416767350000001</v>
+      </c>
+      <c r="J137">
+        <v>30.416767350000001</v>
+      </c>
+      <c r="K137">
+        <v>30.416767350000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>6</v>
+      </c>
+      <c r="B138">
+        <v>20</v>
+      </c>
+      <c r="C138">
+        <v>0.9</v>
+      </c>
+      <c r="D138">
+        <v>294.50301409999997</v>
+      </c>
+      <c r="E138">
+        <v>2019.8634569999999</v>
+      </c>
+      <c r="F138">
+        <v>807.94538279999995</v>
+      </c>
+      <c r="G138">
+        <v>323.17815309999997</v>
+      </c>
+      <c r="H138">
+        <v>129.27126129999999</v>
+      </c>
+      <c r="I138">
+        <v>51.708504499999997</v>
+      </c>
+      <c r="J138">
+        <v>51.708504499999997</v>
+      </c>
+      <c r="K138">
+        <v>51.708504499999997</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>6</v>
+      </c>
+      <c r="B139">
+        <v>21</v>
+      </c>
+      <c r="C139">
+        <v>0.8</v>
+      </c>
+      <c r="D139">
+        <v>350.34819900000002</v>
+      </c>
+      <c r="E139">
+        <v>2181.452534</v>
+      </c>
+      <c r="F139">
+        <v>872.58101339999996</v>
+      </c>
+      <c r="G139">
+        <v>349.03240540000002</v>
+      </c>
+      <c r="H139">
+        <v>139.6129622</v>
+      </c>
+      <c r="I139">
+        <v>55.845184860000003</v>
+      </c>
+      <c r="J139">
+        <v>55.845184860000003</v>
+      </c>
+      <c r="K139">
+        <v>55.845184860000003</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>6</v>
+      </c>
+      <c r="B140">
+        <v>22</v>
+      </c>
+      <c r="C140">
+        <v>0.8</v>
+      </c>
+      <c r="D140">
+        <v>410.66099860000003</v>
+      </c>
+      <c r="E140">
+        <v>2355.9687359999998</v>
+      </c>
+      <c r="F140">
+        <v>942.3874945</v>
+      </c>
+      <c r="G140">
+        <v>376.9549978</v>
+      </c>
+      <c r="H140">
+        <v>150.78199910000001</v>
+      </c>
+      <c r="I140">
+        <v>60.312799650000002</v>
+      </c>
+      <c r="J140">
+        <v>60.312799650000002</v>
+      </c>
+      <c r="K140">
+        <v>60.312799650000002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>6</v>
+      </c>
+      <c r="B141">
+        <v>23</v>
+      </c>
+      <c r="C141">
+        <v>0.8</v>
+      </c>
+      <c r="D141">
+        <v>475.79882220000002</v>
+      </c>
+      <c r="E141">
+        <v>2544.4462349999999</v>
+      </c>
+      <c r="F141">
+        <v>1017.778494</v>
+      </c>
+      <c r="G141">
+        <v>407.11139759999998</v>
+      </c>
+      <c r="H141">
+        <v>162.8445591</v>
+      </c>
+      <c r="I141">
+        <v>65.137823620000006</v>
+      </c>
+      <c r="J141">
+        <v>65.137823620000006</v>
+      </c>
+      <c r="K141">
+        <v>65.137823620000006</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>6</v>
+      </c>
+      <c r="B142">
+        <v>24</v>
+      </c>
+      <c r="C142">
+        <v>0.8</v>
+      </c>
+      <c r="D142">
+        <v>546.14767170000005</v>
+      </c>
+      <c r="E142">
+        <v>2748.0019339999999</v>
+      </c>
+      <c r="F142">
+        <v>1099.2007739999999</v>
+      </c>
+      <c r="G142">
+        <v>439.6803094</v>
+      </c>
+      <c r="H142">
+        <v>175.8721238</v>
+      </c>
+      <c r="I142">
+        <v>70.348849509999994</v>
+      </c>
+      <c r="J142">
+        <v>70.348849509999994</v>
+      </c>
+      <c r="K142">
+        <v>70.348849509999994</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>6</v>
+      </c>
+      <c r="B143">
+        <v>25</v>
+      </c>
+      <c r="C143">
+        <v>0.8</v>
+      </c>
+      <c r="D143">
+        <v>686.84537079999996</v>
+      </c>
+      <c r="E143">
+        <v>5496.0038679999998</v>
+      </c>
+      <c r="F143">
+        <v>2198.4015469999999</v>
+      </c>
+      <c r="G143">
+        <v>879.36061889999996</v>
+      </c>
+      <c r="H143">
+        <v>351.74424759999999</v>
+      </c>
+      <c r="I143">
+        <v>140.697699</v>
+      </c>
+      <c r="J143">
+        <v>140.697699</v>
+      </c>
+      <c r="K143">
+        <v>140.697699</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>6</v>
+      </c>
+      <c r="B144">
+        <v>26</v>
+      </c>
+      <c r="C144">
+        <v>0.8</v>
+      </c>
+      <c r="D144">
+        <v>838.79888570000003</v>
+      </c>
+      <c r="E144">
+        <v>5935.6841780000004</v>
+      </c>
+      <c r="F144">
+        <v>2374.2736709999999</v>
+      </c>
+      <c r="G144">
+        <v>949.70946839999999</v>
+      </c>
+      <c r="H144">
+        <v>379.88378740000002</v>
+      </c>
+      <c r="I144">
+        <v>151.95351489999999</v>
+      </c>
+      <c r="J144">
+        <v>151.95351489999999</v>
+      </c>
+      <c r="K144">
+        <v>151.95351489999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>6</v>
+      </c>
+      <c r="B145">
+        <v>27</v>
+      </c>
+      <c r="C145">
+        <v>0.8</v>
+      </c>
+      <c r="D145">
+        <v>1002.908682</v>
+      </c>
+      <c r="E145">
+        <v>6410.538912</v>
+      </c>
+      <c r="F145">
+        <v>2564.215565</v>
+      </c>
+      <c r="G145">
+        <v>1025.686226</v>
+      </c>
+      <c r="H145">
+        <v>410.27449030000002</v>
+      </c>
+      <c r="I145">
+        <v>164.10979610000001</v>
+      </c>
+      <c r="J145">
+        <v>164.10979610000001</v>
+      </c>
+      <c r="K145">
+        <v>164.10979610000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>6</v>
+      </c>
+      <c r="B146">
+        <v>28</v>
+      </c>
+      <c r="C146">
+        <v>0.8</v>
+      </c>
+      <c r="D146">
+        <v>1180.147262</v>
+      </c>
+      <c r="E146">
+        <v>6923.3820249999999</v>
+      </c>
+      <c r="F146">
+        <v>2769.3528099999999</v>
+      </c>
+      <c r="G146">
+        <v>1107.7411239999999</v>
+      </c>
+      <c r="H146">
+        <v>443.09644960000003</v>
+      </c>
+      <c r="I146">
+        <v>177.2385798</v>
+      </c>
+      <c r="J146">
+        <v>177.2385798</v>
+      </c>
+      <c r="K146">
+        <v>177.2385798</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>6</v>
+      </c>
+      <c r="B147">
+        <v>29</v>
+      </c>
+      <c r="C147">
+        <v>0.8</v>
+      </c>
+      <c r="D147">
+        <v>1371.564928</v>
+      </c>
+      <c r="E147">
+        <v>7477.2525869999999</v>
+      </c>
+      <c r="F147">
+        <v>2990.9010349999999</v>
+      </c>
+      <c r="G147">
+        <v>1196.360414</v>
+      </c>
+      <c r="H147">
+        <v>478.54416550000002</v>
+      </c>
+      <c r="I147">
+        <v>191.41766620000001</v>
+      </c>
+      <c r="J147">
+        <v>191.41766620000001</v>
+      </c>
+      <c r="K147">
+        <v>191.41766620000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>6</v>
+      </c>
+      <c r="B148">
+        <v>30</v>
+      </c>
+      <c r="C148">
+        <v>0.8</v>
+      </c>
+      <c r="D148">
+        <v>1945.8179270000001</v>
+      </c>
+      <c r="E148">
+        <v>22431.75776</v>
+      </c>
+      <c r="F148">
+        <v>8972.7031040000002</v>
+      </c>
+      <c r="G148">
+        <v>3589.0812420000002</v>
+      </c>
+      <c r="H148">
+        <v>1435.6324970000001</v>
+      </c>
+      <c r="I148">
+        <v>574.25299870000003</v>
+      </c>
+      <c r="J148">
+        <v>574.25299870000003</v>
+      </c>
+      <c r="K148">
+        <v>574.25299870000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E886C04-20B3-480E-9AA4-6349F724EAC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DA10C7-4675-4ACA-99D2-E705D255B15F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -1129,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1202,10 +1202,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H2">
-        <v>115</v>
+        <v>14.1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1240,10 +1240,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>10.3</v>
       </c>
       <c r="H3">
-        <v>115</v>
+        <v>13.5</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1278,10 +1278,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>100</v>
+        <v>13.35</v>
       </c>
       <c r="H4">
-        <v>115</v>
+        <v>19.95</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1316,10 +1316,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>100</v>
+        <v>12.93</v>
       </c>
       <c r="H5">
-        <v>115</v>
+        <v>19.39</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>100</v>
+        <v>21.64</v>
       </c>
       <c r="H6">
-        <v>115</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1374,10 +1374,10 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>100</v>
+        <v>20.93</v>
       </c>
       <c r="H7">
-        <v>115</v>
+        <v>32.58</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1403,10 +1403,10 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>100</v>
+        <v>49.66</v>
       </c>
       <c r="H8">
-        <v>115</v>
+        <v>75.319999999999993</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>2</v>
       </c>
       <c r="G9">
-        <v>100</v>
+        <v>44.21</v>
       </c>
       <c r="H9">
-        <v>115</v>
+        <v>79.14</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1461,10 +1461,10 @@
         <v>3</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>128.83000000000001</v>
       </c>
       <c r="H10">
-        <v>115</v>
+        <v>176.03</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -1493,10 +1493,10 @@
         <v>3</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>113.52</v>
       </c>
       <c r="H11">
-        <v>115</v>
+        <v>184.96</v>
       </c>
       <c r="I11">
         <v>3</v>
@@ -1525,10 +1525,10 @@
         <v>3</v>
       </c>
       <c r="G12">
-        <v>100</v>
+        <v>157.76</v>
       </c>
       <c r="H12">
-        <v>115</v>
+        <v>215.56</v>
       </c>
       <c r="I12">
         <v>3</v>
@@ -1557,10 +1557,10 @@
         <v>3</v>
       </c>
       <c r="G13">
-        <v>100</v>
+        <v>139.02000000000001</v>
       </c>
       <c r="H13">
-        <v>115</v>
+        <v>226.49</v>
       </c>
       <c r="I13">
         <v>3</v>
@@ -1589,10 +1589,10 @@
         <v>3</v>
       </c>
       <c r="G14">
-        <v>100</v>
+        <v>193.2</v>
       </c>
       <c r="H14">
-        <v>115</v>
+        <v>263.97000000000003</v>
       </c>
       <c r="I14">
         <v>3</v>
@@ -1621,10 +1621,10 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H15">
-        <v>115</v>
+        <v>14.1</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1659,10 +1659,10 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>100</v>
+        <v>10.3</v>
       </c>
       <c r="H16">
-        <v>115</v>
+        <v>13.5</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1697,10 +1697,10 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>100</v>
+        <v>13.35</v>
       </c>
       <c r="H17">
-        <v>115</v>
+        <v>19.95</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1726,10 +1726,10 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>100</v>
+        <v>12.93</v>
       </c>
       <c r="H18">
-        <v>115</v>
+        <v>19.39</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1755,10 +1755,10 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>100</v>
+        <v>21.64</v>
       </c>
       <c r="H19">
-        <v>115</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1784,10 +1784,10 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <v>100</v>
+        <v>20.93</v>
       </c>
       <c r="H20">
-        <v>115</v>
+        <v>32.58</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>2</v>
       </c>
       <c r="G21">
-        <v>100</v>
+        <v>49.66</v>
       </c>
       <c r="H21">
-        <v>115</v>
+        <v>75.319999999999993</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1842,10 +1842,10 @@
         <v>2</v>
       </c>
       <c r="G22">
-        <v>100</v>
+        <v>44.21</v>
       </c>
       <c r="H22">
-        <v>115</v>
+        <v>79.14</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1871,10 +1871,10 @@
         <v>3</v>
       </c>
       <c r="G23">
-        <v>100</v>
+        <v>128.83000000000001</v>
       </c>
       <c r="H23">
-        <v>115</v>
+        <v>176.03</v>
       </c>
       <c r="I23">
         <v>3</v>
@@ -1903,10 +1903,10 @@
         <v>3</v>
       </c>
       <c r="G24">
-        <v>100</v>
+        <v>113.52</v>
       </c>
       <c r="H24">
-        <v>115</v>
+        <v>184.96</v>
       </c>
       <c r="I24">
         <v>3</v>
@@ -1935,10 +1935,10 @@
         <v>3</v>
       </c>
       <c r="G25">
-        <v>100</v>
+        <v>157.76</v>
       </c>
       <c r="H25">
-        <v>115</v>
+        <v>215.56</v>
       </c>
       <c r="I25">
         <v>3</v>
@@ -1967,10 +1967,10 @@
         <v>3</v>
       </c>
       <c r="G26">
-        <v>100</v>
+        <v>139.02000000000001</v>
       </c>
       <c r="H26">
-        <v>115</v>
+        <v>226.49</v>
       </c>
       <c r="I26">
         <v>3</v>
@@ -1999,10 +1999,10 @@
         <v>3</v>
       </c>
       <c r="G27">
-        <v>100</v>
+        <v>193.2</v>
       </c>
       <c r="H27">
-        <v>115</v>
+        <v>263.97000000000003</v>
       </c>
       <c r="I27">
         <v>3</v>
@@ -2031,10 +2031,10 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H28">
-        <v>115</v>
+        <v>14.1</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2060,10 +2060,10 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>100</v>
+        <v>10.3</v>
       </c>
       <c r="H29">
-        <v>115</v>
+        <v>13.5</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2089,10 +2089,10 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>100</v>
+        <v>13.35</v>
       </c>
       <c r="H30">
-        <v>115</v>
+        <v>19.95</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>100</v>
+        <v>12.93</v>
       </c>
       <c r="H31">
-        <v>115</v>
+        <v>19.39</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2147,10 +2147,10 @@
         <v>2</v>
       </c>
       <c r="G32">
-        <v>100</v>
+        <v>21.64</v>
       </c>
       <c r="H32">
-        <v>115</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2176,10 +2176,10 @@
         <v>2</v>
       </c>
       <c r="G33">
-        <v>100</v>
+        <v>20.93</v>
       </c>
       <c r="H33">
-        <v>115</v>
+        <v>32.58</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>2</v>
       </c>
       <c r="G34">
-        <v>100</v>
+        <v>49.66</v>
       </c>
       <c r="H34">
-        <v>115</v>
+        <v>75.319999999999993</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2243,10 +2243,10 @@
         <v>2</v>
       </c>
       <c r="G35">
-        <v>100</v>
+        <v>44.21</v>
       </c>
       <c r="H35">
-        <v>115</v>
+        <v>79.14</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2272,10 +2272,10 @@
         <v>3</v>
       </c>
       <c r="G36">
-        <v>100</v>
+        <v>128.83000000000001</v>
       </c>
       <c r="H36">
-        <v>115</v>
+        <v>176.03</v>
       </c>
       <c r="I36">
         <v>3</v>
@@ -2304,10 +2304,10 @@
         <v>3</v>
       </c>
       <c r="G37">
-        <v>100</v>
+        <v>113.52</v>
       </c>
       <c r="H37">
-        <v>115</v>
+        <v>184.96</v>
       </c>
       <c r="I37">
         <v>3</v>
@@ -2336,10 +2336,10 @@
         <v>3</v>
       </c>
       <c r="G38">
-        <v>100</v>
+        <v>157.76</v>
       </c>
       <c r="H38">
-        <v>115</v>
+        <v>215.56</v>
       </c>
       <c r="I38">
         <v>3</v>
@@ -2368,10 +2368,10 @@
         <v>3</v>
       </c>
       <c r="G39">
-        <v>100</v>
+        <v>139.02000000000001</v>
       </c>
       <c r="H39">
-        <v>115</v>
+        <v>226.49</v>
       </c>
       <c r="I39">
         <v>3</v>
@@ -2400,10 +2400,10 @@
         <v>3</v>
       </c>
       <c r="G40">
-        <v>100</v>
+        <v>193.2</v>
       </c>
       <c r="H40">
-        <v>115</v>
+        <v>263.97000000000003</v>
       </c>
       <c r="I40">
         <v>3</v>
@@ -2432,10 +2432,10 @@
         <v>1</v>
       </c>
       <c r="G41">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H41">
-        <v>115</v>
+        <v>14.1</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -2461,10 +2461,10 @@
         <v>1</v>
       </c>
       <c r="G42">
-        <v>100</v>
+        <v>10.3</v>
       </c>
       <c r="H42">
-        <v>115</v>
+        <v>13.5</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>1</v>
       </c>
       <c r="G43">
-        <v>100</v>
+        <v>13.35</v>
       </c>
       <c r="H43">
-        <v>115</v>
+        <v>19.95</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -2519,10 +2519,10 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <v>100</v>
+        <v>12.93</v>
       </c>
       <c r="H44">
-        <v>115</v>
+        <v>19.39</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -2548,10 +2548,10 @@
         <v>2</v>
       </c>
       <c r="G45">
-        <v>100</v>
+        <v>21.64</v>
       </c>
       <c r="H45">
-        <v>115</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -2586,10 +2586,10 @@
         <v>2</v>
       </c>
       <c r="G46">
-        <v>100</v>
+        <v>20.93</v>
       </c>
       <c r="H46">
-        <v>115</v>
+        <v>32.58</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>2</v>
       </c>
       <c r="G47">
-        <v>100</v>
+        <v>49.66</v>
       </c>
       <c r="H47">
-        <v>115</v>
+        <v>75.319999999999993</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -2644,10 +2644,10 @@
         <v>2</v>
       </c>
       <c r="G48">
-        <v>100</v>
+        <v>44.21</v>
       </c>
       <c r="H48">
-        <v>115</v>
+        <v>79.14</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -2673,10 +2673,10 @@
         <v>3</v>
       </c>
       <c r="G49">
-        <v>100</v>
+        <v>128.83000000000001</v>
       </c>
       <c r="H49">
-        <v>115</v>
+        <v>176.03</v>
       </c>
       <c r="I49">
         <v>3</v>
@@ -2705,10 +2705,10 @@
         <v>3</v>
       </c>
       <c r="G50">
-        <v>100</v>
+        <v>113.52</v>
       </c>
       <c r="H50">
-        <v>115</v>
+        <v>184.96</v>
       </c>
       <c r="I50">
         <v>3</v>
@@ -2737,10 +2737,10 @@
         <v>3</v>
       </c>
       <c r="G51">
-        <v>100</v>
+        <v>157.76</v>
       </c>
       <c r="H51">
-        <v>115</v>
+        <v>215.56</v>
       </c>
       <c r="I51">
         <v>3</v>
@@ -2769,10 +2769,10 @@
         <v>3</v>
       </c>
       <c r="G52">
-        <v>100</v>
+        <v>139.02000000000001</v>
       </c>
       <c r="H52">
-        <v>115</v>
+        <v>226.49</v>
       </c>
       <c r="I52">
         <v>3</v>
@@ -2801,10 +2801,10 @@
         <v>3</v>
       </c>
       <c r="G53">
-        <v>100</v>
+        <v>193.2</v>
       </c>
       <c r="H53">
-        <v>115</v>
+        <v>263.97000000000003</v>
       </c>
       <c r="I53">
         <v>3</v>
@@ -2833,10 +2833,10 @@
         <v>1</v>
       </c>
       <c r="G54">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H54">
-        <v>115</v>
+        <v>14.1</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -2871,10 +2871,10 @@
         <v>1</v>
       </c>
       <c r="G55">
-        <v>100</v>
+        <v>10.3</v>
       </c>
       <c r="H55">
-        <v>115</v>
+        <v>13.5</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -2900,10 +2900,10 @@
         <v>1</v>
       </c>
       <c r="G56">
-        <v>100</v>
+        <v>13.35</v>
       </c>
       <c r="H56">
-        <v>115</v>
+        <v>19.95</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -2929,10 +2929,10 @@
         <v>1</v>
       </c>
       <c r="G57">
-        <v>100</v>
+        <v>12.93</v>
       </c>
       <c r="H57">
-        <v>115</v>
+        <v>19.39</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -2958,10 +2958,10 @@
         <v>2</v>
       </c>
       <c r="G58">
-        <v>100</v>
+        <v>21.64</v>
       </c>
       <c r="H58">
-        <v>115</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -2987,10 +2987,10 @@
         <v>2</v>
       </c>
       <c r="G59">
-        <v>100</v>
+        <v>20.93</v>
       </c>
       <c r="H59">
-        <v>115</v>
+        <v>32.58</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -3016,10 +3016,10 @@
         <v>2</v>
       </c>
       <c r="G60">
-        <v>100</v>
+        <v>49.66</v>
       </c>
       <c r="H60">
-        <v>115</v>
+        <v>75.319999999999993</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -3045,10 +3045,10 @@
         <v>2</v>
       </c>
       <c r="G61">
-        <v>100</v>
+        <v>44.21</v>
       </c>
       <c r="H61">
-        <v>115</v>
+        <v>79.14</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -3074,10 +3074,10 @@
         <v>3</v>
       </c>
       <c r="G62">
-        <v>100</v>
+        <v>128.83000000000001</v>
       </c>
       <c r="H62">
-        <v>115</v>
+        <v>176.03</v>
       </c>
       <c r="I62">
         <v>3</v>
@@ -3106,10 +3106,10 @@
         <v>3</v>
       </c>
       <c r="G63">
-        <v>100</v>
+        <v>113.52</v>
       </c>
       <c r="H63">
-        <v>115</v>
+        <v>184.96</v>
       </c>
       <c r="I63">
         <v>3</v>
@@ -3138,10 +3138,10 @@
         <v>3</v>
       </c>
       <c r="G64">
-        <v>100</v>
+        <v>157.76</v>
       </c>
       <c r="H64">
-        <v>115</v>
+        <v>215.56</v>
       </c>
       <c r="I64">
         <v>3</v>
@@ -3170,10 +3170,10 @@
         <v>3</v>
       </c>
       <c r="G65">
-        <v>100</v>
+        <v>139.02000000000001</v>
       </c>
       <c r="H65">
-        <v>115</v>
+        <v>226.49</v>
       </c>
       <c r="I65">
         <v>3</v>
@@ -3202,10 +3202,10 @@
         <v>3</v>
       </c>
       <c r="G66">
-        <v>100</v>
+        <v>193.2</v>
       </c>
       <c r="H66">
-        <v>115</v>
+        <v>263.97000000000003</v>
       </c>
       <c r="I66">
         <v>3</v>
@@ -3234,10 +3234,10 @@
         <v>1</v>
       </c>
       <c r="G67">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H67">
-        <v>115</v>
+        <v>14.1</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -3272,10 +3272,10 @@
         <v>1</v>
       </c>
       <c r="G68">
-        <v>100</v>
+        <v>10.3</v>
       </c>
       <c r="H68">
-        <v>115</v>
+        <v>13.5</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -3310,10 +3310,10 @@
         <v>1</v>
       </c>
       <c r="G69">
-        <v>100</v>
+        <v>13.35</v>
       </c>
       <c r="H69">
-        <v>115</v>
+        <v>19.95</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -3348,10 +3348,10 @@
         <v>1</v>
       </c>
       <c r="G70">
-        <v>100</v>
+        <v>12.93</v>
       </c>
       <c r="H70">
-        <v>115</v>
+        <v>19.39</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -3377,10 +3377,10 @@
         <v>2</v>
       </c>
       <c r="G71">
-        <v>100</v>
+        <v>21.64</v>
       </c>
       <c r="H71">
-        <v>115</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -3406,10 +3406,10 @@
         <v>2</v>
       </c>
       <c r="G72">
-        <v>100</v>
+        <v>20.93</v>
       </c>
       <c r="H72">
-        <v>115</v>
+        <v>32.58</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>2</v>
       </c>
       <c r="G73">
-        <v>100</v>
+        <v>49.66</v>
       </c>
       <c r="H73">
-        <v>115</v>
+        <v>75.319999999999993</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -3464,10 +3464,10 @@
         <v>2</v>
       </c>
       <c r="G74">
-        <v>100</v>
+        <v>44.21</v>
       </c>
       <c r="H74">
-        <v>115</v>
+        <v>79.14</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -3493,10 +3493,10 @@
         <v>3</v>
       </c>
       <c r="G75">
-        <v>100</v>
+        <v>128.83000000000001</v>
       </c>
       <c r="H75">
-        <v>115</v>
+        <v>176.03</v>
       </c>
       <c r="I75">
         <v>3</v>
@@ -3525,10 +3525,10 @@
         <v>3</v>
       </c>
       <c r="G76">
-        <v>100</v>
+        <v>113.52</v>
       </c>
       <c r="H76">
-        <v>115</v>
+        <v>184.96</v>
       </c>
       <c r="I76">
         <v>3</v>
@@ -3557,10 +3557,10 @@
         <v>3</v>
       </c>
       <c r="G77">
-        <v>100</v>
+        <v>157.76</v>
       </c>
       <c r="H77">
-        <v>115</v>
+        <v>215.56</v>
       </c>
       <c r="I77">
         <v>3</v>
@@ -3589,10 +3589,10 @@
         <v>3</v>
       </c>
       <c r="G78">
-        <v>100</v>
+        <v>139.02000000000001</v>
       </c>
       <c r="H78">
-        <v>115</v>
+        <v>226.49</v>
       </c>
       <c r="I78">
         <v>3</v>
@@ -3621,10 +3621,10 @@
         <v>3</v>
       </c>
       <c r="G79">
-        <v>100</v>
+        <v>193.2</v>
       </c>
       <c r="H79">
-        <v>115</v>
+        <v>263.97000000000003</v>
       </c>
       <c r="I79">
         <v>3</v>
@@ -3653,10 +3653,10 @@
         <v>1</v>
       </c>
       <c r="G80">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H80">
-        <v>115</v>
+        <v>14.1</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -3691,10 +3691,10 @@
         <v>1</v>
       </c>
       <c r="G81">
-        <v>100</v>
+        <v>10.3</v>
       </c>
       <c r="H81">
-        <v>115</v>
+        <v>13.5</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>1</v>
       </c>
       <c r="G82">
-        <v>100</v>
+        <v>13.35</v>
       </c>
       <c r="H82">
-        <v>115</v>
+        <v>19.95</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -3749,10 +3749,10 @@
         <v>1</v>
       </c>
       <c r="G83">
-        <v>100</v>
+        <v>12.93</v>
       </c>
       <c r="H83">
-        <v>115</v>
+        <v>19.39</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -3778,10 +3778,10 @@
         <v>2</v>
       </c>
       <c r="G84">
-        <v>100</v>
+        <v>21.64</v>
       </c>
       <c r="H84">
-        <v>115</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -3807,10 +3807,10 @@
         <v>2</v>
       </c>
       <c r="G85">
-        <v>100</v>
+        <v>20.93</v>
       </c>
       <c r="H85">
-        <v>115</v>
+        <v>32.58</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>2</v>
       </c>
       <c r="G86">
-        <v>100</v>
+        <v>49.66</v>
       </c>
       <c r="H86">
-        <v>115</v>
+        <v>75.319999999999993</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -3865,10 +3865,10 @@
         <v>2</v>
       </c>
       <c r="G87">
-        <v>100</v>
+        <v>44.21</v>
       </c>
       <c r="H87">
-        <v>115</v>
+        <v>79.14</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -3894,10 +3894,10 @@
         <v>3</v>
       </c>
       <c r="G88">
-        <v>100</v>
+        <v>128.83000000000001</v>
       </c>
       <c r="H88">
-        <v>115</v>
+        <v>176.03</v>
       </c>
       <c r="I88">
         <v>3</v>
@@ -3926,10 +3926,10 @@
         <v>3</v>
       </c>
       <c r="G89">
-        <v>100</v>
+        <v>113.52</v>
       </c>
       <c r="H89">
-        <v>115</v>
+        <v>184.96</v>
       </c>
       <c r="I89">
         <v>3</v>
@@ -3958,10 +3958,10 @@
         <v>3</v>
       </c>
       <c r="G90">
-        <v>100</v>
+        <v>157.76</v>
       </c>
       <c r="H90">
-        <v>115</v>
+        <v>215.56</v>
       </c>
       <c r="I90">
         <v>3</v>
@@ -3990,10 +3990,10 @@
         <v>3</v>
       </c>
       <c r="G91">
-        <v>100</v>
+        <v>139.02000000000001</v>
       </c>
       <c r="H91">
-        <v>115</v>
+        <v>226.49</v>
       </c>
       <c r="I91">
         <v>3</v>
@@ -4022,10 +4022,10 @@
         <v>3</v>
       </c>
       <c r="G92">
-        <v>100</v>
+        <v>193.2</v>
       </c>
       <c r="H92">
-        <v>115</v>
+        <v>263.97000000000003</v>
       </c>
       <c r="I92">
         <v>3</v>
@@ -4054,10 +4054,10 @@
         <v>1</v>
       </c>
       <c r="G93">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H93">
-        <v>115</v>
+        <v>14.1</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -4083,10 +4083,10 @@
         <v>1</v>
       </c>
       <c r="G94">
-        <v>100</v>
+        <v>10.3</v>
       </c>
       <c r="H94">
-        <v>115</v>
+        <v>13.5</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -4112,10 +4112,10 @@
         <v>1</v>
       </c>
       <c r="G95">
-        <v>100</v>
+        <v>13.35</v>
       </c>
       <c r="H95">
-        <v>115</v>
+        <v>19.95</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -4141,10 +4141,10 @@
         <v>1</v>
       </c>
       <c r="G96">
-        <v>100</v>
+        <v>12.93</v>
       </c>
       <c r="H96">
-        <v>115</v>
+        <v>19.39</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -4170,10 +4170,10 @@
         <v>2</v>
       </c>
       <c r="G97">
-        <v>100</v>
+        <v>21.64</v>
       </c>
       <c r="H97">
-        <v>115</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -4199,10 +4199,10 @@
         <v>2</v>
       </c>
       <c r="G98">
-        <v>100</v>
+        <v>20.93</v>
       </c>
       <c r="H98">
-        <v>115</v>
+        <v>32.58</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -4228,10 +4228,10 @@
         <v>2</v>
       </c>
       <c r="G99">
-        <v>100</v>
+        <v>49.66</v>
       </c>
       <c r="H99">
-        <v>115</v>
+        <v>75.319999999999993</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -4257,10 +4257,10 @@
         <v>2</v>
       </c>
       <c r="G100">
-        <v>100</v>
+        <v>44.21</v>
       </c>
       <c r="H100">
-        <v>115</v>
+        <v>79.14</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -4286,10 +4286,10 @@
         <v>3</v>
       </c>
       <c r="G101">
-        <v>100</v>
+        <v>128.83000000000001</v>
       </c>
       <c r="H101">
-        <v>115</v>
+        <v>176.03</v>
       </c>
       <c r="I101">
         <v>3</v>
@@ -4327,10 +4327,10 @@
         <v>3</v>
       </c>
       <c r="G102">
-        <v>100</v>
+        <v>113.52</v>
       </c>
       <c r="H102">
-        <v>115</v>
+        <v>184.96</v>
       </c>
       <c r="I102">
         <v>3</v>
@@ -4359,10 +4359,10 @@
         <v>3</v>
       </c>
       <c r="G103">
-        <v>100</v>
+        <v>157.76</v>
       </c>
       <c r="H103">
-        <v>115</v>
+        <v>215.56</v>
       </c>
       <c r="I103">
         <v>3</v>
@@ -4391,10 +4391,10 @@
         <v>3</v>
       </c>
       <c r="G104">
-        <v>100</v>
+        <v>139.02000000000001</v>
       </c>
       <c r="H104">
-        <v>115</v>
+        <v>226.49</v>
       </c>
       <c r="I104">
         <v>3</v>
@@ -4423,10 +4423,10 @@
         <v>3</v>
       </c>
       <c r="G105">
-        <v>100</v>
+        <v>193.2</v>
       </c>
       <c r="H105">
-        <v>115</v>
+        <v>263.97000000000003</v>
       </c>
       <c r="I105">
         <v>3</v>
@@ -4455,10 +4455,10 @@
         <v>1</v>
       </c>
       <c r="G106">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H106">
-        <v>115</v>
+        <v>14.1</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -4493,10 +4493,10 @@
         <v>1</v>
       </c>
       <c r="G107">
-        <v>100</v>
+        <v>10.3</v>
       </c>
       <c r="H107">
-        <v>115</v>
+        <v>13.5</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -4531,10 +4531,10 @@
         <v>1</v>
       </c>
       <c r="G108">
-        <v>100</v>
+        <v>13.35</v>
       </c>
       <c r="H108">
-        <v>115</v>
+        <v>19.95</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -4560,10 +4560,10 @@
         <v>1</v>
       </c>
       <c r="G109">
-        <v>100</v>
+        <v>12.93</v>
       </c>
       <c r="H109">
-        <v>115</v>
+        <v>19.39</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -4589,10 +4589,10 @@
         <v>2</v>
       </c>
       <c r="G110">
-        <v>100</v>
+        <v>21.64</v>
       </c>
       <c r="H110">
-        <v>115</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -4618,10 +4618,10 @@
         <v>2</v>
       </c>
       <c r="G111">
-        <v>100</v>
+        <v>20.93</v>
       </c>
       <c r="H111">
-        <v>115</v>
+        <v>32.58</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -4647,10 +4647,10 @@
         <v>2</v>
       </c>
       <c r="G112">
-        <v>100</v>
+        <v>49.66</v>
       </c>
       <c r="H112">
-        <v>115</v>
+        <v>75.319999999999993</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -4676,10 +4676,10 @@
         <v>2</v>
       </c>
       <c r="G113">
-        <v>100</v>
+        <v>44.21</v>
       </c>
       <c r="H113">
-        <v>115</v>
+        <v>79.14</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -4705,10 +4705,10 @@
         <v>3</v>
       </c>
       <c r="G114">
-        <v>100</v>
+        <v>128.83000000000001</v>
       </c>
       <c r="H114">
-        <v>115</v>
+        <v>176.03</v>
       </c>
       <c r="I114">
         <v>3</v>
@@ -4737,10 +4737,10 @@
         <v>3</v>
       </c>
       <c r="G115">
-        <v>100</v>
+        <v>113.52</v>
       </c>
       <c r="H115">
-        <v>115</v>
+        <v>184.96</v>
       </c>
       <c r="I115">
         <v>3</v>
@@ -4769,10 +4769,10 @@
         <v>3</v>
       </c>
       <c r="G116">
-        <v>100</v>
+        <v>157.76</v>
       </c>
       <c r="H116">
-        <v>115</v>
+        <v>215.56</v>
       </c>
       <c r="I116">
         <v>3</v>
@@ -4801,10 +4801,10 @@
         <v>3</v>
       </c>
       <c r="G117">
-        <v>100</v>
+        <v>139.02000000000001</v>
       </c>
       <c r="H117">
-        <v>115</v>
+        <v>226.49</v>
       </c>
       <c r="I117">
         <v>3</v>
@@ -4833,10 +4833,10 @@
         <v>3</v>
       </c>
       <c r="G118">
-        <v>100</v>
+        <v>193.2</v>
       </c>
       <c r="H118">
-        <v>115</v>
+        <v>263.97000000000003</v>
       </c>
       <c r="I118">
         <v>3</v>
@@ -4858,7 +4858,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5130,7 +5130,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1.0900000000000001</v>
+        <v>1.095</v>
       </c>
       <c r="D9">
         <v>0.28571428599999998</v>
@@ -5162,7 +5162,7 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>1.1880999999999999</v>
+        <v>1.1990000000000001</v>
       </c>
       <c r="D10">
         <v>0.26455026500000001</v>
@@ -5194,7 +5194,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>1.2949999999999999</v>
+        <v>1.3129</v>
       </c>
       <c r="D11">
         <v>0.244953949</v>
@@ -5226,7 +5226,7 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>1.4116</v>
+        <v>1.4377</v>
       </c>
       <c r="D12">
         <v>0.22680921200000001</v>
@@ -5258,7 +5258,7 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>1.5386</v>
+        <v>1.5742</v>
       </c>
       <c r="D13">
         <v>0.18900767600000001</v>
@@ -5290,7 +5290,7 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <v>1.6771</v>
+        <v>1.7238</v>
       </c>
       <c r="D14">
         <v>0.17500710799999999</v>
@@ -5322,7 +5322,7 @@
         <v>7</v>
       </c>
       <c r="C15">
-        <v>1.8280000000000001</v>
+        <v>1.8875999999999999</v>
       </c>
       <c r="D15">
         <v>0.162043618</v>
@@ -5354,7 +5354,7 @@
         <v>8</v>
       </c>
       <c r="C16">
-        <v>1.9925999999999999</v>
+        <v>2.0669</v>
       </c>
       <c r="D16">
         <v>0.150040387</v>
@@ -5386,7 +5386,7 @@
         <v>9</v>
       </c>
       <c r="C17">
-        <v>2.1718999999999999</v>
+        <v>2.2631999999999999</v>
       </c>
       <c r="D17">
         <v>0.13892628500000001</v>
@@ -5418,7 +5418,7 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>2.3673999999999999</v>
+        <v>2.4782000000000002</v>
       </c>
       <c r="D18">
         <v>0.106866373</v>
@@ -5482,7 +5482,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>1.0900000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D20">
         <v>8.1632652999999999E-2</v>
@@ -5514,7 +5514,7 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>1.1880999999999999</v>
+        <v>1.21</v>
       </c>
       <c r="D21">
         <v>7.558579E-2</v>
@@ -5546,7 +5546,7 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>1.2949999999999999</v>
+        <v>1.331</v>
       </c>
       <c r="D22">
         <v>6.9986841999999994E-2</v>
@@ -5578,7 +5578,7 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>1.4116</v>
+        <v>1.4641</v>
       </c>
       <c r="D23">
         <v>6.4802631999999999E-2</v>
@@ -5610,7 +5610,7 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>1.5386</v>
+        <v>1.6105</v>
       </c>
       <c r="D24">
         <v>5.4002192999999997E-2</v>
@@ -5642,7 +5642,7 @@
         <v>6</v>
       </c>
       <c r="C25">
-        <v>1.6771</v>
+        <v>1.7716000000000001</v>
       </c>
       <c r="D25">
         <v>5.0002031000000002E-2</v>
@@ -5674,7 +5674,7 @@
         <v>7</v>
       </c>
       <c r="C26">
-        <v>1.8280000000000001</v>
+        <v>1.9487000000000001</v>
       </c>
       <c r="D26">
         <v>4.6298177000000003E-2</v>
@@ -5706,7 +5706,7 @@
         <v>8</v>
       </c>
       <c r="C27">
-        <v>1.9925999999999999</v>
+        <v>2.1436000000000002</v>
       </c>
       <c r="D27">
         <v>4.2868681999999998E-2</v>
@@ -5738,7 +5738,7 @@
         <v>9</v>
       </c>
       <c r="C28">
-        <v>2.1718999999999999</v>
+        <v>2.3578999999999999</v>
       </c>
       <c r="D28">
         <v>3.9693223999999999E-2</v>
@@ -5770,7 +5770,7 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>2.3673999999999999</v>
+        <v>2.5937000000000001</v>
       </c>
       <c r="D29">
         <v>3.0533248999999998E-2</v>
@@ -5802,7 +5802,7 @@
         <v>11</v>
       </c>
       <c r="C30">
-        <v>2.5804</v>
+        <v>2.8531</v>
       </c>
       <c r="D30">
         <v>2.8271527000000001E-2</v>
@@ -5834,7 +5834,7 @@
         <v>12</v>
       </c>
       <c r="C31">
-        <v>2.8127</v>
+        <v>3.1383999999999999</v>
       </c>
       <c r="D31">
         <v>2.617734E-2</v>
@@ -5866,7 +5866,7 @@
         <v>13</v>
       </c>
       <c r="C32">
-        <v>3.0657999999999999</v>
+        <v>3.4523000000000001</v>
       </c>
       <c r="D32">
         <v>2.4238277999999999E-2</v>
@@ -5898,7 +5898,7 @@
         <v>14</v>
       </c>
       <c r="C33">
-        <v>3.3416999999999999</v>
+        <v>3.7974999999999999</v>
       </c>
       <c r="D33">
         <v>2.244285E-2</v>
@@ -5930,7 +5930,7 @@
         <v>15</v>
       </c>
       <c r="C34">
-        <v>3.6425000000000001</v>
+        <v>4.1772</v>
       </c>
       <c r="D34">
         <v>1.4026781E-2</v>
@@ -5994,7 +5994,7 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>1.0900000000000001</v>
+        <v>1.105</v>
       </c>
       <c r="D36">
         <v>2.3323614999999999E-2</v>
@@ -6026,7 +6026,7 @@
         <v>2</v>
       </c>
       <c r="C37">
-        <v>1.1880999999999999</v>
+        <v>1.2210000000000001</v>
       </c>
       <c r="D37">
         <v>2.1595940000000001E-2</v>
@@ -6058,7 +6058,7 @@
         <v>3</v>
       </c>
       <c r="C38">
-        <v>1.2949999999999999</v>
+        <v>1.3492</v>
       </c>
       <c r="D38">
         <v>1.9996241000000001E-2</v>
@@ -6090,7 +6090,7 @@
         <v>4</v>
       </c>
       <c r="C39">
-        <v>1.4116</v>
+        <v>1.4908999999999999</v>
       </c>
       <c r="D39">
         <v>1.8515038000000001E-2</v>
@@ -6122,7 +6122,7 @@
         <v>5</v>
       </c>
       <c r="C40">
-        <v>1.5386</v>
+        <v>1.6474</v>
       </c>
       <c r="D40">
         <v>1.5429198E-2</v>
@@ -6154,7 +6154,7 @@
         <v>6</v>
       </c>
       <c r="C41">
-        <v>1.6771</v>
+        <v>1.8204</v>
       </c>
       <c r="D41">
         <v>1.4286294999999999E-2</v>
@@ -6186,7 +6186,7 @@
         <v>7</v>
       </c>
       <c r="C42">
-        <v>1.8280000000000001</v>
+        <v>2.0116000000000001</v>
       </c>
       <c r="D42">
         <v>1.322805E-2</v>
@@ -6218,7 +6218,7 @@
         <v>8</v>
       </c>
       <c r="C43">
-        <v>1.9925999999999999</v>
+        <v>2.2227999999999999</v>
       </c>
       <c r="D43">
         <v>1.2248195E-2</v>
@@ -6250,7 +6250,7 @@
         <v>9</v>
       </c>
       <c r="C44">
-        <v>2.1718999999999999</v>
+        <v>2.4561999999999999</v>
       </c>
       <c r="D44">
         <v>1.1340921E-2</v>
@@ -6282,7 +6282,7 @@
         <v>10</v>
       </c>
       <c r="C45">
-        <v>2.3673999999999999</v>
+        <v>2.7141000000000002</v>
       </c>
       <c r="D45">
         <v>8.7237860000000007E-3</v>
@@ -6314,7 +6314,7 @@
         <v>11</v>
       </c>
       <c r="C46">
-        <v>2.5804</v>
+        <v>2.9990999999999999</v>
       </c>
       <c r="D46">
         <v>8.0775789999999997E-3</v>
@@ -6346,7 +6346,7 @@
         <v>12</v>
       </c>
       <c r="C47">
-        <v>2.8127</v>
+        <v>3.3140000000000001</v>
       </c>
       <c r="D47">
         <v>7.4792399999999998E-3</v>
@@ -6378,7 +6378,7 @@
         <v>13</v>
       </c>
       <c r="C48">
-        <v>3.0657999999999999</v>
+        <v>3.6619000000000002</v>
       </c>
       <c r="D48">
         <v>6.925222E-3</v>
@@ -6410,7 +6410,7 @@
         <v>14</v>
       </c>
       <c r="C49">
-        <v>3.3416999999999999</v>
+        <v>4.0464000000000002</v>
       </c>
       <c r="D49">
         <v>6.4122429999999998E-3</v>
@@ -6442,7 +6442,7 @@
         <v>15</v>
       </c>
       <c r="C50">
-        <v>3.6425000000000001</v>
+        <v>4.4713000000000003</v>
       </c>
       <c r="D50">
         <v>4.0076519999999996E-3</v>
@@ -6474,7 +6474,7 @@
         <v>16</v>
       </c>
       <c r="C51">
-        <v>3.9702999999999999</v>
+        <v>4.9408000000000003</v>
       </c>
       <c r="D51">
         <v>3.7107889999999999E-3</v>
@@ -6506,7 +6506,7 @@
         <v>17</v>
       </c>
       <c r="C52">
-        <v>4.3276000000000003</v>
+        <v>5.4596</v>
       </c>
       <c r="D52">
         <v>3.4359149999999999E-3</v>
@@ -6538,7 +6538,7 @@
         <v>18</v>
       </c>
       <c r="C53">
-        <v>4.7171000000000003</v>
+        <v>6.0327999999999999</v>
       </c>
       <c r="D53">
         <v>3.1814030000000002E-3</v>
@@ -6570,7 +6570,7 @@
         <v>19</v>
       </c>
       <c r="C54">
-        <v>5.1417000000000002</v>
+        <v>6.6662999999999997</v>
       </c>
       <c r="D54">
         <v>2.9457440000000001E-3</v>
@@ -6602,7 +6602,7 @@
         <v>20</v>
       </c>
       <c r="C55">
-        <v>5.6044</v>
+        <v>7.3662000000000001</v>
       </c>
       <c r="D55">
         <v>1.7327899999999999E-3</v>
@@ -6666,7 +6666,7 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>1.0900000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D57">
         <v>6.6638899999999996E-3</v>
@@ -6698,7 +6698,7 @@
         <v>2</v>
       </c>
       <c r="C58">
-        <v>1.1880999999999999</v>
+        <v>1.2321</v>
       </c>
       <c r="D58">
         <v>6.1702689999999999E-3</v>
@@ -6730,7 +6730,7 @@
         <v>3</v>
       </c>
       <c r="C59">
-        <v>1.2949999999999999</v>
+        <v>1.3675999999999999</v>
       </c>
       <c r="D59">
         <v>5.7132119999999996E-3</v>
@@ -6762,7 +6762,7 @@
         <v>4</v>
       </c>
       <c r="C60">
-        <v>1.4116</v>
+        <v>1.5181</v>
       </c>
       <c r="D60">
         <v>5.2900109999999998E-3</v>
@@ -6794,7 +6794,7 @@
         <v>5</v>
       </c>
       <c r="C61">
-        <v>1.5386</v>
+        <v>1.6851</v>
       </c>
       <c r="D61">
         <v>4.408342E-3</v>
@@ -6826,7 +6826,7 @@
         <v>6</v>
       </c>
       <c r="C62">
-        <v>1.6771</v>
+        <v>1.8704000000000001</v>
       </c>
       <c r="D62">
         <v>4.0817980000000002E-3</v>
@@ -6858,7 +6858,7 @@
         <v>7</v>
       </c>
       <c r="C63">
-        <v>1.8280000000000001</v>
+        <v>2.0762</v>
       </c>
       <c r="D63">
         <v>3.779443E-3</v>
@@ -6890,7 +6890,7 @@
         <v>8</v>
       </c>
       <c r="C64">
-        <v>1.9925999999999999</v>
+        <v>2.3045</v>
       </c>
       <c r="D64">
         <v>3.4994840000000002E-3</v>
@@ -6922,7 +6922,7 @@
         <v>9</v>
       </c>
       <c r="C65">
-        <v>2.1718999999999999</v>
+        <v>2.5579999999999998</v>
       </c>
       <c r="D65">
         <v>3.2402630000000002E-3</v>
@@ -6954,7 +6954,7 @@
         <v>10</v>
       </c>
       <c r="C66">
-        <v>2.3673999999999999</v>
+        <v>2.8393999999999999</v>
       </c>
       <c r="D66">
         <v>2.4925099999999999E-3</v>
@@ -6986,7 +6986,7 @@
         <v>11</v>
       </c>
       <c r="C67">
-        <v>2.5804</v>
+        <v>3.1518000000000002</v>
       </c>
       <c r="D67">
         <v>2.30788E-3</v>
@@ -7018,7 +7018,7 @@
         <v>12</v>
       </c>
       <c r="C68">
-        <v>2.8127</v>
+        <v>3.4984999999999999</v>
       </c>
       <c r="D68">
         <v>2.1369259999999999E-3</v>
@@ -7050,7 +7050,7 @@
         <v>13</v>
       </c>
       <c r="C69">
-        <v>3.0657999999999999</v>
+        <v>3.8833000000000002</v>
       </c>
       <c r="D69">
         <v>1.9786349999999999E-3</v>
@@ -7082,7 +7082,7 @@
         <v>14</v>
       </c>
       <c r="C70">
-        <v>3.3416999999999999</v>
+        <v>4.3103999999999996</v>
       </c>
       <c r="D70">
         <v>1.832069E-3</v>
@@ -7114,7 +7114,7 @@
         <v>15</v>
       </c>
       <c r="C71">
-        <v>3.6425000000000001</v>
+        <v>4.7846000000000002</v>
       </c>
       <c r="D71">
         <v>1.1450430000000001E-3</v>
@@ -7146,7 +7146,7 @@
         <v>16</v>
       </c>
       <c r="C72">
-        <v>3.9702999999999999</v>
+        <v>5.3109000000000002</v>
       </c>
       <c r="D72">
         <v>1.0602249999999999E-3</v>
@@ -7178,7 +7178,7 @@
         <v>17</v>
       </c>
       <c r="C73">
-        <v>4.3276000000000003</v>
+        <v>5.8951000000000002</v>
       </c>
       <c r="D73">
         <v>9.8168999999999991E-4</v>
@@ -7210,7 +7210,7 @@
         <v>18</v>
       </c>
       <c r="C74">
-        <v>4.7171000000000003</v>
+        <v>6.5435999999999996</v>
       </c>
       <c r="D74">
         <v>9.0897199999999997E-4</v>
@@ -7242,7 +7242,7 @@
         <v>19</v>
       </c>
       <c r="C75">
-        <v>5.1417000000000002</v>
+        <v>7.2633000000000001</v>
       </c>
       <c r="D75">
         <v>8.4164099999999996E-4</v>
@@ -7274,7 +7274,7 @@
         <v>20</v>
       </c>
       <c r="C76">
-        <v>5.6044</v>
+        <v>8.0623000000000005</v>
       </c>
       <c r="D76">
         <v>4.95083E-4</v>
@@ -7306,7 +7306,7 @@
         <v>21</v>
       </c>
       <c r="C77">
-        <v>6.1087999999999996</v>
+        <v>8.9491999999999994</v>
       </c>
       <c r="D77">
         <v>4.5841000000000002E-4</v>
@@ -7338,7 +7338,7 @@
         <v>22</v>
       </c>
       <c r="C78">
-        <v>6.6585999999999999</v>
+        <v>9.9336000000000002</v>
       </c>
       <c r="D78">
         <v>4.24454E-4</v>
@@ -7370,7 +7370,7 @@
         <v>23</v>
       </c>
       <c r="C79">
-        <v>7.2579000000000002</v>
+        <v>11.026300000000001</v>
       </c>
       <c r="D79">
         <v>3.93013E-4</v>
@@ -7402,7 +7402,7 @@
         <v>24</v>
       </c>
       <c r="C80">
-        <v>7.9111000000000002</v>
+        <v>12.2392</v>
       </c>
       <c r="D80">
         <v>3.6390100000000002E-4</v>
@@ -7434,7 +7434,7 @@
         <v>25</v>
       </c>
       <c r="C81">
-        <v>8.6231000000000009</v>
+        <v>13.5855</v>
       </c>
       <c r="D81">
         <v>1.8195E-4</v>
@@ -7466,7 +7466,7 @@
         <v>26</v>
       </c>
       <c r="C82">
-        <v>9.3992000000000004</v>
+        <v>15.0799</v>
       </c>
       <c r="D82">
         <v>1.6847300000000001E-4</v>
@@ -7498,7 +7498,7 @@
         <v>27</v>
       </c>
       <c r="C83">
-        <v>10.245100000000001</v>
+        <v>16.738600000000002</v>
       </c>
       <c r="D83">
         <v>1.55993E-4</v>
@@ -7530,7 +7530,7 @@
         <v>28</v>
       </c>
       <c r="C84">
-        <v>11.1671</v>
+        <v>18.579899999999999</v>
       </c>
       <c r="D84">
         <v>1.4443799999999999E-4</v>
@@ -7562,7 +7562,7 @@
         <v>29</v>
       </c>
       <c r="C85">
-        <v>12.1722</v>
+        <v>20.623699999999999</v>
       </c>
       <c r="D85">
         <v>1.3373899999999999E-4</v>
@@ -7594,7 +7594,7 @@
         <v>30</v>
       </c>
       <c r="C86">
-        <v>13.2677</v>
+        <v>22.892299999999999</v>
       </c>
       <c r="D86" s="1">
         <v>4.4579700000000003E-5</v>
@@ -7658,7 +7658,7 @@
         <v>1</v>
       </c>
       <c r="C88">
-        <v>1.0900000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D88">
         <v>6.6638899999999996E-3</v>
@@ -7690,7 +7690,7 @@
         <v>2</v>
       </c>
       <c r="C89">
-        <v>1.1880999999999999</v>
+        <v>1.2321</v>
       </c>
       <c r="D89">
         <v>6.1702689999999999E-3</v>
@@ -7722,7 +7722,7 @@
         <v>3</v>
       </c>
       <c r="C90">
-        <v>1.2949999999999999</v>
+        <v>1.3675999999999999</v>
       </c>
       <c r="D90">
         <v>5.7132119999999996E-3</v>
@@ -7754,7 +7754,7 @@
         <v>4</v>
       </c>
       <c r="C91">
-        <v>1.4116</v>
+        <v>1.5181</v>
       </c>
       <c r="D91">
         <v>5.2900109999999998E-3</v>
@@ -7786,7 +7786,7 @@
         <v>5</v>
       </c>
       <c r="C92">
-        <v>1.5386</v>
+        <v>1.6851</v>
       </c>
       <c r="D92">
         <v>4.408342E-3</v>
@@ -7818,7 +7818,7 @@
         <v>6</v>
       </c>
       <c r="C93">
-        <v>1.6771</v>
+        <v>1.8704000000000001</v>
       </c>
       <c r="D93">
         <v>4.0817980000000002E-3</v>
@@ -7850,7 +7850,7 @@
         <v>7</v>
       </c>
       <c r="C94">
-        <v>1.8280000000000001</v>
+        <v>2.0762</v>
       </c>
       <c r="D94">
         <v>3.779443E-3</v>
@@ -7882,7 +7882,7 @@
         <v>8</v>
       </c>
       <c r="C95">
-        <v>1.9925999999999999</v>
+        <v>2.3045</v>
       </c>
       <c r="D95">
         <v>3.4994840000000002E-3</v>
@@ -7914,7 +7914,7 @@
         <v>9</v>
       </c>
       <c r="C96">
-        <v>2.1718999999999999</v>
+        <v>2.5579999999999998</v>
       </c>
       <c r="D96">
         <v>3.2402630000000002E-3</v>
@@ -7946,7 +7946,7 @@
         <v>10</v>
       </c>
       <c r="C97">
-        <v>2.3673999999999999</v>
+        <v>2.8393999999999999</v>
       </c>
       <c r="D97">
         <v>2.4925099999999999E-3</v>
@@ -7978,7 +7978,7 @@
         <v>11</v>
       </c>
       <c r="C98">
-        <v>2.5804</v>
+        <v>3.1518000000000002</v>
       </c>
       <c r="D98">
         <v>2.30788E-3</v>
@@ -8010,7 +8010,7 @@
         <v>12</v>
       </c>
       <c r="C99">
-        <v>2.8127</v>
+        <v>3.4984999999999999</v>
       </c>
       <c r="D99">
         <v>2.1369259999999999E-3</v>
@@ -8042,7 +8042,7 @@
         <v>13</v>
       </c>
       <c r="C100">
-        <v>3.0657999999999999</v>
+        <v>3.8833000000000002</v>
       </c>
       <c r="D100">
         <v>1.9786349999999999E-3</v>
@@ -8074,7 +8074,7 @@
         <v>14</v>
       </c>
       <c r="C101">
-        <v>3.3416999999999999</v>
+        <v>4.3103999999999996</v>
       </c>
       <c r="D101">
         <v>1.832069E-3</v>
@@ -8106,7 +8106,7 @@
         <v>15</v>
       </c>
       <c r="C102">
-        <v>3.6425000000000001</v>
+        <v>4.7846000000000002</v>
       </c>
       <c r="D102">
         <v>1.1450430000000001E-3</v>
@@ -8138,7 +8138,7 @@
         <v>16</v>
       </c>
       <c r="C103">
-        <v>3.9702999999999999</v>
+        <v>5.3109000000000002</v>
       </c>
       <c r="D103">
         <v>1.0602249999999999E-3</v>
@@ -8170,7 +8170,7 @@
         <v>17</v>
       </c>
       <c r="C104">
-        <v>4.3276000000000003</v>
+        <v>5.8951000000000002</v>
       </c>
       <c r="D104">
         <v>9.8168999999999991E-4</v>
@@ -8202,7 +8202,7 @@
         <v>18</v>
       </c>
       <c r="C105">
-        <v>4.7171000000000003</v>
+        <v>6.5435999999999996</v>
       </c>
       <c r="D105">
         <v>9.0897199999999997E-4</v>
@@ -8234,7 +8234,7 @@
         <v>19</v>
       </c>
       <c r="C106">
-        <v>5.1417000000000002</v>
+        <v>7.2633000000000001</v>
       </c>
       <c r="D106">
         <v>8.4164099999999996E-4</v>
@@ -8266,7 +8266,7 @@
         <v>20</v>
       </c>
       <c r="C107">
-        <v>5.6044</v>
+        <v>8.0623000000000005</v>
       </c>
       <c r="D107">
         <v>4.95083E-4</v>
@@ -8298,7 +8298,7 @@
         <v>21</v>
       </c>
       <c r="C108">
-        <v>6.1087999999999996</v>
+        <v>8.9491999999999994</v>
       </c>
       <c r="D108">
         <v>4.5841000000000002E-4</v>
@@ -8330,7 +8330,7 @@
         <v>22</v>
       </c>
       <c r="C109">
-        <v>6.6585999999999999</v>
+        <v>9.9336000000000002</v>
       </c>
       <c r="D109">
         <v>4.24454E-4</v>
@@ -8362,7 +8362,7 @@
         <v>23</v>
       </c>
       <c r="C110">
-        <v>7.2579000000000002</v>
+        <v>11.026300000000001</v>
       </c>
       <c r="D110">
         <v>3.93013E-4</v>
@@ -8394,7 +8394,7 @@
         <v>24</v>
       </c>
       <c r="C111">
-        <v>7.9111000000000002</v>
+        <v>12.2392</v>
       </c>
       <c r="D111">
         <v>3.6390100000000002E-4</v>
@@ -8426,7 +8426,7 @@
         <v>25</v>
       </c>
       <c r="C112">
-        <v>8.6231000000000009</v>
+        <v>13.5855</v>
       </c>
       <c r="D112">
         <v>1.8195E-4</v>
@@ -8458,7 +8458,7 @@
         <v>26</v>
       </c>
       <c r="C113">
-        <v>9.3992000000000004</v>
+        <v>15.0799</v>
       </c>
       <c r="D113">
         <v>1.6847300000000001E-4</v>
@@ -8490,7 +8490,7 @@
         <v>27</v>
       </c>
       <c r="C114">
-        <v>10.245100000000001</v>
+        <v>16.738600000000002</v>
       </c>
       <c r="D114">
         <v>1.55993E-4</v>
@@ -8522,7 +8522,7 @@
         <v>28</v>
       </c>
       <c r="C115">
-        <v>11.1671</v>
+        <v>18.579899999999999</v>
       </c>
       <c r="D115">
         <v>1.4443799999999999E-4</v>
@@ -8554,7 +8554,7 @@
         <v>29</v>
       </c>
       <c r="C116">
-        <v>12.1722</v>
+        <v>20.623699999999999</v>
       </c>
       <c r="D116">
         <v>1.3373899999999999E-4</v>
@@ -8586,7 +8586,7 @@
         <v>30</v>
       </c>
       <c r="C117">
-        <v>13.2677</v>
+        <v>22.892299999999999</v>
       </c>
       <c r="D117" s="1">
         <v>4.4579700000000003E-5</v>
@@ -8650,7 +8650,7 @@
         <v>1</v>
       </c>
       <c r="C119">
-        <v>1.0900000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D119">
         <v>6.6638899999999996E-3</v>
@@ -8682,7 +8682,7 @@
         <v>2</v>
       </c>
       <c r="C120">
-        <v>1.1880999999999999</v>
+        <v>1.2321</v>
       </c>
       <c r="D120">
         <v>6.1702689999999999E-3</v>
@@ -8714,7 +8714,7 @@
         <v>3</v>
       </c>
       <c r="C121">
-        <v>1.2949999999999999</v>
+        <v>1.3675999999999999</v>
       </c>
       <c r="D121">
         <v>5.7132119999999996E-3</v>
@@ -8746,7 +8746,7 @@
         <v>4</v>
       </c>
       <c r="C122">
-        <v>1.4116</v>
+        <v>1.5181</v>
       </c>
       <c r="D122">
         <v>5.2900109999999998E-3</v>
@@ -8778,7 +8778,7 @@
         <v>5</v>
       </c>
       <c r="C123">
-        <v>1.5386</v>
+        <v>1.6851</v>
       </c>
       <c r="D123">
         <v>4.408342E-3</v>
@@ -8810,7 +8810,7 @@
         <v>6</v>
       </c>
       <c r="C124">
-        <v>1.6771</v>
+        <v>1.8704000000000001</v>
       </c>
       <c r="D124">
         <v>4.0817980000000002E-3</v>
@@ -8842,7 +8842,7 @@
         <v>7</v>
       </c>
       <c r="C125">
-        <v>1.8280000000000001</v>
+        <v>2.0762</v>
       </c>
       <c r="D125">
         <v>3.779443E-3</v>
@@ -8874,7 +8874,7 @@
         <v>8</v>
       </c>
       <c r="C126">
-        <v>1.9925999999999999</v>
+        <v>2.3045</v>
       </c>
       <c r="D126">
         <v>3.4994840000000002E-3</v>
@@ -8906,7 +8906,7 @@
         <v>9</v>
       </c>
       <c r="C127">
-        <v>2.1718999999999999</v>
+        <v>2.5579999999999998</v>
       </c>
       <c r="D127">
         <v>3.2402630000000002E-3</v>
@@ -8938,7 +8938,7 @@
         <v>10</v>
       </c>
       <c r="C128">
-        <v>2.3673999999999999</v>
+        <v>2.8393999999999999</v>
       </c>
       <c r="D128">
         <v>2.4925099999999999E-3</v>
@@ -8970,7 +8970,7 @@
         <v>11</v>
       </c>
       <c r="C129">
-        <v>2.5804</v>
+        <v>3.1518000000000002</v>
       </c>
       <c r="D129">
         <v>2.30788E-3</v>
@@ -9002,7 +9002,7 @@
         <v>12</v>
       </c>
       <c r="C130">
-        <v>2.8127</v>
+        <v>3.4984999999999999</v>
       </c>
       <c r="D130">
         <v>2.1369259999999999E-3</v>
@@ -9034,7 +9034,7 @@
         <v>13</v>
       </c>
       <c r="C131">
-        <v>3.0657999999999999</v>
+        <v>3.8833000000000002</v>
       </c>
       <c r="D131">
         <v>1.9786349999999999E-3</v>
@@ -9066,7 +9066,7 @@
         <v>14</v>
       </c>
       <c r="C132">
-        <v>3.3416999999999999</v>
+        <v>4.3103999999999996</v>
       </c>
       <c r="D132">
         <v>1.832069E-3</v>
@@ -9098,7 +9098,7 @@
         <v>15</v>
       </c>
       <c r="C133">
-        <v>3.6425000000000001</v>
+        <v>4.7846000000000002</v>
       </c>
       <c r="D133">
         <v>1.1450430000000001E-3</v>
@@ -9130,7 +9130,7 @@
         <v>16</v>
       </c>
       <c r="C134">
-        <v>3.9702999999999999</v>
+        <v>5.3109000000000002</v>
       </c>
       <c r="D134">
         <v>1.0602249999999999E-3</v>
@@ -9162,7 +9162,7 @@
         <v>17</v>
       </c>
       <c r="C135">
-        <v>4.3276000000000003</v>
+        <v>5.8951000000000002</v>
       </c>
       <c r="D135">
         <v>9.8168999999999991E-4</v>
@@ -9194,7 +9194,7 @@
         <v>18</v>
       </c>
       <c r="C136">
-        <v>4.7171000000000003</v>
+        <v>6.5435999999999996</v>
       </c>
       <c r="D136">
         <v>9.0897199999999997E-4</v>
@@ -9226,7 +9226,7 @@
         <v>19</v>
       </c>
       <c r="C137">
-        <v>5.1417000000000002</v>
+        <v>7.2633000000000001</v>
       </c>
       <c r="D137">
         <v>8.4164099999999996E-4</v>
@@ -9258,7 +9258,7 @@
         <v>20</v>
       </c>
       <c r="C138">
-        <v>5.6044</v>
+        <v>8.0623000000000005</v>
       </c>
       <c r="D138">
         <v>4.95083E-4</v>
@@ -9290,7 +9290,7 @@
         <v>21</v>
       </c>
       <c r="C139">
-        <v>6.1087999999999996</v>
+        <v>8.9491999999999994</v>
       </c>
       <c r="D139">
         <v>4.5841000000000002E-4</v>
@@ -9322,7 +9322,7 @@
         <v>22</v>
       </c>
       <c r="C140">
-        <v>6.6585999999999999</v>
+        <v>9.9336000000000002</v>
       </c>
       <c r="D140">
         <v>4.24454E-4</v>
@@ -9354,7 +9354,7 @@
         <v>23</v>
       </c>
       <c r="C141">
-        <v>7.2579000000000002</v>
+        <v>11.026300000000001</v>
       </c>
       <c r="D141">
         <v>3.93013E-4</v>
@@ -9386,7 +9386,7 @@
         <v>24</v>
       </c>
       <c r="C142">
-        <v>7.9111000000000002</v>
+        <v>12.2392</v>
       </c>
       <c r="D142">
         <v>3.6390100000000002E-4</v>
@@ -9418,7 +9418,7 @@
         <v>25</v>
       </c>
       <c r="C143">
-        <v>8.6231000000000009</v>
+        <v>13.5855</v>
       </c>
       <c r="D143">
         <v>1.8195E-4</v>
@@ -9450,7 +9450,7 @@
         <v>26</v>
       </c>
       <c r="C144">
-        <v>9.3992000000000004</v>
+        <v>15.0799</v>
       </c>
       <c r="D144">
         <v>1.6847300000000001E-4</v>
@@ -9482,7 +9482,7 @@
         <v>27</v>
       </c>
       <c r="C145">
-        <v>10.245100000000001</v>
+        <v>16.738600000000002</v>
       </c>
       <c r="D145">
         <v>1.55993E-4</v>
@@ -9514,7 +9514,7 @@
         <v>28</v>
       </c>
       <c r="C146">
-        <v>11.1671</v>
+        <v>18.579899999999999</v>
       </c>
       <c r="D146">
         <v>1.4443799999999999E-4</v>
@@ -9546,7 +9546,7 @@
         <v>29</v>
       </c>
       <c r="C147">
-        <v>12.1722</v>
+        <v>20.623699999999999</v>
       </c>
       <c r="D147">
         <v>1.3373899999999999E-4</v>
@@ -9578,7 +9578,7 @@
         <v>30</v>
       </c>
       <c r="C148">
-        <v>13.2677</v>
+        <v>22.892299999999999</v>
       </c>
       <c r="D148" s="1">
         <v>4.4579700000000003E-5</v>
@@ -9613,8 +9613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82CFE85-E5BF-4028-97DD-0FD3D41C3DD1}">
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1:AD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10332,7 +10332,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1831AD9F-ED0A-47CF-B524-8603AB7A285B}">
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10663,10 +10665,10 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -10698,10 +10700,10 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>400</v>
+        <v>24</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -10733,10 +10735,10 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>600</v>
+        <v>39</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -10768,10 +10770,10 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>800</v>
+        <v>62</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -10803,10 +10805,10 @@
         <v>3</v>
       </c>
       <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
         <v>100</v>
-      </c>
-      <c r="F13">
-        <v>1000</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -10844,10 +10846,10 @@
         <v>3</v>
       </c>
       <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
         <v>100</v>
-      </c>
-      <c r="F14">
-        <v>1200</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -10885,10 +10887,10 @@
         <v>3</v>
       </c>
       <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
         <v>100</v>
-      </c>
-      <c r="F15">
-        <v>1400</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -12241,10 +12243,10 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F51">
-        <v>400</v>
+        <v>75</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -12276,10 +12278,10 @@
         <v>3</v>
       </c>
       <c r="E52">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F52">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -12311,10 +12313,10 @@
         <v>3</v>
       </c>
       <c r="E53">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F53">
-        <v>1200</v>
+        <v>192</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -12346,10 +12348,10 @@
         <v>3</v>
       </c>
       <c r="E54">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F54">
-        <v>1600</v>
+        <v>307</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -12381,10 +12383,10 @@
         <v>3</v>
       </c>
       <c r="E55">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F55">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -12422,10 +12424,10 @@
         <v>3</v>
       </c>
       <c r="E56">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F56">
-        <v>2400</v>
+        <v>500</v>
       </c>
       <c r="G56">
         <v>3</v>
@@ -12463,10 +12465,10 @@
         <v>3</v>
       </c>
       <c r="E57">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F57">
-        <v>2800</v>
+        <v>500</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -13289,8 +13291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F218ED-5790-4589-A336-D604CD6FE4FD}">
   <dimension ref="A1:K148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DA10C7-4675-4ACA-99D2-E705D255B15F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476FED4D-B4AE-4F52-BABC-C8788717EE34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -1129,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4858,7 +4858,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4938,7 +4938,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.0900000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4970,7 +4970,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.1880999999999999</v>
+        <v>1.21</v>
       </c>
       <c r="D4">
         <v>0.92592592600000001</v>
@@ -5002,7 +5002,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.2949999999999999</v>
+        <v>1.331</v>
       </c>
       <c r="D5">
         <v>0.85733881999999995</v>
@@ -5034,7 +5034,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.4116</v>
+        <v>1.4641</v>
       </c>
       <c r="D6">
         <v>0.79383224100000005</v>
@@ -5066,7 +5066,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.5386</v>
+        <v>1.6105</v>
       </c>
       <c r="D7">
         <v>0.66152686800000005</v>
@@ -5130,7 +5130,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1.095</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D9">
         <v>0.28571428599999998</v>
@@ -5162,7 +5162,7 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>1.1990000000000001</v>
+        <v>1.21</v>
       </c>
       <c r="D10">
         <v>0.26455026500000001</v>
@@ -5194,7 +5194,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>1.3129</v>
+        <v>1.331</v>
       </c>
       <c r="D11">
         <v>0.244953949</v>
@@ -5226,7 +5226,7 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>1.4377</v>
+        <v>1.4641</v>
       </c>
       <c r="D12">
         <v>0.22680921200000001</v>
@@ -5258,7 +5258,7 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>1.5742</v>
+        <v>1.6105</v>
       </c>
       <c r="D13">
         <v>0.18900767600000001</v>
@@ -5290,7 +5290,7 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <v>1.7238</v>
+        <v>1.7716000000000001</v>
       </c>
       <c r="D14">
         <v>0.17500710799999999</v>
@@ -5322,7 +5322,7 @@
         <v>7</v>
       </c>
       <c r="C15">
-        <v>1.8875999999999999</v>
+        <v>1.9487000000000001</v>
       </c>
       <c r="D15">
         <v>0.162043618</v>
@@ -5354,7 +5354,7 @@
         <v>8</v>
       </c>
       <c r="C16">
-        <v>2.0669</v>
+        <v>2.1436000000000002</v>
       </c>
       <c r="D16">
         <v>0.150040387</v>
@@ -5386,7 +5386,7 @@
         <v>9</v>
       </c>
       <c r="C17">
-        <v>2.2631999999999999</v>
+        <v>2.3578999999999999</v>
       </c>
       <c r="D17">
         <v>0.13892628500000001</v>
@@ -5418,7 +5418,7 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>2.4782000000000002</v>
+        <v>2.5937000000000001</v>
       </c>
       <c r="D18">
         <v>0.106866373</v>
@@ -5994,7 +5994,7 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>1.105</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D36">
         <v>2.3323614999999999E-2</v>
@@ -6026,7 +6026,7 @@
         <v>2</v>
       </c>
       <c r="C37">
-        <v>1.2210000000000001</v>
+        <v>1.21</v>
       </c>
       <c r="D37">
         <v>2.1595940000000001E-2</v>
@@ -6058,7 +6058,7 @@
         <v>3</v>
       </c>
       <c r="C38">
-        <v>1.3492</v>
+        <v>1.331</v>
       </c>
       <c r="D38">
         <v>1.9996241000000001E-2</v>
@@ -6090,7 +6090,7 @@
         <v>4</v>
       </c>
       <c r="C39">
-        <v>1.4908999999999999</v>
+        <v>1.4641</v>
       </c>
       <c r="D39">
         <v>1.8515038000000001E-2</v>
@@ -6122,7 +6122,7 @@
         <v>5</v>
       </c>
       <c r="C40">
-        <v>1.6474</v>
+        <v>1.6105</v>
       </c>
       <c r="D40">
         <v>1.5429198E-2</v>
@@ -6154,7 +6154,7 @@
         <v>6</v>
       </c>
       <c r="C41">
-        <v>1.8204</v>
+        <v>1.7716000000000001</v>
       </c>
       <c r="D41">
         <v>1.4286294999999999E-2</v>
@@ -6186,7 +6186,7 @@
         <v>7</v>
       </c>
       <c r="C42">
-        <v>2.0116000000000001</v>
+        <v>1.9487000000000001</v>
       </c>
       <c r="D42">
         <v>1.322805E-2</v>
@@ -6218,7 +6218,7 @@
         <v>8</v>
       </c>
       <c r="C43">
-        <v>2.2227999999999999</v>
+        <v>2.1436000000000002</v>
       </c>
       <c r="D43">
         <v>1.2248195E-2</v>
@@ -6250,7 +6250,7 @@
         <v>9</v>
       </c>
       <c r="C44">
-        <v>2.4561999999999999</v>
+        <v>2.3578999999999999</v>
       </c>
       <c r="D44">
         <v>1.1340921E-2</v>
@@ -6282,7 +6282,7 @@
         <v>10</v>
       </c>
       <c r="C45">
-        <v>2.7141000000000002</v>
+        <v>2.5937000000000001</v>
       </c>
       <c r="D45">
         <v>8.7237860000000007E-3</v>
@@ -6314,7 +6314,7 @@
         <v>11</v>
       </c>
       <c r="C46">
-        <v>2.9990999999999999</v>
+        <v>2.8531</v>
       </c>
       <c r="D46">
         <v>8.0775789999999997E-3</v>
@@ -6346,7 +6346,7 @@
         <v>12</v>
       </c>
       <c r="C47">
-        <v>3.3140000000000001</v>
+        <v>3.1383999999999999</v>
       </c>
       <c r="D47">
         <v>7.4792399999999998E-3</v>
@@ -6378,7 +6378,7 @@
         <v>13</v>
       </c>
       <c r="C48">
-        <v>3.6619000000000002</v>
+        <v>3.4523000000000001</v>
       </c>
       <c r="D48">
         <v>6.925222E-3</v>
@@ -6410,7 +6410,7 @@
         <v>14</v>
       </c>
       <c r="C49">
-        <v>4.0464000000000002</v>
+        <v>3.7974999999999999</v>
       </c>
       <c r="D49">
         <v>6.4122429999999998E-3</v>
@@ -6442,7 +6442,7 @@
         <v>15</v>
       </c>
       <c r="C50">
-        <v>4.4713000000000003</v>
+        <v>4.1772</v>
       </c>
       <c r="D50">
         <v>4.0076519999999996E-3</v>
@@ -6474,7 +6474,7 @@
         <v>16</v>
       </c>
       <c r="C51">
-        <v>4.9408000000000003</v>
+        <v>4.5949999999999998</v>
       </c>
       <c r="D51">
         <v>3.7107889999999999E-3</v>
@@ -6506,7 +6506,7 @@
         <v>17</v>
       </c>
       <c r="C52">
-        <v>5.4596</v>
+        <v>5.0545</v>
       </c>
       <c r="D52">
         <v>3.4359149999999999E-3</v>
@@ -6538,7 +6538,7 @@
         <v>18</v>
       </c>
       <c r="C53">
-        <v>6.0327999999999999</v>
+        <v>5.5598999999999998</v>
       </c>
       <c r="D53">
         <v>3.1814030000000002E-3</v>
@@ -6570,7 +6570,7 @@
         <v>19</v>
       </c>
       <c r="C54">
-        <v>6.6662999999999997</v>
+        <v>6.1158999999999999</v>
       </c>
       <c r="D54">
         <v>2.9457440000000001E-3</v>
@@ -6602,7 +6602,7 @@
         <v>20</v>
       </c>
       <c r="C55">
-        <v>7.3662000000000001</v>
+        <v>6.7275</v>
       </c>
       <c r="D55">
         <v>1.7327899999999999E-3</v>
@@ -6666,7 +6666,7 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D57">
         <v>6.6638899999999996E-3</v>
@@ -6698,7 +6698,7 @@
         <v>2</v>
       </c>
       <c r="C58">
-        <v>1.2321</v>
+        <v>1.21</v>
       </c>
       <c r="D58">
         <v>6.1702689999999999E-3</v>
@@ -6730,7 +6730,7 @@
         <v>3</v>
       </c>
       <c r="C59">
-        <v>1.3675999999999999</v>
+        <v>1.331</v>
       </c>
       <c r="D59">
         <v>5.7132119999999996E-3</v>
@@ -6762,7 +6762,7 @@
         <v>4</v>
       </c>
       <c r="C60">
-        <v>1.5181</v>
+        <v>1.4641</v>
       </c>
       <c r="D60">
         <v>5.2900109999999998E-3</v>
@@ -6794,7 +6794,7 @@
         <v>5</v>
       </c>
       <c r="C61">
-        <v>1.6851</v>
+        <v>1.6105</v>
       </c>
       <c r="D61">
         <v>4.408342E-3</v>
@@ -6826,7 +6826,7 @@
         <v>6</v>
       </c>
       <c r="C62">
-        <v>1.8704000000000001</v>
+        <v>1.7716000000000001</v>
       </c>
       <c r="D62">
         <v>4.0817980000000002E-3</v>
@@ -6858,7 +6858,7 @@
         <v>7</v>
       </c>
       <c r="C63">
-        <v>2.0762</v>
+        <v>1.9487000000000001</v>
       </c>
       <c r="D63">
         <v>3.779443E-3</v>
@@ -6890,7 +6890,7 @@
         <v>8</v>
       </c>
       <c r="C64">
-        <v>2.3045</v>
+        <v>2.1436000000000002</v>
       </c>
       <c r="D64">
         <v>3.4994840000000002E-3</v>
@@ -6922,7 +6922,7 @@
         <v>9</v>
       </c>
       <c r="C65">
-        <v>2.5579999999999998</v>
+        <v>2.3578999999999999</v>
       </c>
       <c r="D65">
         <v>3.2402630000000002E-3</v>
@@ -6954,7 +6954,7 @@
         <v>10</v>
       </c>
       <c r="C66">
-        <v>2.8393999999999999</v>
+        <v>2.5937000000000001</v>
       </c>
       <c r="D66">
         <v>2.4925099999999999E-3</v>
@@ -6986,7 +6986,7 @@
         <v>11</v>
       </c>
       <c r="C67">
-        <v>3.1518000000000002</v>
+        <v>2.8531</v>
       </c>
       <c r="D67">
         <v>2.30788E-3</v>
@@ -7018,7 +7018,7 @@
         <v>12</v>
       </c>
       <c r="C68">
-        <v>3.4984999999999999</v>
+        <v>3.1383999999999999</v>
       </c>
       <c r="D68">
         <v>2.1369259999999999E-3</v>
@@ -7050,7 +7050,7 @@
         <v>13</v>
       </c>
       <c r="C69">
-        <v>3.8833000000000002</v>
+        <v>3.4523000000000001</v>
       </c>
       <c r="D69">
         <v>1.9786349999999999E-3</v>
@@ -7082,7 +7082,7 @@
         <v>14</v>
       </c>
       <c r="C70">
-        <v>4.3103999999999996</v>
+        <v>3.7974999999999999</v>
       </c>
       <c r="D70">
         <v>1.832069E-3</v>
@@ -7114,7 +7114,7 @@
         <v>15</v>
       </c>
       <c r="C71">
-        <v>4.7846000000000002</v>
+        <v>4.1772</v>
       </c>
       <c r="D71">
         <v>1.1450430000000001E-3</v>
@@ -7146,7 +7146,7 @@
         <v>16</v>
       </c>
       <c r="C72">
-        <v>5.3109000000000002</v>
+        <v>4.5949999999999998</v>
       </c>
       <c r="D72">
         <v>1.0602249999999999E-3</v>
@@ -7178,7 +7178,7 @@
         <v>17</v>
       </c>
       <c r="C73">
-        <v>5.8951000000000002</v>
+        <v>5.0545</v>
       </c>
       <c r="D73">
         <v>9.8168999999999991E-4</v>
@@ -7210,7 +7210,7 @@
         <v>18</v>
       </c>
       <c r="C74">
-        <v>6.5435999999999996</v>
+        <v>5.5598999999999998</v>
       </c>
       <c r="D74">
         <v>9.0897199999999997E-4</v>
@@ -7242,7 +7242,7 @@
         <v>19</v>
       </c>
       <c r="C75">
-        <v>7.2633000000000001</v>
+        <v>6.1158999999999999</v>
       </c>
       <c r="D75">
         <v>8.4164099999999996E-4</v>
@@ -7274,7 +7274,7 @@
         <v>20</v>
       </c>
       <c r="C76">
-        <v>8.0623000000000005</v>
+        <v>6.7275</v>
       </c>
       <c r="D76">
         <v>4.95083E-4</v>
@@ -7306,7 +7306,7 @@
         <v>21</v>
       </c>
       <c r="C77">
-        <v>8.9491999999999994</v>
+        <v>7.4001999999999999</v>
       </c>
       <c r="D77">
         <v>4.5841000000000002E-4</v>
@@ -7338,7 +7338,7 @@
         <v>22</v>
       </c>
       <c r="C78">
-        <v>9.9336000000000002</v>
+        <v>8.1402999999999999</v>
       </c>
       <c r="D78">
         <v>4.24454E-4</v>
@@ -7370,7 +7370,7 @@
         <v>23</v>
       </c>
       <c r="C79">
-        <v>11.026300000000001</v>
+        <v>8.9542999999999999</v>
       </c>
       <c r="D79">
         <v>3.93013E-4</v>
@@ -7402,7 +7402,7 @@
         <v>24</v>
       </c>
       <c r="C80">
-        <v>12.2392</v>
+        <v>9.8497000000000003</v>
       </c>
       <c r="D80">
         <v>3.6390100000000002E-4</v>
@@ -7434,7 +7434,7 @@
         <v>25</v>
       </c>
       <c r="C81">
-        <v>13.5855</v>
+        <v>10.8347</v>
       </c>
       <c r="D81">
         <v>1.8195E-4</v>
@@ -7466,7 +7466,7 @@
         <v>26</v>
       </c>
       <c r="C82">
-        <v>15.0799</v>
+        <v>11.918200000000001</v>
       </c>
       <c r="D82">
         <v>1.6847300000000001E-4</v>
@@ -7498,7 +7498,7 @@
         <v>27</v>
       </c>
       <c r="C83">
-        <v>16.738600000000002</v>
+        <v>13.11</v>
       </c>
       <c r="D83">
         <v>1.55993E-4</v>
@@ -7530,7 +7530,7 @@
         <v>28</v>
       </c>
       <c r="C84">
-        <v>18.579899999999999</v>
+        <v>14.420999999999999</v>
       </c>
       <c r="D84">
         <v>1.4443799999999999E-4</v>
@@ -7562,7 +7562,7 @@
         <v>29</v>
       </c>
       <c r="C85">
-        <v>20.623699999999999</v>
+        <v>15.863099999999999</v>
       </c>
       <c r="D85">
         <v>1.3373899999999999E-4</v>
@@ -7594,7 +7594,7 @@
         <v>30</v>
       </c>
       <c r="C86">
-        <v>22.892299999999999</v>
+        <v>17.449400000000001</v>
       </c>
       <c r="D86" s="1">
         <v>4.4579700000000003E-5</v>
@@ -7658,7 +7658,7 @@
         <v>1</v>
       </c>
       <c r="C88">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D88">
         <v>6.6638899999999996E-3</v>
@@ -7690,7 +7690,7 @@
         <v>2</v>
       </c>
       <c r="C89">
-        <v>1.2321</v>
+        <v>1.21</v>
       </c>
       <c r="D89">
         <v>6.1702689999999999E-3</v>
@@ -7722,7 +7722,7 @@
         <v>3</v>
       </c>
       <c r="C90">
-        <v>1.3675999999999999</v>
+        <v>1.331</v>
       </c>
       <c r="D90">
         <v>5.7132119999999996E-3</v>
@@ -7754,7 +7754,7 @@
         <v>4</v>
       </c>
       <c r="C91">
-        <v>1.5181</v>
+        <v>1.4641</v>
       </c>
       <c r="D91">
         <v>5.2900109999999998E-3</v>
@@ -7786,7 +7786,7 @@
         <v>5</v>
       </c>
       <c r="C92">
-        <v>1.6851</v>
+        <v>1.6105</v>
       </c>
       <c r="D92">
         <v>4.408342E-3</v>
@@ -7818,7 +7818,7 @@
         <v>6</v>
       </c>
       <c r="C93">
-        <v>1.8704000000000001</v>
+        <v>1.7716000000000001</v>
       </c>
       <c r="D93">
         <v>4.0817980000000002E-3</v>
@@ -7850,7 +7850,7 @@
         <v>7</v>
       </c>
       <c r="C94">
-        <v>2.0762</v>
+        <v>1.9487000000000001</v>
       </c>
       <c r="D94">
         <v>3.779443E-3</v>
@@ -7882,7 +7882,7 @@
         <v>8</v>
       </c>
       <c r="C95">
-        <v>2.3045</v>
+        <v>2.1436000000000002</v>
       </c>
       <c r="D95">
         <v>3.4994840000000002E-3</v>
@@ -7914,7 +7914,7 @@
         <v>9</v>
       </c>
       <c r="C96">
-        <v>2.5579999999999998</v>
+        <v>2.3578999999999999</v>
       </c>
       <c r="D96">
         <v>3.2402630000000002E-3</v>
@@ -7946,7 +7946,7 @@
         <v>10</v>
       </c>
       <c r="C97">
-        <v>2.8393999999999999</v>
+        <v>2.5937000000000001</v>
       </c>
       <c r="D97">
         <v>2.4925099999999999E-3</v>
@@ -7978,7 +7978,7 @@
         <v>11</v>
       </c>
       <c r="C98">
-        <v>3.1518000000000002</v>
+        <v>2.8531</v>
       </c>
       <c r="D98">
         <v>2.30788E-3</v>
@@ -8010,7 +8010,7 @@
         <v>12</v>
       </c>
       <c r="C99">
-        <v>3.4984999999999999</v>
+        <v>3.1383999999999999</v>
       </c>
       <c r="D99">
         <v>2.1369259999999999E-3</v>
@@ -8042,7 +8042,7 @@
         <v>13</v>
       </c>
       <c r="C100">
-        <v>3.8833000000000002</v>
+        <v>3.4523000000000001</v>
       </c>
       <c r="D100">
         <v>1.9786349999999999E-3</v>
@@ -8074,7 +8074,7 @@
         <v>14</v>
       </c>
       <c r="C101">
-        <v>4.3103999999999996</v>
+        <v>3.7974999999999999</v>
       </c>
       <c r="D101">
         <v>1.832069E-3</v>
@@ -8106,7 +8106,7 @@
         <v>15</v>
       </c>
       <c r="C102">
-        <v>4.7846000000000002</v>
+        <v>4.1772</v>
       </c>
       <c r="D102">
         <v>1.1450430000000001E-3</v>
@@ -8138,7 +8138,7 @@
         <v>16</v>
       </c>
       <c r="C103">
-        <v>5.3109000000000002</v>
+        <v>4.5949999999999998</v>
       </c>
       <c r="D103">
         <v>1.0602249999999999E-3</v>
@@ -8170,7 +8170,7 @@
         <v>17</v>
       </c>
       <c r="C104">
-        <v>5.8951000000000002</v>
+        <v>5.0545</v>
       </c>
       <c r="D104">
         <v>9.8168999999999991E-4</v>
@@ -8202,7 +8202,7 @@
         <v>18</v>
       </c>
       <c r="C105">
-        <v>6.5435999999999996</v>
+        <v>5.5598999999999998</v>
       </c>
       <c r="D105">
         <v>9.0897199999999997E-4</v>
@@ -8234,7 +8234,7 @@
         <v>19</v>
       </c>
       <c r="C106">
-        <v>7.2633000000000001</v>
+        <v>6.1158999999999999</v>
       </c>
       <c r="D106">
         <v>8.4164099999999996E-4</v>
@@ -8266,7 +8266,7 @@
         <v>20</v>
       </c>
       <c r="C107">
-        <v>8.0623000000000005</v>
+        <v>6.7275</v>
       </c>
       <c r="D107">
         <v>4.95083E-4</v>
@@ -8298,7 +8298,7 @@
         <v>21</v>
       </c>
       <c r="C108">
-        <v>8.9491999999999994</v>
+        <v>7.4001999999999999</v>
       </c>
       <c r="D108">
         <v>4.5841000000000002E-4</v>
@@ -8330,7 +8330,7 @@
         <v>22</v>
       </c>
       <c r="C109">
-        <v>9.9336000000000002</v>
+        <v>8.1402999999999999</v>
       </c>
       <c r="D109">
         <v>4.24454E-4</v>
@@ -8362,7 +8362,7 @@
         <v>23</v>
       </c>
       <c r="C110">
-        <v>11.026300000000001</v>
+        <v>8.9542999999999999</v>
       </c>
       <c r="D110">
         <v>3.93013E-4</v>
@@ -8394,7 +8394,7 @@
         <v>24</v>
       </c>
       <c r="C111">
-        <v>12.2392</v>
+        <v>9.8497000000000003</v>
       </c>
       <c r="D111">
         <v>3.6390100000000002E-4</v>
@@ -8426,7 +8426,7 @@
         <v>25</v>
       </c>
       <c r="C112">
-        <v>13.5855</v>
+        <v>10.8347</v>
       </c>
       <c r="D112">
         <v>1.8195E-4</v>
@@ -8458,7 +8458,7 @@
         <v>26</v>
       </c>
       <c r="C113">
-        <v>15.0799</v>
+        <v>11.918200000000001</v>
       </c>
       <c r="D113">
         <v>1.6847300000000001E-4</v>
@@ -8490,7 +8490,7 @@
         <v>27</v>
       </c>
       <c r="C114">
-        <v>16.738600000000002</v>
+        <v>13.11</v>
       </c>
       <c r="D114">
         <v>1.55993E-4</v>
@@ -8522,7 +8522,7 @@
         <v>28</v>
       </c>
       <c r="C115">
-        <v>18.579899999999999</v>
+        <v>14.420999999999999</v>
       </c>
       <c r="D115">
         <v>1.4443799999999999E-4</v>
@@ -8554,7 +8554,7 @@
         <v>29</v>
       </c>
       <c r="C116">
-        <v>20.623699999999999</v>
+        <v>15.863099999999999</v>
       </c>
       <c r="D116">
         <v>1.3373899999999999E-4</v>
@@ -8586,7 +8586,7 @@
         <v>30</v>
       </c>
       <c r="C117">
-        <v>22.892299999999999</v>
+        <v>17.449400000000001</v>
       </c>
       <c r="D117" s="1">
         <v>4.4579700000000003E-5</v>
@@ -8650,7 +8650,7 @@
         <v>1</v>
       </c>
       <c r="C119">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D119">
         <v>6.6638899999999996E-3</v>
@@ -8682,7 +8682,7 @@
         <v>2</v>
       </c>
       <c r="C120">
-        <v>1.2321</v>
+        <v>1.21</v>
       </c>
       <c r="D120">
         <v>6.1702689999999999E-3</v>
@@ -8714,7 +8714,7 @@
         <v>3</v>
       </c>
       <c r="C121">
-        <v>1.3675999999999999</v>
+        <v>1.331</v>
       </c>
       <c r="D121">
         <v>5.7132119999999996E-3</v>
@@ -8746,7 +8746,7 @@
         <v>4</v>
       </c>
       <c r="C122">
-        <v>1.5181</v>
+        <v>1.4641</v>
       </c>
       <c r="D122">
         <v>5.2900109999999998E-3</v>
@@ -8778,7 +8778,7 @@
         <v>5</v>
       </c>
       <c r="C123">
-        <v>1.6851</v>
+        <v>1.6105</v>
       </c>
       <c r="D123">
         <v>4.408342E-3</v>
@@ -8810,7 +8810,7 @@
         <v>6</v>
       </c>
       <c r="C124">
-        <v>1.8704000000000001</v>
+        <v>1.7716000000000001</v>
       </c>
       <c r="D124">
         <v>4.0817980000000002E-3</v>
@@ -8842,7 +8842,7 @@
         <v>7</v>
       </c>
       <c r="C125">
-        <v>2.0762</v>
+        <v>1.9487000000000001</v>
       </c>
       <c r="D125">
         <v>3.779443E-3</v>
@@ -8874,7 +8874,7 @@
         <v>8</v>
       </c>
       <c r="C126">
-        <v>2.3045</v>
+        <v>2.1436000000000002</v>
       </c>
       <c r="D126">
         <v>3.4994840000000002E-3</v>
@@ -8906,7 +8906,7 @@
         <v>9</v>
       </c>
       <c r="C127">
-        <v>2.5579999999999998</v>
+        <v>2.3578999999999999</v>
       </c>
       <c r="D127">
         <v>3.2402630000000002E-3</v>
@@ -8938,7 +8938,7 @@
         <v>10</v>
       </c>
       <c r="C128">
-        <v>2.8393999999999999</v>
+        <v>2.5937000000000001</v>
       </c>
       <c r="D128">
         <v>2.4925099999999999E-3</v>
@@ -8970,7 +8970,7 @@
         <v>11</v>
       </c>
       <c r="C129">
-        <v>3.1518000000000002</v>
+        <v>2.8531</v>
       </c>
       <c r="D129">
         <v>2.30788E-3</v>
@@ -9002,7 +9002,7 @@
         <v>12</v>
       </c>
       <c r="C130">
-        <v>3.4984999999999999</v>
+        <v>3.1383999999999999</v>
       </c>
       <c r="D130">
         <v>2.1369259999999999E-3</v>
@@ -9034,7 +9034,7 @@
         <v>13</v>
       </c>
       <c r="C131">
-        <v>3.8833000000000002</v>
+        <v>3.4523000000000001</v>
       </c>
       <c r="D131">
         <v>1.9786349999999999E-3</v>
@@ -9066,7 +9066,7 @@
         <v>14</v>
       </c>
       <c r="C132">
-        <v>4.3103999999999996</v>
+        <v>3.7974999999999999</v>
       </c>
       <c r="D132">
         <v>1.832069E-3</v>
@@ -9098,7 +9098,7 @@
         <v>15</v>
       </c>
       <c r="C133">
-        <v>4.7846000000000002</v>
+        <v>4.1772</v>
       </c>
       <c r="D133">
         <v>1.1450430000000001E-3</v>
@@ -9130,7 +9130,7 @@
         <v>16</v>
       </c>
       <c r="C134">
-        <v>5.3109000000000002</v>
+        <v>4.5949999999999998</v>
       </c>
       <c r="D134">
         <v>1.0602249999999999E-3</v>
@@ -9162,7 +9162,7 @@
         <v>17</v>
       </c>
       <c r="C135">
-        <v>5.8951000000000002</v>
+        <v>5.0545</v>
       </c>
       <c r="D135">
         <v>9.8168999999999991E-4</v>
@@ -9194,7 +9194,7 @@
         <v>18</v>
       </c>
       <c r="C136">
-        <v>6.5435999999999996</v>
+        <v>5.5598999999999998</v>
       </c>
       <c r="D136">
         <v>9.0897199999999997E-4</v>
@@ -9226,7 +9226,7 @@
         <v>19</v>
       </c>
       <c r="C137">
-        <v>7.2633000000000001</v>
+        <v>6.1158999999999999</v>
       </c>
       <c r="D137">
         <v>8.4164099999999996E-4</v>
@@ -9258,7 +9258,7 @@
         <v>20</v>
       </c>
       <c r="C138">
-        <v>8.0623000000000005</v>
+        <v>6.7275</v>
       </c>
       <c r="D138">
         <v>4.95083E-4</v>
@@ -9290,7 +9290,7 @@
         <v>21</v>
       </c>
       <c r="C139">
-        <v>8.9491999999999994</v>
+        <v>7.4001999999999999</v>
       </c>
       <c r="D139">
         <v>4.5841000000000002E-4</v>
@@ -9322,7 +9322,7 @@
         <v>22</v>
       </c>
       <c r="C140">
-        <v>9.9336000000000002</v>
+        <v>8.1402999999999999</v>
       </c>
       <c r="D140">
         <v>4.24454E-4</v>
@@ -9354,7 +9354,7 @@
         <v>23</v>
       </c>
       <c r="C141">
-        <v>11.026300000000001</v>
+        <v>8.9542999999999999</v>
       </c>
       <c r="D141">
         <v>3.93013E-4</v>
@@ -9386,7 +9386,7 @@
         <v>24</v>
       </c>
       <c r="C142">
-        <v>12.2392</v>
+        <v>9.8497000000000003</v>
       </c>
       <c r="D142">
         <v>3.6390100000000002E-4</v>
@@ -9418,7 +9418,7 @@
         <v>25</v>
       </c>
       <c r="C143">
-        <v>13.5855</v>
+        <v>10.8347</v>
       </c>
       <c r="D143">
         <v>1.8195E-4</v>
@@ -9450,7 +9450,7 @@
         <v>26</v>
       </c>
       <c r="C144">
-        <v>15.0799</v>
+        <v>11.918200000000001</v>
       </c>
       <c r="D144">
         <v>1.6847300000000001E-4</v>
@@ -9482,7 +9482,7 @@
         <v>27</v>
       </c>
       <c r="C145">
-        <v>16.738600000000002</v>
+        <v>13.11</v>
       </c>
       <c r="D145">
         <v>1.55993E-4</v>
@@ -9514,7 +9514,7 @@
         <v>28</v>
       </c>
       <c r="C146">
-        <v>18.579899999999999</v>
+        <v>14.420999999999999</v>
       </c>
       <c r="D146">
         <v>1.4443799999999999E-4</v>
@@ -9546,7 +9546,7 @@
         <v>29</v>
       </c>
       <c r="C147">
-        <v>20.623699999999999</v>
+        <v>15.863099999999999</v>
       </c>
       <c r="D147">
         <v>1.3373899999999999E-4</v>
@@ -9578,7 +9578,7 @@
         <v>30</v>
       </c>
       <c r="C148">
-        <v>22.892299999999999</v>
+        <v>17.449400000000001</v>
       </c>
       <c r="D148" s="1">
         <v>4.4579700000000003E-5</v>
@@ -9613,9 +9613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82CFE85-E5BF-4028-97DD-0FD3D41C3DD1}">
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -9776,10 +9774,10 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <v>1.0204801539999999</v>
+        <v>1.0081490799999999</v>
       </c>
       <c r="W2">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -9862,10 +9860,10 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>1.0204801539999999</v>
+        <v>1.0081490799999999</v>
       </c>
       <c r="W3">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -9948,10 +9946,10 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>1.0204801539999999</v>
+        <v>1.0081490799999999</v>
       </c>
       <c r="W4">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -10034,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>1.0204801539999999</v>
+        <v>1.0081490799999999</v>
       </c>
       <c r="W5">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -10120,10 +10118,10 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>1.0204801539999999</v>
+        <v>1.0081490799999999</v>
       </c>
       <c r="W6">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X6">
         <v>3</v>
@@ -10209,10 +10207,10 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>1.0204801539999999</v>
+        <v>1.0081490799999999</v>
       </c>
       <c r="W7">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X7">
         <v>3</v>
@@ -10298,10 +10296,10 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>1.0204801539999999</v>
+        <v>1.0081490799999999</v>
       </c>
       <c r="W8">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X8">
         <v>3</v>
@@ -10332,9 +10330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1831AD9F-ED0A-47CF-B524-8603AB7A285B}">
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10674,10 +10670,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.0204801539999999</v>
+        <v>1.0081490799999999</v>
       </c>
       <c r="K9">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -10709,10 +10705,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.0204801539999999</v>
+        <v>1.0081490799999999</v>
       </c>
       <c r="K10">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -10744,10 +10740,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.0204801539999999</v>
+        <v>1.0081490799999999</v>
       </c>
       <c r="K11">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -10779,10 +10775,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.0204801539999999</v>
+        <v>1.0081490799999999</v>
       </c>
       <c r="K12">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -10817,10 +10813,10 @@
         <v>-20</v>
       </c>
       <c r="J13">
-        <v>1.0204801539999999</v>
+        <v>1.0081490799999999</v>
       </c>
       <c r="K13">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="L13">
         <v>3</v>
@@ -10858,10 +10854,10 @@
         <v>-10</v>
       </c>
       <c r="J14">
-        <v>1.0204801539999999</v>
+        <v>1.0081490799999999</v>
       </c>
       <c r="K14">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="L14">
         <v>3</v>
@@ -10899,10 +10895,10 @@
         <v>-5</v>
       </c>
       <c r="J15">
-        <v>1.0204801539999999</v>
+        <v>1.0081490799999999</v>
       </c>
       <c r="K15">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="L15">
         <v>3</v>
@@ -12252,10 +12248,10 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>1.0204801539999999</v>
+        <v>1.0081490799999999</v>
       </c>
       <c r="K51">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -12287,10 +12283,10 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>1.0204801539999999</v>
+        <v>1.0081490799999999</v>
       </c>
       <c r="K52">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -12322,10 +12318,10 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>1.0204801539999999</v>
+        <v>1.0081490799999999</v>
       </c>
       <c r="K53">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -12357,10 +12353,10 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>1.0204801539999999</v>
+        <v>1.0081490799999999</v>
       </c>
       <c r="K54">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -12395,10 +12391,10 @@
         <v>-20</v>
       </c>
       <c r="J55">
-        <v>1.0204801539999999</v>
+        <v>1.0081490799999999</v>
       </c>
       <c r="K55">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="L55">
         <v>3</v>
@@ -12436,10 +12432,10 @@
         <v>-10</v>
       </c>
       <c r="J56">
-        <v>1.0204801539999999</v>
+        <v>1.0081490799999999</v>
       </c>
       <c r="K56">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="L56">
         <v>3</v>
@@ -12477,10 +12473,10 @@
         <v>-5</v>
       </c>
       <c r="J57">
-        <v>1.0204801539999999</v>
+        <v>1.0081490799999999</v>
       </c>
       <c r="K57">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="L57">
         <v>3</v>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476FED4D-B4AE-4F52-BABC-C8788717EE34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269F9DE7-092B-4D2B-92E6-297399E270D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -1130,7 +1130,7 @@
   <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1202,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="H2">
         <v>14.1</v>
@@ -1240,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.3</v>
+        <v>10.85</v>
       </c>
       <c r="H3">
         <v>13.5</v>
@@ -1621,7 +1621,7 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="H15">
         <v>14.1</v>
@@ -1659,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.3</v>
+        <v>10.85</v>
       </c>
       <c r="H16">
         <v>13.5</v>
@@ -2031,7 +2031,7 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="H28">
         <v>14.1</v>
@@ -2060,7 +2060,7 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>10.3</v>
+        <v>10.85</v>
       </c>
       <c r="H29">
         <v>13.5</v>
@@ -2432,7 +2432,7 @@
         <v>1</v>
       </c>
       <c r="G41">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="H41">
         <v>14.1</v>
@@ -2461,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="G42">
-        <v>10.3</v>
+        <v>10.85</v>
       </c>
       <c r="H42">
         <v>13.5</v>
@@ -2833,7 +2833,7 @@
         <v>1</v>
       </c>
       <c r="G54">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="H54">
         <v>14.1</v>
@@ -2871,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="G55">
-        <v>10.3</v>
+        <v>10.85</v>
       </c>
       <c r="H55">
         <v>13.5</v>
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="G67">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="H67">
         <v>14.1</v>
@@ -3272,7 +3272,7 @@
         <v>1</v>
       </c>
       <c r="G68">
-        <v>10.3</v>
+        <v>10.85</v>
       </c>
       <c r="H68">
         <v>13.5</v>
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="G80">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="H80">
         <v>14.1</v>
@@ -3691,7 +3691,7 @@
         <v>1</v>
       </c>
       <c r="G81">
-        <v>10.3</v>
+        <v>10.85</v>
       </c>
       <c r="H81">
         <v>13.5</v>
@@ -4054,7 +4054,7 @@
         <v>1</v>
       </c>
       <c r="G93">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="H93">
         <v>14.1</v>
@@ -4083,7 +4083,7 @@
         <v>1</v>
       </c>
       <c r="G94">
-        <v>10.3</v>
+        <v>10.85</v>
       </c>
       <c r="H94">
         <v>13.5</v>
@@ -4455,7 +4455,7 @@
         <v>1</v>
       </c>
       <c r="G106">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="H106">
         <v>14.1</v>
@@ -4493,7 +4493,7 @@
         <v>1</v>
       </c>
       <c r="G107">
-        <v>10.3</v>
+        <v>10.85</v>
       </c>
       <c r="H107">
         <v>13.5</v>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269F9DE7-092B-4D2B-92E6-297399E270D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BDF40D-E8E9-4449-9DF2-CE28131154AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="241">
   <si>
     <t>Equip0001</t>
   </si>
@@ -731,9 +731,6 @@
   </si>
   <si>
     <t>transferGold|Int</t>
-  </si>
-  <si>
-    <t>transferAvailableLevel|Int</t>
   </si>
   <si>
     <t>transferRate|Float</t>
@@ -1129,7 +1126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -9611,13 +9608,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82CFE85-E5BF-4028-97DD-0FD3D41C3DD1}">
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>178</v>
       </c>
@@ -9705,11 +9702,8 @@
       <c r="AC1" t="s">
         <v>231</v>
       </c>
-      <c r="AD1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -9791,11 +9785,8 @@
       <c r="AC2">
         <v>500</v>
       </c>
-      <c r="AD2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9877,11 +9868,8 @@
       <c r="AC3">
         <v>1000</v>
       </c>
-      <c r="AD3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -9963,11 +9951,8 @@
       <c r="AC4">
         <v>1500</v>
       </c>
-      <c r="AD4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10049,11 +10034,8 @@
       <c r="AC5">
         <v>2000</v>
       </c>
-      <c r="AD5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -10138,11 +10120,8 @@
       <c r="AC6">
         <v>2500</v>
       </c>
-      <c r="AD6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -10227,11 +10206,8 @@
       <c r="AC7">
         <v>2500</v>
       </c>
-      <c r="AD7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10315,9 +10291,6 @@
       </c>
       <c r="AC8">
         <v>2500</v>
-      </c>
-      <c r="AD8">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -10330,7 +10303,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1831AD9F-ED0A-47CF-B524-8603AB7A285B}">
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13285,15 +13260,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F218ED-5790-4589-A336-D604CD6FE4FD}">
-  <dimension ref="A1:K148"/>
+  <dimension ref="A1:Q148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G14" sqref="G8:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>178</v>
       </c>
@@ -13301,34 +13276,34 @@
         <v>29</v>
       </c>
       <c r="C1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" t="s">
         <v>233</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>234</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>235</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>236</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>237</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>238</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>239</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>240</v>
       </c>
-      <c r="K1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -13341,9 +13316,6 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
       <c r="F2">
         <v>0</v>
       </c>
@@ -13362,8 +13334,11 @@
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -13376,9 +13351,6 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
       <c r="F3">
         <v>1</v>
       </c>
@@ -13397,8 +13369,11 @@
       <c r="K3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -13411,12 +13386,9 @@
       <c r="D4">
         <v>2.08</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.08</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
       <c r="G4">
         <v>1</v>
       </c>
@@ -13432,8 +13404,11 @@
       <c r="K4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -13446,12 +13421,9 @@
       <c r="D5">
         <v>3.2464</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.1664000000000001</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
       <c r="G5">
         <v>1</v>
       </c>
@@ -13467,8 +13439,11 @@
       <c r="K5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -13481,12 +13456,9 @@
       <c r="D6">
         <v>4.5061119999999999</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1.2597119999999999</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
       <c r="G6">
         <v>1</v>
       </c>
@@ -13502,8 +13474,11 @@
       <c r="K6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -13517,11 +13492,12 @@
         <v>6.0177664000000002</v>
       </c>
       <c r="E7">
+        <f>C7*D7</f>
+        <v>5.9575887359999999</v>
+      </c>
+      <c r="F7">
         <v>1.5116544000000001</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
       <c r="G7">
         <v>1</v>
       </c>
@@ -13537,8 +13513,15 @@
       <c r="K7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <f>D7*C7</f>
+        <v>5.9575887359999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -13551,9 +13534,6 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
       <c r="F8">
         <v>0</v>
       </c>
@@ -13572,8 +13552,15 @@
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f>Q7-F9</f>
+        <v>2.4575887359999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -13586,15 +13573,12 @@
       <c r="D9">
         <v>1.4</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>3.5</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1.4</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
       <c r="H9">
         <v>1</v>
       </c>
@@ -13607,8 +13591,15 @@
       <c r="K9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <f>Q8-F10</f>
+        <v>-1.3224112639999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -13621,15 +13612,12 @@
       <c r="D10">
         <v>2.9119999999999999</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>3.78</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1.512</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
       <c r="H10">
         <v>1</v>
       </c>
@@ -13642,8 +13630,11 @@
       <c r="K10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -13656,15 +13647,12 @@
       <c r="D11">
         <v>4.5449599999999997</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>4.0823999999999998</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1.63296</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
       <c r="H11">
         <v>1</v>
       </c>
@@ -13677,8 +13665,11 @@
       <c r="K11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -13691,15 +13682,12 @@
       <c r="D12">
         <v>6.3085567999999999</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>4.4089919999999996</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1.7635968</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
       <c r="H12">
         <v>1</v>
       </c>
@@ -13712,8 +13700,11 @@
       <c r="K12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -13726,15 +13717,12 @@
       <c r="D13">
         <v>8.4248729600000001</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>5.2907903999999997</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>2.1163161599999998</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
       <c r="H13">
         <v>1</v>
       </c>
@@ -13747,8 +13735,11 @@
       <c r="K13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -13761,15 +13752,12 @@
       <c r="D14">
         <v>10.710494410000001</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>5.7140536319999997</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>2.2856214530000001</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
       <c r="H14">
         <v>1</v>
       </c>
@@ -13782,8 +13770,15 @@
       <c r="K14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <f>C15*D15</f>
+        <v>13.047175924199999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -13796,15 +13791,12 @@
       <c r="D15">
         <v>13.17896558</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>6.1711779230000001</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>2.4684711689999999</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
       <c r="H15">
         <v>1</v>
       </c>
@@ -13817,8 +13809,11 @@
       <c r="K15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -13831,18 +13826,15 @@
       <c r="D16">
         <v>15.84491444</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>6.6648721560000004</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2.6659488630000001</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1.066379545</v>
       </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
       <c r="I16">
         <v>1</v>
       </c>
@@ -13852,8 +13844,11 @@
       <c r="K16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -13866,18 +13861,15 @@
       <c r="D17">
         <v>18.724139220000001</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>7.1980619289999996</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>2.8792247720000002</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1.1516899089999999</v>
       </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
       <c r="I17">
         <v>1</v>
       </c>
@@ -13887,8 +13879,11 @@
       <c r="K17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -13901,18 +13896,15 @@
       <c r="D18">
         <v>22.467131420000001</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>9.3574805080000001</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>3.742992203</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1.497196881</v>
       </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
       <c r="I18">
         <v>1</v>
       </c>
@@ -13922,8 +13914,11 @@
       <c r="K18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -13936,9 +13931,6 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
       <c r="F19">
         <v>0</v>
       </c>
@@ -13957,8 +13949,11 @@
       <c r="K19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -13971,18 +13966,15 @@
       <c r="D20">
         <v>1.96</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>12.25</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>1.96</v>
       </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
       <c r="I20">
         <v>1</v>
       </c>
@@ -13992,8 +13984,11 @@
       <c r="K20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -14006,18 +14001,15 @@
       <c r="D21">
         <v>4.0768000000000004</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>13.23</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>5.2919999999999998</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>2.1168</v>
       </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
       <c r="I21">
         <v>1</v>
       </c>
@@ -14027,8 +14019,11 @@
       <c r="K21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -14041,18 +14036,15 @@
       <c r="D22">
         <v>6.3629439999999997</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>14.288399999999999</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>5.7153600000000004</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>2.2861440000000002</v>
       </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
       <c r="I22">
         <v>1</v>
       </c>
@@ -14062,8 +14054,11 @@
       <c r="K22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -14076,18 +14071,15 @@
       <c r="D23">
         <v>8.8319795200000009</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>15.431471999999999</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>6.1725887999999998</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>2.4690355199999998</v>
       </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
       <c r="I23">
         <v>1</v>
       </c>
@@ -14097,8 +14089,11 @@
       <c r="K23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -14111,29 +14106,29 @@
       <c r="D24">
         <v>11.794822140000001</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>18.517766399999999</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>7.4071065599999999</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>2.9628426239999999</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>1.18513705</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -14146,29 +14141,29 @@
       <c r="D25">
         <v>14.994692179999999</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>19.999187710000001</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>7.9996750849999998</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>3.1998700339999999</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>1.2799480139999999</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -14181,29 +14176,29 @@
       <c r="D26">
         <v>18.45055181</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>21.599122730000001</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>8.6396490920000009</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>3.4558596370000001</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>1.382343855</v>
       </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -14216,29 +14211,29 @@
       <c r="D27">
         <v>22.182880220000001</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>23.327052550000001</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>9.330821019</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>3.7323284079999999</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1.4929313630000001</v>
       </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -14251,29 +14246,29 @@
       <c r="D28">
         <v>26.2137949</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>25.193216750000001</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>10.0772867</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>4.0309146800000004</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>1.612365872</v>
       </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
       <c r="J28">
         <v>1</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -14286,29 +14281,29 @@
       <c r="D29">
         <v>31.453983990000001</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>32.751181780000003</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>13.10047271</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>5.2401890839999998</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>2.096075634</v>
       </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
       <c r="J29">
         <v>1</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -14321,29 +14316,29 @@
       <c r="D30">
         <v>37.113388200000003</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>35.37127632</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>14.148510529999999</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>5.659404211</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>2.2637616839999999</v>
       </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
       <c r="J30">
         <v>1</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -14356,29 +14351,29 @@
       <c r="D31">
         <v>43.225544749999997</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>38.200978419999998</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>15.28039137</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>6.1121565479999997</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>2.4448626189999998</v>
       </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2</v>
       </c>
@@ -14391,20 +14386,17 @@
       <c r="D32">
         <v>49.826673820000003</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>41.2570567</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>16.502822680000001</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>6.601129072</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>2.6404516290000002</v>
-      </c>
-      <c r="I32">
-        <v>1.056180651</v>
       </c>
       <c r="J32">
         <v>1.056180651</v>
@@ -14412,8 +14404,11 @@
       <c r="K32">
         <v>1.056180651</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L32">
+        <v>1.056180651</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
@@ -14426,20 +14421,17 @@
       <c r="D33">
         <v>56.955893209999999</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>44.557621230000002</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>17.823048490000001</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>7.129219397</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>2.8516877589999998</v>
-      </c>
-      <c r="I33">
-        <v>1.1406751040000001</v>
       </c>
       <c r="J33">
         <v>1.1406751040000001</v>
@@ -14447,8 +14439,11 @@
       <c r="K33">
         <v>1.1406751040000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <v>1.1406751040000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2</v>
       </c>
@@ -14461,20 +14456,17 @@
       <c r="D34">
         <v>68.362644250000002</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>71.29219397</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>28.51687759</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>11.40675104</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>4.562700414</v>
-      </c>
-      <c r="I34">
-        <v>1.825080166</v>
       </c>
       <c r="J34">
         <v>1.825080166</v>
@@ -14482,8 +14474,11 @@
       <c r="K34">
         <v>1.825080166</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34">
+        <v>1.825080166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
@@ -14496,9 +14491,6 @@
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
       <c r="F35">
         <v>0</v>
       </c>
@@ -14517,8 +14509,11 @@
       <c r="K35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
@@ -14531,20 +14526,17 @@
       <c r="D36">
         <v>2.7440000000000002</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>42.875</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>17.149999999999999</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>6.86</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>2.7440000000000002</v>
-      </c>
-      <c r="I36">
-        <v>1.0975999999999999</v>
       </c>
       <c r="J36">
         <v>1.0975999999999999</v>
@@ -14552,8 +14544,11 @@
       <c r="K36">
         <v>1.0975999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L36">
+        <v>1.0975999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3</v>
       </c>
@@ -14566,20 +14561,17 @@
       <c r="D37">
         <v>5.7075199999999997</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>46.305</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>18.521999999999998</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>7.4088000000000003</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>2.9635199999999999</v>
-      </c>
-      <c r="I37">
-        <v>1.185408</v>
       </c>
       <c r="J37">
         <v>1.185408</v>
@@ -14587,8 +14579,11 @@
       <c r="K37">
         <v>1.185408</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L37">
+        <v>1.185408</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -14601,20 +14596,17 @@
       <c r="D38">
         <v>8.9081215999999994</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>50.009399999999999</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>20.00376</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>8.0015040000000006</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>3.2006016000000002</v>
-      </c>
-      <c r="I38">
-        <v>1.2802406399999999</v>
       </c>
       <c r="J38">
         <v>1.2802406399999999</v>
@@ -14622,8 +14614,11 @@
       <c r="K38">
         <v>1.2802406399999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L38">
+        <v>1.2802406399999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
@@ -14636,20 +14631,17 @@
       <c r="D39">
         <v>12.36477133</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>54.010151999999998</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>21.604060799999999</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>8.64162432</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>3.4566497279999999</v>
-      </c>
-      <c r="I39">
-        <v>1.3826598910000001</v>
       </c>
       <c r="J39">
         <v>1.3826598910000001</v>
@@ -14657,8 +14649,11 @@
       <c r="K39">
         <v>1.3826598910000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <v>1.3826598910000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
@@ -14671,20 +14666,17 @@
       <c r="D40">
         <v>16.512751000000002</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>64.812182399999998</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>25.924872959999998</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>10.369949180000001</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>4.1479796740000001</v>
-      </c>
-      <c r="I40">
-        <v>1.659191869</v>
       </c>
       <c r="J40">
         <v>1.659191869</v>
@@ -14692,8 +14684,11 @@
       <c r="K40">
         <v>1.659191869</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L40">
+        <v>1.659191869</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3</v>
       </c>
@@ -14706,20 +14701,17 @@
       <c r="D41">
         <v>20.99256905</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>69.997156989999993</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>27.998862800000001</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>11.19954512</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>4.4798180470000002</v>
-      </c>
-      <c r="I41">
-        <v>1.791927219</v>
       </c>
       <c r="J41">
         <v>1.791927219</v>
@@ -14727,8 +14719,11 @@
       <c r="K41">
         <v>1.791927219</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L41">
+        <v>1.791927219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3</v>
       </c>
@@ -14741,20 +14736,17 @@
       <c r="D42">
         <v>25.830772540000002</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>75.596929549999999</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>30.23877182</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>12.095508730000001</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>4.8382034909999998</v>
-      </c>
-      <c r="I42">
-        <v>1.935281397</v>
       </c>
       <c r="J42">
         <v>1.935281397</v>
@@ -14762,8 +14754,11 @@
       <c r="K42">
         <v>1.935281397</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L42">
+        <v>1.935281397</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3</v>
       </c>
@@ -14776,20 +14771,17 @@
       <c r="D43">
         <v>31.056032309999999</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>81.644683920000006</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>32.65787357</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>13.063149429999999</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>5.2252597710000002</v>
-      </c>
-      <c r="I43">
-        <v>2.0901039080000001</v>
       </c>
       <c r="J43">
         <v>2.0901039080000001</v>
@@ -14797,8 +14789,11 @@
       <c r="K43">
         <v>2.0901039080000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L43">
+        <v>2.0901039080000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
@@ -14811,20 +14806,17 @@
       <c r="D44">
         <v>36.699312859999999</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>88.176258630000007</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>35.27050345</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>14.108201380000001</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>5.6432805520000002</v>
-      </c>
-      <c r="I44">
-        <v>2.2573122209999998</v>
       </c>
       <c r="J44">
         <v>2.2573122209999998</v>
@@ -14832,8 +14824,11 @@
       <c r="K44">
         <v>2.2573122209999998</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L44">
+        <v>2.2573122209999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>3</v>
       </c>
@@ -14846,20 +14841,17 @@
       <c r="D45">
         <v>44.035577580000002</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>114.6291362</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>45.851654490000001</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>18.340661789999999</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>7.3362647179999998</v>
-      </c>
-      <c r="I45">
-        <v>2.9345058869999998</v>
       </c>
       <c r="J45">
         <v>2.9345058869999998</v>
@@ -14867,8 +14859,11 @@
       <c r="K45">
         <v>2.9345058869999998</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L45">
+        <v>2.9345058869999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -14881,20 +14876,17 @@
       <c r="D46">
         <v>51.958743480000003</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>123.7994671</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>49.519786850000003</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>19.807914740000001</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>7.9231658950000003</v>
-      </c>
-      <c r="I46">
-        <v>3.1692663579999998</v>
       </c>
       <c r="J46">
         <v>3.1692663579999998</v>
@@ -14902,8 +14894,11 @@
       <c r="K46">
         <v>3.1692663579999998</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L46">
+        <v>3.1692663579999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>3</v>
       </c>
@@ -14916,20 +14911,17 @@
       <c r="D47">
         <v>60.515762639999998</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>133.70342450000001</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>53.481369790000002</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>21.392547919999998</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>8.557019167</v>
-      </c>
-      <c r="I47">
-        <v>3.4228076669999998</v>
       </c>
       <c r="J47">
         <v>3.4228076669999998</v>
@@ -14937,8 +14929,11 @@
       <c r="K47">
         <v>3.4228076669999998</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L47">
+        <v>3.4228076669999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>3</v>
       </c>
@@ -14951,20 +14946,17 @@
       <c r="D48">
         <v>69.757343340000006</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>144.39969840000001</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>57.759879380000001</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>23.10395175</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>9.2415807000000001</v>
-      </c>
-      <c r="I48">
-        <v>3.6966322800000002</v>
       </c>
       <c r="J48">
         <v>3.6966322800000002</v>
@@ -14972,8 +14964,11 @@
       <c r="K48">
         <v>3.6966322800000002</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L48">
+        <v>3.6966322800000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>3</v>
       </c>
@@ -14986,20 +14981,17 @@
       <c r="D49">
         <v>79.738250500000007</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>155.95167430000001</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>62.380669730000001</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>24.952267890000002</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>9.9809071560000007</v>
-      </c>
-      <c r="I49">
-        <v>3.9923628629999999</v>
       </c>
       <c r="J49">
         <v>3.9923628629999999</v>
@@ -15007,8 +14999,11 @@
       <c r="K49">
         <v>3.9923628629999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L49">
+        <v>3.9923628629999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>3</v>
       </c>
@@ -15021,20 +15016,17 @@
       <c r="D50">
         <v>95.707701950000001</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>249.52267889999999</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>99.809071560000007</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>39.923628630000003</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>15.969451449999999</v>
-      </c>
-      <c r="I50">
-        <v>6.3877805800000003</v>
       </c>
       <c r="J50">
         <v>6.3877805800000003</v>
@@ -15042,8 +15034,11 @@
       <c r="K50">
         <v>6.3877805800000003</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L50">
+        <v>6.3877805800000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>3</v>
       </c>
@@ -15056,20 +15051,17 @@
       <c r="D51">
         <v>112.95470950000001</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>269.48449319999997</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>107.79379729999999</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>43.117518920000002</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>17.247007570000001</v>
-      </c>
-      <c r="I51">
-        <v>6.8988030260000004</v>
       </c>
       <c r="J51">
         <v>6.8988030260000004</v>
@@ -15077,8 +15069,11 @@
       <c r="K51">
         <v>6.8988030260000004</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L51">
+        <v>6.8988030260000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3</v>
       </c>
@@ -15091,20 +15086,17 @@
       <c r="D52">
         <v>131.58147769999999</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>291.04325269999998</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>116.4173011</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>46.566920430000003</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>18.626768169999998</v>
-      </c>
-      <c r="I52">
-        <v>7.4507072689999996</v>
       </c>
       <c r="J52">
         <v>7.4507072689999996</v>
@@ -15112,8 +15104,11 @@
       <c r="K52">
         <v>7.4507072689999996</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L52">
+        <v>7.4507072689999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>3</v>
       </c>
@@ -15126,20 +15121,17 @@
       <c r="D53">
         <v>151.69838730000001</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>314.32671290000002</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>125.7306852</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>50.292274059999997</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>20.116909629999999</v>
-      </c>
-      <c r="I53">
-        <v>8.0467638499999996</v>
       </c>
       <c r="J53">
         <v>8.0467638499999996</v>
@@ -15147,8 +15139,11 @@
       <c r="K53">
         <v>8.0467638499999996</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L53">
+        <v>8.0467638499999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3</v>
       </c>
@@ -15161,20 +15156,17 @@
       <c r="D54">
         <v>173.4246497</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>339.47284990000003</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>135.78914</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>54.315655990000003</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>21.7262624</v>
-      </c>
-      <c r="I54">
-        <v>8.690504958</v>
       </c>
       <c r="J54">
         <v>8.690504958</v>
@@ -15182,8 +15174,11 @@
       <c r="K54">
         <v>8.690504958</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L54">
+        <v>8.690504958</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3</v>
       </c>
@@ -15196,20 +15191,17 @@
       <c r="D55">
         <v>210.35929580000001</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>577.10384490000001</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>230.84153789999999</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>92.336615179999995</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>36.934646069999999</v>
-      </c>
-      <c r="I55">
-        <v>14.773858430000001</v>
       </c>
       <c r="J55">
         <v>14.773858430000001</v>
@@ -15217,8 +15209,11 @@
       <c r="K55">
         <v>14.773858430000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L55">
+        <v>14.773858430000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>4</v>
       </c>
@@ -15231,9 +15226,6 @@
       <c r="D56">
         <v>0</v>
       </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
       <c r="F56">
         <v>0</v>
       </c>
@@ -15252,8 +15244,11 @@
       <c r="K56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>4</v>
       </c>
@@ -15266,20 +15261,17 @@
       <c r="D57">
         <v>3.8416000000000001</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>150.0625</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>60.024999999999999</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>24.01</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>9.6039999999999992</v>
-      </c>
-      <c r="I57">
-        <v>3.8416000000000001</v>
       </c>
       <c r="J57">
         <v>3.8416000000000001</v>
@@ -15287,8 +15279,11 @@
       <c r="K57">
         <v>3.8416000000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L57">
+        <v>3.8416000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>4</v>
       </c>
@@ -15301,20 +15296,17 @@
       <c r="D58">
         <v>7.9905280000000003</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>162.0675</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>64.826999999999998</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>25.930800000000001</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>10.37232</v>
-      </c>
-      <c r="I58">
-        <v>4.1489279999999997</v>
       </c>
       <c r="J58">
         <v>4.1489279999999997</v>
@@ -15322,8 +15314,11 @@
       <c r="K58">
         <v>4.1489279999999997</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L58">
+        <v>4.1489279999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>4</v>
       </c>
@@ -15336,20 +15331,17 @@
       <c r="D59">
         <v>12.471370240000001</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>175.03290000000001</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>70.013159999999999</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>28.005264</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>11.202105599999999</v>
-      </c>
-      <c r="I59">
-        <v>4.4808422400000003</v>
       </c>
       <c r="J59">
         <v>4.4808422400000003</v>
@@ -15357,8 +15349,11 @@
       <c r="K59">
         <v>4.4808422400000003</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L59">
+        <v>4.4808422400000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>4</v>
       </c>
@@ -15371,20 +15366,17 @@
       <c r="D60">
         <v>17.31067986</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>189.03553199999999</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>75.614212800000004</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>30.245685120000001</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>12.098274050000001</v>
-      </c>
-      <c r="I60">
-        <v>4.8393096189999998</v>
       </c>
       <c r="J60">
         <v>4.8393096189999998</v>
@@ -15392,8 +15384,11 @@
       <c r="K60">
         <v>4.8393096189999998</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L60">
+        <v>4.8393096189999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>4</v>
       </c>
@@ -15406,20 +15401,17 @@
       <c r="D61">
         <v>23.117851399999999</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>226.8426384</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>90.737055359999999</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>36.294822140000001</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>14.51792886</v>
-      </c>
-      <c r="I61">
-        <v>5.8071715429999999</v>
       </c>
       <c r="J61">
         <v>5.8071715429999999</v>
@@ -15427,8 +15419,11 @@
       <c r="K61">
         <v>5.8071715429999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L61">
+        <v>5.8071715429999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>4</v>
       </c>
@@ -15441,20 +15436,17 @@
       <c r="D62">
         <v>29.38959667</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>244.9900495</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>97.996019790000005</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>39.198407920000001</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>15.67936317</v>
-      </c>
-      <c r="I62">
-        <v>6.2717452659999999</v>
       </c>
       <c r="J62">
         <v>6.2717452659999999</v>
@@ -15462,8 +15454,11 @@
       <c r="K62">
         <v>6.2717452659999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L62">
+        <v>6.2717452659999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>4</v>
       </c>
@@ -15476,20 +15471,17 @@
       <c r="D63">
         <v>36.163081560000002</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>264.58925340000002</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>105.8357014</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>42.334280550000003</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>16.93371222</v>
-      </c>
-      <c r="I63">
-        <v>6.7734848879999996</v>
       </c>
       <c r="J63">
         <v>6.7734848879999996</v>
@@ -15497,8 +15489,11 @@
       <c r="K63">
         <v>6.7734848879999996</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L63">
+        <v>6.7734848879999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>4</v>
       </c>
@@ -15511,20 +15506,17 @@
       <c r="D64">
         <v>43.478445239999999</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>285.75639369999999</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>114.30255750000001</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>45.721022990000002</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>18.2884092</v>
-      </c>
-      <c r="I64">
-        <v>7.3153636789999998</v>
       </c>
       <c r="J64">
         <v>7.3153636789999998</v>
@@ -15532,8 +15524,11 @@
       <c r="K64">
         <v>7.3153636789999998</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L64">
+        <v>7.3153636789999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>4</v>
       </c>
@@ -15546,20 +15541,17 @@
       <c r="D65">
         <v>51.379038010000002</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>308.61690520000002</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>123.4467621</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>49.378704829999997</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>19.751481930000001</v>
-      </c>
-      <c r="I65">
-        <v>7.9005927729999996</v>
       </c>
       <c r="J65">
         <v>7.9005927729999996</v>
@@ -15567,8 +15559,11 @@
       <c r="K65">
         <v>7.9005927729999996</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L65">
+        <v>7.9005927729999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>4</v>
       </c>
@@ -15581,20 +15576,17 @@
       <c r="D66">
         <v>61.649808610000001</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>401.20197680000001</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>160.4807907</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>64.19231628</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>25.676926510000001</v>
-      </c>
-      <c r="I66">
-        <v>10.27077061</v>
       </c>
       <c r="J66">
         <v>10.27077061</v>
@@ -15602,8 +15594,11 @@
       <c r="K66">
         <v>10.27077061</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L66">
+        <v>10.27077061</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>4</v>
       </c>
@@ -15616,20 +15611,17 @@
       <c r="D67">
         <v>72.742240870000003</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>433.29813489999998</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>173.319254</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>69.327701579999996</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>27.731080630000001</v>
-      </c>
-      <c r="I67">
-        <v>11.09243225</v>
       </c>
       <c r="J67">
         <v>11.09243225</v>
@@ -15637,8 +15629,11 @@
       <c r="K67">
         <v>11.09243225</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L67">
+        <v>11.09243225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>4</v>
       </c>
@@ -15651,20 +15646,17 @@
       <c r="D68">
         <v>84.722067699999997</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>467.96198570000001</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>187.18479429999999</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>74.873917710000001</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>29.949567080000001</v>
-      </c>
-      <c r="I68">
-        <v>11.97982683</v>
       </c>
       <c r="J68">
         <v>11.97982683</v>
@@ -15672,8 +15664,11 @@
       <c r="K68">
         <v>11.97982683</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L68">
+        <v>11.97982683</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>4</v>
       </c>
@@ -15686,20 +15681,17 @@
       <c r="D69">
         <v>97.66028068</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>505.39894450000003</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>202.15957779999999</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>80.863831129999994</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>32.34553245</v>
-      </c>
-      <c r="I69">
-        <v>12.938212979999999</v>
       </c>
       <c r="J69">
         <v>12.938212979999999</v>
@@ -15707,8 +15699,11 @@
       <c r="K69">
         <v>12.938212979999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L69">
+        <v>12.938212979999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>4</v>
       </c>
@@ -15721,20 +15716,17 @@
       <c r="D70">
         <v>111.6335507</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>545.8308601</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>218.33234400000001</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>87.332937619999996</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>34.933175050000003</v>
-      </c>
-      <c r="I70">
-        <v>13.973270019999999</v>
       </c>
       <c r="J70">
         <v>13.973270019999999</v>
@@ -15742,8 +15734,11 @@
       <c r="K70">
         <v>13.973270019999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L70">
+        <v>13.973270019999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>4</v>
       </c>
@@ -15756,20 +15751,17 @@
       <c r="D71">
         <v>133.99078270000001</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>873.32937619999996</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>349.3317505</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>139.73270020000001</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>55.893080079999997</v>
-      </c>
-      <c r="I71">
-        <v>22.357232029999999</v>
       </c>
       <c r="J71">
         <v>22.357232029999999</v>
@@ -15777,8 +15769,11 @@
       <c r="K71">
         <v>22.357232029999999</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L71">
+        <v>22.357232029999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>4</v>
       </c>
@@ -15791,20 +15786,17 @@
       <c r="D72">
         <v>158.13659329999999</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>943.19572630000005</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>377.27829050000003</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>150.91131619999999</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>60.364526480000002</v>
-      </c>
-      <c r="I72">
-        <v>24.14581059</v>
       </c>
       <c r="J72">
         <v>24.14581059</v>
@@ -15812,8 +15804,11 @@
       <c r="K72">
         <v>24.14581059</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L72">
+        <v>24.14581059</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>4</v>
       </c>
@@ -15826,20 +15821,17 @@
       <c r="D73">
         <v>184.21406880000001</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>1018.651384</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>407.46055380000001</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>162.98422149999999</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>65.193688600000002</v>
-      </c>
-      <c r="I73">
-        <v>26.077475440000001</v>
       </c>
       <c r="J73">
         <v>26.077475440000001</v>
@@ -15847,8 +15839,11 @@
       <c r="K73">
         <v>26.077475440000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L73">
+        <v>26.077475440000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>4</v>
       </c>
@@ -15861,20 +15856,17 @@
       <c r="D74">
         <v>212.3777422</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>1100.143495</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>440.0573981</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>176.0229592</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>70.409183690000006</v>
-      </c>
-      <c r="I74">
-        <v>28.16367348</v>
       </c>
       <c r="J74">
         <v>28.16367348</v>
@@ -15882,8 +15874,11 @@
       <c r="K74">
         <v>28.16367348</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L74">
+        <v>28.16367348</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>4</v>
       </c>
@@ -15896,20 +15891,17 @@
       <c r="D75">
         <v>242.7945096</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>1188.1549749999999</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>475.2619899</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>190.10479599999999</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>76.041918379999998</v>
-      </c>
-      <c r="I75">
-        <v>30.416767350000001</v>
       </c>
       <c r="J75">
         <v>30.416767350000001</v>
@@ -15917,8 +15909,11 @@
       <c r="K75">
         <v>30.416767350000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L75">
+        <v>30.416767350000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>4</v>
       </c>
@@ -15931,20 +15926,17 @@
       <c r="D76">
         <v>294.50301409999997</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>2019.8634569999999</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>807.94538279999995</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>323.17815309999997</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>129.27126129999999</v>
-      </c>
-      <c r="I76">
-        <v>51.708504499999997</v>
       </c>
       <c r="J76">
         <v>51.708504499999997</v>
@@ -15952,8 +15944,11 @@
       <c r="K76">
         <v>51.708504499999997</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L76">
+        <v>51.708504499999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>4</v>
       </c>
@@ -15966,20 +15961,17 @@
       <c r="D77">
         <v>350.34819900000002</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>2181.452534</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>872.58101339999996</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>349.03240540000002</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>139.6129622</v>
-      </c>
-      <c r="I77">
-        <v>55.845184860000003</v>
       </c>
       <c r="J77">
         <v>55.845184860000003</v>
@@ -15987,8 +15979,11 @@
       <c r="K77">
         <v>55.845184860000003</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L77">
+        <v>55.845184860000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>4</v>
       </c>
@@ -16001,20 +15996,17 @@
       <c r="D78">
         <v>410.66099860000003</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>2355.9687359999998</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>942.3874945</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>376.9549978</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>150.78199910000001</v>
-      </c>
-      <c r="I78">
-        <v>60.312799650000002</v>
       </c>
       <c r="J78">
         <v>60.312799650000002</v>
@@ -16022,8 +16014,11 @@
       <c r="K78">
         <v>60.312799650000002</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L78">
+        <v>60.312799650000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>4</v>
       </c>
@@ -16036,20 +16031,17 @@
       <c r="D79">
         <v>475.79882220000002</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>2544.4462349999999</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>1017.778494</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>407.11139759999998</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>162.8445591</v>
-      </c>
-      <c r="I79">
-        <v>65.137823620000006</v>
       </c>
       <c r="J79">
         <v>65.137823620000006</v>
@@ -16057,8 +16049,11 @@
       <c r="K79">
         <v>65.137823620000006</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L79">
+        <v>65.137823620000006</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>4</v>
       </c>
@@ -16071,20 +16066,17 @@
       <c r="D80">
         <v>546.14767170000005</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>2748.0019339999999</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>1099.2007739999999</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>439.6803094</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>175.8721238</v>
-      </c>
-      <c r="I80">
-        <v>70.348849509999994</v>
       </c>
       <c r="J80">
         <v>70.348849509999994</v>
@@ -16092,8 +16084,11 @@
       <c r="K80">
         <v>70.348849509999994</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L80">
+        <v>70.348849509999994</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>4</v>
       </c>
@@ -16106,20 +16101,17 @@
       <c r="D81">
         <v>686.84537079999996</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>5496.0038679999998</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>2198.4015469999999</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>879.36061889999996</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>351.74424759999999</v>
-      </c>
-      <c r="I81">
-        <v>140.697699</v>
       </c>
       <c r="J81">
         <v>140.697699</v>
@@ -16127,8 +16119,11 @@
       <c r="K81">
         <v>140.697699</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L81">
+        <v>140.697699</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>4</v>
       </c>
@@ -16141,20 +16136,17 @@
       <c r="D82">
         <v>838.79888570000003</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>5935.6841780000004</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>2374.2736709999999</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>949.70946839999999</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>379.88378740000002</v>
-      </c>
-      <c r="I82">
-        <v>151.95351489999999</v>
       </c>
       <c r="J82">
         <v>151.95351489999999</v>
@@ -16162,8 +16154,11 @@
       <c r="K82">
         <v>151.95351489999999</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L82">
+        <v>151.95351489999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>4</v>
       </c>
@@ -16176,20 +16171,17 @@
       <c r="D83">
         <v>1002.908682</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>6410.538912</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>2564.215565</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>1025.686226</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>410.27449030000002</v>
-      </c>
-      <c r="I83">
-        <v>164.10979610000001</v>
       </c>
       <c r="J83">
         <v>164.10979610000001</v>
@@ -16197,8 +16189,11 @@
       <c r="K83">
         <v>164.10979610000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L83">
+        <v>164.10979610000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>4</v>
       </c>
@@ -16211,20 +16206,17 @@
       <c r="D84">
         <v>1180.147262</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>6923.3820249999999</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>2769.3528099999999</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>1107.7411239999999</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>443.09644960000003</v>
-      </c>
-      <c r="I84">
-        <v>177.2385798</v>
       </c>
       <c r="J84">
         <v>177.2385798</v>
@@ -16232,8 +16224,11 @@
       <c r="K84">
         <v>177.2385798</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L84">
+        <v>177.2385798</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>4</v>
       </c>
@@ -16246,20 +16241,17 @@
       <c r="D85">
         <v>1371.564928</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>7477.2525869999999</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>2990.9010349999999</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>1196.360414</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>478.54416550000002</v>
-      </c>
-      <c r="I85">
-        <v>191.41766620000001</v>
       </c>
       <c r="J85">
         <v>191.41766620000001</v>
@@ -16267,8 +16259,11 @@
       <c r="K85">
         <v>191.41766620000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L85">
+        <v>191.41766620000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>4</v>
       </c>
@@ -16281,20 +16276,17 @@
       <c r="D86">
         <v>1945.8179270000001</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>22431.75776</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>8972.7031040000002</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>3589.0812420000002</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>1435.6324970000001</v>
-      </c>
-      <c r="I86">
-        <v>574.25299870000003</v>
       </c>
       <c r="J86">
         <v>574.25299870000003</v>
@@ -16302,8 +16294,11 @@
       <c r="K86">
         <v>574.25299870000003</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L86">
+        <v>574.25299870000003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>5</v>
       </c>
@@ -16316,9 +16311,6 @@
       <c r="D87">
         <v>0</v>
       </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
       <c r="F87">
         <v>0</v>
       </c>
@@ -16337,8 +16329,11 @@
       <c r="K87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>5</v>
       </c>
@@ -16351,20 +16346,17 @@
       <c r="D88">
         <v>3.8416000000000001</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>150.0625</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>60.024999999999999</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>24.01</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>9.6039999999999992</v>
-      </c>
-      <c r="I88">
-        <v>3.8416000000000001</v>
       </c>
       <c r="J88">
         <v>3.8416000000000001</v>
@@ -16372,8 +16364,11 @@
       <c r="K88">
         <v>3.8416000000000001</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L88">
+        <v>3.8416000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>5</v>
       </c>
@@ -16386,20 +16381,17 @@
       <c r="D89">
         <v>7.9905280000000003</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>162.0675</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>64.826999999999998</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>25.930800000000001</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>10.37232</v>
-      </c>
-      <c r="I89">
-        <v>4.1489279999999997</v>
       </c>
       <c r="J89">
         <v>4.1489279999999997</v>
@@ -16407,8 +16399,11 @@
       <c r="K89">
         <v>4.1489279999999997</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L89">
+        <v>4.1489279999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>5</v>
       </c>
@@ -16421,20 +16416,17 @@
       <c r="D90">
         <v>12.471370240000001</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>175.03290000000001</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>70.013159999999999</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>28.005264</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>11.202105599999999</v>
-      </c>
-      <c r="I90">
-        <v>4.4808422400000003</v>
       </c>
       <c r="J90">
         <v>4.4808422400000003</v>
@@ -16442,8 +16434,11 @@
       <c r="K90">
         <v>4.4808422400000003</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L90">
+        <v>4.4808422400000003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>5</v>
       </c>
@@ -16456,20 +16451,17 @@
       <c r="D91">
         <v>17.31067986</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>189.03553199999999</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>75.614212800000004</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>30.245685120000001</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>12.098274050000001</v>
-      </c>
-      <c r="I91">
-        <v>4.8393096189999998</v>
       </c>
       <c r="J91">
         <v>4.8393096189999998</v>
@@ -16477,8 +16469,11 @@
       <c r="K91">
         <v>4.8393096189999998</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L91">
+        <v>4.8393096189999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>5</v>
       </c>
@@ -16491,20 +16486,17 @@
       <c r="D92">
         <v>23.117851399999999</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>226.8426384</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>90.737055359999999</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>36.294822140000001</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>14.51792886</v>
-      </c>
-      <c r="I92">
-        <v>5.8071715429999999</v>
       </c>
       <c r="J92">
         <v>5.8071715429999999</v>
@@ -16512,8 +16504,11 @@
       <c r="K92">
         <v>5.8071715429999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L92">
+        <v>5.8071715429999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>5</v>
       </c>
@@ -16526,20 +16521,17 @@
       <c r="D93">
         <v>29.38959667</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>244.9900495</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>97.996019790000005</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>39.198407920000001</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>15.67936317</v>
-      </c>
-      <c r="I93">
-        <v>6.2717452659999999</v>
       </c>
       <c r="J93">
         <v>6.2717452659999999</v>
@@ -16547,8 +16539,11 @@
       <c r="K93">
         <v>6.2717452659999999</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L93">
+        <v>6.2717452659999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>5</v>
       </c>
@@ -16561,20 +16556,17 @@
       <c r="D94">
         <v>36.163081560000002</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>264.58925340000002</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>105.8357014</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>42.334280550000003</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>16.93371222</v>
-      </c>
-      <c r="I94">
-        <v>6.7734848879999996</v>
       </c>
       <c r="J94">
         <v>6.7734848879999996</v>
@@ -16582,8 +16574,11 @@
       <c r="K94">
         <v>6.7734848879999996</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L94">
+        <v>6.7734848879999996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>5</v>
       </c>
@@ -16596,20 +16591,17 @@
       <c r="D95">
         <v>43.478445239999999</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>285.75639369999999</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>114.30255750000001</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>45.721022990000002</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>18.2884092</v>
-      </c>
-      <c r="I95">
-        <v>7.3153636789999998</v>
       </c>
       <c r="J95">
         <v>7.3153636789999998</v>
@@ -16617,8 +16609,11 @@
       <c r="K95">
         <v>7.3153636789999998</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L95">
+        <v>7.3153636789999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>5</v>
       </c>
@@ -16631,20 +16626,17 @@
       <c r="D96">
         <v>51.379038010000002</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>308.61690520000002</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>123.4467621</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>49.378704829999997</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>19.751481930000001</v>
-      </c>
-      <c r="I96">
-        <v>7.9005927729999996</v>
       </c>
       <c r="J96">
         <v>7.9005927729999996</v>
@@ -16652,8 +16644,11 @@
       <c r="K96">
         <v>7.9005927729999996</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L96">
+        <v>7.9005927729999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>5</v>
       </c>
@@ -16666,20 +16661,17 @@
       <c r="D97">
         <v>61.649808610000001</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>401.20197680000001</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>160.4807907</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>64.19231628</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>25.676926510000001</v>
-      </c>
-      <c r="I97">
-        <v>10.27077061</v>
       </c>
       <c r="J97">
         <v>10.27077061</v>
@@ -16687,8 +16679,11 @@
       <c r="K97">
         <v>10.27077061</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L97">
+        <v>10.27077061</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>5</v>
       </c>
@@ -16701,20 +16696,17 @@
       <c r="D98">
         <v>72.742240870000003</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>433.29813489999998</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>173.319254</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>69.327701579999996</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>27.731080630000001</v>
-      </c>
-      <c r="I98">
-        <v>11.09243225</v>
       </c>
       <c r="J98">
         <v>11.09243225</v>
@@ -16722,8 +16714,11 @@
       <c r="K98">
         <v>11.09243225</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L98">
+        <v>11.09243225</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>5</v>
       </c>
@@ -16736,20 +16731,17 @@
       <c r="D99">
         <v>84.722067699999997</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>467.96198570000001</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>187.18479429999999</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>74.873917710000001</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>29.949567080000001</v>
-      </c>
-      <c r="I99">
-        <v>11.97982683</v>
       </c>
       <c r="J99">
         <v>11.97982683</v>
@@ -16757,8 +16749,11 @@
       <c r="K99">
         <v>11.97982683</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L99">
+        <v>11.97982683</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>5</v>
       </c>
@@ -16771,20 +16766,17 @@
       <c r="D100">
         <v>97.66028068</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>505.39894450000003</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>202.15957779999999</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>80.863831129999994</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>32.34553245</v>
-      </c>
-      <c r="I100">
-        <v>12.938212979999999</v>
       </c>
       <c r="J100">
         <v>12.938212979999999</v>
@@ -16792,8 +16784,11 @@
       <c r="K100">
         <v>12.938212979999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L100">
+        <v>12.938212979999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>5</v>
       </c>
@@ -16806,20 +16801,17 @@
       <c r="D101">
         <v>111.6335507</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>545.8308601</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>218.33234400000001</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>87.332937619999996</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>34.933175050000003</v>
-      </c>
-      <c r="I101">
-        <v>13.973270019999999</v>
       </c>
       <c r="J101">
         <v>13.973270019999999</v>
@@ -16827,8 +16819,11 @@
       <c r="K101">
         <v>13.973270019999999</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L101">
+        <v>13.973270019999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>5</v>
       </c>
@@ -16841,20 +16836,17 @@
       <c r="D102">
         <v>133.99078270000001</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>873.32937619999996</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>349.3317505</v>
       </c>
-      <c r="G102">
+      <c r="H102">
         <v>139.73270020000001</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <v>55.893080079999997</v>
-      </c>
-      <c r="I102">
-        <v>22.357232029999999</v>
       </c>
       <c r="J102">
         <v>22.357232029999999</v>
@@ -16862,8 +16854,11 @@
       <c r="K102">
         <v>22.357232029999999</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L102">
+        <v>22.357232029999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>5</v>
       </c>
@@ -16876,20 +16871,17 @@
       <c r="D103">
         <v>158.13659329999999</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>943.19572630000005</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>377.27829050000003</v>
       </c>
-      <c r="G103">
+      <c r="H103">
         <v>150.91131619999999</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <v>60.364526480000002</v>
-      </c>
-      <c r="I103">
-        <v>24.14581059</v>
       </c>
       <c r="J103">
         <v>24.14581059</v>
@@ -16897,8 +16889,11 @@
       <c r="K103">
         <v>24.14581059</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L103">
+        <v>24.14581059</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>5</v>
       </c>
@@ -16911,20 +16906,17 @@
       <c r="D104">
         <v>184.21406880000001</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>1018.651384</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>407.46055380000001</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>162.98422149999999</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>65.193688600000002</v>
-      </c>
-      <c r="I104">
-        <v>26.077475440000001</v>
       </c>
       <c r="J104">
         <v>26.077475440000001</v>
@@ -16932,8 +16924,11 @@
       <c r="K104">
         <v>26.077475440000001</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L104">
+        <v>26.077475440000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>5</v>
       </c>
@@ -16946,20 +16941,17 @@
       <c r="D105">
         <v>212.3777422</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>1100.143495</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>440.0573981</v>
       </c>
-      <c r="G105">
+      <c r="H105">
         <v>176.0229592</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <v>70.409183690000006</v>
-      </c>
-      <c r="I105">
-        <v>28.16367348</v>
       </c>
       <c r="J105">
         <v>28.16367348</v>
@@ -16967,8 +16959,11 @@
       <c r="K105">
         <v>28.16367348</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L105">
+        <v>28.16367348</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>5</v>
       </c>
@@ -16981,20 +16976,17 @@
       <c r="D106">
         <v>242.7945096</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>1188.1549749999999</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>475.2619899</v>
       </c>
-      <c r="G106">
+      <c r="H106">
         <v>190.10479599999999</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <v>76.041918379999998</v>
-      </c>
-      <c r="I106">
-        <v>30.416767350000001</v>
       </c>
       <c r="J106">
         <v>30.416767350000001</v>
@@ -17002,8 +16994,11 @@
       <c r="K106">
         <v>30.416767350000001</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L106">
+        <v>30.416767350000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>5</v>
       </c>
@@ -17016,20 +17011,17 @@
       <c r="D107">
         <v>294.50301409999997</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>2019.8634569999999</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>807.94538279999995</v>
       </c>
-      <c r="G107">
+      <c r="H107">
         <v>323.17815309999997</v>
       </c>
-      <c r="H107">
+      <c r="I107">
         <v>129.27126129999999</v>
-      </c>
-      <c r="I107">
-        <v>51.708504499999997</v>
       </c>
       <c r="J107">
         <v>51.708504499999997</v>
@@ -17037,8 +17029,11 @@
       <c r="K107">
         <v>51.708504499999997</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L107">
+        <v>51.708504499999997</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>5</v>
       </c>
@@ -17051,20 +17046,17 @@
       <c r="D108">
         <v>350.34819900000002</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>2181.452534</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>872.58101339999996</v>
       </c>
-      <c r="G108">
+      <c r="H108">
         <v>349.03240540000002</v>
       </c>
-      <c r="H108">
+      <c r="I108">
         <v>139.6129622</v>
-      </c>
-      <c r="I108">
-        <v>55.845184860000003</v>
       </c>
       <c r="J108">
         <v>55.845184860000003</v>
@@ -17072,8 +17064,11 @@
       <c r="K108">
         <v>55.845184860000003</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L108">
+        <v>55.845184860000003</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>5</v>
       </c>
@@ -17086,20 +17081,17 @@
       <c r="D109">
         <v>410.66099860000003</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>2355.9687359999998</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>942.3874945</v>
       </c>
-      <c r="G109">
+      <c r="H109">
         <v>376.9549978</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <v>150.78199910000001</v>
-      </c>
-      <c r="I109">
-        <v>60.312799650000002</v>
       </c>
       <c r="J109">
         <v>60.312799650000002</v>
@@ -17107,8 +17099,11 @@
       <c r="K109">
         <v>60.312799650000002</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L109">
+        <v>60.312799650000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>5</v>
       </c>
@@ -17121,20 +17116,17 @@
       <c r="D110">
         <v>475.79882220000002</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>2544.4462349999999</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>1017.778494</v>
       </c>
-      <c r="G110">
+      <c r="H110">
         <v>407.11139759999998</v>
       </c>
-      <c r="H110">
+      <c r="I110">
         <v>162.8445591</v>
-      </c>
-      <c r="I110">
-        <v>65.137823620000006</v>
       </c>
       <c r="J110">
         <v>65.137823620000006</v>
@@ -17142,8 +17134,11 @@
       <c r="K110">
         <v>65.137823620000006</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L110">
+        <v>65.137823620000006</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>5</v>
       </c>
@@ -17156,20 +17151,17 @@
       <c r="D111">
         <v>546.14767170000005</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>2748.0019339999999</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>1099.2007739999999</v>
       </c>
-      <c r="G111">
+      <c r="H111">
         <v>439.6803094</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <v>175.8721238</v>
-      </c>
-      <c r="I111">
-        <v>70.348849509999994</v>
       </c>
       <c r="J111">
         <v>70.348849509999994</v>
@@ -17177,8 +17169,11 @@
       <c r="K111">
         <v>70.348849509999994</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L111">
+        <v>70.348849509999994</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>5</v>
       </c>
@@ -17191,20 +17186,17 @@
       <c r="D112">
         <v>686.84537079999996</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>5496.0038679999998</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>2198.4015469999999</v>
       </c>
-      <c r="G112">
+      <c r="H112">
         <v>879.36061889999996</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>351.74424759999999</v>
-      </c>
-      <c r="I112">
-        <v>140.697699</v>
       </c>
       <c r="J112">
         <v>140.697699</v>
@@ -17212,8 +17204,11 @@
       <c r="K112">
         <v>140.697699</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L112">
+        <v>140.697699</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>5</v>
       </c>
@@ -17226,20 +17221,17 @@
       <c r="D113">
         <v>838.79888570000003</v>
       </c>
-      <c r="E113">
+      <c r="F113">
         <v>5935.6841780000004</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>2374.2736709999999</v>
       </c>
-      <c r="G113">
+      <c r="H113">
         <v>949.70946839999999</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <v>379.88378740000002</v>
-      </c>
-      <c r="I113">
-        <v>151.95351489999999</v>
       </c>
       <c r="J113">
         <v>151.95351489999999</v>
@@ -17247,8 +17239,11 @@
       <c r="K113">
         <v>151.95351489999999</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L113">
+        <v>151.95351489999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>5</v>
       </c>
@@ -17261,20 +17256,17 @@
       <c r="D114">
         <v>1002.908682</v>
       </c>
-      <c r="E114">
+      <c r="F114">
         <v>6410.538912</v>
       </c>
-      <c r="F114">
+      <c r="G114">
         <v>2564.215565</v>
       </c>
-      <c r="G114">
+      <c r="H114">
         <v>1025.686226</v>
       </c>
-      <c r="H114">
+      <c r="I114">
         <v>410.27449030000002</v>
-      </c>
-      <c r="I114">
-        <v>164.10979610000001</v>
       </c>
       <c r="J114">
         <v>164.10979610000001</v>
@@ -17282,8 +17274,11 @@
       <c r="K114">
         <v>164.10979610000001</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L114">
+        <v>164.10979610000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>5</v>
       </c>
@@ -17296,20 +17291,17 @@
       <c r="D115">
         <v>1180.147262</v>
       </c>
-      <c r="E115">
+      <c r="F115">
         <v>6923.3820249999999</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>2769.3528099999999</v>
       </c>
-      <c r="G115">
+      <c r="H115">
         <v>1107.7411239999999</v>
       </c>
-      <c r="H115">
+      <c r="I115">
         <v>443.09644960000003</v>
-      </c>
-      <c r="I115">
-        <v>177.2385798</v>
       </c>
       <c r="J115">
         <v>177.2385798</v>
@@ -17317,8 +17309,11 @@
       <c r="K115">
         <v>177.2385798</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L115">
+        <v>177.2385798</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>5</v>
       </c>
@@ -17331,20 +17326,17 @@
       <c r="D116">
         <v>1371.564928</v>
       </c>
-      <c r="E116">
+      <c r="F116">
         <v>7477.2525869999999</v>
       </c>
-      <c r="F116">
+      <c r="G116">
         <v>2990.9010349999999</v>
       </c>
-      <c r="G116">
+      <c r="H116">
         <v>1196.360414</v>
       </c>
-      <c r="H116">
+      <c r="I116">
         <v>478.54416550000002</v>
-      </c>
-      <c r="I116">
-        <v>191.41766620000001</v>
       </c>
       <c r="J116">
         <v>191.41766620000001</v>
@@ -17352,8 +17344,11 @@
       <c r="K116">
         <v>191.41766620000001</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L116">
+        <v>191.41766620000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>5</v>
       </c>
@@ -17366,20 +17361,17 @@
       <c r="D117">
         <v>1945.8179270000001</v>
       </c>
-      <c r="E117">
+      <c r="F117">
         <v>22431.75776</v>
       </c>
-      <c r="F117">
+      <c r="G117">
         <v>8972.7031040000002</v>
       </c>
-      <c r="G117">
+      <c r="H117">
         <v>3589.0812420000002</v>
       </c>
-      <c r="H117">
+      <c r="I117">
         <v>1435.6324970000001</v>
-      </c>
-      <c r="I117">
-        <v>574.25299870000003</v>
       </c>
       <c r="J117">
         <v>574.25299870000003</v>
@@ -17387,8 +17379,11 @@
       <c r="K117">
         <v>574.25299870000003</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L117">
+        <v>574.25299870000003</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>6</v>
       </c>
@@ -17401,9 +17396,6 @@
       <c r="D118">
         <v>0</v>
       </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
       <c r="F118">
         <v>0</v>
       </c>
@@ -17422,8 +17414,11 @@
       <c r="K118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>6</v>
       </c>
@@ -17436,20 +17431,17 @@
       <c r="D119">
         <v>3.8416000000000001</v>
       </c>
-      <c r="E119">
+      <c r="F119">
         <v>150.0625</v>
       </c>
-      <c r="F119">
+      <c r="G119">
         <v>60.024999999999999</v>
       </c>
-      <c r="G119">
+      <c r="H119">
         <v>24.01</v>
       </c>
-      <c r="H119">
+      <c r="I119">
         <v>9.6039999999999992</v>
-      </c>
-      <c r="I119">
-        <v>3.8416000000000001</v>
       </c>
       <c r="J119">
         <v>3.8416000000000001</v>
@@ -17457,8 +17449,11 @@
       <c r="K119">
         <v>3.8416000000000001</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L119">
+        <v>3.8416000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>6</v>
       </c>
@@ -17471,20 +17466,17 @@
       <c r="D120">
         <v>7.9905280000000003</v>
       </c>
-      <c r="E120">
+      <c r="F120">
         <v>162.0675</v>
       </c>
-      <c r="F120">
+      <c r="G120">
         <v>64.826999999999998</v>
       </c>
-      <c r="G120">
+      <c r="H120">
         <v>25.930800000000001</v>
       </c>
-      <c r="H120">
+      <c r="I120">
         <v>10.37232</v>
-      </c>
-      <c r="I120">
-        <v>4.1489279999999997</v>
       </c>
       <c r="J120">
         <v>4.1489279999999997</v>
@@ -17492,8 +17484,11 @@
       <c r="K120">
         <v>4.1489279999999997</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L120">
+        <v>4.1489279999999997</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>6</v>
       </c>
@@ -17506,20 +17501,17 @@
       <c r="D121">
         <v>12.471370240000001</v>
       </c>
-      <c r="E121">
+      <c r="F121">
         <v>175.03290000000001</v>
       </c>
-      <c r="F121">
+      <c r="G121">
         <v>70.013159999999999</v>
       </c>
-      <c r="G121">
+      <c r="H121">
         <v>28.005264</v>
       </c>
-      <c r="H121">
+      <c r="I121">
         <v>11.202105599999999</v>
-      </c>
-      <c r="I121">
-        <v>4.4808422400000003</v>
       </c>
       <c r="J121">
         <v>4.4808422400000003</v>
@@ -17527,8 +17519,11 @@
       <c r="K121">
         <v>4.4808422400000003</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L121">
+        <v>4.4808422400000003</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>6</v>
       </c>
@@ -17541,20 +17536,17 @@
       <c r="D122">
         <v>17.31067986</v>
       </c>
-      <c r="E122">
+      <c r="F122">
         <v>189.03553199999999</v>
       </c>
-      <c r="F122">
+      <c r="G122">
         <v>75.614212800000004</v>
       </c>
-      <c r="G122">
+      <c r="H122">
         <v>30.245685120000001</v>
       </c>
-      <c r="H122">
+      <c r="I122">
         <v>12.098274050000001</v>
-      </c>
-      <c r="I122">
-        <v>4.8393096189999998</v>
       </c>
       <c r="J122">
         <v>4.8393096189999998</v>
@@ -17562,8 +17554,11 @@
       <c r="K122">
         <v>4.8393096189999998</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L122">
+        <v>4.8393096189999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>6</v>
       </c>
@@ -17576,20 +17571,17 @@
       <c r="D123">
         <v>23.117851399999999</v>
       </c>
-      <c r="E123">
+      <c r="F123">
         <v>226.8426384</v>
       </c>
-      <c r="F123">
+      <c r="G123">
         <v>90.737055359999999</v>
       </c>
-      <c r="G123">
+      <c r="H123">
         <v>36.294822140000001</v>
       </c>
-      <c r="H123">
+      <c r="I123">
         <v>14.51792886</v>
-      </c>
-      <c r="I123">
-        <v>5.8071715429999999</v>
       </c>
       <c r="J123">
         <v>5.8071715429999999</v>
@@ -17597,8 +17589,11 @@
       <c r="K123">
         <v>5.8071715429999999</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L123">
+        <v>5.8071715429999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>6</v>
       </c>
@@ -17611,20 +17606,17 @@
       <c r="D124">
         <v>29.38959667</v>
       </c>
-      <c r="E124">
+      <c r="F124">
         <v>244.9900495</v>
       </c>
-      <c r="F124">
+      <c r="G124">
         <v>97.996019790000005</v>
       </c>
-      <c r="G124">
+      <c r="H124">
         <v>39.198407920000001</v>
       </c>
-      <c r="H124">
+      <c r="I124">
         <v>15.67936317</v>
-      </c>
-      <c r="I124">
-        <v>6.2717452659999999</v>
       </c>
       <c r="J124">
         <v>6.2717452659999999</v>
@@ -17632,8 +17624,11 @@
       <c r="K124">
         <v>6.2717452659999999</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L124">
+        <v>6.2717452659999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>6</v>
       </c>
@@ -17646,20 +17641,17 @@
       <c r="D125">
         <v>36.163081560000002</v>
       </c>
-      <c r="E125">
+      <c r="F125">
         <v>264.58925340000002</v>
       </c>
-      <c r="F125">
+      <c r="G125">
         <v>105.8357014</v>
       </c>
-      <c r="G125">
+      <c r="H125">
         <v>42.334280550000003</v>
       </c>
-      <c r="H125">
+      <c r="I125">
         <v>16.93371222</v>
-      </c>
-      <c r="I125">
-        <v>6.7734848879999996</v>
       </c>
       <c r="J125">
         <v>6.7734848879999996</v>
@@ -17667,8 +17659,11 @@
       <c r="K125">
         <v>6.7734848879999996</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L125">
+        <v>6.7734848879999996</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>6</v>
       </c>
@@ -17681,20 +17676,17 @@
       <c r="D126">
         <v>43.478445239999999</v>
       </c>
-      <c r="E126">
+      <c r="F126">
         <v>285.75639369999999</v>
       </c>
-      <c r="F126">
+      <c r="G126">
         <v>114.30255750000001</v>
       </c>
-      <c r="G126">
+      <c r="H126">
         <v>45.721022990000002</v>
       </c>
-      <c r="H126">
+      <c r="I126">
         <v>18.2884092</v>
-      </c>
-      <c r="I126">
-        <v>7.3153636789999998</v>
       </c>
       <c r="J126">
         <v>7.3153636789999998</v>
@@ -17702,8 +17694,11 @@
       <c r="K126">
         <v>7.3153636789999998</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L126">
+        <v>7.3153636789999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>6</v>
       </c>
@@ -17716,20 +17711,17 @@
       <c r="D127">
         <v>51.379038010000002</v>
       </c>
-      <c r="E127">
+      <c r="F127">
         <v>308.61690520000002</v>
       </c>
-      <c r="F127">
+      <c r="G127">
         <v>123.4467621</v>
       </c>
-      <c r="G127">
+      <c r="H127">
         <v>49.378704829999997</v>
       </c>
-      <c r="H127">
+      <c r="I127">
         <v>19.751481930000001</v>
-      </c>
-      <c r="I127">
-        <v>7.9005927729999996</v>
       </c>
       <c r="J127">
         <v>7.9005927729999996</v>
@@ -17737,8 +17729,11 @@
       <c r="K127">
         <v>7.9005927729999996</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L127">
+        <v>7.9005927729999996</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>6</v>
       </c>
@@ -17751,20 +17746,17 @@
       <c r="D128">
         <v>61.649808610000001</v>
       </c>
-      <c r="E128">
+      <c r="F128">
         <v>401.20197680000001</v>
       </c>
-      <c r="F128">
+      <c r="G128">
         <v>160.4807907</v>
       </c>
-      <c r="G128">
+      <c r="H128">
         <v>64.19231628</v>
       </c>
-      <c r="H128">
+      <c r="I128">
         <v>25.676926510000001</v>
-      </c>
-      <c r="I128">
-        <v>10.27077061</v>
       </c>
       <c r="J128">
         <v>10.27077061</v>
@@ -17772,8 +17764,11 @@
       <c r="K128">
         <v>10.27077061</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L128">
+        <v>10.27077061</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>6</v>
       </c>
@@ -17786,20 +17781,17 @@
       <c r="D129">
         <v>72.742240870000003</v>
       </c>
-      <c r="E129">
+      <c r="F129">
         <v>433.29813489999998</v>
       </c>
-      <c r="F129">
+      <c r="G129">
         <v>173.319254</v>
       </c>
-      <c r="G129">
+      <c r="H129">
         <v>69.327701579999996</v>
       </c>
-      <c r="H129">
+      <c r="I129">
         <v>27.731080630000001</v>
-      </c>
-      <c r="I129">
-        <v>11.09243225</v>
       </c>
       <c r="J129">
         <v>11.09243225</v>
@@ -17807,8 +17799,11 @@
       <c r="K129">
         <v>11.09243225</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L129">
+        <v>11.09243225</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>6</v>
       </c>
@@ -17821,20 +17816,17 @@
       <c r="D130">
         <v>84.722067699999997</v>
       </c>
-      <c r="E130">
+      <c r="F130">
         <v>467.96198570000001</v>
       </c>
-      <c r="F130">
+      <c r="G130">
         <v>187.18479429999999</v>
       </c>
-      <c r="G130">
+      <c r="H130">
         <v>74.873917710000001</v>
       </c>
-      <c r="H130">
+      <c r="I130">
         <v>29.949567080000001</v>
-      </c>
-      <c r="I130">
-        <v>11.97982683</v>
       </c>
       <c r="J130">
         <v>11.97982683</v>
@@ -17842,8 +17834,11 @@
       <c r="K130">
         <v>11.97982683</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L130">
+        <v>11.97982683</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>6</v>
       </c>
@@ -17856,20 +17851,17 @@
       <c r="D131">
         <v>97.66028068</v>
       </c>
-      <c r="E131">
+      <c r="F131">
         <v>505.39894450000003</v>
       </c>
-      <c r="F131">
+      <c r="G131">
         <v>202.15957779999999</v>
       </c>
-      <c r="G131">
+      <c r="H131">
         <v>80.863831129999994</v>
       </c>
-      <c r="H131">
+      <c r="I131">
         <v>32.34553245</v>
-      </c>
-      <c r="I131">
-        <v>12.938212979999999</v>
       </c>
       <c r="J131">
         <v>12.938212979999999</v>
@@ -17877,8 +17869,11 @@
       <c r="K131">
         <v>12.938212979999999</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L131">
+        <v>12.938212979999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>6</v>
       </c>
@@ -17891,20 +17886,17 @@
       <c r="D132">
         <v>111.6335507</v>
       </c>
-      <c r="E132">
+      <c r="F132">
         <v>545.8308601</v>
       </c>
-      <c r="F132">
+      <c r="G132">
         <v>218.33234400000001</v>
       </c>
-      <c r="G132">
+      <c r="H132">
         <v>87.332937619999996</v>
       </c>
-      <c r="H132">
+      <c r="I132">
         <v>34.933175050000003</v>
-      </c>
-      <c r="I132">
-        <v>13.973270019999999</v>
       </c>
       <c r="J132">
         <v>13.973270019999999</v>
@@ -17912,8 +17904,11 @@
       <c r="K132">
         <v>13.973270019999999</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L132">
+        <v>13.973270019999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>6</v>
       </c>
@@ -17926,20 +17921,17 @@
       <c r="D133">
         <v>133.99078270000001</v>
       </c>
-      <c r="E133">
+      <c r="F133">
         <v>873.32937619999996</v>
       </c>
-      <c r="F133">
+      <c r="G133">
         <v>349.3317505</v>
       </c>
-      <c r="G133">
+      <c r="H133">
         <v>139.73270020000001</v>
       </c>
-      <c r="H133">
+      <c r="I133">
         <v>55.893080079999997</v>
-      </c>
-      <c r="I133">
-        <v>22.357232029999999</v>
       </c>
       <c r="J133">
         <v>22.357232029999999</v>
@@ -17947,8 +17939,11 @@
       <c r="K133">
         <v>22.357232029999999</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L133">
+        <v>22.357232029999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>6</v>
       </c>
@@ -17961,20 +17956,17 @@
       <c r="D134">
         <v>158.13659329999999</v>
       </c>
-      <c r="E134">
+      <c r="F134">
         <v>943.19572630000005</v>
       </c>
-      <c r="F134">
+      <c r="G134">
         <v>377.27829050000003</v>
       </c>
-      <c r="G134">
+      <c r="H134">
         <v>150.91131619999999</v>
       </c>
-      <c r="H134">
+      <c r="I134">
         <v>60.364526480000002</v>
-      </c>
-      <c r="I134">
-        <v>24.14581059</v>
       </c>
       <c r="J134">
         <v>24.14581059</v>
@@ -17982,8 +17974,11 @@
       <c r="K134">
         <v>24.14581059</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L134">
+        <v>24.14581059</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>6</v>
       </c>
@@ -17996,20 +17991,17 @@
       <c r="D135">
         <v>184.21406880000001</v>
       </c>
-      <c r="E135">
+      <c r="F135">
         <v>1018.651384</v>
       </c>
-      <c r="F135">
+      <c r="G135">
         <v>407.46055380000001</v>
       </c>
-      <c r="G135">
+      <c r="H135">
         <v>162.98422149999999</v>
       </c>
-      <c r="H135">
+      <c r="I135">
         <v>65.193688600000002</v>
-      </c>
-      <c r="I135">
-        <v>26.077475440000001</v>
       </c>
       <c r="J135">
         <v>26.077475440000001</v>
@@ -18017,8 +18009,11 @@
       <c r="K135">
         <v>26.077475440000001</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L135">
+        <v>26.077475440000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>6</v>
       </c>
@@ -18031,20 +18026,17 @@
       <c r="D136">
         <v>212.3777422</v>
       </c>
-      <c r="E136">
+      <c r="F136">
         <v>1100.143495</v>
       </c>
-      <c r="F136">
+      <c r="G136">
         <v>440.0573981</v>
       </c>
-      <c r="G136">
+      <c r="H136">
         <v>176.0229592</v>
       </c>
-      <c r="H136">
+      <c r="I136">
         <v>70.409183690000006</v>
-      </c>
-      <c r="I136">
-        <v>28.16367348</v>
       </c>
       <c r="J136">
         <v>28.16367348</v>
@@ -18052,8 +18044,11 @@
       <c r="K136">
         <v>28.16367348</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L136">
+        <v>28.16367348</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>6</v>
       </c>
@@ -18066,20 +18061,17 @@
       <c r="D137">
         <v>242.7945096</v>
       </c>
-      <c r="E137">
+      <c r="F137">
         <v>1188.1549749999999</v>
       </c>
-      <c r="F137">
+      <c r="G137">
         <v>475.2619899</v>
       </c>
-      <c r="G137">
+      <c r="H137">
         <v>190.10479599999999</v>
       </c>
-      <c r="H137">
+      <c r="I137">
         <v>76.041918379999998</v>
-      </c>
-      <c r="I137">
-        <v>30.416767350000001</v>
       </c>
       <c r="J137">
         <v>30.416767350000001</v>
@@ -18087,8 +18079,11 @@
       <c r="K137">
         <v>30.416767350000001</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L137">
+        <v>30.416767350000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>6</v>
       </c>
@@ -18101,20 +18096,17 @@
       <c r="D138">
         <v>294.50301409999997</v>
       </c>
-      <c r="E138">
+      <c r="F138">
         <v>2019.8634569999999</v>
       </c>
-      <c r="F138">
+      <c r="G138">
         <v>807.94538279999995</v>
       </c>
-      <c r="G138">
+      <c r="H138">
         <v>323.17815309999997</v>
       </c>
-      <c r="H138">
+      <c r="I138">
         <v>129.27126129999999</v>
-      </c>
-      <c r="I138">
-        <v>51.708504499999997</v>
       </c>
       <c r="J138">
         <v>51.708504499999997</v>
@@ -18122,8 +18114,11 @@
       <c r="K138">
         <v>51.708504499999997</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L138">
+        <v>51.708504499999997</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>6</v>
       </c>
@@ -18136,20 +18131,17 @@
       <c r="D139">
         <v>350.34819900000002</v>
       </c>
-      <c r="E139">
+      <c r="F139">
         <v>2181.452534</v>
       </c>
-      <c r="F139">
+      <c r="G139">
         <v>872.58101339999996</v>
       </c>
-      <c r="G139">
+      <c r="H139">
         <v>349.03240540000002</v>
       </c>
-      <c r="H139">
+      <c r="I139">
         <v>139.6129622</v>
-      </c>
-      <c r="I139">
-        <v>55.845184860000003</v>
       </c>
       <c r="J139">
         <v>55.845184860000003</v>
@@ -18157,8 +18149,11 @@
       <c r="K139">
         <v>55.845184860000003</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L139">
+        <v>55.845184860000003</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>6</v>
       </c>
@@ -18171,20 +18166,17 @@
       <c r="D140">
         <v>410.66099860000003</v>
       </c>
-      <c r="E140">
+      <c r="F140">
         <v>2355.9687359999998</v>
       </c>
-      <c r="F140">
+      <c r="G140">
         <v>942.3874945</v>
       </c>
-      <c r="G140">
+      <c r="H140">
         <v>376.9549978</v>
       </c>
-      <c r="H140">
+      <c r="I140">
         <v>150.78199910000001</v>
-      </c>
-      <c r="I140">
-        <v>60.312799650000002</v>
       </c>
       <c r="J140">
         <v>60.312799650000002</v>
@@ -18192,8 +18184,11 @@
       <c r="K140">
         <v>60.312799650000002</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L140">
+        <v>60.312799650000002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>6</v>
       </c>
@@ -18206,20 +18201,17 @@
       <c r="D141">
         <v>475.79882220000002</v>
       </c>
-      <c r="E141">
+      <c r="F141">
         <v>2544.4462349999999</v>
       </c>
-      <c r="F141">
+      <c r="G141">
         <v>1017.778494</v>
       </c>
-      <c r="G141">
+      <c r="H141">
         <v>407.11139759999998</v>
       </c>
-      <c r="H141">
+      <c r="I141">
         <v>162.8445591</v>
-      </c>
-      <c r="I141">
-        <v>65.137823620000006</v>
       </c>
       <c r="J141">
         <v>65.137823620000006</v>
@@ -18227,8 +18219,11 @@
       <c r="K141">
         <v>65.137823620000006</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L141">
+        <v>65.137823620000006</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>6</v>
       </c>
@@ -18241,20 +18236,17 @@
       <c r="D142">
         <v>546.14767170000005</v>
       </c>
-      <c r="E142">
+      <c r="F142">
         <v>2748.0019339999999</v>
       </c>
-      <c r="F142">
+      <c r="G142">
         <v>1099.2007739999999</v>
       </c>
-      <c r="G142">
+      <c r="H142">
         <v>439.6803094</v>
       </c>
-      <c r="H142">
+      <c r="I142">
         <v>175.8721238</v>
-      </c>
-      <c r="I142">
-        <v>70.348849509999994</v>
       </c>
       <c r="J142">
         <v>70.348849509999994</v>
@@ -18262,8 +18254,11 @@
       <c r="K142">
         <v>70.348849509999994</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L142">
+        <v>70.348849509999994</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>6</v>
       </c>
@@ -18276,20 +18271,17 @@
       <c r="D143">
         <v>686.84537079999996</v>
       </c>
-      <c r="E143">
+      <c r="F143">
         <v>5496.0038679999998</v>
       </c>
-      <c r="F143">
+      <c r="G143">
         <v>2198.4015469999999</v>
       </c>
-      <c r="G143">
+      <c r="H143">
         <v>879.36061889999996</v>
       </c>
-      <c r="H143">
+      <c r="I143">
         <v>351.74424759999999</v>
-      </c>
-      <c r="I143">
-        <v>140.697699</v>
       </c>
       <c r="J143">
         <v>140.697699</v>
@@ -18297,8 +18289,11 @@
       <c r="K143">
         <v>140.697699</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L143">
+        <v>140.697699</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>6</v>
       </c>
@@ -18311,20 +18306,17 @@
       <c r="D144">
         <v>838.79888570000003</v>
       </c>
-      <c r="E144">
+      <c r="F144">
         <v>5935.6841780000004</v>
       </c>
-      <c r="F144">
+      <c r="G144">
         <v>2374.2736709999999</v>
       </c>
-      <c r="G144">
+      <c r="H144">
         <v>949.70946839999999</v>
       </c>
-      <c r="H144">
+      <c r="I144">
         <v>379.88378740000002</v>
-      </c>
-      <c r="I144">
-        <v>151.95351489999999</v>
       </c>
       <c r="J144">
         <v>151.95351489999999</v>
@@ -18332,8 +18324,11 @@
       <c r="K144">
         <v>151.95351489999999</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L144">
+        <v>151.95351489999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>6</v>
       </c>
@@ -18346,20 +18341,17 @@
       <c r="D145">
         <v>1002.908682</v>
       </c>
-      <c r="E145">
+      <c r="F145">
         <v>6410.538912</v>
       </c>
-      <c r="F145">
+      <c r="G145">
         <v>2564.215565</v>
       </c>
-      <c r="G145">
+      <c r="H145">
         <v>1025.686226</v>
       </c>
-      <c r="H145">
+      <c r="I145">
         <v>410.27449030000002</v>
-      </c>
-      <c r="I145">
-        <v>164.10979610000001</v>
       </c>
       <c r="J145">
         <v>164.10979610000001</v>
@@ -18367,8 +18359,11 @@
       <c r="K145">
         <v>164.10979610000001</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L145">
+        <v>164.10979610000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>6</v>
       </c>
@@ -18381,20 +18376,17 @@
       <c r="D146">
         <v>1180.147262</v>
       </c>
-      <c r="E146">
+      <c r="F146">
         <v>6923.3820249999999</v>
       </c>
-      <c r="F146">
+      <c r="G146">
         <v>2769.3528099999999</v>
       </c>
-      <c r="G146">
+      <c r="H146">
         <v>1107.7411239999999</v>
       </c>
-      <c r="H146">
+      <c r="I146">
         <v>443.09644960000003</v>
-      </c>
-      <c r="I146">
-        <v>177.2385798</v>
       </c>
       <c r="J146">
         <v>177.2385798</v>
@@ -18402,8 +18394,11 @@
       <c r="K146">
         <v>177.2385798</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L146">
+        <v>177.2385798</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>6</v>
       </c>
@@ -18416,20 +18411,17 @@
       <c r="D147">
         <v>1371.564928</v>
       </c>
-      <c r="E147">
+      <c r="F147">
         <v>7477.2525869999999</v>
       </c>
-      <c r="F147">
+      <c r="G147">
         <v>2990.9010349999999</v>
       </c>
-      <c r="G147">
+      <c r="H147">
         <v>1196.360414</v>
       </c>
-      <c r="H147">
+      <c r="I147">
         <v>478.54416550000002</v>
-      </c>
-      <c r="I147">
-        <v>191.41766620000001</v>
       </c>
       <c r="J147">
         <v>191.41766620000001</v>
@@ -18437,8 +18429,11 @@
       <c r="K147">
         <v>191.41766620000001</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L147">
+        <v>191.41766620000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>6</v>
       </c>
@@ -18451,25 +18446,25 @@
       <c r="D148">
         <v>1945.8179270000001</v>
       </c>
-      <c r="E148">
+      <c r="F148">
         <v>22431.75776</v>
       </c>
-      <c r="F148">
+      <c r="G148">
         <v>8972.7031040000002</v>
       </c>
-      <c r="G148">
+      <c r="H148">
         <v>3589.0812420000002</v>
       </c>
-      <c r="H148">
+      <c r="I148">
         <v>1435.6324970000001</v>
-      </c>
-      <c r="I148">
-        <v>574.25299870000003</v>
       </c>
       <c r="J148">
         <v>574.25299870000003</v>
       </c>
       <c r="K148">
+        <v>574.25299870000003</v>
+      </c>
+      <c r="L148">
         <v>574.25299870000003</v>
       </c>
     </row>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BDF40D-E8E9-4449-9DF2-CE28131154AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553C17D1-E3D3-4331-AB8E-E82F0BA4B6E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -9610,7 +9610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82CFE85-E5BF-4028-97DD-0FD3D41C3DD1}">
   <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -13260,15 +13260,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F218ED-5790-4589-A336-D604CD6FE4FD}">
-  <dimension ref="A1:Q148"/>
+  <dimension ref="A1:K148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G8:G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>178</v>
       </c>
@@ -13281,29 +13281,29 @@
       <c r="D1" t="s">
         <v>233</v>
       </c>
+      <c r="E1" t="s">
+        <v>234</v>
+      </c>
       <c r="F1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K1" t="s">
-        <v>239</v>
-      </c>
-      <c r="L1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -13316,6 +13316,9 @@
       <c r="D2">
         <v>0</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
       <c r="F2">
         <v>0</v>
       </c>
@@ -13334,11 +13337,8 @@
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -13351,6 +13351,9 @@
       <c r="D3">
         <v>1</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
       <c r="F3">
         <v>1</v>
       </c>
@@ -13369,11 +13372,8 @@
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -13386,8 +13386,11 @@
       <c r="D4">
         <v>2.08</v>
       </c>
+      <c r="E4">
+        <v>1.08</v>
+      </c>
       <c r="F4">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -13404,11 +13407,8 @@
       <c r="K4">
         <v>1</v>
       </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -13421,8 +13421,11 @@
       <c r="D5">
         <v>3.2464</v>
       </c>
+      <c r="E5">
+        <v>1.1664000000000001</v>
+      </c>
       <c r="F5">
-        <v>1.1664000000000001</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -13439,11 +13442,8 @@
       <c r="K5">
         <v>1</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -13456,8 +13456,11 @@
       <c r="D6">
         <v>4.5061119999999999</v>
       </c>
+      <c r="E6">
+        <v>1.2597119999999999</v>
+      </c>
       <c r="F6">
-        <v>1.2597119999999999</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -13474,11 +13477,8 @@
       <c r="K6">
         <v>1</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -13492,11 +13492,10 @@
         <v>6.0177664000000002</v>
       </c>
       <c r="E7">
-        <f>C7*D7</f>
-        <v>5.9575887359999999</v>
+        <v>1.5116544000000001</v>
       </c>
       <c r="F7">
-        <v>1.5116544000000001</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -13513,15 +13512,8 @@
       <c r="K7">
         <v>1</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <f>D7*C7</f>
-        <v>5.9575887359999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -13534,6 +13526,9 @@
       <c r="D8">
         <v>0</v>
       </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
       <c r="F8">
         <v>0</v>
       </c>
@@ -13552,15 +13547,8 @@
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <f>Q7-F9</f>
-        <v>2.4575887359999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -13573,11 +13561,14 @@
       <c r="D9">
         <v>1.4</v>
       </c>
+      <c r="E9">
+        <v>3.5</v>
+      </c>
       <c r="F9">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="G9">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -13591,15 +13582,8 @@
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <f>Q8-F10</f>
-        <v>-1.3224112639999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -13612,11 +13596,14 @@
       <c r="D10">
         <v>2.9119999999999999</v>
       </c>
+      <c r="E10">
+        <v>3.78</v>
+      </c>
       <c r="F10">
-        <v>3.78</v>
+        <v>1.512</v>
       </c>
       <c r="G10">
-        <v>1.512</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -13630,11 +13617,8 @@
       <c r="K10">
         <v>1</v>
       </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -13647,11 +13631,14 @@
       <c r="D11">
         <v>4.5449599999999997</v>
       </c>
+      <c r="E11">
+        <v>4.0823999999999998</v>
+      </c>
       <c r="F11">
-        <v>4.0823999999999998</v>
+        <v>1.63296</v>
       </c>
       <c r="G11">
-        <v>1.63296</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -13665,11 +13652,8 @@
       <c r="K11">
         <v>1</v>
       </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -13682,11 +13666,14 @@
       <c r="D12">
         <v>6.3085567999999999</v>
       </c>
+      <c r="E12">
+        <v>4.4089919999999996</v>
+      </c>
       <c r="F12">
-        <v>4.4089919999999996</v>
+        <v>1.7635968</v>
       </c>
       <c r="G12">
-        <v>1.7635968</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -13700,11 +13687,8 @@
       <c r="K12">
         <v>1</v>
       </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -13717,11 +13701,14 @@
       <c r="D13">
         <v>8.4248729600000001</v>
       </c>
+      <c r="E13">
+        <v>5.2907903999999997</v>
+      </c>
       <c r="F13">
-        <v>5.2907903999999997</v>
+        <v>2.1163161599999998</v>
       </c>
       <c r="G13">
-        <v>2.1163161599999998</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -13735,11 +13722,8 @@
       <c r="K13">
         <v>1</v>
       </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -13752,11 +13736,14 @@
       <c r="D14">
         <v>10.710494410000001</v>
       </c>
+      <c r="E14">
+        <v>5.7140536319999997</v>
+      </c>
       <c r="F14">
-        <v>5.7140536319999997</v>
+        <v>2.2856214530000001</v>
       </c>
       <c r="G14">
-        <v>2.2856214530000001</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -13770,15 +13757,8 @@
       <c r="K14">
         <v>1</v>
       </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <f>C15*D15</f>
-        <v>13.047175924199999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -13791,11 +13771,14 @@
       <c r="D15">
         <v>13.17896558</v>
       </c>
+      <c r="E15">
+        <v>6.1711779230000001</v>
+      </c>
       <c r="F15">
-        <v>6.1711779230000001</v>
+        <v>2.4684711689999999</v>
       </c>
       <c r="G15">
-        <v>2.4684711689999999</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -13809,11 +13792,8 @@
       <c r="K15">
         <v>1</v>
       </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -13826,14 +13806,17 @@
       <c r="D16">
         <v>15.84491444</v>
       </c>
+      <c r="E16">
+        <v>6.6648721560000004</v>
+      </c>
       <c r="F16">
-        <v>6.6648721560000004</v>
+        <v>2.6659488630000001</v>
       </c>
       <c r="G16">
-        <v>2.6659488630000001</v>
+        <v>1.066379545</v>
       </c>
       <c r="H16">
-        <v>1.066379545</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -13844,11 +13827,8 @@
       <c r="K16">
         <v>1</v>
       </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -13861,14 +13841,17 @@
       <c r="D17">
         <v>18.724139220000001</v>
       </c>
+      <c r="E17">
+        <v>7.1980619289999996</v>
+      </c>
       <c r="F17">
-        <v>7.1980619289999996</v>
+        <v>2.8792247720000002</v>
       </c>
       <c r="G17">
-        <v>2.8792247720000002</v>
+        <v>1.1516899089999999</v>
       </c>
       <c r="H17">
-        <v>1.1516899089999999</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -13879,11 +13862,8 @@
       <c r="K17">
         <v>1</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -13896,14 +13876,17 @@
       <c r="D18">
         <v>22.467131420000001</v>
       </c>
+      <c r="E18">
+        <v>9.3574805080000001</v>
+      </c>
       <c r="F18">
-        <v>9.3574805080000001</v>
+        <v>3.742992203</v>
       </c>
       <c r="G18">
-        <v>3.742992203</v>
+        <v>1.497196881</v>
       </c>
       <c r="H18">
-        <v>1.497196881</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -13914,11 +13897,8 @@
       <c r="K18">
         <v>1</v>
       </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -13931,6 +13911,9 @@
       <c r="D19">
         <v>0</v>
       </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
       <c r="F19">
         <v>0</v>
       </c>
@@ -13949,11 +13932,8 @@
       <c r="K19">
         <v>0</v>
       </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -13966,14 +13946,17 @@
       <c r="D20">
         <v>1.96</v>
       </c>
+      <c r="E20">
+        <v>12.25</v>
+      </c>
       <c r="F20">
-        <v>12.25</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G20">
-        <v>4.9000000000000004</v>
+        <v>1.96</v>
       </c>
       <c r="H20">
-        <v>1.96</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -13984,11 +13967,8 @@
       <c r="K20">
         <v>1</v>
       </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -14001,14 +13981,17 @@
       <c r="D21">
         <v>4.0768000000000004</v>
       </c>
+      <c r="E21">
+        <v>13.23</v>
+      </c>
       <c r="F21">
-        <v>13.23</v>
+        <v>5.2919999999999998</v>
       </c>
       <c r="G21">
-        <v>5.2919999999999998</v>
+        <v>2.1168</v>
       </c>
       <c r="H21">
-        <v>2.1168</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -14019,11 +14002,8 @@
       <c r="K21">
         <v>1</v>
       </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -14036,14 +14016,17 @@
       <c r="D22">
         <v>6.3629439999999997</v>
       </c>
+      <c r="E22">
+        <v>14.288399999999999</v>
+      </c>
       <c r="F22">
-        <v>14.288399999999999</v>
+        <v>5.7153600000000004</v>
       </c>
       <c r="G22">
-        <v>5.7153600000000004</v>
+        <v>2.2861440000000002</v>
       </c>
       <c r="H22">
-        <v>2.2861440000000002</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -14054,11 +14037,8 @@
       <c r="K22">
         <v>1</v>
       </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -14071,14 +14051,17 @@
       <c r="D23">
         <v>8.8319795200000009</v>
       </c>
+      <c r="E23">
+        <v>15.431471999999999</v>
+      </c>
       <c r="F23">
-        <v>15.431471999999999</v>
+        <v>6.1725887999999998</v>
       </c>
       <c r="G23">
-        <v>6.1725887999999998</v>
+        <v>2.4690355199999998</v>
       </c>
       <c r="H23">
-        <v>2.4690355199999998</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -14089,11 +14072,8 @@
       <c r="K23">
         <v>1</v>
       </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -14106,17 +14086,20 @@
       <c r="D24">
         <v>11.794822140000001</v>
       </c>
+      <c r="E24">
+        <v>18.517766399999999</v>
+      </c>
       <c r="F24">
-        <v>18.517766399999999</v>
+        <v>7.4071065599999999</v>
       </c>
       <c r="G24">
-        <v>7.4071065599999999</v>
+        <v>2.9628426239999999</v>
       </c>
       <c r="H24">
-        <v>2.9628426239999999</v>
+        <v>1.18513705</v>
       </c>
       <c r="I24">
-        <v>1.18513705</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -14124,11 +14107,8 @@
       <c r="K24">
         <v>1</v>
       </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -14141,17 +14121,20 @@
       <c r="D25">
         <v>14.994692179999999</v>
       </c>
+      <c r="E25">
+        <v>19.999187710000001</v>
+      </c>
       <c r="F25">
-        <v>19.999187710000001</v>
+        <v>7.9996750849999998</v>
       </c>
       <c r="G25">
-        <v>7.9996750849999998</v>
+        <v>3.1998700339999999</v>
       </c>
       <c r="H25">
-        <v>3.1998700339999999</v>
+        <v>1.2799480139999999</v>
       </c>
       <c r="I25">
-        <v>1.2799480139999999</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -14159,11 +14142,8 @@
       <c r="K25">
         <v>1</v>
       </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -14176,17 +14156,20 @@
       <c r="D26">
         <v>18.45055181</v>
       </c>
+      <c r="E26">
+        <v>21.599122730000001</v>
+      </c>
       <c r="F26">
-        <v>21.599122730000001</v>
+        <v>8.6396490920000009</v>
       </c>
       <c r="G26">
-        <v>8.6396490920000009</v>
+        <v>3.4558596370000001</v>
       </c>
       <c r="H26">
-        <v>3.4558596370000001</v>
+        <v>1.382343855</v>
       </c>
       <c r="I26">
-        <v>1.382343855</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -14194,11 +14177,8 @@
       <c r="K26">
         <v>1</v>
       </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -14211,17 +14191,20 @@
       <c r="D27">
         <v>22.182880220000001</v>
       </c>
+      <c r="E27">
+        <v>23.327052550000001</v>
+      </c>
       <c r="F27">
-        <v>23.327052550000001</v>
+        <v>9.330821019</v>
       </c>
       <c r="G27">
-        <v>9.330821019</v>
+        <v>3.7323284079999999</v>
       </c>
       <c r="H27">
-        <v>3.7323284079999999</v>
+        <v>1.4929313630000001</v>
       </c>
       <c r="I27">
-        <v>1.4929313630000001</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -14229,11 +14212,8 @@
       <c r="K27">
         <v>1</v>
       </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -14246,17 +14226,20 @@
       <c r="D28">
         <v>26.2137949</v>
       </c>
+      <c r="E28">
+        <v>25.193216750000001</v>
+      </c>
       <c r="F28">
-        <v>25.193216750000001</v>
+        <v>10.0772867</v>
       </c>
       <c r="G28">
-        <v>10.0772867</v>
+        <v>4.0309146800000004</v>
       </c>
       <c r="H28">
-        <v>4.0309146800000004</v>
+        <v>1.612365872</v>
       </c>
       <c r="I28">
-        <v>1.612365872</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -14264,11 +14247,8 @@
       <c r="K28">
         <v>1</v>
       </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -14281,17 +14261,20 @@
       <c r="D29">
         <v>31.453983990000001</v>
       </c>
+      <c r="E29">
+        <v>32.751181780000003</v>
+      </c>
       <c r="F29">
-        <v>32.751181780000003</v>
+        <v>13.10047271</v>
       </c>
       <c r="G29">
-        <v>13.10047271</v>
+        <v>5.2401890839999998</v>
       </c>
       <c r="H29">
-        <v>5.2401890839999998</v>
+        <v>2.096075634</v>
       </c>
       <c r="I29">
-        <v>2.096075634</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -14299,11 +14282,8 @@
       <c r="K29">
         <v>1</v>
       </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -14316,17 +14296,20 @@
       <c r="D30">
         <v>37.113388200000003</v>
       </c>
+      <c r="E30">
+        <v>35.37127632</v>
+      </c>
       <c r="F30">
-        <v>35.37127632</v>
+        <v>14.148510529999999</v>
       </c>
       <c r="G30">
-        <v>14.148510529999999</v>
+        <v>5.659404211</v>
       </c>
       <c r="H30">
-        <v>5.659404211</v>
+        <v>2.2637616839999999</v>
       </c>
       <c r="I30">
-        <v>2.2637616839999999</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -14334,11 +14317,8 @@
       <c r="K30">
         <v>1</v>
       </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -14351,17 +14331,20 @@
       <c r="D31">
         <v>43.225544749999997</v>
       </c>
+      <c r="E31">
+        <v>38.200978419999998</v>
+      </c>
       <c r="F31">
-        <v>38.200978419999998</v>
+        <v>15.28039137</v>
       </c>
       <c r="G31">
-        <v>15.28039137</v>
+        <v>6.1121565479999997</v>
       </c>
       <c r="H31">
-        <v>6.1121565479999997</v>
+        <v>2.4448626189999998</v>
       </c>
       <c r="I31">
-        <v>2.4448626189999998</v>
+        <v>1</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -14369,11 +14352,8 @@
       <c r="K31">
         <v>1</v>
       </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2</v>
       </c>
@@ -14386,17 +14366,20 @@
       <c r="D32">
         <v>49.826673820000003</v>
       </c>
+      <c r="E32">
+        <v>41.2570567</v>
+      </c>
       <c r="F32">
-        <v>41.2570567</v>
+        <v>16.502822680000001</v>
       </c>
       <c r="G32">
-        <v>16.502822680000001</v>
+        <v>6.601129072</v>
       </c>
       <c r="H32">
-        <v>6.601129072</v>
+        <v>2.6404516290000002</v>
       </c>
       <c r="I32">
-        <v>2.6404516290000002</v>
+        <v>1.056180651</v>
       </c>
       <c r="J32">
         <v>1.056180651</v>
@@ -14404,11 +14387,8 @@
       <c r="K32">
         <v>1.056180651</v>
       </c>
-      <c r="L32">
-        <v>1.056180651</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
@@ -14421,17 +14401,20 @@
       <c r="D33">
         <v>56.955893209999999</v>
       </c>
+      <c r="E33">
+        <v>44.557621230000002</v>
+      </c>
       <c r="F33">
-        <v>44.557621230000002</v>
+        <v>17.823048490000001</v>
       </c>
       <c r="G33">
-        <v>17.823048490000001</v>
+        <v>7.129219397</v>
       </c>
       <c r="H33">
-        <v>7.129219397</v>
+        <v>2.8516877589999998</v>
       </c>
       <c r="I33">
-        <v>2.8516877589999998</v>
+        <v>1.1406751040000001</v>
       </c>
       <c r="J33">
         <v>1.1406751040000001</v>
@@ -14439,11 +14422,8 @@
       <c r="K33">
         <v>1.1406751040000001</v>
       </c>
-      <c r="L33">
-        <v>1.1406751040000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2</v>
       </c>
@@ -14456,17 +14436,20 @@
       <c r="D34">
         <v>68.362644250000002</v>
       </c>
+      <c r="E34">
+        <v>71.29219397</v>
+      </c>
       <c r="F34">
-        <v>71.29219397</v>
+        <v>28.51687759</v>
       </c>
       <c r="G34">
-        <v>28.51687759</v>
+        <v>11.40675104</v>
       </c>
       <c r="H34">
-        <v>11.40675104</v>
+        <v>4.562700414</v>
       </c>
       <c r="I34">
-        <v>4.562700414</v>
+        <v>1.825080166</v>
       </c>
       <c r="J34">
         <v>1.825080166</v>
@@ -14474,11 +14457,8 @@
       <c r="K34">
         <v>1.825080166</v>
       </c>
-      <c r="L34">
-        <v>1.825080166</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
@@ -14491,6 +14471,9 @@
       <c r="D35">
         <v>0</v>
       </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
       <c r="F35">
         <v>0</v>
       </c>
@@ -14509,11 +14492,8 @@
       <c r="K35">
         <v>0</v>
       </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
@@ -14526,17 +14506,20 @@
       <c r="D36">
         <v>2.7440000000000002</v>
       </c>
+      <c r="E36">
+        <v>42.875</v>
+      </c>
       <c r="F36">
-        <v>42.875</v>
+        <v>17.149999999999999</v>
       </c>
       <c r="G36">
-        <v>17.149999999999999</v>
+        <v>6.86</v>
       </c>
       <c r="H36">
-        <v>6.86</v>
+        <v>2.7440000000000002</v>
       </c>
       <c r="I36">
-        <v>2.7440000000000002</v>
+        <v>1.0975999999999999</v>
       </c>
       <c r="J36">
         <v>1.0975999999999999</v>
@@ -14544,11 +14527,8 @@
       <c r="K36">
         <v>1.0975999999999999</v>
       </c>
-      <c r="L36">
-        <v>1.0975999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3</v>
       </c>
@@ -14561,17 +14541,20 @@
       <c r="D37">
         <v>5.7075199999999997</v>
       </c>
+      <c r="E37">
+        <v>46.305</v>
+      </c>
       <c r="F37">
-        <v>46.305</v>
+        <v>18.521999999999998</v>
       </c>
       <c r="G37">
-        <v>18.521999999999998</v>
+        <v>7.4088000000000003</v>
       </c>
       <c r="H37">
-        <v>7.4088000000000003</v>
+        <v>2.9635199999999999</v>
       </c>
       <c r="I37">
-        <v>2.9635199999999999</v>
+        <v>1.185408</v>
       </c>
       <c r="J37">
         <v>1.185408</v>
@@ -14579,11 +14562,8 @@
       <c r="K37">
         <v>1.185408</v>
       </c>
-      <c r="L37">
-        <v>1.185408</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -14596,17 +14576,20 @@
       <c r="D38">
         <v>8.9081215999999994</v>
       </c>
+      <c r="E38">
+        <v>50.009399999999999</v>
+      </c>
       <c r="F38">
-        <v>50.009399999999999</v>
+        <v>20.00376</v>
       </c>
       <c r="G38">
-        <v>20.00376</v>
+        <v>8.0015040000000006</v>
       </c>
       <c r="H38">
-        <v>8.0015040000000006</v>
+        <v>3.2006016000000002</v>
       </c>
       <c r="I38">
-        <v>3.2006016000000002</v>
+        <v>1.2802406399999999</v>
       </c>
       <c r="J38">
         <v>1.2802406399999999</v>
@@ -14614,11 +14597,8 @@
       <c r="K38">
         <v>1.2802406399999999</v>
       </c>
-      <c r="L38">
-        <v>1.2802406399999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
@@ -14631,17 +14611,20 @@
       <c r="D39">
         <v>12.36477133</v>
       </c>
+      <c r="E39">
+        <v>54.010151999999998</v>
+      </c>
       <c r="F39">
-        <v>54.010151999999998</v>
+        <v>21.604060799999999</v>
       </c>
       <c r="G39">
-        <v>21.604060799999999</v>
+        <v>8.64162432</v>
       </c>
       <c r="H39">
-        <v>8.64162432</v>
+        <v>3.4566497279999999</v>
       </c>
       <c r="I39">
-        <v>3.4566497279999999</v>
+        <v>1.3826598910000001</v>
       </c>
       <c r="J39">
         <v>1.3826598910000001</v>
@@ -14649,11 +14632,8 @@
       <c r="K39">
         <v>1.3826598910000001</v>
       </c>
-      <c r="L39">
-        <v>1.3826598910000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
@@ -14666,17 +14646,20 @@
       <c r="D40">
         <v>16.512751000000002</v>
       </c>
+      <c r="E40">
+        <v>64.812182399999998</v>
+      </c>
       <c r="F40">
-        <v>64.812182399999998</v>
+        <v>25.924872959999998</v>
       </c>
       <c r="G40">
-        <v>25.924872959999998</v>
+        <v>10.369949180000001</v>
       </c>
       <c r="H40">
-        <v>10.369949180000001</v>
+        <v>4.1479796740000001</v>
       </c>
       <c r="I40">
-        <v>4.1479796740000001</v>
+        <v>1.659191869</v>
       </c>
       <c r="J40">
         <v>1.659191869</v>
@@ -14684,11 +14667,8 @@
       <c r="K40">
         <v>1.659191869</v>
       </c>
-      <c r="L40">
-        <v>1.659191869</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3</v>
       </c>
@@ -14701,17 +14681,20 @@
       <c r="D41">
         <v>20.99256905</v>
       </c>
+      <c r="E41">
+        <v>69.997156989999993</v>
+      </c>
       <c r="F41">
-        <v>69.997156989999993</v>
+        <v>27.998862800000001</v>
       </c>
       <c r="G41">
-        <v>27.998862800000001</v>
+        <v>11.19954512</v>
       </c>
       <c r="H41">
-        <v>11.19954512</v>
+        <v>4.4798180470000002</v>
       </c>
       <c r="I41">
-        <v>4.4798180470000002</v>
+        <v>1.791927219</v>
       </c>
       <c r="J41">
         <v>1.791927219</v>
@@ -14719,11 +14702,8 @@
       <c r="K41">
         <v>1.791927219</v>
       </c>
-      <c r="L41">
-        <v>1.791927219</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3</v>
       </c>
@@ -14736,17 +14716,20 @@
       <c r="D42">
         <v>25.830772540000002</v>
       </c>
+      <c r="E42">
+        <v>75.596929549999999</v>
+      </c>
       <c r="F42">
-        <v>75.596929549999999</v>
+        <v>30.23877182</v>
       </c>
       <c r="G42">
-        <v>30.23877182</v>
+        <v>12.095508730000001</v>
       </c>
       <c r="H42">
-        <v>12.095508730000001</v>
+        <v>4.8382034909999998</v>
       </c>
       <c r="I42">
-        <v>4.8382034909999998</v>
+        <v>1.935281397</v>
       </c>
       <c r="J42">
         <v>1.935281397</v>
@@ -14754,11 +14737,8 @@
       <c r="K42">
         <v>1.935281397</v>
       </c>
-      <c r="L42">
-        <v>1.935281397</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3</v>
       </c>
@@ -14771,17 +14751,20 @@
       <c r="D43">
         <v>31.056032309999999</v>
       </c>
+      <c r="E43">
+        <v>81.644683920000006</v>
+      </c>
       <c r="F43">
-        <v>81.644683920000006</v>
+        <v>32.65787357</v>
       </c>
       <c r="G43">
-        <v>32.65787357</v>
+        <v>13.063149429999999</v>
       </c>
       <c r="H43">
-        <v>13.063149429999999</v>
+        <v>5.2252597710000002</v>
       </c>
       <c r="I43">
-        <v>5.2252597710000002</v>
+        <v>2.0901039080000001</v>
       </c>
       <c r="J43">
         <v>2.0901039080000001</v>
@@ -14789,11 +14772,8 @@
       <c r="K43">
         <v>2.0901039080000001</v>
       </c>
-      <c r="L43">
-        <v>2.0901039080000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
@@ -14806,17 +14786,20 @@
       <c r="D44">
         <v>36.699312859999999</v>
       </c>
+      <c r="E44">
+        <v>88.176258630000007</v>
+      </c>
       <c r="F44">
-        <v>88.176258630000007</v>
+        <v>35.27050345</v>
       </c>
       <c r="G44">
-        <v>35.27050345</v>
+        <v>14.108201380000001</v>
       </c>
       <c r="H44">
-        <v>14.108201380000001</v>
+        <v>5.6432805520000002</v>
       </c>
       <c r="I44">
-        <v>5.6432805520000002</v>
+        <v>2.2573122209999998</v>
       </c>
       <c r="J44">
         <v>2.2573122209999998</v>
@@ -14824,11 +14807,8 @@
       <c r="K44">
         <v>2.2573122209999998</v>
       </c>
-      <c r="L44">
-        <v>2.2573122209999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>3</v>
       </c>
@@ -14841,17 +14821,20 @@
       <c r="D45">
         <v>44.035577580000002</v>
       </c>
+      <c r="E45">
+        <v>114.6291362</v>
+      </c>
       <c r="F45">
-        <v>114.6291362</v>
+        <v>45.851654490000001</v>
       </c>
       <c r="G45">
-        <v>45.851654490000001</v>
+        <v>18.340661789999999</v>
       </c>
       <c r="H45">
-        <v>18.340661789999999</v>
+        <v>7.3362647179999998</v>
       </c>
       <c r="I45">
-        <v>7.3362647179999998</v>
+        <v>2.9345058869999998</v>
       </c>
       <c r="J45">
         <v>2.9345058869999998</v>
@@ -14859,11 +14842,8 @@
       <c r="K45">
         <v>2.9345058869999998</v>
       </c>
-      <c r="L45">
-        <v>2.9345058869999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -14876,17 +14856,20 @@
       <c r="D46">
         <v>51.958743480000003</v>
       </c>
+      <c r="E46">
+        <v>123.7994671</v>
+      </c>
       <c r="F46">
-        <v>123.7994671</v>
+        <v>49.519786850000003</v>
       </c>
       <c r="G46">
-        <v>49.519786850000003</v>
+        <v>19.807914740000001</v>
       </c>
       <c r="H46">
-        <v>19.807914740000001</v>
+        <v>7.9231658950000003</v>
       </c>
       <c r="I46">
-        <v>7.9231658950000003</v>
+        <v>3.1692663579999998</v>
       </c>
       <c r="J46">
         <v>3.1692663579999998</v>
@@ -14894,11 +14877,8 @@
       <c r="K46">
         <v>3.1692663579999998</v>
       </c>
-      <c r="L46">
-        <v>3.1692663579999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>3</v>
       </c>
@@ -14911,17 +14891,20 @@
       <c r="D47">
         <v>60.515762639999998</v>
       </c>
+      <c r="E47">
+        <v>133.70342450000001</v>
+      </c>
       <c r="F47">
-        <v>133.70342450000001</v>
+        <v>53.481369790000002</v>
       </c>
       <c r="G47">
-        <v>53.481369790000002</v>
+        <v>21.392547919999998</v>
       </c>
       <c r="H47">
-        <v>21.392547919999998</v>
+        <v>8.557019167</v>
       </c>
       <c r="I47">
-        <v>8.557019167</v>
+        <v>3.4228076669999998</v>
       </c>
       <c r="J47">
         <v>3.4228076669999998</v>
@@ -14929,11 +14912,8 @@
       <c r="K47">
         <v>3.4228076669999998</v>
       </c>
-      <c r="L47">
-        <v>3.4228076669999998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>3</v>
       </c>
@@ -14946,17 +14926,20 @@
       <c r="D48">
         <v>69.757343340000006</v>
       </c>
+      <c r="E48">
+        <v>144.39969840000001</v>
+      </c>
       <c r="F48">
-        <v>144.39969840000001</v>
+        <v>57.759879380000001</v>
       </c>
       <c r="G48">
-        <v>57.759879380000001</v>
+        <v>23.10395175</v>
       </c>
       <c r="H48">
-        <v>23.10395175</v>
+        <v>9.2415807000000001</v>
       </c>
       <c r="I48">
-        <v>9.2415807000000001</v>
+        <v>3.6966322800000002</v>
       </c>
       <c r="J48">
         <v>3.6966322800000002</v>
@@ -14964,11 +14947,8 @@
       <c r="K48">
         <v>3.6966322800000002</v>
       </c>
-      <c r="L48">
-        <v>3.6966322800000002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>3</v>
       </c>
@@ -14981,17 +14961,20 @@
       <c r="D49">
         <v>79.738250500000007</v>
       </c>
+      <c r="E49">
+        <v>155.95167430000001</v>
+      </c>
       <c r="F49">
-        <v>155.95167430000001</v>
+        <v>62.380669730000001</v>
       </c>
       <c r="G49">
-        <v>62.380669730000001</v>
+        <v>24.952267890000002</v>
       </c>
       <c r="H49">
-        <v>24.952267890000002</v>
+        <v>9.9809071560000007</v>
       </c>
       <c r="I49">
-        <v>9.9809071560000007</v>
+        <v>3.9923628629999999</v>
       </c>
       <c r="J49">
         <v>3.9923628629999999</v>
@@ -14999,11 +14982,8 @@
       <c r="K49">
         <v>3.9923628629999999</v>
       </c>
-      <c r="L49">
-        <v>3.9923628629999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>3</v>
       </c>
@@ -15016,17 +14996,20 @@
       <c r="D50">
         <v>95.707701950000001</v>
       </c>
+      <c r="E50">
+        <v>249.52267889999999</v>
+      </c>
       <c r="F50">
-        <v>249.52267889999999</v>
+        <v>99.809071560000007</v>
       </c>
       <c r="G50">
-        <v>99.809071560000007</v>
+        <v>39.923628630000003</v>
       </c>
       <c r="H50">
-        <v>39.923628630000003</v>
+        <v>15.969451449999999</v>
       </c>
       <c r="I50">
-        <v>15.969451449999999</v>
+        <v>6.3877805800000003</v>
       </c>
       <c r="J50">
         <v>6.3877805800000003</v>
@@ -15034,11 +15017,8 @@
       <c r="K50">
         <v>6.3877805800000003</v>
       </c>
-      <c r="L50">
-        <v>6.3877805800000003</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>3</v>
       </c>
@@ -15051,17 +15031,20 @@
       <c r="D51">
         <v>112.95470950000001</v>
       </c>
+      <c r="E51">
+        <v>269.48449319999997</v>
+      </c>
       <c r="F51">
-        <v>269.48449319999997</v>
+        <v>107.79379729999999</v>
       </c>
       <c r="G51">
-        <v>107.79379729999999</v>
+        <v>43.117518920000002</v>
       </c>
       <c r="H51">
-        <v>43.117518920000002</v>
+        <v>17.247007570000001</v>
       </c>
       <c r="I51">
-        <v>17.247007570000001</v>
+        <v>6.8988030260000004</v>
       </c>
       <c r="J51">
         <v>6.8988030260000004</v>
@@ -15069,11 +15052,8 @@
       <c r="K51">
         <v>6.8988030260000004</v>
       </c>
-      <c r="L51">
-        <v>6.8988030260000004</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3</v>
       </c>
@@ -15086,17 +15066,20 @@
       <c r="D52">
         <v>131.58147769999999</v>
       </c>
+      <c r="E52">
+        <v>291.04325269999998</v>
+      </c>
       <c r="F52">
-        <v>291.04325269999998</v>
+        <v>116.4173011</v>
       </c>
       <c r="G52">
-        <v>116.4173011</v>
+        <v>46.566920430000003</v>
       </c>
       <c r="H52">
-        <v>46.566920430000003</v>
+        <v>18.626768169999998</v>
       </c>
       <c r="I52">
-        <v>18.626768169999998</v>
+        <v>7.4507072689999996</v>
       </c>
       <c r="J52">
         <v>7.4507072689999996</v>
@@ -15104,11 +15087,8 @@
       <c r="K52">
         <v>7.4507072689999996</v>
       </c>
-      <c r="L52">
-        <v>7.4507072689999996</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>3</v>
       </c>
@@ -15121,17 +15101,20 @@
       <c r="D53">
         <v>151.69838730000001</v>
       </c>
+      <c r="E53">
+        <v>314.32671290000002</v>
+      </c>
       <c r="F53">
-        <v>314.32671290000002</v>
+        <v>125.7306852</v>
       </c>
       <c r="G53">
-        <v>125.7306852</v>
+        <v>50.292274059999997</v>
       </c>
       <c r="H53">
-        <v>50.292274059999997</v>
+        <v>20.116909629999999</v>
       </c>
       <c r="I53">
-        <v>20.116909629999999</v>
+        <v>8.0467638499999996</v>
       </c>
       <c r="J53">
         <v>8.0467638499999996</v>
@@ -15139,11 +15122,8 @@
       <c r="K53">
         <v>8.0467638499999996</v>
       </c>
-      <c r="L53">
-        <v>8.0467638499999996</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3</v>
       </c>
@@ -15156,17 +15136,20 @@
       <c r="D54">
         <v>173.4246497</v>
       </c>
+      <c r="E54">
+        <v>339.47284990000003</v>
+      </c>
       <c r="F54">
-        <v>339.47284990000003</v>
+        <v>135.78914</v>
       </c>
       <c r="G54">
-        <v>135.78914</v>
+        <v>54.315655990000003</v>
       </c>
       <c r="H54">
-        <v>54.315655990000003</v>
+        <v>21.7262624</v>
       </c>
       <c r="I54">
-        <v>21.7262624</v>
+        <v>8.690504958</v>
       </c>
       <c r="J54">
         <v>8.690504958</v>
@@ -15174,11 +15157,8 @@
       <c r="K54">
         <v>8.690504958</v>
       </c>
-      <c r="L54">
-        <v>8.690504958</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3</v>
       </c>
@@ -15191,17 +15171,20 @@
       <c r="D55">
         <v>210.35929580000001</v>
       </c>
+      <c r="E55">
+        <v>577.10384490000001</v>
+      </c>
       <c r="F55">
-        <v>577.10384490000001</v>
+        <v>230.84153789999999</v>
       </c>
       <c r="G55">
-        <v>230.84153789999999</v>
+        <v>92.336615179999995</v>
       </c>
       <c r="H55">
-        <v>92.336615179999995</v>
+        <v>36.934646069999999</v>
       </c>
       <c r="I55">
-        <v>36.934646069999999</v>
+        <v>14.773858430000001</v>
       </c>
       <c r="J55">
         <v>14.773858430000001</v>
@@ -15209,11 +15192,8 @@
       <c r="K55">
         <v>14.773858430000001</v>
       </c>
-      <c r="L55">
-        <v>14.773858430000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>4</v>
       </c>
@@ -15226,6 +15206,9 @@
       <c r="D56">
         <v>0</v>
       </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
       <c r="F56">
         <v>0</v>
       </c>
@@ -15244,11 +15227,8 @@
       <c r="K56">
         <v>0</v>
       </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>4</v>
       </c>
@@ -15261,17 +15241,20 @@
       <c r="D57">
         <v>3.8416000000000001</v>
       </c>
+      <c r="E57">
+        <v>150.0625</v>
+      </c>
       <c r="F57">
-        <v>150.0625</v>
+        <v>60.024999999999999</v>
       </c>
       <c r="G57">
-        <v>60.024999999999999</v>
+        <v>24.01</v>
       </c>
       <c r="H57">
-        <v>24.01</v>
+        <v>9.6039999999999992</v>
       </c>
       <c r="I57">
-        <v>9.6039999999999992</v>
+        <v>3.8416000000000001</v>
       </c>
       <c r="J57">
         <v>3.8416000000000001</v>
@@ -15279,11 +15262,8 @@
       <c r="K57">
         <v>3.8416000000000001</v>
       </c>
-      <c r="L57">
-        <v>3.8416000000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>4</v>
       </c>
@@ -15296,17 +15276,20 @@
       <c r="D58">
         <v>7.9905280000000003</v>
       </c>
+      <c r="E58">
+        <v>162.0675</v>
+      </c>
       <c r="F58">
-        <v>162.0675</v>
+        <v>64.826999999999998</v>
       </c>
       <c r="G58">
-        <v>64.826999999999998</v>
+        <v>25.930800000000001</v>
       </c>
       <c r="H58">
-        <v>25.930800000000001</v>
+        <v>10.37232</v>
       </c>
       <c r="I58">
-        <v>10.37232</v>
+        <v>4.1489279999999997</v>
       </c>
       <c r="J58">
         <v>4.1489279999999997</v>
@@ -15314,11 +15297,8 @@
       <c r="K58">
         <v>4.1489279999999997</v>
       </c>
-      <c r="L58">
-        <v>4.1489279999999997</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>4</v>
       </c>
@@ -15331,17 +15311,20 @@
       <c r="D59">
         <v>12.471370240000001</v>
       </c>
+      <c r="E59">
+        <v>175.03290000000001</v>
+      </c>
       <c r="F59">
-        <v>175.03290000000001</v>
+        <v>70.013159999999999</v>
       </c>
       <c r="G59">
-        <v>70.013159999999999</v>
+        <v>28.005264</v>
       </c>
       <c r="H59">
-        <v>28.005264</v>
+        <v>11.202105599999999</v>
       </c>
       <c r="I59">
-        <v>11.202105599999999</v>
+        <v>4.4808422400000003</v>
       </c>
       <c r="J59">
         <v>4.4808422400000003</v>
@@ -15349,11 +15332,8 @@
       <c r="K59">
         <v>4.4808422400000003</v>
       </c>
-      <c r="L59">
-        <v>4.4808422400000003</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>4</v>
       </c>
@@ -15366,17 +15346,20 @@
       <c r="D60">
         <v>17.31067986</v>
       </c>
+      <c r="E60">
+        <v>189.03553199999999</v>
+      </c>
       <c r="F60">
-        <v>189.03553199999999</v>
+        <v>75.614212800000004</v>
       </c>
       <c r="G60">
-        <v>75.614212800000004</v>
+        <v>30.245685120000001</v>
       </c>
       <c r="H60">
-        <v>30.245685120000001</v>
+        <v>12.098274050000001</v>
       </c>
       <c r="I60">
-        <v>12.098274050000001</v>
+        <v>4.8393096189999998</v>
       </c>
       <c r="J60">
         <v>4.8393096189999998</v>
@@ -15384,11 +15367,8 @@
       <c r="K60">
         <v>4.8393096189999998</v>
       </c>
-      <c r="L60">
-        <v>4.8393096189999998</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>4</v>
       </c>
@@ -15401,17 +15381,20 @@
       <c r="D61">
         <v>23.117851399999999</v>
       </c>
+      <c r="E61">
+        <v>226.8426384</v>
+      </c>
       <c r="F61">
-        <v>226.8426384</v>
+        <v>90.737055359999999</v>
       </c>
       <c r="G61">
-        <v>90.737055359999999</v>
+        <v>36.294822140000001</v>
       </c>
       <c r="H61">
-        <v>36.294822140000001</v>
+        <v>14.51792886</v>
       </c>
       <c r="I61">
-        <v>14.51792886</v>
+        <v>5.8071715429999999</v>
       </c>
       <c r="J61">
         <v>5.8071715429999999</v>
@@ -15419,11 +15402,8 @@
       <c r="K61">
         <v>5.8071715429999999</v>
       </c>
-      <c r="L61">
-        <v>5.8071715429999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>4</v>
       </c>
@@ -15436,17 +15416,20 @@
       <c r="D62">
         <v>29.38959667</v>
       </c>
+      <c r="E62">
+        <v>244.9900495</v>
+      </c>
       <c r="F62">
-        <v>244.9900495</v>
+        <v>97.996019790000005</v>
       </c>
       <c r="G62">
-        <v>97.996019790000005</v>
+        <v>39.198407920000001</v>
       </c>
       <c r="H62">
-        <v>39.198407920000001</v>
+        <v>15.67936317</v>
       </c>
       <c r="I62">
-        <v>15.67936317</v>
+        <v>6.2717452659999999</v>
       </c>
       <c r="J62">
         <v>6.2717452659999999</v>
@@ -15454,11 +15437,8 @@
       <c r="K62">
         <v>6.2717452659999999</v>
       </c>
-      <c r="L62">
-        <v>6.2717452659999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>4</v>
       </c>
@@ -15471,17 +15451,20 @@
       <c r="D63">
         <v>36.163081560000002</v>
       </c>
+      <c r="E63">
+        <v>264.58925340000002</v>
+      </c>
       <c r="F63">
-        <v>264.58925340000002</v>
+        <v>105.8357014</v>
       </c>
       <c r="G63">
-        <v>105.8357014</v>
+        <v>42.334280550000003</v>
       </c>
       <c r="H63">
-        <v>42.334280550000003</v>
+        <v>16.93371222</v>
       </c>
       <c r="I63">
-        <v>16.93371222</v>
+        <v>6.7734848879999996</v>
       </c>
       <c r="J63">
         <v>6.7734848879999996</v>
@@ -15489,11 +15472,8 @@
       <c r="K63">
         <v>6.7734848879999996</v>
       </c>
-      <c r="L63">
-        <v>6.7734848879999996</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>4</v>
       </c>
@@ -15506,17 +15486,20 @@
       <c r="D64">
         <v>43.478445239999999</v>
       </c>
+      <c r="E64">
+        <v>285.75639369999999</v>
+      </c>
       <c r="F64">
-        <v>285.75639369999999</v>
+        <v>114.30255750000001</v>
       </c>
       <c r="G64">
-        <v>114.30255750000001</v>
+        <v>45.721022990000002</v>
       </c>
       <c r="H64">
-        <v>45.721022990000002</v>
+        <v>18.2884092</v>
       </c>
       <c r="I64">
-        <v>18.2884092</v>
+        <v>7.3153636789999998</v>
       </c>
       <c r="J64">
         <v>7.3153636789999998</v>
@@ -15524,11 +15507,8 @@
       <c r="K64">
         <v>7.3153636789999998</v>
       </c>
-      <c r="L64">
-        <v>7.3153636789999998</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>4</v>
       </c>
@@ -15541,17 +15521,20 @@
       <c r="D65">
         <v>51.379038010000002</v>
       </c>
+      <c r="E65">
+        <v>308.61690520000002</v>
+      </c>
       <c r="F65">
-        <v>308.61690520000002</v>
+        <v>123.4467621</v>
       </c>
       <c r="G65">
-        <v>123.4467621</v>
+        <v>49.378704829999997</v>
       </c>
       <c r="H65">
-        <v>49.378704829999997</v>
+        <v>19.751481930000001</v>
       </c>
       <c r="I65">
-        <v>19.751481930000001</v>
+        <v>7.9005927729999996</v>
       </c>
       <c r="J65">
         <v>7.9005927729999996</v>
@@ -15559,11 +15542,8 @@
       <c r="K65">
         <v>7.9005927729999996</v>
       </c>
-      <c r="L65">
-        <v>7.9005927729999996</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>4</v>
       </c>
@@ -15576,17 +15556,20 @@
       <c r="D66">
         <v>61.649808610000001</v>
       </c>
+      <c r="E66">
+        <v>401.20197680000001</v>
+      </c>
       <c r="F66">
-        <v>401.20197680000001</v>
+        <v>160.4807907</v>
       </c>
       <c r="G66">
-        <v>160.4807907</v>
+        <v>64.19231628</v>
       </c>
       <c r="H66">
-        <v>64.19231628</v>
+        <v>25.676926510000001</v>
       </c>
       <c r="I66">
-        <v>25.676926510000001</v>
+        <v>10.27077061</v>
       </c>
       <c r="J66">
         <v>10.27077061</v>
@@ -15594,11 +15577,8 @@
       <c r="K66">
         <v>10.27077061</v>
       </c>
-      <c r="L66">
-        <v>10.27077061</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>4</v>
       </c>
@@ -15611,17 +15591,20 @@
       <c r="D67">
         <v>72.742240870000003</v>
       </c>
+      <c r="E67">
+        <v>433.29813489999998</v>
+      </c>
       <c r="F67">
-        <v>433.29813489999998</v>
+        <v>173.319254</v>
       </c>
       <c r="G67">
-        <v>173.319254</v>
+        <v>69.327701579999996</v>
       </c>
       <c r="H67">
-        <v>69.327701579999996</v>
+        <v>27.731080630000001</v>
       </c>
       <c r="I67">
-        <v>27.731080630000001</v>
+        <v>11.09243225</v>
       </c>
       <c r="J67">
         <v>11.09243225</v>
@@ -15629,11 +15612,8 @@
       <c r="K67">
         <v>11.09243225</v>
       </c>
-      <c r="L67">
-        <v>11.09243225</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>4</v>
       </c>
@@ -15646,17 +15626,20 @@
       <c r="D68">
         <v>84.722067699999997</v>
       </c>
+      <c r="E68">
+        <v>467.96198570000001</v>
+      </c>
       <c r="F68">
-        <v>467.96198570000001</v>
+        <v>187.18479429999999</v>
       </c>
       <c r="G68">
-        <v>187.18479429999999</v>
+        <v>74.873917710000001</v>
       </c>
       <c r="H68">
-        <v>74.873917710000001</v>
+        <v>29.949567080000001</v>
       </c>
       <c r="I68">
-        <v>29.949567080000001</v>
+        <v>11.97982683</v>
       </c>
       <c r="J68">
         <v>11.97982683</v>
@@ -15664,11 +15647,8 @@
       <c r="K68">
         <v>11.97982683</v>
       </c>
-      <c r="L68">
-        <v>11.97982683</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>4</v>
       </c>
@@ -15681,17 +15661,20 @@
       <c r="D69">
         <v>97.66028068</v>
       </c>
+      <c r="E69">
+        <v>505.39894450000003</v>
+      </c>
       <c r="F69">
-        <v>505.39894450000003</v>
+        <v>202.15957779999999</v>
       </c>
       <c r="G69">
-        <v>202.15957779999999</v>
+        <v>80.863831129999994</v>
       </c>
       <c r="H69">
-        <v>80.863831129999994</v>
+        <v>32.34553245</v>
       </c>
       <c r="I69">
-        <v>32.34553245</v>
+        <v>12.938212979999999</v>
       </c>
       <c r="J69">
         <v>12.938212979999999</v>
@@ -15699,11 +15682,8 @@
       <c r="K69">
         <v>12.938212979999999</v>
       </c>
-      <c r="L69">
-        <v>12.938212979999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>4</v>
       </c>
@@ -15716,17 +15696,20 @@
       <c r="D70">
         <v>111.6335507</v>
       </c>
+      <c r="E70">
+        <v>545.8308601</v>
+      </c>
       <c r="F70">
-        <v>545.8308601</v>
+        <v>218.33234400000001</v>
       </c>
       <c r="G70">
-        <v>218.33234400000001</v>
+        <v>87.332937619999996</v>
       </c>
       <c r="H70">
-        <v>87.332937619999996</v>
+        <v>34.933175050000003</v>
       </c>
       <c r="I70">
-        <v>34.933175050000003</v>
+        <v>13.973270019999999</v>
       </c>
       <c r="J70">
         <v>13.973270019999999</v>
@@ -15734,11 +15717,8 @@
       <c r="K70">
         <v>13.973270019999999</v>
       </c>
-      <c r="L70">
-        <v>13.973270019999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>4</v>
       </c>
@@ -15751,17 +15731,20 @@
       <c r="D71">
         <v>133.99078270000001</v>
       </c>
+      <c r="E71">
+        <v>873.32937619999996</v>
+      </c>
       <c r="F71">
-        <v>873.32937619999996</v>
+        <v>349.3317505</v>
       </c>
       <c r="G71">
-        <v>349.3317505</v>
+        <v>139.73270020000001</v>
       </c>
       <c r="H71">
-        <v>139.73270020000001</v>
+        <v>55.893080079999997</v>
       </c>
       <c r="I71">
-        <v>55.893080079999997</v>
+        <v>22.357232029999999</v>
       </c>
       <c r="J71">
         <v>22.357232029999999</v>
@@ -15769,11 +15752,8 @@
       <c r="K71">
         <v>22.357232029999999</v>
       </c>
-      <c r="L71">
-        <v>22.357232029999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>4</v>
       </c>
@@ -15786,17 +15766,20 @@
       <c r="D72">
         <v>158.13659329999999</v>
       </c>
+      <c r="E72">
+        <v>943.19572630000005</v>
+      </c>
       <c r="F72">
-        <v>943.19572630000005</v>
+        <v>377.27829050000003</v>
       </c>
       <c r="G72">
-        <v>377.27829050000003</v>
+        <v>150.91131619999999</v>
       </c>
       <c r="H72">
-        <v>150.91131619999999</v>
+        <v>60.364526480000002</v>
       </c>
       <c r="I72">
-        <v>60.364526480000002</v>
+        <v>24.14581059</v>
       </c>
       <c r="J72">
         <v>24.14581059</v>
@@ -15804,11 +15787,8 @@
       <c r="K72">
         <v>24.14581059</v>
       </c>
-      <c r="L72">
-        <v>24.14581059</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>4</v>
       </c>
@@ -15821,17 +15801,20 @@
       <c r="D73">
         <v>184.21406880000001</v>
       </c>
+      <c r="E73">
+        <v>1018.651384</v>
+      </c>
       <c r="F73">
-        <v>1018.651384</v>
+        <v>407.46055380000001</v>
       </c>
       <c r="G73">
-        <v>407.46055380000001</v>
+        <v>162.98422149999999</v>
       </c>
       <c r="H73">
-        <v>162.98422149999999</v>
+        <v>65.193688600000002</v>
       </c>
       <c r="I73">
-        <v>65.193688600000002</v>
+        <v>26.077475440000001</v>
       </c>
       <c r="J73">
         <v>26.077475440000001</v>
@@ -15839,11 +15822,8 @@
       <c r="K73">
         <v>26.077475440000001</v>
       </c>
-      <c r="L73">
-        <v>26.077475440000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>4</v>
       </c>
@@ -15856,17 +15836,20 @@
       <c r="D74">
         <v>212.3777422</v>
       </c>
+      <c r="E74">
+        <v>1100.143495</v>
+      </c>
       <c r="F74">
-        <v>1100.143495</v>
+        <v>440.0573981</v>
       </c>
       <c r="G74">
-        <v>440.0573981</v>
+        <v>176.0229592</v>
       </c>
       <c r="H74">
-        <v>176.0229592</v>
+        <v>70.409183690000006</v>
       </c>
       <c r="I74">
-        <v>70.409183690000006</v>
+        <v>28.16367348</v>
       </c>
       <c r="J74">
         <v>28.16367348</v>
@@ -15874,11 +15857,8 @@
       <c r="K74">
         <v>28.16367348</v>
       </c>
-      <c r="L74">
-        <v>28.16367348</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>4</v>
       </c>
@@ -15891,17 +15871,20 @@
       <c r="D75">
         <v>242.7945096</v>
       </c>
+      <c r="E75">
+        <v>1188.1549749999999</v>
+      </c>
       <c r="F75">
-        <v>1188.1549749999999</v>
+        <v>475.2619899</v>
       </c>
       <c r="G75">
-        <v>475.2619899</v>
+        <v>190.10479599999999</v>
       </c>
       <c r="H75">
-        <v>190.10479599999999</v>
+        <v>76.041918379999998</v>
       </c>
       <c r="I75">
-        <v>76.041918379999998</v>
+        <v>30.416767350000001</v>
       </c>
       <c r="J75">
         <v>30.416767350000001</v>
@@ -15909,11 +15892,8 @@
       <c r="K75">
         <v>30.416767350000001</v>
       </c>
-      <c r="L75">
-        <v>30.416767350000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>4</v>
       </c>
@@ -15926,17 +15906,20 @@
       <c r="D76">
         <v>294.50301409999997</v>
       </c>
+      <c r="E76">
+        <v>2019.8634569999999</v>
+      </c>
       <c r="F76">
-        <v>2019.8634569999999</v>
+        <v>807.94538279999995</v>
       </c>
       <c r="G76">
-        <v>807.94538279999995</v>
+        <v>323.17815309999997</v>
       </c>
       <c r="H76">
-        <v>323.17815309999997</v>
+        <v>129.27126129999999</v>
       </c>
       <c r="I76">
-        <v>129.27126129999999</v>
+        <v>51.708504499999997</v>
       </c>
       <c r="J76">
         <v>51.708504499999997</v>
@@ -15944,11 +15927,8 @@
       <c r="K76">
         <v>51.708504499999997</v>
       </c>
-      <c r="L76">
-        <v>51.708504499999997</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>4</v>
       </c>
@@ -15961,17 +15941,20 @@
       <c r="D77">
         <v>350.34819900000002</v>
       </c>
+      <c r="E77">
+        <v>2181.452534</v>
+      </c>
       <c r="F77">
-        <v>2181.452534</v>
+        <v>872.58101339999996</v>
       </c>
       <c r="G77">
-        <v>872.58101339999996</v>
+        <v>349.03240540000002</v>
       </c>
       <c r="H77">
-        <v>349.03240540000002</v>
+        <v>139.6129622</v>
       </c>
       <c r="I77">
-        <v>139.6129622</v>
+        <v>55.845184860000003</v>
       </c>
       <c r="J77">
         <v>55.845184860000003</v>
@@ -15979,11 +15962,8 @@
       <c r="K77">
         <v>55.845184860000003</v>
       </c>
-      <c r="L77">
-        <v>55.845184860000003</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>4</v>
       </c>
@@ -15996,17 +15976,20 @@
       <c r="D78">
         <v>410.66099860000003</v>
       </c>
+      <c r="E78">
+        <v>2355.9687359999998</v>
+      </c>
       <c r="F78">
-        <v>2355.9687359999998</v>
+        <v>942.3874945</v>
       </c>
       <c r="G78">
-        <v>942.3874945</v>
+        <v>376.9549978</v>
       </c>
       <c r="H78">
-        <v>376.9549978</v>
+        <v>150.78199910000001</v>
       </c>
       <c r="I78">
-        <v>150.78199910000001</v>
+        <v>60.312799650000002</v>
       </c>
       <c r="J78">
         <v>60.312799650000002</v>
@@ -16014,11 +15997,8 @@
       <c r="K78">
         <v>60.312799650000002</v>
       </c>
-      <c r="L78">
-        <v>60.312799650000002</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>4</v>
       </c>
@@ -16031,17 +16011,20 @@
       <c r="D79">
         <v>475.79882220000002</v>
       </c>
+      <c r="E79">
+        <v>2544.4462349999999</v>
+      </c>
       <c r="F79">
-        <v>2544.4462349999999</v>
+        <v>1017.778494</v>
       </c>
       <c r="G79">
-        <v>1017.778494</v>
+        <v>407.11139759999998</v>
       </c>
       <c r="H79">
-        <v>407.11139759999998</v>
+        <v>162.8445591</v>
       </c>
       <c r="I79">
-        <v>162.8445591</v>
+        <v>65.137823620000006</v>
       </c>
       <c r="J79">
         <v>65.137823620000006</v>
@@ -16049,11 +16032,8 @@
       <c r="K79">
         <v>65.137823620000006</v>
       </c>
-      <c r="L79">
-        <v>65.137823620000006</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>4</v>
       </c>
@@ -16066,17 +16046,20 @@
       <c r="D80">
         <v>546.14767170000005</v>
       </c>
+      <c r="E80">
+        <v>2748.0019339999999</v>
+      </c>
       <c r="F80">
-        <v>2748.0019339999999</v>
+        <v>1099.2007739999999</v>
       </c>
       <c r="G80">
-        <v>1099.2007739999999</v>
+        <v>439.6803094</v>
       </c>
       <c r="H80">
-        <v>439.6803094</v>
+        <v>175.8721238</v>
       </c>
       <c r="I80">
-        <v>175.8721238</v>
+        <v>70.348849509999994</v>
       </c>
       <c r="J80">
         <v>70.348849509999994</v>
@@ -16084,11 +16067,8 @@
       <c r="K80">
         <v>70.348849509999994</v>
       </c>
-      <c r="L80">
-        <v>70.348849509999994</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>4</v>
       </c>
@@ -16101,17 +16081,20 @@
       <c r="D81">
         <v>686.84537079999996</v>
       </c>
+      <c r="E81">
+        <v>5496.0038679999998</v>
+      </c>
       <c r="F81">
-        <v>5496.0038679999998</v>
+        <v>2198.4015469999999</v>
       </c>
       <c r="G81">
-        <v>2198.4015469999999</v>
+        <v>879.36061889999996</v>
       </c>
       <c r="H81">
-        <v>879.36061889999996</v>
+        <v>351.74424759999999</v>
       </c>
       <c r="I81">
-        <v>351.74424759999999</v>
+        <v>140.697699</v>
       </c>
       <c r="J81">
         <v>140.697699</v>
@@ -16119,11 +16102,8 @@
       <c r="K81">
         <v>140.697699</v>
       </c>
-      <c r="L81">
-        <v>140.697699</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>4</v>
       </c>
@@ -16136,17 +16116,20 @@
       <c r="D82">
         <v>838.79888570000003</v>
       </c>
+      <c r="E82">
+        <v>5935.6841780000004</v>
+      </c>
       <c r="F82">
-        <v>5935.6841780000004</v>
+        <v>2374.2736709999999</v>
       </c>
       <c r="G82">
-        <v>2374.2736709999999</v>
+        <v>949.70946839999999</v>
       </c>
       <c r="H82">
-        <v>949.70946839999999</v>
+        <v>379.88378740000002</v>
       </c>
       <c r="I82">
-        <v>379.88378740000002</v>
+        <v>151.95351489999999</v>
       </c>
       <c r="J82">
         <v>151.95351489999999</v>
@@ -16154,11 +16137,8 @@
       <c r="K82">
         <v>151.95351489999999</v>
       </c>
-      <c r="L82">
-        <v>151.95351489999999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>4</v>
       </c>
@@ -16171,17 +16151,20 @@
       <c r="D83">
         <v>1002.908682</v>
       </c>
+      <c r="E83">
+        <v>6410.538912</v>
+      </c>
       <c r="F83">
-        <v>6410.538912</v>
+        <v>2564.215565</v>
       </c>
       <c r="G83">
-        <v>2564.215565</v>
+        <v>1025.686226</v>
       </c>
       <c r="H83">
-        <v>1025.686226</v>
+        <v>410.27449030000002</v>
       </c>
       <c r="I83">
-        <v>410.27449030000002</v>
+        <v>164.10979610000001</v>
       </c>
       <c r="J83">
         <v>164.10979610000001</v>
@@ -16189,11 +16172,8 @@
       <c r="K83">
         <v>164.10979610000001</v>
       </c>
-      <c r="L83">
-        <v>164.10979610000001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>4</v>
       </c>
@@ -16206,17 +16186,20 @@
       <c r="D84">
         <v>1180.147262</v>
       </c>
+      <c r="E84">
+        <v>6923.3820249999999</v>
+      </c>
       <c r="F84">
-        <v>6923.3820249999999</v>
+        <v>2769.3528099999999</v>
       </c>
       <c r="G84">
-        <v>2769.3528099999999</v>
+        <v>1107.7411239999999</v>
       </c>
       <c r="H84">
-        <v>1107.7411239999999</v>
+        <v>443.09644960000003</v>
       </c>
       <c r="I84">
-        <v>443.09644960000003</v>
+        <v>177.2385798</v>
       </c>
       <c r="J84">
         <v>177.2385798</v>
@@ -16224,11 +16207,8 @@
       <c r="K84">
         <v>177.2385798</v>
       </c>
-      <c r="L84">
-        <v>177.2385798</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>4</v>
       </c>
@@ -16241,17 +16221,20 @@
       <c r="D85">
         <v>1371.564928</v>
       </c>
+      <c r="E85">
+        <v>7477.2525869999999</v>
+      </c>
       <c r="F85">
-        <v>7477.2525869999999</v>
+        <v>2990.9010349999999</v>
       </c>
       <c r="G85">
-        <v>2990.9010349999999</v>
+        <v>1196.360414</v>
       </c>
       <c r="H85">
-        <v>1196.360414</v>
+        <v>478.54416550000002</v>
       </c>
       <c r="I85">
-        <v>478.54416550000002</v>
+        <v>191.41766620000001</v>
       </c>
       <c r="J85">
         <v>191.41766620000001</v>
@@ -16259,11 +16242,8 @@
       <c r="K85">
         <v>191.41766620000001</v>
       </c>
-      <c r="L85">
-        <v>191.41766620000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>4</v>
       </c>
@@ -16276,17 +16256,20 @@
       <c r="D86">
         <v>1945.8179270000001</v>
       </c>
+      <c r="E86">
+        <v>22431.75776</v>
+      </c>
       <c r="F86">
-        <v>22431.75776</v>
+        <v>8972.7031040000002</v>
       </c>
       <c r="G86">
-        <v>8972.7031040000002</v>
+        <v>3589.0812420000002</v>
       </c>
       <c r="H86">
-        <v>3589.0812420000002</v>
+        <v>1435.6324970000001</v>
       </c>
       <c r="I86">
-        <v>1435.6324970000001</v>
+        <v>574.25299870000003</v>
       </c>
       <c r="J86">
         <v>574.25299870000003</v>
@@ -16294,11 +16277,8 @@
       <c r="K86">
         <v>574.25299870000003</v>
       </c>
-      <c r="L86">
-        <v>574.25299870000003</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>5</v>
       </c>
@@ -16311,6 +16291,9 @@
       <c r="D87">
         <v>0</v>
       </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
       <c r="F87">
         <v>0</v>
       </c>
@@ -16329,11 +16312,8 @@
       <c r="K87">
         <v>0</v>
       </c>
-      <c r="L87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>5</v>
       </c>
@@ -16346,17 +16326,20 @@
       <c r="D88">
         <v>3.8416000000000001</v>
       </c>
+      <c r="E88">
+        <v>150.0625</v>
+      </c>
       <c r="F88">
-        <v>150.0625</v>
+        <v>60.024999999999999</v>
       </c>
       <c r="G88">
-        <v>60.024999999999999</v>
+        <v>24.01</v>
       </c>
       <c r="H88">
-        <v>24.01</v>
+        <v>9.6039999999999992</v>
       </c>
       <c r="I88">
-        <v>9.6039999999999992</v>
+        <v>3.8416000000000001</v>
       </c>
       <c r="J88">
         <v>3.8416000000000001</v>
@@ -16364,11 +16347,8 @@
       <c r="K88">
         <v>3.8416000000000001</v>
       </c>
-      <c r="L88">
-        <v>3.8416000000000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>5</v>
       </c>
@@ -16381,17 +16361,20 @@
       <c r="D89">
         <v>7.9905280000000003</v>
       </c>
+      <c r="E89">
+        <v>162.0675</v>
+      </c>
       <c r="F89">
-        <v>162.0675</v>
+        <v>64.826999999999998</v>
       </c>
       <c r="G89">
-        <v>64.826999999999998</v>
+        <v>25.930800000000001</v>
       </c>
       <c r="H89">
-        <v>25.930800000000001</v>
+        <v>10.37232</v>
       </c>
       <c r="I89">
-        <v>10.37232</v>
+        <v>4.1489279999999997</v>
       </c>
       <c r="J89">
         <v>4.1489279999999997</v>
@@ -16399,11 +16382,8 @@
       <c r="K89">
         <v>4.1489279999999997</v>
       </c>
-      <c r="L89">
-        <v>4.1489279999999997</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>5</v>
       </c>
@@ -16416,17 +16396,20 @@
       <c r="D90">
         <v>12.471370240000001</v>
       </c>
+      <c r="E90">
+        <v>175.03290000000001</v>
+      </c>
       <c r="F90">
-        <v>175.03290000000001</v>
+        <v>70.013159999999999</v>
       </c>
       <c r="G90">
-        <v>70.013159999999999</v>
+        <v>28.005264</v>
       </c>
       <c r="H90">
-        <v>28.005264</v>
+        <v>11.202105599999999</v>
       </c>
       <c r="I90">
-        <v>11.202105599999999</v>
+        <v>4.4808422400000003</v>
       </c>
       <c r="J90">
         <v>4.4808422400000003</v>
@@ -16434,11 +16417,8 @@
       <c r="K90">
         <v>4.4808422400000003</v>
       </c>
-      <c r="L90">
-        <v>4.4808422400000003</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>5</v>
       </c>
@@ -16451,17 +16431,20 @@
       <c r="D91">
         <v>17.31067986</v>
       </c>
+      <c r="E91">
+        <v>189.03553199999999</v>
+      </c>
       <c r="F91">
-        <v>189.03553199999999</v>
+        <v>75.614212800000004</v>
       </c>
       <c r="G91">
-        <v>75.614212800000004</v>
+        <v>30.245685120000001</v>
       </c>
       <c r="H91">
-        <v>30.245685120000001</v>
+        <v>12.098274050000001</v>
       </c>
       <c r="I91">
-        <v>12.098274050000001</v>
+        <v>4.8393096189999998</v>
       </c>
       <c r="J91">
         <v>4.8393096189999998</v>
@@ -16469,11 +16452,8 @@
       <c r="K91">
         <v>4.8393096189999998</v>
       </c>
-      <c r="L91">
-        <v>4.8393096189999998</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>5</v>
       </c>
@@ -16486,17 +16466,20 @@
       <c r="D92">
         <v>23.117851399999999</v>
       </c>
+      <c r="E92">
+        <v>226.8426384</v>
+      </c>
       <c r="F92">
-        <v>226.8426384</v>
+        <v>90.737055359999999</v>
       </c>
       <c r="G92">
-        <v>90.737055359999999</v>
+        <v>36.294822140000001</v>
       </c>
       <c r="H92">
-        <v>36.294822140000001</v>
+        <v>14.51792886</v>
       </c>
       <c r="I92">
-        <v>14.51792886</v>
+        <v>5.8071715429999999</v>
       </c>
       <c r="J92">
         <v>5.8071715429999999</v>
@@ -16504,11 +16487,8 @@
       <c r="K92">
         <v>5.8071715429999999</v>
       </c>
-      <c r="L92">
-        <v>5.8071715429999999</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>5</v>
       </c>
@@ -16521,17 +16501,20 @@
       <c r="D93">
         <v>29.38959667</v>
       </c>
+      <c r="E93">
+        <v>244.9900495</v>
+      </c>
       <c r="F93">
-        <v>244.9900495</v>
+        <v>97.996019790000005</v>
       </c>
       <c r="G93">
-        <v>97.996019790000005</v>
+        <v>39.198407920000001</v>
       </c>
       <c r="H93">
-        <v>39.198407920000001</v>
+        <v>15.67936317</v>
       </c>
       <c r="I93">
-        <v>15.67936317</v>
+        <v>6.2717452659999999</v>
       </c>
       <c r="J93">
         <v>6.2717452659999999</v>
@@ -16539,11 +16522,8 @@
       <c r="K93">
         <v>6.2717452659999999</v>
       </c>
-      <c r="L93">
-        <v>6.2717452659999999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>5</v>
       </c>
@@ -16556,17 +16536,20 @@
       <c r="D94">
         <v>36.163081560000002</v>
       </c>
+      <c r="E94">
+        <v>264.58925340000002</v>
+      </c>
       <c r="F94">
-        <v>264.58925340000002</v>
+        <v>105.8357014</v>
       </c>
       <c r="G94">
-        <v>105.8357014</v>
+        <v>42.334280550000003</v>
       </c>
       <c r="H94">
-        <v>42.334280550000003</v>
+        <v>16.93371222</v>
       </c>
       <c r="I94">
-        <v>16.93371222</v>
+        <v>6.7734848879999996</v>
       </c>
       <c r="J94">
         <v>6.7734848879999996</v>
@@ -16574,11 +16557,8 @@
       <c r="K94">
         <v>6.7734848879999996</v>
       </c>
-      <c r="L94">
-        <v>6.7734848879999996</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>5</v>
       </c>
@@ -16591,17 +16571,20 @@
       <c r="D95">
         <v>43.478445239999999</v>
       </c>
+      <c r="E95">
+        <v>285.75639369999999</v>
+      </c>
       <c r="F95">
-        <v>285.75639369999999</v>
+        <v>114.30255750000001</v>
       </c>
       <c r="G95">
-        <v>114.30255750000001</v>
+        <v>45.721022990000002</v>
       </c>
       <c r="H95">
-        <v>45.721022990000002</v>
+        <v>18.2884092</v>
       </c>
       <c r="I95">
-        <v>18.2884092</v>
+        <v>7.3153636789999998</v>
       </c>
       <c r="J95">
         <v>7.3153636789999998</v>
@@ -16609,11 +16592,8 @@
       <c r="K95">
         <v>7.3153636789999998</v>
       </c>
-      <c r="L95">
-        <v>7.3153636789999998</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>5</v>
       </c>
@@ -16626,17 +16606,20 @@
       <c r="D96">
         <v>51.379038010000002</v>
       </c>
+      <c r="E96">
+        <v>308.61690520000002</v>
+      </c>
       <c r="F96">
-        <v>308.61690520000002</v>
+        <v>123.4467621</v>
       </c>
       <c r="G96">
-        <v>123.4467621</v>
+        <v>49.378704829999997</v>
       </c>
       <c r="H96">
-        <v>49.378704829999997</v>
+        <v>19.751481930000001</v>
       </c>
       <c r="I96">
-        <v>19.751481930000001</v>
+        <v>7.9005927729999996</v>
       </c>
       <c r="J96">
         <v>7.9005927729999996</v>
@@ -16644,11 +16627,8 @@
       <c r="K96">
         <v>7.9005927729999996</v>
       </c>
-      <c r="L96">
-        <v>7.9005927729999996</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>5</v>
       </c>
@@ -16661,17 +16641,20 @@
       <c r="D97">
         <v>61.649808610000001</v>
       </c>
+      <c r="E97">
+        <v>401.20197680000001</v>
+      </c>
       <c r="F97">
-        <v>401.20197680000001</v>
+        <v>160.4807907</v>
       </c>
       <c r="G97">
-        <v>160.4807907</v>
+        <v>64.19231628</v>
       </c>
       <c r="H97">
-        <v>64.19231628</v>
+        <v>25.676926510000001</v>
       </c>
       <c r="I97">
-        <v>25.676926510000001</v>
+        <v>10.27077061</v>
       </c>
       <c r="J97">
         <v>10.27077061</v>
@@ -16679,11 +16662,8 @@
       <c r="K97">
         <v>10.27077061</v>
       </c>
-      <c r="L97">
-        <v>10.27077061</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>5</v>
       </c>
@@ -16696,17 +16676,20 @@
       <c r="D98">
         <v>72.742240870000003</v>
       </c>
+      <c r="E98">
+        <v>433.29813489999998</v>
+      </c>
       <c r="F98">
-        <v>433.29813489999998</v>
+        <v>173.319254</v>
       </c>
       <c r="G98">
-        <v>173.319254</v>
+        <v>69.327701579999996</v>
       </c>
       <c r="H98">
-        <v>69.327701579999996</v>
+        <v>27.731080630000001</v>
       </c>
       <c r="I98">
-        <v>27.731080630000001</v>
+        <v>11.09243225</v>
       </c>
       <c r="J98">
         <v>11.09243225</v>
@@ -16714,11 +16697,8 @@
       <c r="K98">
         <v>11.09243225</v>
       </c>
-      <c r="L98">
-        <v>11.09243225</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>5</v>
       </c>
@@ -16731,17 +16711,20 @@
       <c r="D99">
         <v>84.722067699999997</v>
       </c>
+      <c r="E99">
+        <v>467.96198570000001</v>
+      </c>
       <c r="F99">
-        <v>467.96198570000001</v>
+        <v>187.18479429999999</v>
       </c>
       <c r="G99">
-        <v>187.18479429999999</v>
+        <v>74.873917710000001</v>
       </c>
       <c r="H99">
-        <v>74.873917710000001</v>
+        <v>29.949567080000001</v>
       </c>
       <c r="I99">
-        <v>29.949567080000001</v>
+        <v>11.97982683</v>
       </c>
       <c r="J99">
         <v>11.97982683</v>
@@ -16749,11 +16732,8 @@
       <c r="K99">
         <v>11.97982683</v>
       </c>
-      <c r="L99">
-        <v>11.97982683</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>5</v>
       </c>
@@ -16766,17 +16746,20 @@
       <c r="D100">
         <v>97.66028068</v>
       </c>
+      <c r="E100">
+        <v>505.39894450000003</v>
+      </c>
       <c r="F100">
-        <v>505.39894450000003</v>
+        <v>202.15957779999999</v>
       </c>
       <c r="G100">
-        <v>202.15957779999999</v>
+        <v>80.863831129999994</v>
       </c>
       <c r="H100">
-        <v>80.863831129999994</v>
+        <v>32.34553245</v>
       </c>
       <c r="I100">
-        <v>32.34553245</v>
+        <v>12.938212979999999</v>
       </c>
       <c r="J100">
         <v>12.938212979999999</v>
@@ -16784,11 +16767,8 @@
       <c r="K100">
         <v>12.938212979999999</v>
       </c>
-      <c r="L100">
-        <v>12.938212979999999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>5</v>
       </c>
@@ -16801,17 +16781,20 @@
       <c r="D101">
         <v>111.6335507</v>
       </c>
+      <c r="E101">
+        <v>545.8308601</v>
+      </c>
       <c r="F101">
-        <v>545.8308601</v>
+        <v>218.33234400000001</v>
       </c>
       <c r="G101">
-        <v>218.33234400000001</v>
+        <v>87.332937619999996</v>
       </c>
       <c r="H101">
-        <v>87.332937619999996</v>
+        <v>34.933175050000003</v>
       </c>
       <c r="I101">
-        <v>34.933175050000003</v>
+        <v>13.973270019999999</v>
       </c>
       <c r="J101">
         <v>13.973270019999999</v>
@@ -16819,11 +16802,8 @@
       <c r="K101">
         <v>13.973270019999999</v>
       </c>
-      <c r="L101">
-        <v>13.973270019999999</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>5</v>
       </c>
@@ -16836,17 +16816,20 @@
       <c r="D102">
         <v>133.99078270000001</v>
       </c>
+      <c r="E102">
+        <v>873.32937619999996</v>
+      </c>
       <c r="F102">
-        <v>873.32937619999996</v>
+        <v>349.3317505</v>
       </c>
       <c r="G102">
-        <v>349.3317505</v>
+        <v>139.73270020000001</v>
       </c>
       <c r="H102">
-        <v>139.73270020000001</v>
+        <v>55.893080079999997</v>
       </c>
       <c r="I102">
-        <v>55.893080079999997</v>
+        <v>22.357232029999999</v>
       </c>
       <c r="J102">
         <v>22.357232029999999</v>
@@ -16854,11 +16837,8 @@
       <c r="K102">
         <v>22.357232029999999</v>
       </c>
-      <c r="L102">
-        <v>22.357232029999999</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>5</v>
       </c>
@@ -16871,17 +16851,20 @@
       <c r="D103">
         <v>158.13659329999999</v>
       </c>
+      <c r="E103">
+        <v>943.19572630000005</v>
+      </c>
       <c r="F103">
-        <v>943.19572630000005</v>
+        <v>377.27829050000003</v>
       </c>
       <c r="G103">
-        <v>377.27829050000003</v>
+        <v>150.91131619999999</v>
       </c>
       <c r="H103">
-        <v>150.91131619999999</v>
+        <v>60.364526480000002</v>
       </c>
       <c r="I103">
-        <v>60.364526480000002</v>
+        <v>24.14581059</v>
       </c>
       <c r="J103">
         <v>24.14581059</v>
@@ -16889,11 +16872,8 @@
       <c r="K103">
         <v>24.14581059</v>
       </c>
-      <c r="L103">
-        <v>24.14581059</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>5</v>
       </c>
@@ -16906,17 +16886,20 @@
       <c r="D104">
         <v>184.21406880000001</v>
       </c>
+      <c r="E104">
+        <v>1018.651384</v>
+      </c>
       <c r="F104">
-        <v>1018.651384</v>
+        <v>407.46055380000001</v>
       </c>
       <c r="G104">
-        <v>407.46055380000001</v>
+        <v>162.98422149999999</v>
       </c>
       <c r="H104">
-        <v>162.98422149999999</v>
+        <v>65.193688600000002</v>
       </c>
       <c r="I104">
-        <v>65.193688600000002</v>
+        <v>26.077475440000001</v>
       </c>
       <c r="J104">
         <v>26.077475440000001</v>
@@ -16924,11 +16907,8 @@
       <c r="K104">
         <v>26.077475440000001</v>
       </c>
-      <c r="L104">
-        <v>26.077475440000001</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>5</v>
       </c>
@@ -16941,17 +16921,20 @@
       <c r="D105">
         <v>212.3777422</v>
       </c>
+      <c r="E105">
+        <v>1100.143495</v>
+      </c>
       <c r="F105">
-        <v>1100.143495</v>
+        <v>440.0573981</v>
       </c>
       <c r="G105">
-        <v>440.0573981</v>
+        <v>176.0229592</v>
       </c>
       <c r="H105">
-        <v>176.0229592</v>
+        <v>70.409183690000006</v>
       </c>
       <c r="I105">
-        <v>70.409183690000006</v>
+        <v>28.16367348</v>
       </c>
       <c r="J105">
         <v>28.16367348</v>
@@ -16959,11 +16942,8 @@
       <c r="K105">
         <v>28.16367348</v>
       </c>
-      <c r="L105">
-        <v>28.16367348</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>5</v>
       </c>
@@ -16976,17 +16956,20 @@
       <c r="D106">
         <v>242.7945096</v>
       </c>
+      <c r="E106">
+        <v>1188.1549749999999</v>
+      </c>
       <c r="F106">
-        <v>1188.1549749999999</v>
+        <v>475.2619899</v>
       </c>
       <c r="G106">
-        <v>475.2619899</v>
+        <v>190.10479599999999</v>
       </c>
       <c r="H106">
-        <v>190.10479599999999</v>
+        <v>76.041918379999998</v>
       </c>
       <c r="I106">
-        <v>76.041918379999998</v>
+        <v>30.416767350000001</v>
       </c>
       <c r="J106">
         <v>30.416767350000001</v>
@@ -16994,11 +16977,8 @@
       <c r="K106">
         <v>30.416767350000001</v>
       </c>
-      <c r="L106">
-        <v>30.416767350000001</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>5</v>
       </c>
@@ -17011,17 +16991,20 @@
       <c r="D107">
         <v>294.50301409999997</v>
       </c>
+      <c r="E107">
+        <v>2019.8634569999999</v>
+      </c>
       <c r="F107">
-        <v>2019.8634569999999</v>
+        <v>807.94538279999995</v>
       </c>
       <c r="G107">
-        <v>807.94538279999995</v>
+        <v>323.17815309999997</v>
       </c>
       <c r="H107">
-        <v>323.17815309999997</v>
+        <v>129.27126129999999</v>
       </c>
       <c r="I107">
-        <v>129.27126129999999</v>
+        <v>51.708504499999997</v>
       </c>
       <c r="J107">
         <v>51.708504499999997</v>
@@ -17029,11 +17012,8 @@
       <c r="K107">
         <v>51.708504499999997</v>
       </c>
-      <c r="L107">
-        <v>51.708504499999997</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>5</v>
       </c>
@@ -17046,17 +17026,20 @@
       <c r="D108">
         <v>350.34819900000002</v>
       </c>
+      <c r="E108">
+        <v>2181.452534</v>
+      </c>
       <c r="F108">
-        <v>2181.452534</v>
+        <v>872.58101339999996</v>
       </c>
       <c r="G108">
-        <v>872.58101339999996</v>
+        <v>349.03240540000002</v>
       </c>
       <c r="H108">
-        <v>349.03240540000002</v>
+        <v>139.6129622</v>
       </c>
       <c r="I108">
-        <v>139.6129622</v>
+        <v>55.845184860000003</v>
       </c>
       <c r="J108">
         <v>55.845184860000003</v>
@@ -17064,11 +17047,8 @@
       <c r="K108">
         <v>55.845184860000003</v>
       </c>
-      <c r="L108">
-        <v>55.845184860000003</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>5</v>
       </c>
@@ -17081,17 +17061,20 @@
       <c r="D109">
         <v>410.66099860000003</v>
       </c>
+      <c r="E109">
+        <v>2355.9687359999998</v>
+      </c>
       <c r="F109">
-        <v>2355.9687359999998</v>
+        <v>942.3874945</v>
       </c>
       <c r="G109">
-        <v>942.3874945</v>
+        <v>376.9549978</v>
       </c>
       <c r="H109">
-        <v>376.9549978</v>
+        <v>150.78199910000001</v>
       </c>
       <c r="I109">
-        <v>150.78199910000001</v>
+        <v>60.312799650000002</v>
       </c>
       <c r="J109">
         <v>60.312799650000002</v>
@@ -17099,11 +17082,8 @@
       <c r="K109">
         <v>60.312799650000002</v>
       </c>
-      <c r="L109">
-        <v>60.312799650000002</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>5</v>
       </c>
@@ -17116,17 +17096,20 @@
       <c r="D110">
         <v>475.79882220000002</v>
       </c>
+      <c r="E110">
+        <v>2544.4462349999999</v>
+      </c>
       <c r="F110">
-        <v>2544.4462349999999</v>
+        <v>1017.778494</v>
       </c>
       <c r="G110">
-        <v>1017.778494</v>
+        <v>407.11139759999998</v>
       </c>
       <c r="H110">
-        <v>407.11139759999998</v>
+        <v>162.8445591</v>
       </c>
       <c r="I110">
-        <v>162.8445591</v>
+        <v>65.137823620000006</v>
       </c>
       <c r="J110">
         <v>65.137823620000006</v>
@@ -17134,11 +17117,8 @@
       <c r="K110">
         <v>65.137823620000006</v>
       </c>
-      <c r="L110">
-        <v>65.137823620000006</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>5</v>
       </c>
@@ -17151,17 +17131,20 @@
       <c r="D111">
         <v>546.14767170000005</v>
       </c>
+      <c r="E111">
+        <v>2748.0019339999999</v>
+      </c>
       <c r="F111">
-        <v>2748.0019339999999</v>
+        <v>1099.2007739999999</v>
       </c>
       <c r="G111">
-        <v>1099.2007739999999</v>
+        <v>439.6803094</v>
       </c>
       <c r="H111">
-        <v>439.6803094</v>
+        <v>175.8721238</v>
       </c>
       <c r="I111">
-        <v>175.8721238</v>
+        <v>70.348849509999994</v>
       </c>
       <c r="J111">
         <v>70.348849509999994</v>
@@ -17169,11 +17152,8 @@
       <c r="K111">
         <v>70.348849509999994</v>
       </c>
-      <c r="L111">
-        <v>70.348849509999994</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>5</v>
       </c>
@@ -17186,17 +17166,20 @@
       <c r="D112">
         <v>686.84537079999996</v>
       </c>
+      <c r="E112">
+        <v>5496.0038679999998</v>
+      </c>
       <c r="F112">
-        <v>5496.0038679999998</v>
+        <v>2198.4015469999999</v>
       </c>
       <c r="G112">
-        <v>2198.4015469999999</v>
+        <v>879.36061889999996</v>
       </c>
       <c r="H112">
-        <v>879.36061889999996</v>
+        <v>351.74424759999999</v>
       </c>
       <c r="I112">
-        <v>351.74424759999999</v>
+        <v>140.697699</v>
       </c>
       <c r="J112">
         <v>140.697699</v>
@@ -17204,11 +17187,8 @@
       <c r="K112">
         <v>140.697699</v>
       </c>
-      <c r="L112">
-        <v>140.697699</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>5</v>
       </c>
@@ -17221,17 +17201,20 @@
       <c r="D113">
         <v>838.79888570000003</v>
       </c>
+      <c r="E113">
+        <v>5935.6841780000004</v>
+      </c>
       <c r="F113">
-        <v>5935.6841780000004</v>
+        <v>2374.2736709999999</v>
       </c>
       <c r="G113">
-        <v>2374.2736709999999</v>
+        <v>949.70946839999999</v>
       </c>
       <c r="H113">
-        <v>949.70946839999999</v>
+        <v>379.88378740000002</v>
       </c>
       <c r="I113">
-        <v>379.88378740000002</v>
+        <v>151.95351489999999</v>
       </c>
       <c r="J113">
         <v>151.95351489999999</v>
@@ -17239,11 +17222,8 @@
       <c r="K113">
         <v>151.95351489999999</v>
       </c>
-      <c r="L113">
-        <v>151.95351489999999</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>5</v>
       </c>
@@ -17256,17 +17236,20 @@
       <c r="D114">
         <v>1002.908682</v>
       </c>
+      <c r="E114">
+        <v>6410.538912</v>
+      </c>
       <c r="F114">
-        <v>6410.538912</v>
+        <v>2564.215565</v>
       </c>
       <c r="G114">
-        <v>2564.215565</v>
+        <v>1025.686226</v>
       </c>
       <c r="H114">
-        <v>1025.686226</v>
+        <v>410.27449030000002</v>
       </c>
       <c r="I114">
-        <v>410.27449030000002</v>
+        <v>164.10979610000001</v>
       </c>
       <c r="J114">
         <v>164.10979610000001</v>
@@ -17274,11 +17257,8 @@
       <c r="K114">
         <v>164.10979610000001</v>
       </c>
-      <c r="L114">
-        <v>164.10979610000001</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>5</v>
       </c>
@@ -17291,17 +17271,20 @@
       <c r="D115">
         <v>1180.147262</v>
       </c>
+      <c r="E115">
+        <v>6923.3820249999999</v>
+      </c>
       <c r="F115">
-        <v>6923.3820249999999</v>
+        <v>2769.3528099999999</v>
       </c>
       <c r="G115">
-        <v>2769.3528099999999</v>
+        <v>1107.7411239999999</v>
       </c>
       <c r="H115">
-        <v>1107.7411239999999</v>
+        <v>443.09644960000003</v>
       </c>
       <c r="I115">
-        <v>443.09644960000003</v>
+        <v>177.2385798</v>
       </c>
       <c r="J115">
         <v>177.2385798</v>
@@ -17309,11 +17292,8 @@
       <c r="K115">
         <v>177.2385798</v>
       </c>
-      <c r="L115">
-        <v>177.2385798</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>5</v>
       </c>
@@ -17326,17 +17306,20 @@
       <c r="D116">
         <v>1371.564928</v>
       </c>
+      <c r="E116">
+        <v>7477.2525869999999</v>
+      </c>
       <c r="F116">
-        <v>7477.2525869999999</v>
+        <v>2990.9010349999999</v>
       </c>
       <c r="G116">
-        <v>2990.9010349999999</v>
+        <v>1196.360414</v>
       </c>
       <c r="H116">
-        <v>1196.360414</v>
+        <v>478.54416550000002</v>
       </c>
       <c r="I116">
-        <v>478.54416550000002</v>
+        <v>191.41766620000001</v>
       </c>
       <c r="J116">
         <v>191.41766620000001</v>
@@ -17344,11 +17327,8 @@
       <c r="K116">
         <v>191.41766620000001</v>
       </c>
-      <c r="L116">
-        <v>191.41766620000001</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>5</v>
       </c>
@@ -17361,17 +17341,20 @@
       <c r="D117">
         <v>1945.8179270000001</v>
       </c>
+      <c r="E117">
+        <v>22431.75776</v>
+      </c>
       <c r="F117">
-        <v>22431.75776</v>
+        <v>8972.7031040000002</v>
       </c>
       <c r="G117">
-        <v>8972.7031040000002</v>
+        <v>3589.0812420000002</v>
       </c>
       <c r="H117">
-        <v>3589.0812420000002</v>
+        <v>1435.6324970000001</v>
       </c>
       <c r="I117">
-        <v>1435.6324970000001</v>
+        <v>574.25299870000003</v>
       </c>
       <c r="J117">
         <v>574.25299870000003</v>
@@ -17379,11 +17362,8 @@
       <c r="K117">
         <v>574.25299870000003</v>
       </c>
-      <c r="L117">
-        <v>574.25299870000003</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>6</v>
       </c>
@@ -17396,6 +17376,9 @@
       <c r="D118">
         <v>0</v>
       </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
       <c r="F118">
         <v>0</v>
       </c>
@@ -17414,11 +17397,8 @@
       <c r="K118">
         <v>0</v>
       </c>
-      <c r="L118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>6</v>
       </c>
@@ -17431,17 +17411,20 @@
       <c r="D119">
         <v>3.8416000000000001</v>
       </c>
+      <c r="E119">
+        <v>150.0625</v>
+      </c>
       <c r="F119">
-        <v>150.0625</v>
+        <v>60.024999999999999</v>
       </c>
       <c r="G119">
-        <v>60.024999999999999</v>
+        <v>24.01</v>
       </c>
       <c r="H119">
-        <v>24.01</v>
+        <v>9.6039999999999992</v>
       </c>
       <c r="I119">
-        <v>9.6039999999999992</v>
+        <v>3.8416000000000001</v>
       </c>
       <c r="J119">
         <v>3.8416000000000001</v>
@@ -17449,11 +17432,8 @@
       <c r="K119">
         <v>3.8416000000000001</v>
       </c>
-      <c r="L119">
-        <v>3.8416000000000001</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>6</v>
       </c>
@@ -17466,17 +17446,20 @@
       <c r="D120">
         <v>7.9905280000000003</v>
       </c>
+      <c r="E120">
+        <v>162.0675</v>
+      </c>
       <c r="F120">
-        <v>162.0675</v>
+        <v>64.826999999999998</v>
       </c>
       <c r="G120">
-        <v>64.826999999999998</v>
+        <v>25.930800000000001</v>
       </c>
       <c r="H120">
-        <v>25.930800000000001</v>
+        <v>10.37232</v>
       </c>
       <c r="I120">
-        <v>10.37232</v>
+        <v>4.1489279999999997</v>
       </c>
       <c r="J120">
         <v>4.1489279999999997</v>
@@ -17484,11 +17467,8 @@
       <c r="K120">
         <v>4.1489279999999997</v>
       </c>
-      <c r="L120">
-        <v>4.1489279999999997</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>6</v>
       </c>
@@ -17501,17 +17481,20 @@
       <c r="D121">
         <v>12.471370240000001</v>
       </c>
+      <c r="E121">
+        <v>175.03290000000001</v>
+      </c>
       <c r="F121">
-        <v>175.03290000000001</v>
+        <v>70.013159999999999</v>
       </c>
       <c r="G121">
-        <v>70.013159999999999</v>
+        <v>28.005264</v>
       </c>
       <c r="H121">
-        <v>28.005264</v>
+        <v>11.202105599999999</v>
       </c>
       <c r="I121">
-        <v>11.202105599999999</v>
+        <v>4.4808422400000003</v>
       </c>
       <c r="J121">
         <v>4.4808422400000003</v>
@@ -17519,11 +17502,8 @@
       <c r="K121">
         <v>4.4808422400000003</v>
       </c>
-      <c r="L121">
-        <v>4.4808422400000003</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>6</v>
       </c>
@@ -17536,17 +17516,20 @@
       <c r="D122">
         <v>17.31067986</v>
       </c>
+      <c r="E122">
+        <v>189.03553199999999</v>
+      </c>
       <c r="F122">
-        <v>189.03553199999999</v>
+        <v>75.614212800000004</v>
       </c>
       <c r="G122">
-        <v>75.614212800000004</v>
+        <v>30.245685120000001</v>
       </c>
       <c r="H122">
-        <v>30.245685120000001</v>
+        <v>12.098274050000001</v>
       </c>
       <c r="I122">
-        <v>12.098274050000001</v>
+        <v>4.8393096189999998</v>
       </c>
       <c r="J122">
         <v>4.8393096189999998</v>
@@ -17554,11 +17537,8 @@
       <c r="K122">
         <v>4.8393096189999998</v>
       </c>
-      <c r="L122">
-        <v>4.8393096189999998</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>6</v>
       </c>
@@ -17571,17 +17551,20 @@
       <c r="D123">
         <v>23.117851399999999</v>
       </c>
+      <c r="E123">
+        <v>226.8426384</v>
+      </c>
       <c r="F123">
-        <v>226.8426384</v>
+        <v>90.737055359999999</v>
       </c>
       <c r="G123">
-        <v>90.737055359999999</v>
+        <v>36.294822140000001</v>
       </c>
       <c r="H123">
-        <v>36.294822140000001</v>
+        <v>14.51792886</v>
       </c>
       <c r="I123">
-        <v>14.51792886</v>
+        <v>5.8071715429999999</v>
       </c>
       <c r="J123">
         <v>5.8071715429999999</v>
@@ -17589,11 +17572,8 @@
       <c r="K123">
         <v>5.8071715429999999</v>
       </c>
-      <c r="L123">
-        <v>5.8071715429999999</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>6</v>
       </c>
@@ -17606,17 +17586,20 @@
       <c r="D124">
         <v>29.38959667</v>
       </c>
+      <c r="E124">
+        <v>244.9900495</v>
+      </c>
       <c r="F124">
-        <v>244.9900495</v>
+        <v>97.996019790000005</v>
       </c>
       <c r="G124">
-        <v>97.996019790000005</v>
+        <v>39.198407920000001</v>
       </c>
       <c r="H124">
-        <v>39.198407920000001</v>
+        <v>15.67936317</v>
       </c>
       <c r="I124">
-        <v>15.67936317</v>
+        <v>6.2717452659999999</v>
       </c>
       <c r="J124">
         <v>6.2717452659999999</v>
@@ -17624,11 +17607,8 @@
       <c r="K124">
         <v>6.2717452659999999</v>
       </c>
-      <c r="L124">
-        <v>6.2717452659999999</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>6</v>
       </c>
@@ -17641,17 +17621,20 @@
       <c r="D125">
         <v>36.163081560000002</v>
       </c>
+      <c r="E125">
+        <v>264.58925340000002</v>
+      </c>
       <c r="F125">
-        <v>264.58925340000002</v>
+        <v>105.8357014</v>
       </c>
       <c r="G125">
-        <v>105.8357014</v>
+        <v>42.334280550000003</v>
       </c>
       <c r="H125">
-        <v>42.334280550000003</v>
+        <v>16.93371222</v>
       </c>
       <c r="I125">
-        <v>16.93371222</v>
+        <v>6.7734848879999996</v>
       </c>
       <c r="J125">
         <v>6.7734848879999996</v>
@@ -17659,11 +17642,8 @@
       <c r="K125">
         <v>6.7734848879999996</v>
       </c>
-      <c r="L125">
-        <v>6.7734848879999996</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>6</v>
       </c>
@@ -17676,17 +17656,20 @@
       <c r="D126">
         <v>43.478445239999999</v>
       </c>
+      <c r="E126">
+        <v>285.75639369999999</v>
+      </c>
       <c r="F126">
-        <v>285.75639369999999</v>
+        <v>114.30255750000001</v>
       </c>
       <c r="G126">
-        <v>114.30255750000001</v>
+        <v>45.721022990000002</v>
       </c>
       <c r="H126">
-        <v>45.721022990000002</v>
+        <v>18.2884092</v>
       </c>
       <c r="I126">
-        <v>18.2884092</v>
+        <v>7.3153636789999998</v>
       </c>
       <c r="J126">
         <v>7.3153636789999998</v>
@@ -17694,11 +17677,8 @@
       <c r="K126">
         <v>7.3153636789999998</v>
       </c>
-      <c r="L126">
-        <v>7.3153636789999998</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>6</v>
       </c>
@@ -17711,17 +17691,20 @@
       <c r="D127">
         <v>51.379038010000002</v>
       </c>
+      <c r="E127">
+        <v>308.61690520000002</v>
+      </c>
       <c r="F127">
-        <v>308.61690520000002</v>
+        <v>123.4467621</v>
       </c>
       <c r="G127">
-        <v>123.4467621</v>
+        <v>49.378704829999997</v>
       </c>
       <c r="H127">
-        <v>49.378704829999997</v>
+        <v>19.751481930000001</v>
       </c>
       <c r="I127">
-        <v>19.751481930000001</v>
+        <v>7.9005927729999996</v>
       </c>
       <c r="J127">
         <v>7.9005927729999996</v>
@@ -17729,11 +17712,8 @@
       <c r="K127">
         <v>7.9005927729999996</v>
       </c>
-      <c r="L127">
-        <v>7.9005927729999996</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>6</v>
       </c>
@@ -17746,17 +17726,20 @@
       <c r="D128">
         <v>61.649808610000001</v>
       </c>
+      <c r="E128">
+        <v>401.20197680000001</v>
+      </c>
       <c r="F128">
-        <v>401.20197680000001</v>
+        <v>160.4807907</v>
       </c>
       <c r="G128">
-        <v>160.4807907</v>
+        <v>64.19231628</v>
       </c>
       <c r="H128">
-        <v>64.19231628</v>
+        <v>25.676926510000001</v>
       </c>
       <c r="I128">
-        <v>25.676926510000001</v>
+        <v>10.27077061</v>
       </c>
       <c r="J128">
         <v>10.27077061</v>
@@ -17764,11 +17747,8 @@
       <c r="K128">
         <v>10.27077061</v>
       </c>
-      <c r="L128">
-        <v>10.27077061</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>6</v>
       </c>
@@ -17781,17 +17761,20 @@
       <c r="D129">
         <v>72.742240870000003</v>
       </c>
+      <c r="E129">
+        <v>433.29813489999998</v>
+      </c>
       <c r="F129">
-        <v>433.29813489999998</v>
+        <v>173.319254</v>
       </c>
       <c r="G129">
-        <v>173.319254</v>
+        <v>69.327701579999996</v>
       </c>
       <c r="H129">
-        <v>69.327701579999996</v>
+        <v>27.731080630000001</v>
       </c>
       <c r="I129">
-        <v>27.731080630000001</v>
+        <v>11.09243225</v>
       </c>
       <c r="J129">
         <v>11.09243225</v>
@@ -17799,11 +17782,8 @@
       <c r="K129">
         <v>11.09243225</v>
       </c>
-      <c r="L129">
-        <v>11.09243225</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>6</v>
       </c>
@@ -17816,17 +17796,20 @@
       <c r="D130">
         <v>84.722067699999997</v>
       </c>
+      <c r="E130">
+        <v>467.96198570000001</v>
+      </c>
       <c r="F130">
-        <v>467.96198570000001</v>
+        <v>187.18479429999999</v>
       </c>
       <c r="G130">
-        <v>187.18479429999999</v>
+        <v>74.873917710000001</v>
       </c>
       <c r="H130">
-        <v>74.873917710000001</v>
+        <v>29.949567080000001</v>
       </c>
       <c r="I130">
-        <v>29.949567080000001</v>
+        <v>11.97982683</v>
       </c>
       <c r="J130">
         <v>11.97982683</v>
@@ -17834,11 +17817,8 @@
       <c r="K130">
         <v>11.97982683</v>
       </c>
-      <c r="L130">
-        <v>11.97982683</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>6</v>
       </c>
@@ -17851,17 +17831,20 @@
       <c r="D131">
         <v>97.66028068</v>
       </c>
+      <c r="E131">
+        <v>505.39894450000003</v>
+      </c>
       <c r="F131">
-        <v>505.39894450000003</v>
+        <v>202.15957779999999</v>
       </c>
       <c r="G131">
-        <v>202.15957779999999</v>
+        <v>80.863831129999994</v>
       </c>
       <c r="H131">
-        <v>80.863831129999994</v>
+        <v>32.34553245</v>
       </c>
       <c r="I131">
-        <v>32.34553245</v>
+        <v>12.938212979999999</v>
       </c>
       <c r="J131">
         <v>12.938212979999999</v>
@@ -17869,11 +17852,8 @@
       <c r="K131">
         <v>12.938212979999999</v>
       </c>
-      <c r="L131">
-        <v>12.938212979999999</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>6</v>
       </c>
@@ -17886,17 +17866,20 @@
       <c r="D132">
         <v>111.6335507</v>
       </c>
+      <c r="E132">
+        <v>545.8308601</v>
+      </c>
       <c r="F132">
-        <v>545.8308601</v>
+        <v>218.33234400000001</v>
       </c>
       <c r="G132">
-        <v>218.33234400000001</v>
+        <v>87.332937619999996</v>
       </c>
       <c r="H132">
-        <v>87.332937619999996</v>
+        <v>34.933175050000003</v>
       </c>
       <c r="I132">
-        <v>34.933175050000003</v>
+        <v>13.973270019999999</v>
       </c>
       <c r="J132">
         <v>13.973270019999999</v>
@@ -17904,11 +17887,8 @@
       <c r="K132">
         <v>13.973270019999999</v>
       </c>
-      <c r="L132">
-        <v>13.973270019999999</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>6</v>
       </c>
@@ -17921,17 +17901,20 @@
       <c r="D133">
         <v>133.99078270000001</v>
       </c>
+      <c r="E133">
+        <v>873.32937619999996</v>
+      </c>
       <c r="F133">
-        <v>873.32937619999996</v>
+        <v>349.3317505</v>
       </c>
       <c r="G133">
-        <v>349.3317505</v>
+        <v>139.73270020000001</v>
       </c>
       <c r="H133">
-        <v>139.73270020000001</v>
+        <v>55.893080079999997</v>
       </c>
       <c r="I133">
-        <v>55.893080079999997</v>
+        <v>22.357232029999999</v>
       </c>
       <c r="J133">
         <v>22.357232029999999</v>
@@ -17939,11 +17922,8 @@
       <c r="K133">
         <v>22.357232029999999</v>
       </c>
-      <c r="L133">
-        <v>22.357232029999999</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>6</v>
       </c>
@@ -17956,17 +17936,20 @@
       <c r="D134">
         <v>158.13659329999999</v>
       </c>
+      <c r="E134">
+        <v>943.19572630000005</v>
+      </c>
       <c r="F134">
-        <v>943.19572630000005</v>
+        <v>377.27829050000003</v>
       </c>
       <c r="G134">
-        <v>377.27829050000003</v>
+        <v>150.91131619999999</v>
       </c>
       <c r="H134">
-        <v>150.91131619999999</v>
+        <v>60.364526480000002</v>
       </c>
       <c r="I134">
-        <v>60.364526480000002</v>
+        <v>24.14581059</v>
       </c>
       <c r="J134">
         <v>24.14581059</v>
@@ -17974,11 +17957,8 @@
       <c r="K134">
         <v>24.14581059</v>
       </c>
-      <c r="L134">
-        <v>24.14581059</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>6</v>
       </c>
@@ -17991,17 +17971,20 @@
       <c r="D135">
         <v>184.21406880000001</v>
       </c>
+      <c r="E135">
+        <v>1018.651384</v>
+      </c>
       <c r="F135">
-        <v>1018.651384</v>
+        <v>407.46055380000001</v>
       </c>
       <c r="G135">
-        <v>407.46055380000001</v>
+        <v>162.98422149999999</v>
       </c>
       <c r="H135">
-        <v>162.98422149999999</v>
+        <v>65.193688600000002</v>
       </c>
       <c r="I135">
-        <v>65.193688600000002</v>
+        <v>26.077475440000001</v>
       </c>
       <c r="J135">
         <v>26.077475440000001</v>
@@ -18009,11 +17992,8 @@
       <c r="K135">
         <v>26.077475440000001</v>
       </c>
-      <c r="L135">
-        <v>26.077475440000001</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>6</v>
       </c>
@@ -18026,17 +18006,20 @@
       <c r="D136">
         <v>212.3777422</v>
       </c>
+      <c r="E136">
+        <v>1100.143495</v>
+      </c>
       <c r="F136">
-        <v>1100.143495</v>
+        <v>440.0573981</v>
       </c>
       <c r="G136">
-        <v>440.0573981</v>
+        <v>176.0229592</v>
       </c>
       <c r="H136">
-        <v>176.0229592</v>
+        <v>70.409183690000006</v>
       </c>
       <c r="I136">
-        <v>70.409183690000006</v>
+        <v>28.16367348</v>
       </c>
       <c r="J136">
         <v>28.16367348</v>
@@ -18044,11 +18027,8 @@
       <c r="K136">
         <v>28.16367348</v>
       </c>
-      <c r="L136">
-        <v>28.16367348</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>6</v>
       </c>
@@ -18061,17 +18041,20 @@
       <c r="D137">
         <v>242.7945096</v>
       </c>
+      <c r="E137">
+        <v>1188.1549749999999</v>
+      </c>
       <c r="F137">
-        <v>1188.1549749999999</v>
+        <v>475.2619899</v>
       </c>
       <c r="G137">
-        <v>475.2619899</v>
+        <v>190.10479599999999</v>
       </c>
       <c r="H137">
-        <v>190.10479599999999</v>
+        <v>76.041918379999998</v>
       </c>
       <c r="I137">
-        <v>76.041918379999998</v>
+        <v>30.416767350000001</v>
       </c>
       <c r="J137">
         <v>30.416767350000001</v>
@@ -18079,11 +18062,8 @@
       <c r="K137">
         <v>30.416767350000001</v>
       </c>
-      <c r="L137">
-        <v>30.416767350000001</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>6</v>
       </c>
@@ -18096,17 +18076,20 @@
       <c r="D138">
         <v>294.50301409999997</v>
       </c>
+      <c r="E138">
+        <v>2019.8634569999999</v>
+      </c>
       <c r="F138">
-        <v>2019.8634569999999</v>
+        <v>807.94538279999995</v>
       </c>
       <c r="G138">
-        <v>807.94538279999995</v>
+        <v>323.17815309999997</v>
       </c>
       <c r="H138">
-        <v>323.17815309999997</v>
+        <v>129.27126129999999</v>
       </c>
       <c r="I138">
-        <v>129.27126129999999</v>
+        <v>51.708504499999997</v>
       </c>
       <c r="J138">
         <v>51.708504499999997</v>
@@ -18114,11 +18097,8 @@
       <c r="K138">
         <v>51.708504499999997</v>
       </c>
-      <c r="L138">
-        <v>51.708504499999997</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>6</v>
       </c>
@@ -18131,17 +18111,20 @@
       <c r="D139">
         <v>350.34819900000002</v>
       </c>
+      <c r="E139">
+        <v>2181.452534</v>
+      </c>
       <c r="F139">
-        <v>2181.452534</v>
+        <v>872.58101339999996</v>
       </c>
       <c r="G139">
-        <v>872.58101339999996</v>
+        <v>349.03240540000002</v>
       </c>
       <c r="H139">
-        <v>349.03240540000002</v>
+        <v>139.6129622</v>
       </c>
       <c r="I139">
-        <v>139.6129622</v>
+        <v>55.845184860000003</v>
       </c>
       <c r="J139">
         <v>55.845184860000003</v>
@@ -18149,11 +18132,8 @@
       <c r="K139">
         <v>55.845184860000003</v>
       </c>
-      <c r="L139">
-        <v>55.845184860000003</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>6</v>
       </c>
@@ -18166,17 +18146,20 @@
       <c r="D140">
         <v>410.66099860000003</v>
       </c>
+      <c r="E140">
+        <v>2355.9687359999998</v>
+      </c>
       <c r="F140">
-        <v>2355.9687359999998</v>
+        <v>942.3874945</v>
       </c>
       <c r="G140">
-        <v>942.3874945</v>
+        <v>376.9549978</v>
       </c>
       <c r="H140">
-        <v>376.9549978</v>
+        <v>150.78199910000001</v>
       </c>
       <c r="I140">
-        <v>150.78199910000001</v>
+        <v>60.312799650000002</v>
       </c>
       <c r="J140">
         <v>60.312799650000002</v>
@@ -18184,11 +18167,8 @@
       <c r="K140">
         <v>60.312799650000002</v>
       </c>
-      <c r="L140">
-        <v>60.312799650000002</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>6</v>
       </c>
@@ -18201,17 +18181,20 @@
       <c r="D141">
         <v>475.79882220000002</v>
       </c>
+      <c r="E141">
+        <v>2544.4462349999999</v>
+      </c>
       <c r="F141">
-        <v>2544.4462349999999</v>
+        <v>1017.778494</v>
       </c>
       <c r="G141">
-        <v>1017.778494</v>
+        <v>407.11139759999998</v>
       </c>
       <c r="H141">
-        <v>407.11139759999998</v>
+        <v>162.8445591</v>
       </c>
       <c r="I141">
-        <v>162.8445591</v>
+        <v>65.137823620000006</v>
       </c>
       <c r="J141">
         <v>65.137823620000006</v>
@@ -18219,11 +18202,8 @@
       <c r="K141">
         <v>65.137823620000006</v>
       </c>
-      <c r="L141">
-        <v>65.137823620000006</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>6</v>
       </c>
@@ -18236,17 +18216,20 @@
       <c r="D142">
         <v>546.14767170000005</v>
       </c>
+      <c r="E142">
+        <v>2748.0019339999999</v>
+      </c>
       <c r="F142">
-        <v>2748.0019339999999</v>
+        <v>1099.2007739999999</v>
       </c>
       <c r="G142">
-        <v>1099.2007739999999</v>
+        <v>439.6803094</v>
       </c>
       <c r="H142">
-        <v>439.6803094</v>
+        <v>175.8721238</v>
       </c>
       <c r="I142">
-        <v>175.8721238</v>
+        <v>70.348849509999994</v>
       </c>
       <c r="J142">
         <v>70.348849509999994</v>
@@ -18254,11 +18237,8 @@
       <c r="K142">
         <v>70.348849509999994</v>
       </c>
-      <c r="L142">
-        <v>70.348849509999994</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>6</v>
       </c>
@@ -18271,17 +18251,20 @@
       <c r="D143">
         <v>686.84537079999996</v>
       </c>
+      <c r="E143">
+        <v>5496.0038679999998</v>
+      </c>
       <c r="F143">
-        <v>5496.0038679999998</v>
+        <v>2198.4015469999999</v>
       </c>
       <c r="G143">
-        <v>2198.4015469999999</v>
+        <v>879.36061889999996</v>
       </c>
       <c r="H143">
-        <v>879.36061889999996</v>
+        <v>351.74424759999999</v>
       </c>
       <c r="I143">
-        <v>351.74424759999999</v>
+        <v>140.697699</v>
       </c>
       <c r="J143">
         <v>140.697699</v>
@@ -18289,11 +18272,8 @@
       <c r="K143">
         <v>140.697699</v>
       </c>
-      <c r="L143">
-        <v>140.697699</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>6</v>
       </c>
@@ -18306,17 +18286,20 @@
       <c r="D144">
         <v>838.79888570000003</v>
       </c>
+      <c r="E144">
+        <v>5935.6841780000004</v>
+      </c>
       <c r="F144">
-        <v>5935.6841780000004</v>
+        <v>2374.2736709999999</v>
       </c>
       <c r="G144">
-        <v>2374.2736709999999</v>
+        <v>949.70946839999999</v>
       </c>
       <c r="H144">
-        <v>949.70946839999999</v>
+        <v>379.88378740000002</v>
       </c>
       <c r="I144">
-        <v>379.88378740000002</v>
+        <v>151.95351489999999</v>
       </c>
       <c r="J144">
         <v>151.95351489999999</v>
@@ -18324,11 +18307,8 @@
       <c r="K144">
         <v>151.95351489999999</v>
       </c>
-      <c r="L144">
-        <v>151.95351489999999</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>6</v>
       </c>
@@ -18341,17 +18321,20 @@
       <c r="D145">
         <v>1002.908682</v>
       </c>
+      <c r="E145">
+        <v>6410.538912</v>
+      </c>
       <c r="F145">
-        <v>6410.538912</v>
+        <v>2564.215565</v>
       </c>
       <c r="G145">
-        <v>2564.215565</v>
+        <v>1025.686226</v>
       </c>
       <c r="H145">
-        <v>1025.686226</v>
+        <v>410.27449030000002</v>
       </c>
       <c r="I145">
-        <v>410.27449030000002</v>
+        <v>164.10979610000001</v>
       </c>
       <c r="J145">
         <v>164.10979610000001</v>
@@ -18359,11 +18342,8 @@
       <c r="K145">
         <v>164.10979610000001</v>
       </c>
-      <c r="L145">
-        <v>164.10979610000001</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>6</v>
       </c>
@@ -18376,17 +18356,20 @@
       <c r="D146">
         <v>1180.147262</v>
       </c>
+      <c r="E146">
+        <v>6923.3820249999999</v>
+      </c>
       <c r="F146">
-        <v>6923.3820249999999</v>
+        <v>2769.3528099999999</v>
       </c>
       <c r="G146">
-        <v>2769.3528099999999</v>
+        <v>1107.7411239999999</v>
       </c>
       <c r="H146">
-        <v>1107.7411239999999</v>
+        <v>443.09644960000003</v>
       </c>
       <c r="I146">
-        <v>443.09644960000003</v>
+        <v>177.2385798</v>
       </c>
       <c r="J146">
         <v>177.2385798</v>
@@ -18394,11 +18377,8 @@
       <c r="K146">
         <v>177.2385798</v>
       </c>
-      <c r="L146">
-        <v>177.2385798</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>6</v>
       </c>
@@ -18411,17 +18391,20 @@
       <c r="D147">
         <v>1371.564928</v>
       </c>
+      <c r="E147">
+        <v>7477.2525869999999</v>
+      </c>
       <c r="F147">
-        <v>7477.2525869999999</v>
+        <v>2990.9010349999999</v>
       </c>
       <c r="G147">
-        <v>2990.9010349999999</v>
+        <v>1196.360414</v>
       </c>
       <c r="H147">
-        <v>1196.360414</v>
+        <v>478.54416550000002</v>
       </c>
       <c r="I147">
-        <v>478.54416550000002</v>
+        <v>191.41766620000001</v>
       </c>
       <c r="J147">
         <v>191.41766620000001</v>
@@ -18429,11 +18412,8 @@
       <c r="K147">
         <v>191.41766620000001</v>
       </c>
-      <c r="L147">
-        <v>191.41766620000001</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>6</v>
       </c>
@@ -18446,25 +18426,25 @@
       <c r="D148">
         <v>1945.8179270000001</v>
       </c>
+      <c r="E148">
+        <v>22431.75776</v>
+      </c>
       <c r="F148">
-        <v>22431.75776</v>
+        <v>8972.7031040000002</v>
       </c>
       <c r="G148">
-        <v>8972.7031040000002</v>
+        <v>3589.0812420000002</v>
       </c>
       <c r="H148">
-        <v>3589.0812420000002</v>
+        <v>1435.6324970000001</v>
       </c>
       <c r="I148">
-        <v>1435.6324970000001</v>
+        <v>574.25299870000003</v>
       </c>
       <c r="J148">
         <v>574.25299870000003</v>
       </c>
       <c r="K148">
-        <v>574.25299870000003</v>
-      </c>
-      <c r="L148">
         <v>574.25299870000003</v>
       </c>
     </row>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553C17D1-E3D3-4331-AB8E-E82F0BA4B6E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EBF308-9FC9-4CBA-AA7F-17ECFF2936C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -727,9 +727,6 @@
     <t>transmuteRandomGold|Int</t>
   </si>
   <si>
-    <t>amplifyGold|Int</t>
-  </si>
-  <si>
     <t>transferGold|Int</t>
   </si>
   <si>
@@ -758,6 +755,9 @@
   </si>
   <si>
     <t>innerGradeSixAmount|Float</t>
+  </si>
+  <si>
+    <t>amplifyRandomGold|Int</t>
   </si>
 </sst>
 </file>
@@ -9608,13 +9608,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82CFE85-E5BF-4028-97DD-0FD3D41C3DD1}">
-  <dimension ref="A1:AC8"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:29" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>178</v>
       </c>
@@ -9697,13 +9697,16 @@
         <v>228</v>
       </c>
       <c r="AB1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC1" t="s">
         <v>229</v>
       </c>
-      <c r="AC1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -9780,13 +9783,16 @@
         <v>1000</v>
       </c>
       <c r="AB2">
+        <v>200</v>
+      </c>
+      <c r="AC2">
         <v>750</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9863,13 +9869,16 @@
         <v>2000</v>
       </c>
       <c r="AB3">
+        <v>400</v>
+      </c>
+      <c r="AC3">
         <v>1500</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -9946,13 +9955,16 @@
         <v>3000</v>
       </c>
       <c r="AB4">
+        <v>600</v>
+      </c>
+      <c r="AC4">
         <v>2250</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>1500</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10029,13 +10041,16 @@
         <v>4000</v>
       </c>
       <c r="AB5">
+        <v>800</v>
+      </c>
+      <c r="AC5">
         <v>3000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -10115,13 +10130,16 @@
         <v>5000</v>
       </c>
       <c r="AB6">
+        <v>1000</v>
+      </c>
+      <c r="AC6">
         <v>3750</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>2500</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -10201,13 +10219,16 @@
         <v>5000</v>
       </c>
       <c r="AB7">
+        <v>1000</v>
+      </c>
+      <c r="AC7">
         <v>3750</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10287,9 +10308,12 @@
         <v>5000</v>
       </c>
       <c r="AB8">
+        <v>1000</v>
+      </c>
+      <c r="AC8">
         <v>3750</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>2500</v>
       </c>
     </row>
@@ -10301,10 +10325,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1831AD9F-ED0A-47CF-B524-8603AB7A285B}">
-  <dimension ref="A1:O78"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10312,7 +10336,7 @@
     <col min="1" max="1" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -10355,11 +10379,8 @@
       <c r="N1" t="s">
         <v>207</v>
       </c>
-      <c r="O1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -10390,11 +10411,8 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="O2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -10425,11 +10443,8 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="O3">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -10460,11 +10475,8 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="O4">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -10495,11 +10507,8 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="O5">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -10536,11 +10545,8 @@
       <c r="M6">
         <v>-20</v>
       </c>
-      <c r="O6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -10577,11 +10583,8 @@
       <c r="M7">
         <v>-10</v>
       </c>
-      <c r="O7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -10618,11 +10621,8 @@
       <c r="M8">
         <v>-5</v>
       </c>
-      <c r="O8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -10653,11 +10653,8 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="O9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -10688,11 +10685,8 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="O10">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -10723,11 +10717,8 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="O11">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -10758,11 +10749,8 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="O12">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -10799,11 +10787,8 @@
       <c r="M13">
         <v>-20</v>
       </c>
-      <c r="O13">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
@@ -10840,11 +10825,8 @@
       <c r="M14">
         <v>-10</v>
       </c>
-      <c r="O14">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
@@ -10881,11 +10863,8 @@
       <c r="M15">
         <v>-5</v>
       </c>
-      <c r="O15">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
@@ -10916,11 +10895,8 @@
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="O16">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
@@ -10951,11 +10927,8 @@
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="O17">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
@@ -10986,11 +10959,8 @@
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="O18">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
@@ -11021,11 +10991,8 @@
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="O19">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0</v>
       </c>
@@ -11062,11 +11029,8 @@
       <c r="M20">
         <v>-20</v>
       </c>
-      <c r="O20">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -11103,11 +11067,8 @@
       <c r="M21">
         <v>-10</v>
       </c>
-      <c r="O21">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0</v>
       </c>
@@ -11144,11 +11105,8 @@
       <c r="M22">
         <v>-5</v>
       </c>
-      <c r="O22">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0</v>
       </c>
@@ -11179,11 +11137,8 @@
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="O23">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0</v>
       </c>
@@ -11214,11 +11169,8 @@
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="O24">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0</v>
       </c>
@@ -11249,11 +11201,8 @@
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="O25">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0</v>
       </c>
@@ -11284,11 +11233,8 @@
       <c r="L26">
         <v>0</v>
       </c>
-      <c r="O26">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0</v>
       </c>
@@ -11325,11 +11271,8 @@
       <c r="M27">
         <v>-20</v>
       </c>
-      <c r="O27">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0</v>
       </c>
@@ -11366,11 +11309,8 @@
       <c r="M28">
         <v>-10</v>
       </c>
-      <c r="O28">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0</v>
       </c>
@@ -11407,11 +11347,8 @@
       <c r="M29">
         <v>-5</v>
       </c>
-      <c r="O29">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0</v>
       </c>
@@ -11442,11 +11379,8 @@
       <c r="L30">
         <v>0</v>
       </c>
-      <c r="O30">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0</v>
       </c>
@@ -11477,11 +11411,8 @@
       <c r="L31">
         <v>0</v>
       </c>
-      <c r="O31">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0</v>
       </c>
@@ -11512,11 +11443,8 @@
       <c r="L32">
         <v>0</v>
       </c>
-      <c r="O32">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0</v>
       </c>
@@ -11547,11 +11475,8 @@
       <c r="L33">
         <v>0</v>
       </c>
-      <c r="O33">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0</v>
       </c>
@@ -11588,11 +11513,8 @@
       <c r="M34">
         <v>-20</v>
       </c>
-      <c r="O34">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0</v>
       </c>
@@ -11629,11 +11551,8 @@
       <c r="M35">
         <v>-10</v>
       </c>
-      <c r="O35">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0</v>
       </c>
@@ -11670,11 +11589,8 @@
       <c r="M36">
         <v>-5</v>
       </c>
-      <c r="O36">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0</v>
       </c>
@@ -11705,11 +11621,8 @@
       <c r="L37">
         <v>0</v>
       </c>
-      <c r="O37">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0</v>
       </c>
@@ -11740,11 +11653,8 @@
       <c r="L38">
         <v>0</v>
       </c>
-      <c r="O38">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0</v>
       </c>
@@ -11775,11 +11685,8 @@
       <c r="L39">
         <v>0</v>
       </c>
-      <c r="O39">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0</v>
       </c>
@@ -11810,11 +11717,8 @@
       <c r="L40">
         <v>0</v>
       </c>
-      <c r="O40">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0</v>
       </c>
@@ -11851,11 +11755,8 @@
       <c r="M41">
         <v>-20</v>
       </c>
-      <c r="O41">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0</v>
       </c>
@@ -11892,11 +11793,8 @@
       <c r="M42">
         <v>-10</v>
       </c>
-      <c r="O42">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0</v>
       </c>
@@ -11933,11 +11831,8 @@
       <c r="M43">
         <v>-5</v>
       </c>
-      <c r="O43">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -11968,11 +11863,8 @@
       <c r="L44">
         <v>0</v>
       </c>
-      <c r="O44">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1</v>
       </c>
@@ -12003,11 +11895,8 @@
       <c r="L45">
         <v>0</v>
       </c>
-      <c r="O45">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -12038,11 +11927,8 @@
       <c r="L46">
         <v>0</v>
       </c>
-      <c r="O46">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1</v>
       </c>
@@ -12073,11 +11959,8 @@
       <c r="L47">
         <v>0</v>
       </c>
-      <c r="O47">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1</v>
       </c>
@@ -12114,11 +11997,8 @@
       <c r="M48">
         <v>-20</v>
       </c>
-      <c r="O48">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1</v>
       </c>
@@ -12155,11 +12035,8 @@
       <c r="M49">
         <v>-10</v>
       </c>
-      <c r="O49">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1</v>
       </c>
@@ -12196,11 +12073,8 @@
       <c r="M50">
         <v>-5</v>
       </c>
-      <c r="O50">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1</v>
       </c>
@@ -12231,11 +12105,8 @@
       <c r="L51">
         <v>0</v>
       </c>
-      <c r="O51">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1</v>
       </c>
@@ -12266,11 +12137,8 @@
       <c r="L52">
         <v>0</v>
       </c>
-      <c r="O52">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1</v>
       </c>
@@ -12301,11 +12169,8 @@
       <c r="L53">
         <v>0</v>
       </c>
-      <c r="O53">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1</v>
       </c>
@@ -12336,11 +12201,8 @@
       <c r="L54">
         <v>0</v>
       </c>
-      <c r="O54">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1</v>
       </c>
@@ -12377,11 +12239,8 @@
       <c r="M55">
         <v>-20</v>
       </c>
-      <c r="O55">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1</v>
       </c>
@@ -12418,11 +12277,8 @@
       <c r="M56">
         <v>-10</v>
       </c>
-      <c r="O56">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1</v>
       </c>
@@ -12459,11 +12315,8 @@
       <c r="M57">
         <v>-5</v>
       </c>
-      <c r="O57">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1</v>
       </c>
@@ -12494,11 +12347,8 @@
       <c r="L58">
         <v>0</v>
       </c>
-      <c r="O58">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -12529,11 +12379,8 @@
       <c r="L59">
         <v>0</v>
       </c>
-      <c r="O59">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1</v>
       </c>
@@ -12564,11 +12411,8 @@
       <c r="L60">
         <v>0</v>
       </c>
-      <c r="O60">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1</v>
       </c>
@@ -12599,11 +12443,8 @@
       <c r="L61">
         <v>0</v>
       </c>
-      <c r="O61">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1</v>
       </c>
@@ -12640,11 +12481,8 @@
       <c r="M62">
         <v>-20</v>
       </c>
-      <c r="O62">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1</v>
       </c>
@@ -12681,11 +12519,8 @@
       <c r="M63">
         <v>-10</v>
       </c>
-      <c r="O63">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1</v>
       </c>
@@ -12722,11 +12557,8 @@
       <c r="M64">
         <v>-5</v>
       </c>
-      <c r="O64">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1</v>
       </c>
@@ -12757,11 +12589,8 @@
       <c r="L65">
         <v>0</v>
       </c>
-      <c r="O65">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1</v>
       </c>
@@ -12792,11 +12621,8 @@
       <c r="L66">
         <v>0</v>
       </c>
-      <c r="O66">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1</v>
       </c>
@@ -12827,11 +12653,8 @@
       <c r="L67">
         <v>0</v>
       </c>
-      <c r="O67">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1</v>
       </c>
@@ -12862,11 +12685,8 @@
       <c r="L68">
         <v>0</v>
       </c>
-      <c r="O68">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1</v>
       </c>
@@ -12903,11 +12723,8 @@
       <c r="M69">
         <v>-20</v>
       </c>
-      <c r="O69">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1</v>
       </c>
@@ -12944,11 +12761,8 @@
       <c r="M70">
         <v>-10</v>
       </c>
-      <c r="O70">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1</v>
       </c>
@@ -12985,11 +12799,8 @@
       <c r="M71">
         <v>-5</v>
       </c>
-      <c r="O71">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1</v>
       </c>
@@ -13020,11 +12831,8 @@
       <c r="L72">
         <v>0</v>
       </c>
-      <c r="O72">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1</v>
       </c>
@@ -13055,11 +12863,8 @@
       <c r="L73">
         <v>0</v>
       </c>
-      <c r="O73">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1</v>
       </c>
@@ -13090,11 +12895,8 @@
       <c r="L74">
         <v>0</v>
       </c>
-      <c r="O74">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -13125,11 +12927,8 @@
       <c r="L75">
         <v>0</v>
       </c>
-      <c r="O75">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1</v>
       </c>
@@ -13166,11 +12965,8 @@
       <c r="M76">
         <v>-20</v>
       </c>
-      <c r="O76">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1</v>
       </c>
@@ -13207,11 +13003,8 @@
       <c r="M77">
         <v>-10</v>
       </c>
-      <c r="O77">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1</v>
       </c>
@@ -13247,9 +13040,6 @@
       </c>
       <c r="M78">
         <v>-5</v>
-      </c>
-      <c r="O78">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -13262,7 +13052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F218ED-5790-4589-A336-D604CD6FE4FD}">
   <dimension ref="A1:K148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -13276,31 +13066,31 @@
         <v>29</v>
       </c>
       <c r="C1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" t="s">
         <v>232</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>233</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>234</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>235</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>236</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>237</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>238</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>239</v>
-      </c>
-      <c r="K1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EBF308-9FC9-4CBA-AA7F-17ECFF2936C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC24CAFA-FA6C-4C6C-A6B9-06ABE90FA744}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -9738,7 +9738,7 @@
         <v>3</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -9747,13 +9747,13 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -9824,7 +9824,7 @@
         <v>3</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -9833,13 +9833,13 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -9907,10 +9907,10 @@
         <v>2000</v>
       </c>
       <c r="J4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -9919,16 +9919,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="P4">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -9993,10 +9993,10 @@
         <v>2000</v>
       </c>
       <c r="J5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -10005,16 +10005,16 @@
         <v>0</v>
       </c>
       <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
         <v>5</v>
       </c>
-      <c r="O5">
-        <v>2.5</v>
-      </c>
-      <c r="P5">
-        <v>1.5</v>
-      </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -10079,34 +10079,34 @@
         <v>2500</v>
       </c>
       <c r="J6">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="K6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q6">
-        <v>0.8</v>
+        <v>4.5</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10168,34 +10168,34 @@
         <v>2500</v>
       </c>
       <c r="J7">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="K7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="N7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q7">
-        <v>0.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -10257,10 +10257,10 @@
         <v>2500</v>
       </c>
       <c r="J8">
-        <v>125</v>
+        <v>2</v>
       </c>
       <c r="K8">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>5</v>
@@ -10269,22 +10269,22 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q8">
-        <v>0.8</v>
+        <v>4.7</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -10391,7 +10391,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>1E-4</v>
@@ -10423,7 +10423,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>1E-4</v>
@@ -10455,7 +10455,7 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>1E-4</v>
@@ -10487,7 +10487,7 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>1E-4</v>
@@ -10519,7 +10519,7 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>1E-4</v>
@@ -10557,7 +10557,7 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>1E-4</v>
@@ -10595,7 +10595,7 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>1E-4</v>
@@ -10633,7 +10633,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -10665,7 +10665,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -10697,7 +10697,7 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -10729,7 +10729,7 @@
         <v>3</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -10761,7 +10761,7 @@
         <v>4</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -10799,7 +10799,7 @@
         <v>5</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -10837,7 +10837,7 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>10</v>
@@ -10875,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E16">
         <v>1E-4</v>
@@ -10907,7 +10907,7 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <v>1E-4</v>
@@ -10939,7 +10939,7 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E18">
         <v>1E-4</v>
@@ -10971,7 +10971,7 @@
         <v>3</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E19">
         <v>1E-4</v>
@@ -11003,7 +11003,7 @@
         <v>4</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>1E-4</v>
@@ -11041,7 +11041,7 @@
         <v>5</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E21">
         <v>1E-4</v>
@@ -11079,7 +11079,7 @@
         <v>6</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E22">
         <v>1E-4</v>
@@ -11117,7 +11117,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E23">
         <v>1E-4</v>
@@ -11149,7 +11149,7 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E24">
         <v>1E-4</v>
@@ -11181,7 +11181,7 @@
         <v>2</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E25">
         <v>1E-4</v>
@@ -11213,7 +11213,7 @@
         <v>3</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E26">
         <v>1E-4</v>
@@ -11245,7 +11245,7 @@
         <v>4</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E27">
         <v>1E-4</v>
@@ -11283,7 +11283,7 @@
         <v>5</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E28">
         <v>1E-4</v>
@@ -11321,7 +11321,7 @@
         <v>6</v>
       </c>
       <c r="D29">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E29">
         <v>1E-4</v>
@@ -11359,7 +11359,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E30">
         <v>1E-4</v>
@@ -11391,7 +11391,7 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E31">
         <v>1E-4</v>
@@ -11423,7 +11423,7 @@
         <v>2</v>
       </c>
       <c r="D32">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E32">
         <v>1E-4</v>
@@ -11455,7 +11455,7 @@
         <v>3</v>
       </c>
       <c r="D33">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E33">
         <v>1E-4</v>
@@ -11487,7 +11487,7 @@
         <v>4</v>
       </c>
       <c r="D34">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E34">
         <v>1E-4</v>
@@ -11525,7 +11525,7 @@
         <v>5</v>
       </c>
       <c r="D35">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E35">
         <v>1E-4</v>
@@ -11563,7 +11563,7 @@
         <v>6</v>
       </c>
       <c r="D36">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E36">
         <v>1E-4</v>
@@ -11601,7 +11601,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E37">
         <v>1E-4</v>
@@ -11633,7 +11633,7 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E38">
         <v>1E-4</v>
@@ -11665,7 +11665,7 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E39">
         <v>1E-4</v>
@@ -11697,7 +11697,7 @@
         <v>3</v>
       </c>
       <c r="D40">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E40">
         <v>1E-4</v>
@@ -11729,7 +11729,7 @@
         <v>4</v>
       </c>
       <c r="D41">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E41">
         <v>1E-4</v>
@@ -11767,7 +11767,7 @@
         <v>5</v>
       </c>
       <c r="D42">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E42">
         <v>1E-4</v>
@@ -11805,7 +11805,7 @@
         <v>6</v>
       </c>
       <c r="D43">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E43">
         <v>1E-4</v>
@@ -11843,7 +11843,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E44">
         <v>1E-4</v>
@@ -11875,7 +11875,7 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E45">
         <v>1E-4</v>
@@ -11907,7 +11907,7 @@
         <v>2</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E46">
         <v>1E-4</v>
@@ -11939,7 +11939,7 @@
         <v>3</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E47">
         <v>1E-4</v>
@@ -11971,7 +11971,7 @@
         <v>4</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E48">
         <v>1E-4</v>
@@ -12009,7 +12009,7 @@
         <v>5</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E49">
         <v>1E-4</v>
@@ -12047,7 +12047,7 @@
         <v>6</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E50">
         <v>1E-4</v>
@@ -12085,7 +12085,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E51">
         <v>50</v>
@@ -12117,7 +12117,7 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E52">
         <v>50</v>
@@ -12149,7 +12149,7 @@
         <v>2</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E53">
         <v>50</v>
@@ -12181,7 +12181,7 @@
         <v>3</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E54">
         <v>50</v>
@@ -12213,7 +12213,7 @@
         <v>4</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E55">
         <v>50</v>
@@ -12251,7 +12251,7 @@
         <v>5</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E56">
         <v>50</v>
@@ -12289,7 +12289,7 @@
         <v>6</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E57">
         <v>50</v>
@@ -12327,7 +12327,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E58">
         <v>1E-4</v>
@@ -12359,7 +12359,7 @@
         <v>1</v>
       </c>
       <c r="D59">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E59">
         <v>1E-4</v>
@@ -12391,7 +12391,7 @@
         <v>2</v>
       </c>
       <c r="D60">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E60">
         <v>1E-4</v>
@@ -12423,7 +12423,7 @@
         <v>3</v>
       </c>
       <c r="D61">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E61">
         <v>1E-4</v>
@@ -12455,7 +12455,7 @@
         <v>4</v>
       </c>
       <c r="D62">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E62">
         <v>1E-4</v>
@@ -12493,7 +12493,7 @@
         <v>5</v>
       </c>
       <c r="D63">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E63">
         <v>1E-4</v>
@@ -12531,7 +12531,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E64">
         <v>1E-4</v>
@@ -12569,7 +12569,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E65">
         <v>1E-4</v>
@@ -12601,7 +12601,7 @@
         <v>1</v>
       </c>
       <c r="D66">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E66">
         <v>1E-4</v>
@@ -12633,7 +12633,7 @@
         <v>2</v>
       </c>
       <c r="D67">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E67">
         <v>1E-4</v>
@@ -12665,7 +12665,7 @@
         <v>3</v>
       </c>
       <c r="D68">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E68">
         <v>1E-4</v>
@@ -12697,7 +12697,7 @@
         <v>4</v>
       </c>
       <c r="D69">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E69">
         <v>1E-4</v>
@@ -12735,7 +12735,7 @@
         <v>5</v>
       </c>
       <c r="D70">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E70">
         <v>1E-4</v>
@@ -12773,7 +12773,7 @@
         <v>6</v>
       </c>
       <c r="D71">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E71">
         <v>1E-4</v>
@@ -12811,7 +12811,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E72">
         <v>1E-4</v>
@@ -12843,7 +12843,7 @@
         <v>1</v>
       </c>
       <c r="D73">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E73">
         <v>1E-4</v>
@@ -12875,7 +12875,7 @@
         <v>2</v>
       </c>
       <c r="D74">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E74">
         <v>1E-4</v>
@@ -12907,7 +12907,7 @@
         <v>3</v>
       </c>
       <c r="D75">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E75">
         <v>1E-4</v>
@@ -12939,7 +12939,7 @@
         <v>4</v>
       </c>
       <c r="D76">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E76">
         <v>1E-4</v>
@@ -12977,7 +12977,7 @@
         <v>5</v>
       </c>
       <c r="D77">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E77">
         <v>1E-4</v>
@@ -13015,7 +13015,7 @@
         <v>6</v>
       </c>
       <c r="D78">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E78">
         <v>1E-4</v>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC24CAFA-FA6C-4C6C-A6B9-06ABE90FA744}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64C0E5E-DFB1-4917-B979-9133C54BCE1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -10327,9 +10327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1831AD9F-ED0A-47CF-B524-8603AB7A285B}">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10636,7 +10634,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>15</v>
@@ -10668,7 +10666,7 @@
         <v>10</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F10">
         <v>24</v>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64C0E5E-DFB1-4917-B979-9133C54BCE1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5089191E-848C-48AC-8E72-2AEFAFB06D86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -10327,7 +10327,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1831AD9F-ED0A-47CF-B524-8603AB7A285B}">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10634,7 +10636,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <v>15</v>
@@ -10666,7 +10668,7 @@
         <v>10</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>24</v>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5089191E-848C-48AC-8E72-2AEFAFB06D86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D8FC6C-EEDD-4C27-A82A-1E8E8B010039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="244">
   <si>
     <t>Equip0001</t>
   </si>
@@ -758,6 +758,15 @@
   </si>
   <si>
     <t>amplifyRandomGold|Int</t>
+  </si>
+  <si>
+    <t>GirlMageStaff</t>
+  </si>
+  <si>
+    <t>Shot_GirlMageStaff</t>
+  </si>
+  <si>
+    <t>EquipName_GirlMageStaff</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2648,6 +2657,15 @@
       </c>
       <c r="I48">
         <v>0</v>
+      </c>
+      <c r="L48" t="s">
+        <v>241</v>
+      </c>
+      <c r="M48" t="s">
+        <v>242</v>
+      </c>
+      <c r="N48" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
@@ -10327,9 +10345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1831AD9F-ED0A-47CF-B524-8603AB7A285B}">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D8FC6C-EEDD-4C27-A82A-1E8E8B010039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF002213-14A1-4B3E-B6C8-8F55E6DD1D27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="247">
   <si>
     <t>Equip0001</t>
   </si>
@@ -767,6 +767,15 @@
   </si>
   <si>
     <t>EquipName_GirlMageStaff</t>
+  </si>
+  <si>
+    <t>WideBlade</t>
+  </si>
+  <si>
+    <t>Shot_WideBlade</t>
+  </si>
+  <si>
+    <t>EquipName_WideBlade</t>
   </si>
 </sst>
 </file>
@@ -3371,6 +3380,15 @@
       <c r="I70">
         <v>0</v>
       </c>
+      <c r="L70" t="s">
+        <v>244</v>
+      </c>
+      <c r="M70" t="s">
+        <v>245</v>
+      </c>
+      <c r="N70" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF002213-14A1-4B3E-B6C8-8F55E6DD1D27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B7CF4F-2D51-4F8D-94EF-813AD89560BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="250">
   <si>
     <t>Equip0001</t>
   </si>
@@ -776,6 +776,15 @@
   </si>
   <si>
     <t>EquipName_WideBlade</t>
+  </si>
+  <si>
+    <t>StylizedAxe</t>
+  </si>
+  <si>
+    <t>Shot_StylizedAxe</t>
+  </si>
+  <si>
+    <t>EquipName_StylizedAxe</t>
   </si>
 </sst>
 </file>
@@ -1397,6 +1406,15 @@
       <c r="I7">
         <v>0</v>
       </c>
+      <c r="L7" t="s">
+        <v>247</v>
+      </c>
+      <c r="M7" t="s">
+        <v>248</v>
+      </c>
+      <c r="N7" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B7CF4F-2D51-4F8D-94EF-813AD89560BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E595D3-DDEE-45D3-936E-130545163DE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="253">
   <si>
     <t>Equip0001</t>
   </si>
@@ -785,6 +785,15 @@
   </si>
   <si>
     <t>EquipName_StylizedAxe</t>
+  </si>
+  <si>
+    <t>StylizedSword</t>
+  </si>
+  <si>
+    <t>Shot_StylizedSword</t>
+  </si>
+  <si>
+    <t>EquipName_StylizedSword</t>
   </si>
 </sst>
 </file>
@@ -3436,6 +3445,15 @@
       <c r="I71">
         <v>0</v>
       </c>
+      <c r="L71" t="s">
+        <v>250</v>
+      </c>
+      <c r="M71" t="s">
+        <v>251</v>
+      </c>
+      <c r="N71" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E595D3-DDEE-45D3-936E-130545163DE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CFE3A7-A15A-453A-A112-8DF9901EFCA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="256">
   <si>
     <t>Equip0001</t>
   </si>
@@ -794,6 +794,15 @@
   </si>
   <si>
     <t>EquipName_StylizedSword</t>
+  </si>
+  <si>
+    <t>LowPolyHammer</t>
+  </si>
+  <si>
+    <t>Shot_LowPolyHammer</t>
+  </si>
+  <si>
+    <t>EquipName_LowPolyHammer</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2929,6 +2938,15 @@
       </c>
       <c r="I55">
         <v>0</v>
+      </c>
+      <c r="L55" t="s">
+        <v>253</v>
+      </c>
+      <c r="M55" t="s">
+        <v>254</v>
+      </c>
+      <c r="N55" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CFE3A7-A15A-453A-A112-8DF9901EFCA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E7FE4D-3488-4C84-A695-20489C817614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="259">
   <si>
     <t>Equip0001</t>
   </si>
@@ -803,6 +803,15 @@
   </si>
   <si>
     <t>EquipName_LowPolyHammer</t>
+  </si>
+  <si>
+    <t>SevenBroadSword</t>
+  </si>
+  <si>
+    <t>Shot_SevenBroadSword</t>
+  </si>
+  <si>
+    <t>EquipName_SevenBroadSword</t>
   </si>
 </sst>
 </file>
@@ -1171,7 +1180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3500,6 +3509,15 @@
       </c>
       <c r="I72">
         <v>0</v>
+      </c>
+      <c r="L72" t="s">
+        <v>256</v>
+      </c>
+      <c r="M72" t="s">
+        <v>257</v>
+      </c>
+      <c r="N72" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E7FE4D-3488-4C84-A695-20489C817614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3412AECE-56B1-4C8B-8A85-97C02A8AEA8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="InnerGradeTable" sheetId="5" r:id="rId3"/>
     <sheet name="OptionTable" sheetId="4" r:id="rId4"/>
     <sheet name="TransferTable" sheetId="6" r:id="rId5"/>
+    <sheet name="GoldenKeyTable" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="264">
   <si>
     <t>Equip0001</t>
   </si>
@@ -812,6 +813,21 @@
   </si>
   <si>
     <t>EquipName_SevenBroadSword</t>
+  </si>
+  <si>
+    <t>stageDropWeight|Float</t>
+  </si>
+  <si>
+    <t>startingDropChapter|Int</t>
+  </si>
+  <si>
+    <t>startingDropStage|Int</t>
+  </si>
+  <si>
+    <t>remainCount|Int</t>
+  </si>
+  <si>
+    <t>adjustWeight|Float</t>
   </si>
 </sst>
 </file>
@@ -1178,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:Q118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1189,7 +1205,7 @@
     <col min="1" max="1" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1232,8 +1248,17 @@
       <c r="N1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P1" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1270,8 +1295,17 @@
       <c r="N2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -1308,8 +1342,17 @@
       <c r="N3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1346,8 +1389,17 @@
       <c r="N4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -1376,7 +1428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1405,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1442,8 +1494,17 @@
       <c r="N7" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1472,7 +1533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1501,7 +1562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1533,7 +1594,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1565,7 +1626,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1597,7 +1658,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1629,7 +1690,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1661,7 +1722,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1698,8 +1759,17 @@
       <c r="N15" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>120</v>
       </c>
@@ -1735,6 +1805,15 @@
       </c>
       <c r="N16" t="s">
         <v>177</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>3</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -2216,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -2245,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2282,8 +2361,17 @@
       <c r="N34" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>4</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2312,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -2344,7 +2432,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -2376,7 +2464,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -2408,7 +2496,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -2440,7 +2528,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -2472,7 +2560,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -2501,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>124</v>
       </c>
@@ -2530,7 +2618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -2559,7 +2647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>125</v>
       </c>
@@ -2588,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -2625,8 +2713,17 @@
       <c r="N45" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>3</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -2655,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -2684,7 +2781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2721,8 +2818,17 @@
       <c r="N48" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>3</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -2754,7 +2860,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -2786,7 +2892,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -2818,7 +2924,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -2850,7 +2956,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -2882,7 +2988,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -2919,8 +3025,17 @@
       <c r="N54" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <v>3</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>126</v>
       </c>
@@ -2957,8 +3072,17 @@
       <c r="N55" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <v>3</v>
+      </c>
+      <c r="Q55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2987,7 +3111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>127</v>
       </c>
@@ -3016,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -3045,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -3074,7 +3198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -3103,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -3132,7 +3256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -3164,7 +3288,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -3196,7 +3320,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -3228,7 +3352,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -3260,7 +3384,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -3292,7 +3416,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -3329,8 +3453,17 @@
       <c r="N67" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <v>3</v>
+      </c>
+      <c r="Q67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>128</v>
       </c>
@@ -3367,8 +3500,17 @@
       <c r="N68" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <v>3</v>
+      </c>
+      <c r="Q68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -3405,8 +3547,17 @@
       <c r="N69" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <v>3</v>
+      </c>
+      <c r="Q69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>129</v>
       </c>
@@ -3443,8 +3594,17 @@
       <c r="N70" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="P70">
+        <v>3</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>67</v>
       </c>
@@ -3481,8 +3641,17 @@
       <c r="N71" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <v>3</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -3519,8 +3688,17 @@
       <c r="N72" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72">
+        <v>3</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>69</v>
       </c>
@@ -3549,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -3578,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>71</v>
       </c>
@@ -3610,7 +3788,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>72</v>
       </c>
@@ -3642,7 +3820,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>73</v>
       </c>
@@ -3674,7 +3852,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -3706,7 +3884,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>75</v>
       </c>
@@ -3738,7 +3916,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -3774,6 +3952,15 @@
       </c>
       <c r="N80" t="s">
         <v>165</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80">
+        <v>3</v>
+      </c>
+      <c r="Q80">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -4255,7 +4442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>89</v>
       </c>
@@ -4284,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>90</v>
       </c>
@@ -4313,7 +4500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>91</v>
       </c>
@@ -4342,7 +4529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>92</v>
       </c>
@@ -4371,7 +4558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>93</v>
       </c>
@@ -4411,8 +4598,17 @@
       <c r="N101" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O101">
+        <v>3</v>
+      </c>
+      <c r="P101">
+        <v>2</v>
+      </c>
+      <c r="Q101">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>94</v>
       </c>
@@ -4444,7 +4640,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>95</v>
       </c>
@@ -4476,7 +4672,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>96</v>
       </c>
@@ -4508,7 +4704,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>97</v>
       </c>
@@ -4540,7 +4736,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>98</v>
       </c>
@@ -4577,8 +4773,17 @@
       <c r="N106" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O106">
+        <v>1</v>
+      </c>
+      <c r="P106">
+        <v>3</v>
+      </c>
+      <c r="Q106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>134</v>
       </c>
@@ -4615,8 +4820,17 @@
       <c r="N107" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O107">
+        <v>1</v>
+      </c>
+      <c r="P107">
+        <v>3</v>
+      </c>
+      <c r="Q107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>99</v>
       </c>
@@ -4645,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>135</v>
       </c>
@@ -4674,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>100</v>
       </c>
@@ -4703,7 +4917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>101</v>
       </c>
@@ -4732,7 +4946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>102</v>
       </c>
@@ -18348,4 +18562,92 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA79726F-3241-463B-917F-7ADA9007D06E}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3412AECE-56B1-4C8B-8A85-97C02A8AEA8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DA7257-90EA-4B44-96C5-458C92C02402}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="InnerGradeTable" sheetId="5" r:id="rId3"/>
     <sheet name="OptionTable" sheetId="4" r:id="rId4"/>
     <sheet name="TransferTable" sheetId="6" r:id="rId5"/>
-    <sheet name="GoldenKeyTable" sheetId="7" r:id="rId6"/>
+    <sheet name="RemainTable" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -18569,7 +18569,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DA7257-90EA-4B44-96C5-458C92C02402}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6268BC4F-A30E-4EA4-9B0C-311777DE1449}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="265">
   <si>
     <t>Equip0001</t>
   </si>
@@ -824,10 +824,13 @@
     <t>startingDropStage|Int</t>
   </si>
   <si>
-    <t>remainCount|Int</t>
-  </si>
-  <si>
     <t>adjustWeight|Float</t>
+  </si>
+  <si>
+    <t>remainMin|Int</t>
+  </si>
+  <si>
+    <t>remainMax|Int</t>
   </si>
 </sst>
 </file>
@@ -18566,83 +18569,108 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA79726F-3241-463B-917F-7ADA9007D06E}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" t="s">
         <v>262</v>
       </c>
-      <c r="B1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B3">
+        <v>69</v>
+      </c>
+      <c r="C3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B4">
+        <v>59</v>
+      </c>
+      <c r="C4">
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B5">
+        <v>49</v>
+      </c>
+      <c r="C5">
         <v>0.125</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B6">
+        <v>39</v>
+      </c>
+      <c r="C6">
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B7">
+        <v>29</v>
+      </c>
+      <c r="C7">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B8">
+        <v>19</v>
+      </c>
+      <c r="C8">
         <v>1.5625E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6268BC4F-A30E-4EA4-9B0C-311777DE1449}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8881FC-7909-4975-A10D-B851815EDFCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -644,9 +644,6 @@
     <t>SwapHealAddRate</t>
   </si>
   <si>
-    <t>LevelUpHealRate</t>
-  </si>
-  <si>
     <t>amplifyMin|Float</t>
   </si>
   <si>
@@ -831,6 +828,9 @@
   </si>
   <si>
     <t>remainMax|Int</t>
+  </si>
+  <si>
+    <t>LevelUpHealAddRate</t>
   </si>
 </sst>
 </file>
@@ -1252,13 +1252,13 @@
         <v>115</v>
       </c>
       <c r="O1" t="s">
+        <v>258</v>
+      </c>
+      <c r="P1" t="s">
         <v>259</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>260</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -1489,13 +1489,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M7" t="s">
         <v>247</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>248</v>
-      </c>
-      <c r="N7" t="s">
-        <v>249</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -2813,13 +2813,13 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
+        <v>240</v>
+      </c>
+      <c r="M48" t="s">
         <v>241</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
         <v>242</v>
-      </c>
-      <c r="N48" t="s">
-        <v>243</v>
       </c>
       <c r="O48">
         <v>1</v>
@@ -3067,13 +3067,13 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
+        <v>252</v>
+      </c>
+      <c r="M55" t="s">
         <v>253</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>254</v>
-      </c>
-      <c r="N55" t="s">
-        <v>255</v>
       </c>
       <c r="O55">
         <v>1</v>
@@ -3589,13 +3589,13 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
+        <v>243</v>
+      </c>
+      <c r="M70" t="s">
         <v>244</v>
       </c>
-      <c r="M70" t="s">
+      <c r="N70" t="s">
         <v>245</v>
-      </c>
-      <c r="N70" t="s">
-        <v>246</v>
       </c>
       <c r="O70">
         <v>1</v>
@@ -3636,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
+        <v>249</v>
+      </c>
+      <c r="M71" t="s">
         <v>250</v>
       </c>
-      <c r="M71" t="s">
+      <c r="N71" t="s">
         <v>251</v>
-      </c>
-      <c r="N71" t="s">
-        <v>252</v>
       </c>
       <c r="O71">
         <v>1</v>
@@ -3683,13 +3683,13 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
+        <v>255</v>
+      </c>
+      <c r="M72" t="s">
         <v>256</v>
       </c>
-      <c r="M72" t="s">
+      <c r="N72" t="s">
         <v>257</v>
-      </c>
-      <c r="N72" t="s">
-        <v>258</v>
       </c>
       <c r="O72">
         <v>1</v>
@@ -9947,25 +9947,25 @@
         <v>109</v>
       </c>
       <c r="C1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" t="s">
         <v>208</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>209</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>210</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>211</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>212</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>213</v>
-      </c>
-      <c r="I1" t="s">
-        <v>214</v>
       </c>
       <c r="J1" t="s">
         <v>188</v>
@@ -9980,55 +9980,55 @@
         <v>191</v>
       </c>
       <c r="N1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O1" t="s">
         <v>215</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>216</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>217</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>218</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>219</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>220</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>221</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>222</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>223</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>224</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>225</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>226</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>227</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC1" t="s">
         <v>228</v>
       </c>
-      <c r="AB1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>229</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
@@ -10652,7 +10652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1831AD9F-ED0A-47CF-B524-8603AB7A285B}">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10688,19 +10688,19 @@
         <v>117</v>
       </c>
       <c r="J1" t="s">
+        <v>202</v>
+      </c>
+      <c r="K1" t="s">
         <v>203</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>204</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>205</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>206</v>
-      </c>
-      <c r="N1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -13128,7 +13128,7 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>202</v>
+        <v>264</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -13160,7 +13160,7 @@
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>202</v>
+        <v>264</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -13192,7 +13192,7 @@
         <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>202</v>
+        <v>264</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -13224,7 +13224,7 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>202</v>
+        <v>264</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -13256,7 +13256,7 @@
         <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>202</v>
+        <v>264</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -13294,7 +13294,7 @@
         <v>1</v>
       </c>
       <c r="B77" t="s">
-        <v>202</v>
+        <v>264</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -13332,7 +13332,7 @@
         <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>202</v>
+        <v>264</v>
       </c>
       <c r="C78">
         <v>6</v>
@@ -13389,31 +13389,31 @@
         <v>29</v>
       </c>
       <c r="C1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" t="s">
         <v>231</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>232</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>233</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>234</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>235</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>236</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>237</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>238</v>
-      </c>
-      <c r="K1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -18571,19 +18571,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA79726F-3241-463B-917F-7ADA9007D06E}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" t="s">
         <v>263</v>
       </c>
-      <c r="B1" t="s">
-        <v>264</v>
-      </c>
       <c r="C1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8881FC-7909-4975-A10D-B851815EDFCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756B6703-1AF1-4D64-9026-188520B5C734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="271">
   <si>
     <t>Equip0001</t>
   </si>
@@ -831,6 +831,24 @@
   </si>
   <si>
     <t>LevelUpHealAddRate</t>
+  </si>
+  <si>
+    <t>LowWeaponsDagger</t>
+  </si>
+  <si>
+    <t>Shot_LowWeaponsDagger</t>
+  </si>
+  <si>
+    <t>EquipName_LowWeaponsDagger</t>
+  </si>
+  <si>
+    <t>LowWeaponsShield</t>
+  </si>
+  <si>
+    <t>Shot_LowWeaponsShield</t>
+  </si>
+  <si>
+    <t>EquipName_LowWeaponsShield</t>
   </si>
 </sst>
 </file>
@@ -1199,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:Q118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1819,7 +1837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1847,8 +1865,26 @@
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L17" t="s">
+        <v>265</v>
+      </c>
+      <c r="M17" t="s">
+        <v>266</v>
+      </c>
+      <c r="N17" t="s">
+        <v>267</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>3</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>121</v>
       </c>
@@ -1877,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1906,7 +1942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1935,7 +1971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1964,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1993,7 +2029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -2025,7 +2061,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -2057,7 +2093,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -2089,7 +2125,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -2121,7 +2157,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -2153,7 +2189,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -2182,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>122</v>
       </c>
@@ -2211,7 +2247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2240,7 +2276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>123</v>
       </c>
@@ -2269,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -3966,7 +4002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>130</v>
       </c>
@@ -3995,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>77</v>
       </c>
@@ -4024,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>131</v>
       </c>
@@ -4053,7 +4089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>78</v>
       </c>
@@ -4082,7 +4118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -4111,7 +4147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>80</v>
       </c>
@@ -4140,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>81</v>
       </c>
@@ -4169,7 +4205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>82</v>
       </c>
@@ -4201,7 +4237,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>83</v>
       </c>
@@ -4233,7 +4269,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>84</v>
       </c>
@@ -4265,7 +4301,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>85</v>
       </c>
@@ -4297,7 +4333,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>86</v>
       </c>
@@ -4329,7 +4365,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>87</v>
       </c>
@@ -4357,8 +4393,26 @@
       <c r="I93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L93" t="s">
+        <v>268</v>
+      </c>
+      <c r="M93" t="s">
+        <v>269</v>
+      </c>
+      <c r="N93" t="s">
+        <v>270</v>
+      </c>
+      <c r="O93">
+        <v>1</v>
+      </c>
+      <c r="P93">
+        <v>3</v>
+      </c>
+      <c r="Q93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>132</v>
       </c>
@@ -4387,7 +4441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>88</v>
       </c>
@@ -4416,7 +4470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>133</v>
       </c>
@@ -10652,7 +10706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1831AD9F-ED0A-47CF-B524-8603AB7A285B}">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756B6703-1AF1-4D64-9026-188520B5C734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C3DC09-4AFD-44CC-8B71-63FAC4D52300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="OptionTable" sheetId="4" r:id="rId4"/>
     <sheet name="TransferTable" sheetId="6" r:id="rId5"/>
     <sheet name="RemainTable" sheetId="7" r:id="rId6"/>
+    <sheet name="NotStreakTable" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="274">
   <si>
     <t>Equip0001</t>
   </si>
@@ -849,6 +850,15 @@
   </si>
   <si>
     <t>EquipName_LowWeaponsShield</t>
+  </si>
+  <si>
+    <t>equipGachaWeight|Float</t>
+  </si>
+  <si>
+    <t>accumulateMin|Int</t>
+  </si>
+  <si>
+    <t>accumulateMax|Int</t>
   </si>
 </sst>
 </file>
@@ -1215,10 +1225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
-  <dimension ref="A1:Q118"/>
+  <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1226,7 +1236,7 @@
     <col min="1" max="1" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1278,8 +1288,11 @@
       <c r="Q1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1325,8 +1338,11 @@
       <c r="Q2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -1372,8 +1388,11 @@
       <c r="Q3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1419,8 +1438,11 @@
       <c r="Q4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -1449,7 +1471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1478,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1524,8 +1546,11 @@
       <c r="Q7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1554,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1583,7 +1608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1615,7 +1640,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1647,7 +1672,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1679,7 +1704,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1711,7 +1736,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1743,7 +1768,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1789,8 +1814,11 @@
       <c r="Q15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>120</v>
       </c>
@@ -1836,8 +1864,11 @@
       <c r="Q16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1883,8 +1914,11 @@
       <c r="Q17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>121</v>
       </c>
@@ -1913,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1942,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1971,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -2000,7 +2034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -2029,7 +2063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -2061,7 +2095,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -2093,7 +2127,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -2125,7 +2159,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -2157,7 +2191,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -2189,7 +2223,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -2218,7 +2252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>122</v>
       </c>
@@ -2247,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2276,7 +2310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>123</v>
       </c>
@@ -2305,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -2334,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -2363,7 +2397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2409,8 +2443,11 @@
       <c r="Q34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2439,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -2471,7 +2508,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -2503,7 +2540,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -2535,7 +2572,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -2567,7 +2604,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -2599,7 +2636,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -2628,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>124</v>
       </c>
@@ -2657,7 +2694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -2686,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>125</v>
       </c>
@@ -2715,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -2761,8 +2798,11 @@
       <c r="Q45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -2791,7 +2831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -2820,7 +2860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2866,8 +2906,11 @@
       <c r="Q48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -2899,7 +2942,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -2931,7 +2974,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -2963,7 +3006,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -2995,7 +3038,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -3027,7 +3070,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -3073,8 +3116,11 @@
       <c r="Q54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>126</v>
       </c>
@@ -3120,8 +3166,11 @@
       <c r="Q55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -3150,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>127</v>
       </c>
@@ -3179,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -3208,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -3237,7 +3286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -3266,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -3295,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -3327,7 +3376,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -3359,7 +3408,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -3391,7 +3440,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -3423,7 +3472,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -3455,7 +3504,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -3501,8 +3550,11 @@
       <c r="Q67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>128</v>
       </c>
@@ -3548,8 +3600,11 @@
       <c r="Q68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -3595,8 +3650,11 @@
       <c r="Q69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>129</v>
       </c>
@@ -3642,8 +3700,11 @@
       <c r="Q70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>67</v>
       </c>
@@ -3689,8 +3750,11 @@
       <c r="Q71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -3736,8 +3800,11 @@
       <c r="Q72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>69</v>
       </c>
@@ -3766,7 +3833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -3795,7 +3862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>71</v>
       </c>
@@ -3827,7 +3894,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>72</v>
       </c>
@@ -3859,7 +3926,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>73</v>
       </c>
@@ -3891,7 +3958,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -3923,7 +3990,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>75</v>
       </c>
@@ -3955,7 +4022,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -4001,8 +4068,11 @@
       <c r="Q80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>130</v>
       </c>
@@ -4031,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>77</v>
       </c>
@@ -4060,7 +4130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>131</v>
       </c>
@@ -4089,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>78</v>
       </c>
@@ -4118,7 +4188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -4147,7 +4217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>80</v>
       </c>
@@ -4176,7 +4246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>81</v>
       </c>
@@ -4205,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>82</v>
       </c>
@@ -4237,7 +4307,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>83</v>
       </c>
@@ -4269,7 +4339,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>84</v>
       </c>
@@ -4301,7 +4371,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>85</v>
       </c>
@@ -4333,7 +4403,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>86</v>
       </c>
@@ -4365,7 +4435,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>87</v>
       </c>
@@ -4411,8 +4481,11 @@
       <c r="Q93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>132</v>
       </c>
@@ -4441,7 +4514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>88</v>
       </c>
@@ -4470,7 +4543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>133</v>
       </c>
@@ -4499,7 +4572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>89</v>
       </c>
@@ -4528,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>90</v>
       </c>
@@ -4557,7 +4630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>91</v>
       </c>
@@ -4586,7 +4659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>92</v>
       </c>
@@ -4615,7 +4688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>93</v>
       </c>
@@ -4664,8 +4737,11 @@
       <c r="Q101">
         <v>40</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>94</v>
       </c>
@@ -4697,7 +4773,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>95</v>
       </c>
@@ -4729,7 +4805,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>96</v>
       </c>
@@ -4761,7 +4837,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>97</v>
       </c>
@@ -4793,7 +4869,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>98</v>
       </c>
@@ -4839,8 +4915,11 @@
       <c r="Q106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>134</v>
       </c>
@@ -4886,8 +4965,11 @@
       <c r="Q107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>99</v>
       </c>
@@ -4916,7 +4998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>135</v>
       </c>
@@ -4945,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>100</v>
       </c>
@@ -4974,7 +5056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>101</v>
       </c>
@@ -5003,7 +5085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>102</v>
       </c>
@@ -18732,4 +18814,122 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E142F536-7C7E-478F-827B-E9BE28FD03CD}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="15.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>49</v>
+      </c>
+      <c r="C6">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>59</v>
+      </c>
+      <c r="C7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>69</v>
+      </c>
+      <c r="C8">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>999999999</v>
+      </c>
+      <c r="C9">
+        <v>1.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C3DC09-4AFD-44CC-8B71-63FAC4D52300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55278C32-1220-4A47-A12C-5CBC152385FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="272">
   <si>
     <t>Equip0001</t>
   </si>
@@ -828,9 +828,6 @@
     <t>remainMin|Int</t>
   </si>
   <si>
-    <t>remainMax|Int</t>
-  </si>
-  <si>
     <t>LevelUpHealAddRate</t>
   </si>
   <si>
@@ -856,9 +853,6 @@
   </si>
   <si>
     <t>accumulateMin|Int</t>
-  </si>
-  <si>
-    <t>accumulateMax|Int</t>
   </si>
 </sst>
 </file>
@@ -1289,7 +1283,7 @@
         <v>260</v>
       </c>
       <c r="R1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -1897,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
+        <v>264</v>
+      </c>
+      <c r="M17" t="s">
         <v>265</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>266</v>
-      </c>
-      <c r="N17" t="s">
-        <v>267</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -4464,13 +4458,13 @@
         <v>0</v>
       </c>
       <c r="L93" t="s">
+        <v>267</v>
+      </c>
+      <c r="M93" t="s">
         <v>268</v>
       </c>
-      <c r="M93" t="s">
+      <c r="N93" t="s">
         <v>269</v>
-      </c>
-      <c r="N93" t="s">
-        <v>270</v>
       </c>
       <c r="O93">
         <v>1</v>
@@ -13264,7 +13258,7 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -13296,7 +13290,7 @@
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -13328,7 +13322,7 @@
         <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -13360,7 +13354,7 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -13392,7 +13386,7 @@
         <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -13430,7 +13424,7 @@
         <v>1</v>
       </c>
       <c r="B77" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -13468,7 +13462,7 @@
         <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C78">
         <v>6</v>
@@ -18705,108 +18699,83 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA79726F-3241-463B-917F-7ADA9007D06E}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>262</v>
       </c>
       <c r="B1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>70</v>
       </c>
       <c r="B2">
-        <v>70</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>60</v>
       </c>
       <c r="B3">
-        <v>69</v>
-      </c>
-      <c r="C3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>50</v>
       </c>
       <c r="B4">
-        <v>59</v>
-      </c>
-      <c r="C4">
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>40</v>
       </c>
       <c r="B5">
-        <v>49</v>
-      </c>
-      <c r="C5">
         <v>0.125</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>30</v>
       </c>
       <c r="B6">
-        <v>39</v>
-      </c>
-      <c r="C6">
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>20</v>
       </c>
       <c r="B7">
-        <v>29</v>
-      </c>
-      <c r="C7">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10</v>
       </c>
       <c r="B8">
-        <v>19</v>
-      </c>
-      <c r="C8">
         <v>1.5625E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9">
         <v>0</v>
       </c>
     </row>
@@ -18818,113 +18787,86 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E142F536-7C7E-478F-827B-E9BE28FD03CD}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.375" customWidth="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10</v>
       </c>
       <c r="B3">
-        <v>19</v>
-      </c>
-      <c r="C3">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>20</v>
       </c>
       <c r="B4">
-        <v>29</v>
-      </c>
-      <c r="C4">
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>30</v>
       </c>
       <c r="B5">
-        <v>39</v>
-      </c>
-      <c r="C5">
         <v>1.3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>40</v>
       </c>
       <c r="B6">
-        <v>49</v>
-      </c>
-      <c r="C6">
         <v>1.4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>50</v>
       </c>
       <c r="B7">
-        <v>59</v>
-      </c>
-      <c r="C7">
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>60</v>
       </c>
       <c r="B8">
-        <v>69</v>
-      </c>
-      <c r="C8">
         <v>1.6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>70</v>
       </c>
       <c r="B9">
-        <v>999999999</v>
-      </c>
-      <c r="C9">
         <v>1.7</v>
       </c>
     </row>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55278C32-1220-4A47-A12C-5CBC152385FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DE15E2-267C-4504-BAC6-B26B0A66FA1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="275">
   <si>
     <t>Equip0001</t>
   </si>
@@ -853,6 +853,15 @@
   </si>
   <si>
     <t>accumulateMin|Int</t>
+  </si>
+  <si>
+    <t>FullMetalSword</t>
+  </si>
+  <si>
+    <t>Shot_FullMetalSword</t>
+  </si>
+  <si>
+    <t>EquipName_FullMetalSword</t>
   </si>
 </sst>
 </file>
@@ -1221,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4990,6 +4999,27 @@
       </c>
       <c r="I108">
         <v>0</v>
+      </c>
+      <c r="L108" t="s">
+        <v>272</v>
+      </c>
+      <c r="M108" t="s">
+        <v>273</v>
+      </c>
+      <c r="N108" t="s">
+        <v>274</v>
+      </c>
+      <c r="O108">
+        <v>1</v>
+      </c>
+      <c r="P108">
+        <v>4</v>
+      </c>
+      <c r="Q108">
+        <v>1</v>
+      </c>
+      <c r="R108">
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.3">
@@ -18789,7 +18819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E142F536-7C7E-478F-827B-E9BE28FD03CD}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DE15E2-267C-4504-BAC6-B26B0A66FA1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732C246B-2D43-4527-9009-E1904E32884B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="290">
   <si>
     <t>Equip0001</t>
   </si>
@@ -862,6 +862,51 @@
   </si>
   <si>
     <t>EquipName_FullMetalSword</t>
+  </si>
+  <si>
+    <t>HeavyAxe</t>
+  </si>
+  <si>
+    <t>Shot_HeavyAxe</t>
+  </si>
+  <si>
+    <t>EquipName_HeavyAxe</t>
+  </si>
+  <si>
+    <t>HeavySkullAxe</t>
+  </si>
+  <si>
+    <t>Shot_HeavySkullAxe</t>
+  </si>
+  <si>
+    <t>EquipName_HeavySkullAxe</t>
+  </si>
+  <si>
+    <t>HeavyHammer</t>
+  </si>
+  <si>
+    <t>Shot_HeavyHammer</t>
+  </si>
+  <si>
+    <t>EquipName_HeavyHammer</t>
+  </si>
+  <si>
+    <t>HeavyMace</t>
+  </si>
+  <si>
+    <t>Shot_HeavyMace</t>
+  </si>
+  <si>
+    <t>EquipName_HeavyMace</t>
+  </si>
+  <si>
+    <t>HeavyDarkSword</t>
+  </si>
+  <si>
+    <t>Shot_HeavyDarkSword</t>
+  </si>
+  <si>
+    <t>EquipName_HeavyDarkSword</t>
   </si>
 </sst>
 </file>
@@ -1473,6 +1518,27 @@
       <c r="I5">
         <v>0</v>
       </c>
+      <c r="L5" t="s">
+        <v>275</v>
+      </c>
+      <c r="M5" t="s">
+        <v>276</v>
+      </c>
+      <c r="N5" t="s">
+        <v>277</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>10</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1502,6 +1568,27 @@
       <c r="I6">
         <v>0</v>
       </c>
+      <c r="L6" t="s">
+        <v>278</v>
+      </c>
+      <c r="M6" t="s">
+        <v>279</v>
+      </c>
+      <c r="N6" t="s">
+        <v>280</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>10</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -3201,6 +3288,27 @@
       <c r="I56">
         <v>0</v>
       </c>
+      <c r="L56" t="s">
+        <v>281</v>
+      </c>
+      <c r="M56" t="s">
+        <v>282</v>
+      </c>
+      <c r="N56" t="s">
+        <v>283</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>3</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
@@ -3230,6 +3338,27 @@
       <c r="I57">
         <v>0</v>
       </c>
+      <c r="L57" t="s">
+        <v>284</v>
+      </c>
+      <c r="M57" t="s">
+        <v>285</v>
+      </c>
+      <c r="N57" t="s">
+        <v>286</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <v>3</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
@@ -5049,6 +5178,27 @@
       </c>
       <c r="I109">
         <v>0</v>
+      </c>
+      <c r="L109" t="s">
+        <v>287</v>
+      </c>
+      <c r="M109" t="s">
+        <v>288</v>
+      </c>
+      <c r="N109" t="s">
+        <v>289</v>
+      </c>
+      <c r="O109">
+        <v>1</v>
+      </c>
+      <c r="P109">
+        <v>4</v>
+      </c>
+      <c r="Q109">
+        <v>1</v>
+      </c>
+      <c r="R109">
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732C246B-2D43-4527-9009-E1904E32884B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CB18C3-1B0A-40CF-8192-B3CFCD9B0C5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="293">
   <si>
     <t>Equip0001</t>
   </si>
@@ -907,6 +907,15 @@
   </si>
   <si>
     <t>EquipName_HeavyDarkSword</t>
+  </si>
+  <si>
+    <t>StAxe</t>
+  </si>
+  <si>
+    <t>Shot_StAxe</t>
+  </si>
+  <si>
+    <t>EquipName_StAxe</t>
   </si>
 </sst>
 </file>
@@ -1668,6 +1677,27 @@
       <c r="I8">
         <v>0</v>
       </c>
+      <c r="L8" t="s">
+        <v>290</v>
+      </c>
+      <c r="M8" t="s">
+        <v>291</v>
+      </c>
+      <c r="N8" t="s">
+        <v>292</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CB18C3-1B0A-40CF-8192-B3CFCD9B0C5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB6A2C8-24DD-46B8-A9FE-E35DA6FF66C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="302">
   <si>
     <t>Equip0001</t>
   </si>
@@ -916,6 +916,33 @@
   </si>
   <si>
     <t>EquipName_StAxe</t>
+  </si>
+  <si>
+    <t>MeleeAxe</t>
+  </si>
+  <si>
+    <t>Shot_MeleeAxe</t>
+  </si>
+  <si>
+    <t>EquipName_MeleeAxe</t>
+  </si>
+  <si>
+    <t>MeleeHammer</t>
+  </si>
+  <si>
+    <t>Shot_MeleeHammer</t>
+  </si>
+  <si>
+    <t>EquipName_MeleeHammer</t>
+  </si>
+  <si>
+    <t>MeleeMachete</t>
+  </si>
+  <si>
+    <t>Shot_MeleeMachete</t>
+  </si>
+  <si>
+    <t>EquipName_MeleeMachete</t>
   </si>
 </sst>
 </file>
@@ -1727,6 +1754,27 @@
       <c r="I9">
         <v>0</v>
       </c>
+      <c r="L9" t="s">
+        <v>293</v>
+      </c>
+      <c r="M9" t="s">
+        <v>294</v>
+      </c>
+      <c r="N9" t="s">
+        <v>295</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -3418,6 +3466,27 @@
       <c r="I58">
         <v>0</v>
       </c>
+      <c r="L58" t="s">
+        <v>296</v>
+      </c>
+      <c r="M58" t="s">
+        <v>297</v>
+      </c>
+      <c r="N58" t="s">
+        <v>298</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="P58">
+        <v>3</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
@@ -3993,6 +4062,27 @@
       </c>
       <c r="I73">
         <v>0</v>
+      </c>
+      <c r="L73" t="s">
+        <v>299</v>
+      </c>
+      <c r="M73" t="s">
+        <v>300</v>
+      </c>
+      <c r="N73" t="s">
+        <v>301</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <v>3</v>
+      </c>
+      <c r="Q73">
+        <v>1</v>
+      </c>
+      <c r="R73">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB6A2C8-24DD-46B8-A9FE-E35DA6FF66C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747B0FC5-B656-467B-899F-385B7B724C47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="305">
   <si>
     <t>Equip0001</t>
   </si>
@@ -943,6 +943,15 @@
   </si>
   <si>
     <t>EquipName_MeleeMachete</t>
+  </si>
+  <si>
+    <t>MetalStaff</t>
+  </si>
+  <si>
+    <t>Shot_MetalStaff</t>
+  </si>
+  <si>
+    <t>EquipName_MetalStaff</t>
   </si>
 </sst>
 </file>
@@ -3109,6 +3118,27 @@
       <c r="J49">
         <v>-20</v>
       </c>
+      <c r="L49" t="s">
+        <v>302</v>
+      </c>
+      <c r="M49" t="s">
+        <v>303</v>
+      </c>
+      <c r="N49" t="s">
+        <v>304</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>3</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747B0FC5-B656-467B-899F-385B7B724C47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942F0043-3798-41CC-BD32-FF340581CCAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="308">
   <si>
     <t>Equip0001</t>
   </si>
@@ -952,6 +952,15 @@
   </si>
   <si>
     <t>EquipName_MetalStaff</t>
+  </si>
+  <si>
+    <t>StylizedKnife</t>
+  </si>
+  <si>
+    <t>Shot_StylizedKnife</t>
+  </si>
+  <si>
+    <t>EquipName_StylizedKnife</t>
   </si>
 </sst>
 </file>
@@ -2123,6 +2132,27 @@
       <c r="I18">
         <v>0</v>
       </c>
+      <c r="L18" t="s">
+        <v>305</v>
+      </c>
+      <c r="M18" t="s">
+        <v>306</v>
+      </c>
+      <c r="N18" t="s">
+        <v>307</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>3</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942F0043-3798-41CC-BD32-FF340581CCAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1B8CB2-15CE-4EBE-87C4-5ABA816BDFD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="311">
   <si>
     <t>Equip0001</t>
   </si>
@@ -961,6 +961,15 @@
   </si>
   <si>
     <t>EquipName_StylizedKnife</t>
+  </si>
+  <si>
+    <t>MorfusSword</t>
+  </si>
+  <si>
+    <t>Shot_MorfusSword</t>
+  </si>
+  <si>
+    <t>EquipName_MorfusSword</t>
   </si>
 </sst>
 </file>
@@ -5409,6 +5418,27 @@
       <c r="I110">
         <v>0</v>
       </c>
+      <c r="L110" t="s">
+        <v>308</v>
+      </c>
+      <c r="M110" t="s">
+        <v>309</v>
+      </c>
+      <c r="N110" t="s">
+        <v>310</v>
+      </c>
+      <c r="O110">
+        <v>1</v>
+      </c>
+      <c r="P110">
+        <v>4</v>
+      </c>
+      <c r="Q110">
+        <v>1</v>
+      </c>
+      <c r="R110">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111" t="s">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1B8CB2-15CE-4EBE-87C4-5ABA816BDFD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74675751-1EDB-4CFF-A10B-E1989CE41765}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="320">
   <si>
     <t>Equip0001</t>
   </si>
@@ -970,6 +970,33 @@
   </si>
   <si>
     <t>EquipName_MorfusSword</t>
+  </si>
+  <si>
+    <t>SMG28</t>
+  </si>
+  <si>
+    <t>Shot_SMG28</t>
+  </si>
+  <si>
+    <t>EquipName_SMG28</t>
+  </si>
+  <si>
+    <t>SMG31</t>
+  </si>
+  <si>
+    <t>Shot_SMG31</t>
+  </si>
+  <si>
+    <t>EquipName_SMG31</t>
+  </si>
+  <si>
+    <t>SMG30</t>
+  </si>
+  <si>
+    <t>Shot_SMG30</t>
+  </si>
+  <si>
+    <t>EquipName_SMG30</t>
   </si>
 </sst>
 </file>
@@ -4421,6 +4448,27 @@
       <c r="I81">
         <v>0</v>
       </c>
+      <c r="L81" t="s">
+        <v>311</v>
+      </c>
+      <c r="M81" t="s">
+        <v>312</v>
+      </c>
+      <c r="N81" t="s">
+        <v>313</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="P81">
+        <v>3</v>
+      </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="R81">
+        <v>1</v>
+      </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
@@ -4450,6 +4498,27 @@
       <c r="I82">
         <v>0</v>
       </c>
+      <c r="L82" t="s">
+        <v>314</v>
+      </c>
+      <c r="M82" t="s">
+        <v>315</v>
+      </c>
+      <c r="N82" t="s">
+        <v>316</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
+      </c>
+      <c r="P82">
+        <v>3</v>
+      </c>
+      <c r="Q82">
+        <v>1</v>
+      </c>
+      <c r="R82">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
@@ -4565,6 +4634,27 @@
       </c>
       <c r="I86">
         <v>0</v>
+      </c>
+      <c r="L86" t="s">
+        <v>317</v>
+      </c>
+      <c r="M86" t="s">
+        <v>318</v>
+      </c>
+      <c r="N86" t="s">
+        <v>319</v>
+      </c>
+      <c r="O86">
+        <v>1</v>
+      </c>
+      <c r="P86">
+        <v>3</v>
+      </c>
+      <c r="Q86">
+        <v>1</v>
+      </c>
+      <c r="R86">
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74675751-1EDB-4CFF-A10B-E1989CE41765}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0255DD06-1020-40FE-BCB6-13E0DED56ECB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="323">
   <si>
     <t>Equip0001</t>
   </si>
@@ -997,6 +997,15 @@
   </si>
   <si>
     <t>EquipName_SMG30</t>
+  </si>
+  <si>
+    <t>PickAxe</t>
+  </si>
+  <si>
+    <t>Shot_PickAxe</t>
+  </si>
+  <si>
+    <t>EquipName_PickAxe</t>
   </si>
 </sst>
 </file>
@@ -1365,9 +1374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1860,6 +1867,27 @@
       </c>
       <c r="J10">
         <v>-20</v>
+      </c>
+      <c r="L10" t="s">
+        <v>320</v>
+      </c>
+      <c r="M10" t="s">
+        <v>321</v>
+      </c>
+      <c r="N10" t="s">
+        <v>322</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0255DD06-1020-40FE-BCB6-13E0DED56ECB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06509ED2-AADC-41F9-BD2D-5946B39FB60F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="326">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1006,6 +1006,15 @@
   </si>
   <si>
     <t>EquipName_PickAxe</t>
+  </si>
+  <si>
+    <t>VikingShield</t>
+  </si>
+  <si>
+    <t>Shot_VikingShield</t>
+  </si>
+  <si>
+    <t>EquipName_VikingShield</t>
   </si>
 </sst>
 </file>
@@ -4952,6 +4961,27 @@
       <c r="I94">
         <v>0</v>
       </c>
+      <c r="L94" t="s">
+        <v>323</v>
+      </c>
+      <c r="M94" t="s">
+        <v>324</v>
+      </c>
+      <c r="N94" t="s">
+        <v>325</v>
+      </c>
+      <c r="O94">
+        <v>1</v>
+      </c>
+      <c r="P94">
+        <v>3</v>
+      </c>
+      <c r="Q94">
+        <v>1</v>
+      </c>
+      <c r="R94">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" t="s">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06509ED2-AADC-41F9-BD2D-5946B39FB60F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F2864B-238B-458A-84C7-2179457856B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="329">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1015,6 +1015,15 @@
   </si>
   <si>
     <t>EquipName_VikingShield</t>
+  </si>
+  <si>
+    <t>DwarfHammer</t>
+  </si>
+  <si>
+    <t>Shot_DwarfHammer</t>
+  </si>
+  <si>
+    <t>EquipName_DwarfHammer</t>
   </si>
 </sst>
 </file>
@@ -3649,6 +3658,27 @@
       <c r="I59">
         <v>0</v>
       </c>
+      <c r="L59" t="s">
+        <v>326</v>
+      </c>
+      <c r="M59" t="s">
+        <v>327</v>
+      </c>
+      <c r="N59" t="s">
+        <v>328</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>3</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" t="s">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F2864B-238B-458A-84C7-2179457856B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C560D1-39CF-4435-A00D-0A3D2209394D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="332">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1024,6 +1024,15 @@
   </si>
   <si>
     <t>EquipName_DwarfHammer</t>
+  </si>
+  <si>
+    <t>SkeletonShield</t>
+  </si>
+  <si>
+    <t>Shot_SkeletonShield</t>
+  </si>
+  <si>
+    <t>EquipName_SkeletonShield</t>
   </si>
 </sst>
 </file>
@@ -1392,7 +1401,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5040,6 +5051,27 @@
       </c>
       <c r="I95">
         <v>0</v>
+      </c>
+      <c r="L95" t="s">
+        <v>329</v>
+      </c>
+      <c r="M95" t="s">
+        <v>330</v>
+      </c>
+      <c r="N95" t="s">
+        <v>331</v>
+      </c>
+      <c r="O95">
+        <v>1</v>
+      </c>
+      <c r="P95">
+        <v>3</v>
+      </c>
+      <c r="Q95">
+        <v>1</v>
+      </c>
+      <c r="R95">
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C560D1-39CF-4435-A00D-0A3D2209394D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302BCFC5-CE37-4824-BBD5-72F6E647964A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="335">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1033,6 +1033,15 @@
   </si>
   <si>
     <t>EquipName_SkeletonShield</t>
+  </si>
+  <si>
+    <t>TriRevolver</t>
+  </si>
+  <si>
+    <t>Shot_TriRevolver</t>
+  </si>
+  <si>
+    <t>EquipName_TriRevolver</t>
   </si>
 </sst>
 </file>
@@ -4626,6 +4635,27 @@
       <c r="I83">
         <v>0</v>
       </c>
+      <c r="L83" t="s">
+        <v>332</v>
+      </c>
+      <c r="M83" t="s">
+        <v>333</v>
+      </c>
+      <c r="N83" t="s">
+        <v>334</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+      <c r="P83">
+        <v>3</v>
+      </c>
+      <c r="Q83">
+        <v>1</v>
+      </c>
+      <c r="R83">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" t="s">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302BCFC5-CE37-4824-BBD5-72F6E647964A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A42D1C-2FBD-4211-AB59-943E35A9F206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="338">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1042,6 +1042,15 @@
   </si>
   <si>
     <t>EquipName_TriRevolver</t>
+  </si>
+  <si>
+    <t>StylizedFantasySword</t>
+  </si>
+  <si>
+    <t>Shot_StylizedFantasySword</t>
+  </si>
+  <si>
+    <t>EquipName_StylizedFantasySword</t>
   </si>
 </sst>
 </file>
@@ -5738,7 +5747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>103</v>
       </c>
@@ -5767,7 +5776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>104</v>
       </c>
@@ -5798,8 +5807,29 @@
       <c r="J114">
         <v>-20</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L114" t="s">
+        <v>335</v>
+      </c>
+      <c r="M114" t="s">
+        <v>336</v>
+      </c>
+      <c r="N114" t="s">
+        <v>337</v>
+      </c>
+      <c r="O114">
+        <v>1</v>
+      </c>
+      <c r="P114">
+        <v>4</v>
+      </c>
+      <c r="Q114">
+        <v>1</v>
+      </c>
+      <c r="R114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>105</v>
       </c>
@@ -5831,7 +5861,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>106</v>
       </c>
@@ -5863,7 +5893,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>107</v>
       </c>
@@ -5895,7 +5925,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>108</v>
       </c>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A42D1C-2FBD-4211-AB59-943E35A9F206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FEF8FB-98DD-4C85-89DD-6F1AAEC9DB04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="341">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1051,6 +1051,15 @@
   </si>
   <si>
     <t>EquipName_StylizedFantasySword</t>
+  </si>
+  <si>
+    <t>FairyAxe</t>
+  </si>
+  <si>
+    <t>Shot_FairyAxe</t>
+  </si>
+  <si>
+    <t>EquipName_FairyAxe</t>
   </si>
 </sst>
 </file>
@@ -1968,6 +1977,27 @@
       <c r="J11">
         <v>-20</v>
       </c>
+      <c r="L11" t="s">
+        <v>338</v>
+      </c>
+      <c r="M11" t="s">
+        <v>339</v>
+      </c>
+      <c r="N11" t="s">
+        <v>340</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FEF8FB-98DD-4C85-89DD-6F1AAEC9DB04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DD26F6-13D5-498E-AABF-FB76DBDF09AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="344">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1060,6 +1060,15 @@
   </si>
   <si>
     <t>EquipName_FairyAxe</t>
+  </si>
+  <si>
+    <t>ElvenSword</t>
+  </si>
+  <si>
+    <t>Shot_ElvenSword</t>
+  </si>
+  <si>
+    <t>EquipName_ElvenSword</t>
   </si>
 </sst>
 </file>
@@ -4335,6 +4344,27 @@
       <c r="I74">
         <v>0</v>
       </c>
+      <c r="L74" t="s">
+        <v>341</v>
+      </c>
+      <c r="M74" t="s">
+        <v>342</v>
+      </c>
+      <c r="N74" t="s">
+        <v>343</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <v>3</v>
+      </c>
+      <c r="Q74">
+        <v>1</v>
+      </c>
+      <c r="R74">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" t="s">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DD26F6-13D5-498E-AABF-FB76DBDF09AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EF39C9-FB99-4D50-A81D-F66E618287DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="347">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1069,6 +1069,15 @@
   </si>
   <si>
     <t>EquipName_ElvenSword</t>
+  </si>
+  <si>
+    <t>SunSword</t>
+  </si>
+  <si>
+    <t>Shot_SunSword</t>
+  </si>
+  <si>
+    <t>EquipName_SunSword</t>
   </si>
 </sst>
 </file>
@@ -1437,9 +1446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4396,6 +4403,27 @@
       </c>
       <c r="J75">
         <v>-20</v>
+      </c>
+      <c r="L75" t="s">
+        <v>344</v>
+      </c>
+      <c r="M75" t="s">
+        <v>345</v>
+      </c>
+      <c r="N75" t="s">
+        <v>346</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75">
+        <v>3</v>
+      </c>
+      <c r="Q75">
+        <v>1</v>
+      </c>
+      <c r="R75">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EF39C9-FB99-4D50-A81D-F66E618287DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2A1333-9B19-4CE2-8A89-46315E49EDE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="356">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1078,6 +1078,33 @@
   </si>
   <si>
     <t>EquipName_SunSword</t>
+  </si>
+  <si>
+    <t>ElvenBow</t>
+  </si>
+  <si>
+    <t>ElvenAxe</t>
+  </si>
+  <si>
+    <t>Shot_ElvenAxe</t>
+  </si>
+  <si>
+    <t>EquipName_ElvenAxe</t>
+  </si>
+  <si>
+    <t>Shot_ElvenBow</t>
+  </si>
+  <si>
+    <t>EquipName_ElvenBow</t>
+  </si>
+  <si>
+    <t>ElvenHammer</t>
+  </si>
+  <si>
+    <t>Shot_ElvenHammer</t>
+  </si>
+  <si>
+    <t>EquipName_ElvenHammer</t>
   </si>
 </sst>
 </file>
@@ -1446,7 +1473,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2046,6 +2075,27 @@
       <c r="J12">
         <v>-10</v>
       </c>
+      <c r="L12" t="s">
+        <v>348</v>
+      </c>
+      <c r="M12" t="s">
+        <v>349</v>
+      </c>
+      <c r="N12" t="s">
+        <v>350</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -2871,6 +2921,27 @@
       <c r="J36">
         <v>-20</v>
       </c>
+      <c r="L36" t="s">
+        <v>347</v>
+      </c>
+      <c r="M36" t="s">
+        <v>351</v>
+      </c>
+      <c r="N36" t="s">
+        <v>352</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>4</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -3782,6 +3853,27 @@
       </c>
       <c r="I60">
         <v>0</v>
+      </c>
+      <c r="L60" t="s">
+        <v>353</v>
+      </c>
+      <c r="M60" t="s">
+        <v>354</v>
+      </c>
+      <c r="N60" t="s">
+        <v>355</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>3</v>
+      </c>
+      <c r="Q60">
+        <v>1</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2A1333-9B19-4CE2-8A89-46315E49EDE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AA3592-F137-4425-B33A-615CDDB4573E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="359">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1105,6 +1105,15 @@
   </si>
   <si>
     <t>EquipName_ElvenHammer</t>
+  </si>
+  <si>
+    <t>AncientBlade</t>
+  </si>
+  <si>
+    <t>Shot_AncientBlade</t>
+  </si>
+  <si>
+    <t>EquipName_AncientBlade</t>
   </si>
 </sst>
 </file>
@@ -5897,6 +5906,27 @@
       <c r="I111">
         <v>0</v>
       </c>
+      <c r="L111" t="s">
+        <v>356</v>
+      </c>
+      <c r="M111" t="s">
+        <v>357</v>
+      </c>
+      <c r="N111" t="s">
+        <v>358</v>
+      </c>
+      <c r="O111">
+        <v>1</v>
+      </c>
+      <c r="P111">
+        <v>4</v>
+      </c>
+      <c r="Q111">
+        <v>1</v>
+      </c>
+      <c r="R111">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112" t="s">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AA3592-F137-4425-B33A-615CDDB4573E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE13D85-6D92-49A5-8416-048ACB11E472}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="362">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1114,6 +1114,15 @@
   </si>
   <si>
     <t>EquipName_AncientBlade</t>
+  </si>
+  <si>
+    <t>MysticHammer</t>
+  </si>
+  <si>
+    <t>Shot_MysticHammer</t>
+  </si>
+  <si>
+    <t>EquipName_MysticHammer</t>
   </si>
 </sst>
 </file>
@@ -3913,6 +3922,27 @@
       <c r="I61">
         <v>0</v>
       </c>
+      <c r="L61" t="s">
+        <v>359</v>
+      </c>
+      <c r="M61" t="s">
+        <v>360</v>
+      </c>
+      <c r="N61" t="s">
+        <v>361</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>3</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" t="s">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE13D85-6D92-49A5-8416-048ACB11E472}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9607E553-F7CC-4E82-A5A3-A1CF38316707}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="365">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1123,6 +1123,15 @@
   </si>
   <si>
     <t>EquipName_MysticHammer</t>
+  </si>
+  <si>
+    <t>GoldenBlade</t>
+  </si>
+  <si>
+    <t>Shot_GoldenBlade</t>
+  </si>
+  <si>
+    <t>EquipName_GoldenBlade</t>
   </si>
 </sst>
 </file>
@@ -1491,9 +1500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4587,6 +4594,27 @@
       </c>
       <c r="J76">
         <v>-20</v>
+      </c>
+      <c r="L76" t="s">
+        <v>362</v>
+      </c>
+      <c r="M76" t="s">
+        <v>363</v>
+      </c>
+      <c r="N76" t="s">
+        <v>364</v>
+      </c>
+      <c r="O76">
+        <v>1</v>
+      </c>
+      <c r="P76">
+        <v>3</v>
+      </c>
+      <c r="Q76">
+        <v>1</v>
+      </c>
+      <c r="R76">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9607E553-F7CC-4E82-A5A3-A1CF38316707}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776A4183-54E8-4BE2-B637-4F277380A20A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="368">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1132,6 +1132,15 @@
   </si>
   <si>
     <t>EquipName_GoldenBlade</t>
+  </si>
+  <si>
+    <t>SlicerAxe</t>
+  </si>
+  <si>
+    <t>Shot_SlicerAxe</t>
+  </si>
+  <si>
+    <t>EquipName_SlicerAxe</t>
   </si>
 </sst>
 </file>
@@ -2153,6 +2162,27 @@
       <c r="J13">
         <v>-10</v>
       </c>
+      <c r="L13" t="s">
+        <v>365</v>
+      </c>
+      <c r="M13" t="s">
+        <v>366</v>
+      </c>
+      <c r="N13" t="s">
+        <v>367</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776A4183-54E8-4BE2-B637-4F277380A20A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDF7D54-E729-43E4-A0AF-6E7E6C9E1A05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="371">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1141,6 +1141,15 @@
   </si>
   <si>
     <t>EquipName_SlicerAxe</t>
+  </si>
+  <si>
+    <t>SkullShield</t>
+  </si>
+  <si>
+    <t>Shot_SkullShield</t>
+  </si>
+  <si>
+    <t>EquipName_SkullShield</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +1518,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5417,6 +5428,27 @@
       </c>
       <c r="I96">
         <v>0</v>
+      </c>
+      <c r="L96" t="s">
+        <v>368</v>
+      </c>
+      <c r="M96" t="s">
+        <v>369</v>
+      </c>
+      <c r="N96" t="s">
+        <v>370</v>
+      </c>
+      <c r="O96">
+        <v>1</v>
+      </c>
+      <c r="P96">
+        <v>3</v>
+      </c>
+      <c r="Q96">
+        <v>1</v>
+      </c>
+      <c r="R96">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDF7D54-E729-43E4-A0AF-6E7E6C9E1A05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAED25C-23F5-4DFE-9A82-5A589AA2B87C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="374">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1150,6 +1150,15 @@
   </si>
   <si>
     <t>EquipName_SkullShield</t>
+  </si>
+  <si>
+    <t>FantasyShield</t>
+  </si>
+  <si>
+    <t>Shot_FantasyShield</t>
+  </si>
+  <si>
+    <t>EquipName_FantasyShield</t>
   </si>
 </sst>
 </file>
@@ -5479,6 +5488,27 @@
       <c r="I97">
         <v>0</v>
       </c>
+      <c r="L97" t="s">
+        <v>371</v>
+      </c>
+      <c r="M97" t="s">
+        <v>372</v>
+      </c>
+      <c r="N97" t="s">
+        <v>373</v>
+      </c>
+      <c r="O97">
+        <v>1</v>
+      </c>
+      <c r="P97">
+        <v>3</v>
+      </c>
+      <c r="Q97">
+        <v>1</v>
+      </c>
+      <c r="R97">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" t="s">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAED25C-23F5-4DFE-9A82-5A589AA2B87C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BBD5B8-B272-4B2E-B042-01FE4C7116DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="380">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1159,6 +1159,24 @@
   </si>
   <si>
     <t>EquipName_FantasyShield</t>
+  </si>
+  <si>
+    <t>PetalShotgun</t>
+  </si>
+  <si>
+    <t>Shot_PetalShotgun</t>
+  </si>
+  <si>
+    <t>EquipName_PetalShotgun</t>
+  </si>
+  <si>
+    <t>BubbleBlaster</t>
+  </si>
+  <si>
+    <t>Shot_BubbleBlaster</t>
+  </si>
+  <si>
+    <t>EquipName_BubbleBlaster</t>
   </si>
 </sst>
 </file>
@@ -1527,9 +1545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4991,6 +5007,27 @@
       <c r="I84">
         <v>0</v>
       </c>
+      <c r="L84" t="s">
+        <v>374</v>
+      </c>
+      <c r="M84" t="s">
+        <v>375</v>
+      </c>
+      <c r="N84" t="s">
+        <v>376</v>
+      </c>
+      <c r="O84">
+        <v>1</v>
+      </c>
+      <c r="P84">
+        <v>3</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <v>1</v>
+      </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
@@ -5019,6 +5056,27 @@
       </c>
       <c r="I85">
         <v>0</v>
+      </c>
+      <c r="L85" t="s">
+        <v>377</v>
+      </c>
+      <c r="M85" t="s">
+        <v>378</v>
+      </c>
+      <c r="N85" t="s">
+        <v>379</v>
+      </c>
+      <c r="O85">
+        <v>1</v>
+      </c>
+      <c r="P85">
+        <v>3</v>
+      </c>
+      <c r="Q85">
+        <v>1</v>
+      </c>
+      <c r="R85">
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BBD5B8-B272-4B2E-B042-01FE4C7116DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926CCC5B-C396-4FF2-AFFE-0EA8FD4C3DB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="383">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1177,6 +1177,15 @@
   </si>
   <si>
     <t>EquipName_BubbleBlaster</t>
+  </si>
+  <si>
+    <t>FierySword</t>
+  </si>
+  <si>
+    <t>Shot_FierySword</t>
+  </si>
+  <si>
+    <t>EquipName_FierySword</t>
   </si>
 </sst>
 </file>
@@ -4714,6 +4723,27 @@
       <c r="J77">
         <v>-10</v>
       </c>
+      <c r="L77" t="s">
+        <v>380</v>
+      </c>
+      <c r="M77" t="s">
+        <v>381</v>
+      </c>
+      <c r="N77" t="s">
+        <v>382</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
+      </c>
+      <c r="P77">
+        <v>3</v>
+      </c>
+      <c r="Q77">
+        <v>1</v>
+      </c>
+      <c r="R77">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" t="s">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926CCC5B-C396-4FF2-AFFE-0EA8FD4C3DB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCEBC4A-D661-4E2E-83BF-EB8C77A2BFED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="386">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1186,6 +1186,15 @@
   </si>
   <si>
     <t>EquipName_FierySword</t>
+  </si>
+  <si>
+    <t>MoonSword</t>
+  </si>
+  <si>
+    <t>Shot_MoonSword</t>
+  </si>
+  <si>
+    <t>EquipName_MoonSword</t>
   </si>
 </sst>
 </file>
@@ -4776,6 +4785,27 @@
       <c r="J78">
         <v>-10</v>
       </c>
+      <c r="L78" t="s">
+        <v>383</v>
+      </c>
+      <c r="M78" t="s">
+        <v>384</v>
+      </c>
+      <c r="N78" t="s">
+        <v>385</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="P78">
+        <v>3</v>
+      </c>
+      <c r="Q78">
+        <v>1</v>
+      </c>
+      <c r="R78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" t="s">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCEBC4A-D661-4E2E-83BF-EB8C77A2BFED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC0499E-1D85-43D6-BD4F-53C1D5C8013F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="389">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1195,6 +1195,15 @@
   </si>
   <si>
     <t>EquipName_MoonSword</t>
+  </si>
+  <si>
+    <t>TwoHandSeven</t>
+  </si>
+  <si>
+    <t>Shot_TwoHandSeven</t>
+  </si>
+  <si>
+    <t>EquipName_TwoHandSeven</t>
   </si>
 </sst>
 </file>
@@ -6224,6 +6233,27 @@
       <c r="I112">
         <v>0</v>
       </c>
+      <c r="L112" t="s">
+        <v>386</v>
+      </c>
+      <c r="M112" t="s">
+        <v>387</v>
+      </c>
+      <c r="N112" t="s">
+        <v>388</v>
+      </c>
+      <c r="O112">
+        <v>1</v>
+      </c>
+      <c r="P112">
+        <v>4</v>
+      </c>
+      <c r="Q112">
+        <v>1</v>
+      </c>
+      <c r="R112">
+        <v>1</v>
+      </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" t="s">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC0499E-1D85-43D6-BD4F-53C1D5C8013F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0AD97E-DA14-4546-82A0-657DE43EA7E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="392">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1204,6 +1204,15 @@
   </si>
   <si>
     <t>EquipName_TwoHandSeven</t>
+  </si>
+  <si>
+    <t>RunicHammer</t>
+  </si>
+  <si>
+    <t>Shot_RunicHammer</t>
+  </si>
+  <si>
+    <t>EquipName_RunicHammer</t>
   </si>
 </sst>
 </file>
@@ -1572,7 +1581,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4074,6 +4085,27 @@
       </c>
       <c r="J62">
         <v>-20</v>
+      </c>
+      <c r="L62" t="s">
+        <v>389</v>
+      </c>
+      <c r="M62" t="s">
+        <v>390</v>
+      </c>
+      <c r="N62" t="s">
+        <v>391</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>3</v>
+      </c>
+      <c r="Q62">
+        <v>1</v>
+      </c>
+      <c r="R62">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0AD97E-DA14-4546-82A0-657DE43EA7E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4ED771-DF3C-4EC5-842B-F79F9E25A32C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="395">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1213,6 +1213,15 @@
   </si>
   <si>
     <t>EquipName_RunicHammer</t>
+  </si>
+  <si>
+    <t>HeavySword</t>
+  </si>
+  <si>
+    <t>Shot_HeavySword</t>
+  </si>
+  <si>
+    <t>EquipName_HeavySword</t>
   </si>
 </sst>
 </file>
@@ -6400,6 +6409,27 @@
       <c r="J115">
         <v>-20</v>
       </c>
+      <c r="L115" t="s">
+        <v>392</v>
+      </c>
+      <c r="M115" t="s">
+        <v>393</v>
+      </c>
+      <c r="N115" t="s">
+        <v>394</v>
+      </c>
+      <c r="O115">
+        <v>1</v>
+      </c>
+      <c r="P115">
+        <v>4</v>
+      </c>
+      <c r="Q115">
+        <v>1</v>
+      </c>
+      <c r="R115">
+        <v>1</v>
+      </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" t="s">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4ED771-DF3C-4EC5-842B-F79F9E25A32C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2C2F7B-4C96-4B91-B09C-49B5FB61F007}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="398">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1222,6 +1222,15 @@
   </si>
   <si>
     <t>EquipName_HeavySword</t>
+  </si>
+  <si>
+    <t>SciFiGun</t>
+  </si>
+  <si>
+    <t>Shot_SciFiGun</t>
+  </si>
+  <si>
+    <t>EquipName_SciFiGun</t>
   </si>
 </sst>
 </file>
@@ -5267,6 +5276,27 @@
       <c r="I87">
         <v>0</v>
       </c>
+      <c r="L87" t="s">
+        <v>395</v>
+      </c>
+      <c r="M87" t="s">
+        <v>396</v>
+      </c>
+      <c r="N87" t="s">
+        <v>397</v>
+      </c>
+      <c r="O87">
+        <v>1</v>
+      </c>
+      <c r="P87">
+        <v>3</v>
+      </c>
+      <c r="Q87">
+        <v>1</v>
+      </c>
+      <c r="R87">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" t="s">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2C2F7B-4C96-4B91-B09C-49B5FB61F007}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A449D13-92D3-467A-9B00-A55A9ABEB1DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="401">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1231,6 +1231,15 @@
   </si>
   <si>
     <t>EquipName_SciFiGun</t>
+  </si>
+  <si>
+    <t>RayRevolver</t>
+  </si>
+  <si>
+    <t>Shot_RayRevolver</t>
+  </si>
+  <si>
+    <t>EquipName_RayRevolver</t>
   </si>
 </sst>
 </file>
@@ -1599,8 +1608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5328,6 +5337,27 @@
       </c>
       <c r="J88">
         <v>-20</v>
+      </c>
+      <c r="L88" t="s">
+        <v>398</v>
+      </c>
+      <c r="M88" t="s">
+        <v>399</v>
+      </c>
+      <c r="N88" t="s">
+        <v>400</v>
+      </c>
+      <c r="O88">
+        <v>1</v>
+      </c>
+      <c r="P88">
+        <v>3</v>
+      </c>
+      <c r="Q88">
+        <v>1</v>
+      </c>
+      <c r="R88">
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A449D13-92D3-467A-9B00-A55A9ABEB1DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EAFE34-8222-4381-822F-B20AE667ACE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="407">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1240,6 +1240,24 @@
   </si>
   <si>
     <t>EquipName_RayRevolver</t>
+  </si>
+  <si>
+    <t>SciFantasyRapier</t>
+  </si>
+  <si>
+    <t>Shot_SciFantasyRapier</t>
+  </si>
+  <si>
+    <t>EquipName_SciFantasyRapier</t>
+  </si>
+  <si>
+    <t>SciFantasySword</t>
+  </si>
+  <si>
+    <t>Shot_SciFantasySword</t>
+  </si>
+  <si>
+    <t>EquipName_SciFantasySword</t>
   </si>
 </sst>
 </file>
@@ -1608,8 +1626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4906,6 +4924,27 @@
       <c r="J79">
         <v>-5</v>
       </c>
+      <c r="L79" t="s">
+        <v>401</v>
+      </c>
+      <c r="M79" t="s">
+        <v>402</v>
+      </c>
+      <c r="N79" t="s">
+        <v>403</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="P79">
+        <v>3</v>
+      </c>
+      <c r="Q79">
+        <v>1</v>
+      </c>
+      <c r="R79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
@@ -6383,6 +6422,27 @@
       </c>
       <c r="I113">
         <v>0</v>
+      </c>
+      <c r="L113" t="s">
+        <v>404</v>
+      </c>
+      <c r="M113" t="s">
+        <v>405</v>
+      </c>
+      <c r="N113" t="s">
+        <v>406</v>
+      </c>
+      <c r="O113">
+        <v>1</v>
+      </c>
+      <c r="P113">
+        <v>4</v>
+      </c>
+      <c r="Q113">
+        <v>1</v>
+      </c>
+      <c r="R113">
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EAFE34-8222-4381-822F-B20AE667ACE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABABFDDC-52B8-4A0A-A8E5-DBC501C074B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="408">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1258,6 +1258,9 @@
   </si>
   <si>
     <t>EquipName_SciFantasySword</t>
+  </si>
+  <si>
+    <t>sellGold|Int</t>
   </si>
 </sst>
 </file>
@@ -1626,9 +1629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11413,13 +11414,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82CFE85-E5BF-4028-97DD-0FD3D41C3DD1}">
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>178</v>
       </c>
@@ -11510,8 +11511,11 @@
       <c r="AD1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11596,8 +11600,11 @@
       <c r="AD2">
         <v>500</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11682,8 +11689,11 @@
       <c r="AD3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -11768,8 +11778,11 @@
       <c r="AD4">
         <v>1500</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE4">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -11854,8 +11867,11 @@
       <c r="AD5">
         <v>2000</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -11943,8 +11959,11 @@
       <c r="AD6">
         <v>2500</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -12032,8 +12051,11 @@
       <c r="AD7">
         <v>2500</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -12120,6 +12142,9 @@
       </c>
       <c r="AD8">
         <v>2500</v>
+      </c>
+      <c r="AE8">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABABFDDC-52B8-4A0A-A8E5-DBC501C074B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FAC8D1-2C98-4CE3-BE1E-6A73EFA478DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="411">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1261,6 +1261,15 @@
   </si>
   <si>
     <t>sellGold|Int</t>
+  </si>
+  <si>
+    <t>ArsenalAxe</t>
+  </si>
+  <si>
+    <t>Shot_ArsenalAxe</t>
+  </si>
+  <si>
+    <t>EquipName_ArsenalAxe</t>
   </si>
 </sst>
 </file>
@@ -1629,7 +1638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2334,6 +2343,15 @@
       </c>
       <c r="J14">
         <v>-5</v>
+      </c>
+      <c r="L14" t="s">
+        <v>408</v>
+      </c>
+      <c r="M14" t="s">
+        <v>409</v>
+      </c>
+      <c r="N14" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
@@ -11416,7 +11434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82CFE85-E5BF-4028-97DD-0FD3D41C3DD1}">
   <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FAC8D1-2C98-4CE3-BE1E-6A73EFA478DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E4530D-CAA6-4406-BF43-7BA743E3E7DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="414">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1270,6 +1270,15 @@
   </si>
   <si>
     <t>EquipName_ArsenalAxe</t>
+  </si>
+  <si>
+    <t>ArsenalGoldHammer</t>
+  </si>
+  <si>
+    <t>Shot_ArsenalGoldHammer</t>
+  </si>
+  <si>
+    <t>EquipName_ArsenalGoldHammer</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +1647,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4202,6 +4213,27 @@
       </c>
       <c r="J63">
         <v>-20</v>
+      </c>
+      <c r="L63" t="s">
+        <v>411</v>
+      </c>
+      <c r="M63" t="s">
+        <v>412</v>
+      </c>
+      <c r="N63" t="s">
+        <v>413</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>3</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="R63">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E4530D-CAA6-4406-BF43-7BA743E3E7DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2FC744-862D-475B-BF00-E67333A056CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="417">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1279,6 +1279,15 @@
   </si>
   <si>
     <t>EquipName_ArsenalGoldHammer</t>
+  </si>
+  <si>
+    <t>ArsenalHammer</t>
+  </si>
+  <si>
+    <t>Shot_ArsenalHammer</t>
+  </si>
+  <si>
+    <t>EquipName_ArsenalHammer</t>
   </si>
 </sst>
 </file>
@@ -1647,7 +1656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4330,6 +4339,27 @@
       </c>
       <c r="J66">
         <v>-5</v>
+      </c>
+      <c r="L66" t="s">
+        <v>414</v>
+      </c>
+      <c r="M66" t="s">
+        <v>415</v>
+      </c>
+      <c r="N66" t="s">
+        <v>416</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <v>3</v>
+      </c>
+      <c r="Q66">
+        <v>1</v>
+      </c>
+      <c r="R66">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2FC744-862D-475B-BF00-E67333A056CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A05540-2CB3-4CEA-A1CE-8A5BCD4A4D25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="420">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1288,6 +1288,15 @@
   </si>
   <si>
     <t>EquipName_ArsenalHammer</t>
+  </si>
+  <si>
+    <t>ArsenalBigSword</t>
+  </si>
+  <si>
+    <t>Shot_ArsenalBigSword</t>
+  </si>
+  <si>
+    <t>EquipName_ArsenalBigSword</t>
   </si>
 </sst>
 </file>
@@ -1656,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2373,6 +2382,18 @@
       <c r="N14" t="s">
         <v>410</v>
       </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -6726,6 +6747,27 @@
       </c>
       <c r="J118">
         <v>-5</v>
+      </c>
+      <c r="L118" t="s">
+        <v>417</v>
+      </c>
+      <c r="M118" t="s">
+        <v>418</v>
+      </c>
+      <c r="N118" t="s">
+        <v>419</v>
+      </c>
+      <c r="O118">
+        <v>1</v>
+      </c>
+      <c r="P118">
+        <v>4</v>
+      </c>
+      <c r="Q118">
+        <v>1</v>
+      </c>
+      <c r="R118">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A05540-2CB3-4CEA-A1CE-8A5BCD4A4D25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50013E5-52ED-4715-814C-EB913E7EA95C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="425">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1290,6 +1290,9 @@
     <t>EquipName_ArsenalHammer</t>
   </si>
   <si>
+    <t>Equip0406</t>
+  </si>
+  <si>
     <t>ArsenalBigSword</t>
   </si>
   <si>
@@ -1297,6 +1300,18 @@
   </si>
   <si>
     <t>EquipName_ArsenalBigSword</t>
+  </si>
+  <si>
+    <t>Equip5406</t>
+  </si>
+  <si>
+    <t>ArsenalSword</t>
+  </si>
+  <si>
+    <t>Shot_ArsenalSword</t>
+  </si>
+  <si>
+    <t>EquipName_ArsenalSword</t>
   </si>
 </sst>
 </file>
@@ -1663,10 +1678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
-  <dimension ref="A1:R118"/>
+  <dimension ref="A1:R120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2397,57 +2412,33 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>417</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>11.1</v>
-      </c>
-      <c r="H15">
-        <v>14.1</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="L15" t="s">
-        <v>148</v>
-      </c>
-      <c r="M15" t="s">
-        <v>149</v>
-      </c>
-      <c r="N15" t="s">
-        <v>150</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>3</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>-5</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2465,22 +2456,22 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.85</v>
+        <v>11.1</v>
       </c>
       <c r="H16">
-        <v>13.5</v>
+        <v>14.1</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="M16" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="N16" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -2497,16 +2488,16 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2515,22 +2506,22 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.35</v>
+        <v>10.85</v>
       </c>
       <c r="H17">
-        <v>19.95</v>
+        <v>13.5</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>264</v>
+        <v>175</v>
       </c>
       <c r="M17" t="s">
-        <v>265</v>
+        <v>176</v>
       </c>
       <c r="N17" t="s">
-        <v>266</v>
+        <v>177</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -2547,7 +2538,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2565,22 +2556,22 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.93</v>
+        <v>13.35</v>
       </c>
       <c r="H18">
-        <v>19.39</v>
+        <v>19.95</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="M18" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="N18" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -2597,36 +2588,57 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>21.64</v>
+        <v>12.93</v>
       </c>
       <c r="H19">
-        <v>33.299999999999997</v>
+        <v>19.39</v>
       </c>
       <c r="I19">
         <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>305</v>
+      </c>
+      <c r="M19" t="s">
+        <v>306</v>
+      </c>
+      <c r="N19" t="s">
+        <v>307</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>3</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2644,10 +2656,10 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <v>20.93</v>
+        <v>21.64</v>
       </c>
       <c r="H20">
-        <v>32.58</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2655,16 +2667,16 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2673,10 +2685,10 @@
         <v>2</v>
       </c>
       <c r="G21">
-        <v>49.66</v>
+        <v>20.93</v>
       </c>
       <c r="H21">
-        <v>75.319999999999993</v>
+        <v>32.58</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2684,7 +2696,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2702,10 +2714,10 @@
         <v>2</v>
       </c>
       <c r="G22">
-        <v>44.21</v>
+        <v>49.66</v>
       </c>
       <c r="H22">
-        <v>79.14</v>
+        <v>75.319999999999993</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2713,39 +2725,36 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>128.83000000000001</v>
+        <v>44.21</v>
       </c>
       <c r="H23">
-        <v>176.03</v>
+        <v>79.14</v>
       </c>
       <c r="I23">
-        <v>3</v>
-      </c>
-      <c r="J23">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2763,10 +2772,10 @@
         <v>3</v>
       </c>
       <c r="G24">
-        <v>113.52</v>
+        <v>128.83000000000001</v>
       </c>
       <c r="H24">
-        <v>184.96</v>
+        <v>176.03</v>
       </c>
       <c r="I24">
         <v>3</v>
@@ -2777,7 +2786,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2786,7 +2795,7 @@
         <v>4</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2795,21 +2804,21 @@
         <v>3</v>
       </c>
       <c r="G25">
-        <v>157.76</v>
+        <v>113.52</v>
       </c>
       <c r="H25">
-        <v>215.56</v>
+        <v>184.96</v>
       </c>
       <c r="I25">
         <v>3</v>
       </c>
       <c r="J25">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2827,10 +2836,10 @@
         <v>3</v>
       </c>
       <c r="G26">
-        <v>139.02000000000001</v>
+        <v>157.76</v>
       </c>
       <c r="H26">
-        <v>226.49</v>
+        <v>215.56</v>
       </c>
       <c r="I26">
         <v>3</v>
@@ -2841,7 +2850,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2850,7 +2859,7 @@
         <v>4</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2859,50 +2868,53 @@
         <v>3</v>
       </c>
       <c r="G27">
-        <v>193.2</v>
+        <v>139.02000000000001</v>
       </c>
       <c r="H27">
-        <v>263.97000000000003</v>
+        <v>226.49</v>
       </c>
       <c r="I27">
         <v>3</v>
       </c>
       <c r="J27">
-        <v>-5</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G28">
-        <v>11.1</v>
+        <v>193.2</v>
       </c>
       <c r="H28">
-        <v>14.1</v>
+        <v>263.97000000000003</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>-5</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -2920,10 +2932,10 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>10.85</v>
+        <v>11.1</v>
       </c>
       <c r="H29">
-        <v>13.5</v>
+        <v>14.1</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2931,16 +2943,16 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2949,10 +2961,10 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>13.35</v>
+        <v>10.85</v>
       </c>
       <c r="H30">
-        <v>19.95</v>
+        <v>13.5</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2960,7 +2972,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -2978,10 +2990,10 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>12.93</v>
+        <v>13.35</v>
       </c>
       <c r="H31">
-        <v>19.39</v>
+        <v>19.95</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2989,28 +3001,28 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>21.64</v>
+        <v>12.93</v>
       </c>
       <c r="H32">
-        <v>33.299999999999997</v>
+        <v>19.39</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -3018,7 +3030,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -3036,10 +3048,10 @@
         <v>2</v>
       </c>
       <c r="G33">
-        <v>20.93</v>
+        <v>21.64</v>
       </c>
       <c r="H33">
-        <v>32.58</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3047,16 +3059,16 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -3065,39 +3077,18 @@
         <v>2</v>
       </c>
       <c r="G34">
-        <v>49.66</v>
+        <v>20.93</v>
       </c>
       <c r="H34">
-        <v>75.319999999999993</v>
+        <v>32.58</v>
       </c>
       <c r="I34">
         <v>0</v>
-      </c>
-      <c r="L34" t="s">
-        <v>169</v>
-      </c>
-      <c r="M34" t="s">
-        <v>170</v>
-      </c>
-      <c r="N34" t="s">
-        <v>171</v>
-      </c>
-      <c r="O34">
-        <v>1</v>
-      </c>
-      <c r="P34">
-        <v>4</v>
-      </c>
-      <c r="Q34">
-        <v>1</v>
-      </c>
-      <c r="R34">
-        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -3115,71 +3106,68 @@
         <v>2</v>
       </c>
       <c r="G35">
-        <v>44.21</v>
+        <v>49.66</v>
       </c>
       <c r="H35">
-        <v>79.14</v>
+        <v>75.319999999999993</v>
       </c>
       <c r="I35">
         <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>169</v>
+      </c>
+      <c r="M35" t="s">
+        <v>170</v>
+      </c>
+      <c r="N35" t="s">
+        <v>171</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>4</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G36">
-        <v>128.83000000000001</v>
+        <v>44.21</v>
       </c>
       <c r="H36">
-        <v>176.03</v>
+        <v>79.14</v>
       </c>
       <c r="I36">
-        <v>3</v>
-      </c>
-      <c r="J36">
-        <v>-20</v>
-      </c>
-      <c r="L36" t="s">
-        <v>347</v>
-      </c>
-      <c r="M36" t="s">
-        <v>351</v>
-      </c>
-      <c r="N36" t="s">
-        <v>352</v>
-      </c>
-      <c r="O36">
-        <v>1</v>
-      </c>
-      <c r="P36">
-        <v>4</v>
-      </c>
-      <c r="Q36">
-        <v>1</v>
-      </c>
-      <c r="R36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -3197,10 +3185,10 @@
         <v>3</v>
       </c>
       <c r="G37">
-        <v>113.52</v>
+        <v>128.83000000000001</v>
       </c>
       <c r="H37">
-        <v>184.96</v>
+        <v>176.03</v>
       </c>
       <c r="I37">
         <v>3</v>
@@ -3208,10 +3196,31 @@
       <c r="J37">
         <v>-20</v>
       </c>
+      <c r="L37" t="s">
+        <v>347</v>
+      </c>
+      <c r="M37" t="s">
+        <v>351</v>
+      </c>
+      <c r="N37" t="s">
+        <v>352</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>4</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -3220,7 +3229,7 @@
         <v>4</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -3229,21 +3238,21 @@
         <v>3</v>
       </c>
       <c r="G38">
-        <v>157.76</v>
+        <v>113.52</v>
       </c>
       <c r="H38">
-        <v>215.56</v>
+        <v>184.96</v>
       </c>
       <c r="I38">
         <v>3</v>
       </c>
       <c r="J38">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -3261,10 +3270,10 @@
         <v>3</v>
       </c>
       <c r="G39">
-        <v>139.02000000000001</v>
+        <v>157.76</v>
       </c>
       <c r="H39">
-        <v>226.49</v>
+        <v>215.56</v>
       </c>
       <c r="I39">
         <v>3</v>
@@ -3275,7 +3284,7 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -3284,7 +3293,7 @@
         <v>4</v>
       </c>
       <c r="D40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -3293,50 +3302,53 @@
         <v>3</v>
       </c>
       <c r="G40">
-        <v>193.2</v>
+        <v>139.02000000000001</v>
       </c>
       <c r="H40">
-        <v>263.97000000000003</v>
+        <v>226.49</v>
       </c>
       <c r="I40">
         <v>3</v>
       </c>
       <c r="J40">
-        <v>-5</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G41">
-        <v>11.1</v>
+        <v>193.2</v>
       </c>
       <c r="H41">
-        <v>14.1</v>
+        <v>263.97000000000003</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="J41">
+        <v>-5</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -3354,10 +3366,10 @@
         <v>1</v>
       </c>
       <c r="G42">
-        <v>10.85</v>
+        <v>11.1</v>
       </c>
       <c r="H42">
-        <v>13.5</v>
+        <v>14.1</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -3365,16 +3377,16 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3383,10 +3395,10 @@
         <v>1</v>
       </c>
       <c r="G43">
-        <v>13.35</v>
+        <v>10.85</v>
       </c>
       <c r="H43">
-        <v>19.95</v>
+        <v>13.5</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -3394,7 +3406,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -3412,10 +3424,10 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <v>12.93</v>
+        <v>13.35</v>
       </c>
       <c r="H44">
-        <v>19.39</v>
+        <v>19.95</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -3423,57 +3435,36 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>21.64</v>
+        <v>12.93</v>
       </c>
       <c r="H45">
-        <v>33.299999999999997</v>
+        <v>19.39</v>
       </c>
       <c r="I45">
         <v>0</v>
-      </c>
-      <c r="L45" t="s">
-        <v>166</v>
-      </c>
-      <c r="M45" t="s">
-        <v>167</v>
-      </c>
-      <c r="N45" t="s">
-        <v>168</v>
-      </c>
-      <c r="O45">
-        <v>1</v>
-      </c>
-      <c r="P45">
-        <v>3</v>
-      </c>
-      <c r="Q45">
-        <v>1</v>
-      </c>
-      <c r="R45">
-        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -3491,27 +3482,48 @@
         <v>2</v>
       </c>
       <c r="G46">
-        <v>20.93</v>
+        <v>21.64</v>
       </c>
       <c r="H46">
-        <v>32.58</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="I46">
         <v>0</v>
+      </c>
+      <c r="L46" t="s">
+        <v>166</v>
+      </c>
+      <c r="M46" t="s">
+        <v>167</v>
+      </c>
+      <c r="N46" t="s">
+        <v>168</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <v>3</v>
+      </c>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>3</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3520,10 +3532,10 @@
         <v>2</v>
       </c>
       <c r="G47">
-        <v>49.66</v>
+        <v>20.93</v>
       </c>
       <c r="H47">
-        <v>75.319999999999993</v>
+        <v>32.58</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -3531,7 +3543,7 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -3549,75 +3561,51 @@
         <v>2</v>
       </c>
       <c r="G48">
-        <v>44.21</v>
+        <v>49.66</v>
       </c>
       <c r="H48">
-        <v>79.14</v>
+        <v>75.319999999999993</v>
       </c>
       <c r="I48">
         <v>0</v>
-      </c>
-      <c r="L48" t="s">
-        <v>240</v>
-      </c>
-      <c r="M48" t="s">
-        <v>241</v>
-      </c>
-      <c r="N48" t="s">
-        <v>242</v>
-      </c>
-      <c r="O48">
-        <v>1</v>
-      </c>
-      <c r="P48">
-        <v>3</v>
-      </c>
-      <c r="Q48">
-        <v>1</v>
-      </c>
-      <c r="R48">
-        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>3</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G49">
-        <v>128.83000000000001</v>
+        <v>44.21</v>
       </c>
       <c r="H49">
-        <v>176.03</v>
+        <v>79.14</v>
       </c>
       <c r="I49">
-        <v>3</v>
-      </c>
-      <c r="J49">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>302</v>
+        <v>240</v>
       </c>
       <c r="M49" t="s">
-        <v>303</v>
+        <v>241</v>
       </c>
       <c r="N49" t="s">
-        <v>304</v>
+        <v>242</v>
       </c>
       <c r="O49">
         <v>1</v>
@@ -3634,7 +3622,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -3652,10 +3640,10 @@
         <v>3</v>
       </c>
       <c r="G50">
-        <v>113.52</v>
+        <v>128.83000000000001</v>
       </c>
       <c r="H50">
-        <v>184.96</v>
+        <v>176.03</v>
       </c>
       <c r="I50">
         <v>3</v>
@@ -3663,10 +3651,31 @@
       <c r="J50">
         <v>-20</v>
       </c>
+      <c r="L50" t="s">
+        <v>302</v>
+      </c>
+      <c r="M50" t="s">
+        <v>303</v>
+      </c>
+      <c r="N50" t="s">
+        <v>304</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <v>3</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -3675,7 +3684,7 @@
         <v>4</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3684,21 +3693,21 @@
         <v>3</v>
       </c>
       <c r="G51">
-        <v>157.76</v>
+        <v>113.52</v>
       </c>
       <c r="H51">
-        <v>215.56</v>
+        <v>184.96</v>
       </c>
       <c r="I51">
         <v>3</v>
       </c>
       <c r="J51">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -3716,10 +3725,10 @@
         <v>3</v>
       </c>
       <c r="G52">
-        <v>139.02000000000001</v>
+        <v>157.76</v>
       </c>
       <c r="H52">
-        <v>226.49</v>
+        <v>215.56</v>
       </c>
       <c r="I52">
         <v>3</v>
@@ -3730,7 +3739,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -3739,7 +3748,7 @@
         <v>4</v>
       </c>
       <c r="D53">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3748,71 +3757,53 @@
         <v>3</v>
       </c>
       <c r="G53">
-        <v>193.2</v>
+        <v>139.02000000000001</v>
       </c>
       <c r="H53">
-        <v>263.97000000000003</v>
+        <v>226.49</v>
       </c>
       <c r="I53">
         <v>3</v>
       </c>
       <c r="J53">
-        <v>-5</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
         <v>4</v>
       </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
       <c r="D54">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G54">
-        <v>11.1</v>
+        <v>193.2</v>
       </c>
       <c r="H54">
-        <v>14.1</v>
+        <v>263.97000000000003</v>
       </c>
       <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="L54" t="s">
-        <v>160</v>
-      </c>
-      <c r="M54" t="s">
-        <v>161</v>
-      </c>
-      <c r="N54" t="s">
-        <v>162</v>
-      </c>
-      <c r="O54">
-        <v>1</v>
-      </c>
-      <c r="P54">
-        <v>3</v>
-      </c>
-      <c r="Q54">
-        <v>1</v>
-      </c>
-      <c r="R54">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="J54">
+        <v>-5</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -3830,22 +3821,22 @@
         <v>1</v>
       </c>
       <c r="G55">
-        <v>10.85</v>
+        <v>11.1</v>
       </c>
       <c r="H55">
-        <v>13.5</v>
+        <v>14.1</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>252</v>
+        <v>160</v>
       </c>
       <c r="M55" t="s">
-        <v>253</v>
+        <v>161</v>
       </c>
       <c r="N55" t="s">
-        <v>254</v>
+        <v>162</v>
       </c>
       <c r="O55">
         <v>1</v>
@@ -3862,16 +3853,16 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="B56">
         <v>4</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3880,22 +3871,22 @@
         <v>1</v>
       </c>
       <c r="G56">
-        <v>13.35</v>
+        <v>10.85</v>
       </c>
       <c r="H56">
-        <v>19.95</v>
+        <v>13.5</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="M56" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="N56" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="O56">
         <v>1</v>
@@ -3912,7 +3903,7 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -3930,22 +3921,22 @@
         <v>1</v>
       </c>
       <c r="G57">
-        <v>12.93</v>
+        <v>13.35</v>
       </c>
       <c r="H57">
-        <v>19.39</v>
+        <v>19.95</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="L57" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M57" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="N57" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O57">
         <v>1</v>
@@ -3962,40 +3953,40 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="B58">
         <v>4</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>21.64</v>
+        <v>12.93</v>
       </c>
       <c r="H58">
-        <v>33.299999999999997</v>
+        <v>19.39</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="L58" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="M58" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="N58" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="O58">
         <v>1</v>
@@ -4012,7 +4003,7 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59">
         <v>4</v>
@@ -4030,22 +4021,22 @@
         <v>2</v>
       </c>
       <c r="G59">
-        <v>20.93</v>
+        <v>21.64</v>
       </c>
       <c r="H59">
-        <v>32.58</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="L59" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="M59" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="N59" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="O59">
         <v>1</v>
@@ -4062,16 +4053,16 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60">
         <v>4</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -4080,22 +4071,22 @@
         <v>2</v>
       </c>
       <c r="G60">
-        <v>49.66</v>
+        <v>20.93</v>
       </c>
       <c r="H60">
-        <v>75.319999999999993</v>
+        <v>32.58</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="L60" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="M60" t="s">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c r="N60" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="O60">
         <v>1</v>
@@ -4112,7 +4103,7 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -4130,22 +4121,22 @@
         <v>2</v>
       </c>
       <c r="G61">
-        <v>44.21</v>
+        <v>49.66</v>
       </c>
       <c r="H61">
-        <v>79.14</v>
+        <v>75.319999999999993</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="L61" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M61" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="N61" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="O61">
         <v>1</v>
@@ -4162,43 +4153,40 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62">
         <v>4</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G62">
-        <v>128.83000000000001</v>
+        <v>44.21</v>
       </c>
       <c r="H62">
-        <v>176.03</v>
+        <v>79.14</v>
       </c>
       <c r="I62">
-        <v>3</v>
-      </c>
-      <c r="J62">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L62" t="s">
-        <v>389</v>
+        <v>359</v>
       </c>
       <c r="M62" t="s">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="N62" t="s">
-        <v>391</v>
+        <v>361</v>
       </c>
       <c r="O62">
         <v>1</v>
@@ -4215,7 +4203,7 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63">
         <v>4</v>
@@ -4233,10 +4221,10 @@
         <v>3</v>
       </c>
       <c r="G63">
-        <v>113.52</v>
+        <v>128.83000000000001</v>
       </c>
       <c r="H63">
-        <v>184.96</v>
+        <v>176.03</v>
       </c>
       <c r="I63">
         <v>3</v>
@@ -4245,13 +4233,13 @@
         <v>-20</v>
       </c>
       <c r="L63" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="M63" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="N63" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="O63">
         <v>1</v>
@@ -4268,7 +4256,7 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64">
         <v>4</v>
@@ -4277,7 +4265,7 @@
         <v>4</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -4286,21 +4274,42 @@
         <v>3</v>
       </c>
       <c r="G64">
-        <v>157.76</v>
+        <v>113.52</v>
       </c>
       <c r="H64">
-        <v>215.56</v>
+        <v>184.96</v>
       </c>
       <c r="I64">
         <v>3</v>
       </c>
       <c r="J64">
-        <v>-10</v>
+        <v>-20</v>
+      </c>
+      <c r="L64" t="s">
+        <v>411</v>
+      </c>
+      <c r="M64" t="s">
+        <v>412</v>
+      </c>
+      <c r="N64" t="s">
+        <v>413</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64">
+        <v>3</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+      <c r="R64">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65">
         <v>4</v>
@@ -4318,10 +4327,10 @@
         <v>3</v>
       </c>
       <c r="G65">
-        <v>139.02000000000001</v>
+        <v>157.76</v>
       </c>
       <c r="H65">
-        <v>226.49</v>
+        <v>215.56</v>
       </c>
       <c r="I65">
         <v>3</v>
@@ -4332,7 +4341,7 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66">
         <v>4</v>
@@ -4341,7 +4350,7 @@
         <v>4</v>
       </c>
       <c r="D66">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -4350,75 +4359,57 @@
         <v>3</v>
       </c>
       <c r="G66">
-        <v>193.2</v>
+        <v>139.02000000000001</v>
       </c>
       <c r="H66">
-        <v>263.97000000000003</v>
+        <v>226.49</v>
       </c>
       <c r="I66">
         <v>3</v>
       </c>
       <c r="J66">
-        <v>-5</v>
-      </c>
-      <c r="L66" t="s">
-        <v>414</v>
-      </c>
-      <c r="M66" t="s">
-        <v>415</v>
-      </c>
-      <c r="N66" t="s">
-        <v>416</v>
-      </c>
-      <c r="O66">
-        <v>1</v>
-      </c>
-      <c r="P66">
-        <v>3</v>
-      </c>
-      <c r="Q66">
-        <v>1</v>
-      </c>
-      <c r="R66">
-        <v>1</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G67">
-        <v>11.1</v>
+        <v>193.2</v>
       </c>
       <c r="H67">
-        <v>14.1</v>
+        <v>263.97000000000003</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="J67">
+        <v>-5</v>
       </c>
       <c r="L67" t="s">
-        <v>136</v>
+        <v>414</v>
       </c>
       <c r="M67" t="s">
-        <v>137</v>
+        <v>415</v>
       </c>
       <c r="N67" t="s">
-        <v>138</v>
+        <v>416</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -4435,7 +4426,7 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="B68">
         <v>5</v>
@@ -4453,22 +4444,22 @@
         <v>1</v>
       </c>
       <c r="G68">
-        <v>10.85</v>
+        <v>11.1</v>
       </c>
       <c r="H68">
-        <v>13.5</v>
+        <v>14.1</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="M68" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="N68" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="O68">
         <v>1</v>
@@ -4485,16 +4476,16 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="B69">
         <v>5</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4503,22 +4494,22 @@
         <v>1</v>
       </c>
       <c r="G69">
-        <v>13.35</v>
+        <v>10.85</v>
       </c>
       <c r="H69">
-        <v>19.95</v>
+        <v>13.5</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M69" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="N69" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="O69">
         <v>1</v>
@@ -4535,7 +4526,7 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="B70">
         <v>5</v>
@@ -4553,22 +4544,22 @@
         <v>1</v>
       </c>
       <c r="G70">
-        <v>12.93</v>
+        <v>13.35</v>
       </c>
       <c r="H70">
-        <v>19.39</v>
+        <v>19.95</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>243</v>
+        <v>157</v>
       </c>
       <c r="M70" t="s">
-        <v>244</v>
+        <v>158</v>
       </c>
       <c r="N70" t="s">
-        <v>245</v>
+        <v>159</v>
       </c>
       <c r="O70">
         <v>1</v>
@@ -4585,40 +4576,40 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="B71">
         <v>5</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>21.64</v>
+        <v>12.93</v>
       </c>
       <c r="H71">
-        <v>33.299999999999997</v>
+        <v>19.39</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M71" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N71" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="O71">
         <v>1</v>
@@ -4635,7 +4626,7 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B72">
         <v>5</v>
@@ -4653,22 +4644,22 @@
         <v>2</v>
       </c>
       <c r="G72">
-        <v>20.93</v>
+        <v>21.64</v>
       </c>
       <c r="H72">
-        <v>32.58</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M72" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="N72" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="O72">
         <v>1</v>
@@ -4685,16 +4676,16 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B73">
         <v>5</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -4703,22 +4694,22 @@
         <v>2</v>
       </c>
       <c r="G73">
-        <v>49.66</v>
+        <v>20.93</v>
       </c>
       <c r="H73">
-        <v>75.319999999999993</v>
+        <v>32.58</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="M73" t="s">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="N73" t="s">
-        <v>301</v>
+        <v>257</v>
       </c>
       <c r="O73">
         <v>1</v>
@@ -4735,7 +4726,7 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B74">
         <v>5</v>
@@ -4753,22 +4744,22 @@
         <v>2</v>
       </c>
       <c r="G74">
-        <v>44.21</v>
+        <v>49.66</v>
       </c>
       <c r="H74">
-        <v>79.14</v>
+        <v>75.319999999999993</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="M74" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="N74" t="s">
-        <v>343</v>
+        <v>301</v>
       </c>
       <c r="O74">
         <v>1</v>
@@ -4785,43 +4776,40 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B75">
         <v>5</v>
       </c>
       <c r="C75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="F75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G75">
-        <v>128.83000000000001</v>
+        <v>44.21</v>
       </c>
       <c r="H75">
-        <v>176.03</v>
+        <v>79.14</v>
       </c>
       <c r="I75">
-        <v>3</v>
-      </c>
-      <c r="J75">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M75" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="N75" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="O75">
         <v>1</v>
@@ -4838,7 +4826,7 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B76">
         <v>5</v>
@@ -4856,10 +4844,10 @@
         <v>3</v>
       </c>
       <c r="G76">
-        <v>113.52</v>
+        <v>128.83000000000001</v>
       </c>
       <c r="H76">
-        <v>184.96</v>
+        <v>176.03</v>
       </c>
       <c r="I76">
         <v>3</v>
@@ -4868,13 +4856,13 @@
         <v>-20</v>
       </c>
       <c r="L76" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="M76" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="N76" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="O76">
         <v>1</v>
@@ -4891,7 +4879,7 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B77">
         <v>5</v>
@@ -4900,7 +4888,7 @@
         <v>4</v>
       </c>
       <c r="D77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -4909,25 +4897,25 @@
         <v>3</v>
       </c>
       <c r="G77">
-        <v>157.76</v>
+        <v>113.52</v>
       </c>
       <c r="H77">
-        <v>215.56</v>
+        <v>184.96</v>
       </c>
       <c r="I77">
         <v>3</v>
       </c>
       <c r="J77">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="L77" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M77" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="N77" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="O77">
         <v>1</v>
@@ -4944,7 +4932,7 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B78">
         <v>5</v>
@@ -4962,10 +4950,10 @@
         <v>3</v>
       </c>
       <c r="G78">
-        <v>139.02000000000001</v>
+        <v>157.76</v>
       </c>
       <c r="H78">
-        <v>226.49</v>
+        <v>215.56</v>
       </c>
       <c r="I78">
         <v>3</v>
@@ -4974,13 +4962,13 @@
         <v>-10</v>
       </c>
       <c r="L78" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M78" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="N78" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="O78">
         <v>1</v>
@@ -4997,7 +4985,7 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B79">
         <v>5</v>
@@ -5006,7 +4994,7 @@
         <v>4</v>
       </c>
       <c r="D79">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -5015,25 +5003,25 @@
         <v>3</v>
       </c>
       <c r="G79">
-        <v>193.2</v>
+        <v>139.02000000000001</v>
       </c>
       <c r="H79">
-        <v>263.97000000000003</v>
+        <v>226.49</v>
       </c>
       <c r="I79">
         <v>3</v>
       </c>
       <c r="J79">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="L79" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="M79" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="N79" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="O79">
         <v>1</v>
@@ -5050,40 +5038,43 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B80">
+        <v>5</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80">
         <v>6</v>
       </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G80">
-        <v>11.1</v>
+        <v>193.2</v>
       </c>
       <c r="H80">
-        <v>14.1</v>
+        <v>263.97000000000003</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="J80">
+        <v>-5</v>
       </c>
       <c r="L80" t="s">
-        <v>163</v>
+        <v>401</v>
       </c>
       <c r="M80" t="s">
-        <v>164</v>
+        <v>402</v>
       </c>
       <c r="N80" t="s">
-        <v>165</v>
+        <v>403</v>
       </c>
       <c r="O80">
         <v>1</v>
@@ -5100,40 +5091,43 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>130</v>
+        <v>421</v>
       </c>
       <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81">
         <v>6</v>
       </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G81">
-        <v>10.85</v>
+        <v>189.5</v>
       </c>
       <c r="H81">
-        <v>13.5</v>
+        <v>272.54000000000002</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="J81">
+        <v>-5</v>
       </c>
       <c r="L81" t="s">
-        <v>311</v>
+        <v>422</v>
       </c>
       <c r="M81" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="N81" t="s">
-        <v>313</v>
+        <v>424</v>
       </c>
       <c r="O81">
         <v>1</v>
@@ -5150,16 +5144,16 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B82">
         <v>6</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -5168,22 +5162,22 @@
         <v>1</v>
       </c>
       <c r="G82">
-        <v>13.35</v>
+        <v>11.1</v>
       </c>
       <c r="H82">
-        <v>19.95</v>
+        <v>14.1</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="L82" t="s">
-        <v>314</v>
+        <v>163</v>
       </c>
       <c r="M82" t="s">
-        <v>315</v>
+        <v>164</v>
       </c>
       <c r="N82" t="s">
-        <v>316</v>
+        <v>165</v>
       </c>
       <c r="O82">
         <v>1</v>
@@ -5200,16 +5194,16 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B83">
         <v>6</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -5218,22 +5212,22 @@
         <v>1</v>
       </c>
       <c r="G83">
-        <v>12.93</v>
+        <v>10.85</v>
       </c>
       <c r="H83">
-        <v>19.39</v>
+        <v>13.5</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="L83" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="M83" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="N83" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="O83">
         <v>1</v>
@@ -5250,40 +5244,40 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B84">
         <v>6</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G84">
-        <v>21.64</v>
+        <v>13.35</v>
       </c>
       <c r="H84">
-        <v>33.299999999999997</v>
+        <v>19.95</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="L84" t="s">
-        <v>374</v>
+        <v>314</v>
       </c>
       <c r="M84" t="s">
-        <v>375</v>
+        <v>315</v>
       </c>
       <c r="N84" t="s">
-        <v>376</v>
+        <v>316</v>
       </c>
       <c r="O84">
         <v>1</v>
@@ -5300,40 +5294,40 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="B85">
         <v>6</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>20.93</v>
+        <v>12.93</v>
       </c>
       <c r="H85">
-        <v>32.58</v>
+        <v>19.39</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="L85" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="M85" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="N85" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
       <c r="O85">
         <v>1</v>
@@ -5350,16 +5344,16 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B86">
         <v>6</v>
       </c>
       <c r="C86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -5368,22 +5362,22 @@
         <v>2</v>
       </c>
       <c r="G86">
-        <v>49.66</v>
+        <v>21.64</v>
       </c>
       <c r="H86">
-        <v>75.319999999999993</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="L86" t="s">
-        <v>317</v>
+        <v>374</v>
       </c>
       <c r="M86" t="s">
-        <v>318</v>
+        <v>375</v>
       </c>
       <c r="N86" t="s">
-        <v>319</v>
+        <v>376</v>
       </c>
       <c r="O86">
         <v>1</v>
@@ -5400,16 +5394,16 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B87">
         <v>6</v>
       </c>
       <c r="C87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -5418,22 +5412,22 @@
         <v>2</v>
       </c>
       <c r="G87">
-        <v>44.21</v>
+        <v>20.93</v>
       </c>
       <c r="H87">
-        <v>79.14</v>
+        <v>32.58</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="L87" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="M87" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="N87" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="O87">
         <v>1</v>
@@ -5450,43 +5444,40 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B88">
         <v>6</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G88">
-        <v>128.83000000000001</v>
+        <v>49.66</v>
       </c>
       <c r="H88">
-        <v>176.03</v>
+        <v>75.319999999999993</v>
       </c>
       <c r="I88">
-        <v>3</v>
-      </c>
-      <c r="J88">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L88" t="s">
-        <v>398</v>
+        <v>317</v>
       </c>
       <c r="M88" t="s">
-        <v>399</v>
+        <v>318</v>
       </c>
       <c r="N88" t="s">
-        <v>400</v>
+        <v>319</v>
       </c>
       <c r="O88">
         <v>1</v>
@@ -5503,39 +5494,57 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B89">
         <v>6</v>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G89">
-        <v>113.52</v>
+        <v>44.21</v>
       </c>
       <c r="H89">
-        <v>184.96</v>
+        <v>79.14</v>
       </c>
       <c r="I89">
-        <v>3</v>
-      </c>
-      <c r="J89">
-        <v>-20</v>
+        <v>0</v>
+      </c>
+      <c r="L89" t="s">
+        <v>395</v>
+      </c>
+      <c r="M89" t="s">
+        <v>396</v>
+      </c>
+      <c r="N89" t="s">
+        <v>397</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="P89">
+        <v>3</v>
+      </c>
+      <c r="Q89">
+        <v>1</v>
+      </c>
+      <c r="R89">
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B90">
         <v>6</v>
@@ -5544,7 +5553,7 @@
         <v>4</v>
       </c>
       <c r="D90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -5553,21 +5562,42 @@
         <v>3</v>
       </c>
       <c r="G90">
-        <v>157.76</v>
+        <v>128.83000000000001</v>
       </c>
       <c r="H90">
-        <v>215.56</v>
+        <v>176.03</v>
       </c>
       <c r="I90">
         <v>3</v>
       </c>
       <c r="J90">
-        <v>-10</v>
+        <v>-20</v>
+      </c>
+      <c r="L90" t="s">
+        <v>398</v>
+      </c>
+      <c r="M90" t="s">
+        <v>399</v>
+      </c>
+      <c r="N90" t="s">
+        <v>400</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+      <c r="P90">
+        <v>3</v>
+      </c>
+      <c r="Q90">
+        <v>1</v>
+      </c>
+      <c r="R90">
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B91">
         <v>6</v>
@@ -5576,7 +5606,7 @@
         <v>4</v>
       </c>
       <c r="D91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -5585,21 +5615,21 @@
         <v>3</v>
       </c>
       <c r="G91">
-        <v>139.02000000000001</v>
+        <v>113.52</v>
       </c>
       <c r="H91">
-        <v>226.49</v>
+        <v>184.96</v>
       </c>
       <c r="I91">
         <v>3</v>
       </c>
       <c r="J91">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B92">
         <v>6</v>
@@ -5608,7 +5638,7 @@
         <v>4</v>
       </c>
       <c r="D92">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -5617,130 +5647,94 @@
         <v>3</v>
       </c>
       <c r="G92">
-        <v>193.2</v>
+        <v>157.76</v>
       </c>
       <c r="H92">
-        <v>263.97000000000003</v>
+        <v>215.56</v>
       </c>
       <c r="I92">
         <v>3</v>
       </c>
       <c r="J92">
-        <v>-5</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B93">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G93">
-        <v>11.1</v>
+        <v>139.02000000000001</v>
       </c>
       <c r="H93">
-        <v>14.1</v>
+        <v>226.49</v>
       </c>
       <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="L93" t="s">
-        <v>267</v>
-      </c>
-      <c r="M93" t="s">
-        <v>268</v>
-      </c>
-      <c r="N93" t="s">
-        <v>269</v>
-      </c>
-      <c r="O93">
-        <v>1</v>
-      </c>
-      <c r="P93">
-        <v>3</v>
-      </c>
-      <c r="Q93">
-        <v>1</v>
-      </c>
-      <c r="R93">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="J93">
+        <v>-10</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="B94">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G94">
-        <v>10.85</v>
+        <v>193.2</v>
       </c>
       <c r="H94">
-        <v>13.5</v>
+        <v>263.97000000000003</v>
       </c>
       <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="L94" t="s">
-        <v>323</v>
-      </c>
-      <c r="M94" t="s">
-        <v>324</v>
-      </c>
-      <c r="N94" t="s">
-        <v>325</v>
-      </c>
-      <c r="O94">
-        <v>1</v>
-      </c>
-      <c r="P94">
-        <v>3</v>
-      </c>
-      <c r="Q94">
-        <v>1</v>
-      </c>
-      <c r="R94">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="J94">
+        <v>-5</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B95">
         <v>7</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -5749,22 +5743,22 @@
         <v>1</v>
       </c>
       <c r="G95">
-        <v>13.35</v>
+        <v>11.1</v>
       </c>
       <c r="H95">
-        <v>19.95</v>
+        <v>14.1</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="M95" t="s">
-        <v>330</v>
+        <v>268</v>
       </c>
       <c r="N95" t="s">
-        <v>331</v>
+        <v>269</v>
       </c>
       <c r="O95">
         <v>1</v>
@@ -5781,16 +5775,16 @@
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B96">
         <v>7</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -5799,22 +5793,22 @@
         <v>1</v>
       </c>
       <c r="G96">
-        <v>12.93</v>
+        <v>10.85</v>
       </c>
       <c r="H96">
-        <v>19.39</v>
+        <v>13.5</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>368</v>
+        <v>323</v>
       </c>
       <c r="M96" t="s">
-        <v>369</v>
+        <v>324</v>
       </c>
       <c r="N96" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
       <c r="O96">
         <v>1</v>
@@ -5831,40 +5825,40 @@
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B97">
         <v>7</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E97">
         <v>1</v>
       </c>
       <c r="F97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G97">
-        <v>21.64</v>
+        <v>13.35</v>
       </c>
       <c r="H97">
-        <v>33.299999999999997</v>
+        <v>19.95</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="L97" t="s">
-        <v>371</v>
+        <v>329</v>
       </c>
       <c r="M97" t="s">
-        <v>372</v>
+        <v>330</v>
       </c>
       <c r="N97" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
       <c r="O97">
         <v>1</v>
@@ -5881,45 +5875,66 @@
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="B98">
         <v>7</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
       <c r="F98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G98">
-        <v>20.93</v>
+        <v>12.93</v>
       </c>
       <c r="H98">
-        <v>32.58</v>
+        <v>19.39</v>
       </c>
       <c r="I98">
         <v>0</v>
+      </c>
+      <c r="L98" t="s">
+        <v>368</v>
+      </c>
+      <c r="M98" t="s">
+        <v>369</v>
+      </c>
+      <c r="N98" t="s">
+        <v>370</v>
+      </c>
+      <c r="O98">
+        <v>1</v>
+      </c>
+      <c r="P98">
+        <v>3</v>
+      </c>
+      <c r="Q98">
+        <v>1</v>
+      </c>
+      <c r="R98">
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B99">
         <v>7</v>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -5928,27 +5943,48 @@
         <v>2</v>
       </c>
       <c r="G99">
-        <v>49.66</v>
+        <v>21.64</v>
       </c>
       <c r="H99">
-        <v>75.319999999999993</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="I99">
         <v>0</v>
+      </c>
+      <c r="L99" t="s">
+        <v>371</v>
+      </c>
+      <c r="M99" t="s">
+        <v>372</v>
+      </c>
+      <c r="N99" t="s">
+        <v>373</v>
+      </c>
+      <c r="O99">
+        <v>1</v>
+      </c>
+      <c r="P99">
+        <v>3</v>
+      </c>
+      <c r="Q99">
+        <v>1</v>
+      </c>
+      <c r="R99">
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B100">
         <v>7</v>
       </c>
       <c r="C100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -5957,10 +5993,10 @@
         <v>2</v>
       </c>
       <c r="G100">
-        <v>44.21</v>
+        <v>20.93</v>
       </c>
       <c r="H100">
-        <v>79.14</v>
+        <v>32.58</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -5968,92 +6004,65 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B101">
         <v>7</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
       <c r="F101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G101">
-        <v>128.83000000000001</v>
+        <v>49.66</v>
       </c>
       <c r="H101">
-        <v>176.03</v>
+        <v>75.319999999999993</v>
       </c>
       <c r="I101">
-        <v>3</v>
-      </c>
-      <c r="J101">
-        <v>-20</v>
-      </c>
-      <c r="L101" t="s">
-        <v>172</v>
-      </c>
-      <c r="M101" t="s">
-        <v>173</v>
-      </c>
-      <c r="N101" t="s">
-        <v>174</v>
-      </c>
-      <c r="O101">
-        <v>3</v>
-      </c>
-      <c r="P101">
-        <v>2</v>
-      </c>
-      <c r="Q101">
-        <v>40</v>
-      </c>
-      <c r="R101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B102">
         <v>7</v>
       </c>
       <c r="C102">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D102">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E102">
         <v>1</v>
       </c>
       <c r="F102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G102">
-        <v>113.52</v>
+        <v>44.21</v>
       </c>
       <c r="H102">
-        <v>184.96</v>
+        <v>79.14</v>
       </c>
       <c r="I102">
-        <v>3</v>
-      </c>
-      <c r="J102">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B103">
         <v>7</v>
@@ -6062,7 +6071,7 @@
         <v>4</v>
       </c>
       <c r="D103">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -6071,21 +6080,42 @@
         <v>3</v>
       </c>
       <c r="G103">
-        <v>157.76</v>
+        <v>128.83000000000001</v>
       </c>
       <c r="H103">
-        <v>215.56</v>
+        <v>176.03</v>
       </c>
       <c r="I103">
         <v>3</v>
       </c>
       <c r="J103">
-        <v>-10</v>
+        <v>-20</v>
+      </c>
+      <c r="L103" t="s">
+        <v>172</v>
+      </c>
+      <c r="M103" t="s">
+        <v>173</v>
+      </c>
+      <c r="N103" t="s">
+        <v>174</v>
+      </c>
+      <c r="O103">
+        <v>3</v>
+      </c>
+      <c r="P103">
+        <v>2</v>
+      </c>
+      <c r="Q103">
+        <v>40</v>
+      </c>
+      <c r="R103">
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B104">
         <v>7</v>
@@ -6094,7 +6124,7 @@
         <v>4</v>
       </c>
       <c r="D104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -6103,21 +6133,21 @@
         <v>3</v>
       </c>
       <c r="G104">
-        <v>139.02000000000001</v>
+        <v>113.52</v>
       </c>
       <c r="H104">
-        <v>226.49</v>
+        <v>184.96</v>
       </c>
       <c r="I104">
         <v>3</v>
       </c>
       <c r="J104">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B105">
         <v>7</v>
@@ -6126,7 +6156,7 @@
         <v>4</v>
       </c>
       <c r="D105">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -6135,130 +6165,94 @@
         <v>3</v>
       </c>
       <c r="G105">
-        <v>193.2</v>
+        <v>157.76</v>
       </c>
       <c r="H105">
-        <v>263.97000000000003</v>
+        <v>215.56</v>
       </c>
       <c r="I105">
         <v>3</v>
       </c>
       <c r="J105">
-        <v>-5</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B106">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G106">
-        <v>11.1</v>
+        <v>139.02000000000001</v>
       </c>
       <c r="H106">
-        <v>14.1</v>
+        <v>226.49</v>
       </c>
       <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="L106" t="s">
-        <v>139</v>
-      </c>
-      <c r="M106" t="s">
-        <v>140</v>
-      </c>
-      <c r="N106" t="s">
-        <v>141</v>
-      </c>
-      <c r="O106">
-        <v>1</v>
-      </c>
-      <c r="P106">
-        <v>3</v>
-      </c>
-      <c r="Q106">
-        <v>1</v>
-      </c>
-      <c r="R106">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="J106">
+        <v>-10</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="B107">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G107">
-        <v>10.85</v>
+        <v>193.2</v>
       </c>
       <c r="H107">
-        <v>13.5</v>
+        <v>263.97000000000003</v>
       </c>
       <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="L107" t="s">
-        <v>142</v>
-      </c>
-      <c r="M107" t="s">
-        <v>143</v>
-      </c>
-      <c r="N107" t="s">
-        <v>144</v>
-      </c>
-      <c r="O107">
-        <v>1</v>
-      </c>
-      <c r="P107">
-        <v>3</v>
-      </c>
-      <c r="Q107">
-        <v>1</v>
-      </c>
-      <c r="R107">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="J107">
+        <v>-5</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B108">
         <v>8</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -6267,28 +6261,28 @@
         <v>1</v>
       </c>
       <c r="G108">
-        <v>13.35</v>
+        <v>11.1</v>
       </c>
       <c r="H108">
-        <v>19.95</v>
+        <v>14.1</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="L108" t="s">
-        <v>272</v>
+        <v>139</v>
       </c>
       <c r="M108" t="s">
-        <v>273</v>
+        <v>140</v>
       </c>
       <c r="N108" t="s">
-        <v>274</v>
+        <v>141</v>
       </c>
       <c r="O108">
         <v>1</v>
       </c>
       <c r="P108">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -6299,16 +6293,16 @@
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B109">
         <v>8</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -6317,28 +6311,28 @@
         <v>1</v>
       </c>
       <c r="G109">
-        <v>12.93</v>
+        <v>10.85</v>
       </c>
       <c r="H109">
-        <v>19.39</v>
+        <v>13.5</v>
       </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>287</v>
+        <v>142</v>
       </c>
       <c r="M109" t="s">
-        <v>288</v>
+        <v>143</v>
       </c>
       <c r="N109" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
       <c r="O109">
         <v>1</v>
       </c>
       <c r="P109">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q109">
         <v>1</v>
@@ -6349,40 +6343,40 @@
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B110">
         <v>8</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
       <c r="F110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G110">
-        <v>21.64</v>
+        <v>13.35</v>
       </c>
       <c r="H110">
-        <v>33.299999999999997</v>
+        <v>19.95</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="M110" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="N110" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="O110">
         <v>1</v>
@@ -6399,40 +6393,40 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="B111">
         <v>8</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="F111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G111">
-        <v>20.93</v>
+        <v>12.93</v>
       </c>
       <c r="H111">
-        <v>32.58</v>
+        <v>19.39</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>356</v>
+        <v>287</v>
       </c>
       <c r="M111" t="s">
-        <v>357</v>
+        <v>288</v>
       </c>
       <c r="N111" t="s">
-        <v>358</v>
+        <v>289</v>
       </c>
       <c r="O111">
         <v>1</v>
@@ -6449,16 +6443,16 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B112">
         <v>8</v>
       </c>
       <c r="C112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -6467,22 +6461,22 @@
         <v>2</v>
       </c>
       <c r="G112">
-        <v>49.66</v>
+        <v>21.64</v>
       </c>
       <c r="H112">
-        <v>75.319999999999993</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>386</v>
+        <v>308</v>
       </c>
       <c r="M112" t="s">
-        <v>387</v>
+        <v>309</v>
       </c>
       <c r="N112" t="s">
-        <v>388</v>
+        <v>310</v>
       </c>
       <c r="O112">
         <v>1</v>
@@ -6499,16 +6493,16 @@
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B113">
         <v>8</v>
       </c>
       <c r="C113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -6517,22 +6511,22 @@
         <v>2</v>
       </c>
       <c r="G113">
-        <v>44.21</v>
+        <v>20.93</v>
       </c>
       <c r="H113">
-        <v>79.14</v>
+        <v>32.58</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="M113" t="s">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="N113" t="s">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="O113">
         <v>1</v>
@@ -6549,43 +6543,40 @@
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B114">
         <v>8</v>
       </c>
       <c r="C114">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D114">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E114">
         <v>0</v>
       </c>
       <c r="F114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G114">
-        <v>128.83000000000001</v>
+        <v>49.66</v>
       </c>
       <c r="H114">
-        <v>176.03</v>
+        <v>75.319999999999993</v>
       </c>
       <c r="I114">
-        <v>3</v>
-      </c>
-      <c r="J114">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L114" t="s">
-        <v>335</v>
+        <v>386</v>
       </c>
       <c r="M114" t="s">
-        <v>336</v>
+        <v>387</v>
       </c>
       <c r="N114" t="s">
-        <v>337</v>
+        <v>388</v>
       </c>
       <c r="O114">
         <v>1</v>
@@ -6602,43 +6593,40 @@
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B115">
         <v>8</v>
       </c>
       <c r="C115">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D115">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E115">
         <v>0</v>
       </c>
       <c r="F115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G115">
-        <v>113.52</v>
+        <v>44.21</v>
       </c>
       <c r="H115">
-        <v>184.96</v>
+        <v>79.14</v>
       </c>
       <c r="I115">
-        <v>3</v>
-      </c>
-      <c r="J115">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L115" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="M115" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="N115" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="O115">
         <v>1</v>
@@ -6655,7 +6643,7 @@
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B116">
         <v>8</v>
@@ -6664,7 +6652,7 @@
         <v>4</v>
       </c>
       <c r="D116">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -6673,21 +6661,42 @@
         <v>3</v>
       </c>
       <c r="G116">
-        <v>157.76</v>
+        <v>128.83000000000001</v>
       </c>
       <c r="H116">
-        <v>215.56</v>
+        <v>176.03</v>
       </c>
       <c r="I116">
         <v>3</v>
       </c>
       <c r="J116">
-        <v>-10</v>
+        <v>-20</v>
+      </c>
+      <c r="L116" t="s">
+        <v>335</v>
+      </c>
+      <c r="M116" t="s">
+        <v>336</v>
+      </c>
+      <c r="N116" t="s">
+        <v>337</v>
+      </c>
+      <c r="O116">
+        <v>1</v>
+      </c>
+      <c r="P116">
+        <v>4</v>
+      </c>
+      <c r="Q116">
+        <v>1</v>
+      </c>
+      <c r="R116">
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B117">
         <v>8</v>
@@ -6696,7 +6705,7 @@
         <v>4</v>
       </c>
       <c r="D117">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -6705,21 +6714,42 @@
         <v>3</v>
       </c>
       <c r="G117">
-        <v>139.02000000000001</v>
+        <v>113.52</v>
       </c>
       <c r="H117">
-        <v>226.49</v>
+        <v>184.96</v>
       </c>
       <c r="I117">
         <v>3</v>
       </c>
       <c r="J117">
-        <v>-10</v>
+        <v>-20</v>
+      </c>
+      <c r="L117" t="s">
+        <v>392</v>
+      </c>
+      <c r="M117" t="s">
+        <v>393</v>
+      </c>
+      <c r="N117" t="s">
+        <v>394</v>
+      </c>
+      <c r="O117">
+        <v>1</v>
+      </c>
+      <c r="P117">
+        <v>4</v>
+      </c>
+      <c r="Q117">
+        <v>1</v>
+      </c>
+      <c r="R117">
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B118">
         <v>8</v>
@@ -6728,45 +6758,109 @@
         <v>4</v>
       </c>
       <c r="D118">
+        <v>5</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>3</v>
+      </c>
+      <c r="G118">
+        <v>157.76</v>
+      </c>
+      <c r="H118">
+        <v>215.56</v>
+      </c>
+      <c r="I118">
+        <v>3</v>
+      </c>
+      <c r="J118">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>107</v>
+      </c>
+      <c r="B119">
+        <v>8</v>
+      </c>
+      <c r="C119">
+        <v>4</v>
+      </c>
+      <c r="D119">
+        <v>5</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>3</v>
+      </c>
+      <c r="G119">
+        <v>139.02000000000001</v>
+      </c>
+      <c r="H119">
+        <v>226.49</v>
+      </c>
+      <c r="I119">
+        <v>3</v>
+      </c>
+      <c r="J119">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>108</v>
+      </c>
+      <c r="B120">
+        <v>8</v>
+      </c>
+      <c r="C120">
+        <v>4</v>
+      </c>
+      <c r="D120">
         <v>6</v>
       </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
-      <c r="F118">
-        <v>3</v>
-      </c>
-      <c r="G118">
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>3</v>
+      </c>
+      <c r="G120">
         <v>193.2</v>
       </c>
-      <c r="H118">
+      <c r="H120">
         <v>263.97000000000003</v>
       </c>
-      <c r="I118">
-        <v>3</v>
-      </c>
-      <c r="J118">
+      <c r="I120">
+        <v>3</v>
+      </c>
+      <c r="J120">
         <v>-5</v>
       </c>
-      <c r="L118" t="s">
-        <v>417</v>
-      </c>
-      <c r="M118" t="s">
+      <c r="L120" t="s">
         <v>418</v>
       </c>
-      <c r="N118" t="s">
+      <c r="M120" t="s">
         <v>419</v>
       </c>
-      <c r="O118">
-        <v>1</v>
-      </c>
-      <c r="P118">
+      <c r="N120" t="s">
+        <v>420</v>
+      </c>
+      <c r="O120">
+        <v>1</v>
+      </c>
+      <c r="P120">
         <v>4</v>
       </c>
-      <c r="Q118">
-        <v>1</v>
-      </c>
-      <c r="R118">
+      <c r="Q120">
+        <v>1</v>
+      </c>
+      <c r="R120">
         <v>1</v>
       </c>
     </row>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50013E5-52ED-4715-814C-EB913E7EA95C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6747AE57-750D-4284-9A4D-D20E8A494242}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="428">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1312,6 +1312,15 @@
   </si>
   <si>
     <t>EquipName_ArsenalSword</t>
+  </si>
+  <si>
+    <t>ArsenalStaff</t>
+  </si>
+  <si>
+    <t>Shot_ArsenalStaff</t>
+  </si>
+  <si>
+    <t>EquipName_ArsenalStaff</t>
   </si>
 </sst>
 </file>
@@ -3800,6 +3809,27 @@
       <c r="J54">
         <v>-5</v>
       </c>
+      <c r="L54" t="s">
+        <v>425</v>
+      </c>
+      <c r="M54" t="s">
+        <v>426</v>
+      </c>
+      <c r="N54" t="s">
+        <v>427</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <v>3</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6747AE57-750D-4284-9A4D-D20E8A494242}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57A0987-B4E0-4495-B072-3213EF82447B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="431">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1321,6 +1321,15 @@
   </si>
   <si>
     <t>EquipName_ArsenalStaff</t>
+  </si>
+  <si>
+    <t>ArsenalShield</t>
+  </si>
+  <si>
+    <t>Shot_ArsenalShield</t>
+  </si>
+  <si>
+    <t>EquipName_ArsenalShield</t>
   </si>
 </sst>
 </file>
@@ -6174,6 +6183,27 @@
       <c r="J104">
         <v>-20</v>
       </c>
+      <c r="L104" t="s">
+        <v>428</v>
+      </c>
+      <c r="M104" t="s">
+        <v>429</v>
+      </c>
+      <c r="N104" t="s">
+        <v>430</v>
+      </c>
+      <c r="O104">
+        <v>1</v>
+      </c>
+      <c r="P104">
+        <v>3</v>
+      </c>
+      <c r="Q104">
+        <v>1</v>
+      </c>
+      <c r="R104">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" t="s">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57A0987-B4E0-4495-B072-3213EF82447B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB664A22-6E1C-4305-A8D8-E913BBFE8FF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="434">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1330,6 +1330,15 @@
   </si>
   <si>
     <t>EquipName_ArsenalShield</t>
+  </si>
+  <si>
+    <t>ArsenalBigShield</t>
+  </si>
+  <si>
+    <t>Shot_ArsenalBigShield</t>
+  </si>
+  <si>
+    <t>EquipName_ArsenalBigShield</t>
   </si>
 </sst>
 </file>
@@ -6300,6 +6309,27 @@
       <c r="J107">
         <v>-5</v>
       </c>
+      <c r="L107" t="s">
+        <v>431</v>
+      </c>
+      <c r="M107" t="s">
+        <v>432</v>
+      </c>
+      <c r="N107" t="s">
+        <v>433</v>
+      </c>
+      <c r="O107">
+        <v>1</v>
+      </c>
+      <c r="P107">
+        <v>3</v>
+      </c>
+      <c r="Q107">
+        <v>1</v>
+      </c>
+      <c r="R107">
+        <v>1</v>
+      </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" t="s">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB664A22-6E1C-4305-A8D8-E913BBFE8FF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30C1F93-B5AE-4BF5-8613-E414B468F96C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="437">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1339,6 +1339,15 @@
   </si>
   <si>
     <t>EquipName_ArsenalBigShield</t>
+  </si>
+  <si>
+    <t>ChainShield</t>
+  </si>
+  <si>
+    <t>Shot_ChainShield</t>
+  </si>
+  <si>
+    <t>EquipName_ChainShield</t>
   </si>
 </sst>
 </file>
@@ -6277,6 +6286,27 @@
       <c r="J106">
         <v>-10</v>
       </c>
+      <c r="L106" t="s">
+        <v>434</v>
+      </c>
+      <c r="M106" t="s">
+        <v>435</v>
+      </c>
+      <c r="N106" t="s">
+        <v>436</v>
+      </c>
+      <c r="O106">
+        <v>1</v>
+      </c>
+      <c r="P106">
+        <v>3</v>
+      </c>
+      <c r="Q106">
+        <v>1</v>
+      </c>
+      <c r="R106">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" t="s">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30C1F93-B5AE-4BF5-8613-E414B468F96C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB33BFE-C198-4850-B4F2-01484F2F9460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="459">
   <si>
     <t>Equip0001</t>
   </si>
@@ -447,15 +447,6 @@
     <t>Equip8102</t>
   </si>
   <si>
-    <t>KenSword</t>
-  </si>
-  <si>
-    <t>Shot_KenSword</t>
-  </si>
-  <si>
-    <t>EquipName_KenSword</t>
-  </si>
-  <si>
     <t>FrozenNightSword</t>
   </si>
   <si>
@@ -936,15 +927,6 @@
     <t>EquipName_MeleeHammer</t>
   </si>
   <si>
-    <t>MeleeMachete</t>
-  </si>
-  <si>
-    <t>Shot_MeleeMachete</t>
-  </si>
-  <si>
-    <t>EquipName_MeleeMachete</t>
-  </si>
-  <si>
     <t>MetalStaff</t>
   </si>
   <si>
@@ -1071,15 +1053,6 @@
     <t>EquipName_ElvenSword</t>
   </si>
   <si>
-    <t>SunSword</t>
-  </si>
-  <si>
-    <t>Shot_SunSword</t>
-  </si>
-  <si>
-    <t>EquipName_SunSword</t>
-  </si>
-  <si>
     <t>ElvenBow</t>
   </si>
   <si>
@@ -1179,15 +1152,6 @@
     <t>EquipName_BubbleBlaster</t>
   </si>
   <si>
-    <t>FierySword</t>
-  </si>
-  <si>
-    <t>Shot_FierySword</t>
-  </si>
-  <si>
-    <t>EquipName_FierySword</t>
-  </si>
-  <si>
     <t>MoonSword</t>
   </si>
   <si>
@@ -1290,9 +1254,6 @@
     <t>EquipName_ArsenalHammer</t>
   </si>
   <si>
-    <t>Equip0406</t>
-  </si>
-  <si>
     <t>ArsenalBigSword</t>
   </si>
   <si>
@@ -1302,9 +1263,6 @@
     <t>EquipName_ArsenalBigSword</t>
   </si>
   <si>
-    <t>Equip5406</t>
-  </si>
-  <si>
     <t>ArsenalSword</t>
   </si>
   <si>
@@ -1348,6 +1306,114 @@
   </si>
   <si>
     <t>EquipName_ChainShield</t>
+  </si>
+  <si>
+    <t>FourMaker11</t>
+  </si>
+  <si>
+    <t>Shot_FourMaker11</t>
+  </si>
+  <si>
+    <t>EquipName_FourMaker11</t>
+  </si>
+  <si>
+    <t>FourMaker22</t>
+  </si>
+  <si>
+    <t>Shot_FourMaker22</t>
+  </si>
+  <si>
+    <t>EquipName_FourMaker22</t>
+  </si>
+  <si>
+    <t>FourMaker31</t>
+  </si>
+  <si>
+    <t>Shot_FourMaker31</t>
+  </si>
+  <si>
+    <t>EquipName_FourMaker31</t>
+  </si>
+  <si>
+    <t>FourMaker59</t>
+  </si>
+  <si>
+    <t>Shot_FourMaker59</t>
+  </si>
+  <si>
+    <t>EquipName_FourMaker59</t>
+  </si>
+  <si>
+    <t>FourMaker75</t>
+  </si>
+  <si>
+    <t>Shot_FourMaker75</t>
+  </si>
+  <si>
+    <t>EquipName_FourMaker75</t>
+  </si>
+  <si>
+    <t>FourMaker83</t>
+  </si>
+  <si>
+    <t>Shot_FourMaker83</t>
+  </si>
+  <si>
+    <t>EquipName_FourMaker83</t>
+  </si>
+  <si>
+    <t>FourMaker84</t>
+  </si>
+  <si>
+    <t>Shot_FourMaker84</t>
+  </si>
+  <si>
+    <t>EquipName_FourMaker84</t>
+  </si>
+  <si>
+    <t>FourMaker94</t>
+  </si>
+  <si>
+    <t>Shot_FourMaker94</t>
+  </si>
+  <si>
+    <t>EquipName_FourMaker94</t>
+  </si>
+  <si>
+    <t>FourMaker97</t>
+  </si>
+  <si>
+    <t>Shot_FourMaker97</t>
+  </si>
+  <si>
+    <t>EquipName_FourMaker97</t>
+  </si>
+  <si>
+    <t>FourMaker129</t>
+  </si>
+  <si>
+    <t>Shot_FourMaker129</t>
+  </si>
+  <si>
+    <t>EquipName_FourMaker129</t>
+  </si>
+  <si>
+    <t>FourMaker152</t>
+  </si>
+  <si>
+    <t>Shot_FourMaker152</t>
+  </si>
+  <si>
+    <t>EquipName_FourMaker152</t>
+  </si>
+  <si>
+    <t>FourMaker140</t>
+  </si>
+  <si>
+    <t>Shot_FourMaker140</t>
+  </si>
+  <si>
+    <t>EquipName_FourMaker140</t>
   </si>
 </sst>
 </file>
@@ -1714,7 +1780,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
-  <dimension ref="A1:R120"/>
+  <dimension ref="A1:R118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1736,7 +1802,7 @@
         <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E1" t="s">
         <v>31</v>
@@ -1769,16 +1835,16 @@
         <v>115</v>
       </c>
       <c r="O1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="R1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -1860,13 +1926,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -1910,13 +1976,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -1960,13 +2026,13 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="N5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -2010,13 +2076,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="N6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -2060,13 +2126,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -2110,13 +2176,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -2160,13 +2226,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M9" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="N9" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -2213,13 +2279,13 @@
         <v>-20</v>
       </c>
       <c r="L10" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="M10" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="N10" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -2266,13 +2332,13 @@
         <v>-20</v>
       </c>
       <c r="L11" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M11" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="N11" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -2319,13 +2385,13 @@
         <v>-10</v>
       </c>
       <c r="L12" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="M12" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="N12" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -2372,13 +2438,13 @@
         <v>-10</v>
       </c>
       <c r="L13" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="M13" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="N13" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -2425,13 +2491,13 @@
         <v>-5</v>
       </c>
       <c r="L14" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="M14" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="N14" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -2448,33 +2514,57 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>417</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>11.1</v>
+      </c>
+      <c r="H15">
+        <v>14.1</v>
       </c>
       <c r="I15">
-        <v>3</v>
-      </c>
-      <c r="J15">
-        <v>-5</v>
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>145</v>
+      </c>
+      <c r="M15" t="s">
+        <v>146</v>
+      </c>
+      <c r="N15" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2492,22 +2582,22 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.1</v>
+        <v>10.85</v>
       </c>
       <c r="H16">
-        <v>14.1</v>
+        <v>13.5</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="M16" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="N16" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -2524,16 +2614,16 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2542,22 +2632,22 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.85</v>
+        <v>13.35</v>
       </c>
       <c r="H17">
-        <v>13.5</v>
+        <v>19.95</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>175</v>
+        <v>261</v>
       </c>
       <c r="M17" t="s">
-        <v>176</v>
+        <v>262</v>
       </c>
       <c r="N17" t="s">
-        <v>177</v>
+        <v>263</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -2574,7 +2664,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2592,22 +2682,22 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.35</v>
+        <v>12.93</v>
       </c>
       <c r="H18">
-        <v>19.95</v>
+        <v>19.39</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="M18" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="N18" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -2624,40 +2714,40 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>12.93</v>
+        <v>21.64</v>
       </c>
       <c r="H19">
-        <v>19.39</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>305</v>
+        <v>438</v>
       </c>
       <c r="M19" t="s">
-        <v>306</v>
+        <v>439</v>
       </c>
       <c r="N19" t="s">
-        <v>307</v>
+        <v>440</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -2674,7 +2764,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2692,27 +2782,48 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <v>21.64</v>
+        <v>20.93</v>
       </c>
       <c r="H20">
-        <v>33.299999999999997</v>
+        <v>32.58</v>
       </c>
       <c r="I20">
         <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>432</v>
+      </c>
+      <c r="M20" t="s">
+        <v>433</v>
+      </c>
+      <c r="N20" t="s">
+        <v>434</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2721,18 +2832,39 @@
         <v>2</v>
       </c>
       <c r="G21">
-        <v>20.93</v>
+        <v>49.66</v>
       </c>
       <c r="H21">
-        <v>32.58</v>
+        <v>75.319999999999993</v>
       </c>
       <c r="I21">
         <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>435</v>
+      </c>
+      <c r="M21" t="s">
+        <v>436</v>
+      </c>
+      <c r="N21" t="s">
+        <v>437</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>3</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2750,47 +2882,92 @@
         <v>2</v>
       </c>
       <c r="G22">
-        <v>49.66</v>
+        <v>44.21</v>
       </c>
       <c r="H22">
-        <v>75.319999999999993</v>
+        <v>79.14</v>
       </c>
       <c r="I22">
         <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>429</v>
+      </c>
+      <c r="M22" t="s">
+        <v>430</v>
+      </c>
+      <c r="N22" t="s">
+        <v>431</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>3</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23">
-        <v>44.21</v>
+        <v>128.83000000000001</v>
       </c>
       <c r="H23">
-        <v>79.14</v>
+        <v>176.03</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>-20</v>
+      </c>
+      <c r="L23" t="s">
+        <v>441</v>
+      </c>
+      <c r="M23" t="s">
+        <v>442</v>
+      </c>
+      <c r="N23" t="s">
+        <v>443</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>3</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2808,10 +2985,10 @@
         <v>3</v>
       </c>
       <c r="G24">
-        <v>128.83000000000001</v>
+        <v>113.52</v>
       </c>
       <c r="H24">
-        <v>176.03</v>
+        <v>184.96</v>
       </c>
       <c r="I24">
         <v>3</v>
@@ -2819,10 +2996,31 @@
       <c r="J24">
         <v>-20</v>
       </c>
+      <c r="L24" t="s">
+        <v>444</v>
+      </c>
+      <c r="M24" t="s">
+        <v>445</v>
+      </c>
+      <c r="N24" t="s">
+        <v>446</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>3</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2831,7 +3029,7 @@
         <v>4</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2840,21 +3038,42 @@
         <v>3</v>
       </c>
       <c r="G25">
-        <v>113.52</v>
+        <v>157.76</v>
       </c>
       <c r="H25">
-        <v>184.96</v>
+        <v>215.56</v>
       </c>
       <c r="I25">
         <v>3</v>
       </c>
       <c r="J25">
-        <v>-20</v>
+        <v>-10</v>
+      </c>
+      <c r="L25" t="s">
+        <v>447</v>
+      </c>
+      <c r="M25" t="s">
+        <v>448</v>
+      </c>
+      <c r="N25" t="s">
+        <v>449</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>3</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2872,10 +3091,10 @@
         <v>3</v>
       </c>
       <c r="G26">
-        <v>157.76</v>
+        <v>139.02000000000001</v>
       </c>
       <c r="H26">
-        <v>215.56</v>
+        <v>226.49</v>
       </c>
       <c r="I26">
         <v>3</v>
@@ -2883,10 +3102,31 @@
       <c r="J26">
         <v>-10</v>
       </c>
+      <c r="L26" t="s">
+        <v>450</v>
+      </c>
+      <c r="M26" t="s">
+        <v>451</v>
+      </c>
+      <c r="N26" t="s">
+        <v>452</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>3</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2895,7 +3135,7 @@
         <v>4</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2904,53 +3144,71 @@
         <v>3</v>
       </c>
       <c r="G27">
-        <v>139.02000000000001</v>
+        <v>193.2</v>
       </c>
       <c r="H27">
-        <v>226.49</v>
+        <v>263.97000000000003</v>
       </c>
       <c r="I27">
         <v>3</v>
       </c>
       <c r="J27">
-        <v>-10</v>
+        <v>-5</v>
+      </c>
+      <c r="L27" t="s">
+        <v>426</v>
+      </c>
+      <c r="M27" t="s">
+        <v>427</v>
+      </c>
+      <c r="N27" t="s">
+        <v>428</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>3</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>193.2</v>
+        <v>11.1</v>
       </c>
       <c r="H28">
-        <v>263.97000000000003</v>
+        <v>14.1</v>
       </c>
       <c r="I28">
-        <v>3</v>
-      </c>
-      <c r="J28">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -2968,10 +3226,10 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>11.1</v>
+        <v>10.85</v>
       </c>
       <c r="H29">
-        <v>14.1</v>
+        <v>13.5</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2979,16 +3237,16 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2997,10 +3255,10 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>10.85</v>
+        <v>13.35</v>
       </c>
       <c r="H30">
-        <v>13.5</v>
+        <v>19.95</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -3008,7 +3266,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -3026,10 +3284,10 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>13.35</v>
+        <v>12.93</v>
       </c>
       <c r="H31">
-        <v>19.95</v>
+        <v>19.39</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3037,28 +3295,28 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32">
-        <v>12.93</v>
+        <v>21.64</v>
       </c>
       <c r="H32">
-        <v>19.39</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -3066,7 +3324,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -3084,10 +3342,10 @@
         <v>2</v>
       </c>
       <c r="G33">
-        <v>21.64</v>
+        <v>20.93</v>
       </c>
       <c r="H33">
-        <v>33.299999999999997</v>
+        <v>32.58</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3095,16 +3353,16 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -3113,18 +3371,39 @@
         <v>2</v>
       </c>
       <c r="G34">
-        <v>20.93</v>
+        <v>49.66</v>
       </c>
       <c r="H34">
-        <v>32.58</v>
+        <v>75.319999999999993</v>
       </c>
       <c r="I34">
         <v>0</v>
+      </c>
+      <c r="L34" t="s">
+        <v>166</v>
+      </c>
+      <c r="M34" t="s">
+        <v>167</v>
+      </c>
+      <c r="N34" t="s">
+        <v>168</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>4</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -3142,68 +3421,71 @@
         <v>2</v>
       </c>
       <c r="G35">
-        <v>49.66</v>
+        <v>44.21</v>
       </c>
       <c r="H35">
-        <v>75.319999999999993</v>
+        <v>79.14</v>
       </c>
       <c r="I35">
         <v>0</v>
-      </c>
-      <c r="L35" t="s">
-        <v>169</v>
-      </c>
-      <c r="M35" t="s">
-        <v>170</v>
-      </c>
-      <c r="N35" t="s">
-        <v>171</v>
-      </c>
-      <c r="O35">
-        <v>1</v>
-      </c>
-      <c r="P35">
-        <v>4</v>
-      </c>
-      <c r="Q35">
-        <v>1</v>
-      </c>
-      <c r="R35">
-        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G36">
-        <v>44.21</v>
+        <v>128.83000000000001</v>
       </c>
       <c r="H36">
-        <v>79.14</v>
+        <v>176.03</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>-20</v>
+      </c>
+      <c r="L36" t="s">
+        <v>338</v>
+      </c>
+      <c r="M36" t="s">
+        <v>342</v>
+      </c>
+      <c r="N36" t="s">
+        <v>343</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>4</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -3221,10 +3503,10 @@
         <v>3</v>
       </c>
       <c r="G37">
-        <v>128.83000000000001</v>
+        <v>113.52</v>
       </c>
       <c r="H37">
-        <v>176.03</v>
+        <v>184.96</v>
       </c>
       <c r="I37">
         <v>3</v>
@@ -3232,31 +3514,10 @@
       <c r="J37">
         <v>-20</v>
       </c>
-      <c r="L37" t="s">
-        <v>347</v>
-      </c>
-      <c r="M37" t="s">
-        <v>351</v>
-      </c>
-      <c r="N37" t="s">
-        <v>352</v>
-      </c>
-      <c r="O37">
-        <v>1</v>
-      </c>
-      <c r="P37">
-        <v>4</v>
-      </c>
-      <c r="Q37">
-        <v>1</v>
-      </c>
-      <c r="R37">
-        <v>1</v>
-      </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -3265,7 +3526,7 @@
         <v>4</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -3274,21 +3535,21 @@
         <v>3</v>
       </c>
       <c r="G38">
-        <v>113.52</v>
+        <v>157.76</v>
       </c>
       <c r="H38">
-        <v>184.96</v>
+        <v>215.56</v>
       </c>
       <c r="I38">
         <v>3</v>
       </c>
       <c r="J38">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -3306,10 +3567,10 @@
         <v>3</v>
       </c>
       <c r="G39">
-        <v>157.76</v>
+        <v>139.02000000000001</v>
       </c>
       <c r="H39">
-        <v>215.56</v>
+        <v>226.49</v>
       </c>
       <c r="I39">
         <v>3</v>
@@ -3320,7 +3581,7 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -3329,7 +3590,7 @@
         <v>4</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -3338,53 +3599,50 @@
         <v>3</v>
       </c>
       <c r="G40">
-        <v>139.02000000000001</v>
+        <v>193.2</v>
       </c>
       <c r="H40">
-        <v>226.49</v>
+        <v>263.97000000000003</v>
       </c>
       <c r="I40">
         <v>3</v>
       </c>
       <c r="J40">
-        <v>-10</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>193.2</v>
+        <v>11.1</v>
       </c>
       <c r="H41">
-        <v>263.97000000000003</v>
+        <v>14.1</v>
       </c>
       <c r="I41">
-        <v>3</v>
-      </c>
-      <c r="J41">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -3402,10 +3660,10 @@
         <v>1</v>
       </c>
       <c r="G42">
-        <v>11.1</v>
+        <v>10.85</v>
       </c>
       <c r="H42">
-        <v>14.1</v>
+        <v>13.5</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -3413,16 +3671,16 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3431,10 +3689,10 @@
         <v>1</v>
       </c>
       <c r="G43">
-        <v>10.85</v>
+        <v>13.35</v>
       </c>
       <c r="H43">
-        <v>13.5</v>
+        <v>19.95</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -3442,7 +3700,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -3460,10 +3718,10 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <v>13.35</v>
+        <v>12.93</v>
       </c>
       <c r="H44">
-        <v>19.95</v>
+        <v>19.39</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -3471,36 +3729,57 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45">
-        <v>12.93</v>
+        <v>21.64</v>
       </c>
       <c r="H45">
-        <v>19.39</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="I45">
         <v>0</v>
+      </c>
+      <c r="L45" t="s">
+        <v>163</v>
+      </c>
+      <c r="M45" t="s">
+        <v>164</v>
+      </c>
+      <c r="N45" t="s">
+        <v>165</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>3</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -3518,48 +3797,27 @@
         <v>2</v>
       </c>
       <c r="G46">
-        <v>21.64</v>
+        <v>20.93</v>
       </c>
       <c r="H46">
-        <v>33.299999999999997</v>
+        <v>32.58</v>
       </c>
       <c r="I46">
         <v>0</v>
-      </c>
-      <c r="L46" t="s">
-        <v>166</v>
-      </c>
-      <c r="M46" t="s">
-        <v>167</v>
-      </c>
-      <c r="N46" t="s">
-        <v>168</v>
-      </c>
-      <c r="O46">
-        <v>1</v>
-      </c>
-      <c r="P46">
-        <v>3</v>
-      </c>
-      <c r="Q46">
-        <v>1</v>
-      </c>
-      <c r="R46">
-        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>3</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3568,10 +3826,10 @@
         <v>2</v>
       </c>
       <c r="G47">
-        <v>20.93</v>
+        <v>49.66</v>
       </c>
       <c r="H47">
-        <v>32.58</v>
+        <v>75.319999999999993</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -3579,7 +3837,7 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -3597,51 +3855,75 @@
         <v>2</v>
       </c>
       <c r="G48">
-        <v>49.66</v>
+        <v>44.21</v>
       </c>
       <c r="H48">
-        <v>75.319999999999993</v>
+        <v>79.14</v>
       </c>
       <c r="I48">
         <v>0</v>
+      </c>
+      <c r="L48" t="s">
+        <v>237</v>
+      </c>
+      <c r="M48" t="s">
+        <v>238</v>
+      </c>
+      <c r="N48" t="s">
+        <v>239</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>3</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>3</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G49">
-        <v>44.21</v>
+        <v>128.83000000000001</v>
       </c>
       <c r="H49">
-        <v>79.14</v>
+        <v>176.03</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="J49">
+        <v>-20</v>
       </c>
       <c r="L49" t="s">
-        <v>240</v>
+        <v>296</v>
       </c>
       <c r="M49" t="s">
-        <v>241</v>
+        <v>297</v>
       </c>
       <c r="N49" t="s">
-        <v>242</v>
+        <v>298</v>
       </c>
       <c r="O49">
         <v>1</v>
@@ -3658,7 +3940,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -3676,10 +3958,10 @@
         <v>3</v>
       </c>
       <c r="G50">
-        <v>128.83000000000001</v>
+        <v>113.52</v>
       </c>
       <c r="H50">
-        <v>176.03</v>
+        <v>184.96</v>
       </c>
       <c r="I50">
         <v>3</v>
@@ -3687,31 +3969,10 @@
       <c r="J50">
         <v>-20</v>
       </c>
-      <c r="L50" t="s">
-        <v>302</v>
-      </c>
-      <c r="M50" t="s">
-        <v>303</v>
-      </c>
-      <c r="N50" t="s">
-        <v>304</v>
-      </c>
-      <c r="O50">
-        <v>1</v>
-      </c>
-      <c r="P50">
-        <v>3</v>
-      </c>
-      <c r="Q50">
-        <v>1</v>
-      </c>
-      <c r="R50">
-        <v>1</v>
-      </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -3720,7 +3981,7 @@
         <v>4</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3729,21 +3990,21 @@
         <v>3</v>
       </c>
       <c r="G51">
-        <v>113.52</v>
+        <v>157.76</v>
       </c>
       <c r="H51">
-        <v>184.96</v>
+        <v>215.56</v>
       </c>
       <c r="I51">
         <v>3</v>
       </c>
       <c r="J51">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -3761,10 +4022,10 @@
         <v>3</v>
       </c>
       <c r="G52">
-        <v>157.76</v>
+        <v>139.02000000000001</v>
       </c>
       <c r="H52">
-        <v>215.56</v>
+        <v>226.49</v>
       </c>
       <c r="I52">
         <v>3</v>
@@ -3775,7 +4036,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -3784,7 +4045,7 @@
         <v>4</v>
       </c>
       <c r="D53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3793,57 +4054,75 @@
         <v>3</v>
       </c>
       <c r="G53">
-        <v>139.02000000000001</v>
+        <v>193.2</v>
       </c>
       <c r="H53">
-        <v>226.49</v>
+        <v>263.97000000000003</v>
       </c>
       <c r="I53">
         <v>3</v>
       </c>
       <c r="J53">
-        <v>-10</v>
+        <v>-5</v>
+      </c>
+      <c r="L53" t="s">
+        <v>411</v>
+      </c>
+      <c r="M53" t="s">
+        <v>412</v>
+      </c>
+      <c r="N53" t="s">
+        <v>413</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <v>3</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>193.2</v>
+        <v>11.1</v>
       </c>
       <c r="H54">
-        <v>263.97000000000003</v>
+        <v>14.1</v>
       </c>
       <c r="I54">
-        <v>3</v>
-      </c>
-      <c r="J54">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>425</v>
+        <v>157</v>
       </c>
       <c r="M54" t="s">
-        <v>426</v>
+        <v>158</v>
       </c>
       <c r="N54" t="s">
-        <v>427</v>
+        <v>159</v>
       </c>
       <c r="O54">
         <v>1</v>
@@ -3860,7 +4139,7 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -3878,22 +4157,22 @@
         <v>1</v>
       </c>
       <c r="G55">
-        <v>11.1</v>
+        <v>10.85</v>
       </c>
       <c r="H55">
-        <v>14.1</v>
+        <v>13.5</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>160</v>
+        <v>249</v>
       </c>
       <c r="M55" t="s">
-        <v>161</v>
+        <v>250</v>
       </c>
       <c r="N55" t="s">
-        <v>162</v>
+        <v>251</v>
       </c>
       <c r="O55">
         <v>1</v>
@@ -3910,16 +4189,16 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>4</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3928,22 +4207,22 @@
         <v>1</v>
       </c>
       <c r="G56">
-        <v>10.85</v>
+        <v>13.35</v>
       </c>
       <c r="H56">
-        <v>13.5</v>
+        <v>19.95</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="M56" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="N56" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="O56">
         <v>1</v>
@@ -3960,7 +4239,7 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -3978,10 +4257,10 @@
         <v>1</v>
       </c>
       <c r="G57">
-        <v>13.35</v>
+        <v>12.93</v>
       </c>
       <c r="H57">
-        <v>19.95</v>
+        <v>19.39</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -4010,40 +4289,40 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>4</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58">
-        <v>12.93</v>
+        <v>21.64</v>
       </c>
       <c r="H58">
-        <v>19.39</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="L58" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="M58" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="N58" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="O58">
         <v>1</v>
@@ -4060,7 +4339,7 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>4</v>
@@ -4078,22 +4357,22 @@
         <v>2</v>
       </c>
       <c r="G59">
-        <v>21.64</v>
+        <v>20.93</v>
       </c>
       <c r="H59">
-        <v>33.299999999999997</v>
+        <v>32.58</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="L59" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="M59" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="N59" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="O59">
         <v>1</v>
@@ -4110,16 +4389,16 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>4</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -4128,22 +4407,22 @@
         <v>2</v>
       </c>
       <c r="G60">
-        <v>20.93</v>
+        <v>49.66</v>
       </c>
       <c r="H60">
-        <v>32.58</v>
+        <v>75.319999999999993</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="L60" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="M60" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="N60" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="O60">
         <v>1</v>
@@ -4160,7 +4439,7 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -4178,22 +4457,22 @@
         <v>2</v>
       </c>
       <c r="G61">
-        <v>49.66</v>
+        <v>44.21</v>
       </c>
       <c r="H61">
-        <v>75.319999999999993</v>
+        <v>79.14</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="L61" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M61" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N61" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="O61">
         <v>1</v>
@@ -4210,40 +4489,43 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>4</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G62">
-        <v>44.21</v>
+        <v>128.83000000000001</v>
       </c>
       <c r="H62">
-        <v>79.14</v>
+        <v>176.03</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="J62">
+        <v>-20</v>
       </c>
       <c r="L62" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="M62" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="N62" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="O62">
         <v>1</v>
@@ -4260,7 +4542,7 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>4</v>
@@ -4278,10 +4560,10 @@
         <v>3</v>
       </c>
       <c r="G63">
-        <v>128.83000000000001</v>
+        <v>113.52</v>
       </c>
       <c r="H63">
-        <v>176.03</v>
+        <v>184.96</v>
       </c>
       <c r="I63">
         <v>3</v>
@@ -4290,13 +4572,13 @@
         <v>-20</v>
       </c>
       <c r="L63" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="M63" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="N63" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="O63">
         <v>1</v>
@@ -4313,7 +4595,7 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>4</v>
@@ -4322,7 +4604,7 @@
         <v>4</v>
       </c>
       <c r="D64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -4331,42 +4613,21 @@
         <v>3</v>
       </c>
       <c r="G64">
-        <v>113.52</v>
+        <v>157.76</v>
       </c>
       <c r="H64">
-        <v>184.96</v>
+        <v>215.56</v>
       </c>
       <c r="I64">
         <v>3</v>
       </c>
       <c r="J64">
-        <v>-20</v>
-      </c>
-      <c r="L64" t="s">
-        <v>411</v>
-      </c>
-      <c r="M64" t="s">
-        <v>412</v>
-      </c>
-      <c r="N64" t="s">
-        <v>413</v>
-      </c>
-      <c r="O64">
-        <v>1</v>
-      </c>
-      <c r="P64">
-        <v>3</v>
-      </c>
-      <c r="Q64">
-        <v>1</v>
-      </c>
-      <c r="R64">
-        <v>1</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>4</v>
@@ -4384,10 +4645,10 @@
         <v>3</v>
       </c>
       <c r="G65">
-        <v>157.76</v>
+        <v>139.02000000000001</v>
       </c>
       <c r="H65">
-        <v>215.56</v>
+        <v>226.49</v>
       </c>
       <c r="I65">
         <v>3</v>
@@ -4398,7 +4659,7 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>4</v>
@@ -4407,7 +4668,7 @@
         <v>4</v>
       </c>
       <c r="D66">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -4416,57 +4677,75 @@
         <v>3</v>
       </c>
       <c r="G66">
-        <v>139.02000000000001</v>
+        <v>193.2</v>
       </c>
       <c r="H66">
-        <v>226.49</v>
+        <v>263.97000000000003</v>
       </c>
       <c r="I66">
         <v>3</v>
       </c>
       <c r="J66">
-        <v>-10</v>
+        <v>-5</v>
+      </c>
+      <c r="L66" t="s">
+        <v>402</v>
+      </c>
+      <c r="M66" t="s">
+        <v>403</v>
+      </c>
+      <c r="N66" t="s">
+        <v>404</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <v>3</v>
+      </c>
+      <c r="Q66">
+        <v>1</v>
+      </c>
+      <c r="R66">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B67">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>193.2</v>
+        <v>11.1</v>
       </c>
       <c r="H67">
-        <v>263.97000000000003</v>
+        <v>14.1</v>
       </c>
       <c r="I67">
-        <v>3</v>
-      </c>
-      <c r="J67">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>414</v>
+        <v>456</v>
       </c>
       <c r="M67" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="N67" t="s">
-        <v>416</v>
+        <v>458</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -4483,7 +4762,7 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="B68">
         <v>5</v>
@@ -4501,22 +4780,22 @@
         <v>1</v>
       </c>
       <c r="G68">
-        <v>11.1</v>
+        <v>10.85</v>
       </c>
       <c r="H68">
-        <v>14.1</v>
+        <v>13.5</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="M68" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="N68" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="O68">
         <v>1</v>
@@ -4533,16 +4812,16 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="B69">
         <v>5</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4551,22 +4830,22 @@
         <v>1</v>
       </c>
       <c r="G69">
-        <v>10.85</v>
+        <v>13.35</v>
       </c>
       <c r="H69">
-        <v>13.5</v>
+        <v>19.95</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M69" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N69" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="O69">
         <v>1</v>
@@ -4583,7 +4862,7 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="B70">
         <v>5</v>
@@ -4601,22 +4880,22 @@
         <v>1</v>
       </c>
       <c r="G70">
-        <v>13.35</v>
+        <v>12.93</v>
       </c>
       <c r="H70">
-        <v>19.95</v>
+        <v>19.39</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>157</v>
+        <v>240</v>
       </c>
       <c r="M70" t="s">
-        <v>158</v>
+        <v>241</v>
       </c>
       <c r="N70" t="s">
-        <v>159</v>
+        <v>242</v>
       </c>
       <c r="O70">
         <v>1</v>
@@ -4633,40 +4912,40 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="B71">
         <v>5</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71">
-        <v>12.93</v>
+        <v>21.64</v>
       </c>
       <c r="H71">
-        <v>19.39</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M71" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="N71" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="O71">
         <v>1</v>
@@ -4683,7 +4962,7 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B72">
         <v>5</v>
@@ -4701,22 +4980,22 @@
         <v>2</v>
       </c>
       <c r="G72">
-        <v>21.64</v>
+        <v>20.93</v>
       </c>
       <c r="H72">
-        <v>33.299999999999997</v>
+        <v>32.58</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M72" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="N72" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O72">
         <v>1</v>
@@ -4733,16 +5012,16 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B73">
         <v>5</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -4751,22 +5030,22 @@
         <v>2</v>
       </c>
       <c r="G73">
-        <v>20.93</v>
+        <v>49.66</v>
       </c>
       <c r="H73">
-        <v>32.58</v>
+        <v>75.319999999999993</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>255</v>
+        <v>423</v>
       </c>
       <c r="M73" t="s">
-        <v>256</v>
+        <v>424</v>
       </c>
       <c r="N73" t="s">
-        <v>257</v>
+        <v>425</v>
       </c>
       <c r="O73">
         <v>1</v>
@@ -4783,7 +5062,7 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B74">
         <v>5</v>
@@ -4801,22 +5080,22 @@
         <v>2</v>
       </c>
       <c r="G74">
-        <v>49.66</v>
+        <v>44.21</v>
       </c>
       <c r="H74">
-        <v>75.319999999999993</v>
+        <v>79.14</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="M74" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="N74" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="O74">
         <v>1</v>
@@ -4833,40 +5112,43 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B75">
         <v>5</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="F75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G75">
-        <v>44.21</v>
+        <v>128.83000000000001</v>
       </c>
       <c r="H75">
-        <v>79.14</v>
+        <v>176.03</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="J75">
+        <v>-20</v>
       </c>
       <c r="L75" t="s">
-        <v>341</v>
+        <v>453</v>
       </c>
       <c r="M75" t="s">
-        <v>342</v>
+        <v>454</v>
       </c>
       <c r="N75" t="s">
-        <v>343</v>
+        <v>455</v>
       </c>
       <c r="O75">
         <v>1</v>
@@ -4883,7 +5165,7 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B76">
         <v>5</v>
@@ -4901,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="G76">
-        <v>128.83000000000001</v>
+        <v>113.52</v>
       </c>
       <c r="H76">
-        <v>176.03</v>
+        <v>184.96</v>
       </c>
       <c r="I76">
         <v>3</v>
@@ -4913,13 +5195,13 @@
         <v>-20</v>
       </c>
       <c r="L76" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="M76" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="N76" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="O76">
         <v>1</v>
@@ -4936,7 +5218,7 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B77">
         <v>5</v>
@@ -4945,7 +5227,7 @@
         <v>4</v>
       </c>
       <c r="D77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -4954,25 +5236,25 @@
         <v>3</v>
       </c>
       <c r="G77">
-        <v>113.52</v>
+        <v>157.76</v>
       </c>
       <c r="H77">
-        <v>184.96</v>
+        <v>215.56</v>
       </c>
       <c r="I77">
         <v>3</v>
       </c>
       <c r="J77">
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="L77" t="s">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="M77" t="s">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="N77" t="s">
-        <v>364</v>
+        <v>410</v>
       </c>
       <c r="O77">
         <v>1</v>
@@ -4989,7 +5271,7 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B78">
         <v>5</v>
@@ -5007,10 +5289,10 @@
         <v>3</v>
       </c>
       <c r="G78">
-        <v>157.76</v>
+        <v>139.02000000000001</v>
       </c>
       <c r="H78">
-        <v>215.56</v>
+        <v>226.49</v>
       </c>
       <c r="I78">
         <v>3</v>
@@ -5019,13 +5301,13 @@
         <v>-10</v>
       </c>
       <c r="L78" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="M78" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="N78" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="O78">
         <v>1</v>
@@ -5042,7 +5324,7 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B79">
         <v>5</v>
@@ -5051,7 +5333,7 @@
         <v>4</v>
       </c>
       <c r="D79">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -5060,25 +5342,25 @@
         <v>3</v>
       </c>
       <c r="G79">
-        <v>139.02000000000001</v>
+        <v>193.2</v>
       </c>
       <c r="H79">
-        <v>226.49</v>
+        <v>263.97000000000003</v>
       </c>
       <c r="I79">
         <v>3</v>
       </c>
       <c r="J79">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="L79" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M79" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N79" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="O79">
         <v>1</v>
@@ -5095,43 +5377,40 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B80">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G80">
-        <v>193.2</v>
+        <v>11.1</v>
       </c>
       <c r="H80">
-        <v>263.97000000000003</v>
+        <v>14.1</v>
       </c>
       <c r="I80">
-        <v>3</v>
-      </c>
-      <c r="J80">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>401</v>
+        <v>160</v>
       </c>
       <c r="M80" t="s">
-        <v>402</v>
+        <v>161</v>
       </c>
       <c r="N80" t="s">
-        <v>403</v>
+        <v>162</v>
       </c>
       <c r="O80">
         <v>1</v>
@@ -5148,43 +5427,40 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>421</v>
+        <v>130</v>
       </c>
       <c r="B81">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G81">
-        <v>189.5</v>
+        <v>10.85</v>
       </c>
       <c r="H81">
-        <v>272.54000000000002</v>
+        <v>13.5</v>
       </c>
       <c r="I81">
-        <v>3</v>
-      </c>
-      <c r="J81">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="L81" t="s">
-        <v>422</v>
+        <v>305</v>
       </c>
       <c r="M81" t="s">
-        <v>423</v>
+        <v>306</v>
       </c>
       <c r="N81" t="s">
-        <v>424</v>
+        <v>307</v>
       </c>
       <c r="O81">
         <v>1</v>
@@ -5201,16 +5477,16 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B82">
         <v>6</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -5219,22 +5495,22 @@
         <v>1</v>
       </c>
       <c r="G82">
-        <v>11.1</v>
+        <v>13.35</v>
       </c>
       <c r="H82">
-        <v>14.1</v>
+        <v>19.95</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="L82" t="s">
-        <v>163</v>
+        <v>308</v>
       </c>
       <c r="M82" t="s">
-        <v>164</v>
+        <v>309</v>
       </c>
       <c r="N82" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="O82">
         <v>1</v>
@@ -5251,16 +5527,16 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B83">
         <v>6</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -5269,22 +5545,22 @@
         <v>1</v>
       </c>
       <c r="G83">
-        <v>10.85</v>
+        <v>12.93</v>
       </c>
       <c r="H83">
-        <v>13.5</v>
+        <v>19.39</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="L83" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="M83" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="N83" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="O83">
         <v>1</v>
@@ -5301,40 +5577,40 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B84">
         <v>6</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G84">
-        <v>13.35</v>
+        <v>21.64</v>
       </c>
       <c r="H84">
-        <v>19.95</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="L84" t="s">
-        <v>314</v>
+        <v>365</v>
       </c>
       <c r="M84" t="s">
-        <v>315</v>
+        <v>366</v>
       </c>
       <c r="N84" t="s">
-        <v>316</v>
+        <v>367</v>
       </c>
       <c r="O84">
         <v>1</v>
@@ -5351,40 +5627,40 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="B85">
         <v>6</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G85">
-        <v>12.93</v>
+        <v>20.93</v>
       </c>
       <c r="H85">
-        <v>19.39</v>
+        <v>32.58</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="L85" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="M85" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="N85" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="O85">
         <v>1</v>
@@ -5401,16 +5677,16 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B86">
         <v>6</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -5419,22 +5695,22 @@
         <v>2</v>
       </c>
       <c r="G86">
-        <v>21.64</v>
+        <v>49.66</v>
       </c>
       <c r="H86">
-        <v>33.299999999999997</v>
+        <v>75.319999999999993</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="L86" t="s">
-        <v>374</v>
+        <v>311</v>
       </c>
       <c r="M86" t="s">
-        <v>375</v>
+        <v>312</v>
       </c>
       <c r="N86" t="s">
-        <v>376</v>
+        <v>313</v>
       </c>
       <c r="O86">
         <v>1</v>
@@ -5451,16 +5727,16 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B87">
         <v>6</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -5469,22 +5745,22 @@
         <v>2</v>
       </c>
       <c r="G87">
-        <v>20.93</v>
+        <v>44.21</v>
       </c>
       <c r="H87">
-        <v>32.58</v>
+        <v>79.14</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="L87" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="M87" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="N87" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="O87">
         <v>1</v>
@@ -5501,40 +5777,43 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B88">
         <v>6</v>
       </c>
       <c r="C88">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G88">
-        <v>49.66</v>
+        <v>128.83000000000001</v>
       </c>
       <c r="H88">
-        <v>75.319999999999993</v>
+        <v>176.03</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="J88">
+        <v>-20</v>
       </c>
       <c r="L88" t="s">
-        <v>317</v>
+        <v>386</v>
       </c>
       <c r="M88" t="s">
-        <v>318</v>
+        <v>387</v>
       </c>
       <c r="N88" t="s">
-        <v>319</v>
+        <v>388</v>
       </c>
       <c r="O88">
         <v>1</v>
@@ -5551,57 +5830,39 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B89">
         <v>6</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G89">
-        <v>44.21</v>
+        <v>113.52</v>
       </c>
       <c r="H89">
-        <v>79.14</v>
+        <v>184.96</v>
       </c>
       <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="L89" t="s">
-        <v>395</v>
-      </c>
-      <c r="M89" t="s">
-        <v>396</v>
-      </c>
-      <c r="N89" t="s">
-        <v>397</v>
-      </c>
-      <c r="O89">
-        <v>1</v>
-      </c>
-      <c r="P89">
-        <v>3</v>
-      </c>
-      <c r="Q89">
-        <v>1</v>
-      </c>
-      <c r="R89">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="J89">
+        <v>-20</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B90">
         <v>6</v>
@@ -5610,7 +5871,7 @@
         <v>4</v>
       </c>
       <c r="D90">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -5619,42 +5880,21 @@
         <v>3</v>
       </c>
       <c r="G90">
-        <v>128.83000000000001</v>
+        <v>157.76</v>
       </c>
       <c r="H90">
-        <v>176.03</v>
+        <v>215.56</v>
       </c>
       <c r="I90">
         <v>3</v>
       </c>
       <c r="J90">
-        <v>-20</v>
-      </c>
-      <c r="L90" t="s">
-        <v>398</v>
-      </c>
-      <c r="M90" t="s">
-        <v>399</v>
-      </c>
-      <c r="N90" t="s">
-        <v>400</v>
-      </c>
-      <c r="O90">
-        <v>1</v>
-      </c>
-      <c r="P90">
-        <v>3</v>
-      </c>
-      <c r="Q90">
-        <v>1</v>
-      </c>
-      <c r="R90">
-        <v>1</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B91">
         <v>6</v>
@@ -5663,7 +5903,7 @@
         <v>4</v>
       </c>
       <c r="D91">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -5672,21 +5912,21 @@
         <v>3</v>
       </c>
       <c r="G91">
-        <v>113.52</v>
+        <v>139.02000000000001</v>
       </c>
       <c r="H91">
-        <v>184.96</v>
+        <v>226.49</v>
       </c>
       <c r="I91">
         <v>3</v>
       </c>
       <c r="J91">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B92">
         <v>6</v>
@@ -5695,7 +5935,7 @@
         <v>4</v>
       </c>
       <c r="D92">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -5704,94 +5944,130 @@
         <v>3</v>
       </c>
       <c r="G92">
-        <v>157.76</v>
+        <v>193.2</v>
       </c>
       <c r="H92">
-        <v>215.56</v>
+        <v>263.97000000000003</v>
       </c>
       <c r="I92">
         <v>3</v>
       </c>
       <c r="J92">
-        <v>-10</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B93">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G93">
-        <v>139.02000000000001</v>
+        <v>11.1</v>
       </c>
       <c r="H93">
-        <v>226.49</v>
+        <v>14.1</v>
       </c>
       <c r="I93">
-        <v>3</v>
-      </c>
-      <c r="J93">
-        <v>-10</v>
+        <v>0</v>
+      </c>
+      <c r="L93" t="s">
+        <v>264</v>
+      </c>
+      <c r="M93" t="s">
+        <v>265</v>
+      </c>
+      <c r="N93" t="s">
+        <v>266</v>
+      </c>
+      <c r="O93">
+        <v>1</v>
+      </c>
+      <c r="P93">
+        <v>3</v>
+      </c>
+      <c r="Q93">
+        <v>1</v>
+      </c>
+      <c r="R93">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="B94">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C94">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G94">
-        <v>193.2</v>
+        <v>10.85</v>
       </c>
       <c r="H94">
-        <v>263.97000000000003</v>
+        <v>13.5</v>
       </c>
       <c r="I94">
-        <v>3</v>
-      </c>
-      <c r="J94">
-        <v>-5</v>
+        <v>0</v>
+      </c>
+      <c r="L94" t="s">
+        <v>317</v>
+      </c>
+      <c r="M94" t="s">
+        <v>318</v>
+      </c>
+      <c r="N94" t="s">
+        <v>319</v>
+      </c>
+      <c r="O94">
+        <v>1</v>
+      </c>
+      <c r="P94">
+        <v>3</v>
+      </c>
+      <c r="Q94">
+        <v>1</v>
+      </c>
+      <c r="R94">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B95">
         <v>7</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -5800,22 +6076,22 @@
         <v>1</v>
       </c>
       <c r="G95">
-        <v>11.1</v>
+        <v>13.35</v>
       </c>
       <c r="H95">
-        <v>14.1</v>
+        <v>19.95</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>267</v>
+        <v>323</v>
       </c>
       <c r="M95" t="s">
-        <v>268</v>
+        <v>324</v>
       </c>
       <c r="N95" t="s">
-        <v>269</v>
+        <v>325</v>
       </c>
       <c r="O95">
         <v>1</v>
@@ -5832,16 +6108,16 @@
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B96">
         <v>7</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -5850,22 +6126,22 @@
         <v>1</v>
       </c>
       <c r="G96">
-        <v>10.85</v>
+        <v>12.93</v>
       </c>
       <c r="H96">
-        <v>13.5</v>
+        <v>19.39</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="M96" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="N96" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="O96">
         <v>1</v>
@@ -5882,40 +6158,40 @@
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B97">
         <v>7</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E97">
         <v>1</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G97">
-        <v>13.35</v>
+        <v>21.64</v>
       </c>
       <c r="H97">
-        <v>19.95</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="L97" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="M97" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="N97" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="O97">
         <v>1</v>
@@ -5932,66 +6208,45 @@
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="B98">
         <v>7</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G98">
-        <v>12.93</v>
+        <v>20.93</v>
       </c>
       <c r="H98">
-        <v>19.39</v>
+        <v>32.58</v>
       </c>
       <c r="I98">
         <v>0</v>
-      </c>
-      <c r="L98" t="s">
-        <v>368</v>
-      </c>
-      <c r="M98" t="s">
-        <v>369</v>
-      </c>
-      <c r="N98" t="s">
-        <v>370</v>
-      </c>
-      <c r="O98">
-        <v>1</v>
-      </c>
-      <c r="P98">
-        <v>3</v>
-      </c>
-      <c r="Q98">
-        <v>1</v>
-      </c>
-      <c r="R98">
-        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B99">
         <v>7</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -6000,48 +6255,27 @@
         <v>2</v>
       </c>
       <c r="G99">
-        <v>21.64</v>
+        <v>49.66</v>
       </c>
       <c r="H99">
-        <v>33.299999999999997</v>
+        <v>75.319999999999993</v>
       </c>
       <c r="I99">
         <v>0</v>
-      </c>
-      <c r="L99" t="s">
-        <v>371</v>
-      </c>
-      <c r="M99" t="s">
-        <v>372</v>
-      </c>
-      <c r="N99" t="s">
-        <v>373</v>
-      </c>
-      <c r="O99">
-        <v>1</v>
-      </c>
-      <c r="P99">
-        <v>3</v>
-      </c>
-      <c r="Q99">
-        <v>1</v>
-      </c>
-      <c r="R99">
-        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B100">
         <v>7</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -6050,10 +6284,10 @@
         <v>2</v>
       </c>
       <c r="G100">
-        <v>20.93</v>
+        <v>44.21</v>
       </c>
       <c r="H100">
-        <v>32.58</v>
+        <v>79.14</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -6061,65 +6295,113 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B101">
         <v>7</v>
       </c>
       <c r="C101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
       <c r="F101">
+        <v>3</v>
+      </c>
+      <c r="G101">
+        <v>128.83000000000001</v>
+      </c>
+      <c r="H101">
+        <v>176.03</v>
+      </c>
+      <c r="I101">
+        <v>3</v>
+      </c>
+      <c r="J101">
+        <v>-20</v>
+      </c>
+      <c r="L101" t="s">
+        <v>169</v>
+      </c>
+      <c r="M101" t="s">
+        <v>170</v>
+      </c>
+      <c r="N101" t="s">
+        <v>171</v>
+      </c>
+      <c r="O101">
+        <v>3</v>
+      </c>
+      <c r="P101">
         <v>2</v>
       </c>
-      <c r="G101">
-        <v>49.66</v>
-      </c>
-      <c r="H101">
-        <v>75.319999999999993</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
+      <c r="Q101">
+        <v>40</v>
+      </c>
+      <c r="R101">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B102">
         <v>7</v>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D102">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E102">
         <v>1</v>
       </c>
       <c r="F102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G102">
-        <v>44.21</v>
+        <v>113.52</v>
       </c>
       <c r="H102">
-        <v>79.14</v>
+        <v>184.96</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="J102">
+        <v>-20</v>
+      </c>
+      <c r="L102" t="s">
+        <v>414</v>
+      </c>
+      <c r="M102" t="s">
+        <v>415</v>
+      </c>
+      <c r="N102" t="s">
+        <v>416</v>
+      </c>
+      <c r="O102">
+        <v>1</v>
+      </c>
+      <c r="P102">
+        <v>3</v>
+      </c>
+      <c r="Q102">
+        <v>1</v>
+      </c>
+      <c r="R102">
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B103">
         <v>7</v>
@@ -6128,7 +6410,7 @@
         <v>4</v>
       </c>
       <c r="D103">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -6137,42 +6419,21 @@
         <v>3</v>
       </c>
       <c r="G103">
-        <v>128.83000000000001</v>
+        <v>157.76</v>
       </c>
       <c r="H103">
-        <v>176.03</v>
+        <v>215.56</v>
       </c>
       <c r="I103">
         <v>3</v>
       </c>
       <c r="J103">
-        <v>-20</v>
-      </c>
-      <c r="L103" t="s">
-        <v>172</v>
-      </c>
-      <c r="M103" t="s">
-        <v>173</v>
-      </c>
-      <c r="N103" t="s">
-        <v>174</v>
-      </c>
-      <c r="O103">
-        <v>3</v>
-      </c>
-      <c r="P103">
-        <v>2</v>
-      </c>
-      <c r="Q103">
-        <v>40</v>
-      </c>
-      <c r="R103">
-        <v>1</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B104">
         <v>7</v>
@@ -6181,7 +6442,7 @@
         <v>4</v>
       </c>
       <c r="D104">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -6190,25 +6451,25 @@
         <v>3</v>
       </c>
       <c r="G104">
-        <v>113.52</v>
+        <v>139.02000000000001</v>
       </c>
       <c r="H104">
-        <v>184.96</v>
+        <v>226.49</v>
       </c>
       <c r="I104">
         <v>3</v>
       </c>
       <c r="J104">
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="L104" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="M104" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="N104" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="O104">
         <v>1</v>
@@ -6225,7 +6486,7 @@
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B105">
         <v>7</v>
@@ -6234,7 +6495,7 @@
         <v>4</v>
       </c>
       <c r="D105">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -6243,57 +6504,75 @@
         <v>3</v>
       </c>
       <c r="G105">
-        <v>157.76</v>
+        <v>193.2</v>
       </c>
       <c r="H105">
-        <v>215.56</v>
+        <v>263.97000000000003</v>
       </c>
       <c r="I105">
         <v>3</v>
       </c>
       <c r="J105">
-        <v>-10</v>
+        <v>-5</v>
+      </c>
+      <c r="L105" t="s">
+        <v>417</v>
+      </c>
+      <c r="M105" t="s">
+        <v>418</v>
+      </c>
+      <c r="N105" t="s">
+        <v>419</v>
+      </c>
+      <c r="O105">
+        <v>1</v>
+      </c>
+      <c r="P105">
+        <v>3</v>
+      </c>
+      <c r="Q105">
+        <v>1</v>
+      </c>
+      <c r="R105">
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B106">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G106">
-        <v>139.02000000000001</v>
+        <v>11.1</v>
       </c>
       <c r="H106">
-        <v>226.49</v>
+        <v>14.1</v>
       </c>
       <c r="I106">
-        <v>3</v>
-      </c>
-      <c r="J106">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="L106" t="s">
-        <v>434</v>
+        <v>136</v>
       </c>
       <c r="M106" t="s">
-        <v>435</v>
+        <v>137</v>
       </c>
       <c r="N106" t="s">
-        <v>436</v>
+        <v>138</v>
       </c>
       <c r="O106">
         <v>1</v>
@@ -6310,43 +6589,40 @@
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="B107">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G107">
-        <v>193.2</v>
+        <v>10.85</v>
       </c>
       <c r="H107">
-        <v>263.97000000000003</v>
+        <v>13.5</v>
       </c>
       <c r="I107">
-        <v>3</v>
-      </c>
-      <c r="J107">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="L107" t="s">
-        <v>431</v>
+        <v>139</v>
       </c>
       <c r="M107" t="s">
-        <v>432</v>
+        <v>140</v>
       </c>
       <c r="N107" t="s">
-        <v>433</v>
+        <v>141</v>
       </c>
       <c r="O107">
         <v>1</v>
@@ -6363,16 +6639,16 @@
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B108">
         <v>8</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -6381,28 +6657,28 @@
         <v>1</v>
       </c>
       <c r="G108">
-        <v>11.1</v>
+        <v>13.35</v>
       </c>
       <c r="H108">
-        <v>14.1</v>
+        <v>19.95</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="L108" t="s">
-        <v>139</v>
+        <v>269</v>
       </c>
       <c r="M108" t="s">
-        <v>140</v>
+        <v>270</v>
       </c>
       <c r="N108" t="s">
-        <v>141</v>
+        <v>271</v>
       </c>
       <c r="O108">
         <v>1</v>
       </c>
       <c r="P108">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -6413,16 +6689,16 @@
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B109">
         <v>8</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -6431,28 +6707,28 @@
         <v>1</v>
       </c>
       <c r="G109">
-        <v>10.85</v>
+        <v>12.93</v>
       </c>
       <c r="H109">
-        <v>13.5</v>
+        <v>19.39</v>
       </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>142</v>
+        <v>284</v>
       </c>
       <c r="M109" t="s">
-        <v>143</v>
+        <v>285</v>
       </c>
       <c r="N109" t="s">
-        <v>144</v>
+        <v>286</v>
       </c>
       <c r="O109">
         <v>1</v>
       </c>
       <c r="P109">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q109">
         <v>1</v>
@@ -6463,40 +6739,40 @@
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B110">
         <v>8</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G110">
-        <v>13.35</v>
+        <v>21.64</v>
       </c>
       <c r="H110">
-        <v>19.95</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="M110" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="N110" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="O110">
         <v>1</v>
@@ -6513,40 +6789,40 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="B111">
         <v>8</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G111">
-        <v>12.93</v>
+        <v>20.93</v>
       </c>
       <c r="H111">
-        <v>19.39</v>
+        <v>32.58</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>287</v>
+        <v>347</v>
       </c>
       <c r="M111" t="s">
-        <v>288</v>
+        <v>348</v>
       </c>
       <c r="N111" t="s">
-        <v>289</v>
+        <v>349</v>
       </c>
       <c r="O111">
         <v>1</v>
@@ -6563,16 +6839,16 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B112">
         <v>8</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -6581,22 +6857,22 @@
         <v>2</v>
       </c>
       <c r="G112">
-        <v>21.64</v>
+        <v>49.66</v>
       </c>
       <c r="H112">
-        <v>33.299999999999997</v>
+        <v>75.319999999999993</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>308</v>
+        <v>374</v>
       </c>
       <c r="M112" t="s">
-        <v>309</v>
+        <v>375</v>
       </c>
       <c r="N112" t="s">
-        <v>310</v>
+        <v>376</v>
       </c>
       <c r="O112">
         <v>1</v>
@@ -6613,16 +6889,16 @@
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B113">
         <v>8</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -6631,22 +6907,22 @@
         <v>2</v>
       </c>
       <c r="G113">
-        <v>20.93</v>
+        <v>44.21</v>
       </c>
       <c r="H113">
-        <v>32.58</v>
+        <v>79.14</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="M113" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="N113" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="O113">
         <v>1</v>
@@ -6663,40 +6939,43 @@
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B114">
         <v>8</v>
       </c>
       <c r="C114">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D114">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E114">
         <v>0</v>
       </c>
       <c r="F114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G114">
-        <v>49.66</v>
+        <v>128.83000000000001</v>
       </c>
       <c r="H114">
-        <v>75.319999999999993</v>
+        <v>176.03</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="J114">
+        <v>-20</v>
       </c>
       <c r="L114" t="s">
-        <v>386</v>
+        <v>329</v>
       </c>
       <c r="M114" t="s">
-        <v>387</v>
+        <v>330</v>
       </c>
       <c r="N114" t="s">
-        <v>388</v>
+        <v>331</v>
       </c>
       <c r="O114">
         <v>1</v>
@@ -6713,40 +6992,43 @@
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B115">
         <v>8</v>
       </c>
       <c r="C115">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D115">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E115">
         <v>0</v>
       </c>
       <c r="F115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G115">
-        <v>44.21</v>
+        <v>113.52</v>
       </c>
       <c r="H115">
-        <v>79.14</v>
+        <v>184.96</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="J115">
+        <v>-20</v>
       </c>
       <c r="L115" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="M115" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="N115" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="O115">
         <v>1</v>
@@ -6763,7 +7045,7 @@
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B116">
         <v>8</v>
@@ -6772,7 +7054,7 @@
         <v>4</v>
       </c>
       <c r="D116">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -6781,42 +7063,21 @@
         <v>3</v>
       </c>
       <c r="G116">
-        <v>128.83000000000001</v>
+        <v>157.76</v>
       </c>
       <c r="H116">
-        <v>176.03</v>
+        <v>215.56</v>
       </c>
       <c r="I116">
         <v>3</v>
       </c>
       <c r="J116">
-        <v>-20</v>
-      </c>
-      <c r="L116" t="s">
-        <v>335</v>
-      </c>
-      <c r="M116" t="s">
-        <v>336</v>
-      </c>
-      <c r="N116" t="s">
-        <v>337</v>
-      </c>
-      <c r="O116">
-        <v>1</v>
-      </c>
-      <c r="P116">
-        <v>4</v>
-      </c>
-      <c r="Q116">
-        <v>1</v>
-      </c>
-      <c r="R116">
-        <v>1</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B117">
         <v>8</v>
@@ -6825,7 +7086,7 @@
         <v>4</v>
       </c>
       <c r="D117">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -6834,42 +7095,21 @@
         <v>3</v>
       </c>
       <c r="G117">
-        <v>113.52</v>
+        <v>139.02000000000001</v>
       </c>
       <c r="H117">
-        <v>184.96</v>
+        <v>226.49</v>
       </c>
       <c r="I117">
         <v>3</v>
       </c>
       <c r="J117">
-        <v>-20</v>
-      </c>
-      <c r="L117" t="s">
-        <v>392</v>
-      </c>
-      <c r="M117" t="s">
-        <v>393</v>
-      </c>
-      <c r="N117" t="s">
-        <v>394</v>
-      </c>
-      <c r="O117">
-        <v>1</v>
-      </c>
-      <c r="P117">
-        <v>4</v>
-      </c>
-      <c r="Q117">
-        <v>1</v>
-      </c>
-      <c r="R117">
-        <v>1</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B118">
         <v>8</v>
@@ -6878,7 +7118,7 @@
         <v>4</v>
       </c>
       <c r="D118">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -6887,100 +7127,36 @@
         <v>3</v>
       </c>
       <c r="G118">
-        <v>157.76</v>
+        <v>193.2</v>
       </c>
       <c r="H118">
-        <v>215.56</v>
+        <v>263.97000000000003</v>
       </c>
       <c r="I118">
         <v>3</v>
       </c>
       <c r="J118">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>107</v>
-      </c>
-      <c r="B119">
-        <v>8</v>
-      </c>
-      <c r="C119">
+        <v>-5</v>
+      </c>
+      <c r="L118" t="s">
+        <v>405</v>
+      </c>
+      <c r="M118" t="s">
+        <v>406</v>
+      </c>
+      <c r="N118" t="s">
+        <v>407</v>
+      </c>
+      <c r="O118">
+        <v>1</v>
+      </c>
+      <c r="P118">
         <v>4</v>
       </c>
-      <c r="D119">
-        <v>5</v>
-      </c>
-      <c r="E119">
-        <v>0</v>
-      </c>
-      <c r="F119">
-        <v>3</v>
-      </c>
-      <c r="G119">
-        <v>139.02000000000001</v>
-      </c>
-      <c r="H119">
-        <v>226.49</v>
-      </c>
-      <c r="I119">
-        <v>3</v>
-      </c>
-      <c r="J119">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>108</v>
-      </c>
-      <c r="B120">
-        <v>8</v>
-      </c>
-      <c r="C120">
-        <v>4</v>
-      </c>
-      <c r="D120">
-        <v>6</v>
-      </c>
-      <c r="E120">
-        <v>0</v>
-      </c>
-      <c r="F120">
-        <v>3</v>
-      </c>
-      <c r="G120">
-        <v>193.2</v>
-      </c>
-      <c r="H120">
-        <v>263.97000000000003</v>
-      </c>
-      <c r="I120">
-        <v>3</v>
-      </c>
-      <c r="J120">
-        <v>-5</v>
-      </c>
-      <c r="L120" t="s">
-        <v>418</v>
-      </c>
-      <c r="M120" t="s">
-        <v>419</v>
-      </c>
-      <c r="N120" t="s">
-        <v>420</v>
-      </c>
-      <c r="O120">
-        <v>1</v>
-      </c>
-      <c r="P120">
-        <v>4</v>
-      </c>
-      <c r="Q120">
-        <v>1</v>
-      </c>
-      <c r="R120">
+      <c r="Q118">
+        <v>1</v>
+      </c>
+      <c r="R118">
         <v>1</v>
       </c>
     </row>
@@ -7007,7 +7183,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
@@ -7016,25 +7192,25 @@
         <v>30</v>
       </c>
       <c r="D1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" t="s">
         <v>179</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>180</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>181</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>182</v>
-      </c>
-      <c r="H1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -11758,97 +11934,97 @@
   <sheetData>
     <row r="1" spans="1:31" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B1" t="s">
         <v>109</v>
       </c>
       <c r="C1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" t="s">
         <v>207</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>208</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>209</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>210</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M1" t="s">
+        <v>188</v>
+      </c>
+      <c r="N1" t="s">
         <v>211</v>
       </c>
-      <c r="H1" t="s">
+      <c r="O1" t="s">
         <v>212</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
         <v>213</v>
       </c>
-      <c r="J1" t="s">
-        <v>188</v>
-      </c>
-      <c r="K1" t="s">
-        <v>189</v>
-      </c>
-      <c r="L1" t="s">
-        <v>190</v>
-      </c>
-      <c r="M1" t="s">
-        <v>191</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>214</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>215</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>216</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>217</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>218</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>219</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>220</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>221</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>222</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>223</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>224</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC1" t="s">
         <v>225</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" t="s">
         <v>226</v>
       </c>
-      <c r="AA1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>229</v>
-      </c>
       <c r="AE1" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
@@ -12505,13 +12681,13 @@
         <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E1" t="s">
         <v>26</v>
@@ -12529,19 +12705,19 @@
         <v>117</v>
       </c>
       <c r="J1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K1" t="s">
+        <v>200</v>
+      </c>
+      <c r="L1" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1" t="s">
         <v>202</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>203</v>
-      </c>
-      <c r="L1" t="s">
-        <v>204</v>
-      </c>
-      <c r="M1" t="s">
-        <v>205</v>
-      </c>
-      <c r="N1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -12549,7 +12725,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -12581,7 +12757,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -12613,7 +12789,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -12645,7 +12821,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -12677,7 +12853,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -12715,7 +12891,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -12753,7 +12929,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -12791,7 +12967,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -12823,7 +12999,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -12855,7 +13031,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -12887,7 +13063,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -12919,7 +13095,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -12957,7 +13133,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -12995,7 +13171,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -13033,7 +13209,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -13065,7 +13241,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -13097,7 +13273,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -13129,7 +13305,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -13161,7 +13337,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -13199,7 +13375,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -13237,7 +13413,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -13275,7 +13451,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -13307,7 +13483,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -13339,7 +13515,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -13371,7 +13547,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -13403,7 +13579,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -13441,7 +13617,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -13479,7 +13655,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -13517,7 +13693,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -13549,7 +13725,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -13581,7 +13757,7 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -13613,7 +13789,7 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -13645,7 +13821,7 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -13683,7 +13859,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -13721,7 +13897,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -13759,7 +13935,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -13791,7 +13967,7 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -13823,7 +13999,7 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -13855,7 +14031,7 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -13887,7 +14063,7 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -13925,7 +14101,7 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -13963,7 +14139,7 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -14001,7 +14177,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -14033,7 +14209,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -14065,7 +14241,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -14097,7 +14273,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -14129,7 +14305,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -14167,7 +14343,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -14205,7 +14381,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -14243,7 +14419,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -14275,7 +14451,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -14307,7 +14483,7 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -14339,7 +14515,7 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -14371,7 +14547,7 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -14409,7 +14585,7 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -14447,7 +14623,7 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -14485,7 +14661,7 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -14517,7 +14693,7 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -14549,7 +14725,7 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -14581,7 +14757,7 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -14613,7 +14789,7 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -14651,7 +14827,7 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -14689,7 +14865,7 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C64">
         <v>6</v>
@@ -14727,7 +14903,7 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -14759,7 +14935,7 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -14791,7 +14967,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -14823,7 +14999,7 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -14855,7 +15031,7 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -14893,7 +15069,7 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -14931,7 +15107,7 @@
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C71">
         <v>6</v>
@@ -14969,7 +15145,7 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -15001,7 +15177,7 @@
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -15033,7 +15209,7 @@
         <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -15065,7 +15241,7 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -15097,7 +15273,7 @@
         <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -15135,7 +15311,7 @@
         <v>1</v>
       </c>
       <c r="B77" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -15173,7 +15349,7 @@
         <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C78">
         <v>6</v>
@@ -15224,37 +15400,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
       </c>
       <c r="C1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F1" t="s">
         <v>230</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>231</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>232</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>233</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>234</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>235</v>
-      </c>
-      <c r="I1" t="s">
-        <v>236</v>
-      </c>
-      <c r="J1" t="s">
-        <v>237</v>
-      </c>
-      <c r="K1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -20420,10 +20596,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -20511,10 +20687,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB33BFE-C198-4850-B4F2-01484F2F9460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352BDFAB-BD8D-4EA9-894A-922A6A21BAEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="471">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1414,6 +1414,42 @@
   </si>
   <si>
     <t>EquipName_FourMaker140</t>
+  </si>
+  <si>
+    <t>JimHdBow6</t>
+  </si>
+  <si>
+    <t>Shot_JimHdBow6</t>
+  </si>
+  <si>
+    <t>EquipName_JimHdBow6</t>
+  </si>
+  <si>
+    <t>JimHdBow10</t>
+  </si>
+  <si>
+    <t>Shot_JimHdBow10</t>
+  </si>
+  <si>
+    <t>EquipName_JimHdBow10</t>
+  </si>
+  <si>
+    <t>JimHdBow11</t>
+  </si>
+  <si>
+    <t>Shot_JimHdBow11</t>
+  </si>
+  <si>
+    <t>EquipName_JimHdBow11</t>
+  </si>
+  <si>
+    <t>JimHdSword2</t>
+  </si>
+  <si>
+    <t>Shot_JimHdSword2</t>
+  </si>
+  <si>
+    <t>EquipName_JimHdSword2</t>
   </si>
 </sst>
 </file>
@@ -3234,6 +3270,27 @@
       <c r="I29">
         <v>0</v>
       </c>
+      <c r="L29" t="s">
+        <v>465</v>
+      </c>
+      <c r="M29" t="s">
+        <v>466</v>
+      </c>
+      <c r="N29" t="s">
+        <v>467</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>3</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -3263,6 +3320,27 @@
       <c r="I30">
         <v>0</v>
       </c>
+      <c r="L30" t="s">
+        <v>459</v>
+      </c>
+      <c r="M30" t="s">
+        <v>460</v>
+      </c>
+      <c r="N30" t="s">
+        <v>461</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>3</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -3321,6 +3399,27 @@
       <c r="I32">
         <v>0</v>
       </c>
+      <c r="L32" t="s">
+        <v>462</v>
+      </c>
+      <c r="M32" t="s">
+        <v>463</v>
+      </c>
+      <c r="N32" t="s">
+        <v>464</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>3</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -7073,6 +7172,27 @@
       </c>
       <c r="J116">
         <v>-10</v>
+      </c>
+      <c r="L116" t="s">
+        <v>468</v>
+      </c>
+      <c r="M116" t="s">
+        <v>469</v>
+      </c>
+      <c r="N116" t="s">
+        <v>470</v>
+      </c>
+      <c r="O116">
+        <v>1</v>
+      </c>
+      <c r="P116">
+        <v>4</v>
+      </c>
+      <c r="Q116">
+        <v>1</v>
+      </c>
+      <c r="R116">
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352BDFAB-BD8D-4EA9-894A-922A6A21BAEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FED1A08-1A13-485C-9757-1613562A808A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="480">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1450,6 +1450,33 @@
   </si>
   <si>
     <t>EquipName_JimHdSword2</t>
+  </si>
+  <si>
+    <t>GoldenBow2</t>
+  </si>
+  <si>
+    <t>Shot_GoldenBow2</t>
+  </si>
+  <si>
+    <t>EquipName_GoldenBow2</t>
+  </si>
+  <si>
+    <t>GoldenBow3</t>
+  </si>
+  <si>
+    <t>Shot_GoldenBow3</t>
+  </si>
+  <si>
+    <t>EquipName_GoldenBow3</t>
+  </si>
+  <si>
+    <t>GoldenBow5</t>
+  </si>
+  <si>
+    <t>Shot_GoldenBow5</t>
+  </si>
+  <si>
+    <t>EquipName_GoldenBow5</t>
   </si>
 </sst>
 </file>
@@ -3241,6 +3268,27 @@
       <c r="I28">
         <v>0</v>
       </c>
+      <c r="L28" t="s">
+        <v>471</v>
+      </c>
+      <c r="M28" t="s">
+        <v>472</v>
+      </c>
+      <c r="N28" t="s">
+        <v>473</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>3</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -3449,6 +3497,27 @@
       <c r="I33">
         <v>0</v>
       </c>
+      <c r="L33" t="s">
+        <v>474</v>
+      </c>
+      <c r="M33" t="s">
+        <v>475</v>
+      </c>
+      <c r="N33" t="s">
+        <v>476</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>3</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -3527,6 +3596,27 @@
       </c>
       <c r="I35">
         <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>477</v>
+      </c>
+      <c r="M35" t="s">
+        <v>478</v>
+      </c>
+      <c r="N35" t="s">
+        <v>479</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>4</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FED1A08-1A13-485C-9757-1613562A808A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6E607D-848B-4583-BBB0-FE738308629B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="489">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1477,6 +1477,33 @@
   </si>
   <si>
     <t>EquipName_GoldenBow5</t>
+  </si>
+  <si>
+    <t>JimHdBow7</t>
+  </si>
+  <si>
+    <t>Shot_JimHdBow7</t>
+  </si>
+  <si>
+    <t>EquipName_JimHdBow7</t>
+  </si>
+  <si>
+    <t>FantasySetBow1</t>
+  </si>
+  <si>
+    <t>Shot_FantasySetBow1</t>
+  </si>
+  <si>
+    <t>EquipName_FantasySetBow1</t>
+  </si>
+  <si>
+    <t>JimHdBow9</t>
+  </si>
+  <si>
+    <t>Shot_JimHdBow9</t>
+  </si>
+  <si>
+    <t>EquipName_JimHdBow9</t>
   </si>
 </sst>
 </file>
@@ -3418,6 +3445,27 @@
       <c r="I31">
         <v>0</v>
       </c>
+      <c r="L31" t="s">
+        <v>480</v>
+      </c>
+      <c r="M31" t="s">
+        <v>481</v>
+      </c>
+      <c r="N31" t="s">
+        <v>482</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>3</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -3703,6 +3751,27 @@
       <c r="J37">
         <v>-20</v>
       </c>
+      <c r="L37" t="s">
+        <v>483</v>
+      </c>
+      <c r="M37" t="s">
+        <v>484</v>
+      </c>
+      <c r="N37" t="s">
+        <v>485</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>4</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
@@ -3734,6 +3803,27 @@
       </c>
       <c r="J38">
         <v>-10</v>
+      </c>
+      <c r="L38" t="s">
+        <v>486</v>
+      </c>
+      <c r="M38" t="s">
+        <v>487</v>
+      </c>
+      <c r="N38" t="s">
+        <v>488</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>4</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6E607D-848B-4583-BBB0-FE738308629B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28BB1EE-749C-4AFE-9797-B8B860A92BDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="492">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1504,6 +1504,15 @@
   </si>
   <si>
     <t>EquipName_JimHdBow9</t>
+  </si>
+  <si>
+    <t>ArmorySet43</t>
+  </si>
+  <si>
+    <t>Shot_ArmorySet43</t>
+  </si>
+  <si>
+    <t>EquipName_ArmorySet43</t>
   </si>
 </sst>
 </file>
@@ -3857,6 +3866,27 @@
       <c r="J39">
         <v>-10</v>
       </c>
+      <c r="L39" t="s">
+        <v>489</v>
+      </c>
+      <c r="M39" t="s">
+        <v>490</v>
+      </c>
+      <c r="N39" t="s">
+        <v>491</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>4</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28BB1EE-749C-4AFE-9797-B8B860A92BDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766E4A7D-DEC8-4E01-9604-41481DD54EB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="498">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1513,6 +1513,24 @@
   </si>
   <si>
     <t>EquipName_ArmorySet43</t>
+  </si>
+  <si>
+    <t>IchkaBow</t>
+  </si>
+  <si>
+    <t>Shot_IchkaBow</t>
+  </si>
+  <si>
+    <t>EquipName_IchkaBow</t>
+  </si>
+  <si>
+    <t>IchkaStaff</t>
+  </si>
+  <si>
+    <t>Shot_IchkaStaff</t>
+  </si>
+  <si>
+    <t>EquipName_IchkaStaff</t>
   </si>
 </sst>
 </file>
@@ -3919,6 +3937,27 @@
       <c r="J40">
         <v>-5</v>
       </c>
+      <c r="L40" t="s">
+        <v>492</v>
+      </c>
+      <c r="M40" t="s">
+        <v>493</v>
+      </c>
+      <c r="N40" t="s">
+        <v>494</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>4</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
@@ -4341,6 +4380,27 @@
       </c>
       <c r="J52">
         <v>-10</v>
+      </c>
+      <c r="L52" t="s">
+        <v>495</v>
+      </c>
+      <c r="M52" t="s">
+        <v>496</v>
+      </c>
+      <c r="N52" t="s">
+        <v>497</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>3</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766E4A7D-DEC8-4E01-9604-41481DD54EB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CE86A8-24C1-4DF6-AD70-139E89544689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="507">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1531,6 +1531,33 @@
   </si>
   <si>
     <t>EquipName_IchkaStaff</t>
+  </si>
+  <si>
+    <t>FantasySetStaff1</t>
+  </si>
+  <si>
+    <t>Shot_FantasySetStaff1</t>
+  </si>
+  <si>
+    <t>EquipName_FantasySetStaff1</t>
+  </si>
+  <si>
+    <t>FantasySetStaff4</t>
+  </si>
+  <si>
+    <t>Shot_FantasySetStaff4</t>
+  </si>
+  <si>
+    <t>EquipName_FantasySetStaff4</t>
+  </si>
+  <si>
+    <t>FantasySetStaff3</t>
+  </si>
+  <si>
+    <t>Shot_FantasySetStaff3</t>
+  </si>
+  <si>
+    <t>EquipName_FantasySetStaff3</t>
   </si>
 </sst>
 </file>
@@ -4016,6 +4043,27 @@
       <c r="I42">
         <v>0</v>
       </c>
+      <c r="L42" t="s">
+        <v>498</v>
+      </c>
+      <c r="M42" t="s">
+        <v>499</v>
+      </c>
+      <c r="N42" t="s">
+        <v>500</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>3</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
@@ -4045,6 +4093,27 @@
       <c r="I43">
         <v>0</v>
       </c>
+      <c r="L43" t="s">
+        <v>501</v>
+      </c>
+      <c r="M43" t="s">
+        <v>502</v>
+      </c>
+      <c r="N43" t="s">
+        <v>503</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>3</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
@@ -4152,6 +4221,27 @@
       </c>
       <c r="I46">
         <v>0</v>
+      </c>
+      <c r="L46" t="s">
+        <v>504</v>
+      </c>
+      <c r="M46" t="s">
+        <v>505</v>
+      </c>
+      <c r="N46" t="s">
+        <v>506</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <v>3</v>
+      </c>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CE86A8-24C1-4DF6-AD70-139E89544689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C93B8A3-CCC0-43C4-B5E1-22273FAB634A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="510">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1558,6 +1558,15 @@
   </si>
   <si>
     <t>EquipName_FantasySetStaff3</t>
+  </si>
+  <si>
+    <t>HqStaff</t>
+  </si>
+  <si>
+    <t>Shot_HqStaff</t>
+  </si>
+  <si>
+    <t>EquipName_HqStaff</t>
   </si>
 </sst>
 </file>
@@ -4439,6 +4448,27 @@
       <c r="J51">
         <v>-10</v>
       </c>
+      <c r="L51" t="s">
+        <v>507</v>
+      </c>
+      <c r="M51" t="s">
+        <v>508</v>
+      </c>
+      <c r="N51" t="s">
+        <v>509</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <v>3</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" t="s">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C93B8A3-CCC0-43C4-B5E1-22273FAB634A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA6D1DA-4B80-413C-B4D2-3DA528635929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="513">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1567,6 +1567,15 @@
   </si>
   <si>
     <t>EquipName_HqStaff</t>
+  </si>
+  <si>
+    <t>JimHdStaff5</t>
+  </si>
+  <si>
+    <t>Shot_JimHdStaff5</t>
+  </si>
+  <si>
+    <t>EquipName_JimHdStaff5</t>
   </si>
 </sst>
 </file>
@@ -4281,6 +4290,27 @@
       <c r="I47">
         <v>0</v>
       </c>
+      <c r="L47" t="s">
+        <v>510</v>
+      </c>
+      <c r="M47" t="s">
+        <v>511</v>
+      </c>
+      <c r="N47" t="s">
+        <v>512</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>3</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA6D1DA-4B80-413C-B4D2-3DA528635929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7261A824-EC01-4C2D-A408-9EE1D1A59F09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="522">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1576,6 +1576,33 @@
   </si>
   <si>
     <t>EquipName_JimHdStaff5</t>
+  </si>
+  <si>
+    <t>ArmoryWand2</t>
+  </si>
+  <si>
+    <t>Shot_ArmoryWand2</t>
+  </si>
+  <si>
+    <t>EquipName_ArmoryWand2</t>
+  </si>
+  <si>
+    <t>ArmoryWand1</t>
+  </si>
+  <si>
+    <t>Shot_ArmoryWand1</t>
+  </si>
+  <si>
+    <t>EquipName_ArmoryWand1</t>
+  </si>
+  <si>
+    <t>ArmoryAngSpear</t>
+  </si>
+  <si>
+    <t>Shot_ArmoryAngSpear</t>
+  </si>
+  <si>
+    <t>EquipName_ArmoryAngSpear</t>
   </si>
 </sst>
 </file>
@@ -4032,6 +4059,27 @@
       <c r="I41">
         <v>0</v>
       </c>
+      <c r="L41" t="s">
+        <v>513</v>
+      </c>
+      <c r="M41" t="s">
+        <v>514</v>
+      </c>
+      <c r="N41" t="s">
+        <v>515</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>3</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
@@ -4161,6 +4209,27 @@
       <c r="I44">
         <v>0</v>
       </c>
+      <c r="L44" t="s">
+        <v>516</v>
+      </c>
+      <c r="M44" t="s">
+        <v>517</v>
+      </c>
+      <c r="N44" t="s">
+        <v>518</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>3</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
@@ -4445,6 +4514,27 @@
       </c>
       <c r="J50">
         <v>-20</v>
+      </c>
+      <c r="L50" t="s">
+        <v>519</v>
+      </c>
+      <c r="M50" t="s">
+        <v>520</v>
+      </c>
+      <c r="N50" t="s">
+        <v>521</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <v>3</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7261A824-EC01-4C2D-A408-9EE1D1A59F09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D9A954-2C98-4704-9B4D-0EAD2E0A2272}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="534">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1603,6 +1603,42 @@
   </si>
   <si>
     <t>EquipName_ArmoryAngSpear</t>
+  </si>
+  <si>
+    <t>ArmoryHammer11</t>
+  </si>
+  <si>
+    <t>Shot_ArmoryHammer11</t>
+  </si>
+  <si>
+    <t>EquipName_ArmoryHammer11</t>
+  </si>
+  <si>
+    <t>ArmoryHammer14</t>
+  </si>
+  <si>
+    <t>Shot_ArmoryHammer14</t>
+  </si>
+  <si>
+    <t>EquipName_ArmoryHammer14</t>
+  </si>
+  <si>
+    <t>ArmoryAngShield</t>
+  </si>
+  <si>
+    <t>Shot_ArmoryAngShield</t>
+  </si>
+  <si>
+    <t>EquipName_ArmoryAngShield</t>
+  </si>
+  <si>
+    <t>ArmorySet53</t>
+  </si>
+  <si>
+    <t>Shot_ArmorySet53</t>
+  </si>
+  <si>
+    <t>EquipName_ArmorySet53</t>
   </si>
 </sst>
 </file>
@@ -5233,6 +5269,27 @@
       <c r="J64">
         <v>-10</v>
       </c>
+      <c r="L64" t="s">
+        <v>522</v>
+      </c>
+      <c r="M64" t="s">
+        <v>523</v>
+      </c>
+      <c r="N64" t="s">
+        <v>524</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64">
+        <v>3</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+      <c r="R64">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
@@ -5265,6 +5322,27 @@
       <c r="J65">
         <v>-10</v>
       </c>
+      <c r="L65" t="s">
+        <v>525</v>
+      </c>
+      <c r="M65" t="s">
+        <v>526</v>
+      </c>
+      <c r="N65" t="s">
+        <v>527</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>3</v>
+      </c>
+      <c r="Q65">
+        <v>1</v>
+      </c>
+      <c r="R65">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
@@ -6843,6 +6921,27 @@
       <c r="I98">
         <v>0</v>
       </c>
+      <c r="L98" t="s">
+        <v>528</v>
+      </c>
+      <c r="M98" t="s">
+        <v>529</v>
+      </c>
+      <c r="N98" t="s">
+        <v>530</v>
+      </c>
+      <c r="O98">
+        <v>1</v>
+      </c>
+      <c r="P98">
+        <v>3</v>
+      </c>
+      <c r="Q98">
+        <v>1</v>
+      </c>
+      <c r="R98">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
@@ -6871,6 +6970,27 @@
       </c>
       <c r="I99">
         <v>0</v>
+      </c>
+      <c r="L99" t="s">
+        <v>531</v>
+      </c>
+      <c r="M99" t="s">
+        <v>532</v>
+      </c>
+      <c r="N99" t="s">
+        <v>533</v>
+      </c>
+      <c r="O99">
+        <v>1</v>
+      </c>
+      <c r="P99">
+        <v>3</v>
+      </c>
+      <c r="Q99">
+        <v>1</v>
+      </c>
+      <c r="R99">
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D9A954-2C98-4704-9B4D-0EAD2E0A2272}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693568AF-C759-4C33-B199-68A3BBED23A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -483,15 +483,6 @@
     <t>EquipName_StealthDagger</t>
   </si>
   <si>
-    <t>StealthSword</t>
-  </si>
-  <si>
-    <t>Shot_StealthSword</t>
-  </si>
-  <si>
-    <t>EquipName_StealthSword</t>
-  </si>
-  <si>
     <t>NecroScythe</t>
   </si>
   <si>
@@ -501,15 +492,6 @@
     <t>EquipName_NecroScythe</t>
   </si>
   <si>
-    <t>BatAngelSword</t>
-  </si>
-  <si>
-    <t>Shot_BatAngelSword</t>
-  </si>
-  <si>
-    <t>EquipName_BatAngelSword</t>
-  </si>
-  <si>
     <t>StrongMaul</t>
   </si>
   <si>
@@ -1098,15 +1080,6 @@
     <t>EquipName_MysticHammer</t>
   </si>
   <si>
-    <t>GoldenBlade</t>
-  </si>
-  <si>
-    <t>Shot_GoldenBlade</t>
-  </si>
-  <si>
-    <t>EquipName_GoldenBlade</t>
-  </si>
-  <si>
     <t>SlicerAxe</t>
   </si>
   <si>
@@ -1639,6 +1612,33 @@
   </si>
   <si>
     <t>EquipName_ArmorySet53</t>
+  </si>
+  <si>
+    <t>ArmorySet12</t>
+  </si>
+  <si>
+    <t>Shot_ArmorySet12</t>
+  </si>
+  <si>
+    <t>EquipName_ArmorySet12</t>
+  </si>
+  <si>
+    <t>JimHdAssassin11</t>
+  </si>
+  <si>
+    <t>Shot_JimHdAssassin11</t>
+  </si>
+  <si>
+    <t>EquipName_JimHdAssassin11</t>
+  </si>
+  <si>
+    <t>JimHdAssassin12</t>
+  </si>
+  <si>
+    <t>Shot_JimHdAssassin12</t>
+  </si>
+  <si>
+    <t>EquipName_JimHdAssassin12</t>
   </si>
 </sst>
 </file>
@@ -2027,7 +2027,7 @@
         <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E1" t="s">
         <v>31</v>
@@ -2060,16 +2060,16 @@
         <v>115</v>
       </c>
       <c r="O1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="P1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="Q1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="R1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -2201,13 +2201,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M5" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="N5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M6" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="N6" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -2351,13 +2351,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="M7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="N7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -2401,13 +2401,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="M8" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="N8" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -2451,13 +2451,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="M9" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="N9" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -2504,13 +2504,13 @@
         <v>-20</v>
       </c>
       <c r="L10" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M10" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="N10" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -2557,13 +2557,13 @@
         <v>-20</v>
       </c>
       <c r="L11" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="M11" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="N11" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -2610,13 +2610,13 @@
         <v>-10</v>
       </c>
       <c r="L12" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M12" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="N12" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -2663,13 +2663,13 @@
         <v>-10</v>
       </c>
       <c r="L13" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="M13" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="N13" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -2716,13 +2716,13 @@
         <v>-5</v>
       </c>
       <c r="L14" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="M14" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="N14" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -2816,13 +2816,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M16" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="N16" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -2866,13 +2866,13 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="M17" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="N17" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -2916,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="M18" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="N18" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -2966,13 +2966,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="M19" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="N19" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -3016,13 +3016,13 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="M20" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="N20" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -3066,13 +3066,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="M21" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="N21" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -3116,13 +3116,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="M22" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="N22" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -3169,13 +3169,13 @@
         <v>-20</v>
       </c>
       <c r="L23" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="M23" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="N23" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -3222,13 +3222,13 @@
         <v>-20</v>
       </c>
       <c r="L24" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="M24" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="N24" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -3275,13 +3275,13 @@
         <v>-10</v>
       </c>
       <c r="L25" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="M25" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="N25" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -3328,13 +3328,13 @@
         <v>-10</v>
       </c>
       <c r="L26" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="M26" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="N26" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -3381,13 +3381,13 @@
         <v>-5</v>
       </c>
       <c r="L27" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="M27" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="N27" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -3431,13 +3431,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="M28" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="N28" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="O28">
         <v>1</v>
@@ -3481,13 +3481,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="M29" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="N29" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="O29">
         <v>1</v>
@@ -3531,13 +3531,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="M30" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="N30" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="O30">
         <v>1</v>
@@ -3581,13 +3581,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="M31" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="N31" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="O31">
         <v>1</v>
@@ -3631,13 +3631,13 @@
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="M32" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="N32" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="O32">
         <v>1</v>
@@ -3681,13 +3681,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="M33" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="N33" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="O33">
         <v>1</v>
@@ -3731,13 +3731,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M34" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="N34" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="O34">
         <v>1</v>
@@ -3781,13 +3781,13 @@
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="M35" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="N35" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="O35">
         <v>1</v>
@@ -3834,13 +3834,13 @@
         <v>-20</v>
       </c>
       <c r="L36" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M36" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="N36" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="O36">
         <v>1</v>
@@ -3887,13 +3887,13 @@
         <v>-20</v>
       </c>
       <c r="L37" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="M37" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="N37" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="O37">
         <v>1</v>
@@ -3940,13 +3940,13 @@
         <v>-10</v>
       </c>
       <c r="L38" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="M38" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="N38" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="O38">
         <v>1</v>
@@ -3993,13 +3993,13 @@
         <v>-10</v>
       </c>
       <c r="L39" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="M39" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="N39" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="O39">
         <v>1</v>
@@ -4046,13 +4046,13 @@
         <v>-5</v>
       </c>
       <c r="L40" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="M40" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="N40" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="O40">
         <v>1</v>
@@ -4096,13 +4096,13 @@
         <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="M41" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="N41" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="O41">
         <v>1</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="M42" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="N42" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="O42">
         <v>1</v>
@@ -4196,13 +4196,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="M43" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="N43" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="O43">
         <v>1</v>
@@ -4246,13 +4246,13 @@
         <v>0</v>
       </c>
       <c r="L44" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="M44" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="N44" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="O44">
         <v>1</v>
@@ -4296,13 +4296,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="M45" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="N45" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O45">
         <v>1</v>
@@ -4346,13 +4346,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="M46" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="N46" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="O46">
         <v>1</v>
@@ -4396,13 +4396,13 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="M47" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="N47" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="O47">
         <v>1</v>
@@ -4446,13 +4446,13 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M48" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="N48" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="O48">
         <v>1</v>
@@ -4499,13 +4499,13 @@
         <v>-20</v>
       </c>
       <c r="L49" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="M49" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="N49" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="O49">
         <v>1</v>
@@ -4552,13 +4552,13 @@
         <v>-20</v>
       </c>
       <c r="L50" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="M50" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="N50" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="O50">
         <v>1</v>
@@ -4605,13 +4605,13 @@
         <v>-10</v>
       </c>
       <c r="L51" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="M51" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="N51" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="O51">
         <v>1</v>
@@ -4658,13 +4658,13 @@
         <v>-10</v>
       </c>
       <c r="L52" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="M52" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="N52" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="O52">
         <v>1</v>
@@ -4711,13 +4711,13 @@
         <v>-5</v>
       </c>
       <c r="L53" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="M53" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="N53" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="O53">
         <v>1</v>
@@ -4761,13 +4761,13 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M54" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="N54" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="O54">
         <v>1</v>
@@ -4811,13 +4811,13 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M55" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N55" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="O55">
         <v>1</v>
@@ -4861,13 +4861,13 @@
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="M56" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="N56" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="O56">
         <v>1</v>
@@ -4911,13 +4911,13 @@
         <v>0</v>
       </c>
       <c r="L57" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="M57" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="N57" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="O57">
         <v>1</v>
@@ -4961,13 +4961,13 @@
         <v>0</v>
       </c>
       <c r="L58" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="M58" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="N58" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="O58">
         <v>1</v>
@@ -5011,13 +5011,13 @@
         <v>0</v>
       </c>
       <c r="L59" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="M59" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="N59" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="O59">
         <v>1</v>
@@ -5061,13 +5061,13 @@
         <v>0</v>
       </c>
       <c r="L60" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="M60" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="N60" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="O60">
         <v>1</v>
@@ -5111,13 +5111,13 @@
         <v>0</v>
       </c>
       <c r="L61" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="M61" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="N61" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="O61">
         <v>1</v>
@@ -5164,13 +5164,13 @@
         <v>-20</v>
       </c>
       <c r="L62" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="M62" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="N62" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="O62">
         <v>1</v>
@@ -5217,13 +5217,13 @@
         <v>-20</v>
       </c>
       <c r="L63" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="M63" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="N63" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="O63">
         <v>1</v>
@@ -5270,13 +5270,13 @@
         <v>-10</v>
       </c>
       <c r="L64" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="M64" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="N64" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="O64">
         <v>1</v>
@@ -5323,13 +5323,13 @@
         <v>-10</v>
       </c>
       <c r="L65" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="M65" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="N65" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="O65">
         <v>1</v>
@@ -5376,13 +5376,13 @@
         <v>-5</v>
       </c>
       <c r="L66" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="M66" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="N66" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="O66">
         <v>1</v>
@@ -5426,13 +5426,13 @@
         <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="M67" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="N67" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -5476,13 +5476,13 @@
         <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>148</v>
+        <v>525</v>
       </c>
       <c r="M68" t="s">
-        <v>149</v>
+        <v>526</v>
       </c>
       <c r="N68" t="s">
-        <v>150</v>
+        <v>527</v>
       </c>
       <c r="O68">
         <v>1</v>
@@ -5526,13 +5526,13 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>154</v>
+        <v>528</v>
       </c>
       <c r="M69" t="s">
-        <v>155</v>
+        <v>529</v>
       </c>
       <c r="N69" t="s">
-        <v>156</v>
+        <v>530</v>
       </c>
       <c r="O69">
         <v>1</v>
@@ -5576,13 +5576,13 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M70" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="N70" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="O70">
         <v>1</v>
@@ -5626,13 +5626,13 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="M71" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="N71" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="O71">
         <v>1</v>
@@ -5676,13 +5676,13 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M72" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="N72" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="O72">
         <v>1</v>
@@ -5726,13 +5726,13 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="M73" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="N73" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="O73">
         <v>1</v>
@@ -5776,13 +5776,13 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M74" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="N74" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="O74">
         <v>1</v>
@@ -5829,13 +5829,13 @@
         <v>-20</v>
       </c>
       <c r="L75" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="M75" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="N75" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="O75">
         <v>1</v>
@@ -5882,13 +5882,13 @@
         <v>-20</v>
       </c>
       <c r="L76" t="s">
-        <v>353</v>
+        <v>531</v>
       </c>
       <c r="M76" t="s">
-        <v>354</v>
+        <v>532</v>
       </c>
       <c r="N76" t="s">
-        <v>355</v>
+        <v>533</v>
       </c>
       <c r="O76">
         <v>1</v>
@@ -5935,13 +5935,13 @@
         <v>-10</v>
       </c>
       <c r="L77" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="M77" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="N77" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="O77">
         <v>1</v>
@@ -5988,13 +5988,13 @@
         <v>-10</v>
       </c>
       <c r="L78" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="M78" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="N78" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="O78">
         <v>1</v>
@@ -6041,13 +6041,13 @@
         <v>-5</v>
       </c>
       <c r="L79" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="M79" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="N79" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="O79">
         <v>1</v>
@@ -6091,13 +6091,13 @@
         <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="M80" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="N80" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="O80">
         <v>1</v>
@@ -6141,13 +6141,13 @@
         <v>0</v>
       </c>
       <c r="L81" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="M81" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="N81" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="O81">
         <v>1</v>
@@ -6191,13 +6191,13 @@
         <v>0</v>
       </c>
       <c r="L82" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M82" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="N82" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="O82">
         <v>1</v>
@@ -6241,13 +6241,13 @@
         <v>0</v>
       </c>
       <c r="L83" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M83" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="N83" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="O83">
         <v>1</v>
@@ -6291,13 +6291,13 @@
         <v>0</v>
       </c>
       <c r="L84" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="M84" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="N84" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="O84">
         <v>1</v>
@@ -6341,13 +6341,13 @@
         <v>0</v>
       </c>
       <c r="L85" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="M85" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="N85" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="O85">
         <v>1</v>
@@ -6391,13 +6391,13 @@
         <v>0</v>
       </c>
       <c r="L86" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="M86" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="N86" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="O86">
         <v>1</v>
@@ -6441,13 +6441,13 @@
         <v>0</v>
       </c>
       <c r="L87" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="M87" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="N87" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="O87">
         <v>1</v>
@@ -6494,13 +6494,13 @@
         <v>-20</v>
       </c>
       <c r="L88" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="M88" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="N88" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="O88">
         <v>1</v>
@@ -6672,13 +6672,13 @@
         <v>0</v>
       </c>
       <c r="L93" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M93" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="N93" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="O93">
         <v>1</v>
@@ -6722,13 +6722,13 @@
         <v>0</v>
       </c>
       <c r="L94" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M94" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="N94" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="O94">
         <v>1</v>
@@ -6772,13 +6772,13 @@
         <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M95" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="N95" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="O95">
         <v>1</v>
@@ -6822,13 +6822,13 @@
         <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="M96" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="N96" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="O96">
         <v>1</v>
@@ -6872,13 +6872,13 @@
         <v>0</v>
       </c>
       <c r="L97" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="M97" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="N97" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="O97">
         <v>1</v>
@@ -6922,13 +6922,13 @@
         <v>0</v>
       </c>
       <c r="L98" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="M98" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="N98" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="O98">
         <v>1</v>
@@ -6972,13 +6972,13 @@
         <v>0</v>
       </c>
       <c r="L99" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="M99" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="N99" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="O99">
         <v>1</v>
@@ -7054,13 +7054,13 @@
         <v>-20</v>
       </c>
       <c r="L101" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="M101" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="N101" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="O101">
         <v>3</v>
@@ -7107,13 +7107,13 @@
         <v>-20</v>
       </c>
       <c r="L102" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="M102" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="N102" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="O102">
         <v>1</v>
@@ -7192,13 +7192,13 @@
         <v>-10</v>
       </c>
       <c r="L104" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="M104" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="N104" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="O104">
         <v>1</v>
@@ -7245,13 +7245,13 @@
         <v>-5</v>
       </c>
       <c r="L105" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="M105" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="N105" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="O105">
         <v>1</v>
@@ -7395,13 +7395,13 @@
         <v>0</v>
       </c>
       <c r="L108" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M108" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="N108" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="O108">
         <v>1</v>
@@ -7445,13 +7445,13 @@
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M109" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N109" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="O109">
         <v>1</v>
@@ -7495,13 +7495,13 @@
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="M110" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N110" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="O110">
         <v>1</v>
@@ -7545,13 +7545,13 @@
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="M111" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N111" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="O111">
         <v>1</v>
@@ -7595,13 +7595,13 @@
         <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="M112" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="N112" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="O112">
         <v>1</v>
@@ -7645,13 +7645,13 @@
         <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="M113" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="N113" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="O113">
         <v>1</v>
@@ -7698,13 +7698,13 @@
         <v>-20</v>
       </c>
       <c r="L114" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="M114" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="N114" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="O114">
         <v>1</v>
@@ -7751,13 +7751,13 @@
         <v>-20</v>
       </c>
       <c r="L115" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="M115" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="N115" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="O115">
         <v>1</v>
@@ -7804,13 +7804,13 @@
         <v>-10</v>
       </c>
       <c r="L116" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="M116" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="N116" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="O116">
         <v>1</v>
@@ -7889,13 +7889,13 @@
         <v>-5</v>
       </c>
       <c r="L118" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="M118" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="N118" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="O118">
         <v>1</v>
@@ -7933,7 +7933,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
@@ -7942,25 +7942,25 @@
         <v>30</v>
       </c>
       <c r="D1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" t="s">
         <v>176</v>
-      </c>
-      <c r="E1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I1" t="s">
-        <v>181</v>
-      </c>
-      <c r="J1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -12684,97 +12684,97 @@
   <sheetData>
     <row r="1" spans="1:31" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
         <v>109</v>
       </c>
       <c r="C1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I1" t="s">
         <v>204</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M1" t="s">
+        <v>182</v>
+      </c>
+      <c r="N1" t="s">
         <v>205</v>
       </c>
-      <c r="E1" t="s">
+      <c r="O1" t="s">
         <v>206</v>
       </c>
-      <c r="F1" t="s">
+      <c r="P1" t="s">
         <v>207</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Q1" t="s">
         <v>208</v>
       </c>
-      <c r="H1" t="s">
+      <c r="R1" t="s">
         <v>209</v>
       </c>
-      <c r="I1" t="s">
+      <c r="S1" t="s">
         <v>210</v>
       </c>
-      <c r="J1" t="s">
-        <v>185</v>
-      </c>
-      <c r="K1" t="s">
-        <v>186</v>
-      </c>
-      <c r="L1" t="s">
-        <v>187</v>
-      </c>
-      <c r="M1" t="s">
-        <v>188</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
         <v>211</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>212</v>
       </c>
-      <c r="P1" t="s">
+      <c r="V1" t="s">
         <v>213</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="W1" t="s">
         <v>214</v>
       </c>
-      <c r="R1" t="s">
+      <c r="X1" t="s">
         <v>215</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Y1" t="s">
         <v>216</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Z1" t="s">
         <v>217</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AA1" t="s">
         <v>218</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AB1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC1" t="s">
         <v>219</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AD1" t="s">
         <v>220</v>
       </c>
-      <c r="X1" t="s">
-        <v>221</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>226</v>
-      </c>
       <c r="AE1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
@@ -13431,13 +13431,13 @@
         <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E1" t="s">
         <v>26</v>
@@ -13455,19 +13455,19 @@
         <v>117</v>
       </c>
       <c r="J1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="K1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="L1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="M1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="N1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -13475,7 +13475,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -13507,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -13539,7 +13539,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -13571,7 +13571,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -13603,7 +13603,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -13641,7 +13641,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -13679,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -13717,7 +13717,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -13749,7 +13749,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -13781,7 +13781,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -13813,7 +13813,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -13845,7 +13845,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -13883,7 +13883,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -13921,7 +13921,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -13959,7 +13959,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -13991,7 +13991,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -14023,7 +14023,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -14055,7 +14055,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -14087,7 +14087,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -14125,7 +14125,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -14163,7 +14163,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -14201,7 +14201,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -14233,7 +14233,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -14265,7 +14265,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -14297,7 +14297,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -14329,7 +14329,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -14367,7 +14367,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -14405,7 +14405,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -14443,7 +14443,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -14475,7 +14475,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -14507,7 +14507,7 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -14539,7 +14539,7 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -14571,7 +14571,7 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -14609,7 +14609,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -14647,7 +14647,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -14685,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -14717,7 +14717,7 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -14749,7 +14749,7 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -14781,7 +14781,7 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -14813,7 +14813,7 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -14851,7 +14851,7 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -14889,7 +14889,7 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -14927,7 +14927,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -14959,7 +14959,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -14991,7 +14991,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -15023,7 +15023,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -15055,7 +15055,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -15093,7 +15093,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -15131,7 +15131,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -15169,7 +15169,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -15201,7 +15201,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -15233,7 +15233,7 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -15265,7 +15265,7 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -15297,7 +15297,7 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -15335,7 +15335,7 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -15373,7 +15373,7 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -15411,7 +15411,7 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -15443,7 +15443,7 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -15475,7 +15475,7 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -15507,7 +15507,7 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -15539,7 +15539,7 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -15577,7 +15577,7 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -15615,7 +15615,7 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C64">
         <v>6</v>
@@ -15653,7 +15653,7 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -15685,7 +15685,7 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -15717,7 +15717,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -15749,7 +15749,7 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -15781,7 +15781,7 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -15819,7 +15819,7 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -15857,7 +15857,7 @@
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C71">
         <v>6</v>
@@ -15895,7 +15895,7 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -15927,7 +15927,7 @@
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -15959,7 +15959,7 @@
         <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -15991,7 +15991,7 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -16023,7 +16023,7 @@
         <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -16061,7 +16061,7 @@
         <v>1</v>
       </c>
       <c r="B77" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -16099,7 +16099,7 @@
         <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C78">
         <v>6</v>
@@ -16150,37 +16150,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
       </c>
       <c r="C1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I1" t="s">
         <v>227</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>228</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>229</v>
-      </c>
-      <c r="F1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G1" t="s">
-        <v>231</v>
-      </c>
-      <c r="H1" t="s">
-        <v>232</v>
-      </c>
-      <c r="I1" t="s">
-        <v>233</v>
-      </c>
-      <c r="J1" t="s">
-        <v>234</v>
-      </c>
-      <c r="K1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -21346,10 +21346,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -21437,10 +21437,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693568AF-C759-4C33-B199-68A3BBED23A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A03E0E7-79CC-4160-A727-15FF4F9EFF6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="540">
   <si>
     <t>Equip0001</t>
   </si>
@@ -855,15 +855,6 @@
     <t>EquipName_HeavySkullAxe</t>
   </si>
   <si>
-    <t>HeavyHammer</t>
-  </si>
-  <si>
-    <t>Shot_HeavyHammer</t>
-  </si>
-  <si>
-    <t>EquipName_HeavyHammer</t>
-  </si>
-  <si>
     <t>HeavyMace</t>
   </si>
   <si>
@@ -972,15 +963,6 @@
     <t>EquipName_PickAxe</t>
   </si>
   <si>
-    <t>VikingShield</t>
-  </si>
-  <si>
-    <t>Shot_VikingShield</t>
-  </si>
-  <si>
-    <t>EquipName_VikingShield</t>
-  </si>
-  <si>
     <t>DwarfHammer</t>
   </si>
   <si>
@@ -1639,6 +1621,42 @@
   </si>
   <si>
     <t>EquipName_JimHdAssassin12</t>
+  </si>
+  <si>
+    <t>MorningStar</t>
+  </si>
+  <si>
+    <t>Shot_MorningStar</t>
+  </si>
+  <si>
+    <t>EquipName_MorningStar</t>
+  </si>
+  <si>
+    <t>CelticShield</t>
+  </si>
+  <si>
+    <t>Shot_CelticShield</t>
+  </si>
+  <si>
+    <t>EquipName_CelticShield</t>
+  </si>
+  <si>
+    <t>OrcShield</t>
+  </si>
+  <si>
+    <t>Shot_OrcShield</t>
+  </si>
+  <si>
+    <t>EquipName_OrcShield</t>
+  </si>
+  <si>
+    <t>SpikeShield</t>
+  </si>
+  <si>
+    <t>Shot_SpikeShield</t>
+  </si>
+  <si>
+    <t>EquipName_SpikeShield</t>
   </si>
 </sst>
 </file>
@@ -2007,8 +2025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2401,13 +2419,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="N8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -2451,13 +2469,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M9" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="N9" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -2504,13 +2522,13 @@
         <v>-20</v>
       </c>
       <c r="L10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="N10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -2557,13 +2575,13 @@
         <v>-20</v>
       </c>
       <c r="L11" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M11" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="N11" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -2610,13 +2628,13 @@
         <v>-10</v>
       </c>
       <c r="L12" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M12" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="N12" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -2663,13 +2681,13 @@
         <v>-10</v>
       </c>
       <c r="L13" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="M13" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N13" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -2716,13 +2734,13 @@
         <v>-5</v>
       </c>
       <c r="L14" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M14" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="N14" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -2916,13 +2934,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M18" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="N18" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -2966,13 +2984,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="M19" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="N19" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -3016,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="M20" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N20" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -3066,13 +3084,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="M21" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="N21" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -3116,13 +3134,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="M22" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="N22" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -3169,13 +3187,13 @@
         <v>-20</v>
       </c>
       <c r="L23" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="M23" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="N23" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -3222,13 +3240,13 @@
         <v>-20</v>
       </c>
       <c r="L24" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="M24" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="N24" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -3275,13 +3293,13 @@
         <v>-10</v>
       </c>
       <c r="L25" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="M25" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="N25" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -3328,13 +3346,13 @@
         <v>-10</v>
       </c>
       <c r="L26" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="M26" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="N26" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -3381,13 +3399,13 @@
         <v>-5</v>
       </c>
       <c r="L27" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="M27" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="N27" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -3431,13 +3449,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="M28" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="N28" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="O28">
         <v>1</v>
@@ -3481,13 +3499,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="M29" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="N29" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="O29">
         <v>1</v>
@@ -3531,13 +3549,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="M30" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="N30" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="O30">
         <v>1</v>
@@ -3581,13 +3599,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="M31" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="N31" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="O31">
         <v>1</v>
@@ -3631,13 +3649,13 @@
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="M32" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="N32" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="O32">
         <v>1</v>
@@ -3681,13 +3699,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="M33" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="N33" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="O33">
         <v>1</v>
@@ -3781,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="M35" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="N35" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="O35">
         <v>1</v>
@@ -3834,13 +3852,13 @@
         <v>-20</v>
       </c>
       <c r="L36" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="M36" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="N36" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="O36">
         <v>1</v>
@@ -3887,13 +3905,13 @@
         <v>-20</v>
       </c>
       <c r="L37" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="M37" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="N37" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="O37">
         <v>1</v>
@@ -3940,13 +3958,13 @@
         <v>-10</v>
       </c>
       <c r="L38" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="M38" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="N38" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="O38">
         <v>1</v>
@@ -3993,13 +4011,13 @@
         <v>-10</v>
       </c>
       <c r="L39" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="M39" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="N39" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="O39">
         <v>1</v>
@@ -4046,13 +4064,13 @@
         <v>-5</v>
       </c>
       <c r="L40" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="M40" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="N40" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="O40">
         <v>1</v>
@@ -4096,13 +4114,13 @@
         <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="M41" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="N41" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="O41">
         <v>1</v>
@@ -4146,13 +4164,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="M42" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="N42" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="O42">
         <v>1</v>
@@ -4196,13 +4214,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="M43" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="N43" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="O43">
         <v>1</v>
@@ -4246,13 +4264,13 @@
         <v>0</v>
       </c>
       <c r="L44" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="M44" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="N44" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="O44">
         <v>1</v>
@@ -4346,13 +4364,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="M46" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="N46" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="O46">
         <v>1</v>
@@ -4396,13 +4414,13 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="M47" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="N47" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="O47">
         <v>1</v>
@@ -4499,13 +4517,13 @@
         <v>-20</v>
       </c>
       <c r="L49" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M49" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N49" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="O49">
         <v>1</v>
@@ -4552,13 +4570,13 @@
         <v>-20</v>
       </c>
       <c r="L50" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="M50" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="N50" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="O50">
         <v>1</v>
@@ -4605,13 +4623,13 @@
         <v>-10</v>
       </c>
       <c r="L51" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="M51" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="N51" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="O51">
         <v>1</v>
@@ -4658,13 +4676,13 @@
         <v>-10</v>
       </c>
       <c r="L52" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="M52" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="N52" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="O52">
         <v>1</v>
@@ -4711,13 +4729,13 @@
         <v>-5</v>
       </c>
       <c r="L53" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="M53" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="N53" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="O53">
         <v>1</v>
@@ -4861,13 +4879,13 @@
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>272</v>
+        <v>528</v>
       </c>
       <c r="M56" t="s">
-        <v>273</v>
+        <v>529</v>
       </c>
       <c r="N56" t="s">
-        <v>274</v>
+        <v>530</v>
       </c>
       <c r="O56">
         <v>1</v>
@@ -4911,13 +4929,13 @@
         <v>0</v>
       </c>
       <c r="L57" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M57" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="N57" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O57">
         <v>1</v>
@@ -4961,13 +4979,13 @@
         <v>0</v>
       </c>
       <c r="L58" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M58" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="N58" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O58">
         <v>1</v>
@@ -5011,13 +5029,13 @@
         <v>0</v>
       </c>
       <c r="L59" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M59" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="N59" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="O59">
         <v>1</v>
@@ -5061,13 +5079,13 @@
         <v>0</v>
       </c>
       <c r="L60" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M60" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="N60" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="O60">
         <v>1</v>
@@ -5111,13 +5129,13 @@
         <v>0</v>
       </c>
       <c r="L61" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="M61" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="N61" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="O61">
         <v>1</v>
@@ -5164,13 +5182,13 @@
         <v>-20</v>
       </c>
       <c r="L62" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="M62" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="N62" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="O62">
         <v>1</v>
@@ -5217,13 +5235,13 @@
         <v>-20</v>
       </c>
       <c r="L63" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="M63" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="N63" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="O63">
         <v>1</v>
@@ -5270,13 +5288,13 @@
         <v>-10</v>
       </c>
       <c r="L64" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="M64" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="N64" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="O64">
         <v>1</v>
@@ -5323,13 +5341,13 @@
         <v>-10</v>
       </c>
       <c r="L65" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="M65" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="N65" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="O65">
         <v>1</v>
@@ -5376,13 +5394,13 @@
         <v>-5</v>
       </c>
       <c r="L66" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="M66" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="N66" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="O66">
         <v>1</v>
@@ -5426,13 +5444,13 @@
         <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="M67" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="N67" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -5476,13 +5494,13 @@
         <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="M68" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="N68" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="O68">
         <v>1</v>
@@ -5526,13 +5544,13 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="M69" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="N69" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="O69">
         <v>1</v>
@@ -5726,13 +5744,13 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="M73" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="N73" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="O73">
         <v>1</v>
@@ -5776,13 +5794,13 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="M74" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="N74" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="O74">
         <v>1</v>
@@ -5829,13 +5847,13 @@
         <v>-20</v>
       </c>
       <c r="L75" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M75" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="N75" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="O75">
         <v>1</v>
@@ -5882,13 +5900,13 @@
         <v>-20</v>
       </c>
       <c r="L76" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="M76" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="N76" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="O76">
         <v>1</v>
@@ -5935,13 +5953,13 @@
         <v>-10</v>
       </c>
       <c r="L77" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="M77" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="N77" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="O77">
         <v>1</v>
@@ -5988,13 +6006,13 @@
         <v>-10</v>
       </c>
       <c r="L78" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M78" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="N78" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="O78">
         <v>1</v>
@@ -6041,13 +6059,13 @@
         <v>-5</v>
       </c>
       <c r="L79" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="M79" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="N79" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="O79">
         <v>1</v>
@@ -6141,13 +6159,13 @@
         <v>0</v>
       </c>
       <c r="L81" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M81" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="N81" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="O81">
         <v>1</v>
@@ -6191,13 +6209,13 @@
         <v>0</v>
       </c>
       <c r="L82" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M82" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="N82" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="O82">
         <v>1</v>
@@ -6241,13 +6259,13 @@
         <v>0</v>
       </c>
       <c r="L83" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="M83" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="N83" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="O83">
         <v>1</v>
@@ -6291,13 +6309,13 @@
         <v>0</v>
       </c>
       <c r="L84" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="M84" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="N84" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="O84">
         <v>1</v>
@@ -6341,13 +6359,13 @@
         <v>0</v>
       </c>
       <c r="L85" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M85" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="N85" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="O85">
         <v>1</v>
@@ -6391,13 +6409,13 @@
         <v>0</v>
       </c>
       <c r="L86" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M86" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N86" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="O86">
         <v>1</v>
@@ -6441,13 +6459,13 @@
         <v>0</v>
       </c>
       <c r="L87" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="M87" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="N87" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="O87">
         <v>1</v>
@@ -6494,13 +6512,13 @@
         <v>-20</v>
       </c>
       <c r="L88" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="M88" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="N88" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="O88">
         <v>1</v>
@@ -6722,13 +6740,13 @@
         <v>0</v>
       </c>
       <c r="L94" t="s">
-        <v>311</v>
+        <v>531</v>
       </c>
       <c r="M94" t="s">
-        <v>312</v>
+        <v>532</v>
       </c>
       <c r="N94" t="s">
-        <v>313</v>
+        <v>533</v>
       </c>
       <c r="O94">
         <v>1</v>
@@ -6772,13 +6790,13 @@
         <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M95" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="N95" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="O95">
         <v>1</v>
@@ -6822,13 +6840,13 @@
         <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="M96" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="N96" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="O96">
         <v>1</v>
@@ -6872,13 +6890,13 @@
         <v>0</v>
       </c>
       <c r="L97" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M97" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="N97" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="O97">
         <v>1</v>
@@ -6922,13 +6940,13 @@
         <v>0</v>
       </c>
       <c r="L98" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="M98" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="N98" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="O98">
         <v>1</v>
@@ -6972,13 +6990,13 @@
         <v>0</v>
       </c>
       <c r="L99" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="M99" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="N99" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="O99">
         <v>1</v>
@@ -7021,6 +7039,27 @@
       <c r="I100">
         <v>0</v>
       </c>
+      <c r="L100" t="s">
+        <v>534</v>
+      </c>
+      <c r="M100" t="s">
+        <v>535</v>
+      </c>
+      <c r="N100" t="s">
+        <v>536</v>
+      </c>
+      <c r="O100">
+        <v>1</v>
+      </c>
+      <c r="P100">
+        <v>3</v>
+      </c>
+      <c r="Q100">
+        <v>1</v>
+      </c>
+      <c r="R100">
+        <v>1</v>
+      </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
@@ -7107,13 +7146,13 @@
         <v>-20</v>
       </c>
       <c r="L102" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="M102" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="N102" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="O102">
         <v>1</v>
@@ -7159,6 +7198,27 @@
       <c r="J103">
         <v>-10</v>
       </c>
+      <c r="L103" t="s">
+        <v>537</v>
+      </c>
+      <c r="M103" t="s">
+        <v>538</v>
+      </c>
+      <c r="N103" t="s">
+        <v>539</v>
+      </c>
+      <c r="O103">
+        <v>1</v>
+      </c>
+      <c r="P103">
+        <v>3</v>
+      </c>
+      <c r="Q103">
+        <v>1</v>
+      </c>
+      <c r="R103">
+        <v>1</v>
+      </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
@@ -7192,13 +7252,13 @@
         <v>-10</v>
       </c>
       <c r="L104" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="M104" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="N104" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="O104">
         <v>1</v>
@@ -7245,13 +7305,13 @@
         <v>-5</v>
       </c>
       <c r="L105" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="M105" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="N105" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="O105">
         <v>1</v>
@@ -7445,13 +7505,13 @@
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M109" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="N109" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O109">
         <v>1</v>
@@ -7495,13 +7555,13 @@
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M110" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="N110" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="O110">
         <v>1</v>
@@ -7545,13 +7605,13 @@
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="M111" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="N111" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="O111">
         <v>1</v>
@@ -7595,13 +7655,13 @@
         <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="M112" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="N112" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="O112">
         <v>1</v>
@@ -7645,13 +7705,13 @@
         <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="M113" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="N113" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="O113">
         <v>1</v>
@@ -7698,13 +7758,13 @@
         <v>-20</v>
       </c>
       <c r="L114" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M114" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="N114" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="O114">
         <v>1</v>
@@ -7751,13 +7811,13 @@
         <v>-20</v>
       </c>
       <c r="L115" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M115" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="N115" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="O115">
         <v>1</v>
@@ -7804,13 +7864,13 @@
         <v>-10</v>
       </c>
       <c r="L116" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="M116" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="N116" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="O116">
         <v>1</v>
@@ -7889,13 +7949,13 @@
         <v>-5</v>
       </c>
       <c r="L118" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="M118" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="N118" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="O118">
         <v>1</v>
@@ -12774,7 +12834,7 @@
         <v>220</v>
       </c>
       <c r="AE1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A03E0E7-79CC-4160-A727-15FF4F9EFF6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E67DAD-2A86-420A-9867-4C2E15528E84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="552">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1657,6 +1657,42 @@
   </si>
   <si>
     <t>EquipName_SpikeShield</t>
+  </si>
+  <si>
+    <t>SciFiPlasmaRifle</t>
+  </si>
+  <si>
+    <t>SciFiRifle3</t>
+  </si>
+  <si>
+    <t>Shot_SciFiRifle3</t>
+  </si>
+  <si>
+    <t>EquipName_SciFiRifle3</t>
+  </si>
+  <si>
+    <t>SciFiRifle4</t>
+  </si>
+  <si>
+    <t>Shot_SciFiRifle4</t>
+  </si>
+  <si>
+    <t>EquipName_SciFiRifle4</t>
+  </si>
+  <si>
+    <t>SciFiRocketLauncher</t>
+  </si>
+  <si>
+    <t>Shot_SciFiRocketLauncher</t>
+  </si>
+  <si>
+    <t>EquipName_SciFiRocketLauncher</t>
+  </si>
+  <si>
+    <t>Shot_SciFiPlasmaRifle</t>
+  </si>
+  <si>
+    <t>EquipName_SciFiPlasmaRifle</t>
   </si>
 </sst>
 </file>
@@ -2025,8 +2061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6564,6 +6600,27 @@
       <c r="J89">
         <v>-20</v>
       </c>
+      <c r="L89" t="s">
+        <v>541</v>
+      </c>
+      <c r="M89" t="s">
+        <v>542</v>
+      </c>
+      <c r="N89" t="s">
+        <v>543</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="P89">
+        <v>3</v>
+      </c>
+      <c r="Q89">
+        <v>1</v>
+      </c>
+      <c r="R89">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
@@ -6596,6 +6653,27 @@
       <c r="J90">
         <v>-10</v>
       </c>
+      <c r="L90" t="s">
+        <v>544</v>
+      </c>
+      <c r="M90" t="s">
+        <v>545</v>
+      </c>
+      <c r="N90" t="s">
+        <v>546</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+      <c r="P90">
+        <v>3</v>
+      </c>
+      <c r="Q90">
+        <v>1</v>
+      </c>
+      <c r="R90">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
@@ -6628,6 +6706,27 @@
       <c r="J91">
         <v>-10</v>
       </c>
+      <c r="L91" t="s">
+        <v>547</v>
+      </c>
+      <c r="M91" t="s">
+        <v>548</v>
+      </c>
+      <c r="N91" t="s">
+        <v>549</v>
+      </c>
+      <c r="O91">
+        <v>1</v>
+      </c>
+      <c r="P91">
+        <v>3</v>
+      </c>
+      <c r="Q91">
+        <v>1</v>
+      </c>
+      <c r="R91">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
@@ -6659,6 +6758,27 @@
       </c>
       <c r="J92">
         <v>-5</v>
+      </c>
+      <c r="L92" t="s">
+        <v>540</v>
+      </c>
+      <c r="M92" t="s">
+        <v>550</v>
+      </c>
+      <c r="N92" t="s">
+        <v>551</v>
+      </c>
+      <c r="O92">
+        <v>1</v>
+      </c>
+      <c r="P92">
+        <v>3</v>
+      </c>
+      <c r="Q92">
+        <v>1</v>
+      </c>
+      <c r="R92">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E67DAD-2A86-420A-9867-4C2E15528E84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9DC3C3-61EA-49B3-BF1F-3AEC46949D60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="555">
   <si>
     <t>Equip0001</t>
   </si>
@@ -1693,6 +1693,15 @@
   </si>
   <si>
     <t>EquipName_SciFiPlasmaRifle</t>
+  </si>
+  <si>
+    <t>StormBringer</t>
+  </si>
+  <si>
+    <t>Shot_StormBringer</t>
+  </si>
+  <si>
+    <t>EquipName_StormBringer</t>
   </si>
 </sst>
 </file>
@@ -2061,9 +2070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8035,6 +8042,27 @@
       </c>
       <c r="J117">
         <v>-10</v>
+      </c>
+      <c r="L117" t="s">
+        <v>552</v>
+      </c>
+      <c r="M117" t="s">
+        <v>553</v>
+      </c>
+      <c r="N117" t="s">
+        <v>554</v>
+      </c>
+      <c r="O117">
+        <v>1</v>
+      </c>
+      <c r="P117">
+        <v>4</v>
+      </c>
+      <c r="Q117">
+        <v>1</v>
+      </c>
+      <c r="R117">
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9DC3C3-61EA-49B3-BF1F-3AEC46949D60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DB2EFD-3F38-4571-B155-8ACCDC0960BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -864,15 +864,6 @@
     <t>EquipName_HeavyMace</t>
   </si>
   <si>
-    <t>HeavyDarkSword</t>
-  </si>
-  <si>
-    <t>Shot_HeavyDarkSword</t>
-  </si>
-  <si>
-    <t>EquipName_HeavyDarkSword</t>
-  </si>
-  <si>
     <t>StAxe</t>
   </si>
   <si>
@@ -1702,6 +1693,15 @@
   </si>
   <si>
     <t>EquipName_StormBringer</t>
+  </si>
+  <si>
+    <t>WeaponVol5</t>
+  </si>
+  <si>
+    <t>Shot_WeaponVol5</t>
+  </si>
+  <si>
+    <t>EquipName_WeaponVol5</t>
   </si>
 </sst>
 </file>
@@ -2070,7 +2070,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2462,13 +2464,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="N8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -2512,13 +2514,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="N9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -2565,13 +2567,13 @@
         <v>-20</v>
       </c>
       <c r="L10" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N10" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -2618,13 +2620,13 @@
         <v>-20</v>
       </c>
       <c r="L11" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M11" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="N11" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -2671,13 +2673,13 @@
         <v>-10</v>
       </c>
       <c r="L12" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="M12" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="N12" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -2724,13 +2726,13 @@
         <v>-10</v>
       </c>
       <c r="L13" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M13" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N13" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -2777,13 +2779,13 @@
         <v>-5</v>
       </c>
       <c r="L14" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="M14" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="N14" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -2977,13 +2979,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N18" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -3027,13 +3029,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="M19" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="N19" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="M20" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="N20" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -3127,13 +3129,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="M21" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N21" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -3177,13 +3179,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M22" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="N22" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -3230,13 +3232,13 @@
         <v>-20</v>
       </c>
       <c r="L23" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="M23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N23" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -3283,13 +3285,13 @@
         <v>-20</v>
       </c>
       <c r="L24" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M24" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N24" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -3336,13 +3338,13 @@
         <v>-10</v>
       </c>
       <c r="L25" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M25" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="N25" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -3389,13 +3391,13 @@
         <v>-10</v>
       </c>
       <c r="L26" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="M26" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="N26" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -3442,13 +3444,13 @@
         <v>-5</v>
       </c>
       <c r="L27" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="M27" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="N27" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -3492,13 +3494,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M28" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="N28" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="O28">
         <v>1</v>
@@ -3542,13 +3544,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="M29" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="N29" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="O29">
         <v>1</v>
@@ -3592,13 +3594,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="M30" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="N30" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="O30">
         <v>1</v>
@@ -3642,13 +3644,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="M31" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="N31" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="O31">
         <v>1</v>
@@ -3692,13 +3694,13 @@
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="M32" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="N32" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="O32">
         <v>1</v>
@@ -3742,13 +3744,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="M33" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="N33" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="O33">
         <v>1</v>
@@ -3842,13 +3844,13 @@
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="M35" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="N35" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="O35">
         <v>1</v>
@@ -3895,13 +3897,13 @@
         <v>-20</v>
       </c>
       <c r="L36" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M36" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="N36" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="O36">
         <v>1</v>
@@ -3948,13 +3950,13 @@
         <v>-20</v>
       </c>
       <c r="L37" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M37" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N37" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="O37">
         <v>1</v>
@@ -4001,13 +4003,13 @@
         <v>-10</v>
       </c>
       <c r="L38" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="M38" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="N38" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="O38">
         <v>1</v>
@@ -4054,13 +4056,13 @@
         <v>-10</v>
       </c>
       <c r="L39" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="M39" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="N39" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="O39">
         <v>1</v>
@@ -4107,13 +4109,13 @@
         <v>-5</v>
       </c>
       <c r="L40" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="M40" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="N40" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="O40">
         <v>1</v>
@@ -4157,13 +4159,13 @@
         <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="M41" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="N41" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="O41">
         <v>1</v>
@@ -4207,13 +4209,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="M42" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="N42" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="O42">
         <v>1</v>
@@ -4257,13 +4259,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="M43" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="N43" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="O43">
         <v>1</v>
@@ -4307,13 +4309,13 @@
         <v>0</v>
       </c>
       <c r="L44" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="M44" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="N44" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O44">
         <v>1</v>
@@ -4407,13 +4409,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="M46" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="N46" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="O46">
         <v>1</v>
@@ -4457,13 +4459,13 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="M47" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="N47" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="O47">
         <v>1</v>
@@ -4560,13 +4562,13 @@
         <v>-20</v>
       </c>
       <c r="L49" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M49" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="N49" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O49">
         <v>1</v>
@@ -4613,13 +4615,13 @@
         <v>-20</v>
       </c>
       <c r="L50" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="M50" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="N50" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="O50">
         <v>1</v>
@@ -4666,13 +4668,13 @@
         <v>-10</v>
       </c>
       <c r="L51" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="M51" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="N51" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="O51">
         <v>1</v>
@@ -4719,13 +4721,13 @@
         <v>-10</v>
       </c>
       <c r="L52" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="M52" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="N52" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="O52">
         <v>1</v>
@@ -4772,13 +4774,13 @@
         <v>-5</v>
       </c>
       <c r="L53" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M53" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="N53" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="O53">
         <v>1</v>
@@ -4922,13 +4924,13 @@
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="M56" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="N56" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="O56">
         <v>1</v>
@@ -5022,13 +5024,13 @@
         <v>0</v>
       </c>
       <c r="L58" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M58" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="N58" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O58">
         <v>1</v>
@@ -5072,13 +5074,13 @@
         <v>0</v>
       </c>
       <c r="L59" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M59" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="N59" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="O59">
         <v>1</v>
@@ -5122,13 +5124,13 @@
         <v>0</v>
       </c>
       <c r="L60" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M60" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="N60" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="O60">
         <v>1</v>
@@ -5172,13 +5174,13 @@
         <v>0</v>
       </c>
       <c r="L61" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M61" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="N61" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="O61">
         <v>1</v>
@@ -5225,13 +5227,13 @@
         <v>-20</v>
       </c>
       <c r="L62" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M62" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="N62" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="O62">
         <v>1</v>
@@ -5278,13 +5280,13 @@
         <v>-20</v>
       </c>
       <c r="L63" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M63" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="N63" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="O63">
         <v>1</v>
@@ -5331,13 +5333,13 @@
         <v>-10</v>
       </c>
       <c r="L64" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M64" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N64" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="O64">
         <v>1</v>
@@ -5384,13 +5386,13 @@
         <v>-10</v>
       </c>
       <c r="L65" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M65" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="N65" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="O65">
         <v>1</v>
@@ -5437,13 +5439,13 @@
         <v>-5</v>
       </c>
       <c r="L66" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M66" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N66" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="O66">
         <v>1</v>
@@ -5487,13 +5489,13 @@
         <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="M67" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="N67" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -5537,13 +5539,13 @@
         <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="M68" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="N68" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="O68">
         <v>1</v>
@@ -5587,13 +5589,13 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="M69" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="N69" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="O69">
         <v>1</v>
@@ -5787,13 +5789,13 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M73" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="N73" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="O73">
         <v>1</v>
@@ -5837,13 +5839,13 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M74" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="N74" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="O74">
         <v>1</v>
@@ -5890,13 +5892,13 @@
         <v>-20</v>
       </c>
       <c r="L75" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="M75" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="N75" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="O75">
         <v>1</v>
@@ -5943,13 +5945,13 @@
         <v>-20</v>
       </c>
       <c r="L76" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="M76" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="N76" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="O76">
         <v>1</v>
@@ -5996,13 +5998,13 @@
         <v>-10</v>
       </c>
       <c r="L77" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M77" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N77" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="O77">
         <v>1</v>
@@ -6049,13 +6051,13 @@
         <v>-10</v>
       </c>
       <c r="L78" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M78" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="N78" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O78">
         <v>1</v>
@@ -6102,13 +6104,13 @@
         <v>-5</v>
       </c>
       <c r="L79" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="M79" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N79" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="O79">
         <v>1</v>
@@ -6202,13 +6204,13 @@
         <v>0</v>
       </c>
       <c r="L81" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M81" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="N81" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="O81">
         <v>1</v>
@@ -6252,13 +6254,13 @@
         <v>0</v>
       </c>
       <c r="L82" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M82" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="N82" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="O82">
         <v>1</v>
@@ -6302,13 +6304,13 @@
         <v>0</v>
       </c>
       <c r="L83" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M83" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="N83" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="O83">
         <v>1</v>
@@ -6352,13 +6354,13 @@
         <v>0</v>
       </c>
       <c r="L84" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="M84" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="N84" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="O84">
         <v>1</v>
@@ -6402,13 +6404,13 @@
         <v>0</v>
       </c>
       <c r="L85" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M85" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N85" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="O85">
         <v>1</v>
@@ -6452,13 +6454,13 @@
         <v>0</v>
       </c>
       <c r="L86" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M86" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="N86" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="O86">
         <v>1</v>
@@ -6502,13 +6504,13 @@
         <v>0</v>
       </c>
       <c r="L87" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="M87" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="N87" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="O87">
         <v>1</v>
@@ -6555,13 +6557,13 @@
         <v>-20</v>
       </c>
       <c r="L88" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M88" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="N88" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="O88">
         <v>1</v>
@@ -6608,13 +6610,13 @@
         <v>-20</v>
       </c>
       <c r="L89" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="M89" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="N89" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="O89">
         <v>1</v>
@@ -6661,13 +6663,13 @@
         <v>-10</v>
       </c>
       <c r="L90" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="M90" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="N90" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="O90">
         <v>1</v>
@@ -6714,13 +6716,13 @@
         <v>-10</v>
       </c>
       <c r="L91" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M91" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="N91" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="O91">
         <v>1</v>
@@ -6767,13 +6769,13 @@
         <v>-5</v>
       </c>
       <c r="L92" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="M92" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="N92" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="O92">
         <v>1</v>
@@ -6867,13 +6869,13 @@
         <v>0</v>
       </c>
       <c r="L94" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="M94" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="N94" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="O94">
         <v>1</v>
@@ -6917,13 +6919,13 @@
         <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M95" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="N95" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O95">
         <v>1</v>
@@ -6967,13 +6969,13 @@
         <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M96" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="N96" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="O96">
         <v>1</v>
@@ -7017,13 +7019,13 @@
         <v>0</v>
       </c>
       <c r="L97" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M97" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="N97" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="O97">
         <v>1</v>
@@ -7067,13 +7069,13 @@
         <v>0</v>
       </c>
       <c r="L98" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="M98" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N98" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="O98">
         <v>1</v>
@@ -7117,13 +7119,13 @@
         <v>0</v>
       </c>
       <c r="L99" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="M99" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="N99" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="O99">
         <v>1</v>
@@ -7167,13 +7169,13 @@
         <v>0</v>
       </c>
       <c r="L100" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="M100" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="N100" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="O100">
         <v>1</v>
@@ -7273,13 +7275,13 @@
         <v>-20</v>
       </c>
       <c r="L102" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M102" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="N102" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="O102">
         <v>1</v>
@@ -7326,13 +7328,13 @@
         <v>-10</v>
       </c>
       <c r="L103" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="M103" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="N103" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="O103">
         <v>1</v>
@@ -7379,13 +7381,13 @@
         <v>-10</v>
       </c>
       <c r="L104" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="M104" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="N104" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="O104">
         <v>1</v>
@@ -7432,13 +7434,13 @@
         <v>-5</v>
       </c>
       <c r="L105" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="M105" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="N105" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="O105">
         <v>1</v>
@@ -7632,13 +7634,13 @@
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>275</v>
+        <v>552</v>
       </c>
       <c r="M109" t="s">
-        <v>276</v>
+        <v>553</v>
       </c>
       <c r="N109" t="s">
-        <v>277</v>
+        <v>554</v>
       </c>
       <c r="O109">
         <v>1</v>
@@ -7682,13 +7684,13 @@
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M110" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="N110" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O110">
         <v>1</v>
@@ -7732,13 +7734,13 @@
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M111" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="N111" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="O111">
         <v>1</v>
@@ -7782,13 +7784,13 @@
         <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="M112" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="N112" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="O112">
         <v>1</v>
@@ -7832,13 +7834,13 @@
         <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M113" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="N113" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="O113">
         <v>1</v>
@@ -7885,13 +7887,13 @@
         <v>-20</v>
       </c>
       <c r="L114" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M114" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="N114" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="O114">
         <v>1</v>
@@ -7938,13 +7940,13 @@
         <v>-20</v>
       </c>
       <c r="L115" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M115" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="N115" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="O115">
         <v>1</v>
@@ -7991,13 +7993,13 @@
         <v>-10</v>
       </c>
       <c r="L116" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="M116" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N116" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="O116">
         <v>1</v>
@@ -8044,13 +8046,13 @@
         <v>-10</v>
       </c>
       <c r="L117" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="M117" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="N117" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="O117">
         <v>1</v>
@@ -8097,13 +8099,13 @@
         <v>-5</v>
       </c>
       <c r="L118" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M118" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="N118" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="O118">
         <v>1</v>
@@ -12982,7 +12984,7 @@
         <v>220</v>
       </c>
       <c r="AE1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DB2EFD-3F38-4571-B155-8ACCDC0960BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C4BF0A-E09F-4CDC-BB24-FDDE17CC6540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -2164,13 +2164,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>113</v>
+        <v>275</v>
       </c>
       <c r="M2" t="s">
-        <v>112</v>
+        <v>276</v>
       </c>
       <c r="N2" t="s">
-        <v>114</v>
+        <v>277</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -2214,13 +2214,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>142</v>
+        <v>317</v>
       </c>
       <c r="M3" t="s">
-        <v>143</v>
+        <v>318</v>
       </c>
       <c r="N3" t="s">
-        <v>144</v>
+        <v>319</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -2264,13 +2264,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>148</v>
+        <v>269</v>
       </c>
       <c r="M4" t="s">
-        <v>149</v>
+        <v>270</v>
       </c>
       <c r="N4" t="s">
-        <v>150</v>
+        <v>271</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -2314,13 +2314,13 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>266</v>
+        <v>142</v>
       </c>
       <c r="M5" t="s">
-        <v>267</v>
+        <v>143</v>
       </c>
       <c r="N5" t="s">
-        <v>268</v>
+        <v>144</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -2364,13 +2364,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="N6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -2414,13 +2414,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="M7" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="N7" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -2464,13 +2464,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>275</v>
+        <v>148</v>
       </c>
       <c r="M8" t="s">
-        <v>276</v>
+        <v>149</v>
       </c>
       <c r="N8" t="s">
-        <v>277</v>
+        <v>150</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -2514,13 +2514,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="M9" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="N9" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -2567,13 +2567,13 @@
         <v>-20</v>
       </c>
       <c r="L10" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="M10" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="N10" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -2620,13 +2620,13 @@
         <v>-20</v>
       </c>
       <c r="L11" t="s">
-        <v>317</v>
+        <v>237</v>
       </c>
       <c r="M11" t="s">
-        <v>318</v>
+        <v>238</v>
       </c>
       <c r="N11" t="s">
-        <v>319</v>
+        <v>239</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -2673,13 +2673,13 @@
         <v>-10</v>
       </c>
       <c r="L12" t="s">
-        <v>324</v>
+        <v>113</v>
       </c>
       <c r="M12" t="s">
-        <v>325</v>
+        <v>112</v>
       </c>
       <c r="N12" t="s">
-        <v>326</v>
+        <v>114</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -2829,13 +2829,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="M15" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="N15" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -2879,13 +2879,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="M16" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="N16" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -2929,13 +2929,13 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="M17" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="N17" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -2979,13 +2979,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>287</v>
+        <v>414</v>
       </c>
       <c r="M18" t="s">
-        <v>288</v>
+        <v>415</v>
       </c>
       <c r="N18" t="s">
-        <v>289</v>
+        <v>416</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -3029,13 +3029,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>420</v>
+        <v>255</v>
       </c>
       <c r="M19" t="s">
-        <v>421</v>
+        <v>256</v>
       </c>
       <c r="N19" t="s">
-        <v>422</v>
+        <v>257</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M20" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="N20" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -3129,13 +3129,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M21" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="N21" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -3179,13 +3179,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="M22" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="N22" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -3232,13 +3232,13 @@
         <v>-20</v>
       </c>
       <c r="L23" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="M23" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="N23" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -3338,13 +3338,13 @@
         <v>-10</v>
       </c>
       <c r="L25" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M25" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="N25" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -3391,13 +3391,13 @@
         <v>-10</v>
       </c>
       <c r="L26" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="M26" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="N26" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -3494,13 +3494,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="M28" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="N28" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="O28">
         <v>1</v>
@@ -3544,13 +3544,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>447</v>
+        <v>160</v>
       </c>
       <c r="M29" t="s">
-        <v>448</v>
+        <v>161</v>
       </c>
       <c r="N29" t="s">
-        <v>449</v>
+        <v>162</v>
       </c>
       <c r="O29">
         <v>1</v>
@@ -3594,13 +3594,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="M30" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="N30" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="O30">
         <v>1</v>
@@ -3644,13 +3644,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="M31" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="N31" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="O31">
         <v>1</v>
@@ -3694,13 +3694,13 @@
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="M32" t="s">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="N32" t="s">
-        <v>446</v>
+        <v>473</v>
       </c>
       <c r="O32">
         <v>1</v>
@@ -3744,13 +3744,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M33" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="N33" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="O33">
         <v>1</v>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>160</v>
+        <v>441</v>
       </c>
       <c r="M34" t="s">
-        <v>161</v>
+        <v>442</v>
       </c>
       <c r="N34" t="s">
-        <v>162</v>
+        <v>443</v>
       </c>
       <c r="O34">
         <v>1</v>
@@ -3844,13 +3844,13 @@
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="M35" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="N35" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="O35">
         <v>1</v>
@@ -3897,13 +3897,13 @@
         <v>-20</v>
       </c>
       <c r="L36" t="s">
-        <v>323</v>
+        <v>468</v>
       </c>
       <c r="M36" t="s">
-        <v>327</v>
+        <v>469</v>
       </c>
       <c r="N36" t="s">
-        <v>328</v>
+        <v>470</v>
       </c>
       <c r="O36">
         <v>1</v>
@@ -3950,13 +3950,13 @@
         <v>-20</v>
       </c>
       <c r="L37" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="M37" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="N37" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="O37">
         <v>1</v>
@@ -4003,13 +4003,13 @@
         <v>-10</v>
       </c>
       <c r="L38" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="M38" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="N38" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="O38">
         <v>1</v>
@@ -4056,13 +4056,13 @@
         <v>-10</v>
       </c>
       <c r="L39" t="s">
-        <v>471</v>
+        <v>323</v>
       </c>
       <c r="M39" t="s">
-        <v>472</v>
+        <v>327</v>
       </c>
       <c r="N39" t="s">
-        <v>473</v>
+        <v>328</v>
       </c>
       <c r="O39">
         <v>1</v>
@@ -4159,13 +4159,13 @@
         <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>495</v>
+        <v>157</v>
       </c>
       <c r="M41" t="s">
-        <v>496</v>
+        <v>158</v>
       </c>
       <c r="N41" t="s">
-        <v>497</v>
+        <v>159</v>
       </c>
       <c r="O41">
         <v>1</v>
@@ -4209,13 +4209,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="s">
-        <v>480</v>
+        <v>501</v>
       </c>
       <c r="M42" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="N42" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="O42">
         <v>1</v>
@@ -4309,13 +4309,13 @@
         <v>0</v>
       </c>
       <c r="L44" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="M44" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="N44" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="O44">
         <v>1</v>
@@ -4359,13 +4359,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>157</v>
+        <v>486</v>
       </c>
       <c r="M45" t="s">
-        <v>158</v>
+        <v>487</v>
       </c>
       <c r="N45" t="s">
-        <v>159</v>
+        <v>488</v>
       </c>
       <c r="O45">
         <v>1</v>
@@ -4409,13 +4409,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="M46" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="N46" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="O46">
         <v>1</v>
@@ -4562,13 +4562,13 @@
         <v>-20</v>
       </c>
       <c r="L49" t="s">
-        <v>284</v>
+        <v>489</v>
       </c>
       <c r="M49" t="s">
-        <v>285</v>
+        <v>490</v>
       </c>
       <c r="N49" t="s">
-        <v>286</v>
+        <v>491</v>
       </c>
       <c r="O49">
         <v>1</v>
@@ -4615,13 +4615,13 @@
         <v>-20</v>
       </c>
       <c r="L50" t="s">
-        <v>501</v>
+        <v>284</v>
       </c>
       <c r="M50" t="s">
-        <v>502</v>
+        <v>285</v>
       </c>
       <c r="N50" t="s">
-        <v>503</v>
+        <v>286</v>
       </c>
       <c r="O50">
         <v>1</v>
@@ -4668,13 +4668,13 @@
         <v>-10</v>
       </c>
       <c r="L51" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="M51" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="N51" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="O51">
         <v>1</v>
@@ -4824,13 +4824,13 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>151</v>
+        <v>305</v>
       </c>
       <c r="M54" t="s">
-        <v>152</v>
+        <v>306</v>
       </c>
       <c r="N54" t="s">
-        <v>153</v>
+        <v>307</v>
       </c>
       <c r="O54">
         <v>1</v>
@@ -4874,13 +4874,13 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="M55" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="N55" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="O55">
         <v>1</v>
@@ -4924,13 +4924,13 @@
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>525</v>
+        <v>243</v>
       </c>
       <c r="M56" t="s">
-        <v>526</v>
+        <v>244</v>
       </c>
       <c r="N56" t="s">
-        <v>527</v>
+        <v>245</v>
       </c>
       <c r="O56">
         <v>1</v>
@@ -4974,13 +4974,13 @@
         <v>0</v>
       </c>
       <c r="L57" t="s">
-        <v>272</v>
+        <v>151</v>
       </c>
       <c r="M57" t="s">
-        <v>273</v>
+        <v>152</v>
       </c>
       <c r="N57" t="s">
-        <v>274</v>
+        <v>153</v>
       </c>
       <c r="O57">
         <v>1</v>
@@ -5024,13 +5024,13 @@
         <v>0</v>
       </c>
       <c r="L58" t="s">
-        <v>281</v>
+        <v>507</v>
       </c>
       <c r="M58" t="s">
-        <v>282</v>
+        <v>508</v>
       </c>
       <c r="N58" t="s">
-        <v>283</v>
+        <v>509</v>
       </c>
       <c r="O58">
         <v>1</v>
@@ -5074,13 +5074,13 @@
         <v>0</v>
       </c>
       <c r="L59" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="M59" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="N59" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="O59">
         <v>1</v>
@@ -5174,13 +5174,13 @@
         <v>0</v>
       </c>
       <c r="L61" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="M61" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="N61" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="O61">
         <v>1</v>
@@ -5227,13 +5227,13 @@
         <v>-20</v>
       </c>
       <c r="L62" t="s">
-        <v>359</v>
+        <v>504</v>
       </c>
       <c r="M62" t="s">
-        <v>360</v>
+        <v>505</v>
       </c>
       <c r="N62" t="s">
-        <v>361</v>
+        <v>506</v>
       </c>
       <c r="O62">
         <v>1</v>
@@ -5280,13 +5280,13 @@
         <v>-20</v>
       </c>
       <c r="L63" t="s">
-        <v>381</v>
+        <v>525</v>
       </c>
       <c r="M63" t="s">
-        <v>382</v>
+        <v>526</v>
       </c>
       <c r="N63" t="s">
-        <v>383</v>
+        <v>527</v>
       </c>
       <c r="O63">
         <v>1</v>
@@ -5333,13 +5333,13 @@
         <v>-10</v>
       </c>
       <c r="L64" t="s">
-        <v>504</v>
+        <v>281</v>
       </c>
       <c r="M64" t="s">
-        <v>505</v>
+        <v>282</v>
       </c>
       <c r="N64" t="s">
-        <v>506</v>
+        <v>283</v>
       </c>
       <c r="O64">
         <v>1</v>
@@ -5386,13 +5386,13 @@
         <v>-10</v>
       </c>
       <c r="L65" t="s">
-        <v>507</v>
+        <v>384</v>
       </c>
       <c r="M65" t="s">
-        <v>508</v>
+        <v>385</v>
       </c>
       <c r="N65" t="s">
-        <v>509</v>
+        <v>386</v>
       </c>
       <c r="O65">
         <v>1</v>
@@ -5439,13 +5439,13 @@
         <v>-5</v>
       </c>
       <c r="L66" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M66" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="N66" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="O66">
         <v>1</v>
@@ -5489,13 +5489,13 @@
         <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>438</v>
+        <v>246</v>
       </c>
       <c r="M67" t="s">
-        <v>439</v>
+        <v>247</v>
       </c>
       <c r="N67" t="s">
-        <v>440</v>
+        <v>248</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -5589,13 +5589,13 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>519</v>
+        <v>234</v>
       </c>
       <c r="M69" t="s">
-        <v>520</v>
+        <v>235</v>
       </c>
       <c r="N69" t="s">
-        <v>521</v>
+        <v>236</v>
       </c>
       <c r="O69">
         <v>1</v>
@@ -5639,13 +5639,13 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>234</v>
+        <v>320</v>
       </c>
       <c r="M70" t="s">
-        <v>235</v>
+        <v>321</v>
       </c>
       <c r="N70" t="s">
-        <v>236</v>
+        <v>322</v>
       </c>
       <c r="O70">
         <v>1</v>
@@ -5689,13 +5689,13 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>240</v>
+        <v>435</v>
       </c>
       <c r="M71" t="s">
-        <v>241</v>
+        <v>436</v>
       </c>
       <c r="N71" t="s">
-        <v>242</v>
+        <v>437</v>
       </c>
       <c r="O71">
         <v>1</v>
@@ -5739,13 +5739,13 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>246</v>
+        <v>371</v>
       </c>
       <c r="M72" t="s">
-        <v>247</v>
+        <v>372</v>
       </c>
       <c r="N72" t="s">
-        <v>248</v>
+        <v>373</v>
       </c>
       <c r="O72">
         <v>1</v>
@@ -5839,13 +5839,13 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="M74" t="s">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="N74" t="s">
-        <v>322</v>
+        <v>242</v>
       </c>
       <c r="O74">
         <v>1</v>
@@ -5892,13 +5892,13 @@
         <v>-20</v>
       </c>
       <c r="L75" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="M75" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="N75" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="O75">
         <v>1</v>
@@ -5998,13 +5998,13 @@
         <v>-10</v>
       </c>
       <c r="L77" t="s">
-        <v>390</v>
+        <v>353</v>
       </c>
       <c r="M77" t="s">
-        <v>391</v>
+        <v>354</v>
       </c>
       <c r="N77" t="s">
-        <v>392</v>
+        <v>355</v>
       </c>
       <c r="O77">
         <v>1</v>
@@ -6051,13 +6051,13 @@
         <v>-10</v>
       </c>
       <c r="L78" t="s">
-        <v>353</v>
+        <v>519</v>
       </c>
       <c r="M78" t="s">
-        <v>354</v>
+        <v>520</v>
       </c>
       <c r="N78" t="s">
-        <v>355</v>
+        <v>521</v>
       </c>
       <c r="O78">
         <v>1</v>
@@ -6104,13 +6104,13 @@
         <v>-5</v>
       </c>
       <c r="L79" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="M79" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="N79" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="O79">
         <v>1</v>
@@ -6154,13 +6154,13 @@
         <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>154</v>
+        <v>311</v>
       </c>
       <c r="M80" t="s">
-        <v>155</v>
+        <v>312</v>
       </c>
       <c r="N80" t="s">
-        <v>156</v>
+        <v>313</v>
       </c>
       <c r="O80">
         <v>1</v>
@@ -6254,13 +6254,13 @@
         <v>0</v>
       </c>
       <c r="L82" t="s">
-        <v>296</v>
+        <v>541</v>
       </c>
       <c r="M82" t="s">
-        <v>297</v>
+        <v>542</v>
       </c>
       <c r="N82" t="s">
-        <v>298</v>
+        <v>543</v>
       </c>
       <c r="O82">
         <v>1</v>
@@ -6304,13 +6304,13 @@
         <v>0</v>
       </c>
       <c r="L83" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="M83" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="N83" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="O83">
         <v>1</v>
@@ -6354,13 +6354,13 @@
         <v>0</v>
       </c>
       <c r="L84" t="s">
-        <v>347</v>
+        <v>296</v>
       </c>
       <c r="M84" t="s">
-        <v>348</v>
+        <v>297</v>
       </c>
       <c r="N84" t="s">
-        <v>349</v>
+        <v>298</v>
       </c>
       <c r="O84">
         <v>1</v>
@@ -6404,13 +6404,13 @@
         <v>0</v>
       </c>
       <c r="L85" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="M85" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="N85" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="O85">
         <v>1</v>
@@ -6454,13 +6454,13 @@
         <v>0</v>
       </c>
       <c r="L86" t="s">
-        <v>299</v>
+        <v>154</v>
       </c>
       <c r="M86" t="s">
-        <v>300</v>
+        <v>155</v>
       </c>
       <c r="N86" t="s">
-        <v>301</v>
+        <v>156</v>
       </c>
       <c r="O86">
         <v>1</v>
@@ -6504,13 +6504,13 @@
         <v>0</v>
       </c>
       <c r="L87" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="M87" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="N87" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="O87">
         <v>1</v>
@@ -6557,13 +6557,13 @@
         <v>-20</v>
       </c>
       <c r="L88" t="s">
-        <v>368</v>
+        <v>299</v>
       </c>
       <c r="M88" t="s">
-        <v>369</v>
+        <v>300</v>
       </c>
       <c r="N88" t="s">
-        <v>370</v>
+        <v>301</v>
       </c>
       <c r="O88">
         <v>1</v>
@@ -6610,13 +6610,13 @@
         <v>-20</v>
       </c>
       <c r="L89" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="M89" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="N89" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="O89">
         <v>1</v>
@@ -6663,13 +6663,13 @@
         <v>-10</v>
       </c>
       <c r="L90" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="M90" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="N90" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="O90">
         <v>1</v>
@@ -6716,13 +6716,13 @@
         <v>-10</v>
       </c>
       <c r="L91" t="s">
-        <v>544</v>
+        <v>368</v>
       </c>
       <c r="M91" t="s">
-        <v>545</v>
+        <v>369</v>
       </c>
       <c r="N91" t="s">
-        <v>546</v>
+        <v>370</v>
       </c>
       <c r="O91">
         <v>1</v>
@@ -6869,13 +6869,13 @@
         <v>0</v>
       </c>
       <c r="L94" t="s">
-        <v>528</v>
+        <v>341</v>
       </c>
       <c r="M94" t="s">
-        <v>529</v>
+        <v>342</v>
       </c>
       <c r="N94" t="s">
-        <v>530</v>
+        <v>343</v>
       </c>
       <c r="O94">
         <v>1</v>
@@ -6919,13 +6919,13 @@
         <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>308</v>
+        <v>163</v>
       </c>
       <c r="M95" t="s">
-        <v>309</v>
+        <v>164</v>
       </c>
       <c r="N95" t="s">
-        <v>310</v>
+        <v>165</v>
       </c>
       <c r="O95">
         <v>1</v>
@@ -6969,13 +6969,13 @@
         <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="M96" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="N96" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="O96">
         <v>1</v>
@@ -7019,13 +7019,13 @@
         <v>0</v>
       </c>
       <c r="L97" t="s">
-        <v>344</v>
+        <v>510</v>
       </c>
       <c r="M97" t="s">
-        <v>345</v>
+        <v>511</v>
       </c>
       <c r="N97" t="s">
-        <v>346</v>
+        <v>512</v>
       </c>
       <c r="O97">
         <v>1</v>
@@ -7069,13 +7069,13 @@
         <v>0</v>
       </c>
       <c r="L98" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="M98" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="N98" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="O98">
         <v>1</v>
@@ -7119,13 +7119,13 @@
         <v>0</v>
       </c>
       <c r="L99" t="s">
-        <v>513</v>
+        <v>344</v>
       </c>
       <c r="M99" t="s">
-        <v>514</v>
+        <v>345</v>
       </c>
       <c r="N99" t="s">
-        <v>515</v>
+        <v>346</v>
       </c>
       <c r="O99">
         <v>1</v>
@@ -7169,13 +7169,13 @@
         <v>0</v>
       </c>
       <c r="L100" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="M100" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="N100" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="O100">
         <v>1</v>
@@ -7222,13 +7222,13 @@
         <v>-20</v>
       </c>
       <c r="L101" t="s">
-        <v>163</v>
+        <v>396</v>
       </c>
       <c r="M101" t="s">
-        <v>164</v>
+        <v>397</v>
       </c>
       <c r="N101" t="s">
-        <v>165</v>
+        <v>398</v>
       </c>
       <c r="O101">
         <v>3</v>
@@ -7275,13 +7275,13 @@
         <v>-20</v>
       </c>
       <c r="L102" t="s">
-        <v>396</v>
+        <v>534</v>
       </c>
       <c r="M102" t="s">
-        <v>397</v>
+        <v>535</v>
       </c>
       <c r="N102" t="s">
-        <v>398</v>
+        <v>536</v>
       </c>
       <c r="O102">
         <v>1</v>
@@ -7328,13 +7328,13 @@
         <v>-10</v>
       </c>
       <c r="L103" t="s">
-        <v>534</v>
+        <v>399</v>
       </c>
       <c r="M103" t="s">
-        <v>535</v>
+        <v>400</v>
       </c>
       <c r="N103" t="s">
-        <v>536</v>
+        <v>401</v>
       </c>
       <c r="O103">
         <v>1</v>
@@ -7381,13 +7381,13 @@
         <v>-10</v>
       </c>
       <c r="L104" t="s">
-        <v>402</v>
+        <v>531</v>
       </c>
       <c r="M104" t="s">
-        <v>403</v>
+        <v>532</v>
       </c>
       <c r="N104" t="s">
-        <v>404</v>
+        <v>533</v>
       </c>
       <c r="O104">
         <v>1</v>
@@ -7434,13 +7434,13 @@
         <v>-5</v>
       </c>
       <c r="L105" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="M105" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="N105" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="O105">
         <v>1</v>
@@ -7484,13 +7484,13 @@
         <v>0</v>
       </c>
       <c r="L106" t="s">
-        <v>136</v>
+        <v>356</v>
       </c>
       <c r="M106" t="s">
-        <v>137</v>
+        <v>357</v>
       </c>
       <c r="N106" t="s">
-        <v>138</v>
+        <v>358</v>
       </c>
       <c r="O106">
         <v>1</v>
@@ -7534,13 +7534,13 @@
         <v>0</v>
       </c>
       <c r="L107" t="s">
-        <v>139</v>
+        <v>552</v>
       </c>
       <c r="M107" t="s">
-        <v>140</v>
+        <v>553</v>
       </c>
       <c r="N107" t="s">
-        <v>141</v>
+        <v>554</v>
       </c>
       <c r="O107">
         <v>1</v>
@@ -7584,13 +7584,13 @@
         <v>0</v>
       </c>
       <c r="L108" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
       <c r="M108" t="s">
-        <v>264</v>
+        <v>315</v>
       </c>
       <c r="N108" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="O108">
         <v>1</v>
@@ -7634,13 +7634,13 @@
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>552</v>
+        <v>332</v>
       </c>
       <c r="M109" t="s">
-        <v>553</v>
+        <v>333</v>
       </c>
       <c r="N109" t="s">
-        <v>554</v>
+        <v>334</v>
       </c>
       <c r="O109">
         <v>1</v>
@@ -7684,13 +7684,13 @@
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>290</v>
+        <v>374</v>
       </c>
       <c r="M110" t="s">
-        <v>291</v>
+        <v>375</v>
       </c>
       <c r="N110" t="s">
-        <v>292</v>
+        <v>376</v>
       </c>
       <c r="O110">
         <v>1</v>
@@ -7734,13 +7734,13 @@
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>332</v>
+        <v>549</v>
       </c>
       <c r="M111" t="s">
-        <v>333</v>
+        <v>550</v>
       </c>
       <c r="N111" t="s">
-        <v>334</v>
+        <v>551</v>
       </c>
       <c r="O111">
         <v>1</v>
@@ -7784,13 +7784,13 @@
         <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>356</v>
+        <v>263</v>
       </c>
       <c r="M112" t="s">
-        <v>357</v>
+        <v>264</v>
       </c>
       <c r="N112" t="s">
-        <v>358</v>
+        <v>265</v>
       </c>
       <c r="O112">
         <v>1</v>
@@ -7834,13 +7834,13 @@
         <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="M113" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="N113" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="O113">
         <v>1</v>
@@ -7887,13 +7887,13 @@
         <v>-20</v>
       </c>
       <c r="L114" t="s">
-        <v>314</v>
+        <v>136</v>
       </c>
       <c r="M114" t="s">
-        <v>315</v>
+        <v>137</v>
       </c>
       <c r="N114" t="s">
-        <v>316</v>
+        <v>138</v>
       </c>
       <c r="O114">
         <v>1</v>
@@ -7940,13 +7940,13 @@
         <v>-20</v>
       </c>
       <c r="L115" t="s">
-        <v>362</v>
+        <v>139</v>
       </c>
       <c r="M115" t="s">
-        <v>363</v>
+        <v>140</v>
       </c>
       <c r="N115" t="s">
-        <v>364</v>
+        <v>141</v>
       </c>
       <c r="O115">
         <v>1</v>
@@ -7993,13 +7993,13 @@
         <v>-10</v>
       </c>
       <c r="L116" t="s">
-        <v>450</v>
+        <v>290</v>
       </c>
       <c r="M116" t="s">
-        <v>451</v>
+        <v>291</v>
       </c>
       <c r="N116" t="s">
-        <v>452</v>
+        <v>292</v>
       </c>
       <c r="O116">
         <v>1</v>
@@ -8046,13 +8046,13 @@
         <v>-10</v>
       </c>
       <c r="L117" t="s">
-        <v>549</v>
+        <v>450</v>
       </c>
       <c r="M117" t="s">
-        <v>550</v>
+        <v>451</v>
       </c>
       <c r="N117" t="s">
-        <v>551</v>
+        <v>452</v>
       </c>
       <c r="O117">
         <v>1</v>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C4BF0A-E09F-4CDC-BB24-FDDE17CC6540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE334B2-86E6-4CCA-91A7-FC841474851D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -2279,7 +2279,7 @@
         <v>2</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -2329,7 +2329,7 @@
         <v>2</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -2376,10 +2376,10 @@
         <v>1</v>
       </c>
       <c r="P6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R6">
         <v>1</v>
@@ -2429,7 +2429,7 @@
         <v>3</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R7">
         <v>1</v>
@@ -2476,10 +2476,10 @@
         <v>1</v>
       </c>
       <c r="P8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="R8">
         <v>1</v>
@@ -2526,10 +2526,10 @@
         <v>1</v>
       </c>
       <c r="P9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="R9">
         <v>1</v>
@@ -2579,10 +2579,10 @@
         <v>1</v>
       </c>
       <c r="P10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R10">
         <v>1</v>
@@ -2632,10 +2632,10 @@
         <v>1</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R11">
         <v>1</v>
@@ -2685,10 +2685,10 @@
         <v>1</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R12">
         <v>1</v>
@@ -2738,10 +2738,10 @@
         <v>1</v>
       </c>
       <c r="P13">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R13">
         <v>1</v>
@@ -2791,10 +2791,10 @@
         <v>1</v>
       </c>
       <c r="P14">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R14">
         <v>1</v>
@@ -2841,10 +2841,10 @@
         <v>1</v>
       </c>
       <c r="P15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R15">
         <v>1</v>
@@ -2891,10 +2891,10 @@
         <v>1</v>
       </c>
       <c r="P16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R16">
         <v>1</v>
@@ -2941,10 +2941,10 @@
         <v>1</v>
       </c>
       <c r="P17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R17">
         <v>1</v>
@@ -2991,10 +2991,10 @@
         <v>1</v>
       </c>
       <c r="P18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R18">
         <v>1</v>
@@ -3044,7 +3044,7 @@
         <v>3</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R19">
         <v>1</v>
@@ -3094,7 +3094,7 @@
         <v>3</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R20">
         <v>1</v>
@@ -3141,10 +3141,10 @@
         <v>1</v>
       </c>
       <c r="P21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R21">
         <v>1</v>
@@ -3191,10 +3191,10 @@
         <v>1</v>
       </c>
       <c r="P22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R22">
         <v>1</v>
@@ -3244,10 +3244,10 @@
         <v>1</v>
       </c>
       <c r="P23">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q23">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R23">
         <v>1</v>
@@ -3297,10 +3297,10 @@
         <v>1</v>
       </c>
       <c r="P24">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R24">
         <v>1</v>
@@ -3350,10 +3350,10 @@
         <v>1</v>
       </c>
       <c r="P25">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Q25">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R25">
         <v>1</v>
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="P26">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R26">
         <v>1</v>
@@ -3456,10 +3456,10 @@
         <v>1</v>
       </c>
       <c r="P27">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R27">
         <v>1</v>
@@ -3506,10 +3506,10 @@
         <v>1</v>
       </c>
       <c r="P28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="R28">
         <v>1</v>
@@ -3556,10 +3556,10 @@
         <v>1</v>
       </c>
       <c r="P29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q29">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="R29">
         <v>1</v>
@@ -3606,10 +3606,10 @@
         <v>1</v>
       </c>
       <c r="P30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R30">
         <v>1</v>
@@ -3656,10 +3656,10 @@
         <v>1</v>
       </c>
       <c r="P31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q31">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R31">
         <v>1</v>
@@ -3706,10 +3706,10 @@
         <v>1</v>
       </c>
       <c r="P32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R32">
         <v>1</v>
@@ -3756,10 +3756,10 @@
         <v>1</v>
       </c>
       <c r="P33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q33">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R33">
         <v>1</v>
@@ -3806,10 +3806,10 @@
         <v>1</v>
       </c>
       <c r="P34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q34">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R34">
         <v>1</v>
@@ -3856,10 +3856,10 @@
         <v>1</v>
       </c>
       <c r="P35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q35">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R35">
         <v>1</v>
@@ -3909,10 +3909,10 @@
         <v>1</v>
       </c>
       <c r="P36">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q36">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R36">
         <v>1</v>
@@ -3962,10 +3962,10 @@
         <v>1</v>
       </c>
       <c r="P37">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q37">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R37">
         <v>1</v>
@@ -4015,10 +4015,10 @@
         <v>1</v>
       </c>
       <c r="P38">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R38">
         <v>1</v>
@@ -4068,10 +4068,10 @@
         <v>1</v>
       </c>
       <c r="P39">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="Q39">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R39">
         <v>1</v>
@@ -4121,10 +4121,10 @@
         <v>1</v>
       </c>
       <c r="P40">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="Q40">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R40">
         <v>1</v>
@@ -4171,10 +4171,10 @@
         <v>1</v>
       </c>
       <c r="P41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q41">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="R41">
         <v>1</v>
@@ -4221,10 +4221,10 @@
         <v>1</v>
       </c>
       <c r="P42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q42">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="R42">
         <v>1</v>
@@ -4274,7 +4274,7 @@
         <v>3</v>
       </c>
       <c r="Q43">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R43">
         <v>1</v>
@@ -4324,7 +4324,7 @@
         <v>3</v>
       </c>
       <c r="Q44">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R44">
         <v>1</v>
@@ -4371,10 +4371,10 @@
         <v>1</v>
       </c>
       <c r="P45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q45">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="R45">
         <v>1</v>
@@ -4421,10 +4421,10 @@
         <v>1</v>
       </c>
       <c r="P46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q46">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="R46">
         <v>1</v>
@@ -4471,10 +4471,10 @@
         <v>1</v>
       </c>
       <c r="P47">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R47">
         <v>1</v>
@@ -4521,10 +4521,10 @@
         <v>1</v>
       </c>
       <c r="P48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q48">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R48">
         <v>1</v>
@@ -4574,10 +4574,10 @@
         <v>1</v>
       </c>
       <c r="P49">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q49">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R49">
         <v>1</v>
@@ -4627,10 +4627,10 @@
         <v>1</v>
       </c>
       <c r="P50">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q50">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R50">
         <v>1</v>
@@ -4680,10 +4680,10 @@
         <v>1</v>
       </c>
       <c r="P51">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="Q51">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R51">
         <v>1</v>
@@ -4733,10 +4733,10 @@
         <v>1</v>
       </c>
       <c r="P52">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="Q52">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R52">
         <v>1</v>
@@ -4786,10 +4786,10 @@
         <v>1</v>
       </c>
       <c r="P53">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="Q53">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R53">
         <v>1</v>
@@ -4836,10 +4836,10 @@
         <v>1</v>
       </c>
       <c r="P54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q54">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R54">
         <v>1</v>
@@ -4886,10 +4886,10 @@
         <v>1</v>
       </c>
       <c r="P55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q55">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R55">
         <v>1</v>
@@ -4939,7 +4939,7 @@
         <v>3</v>
       </c>
       <c r="Q56">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="R56">
         <v>1</v>
@@ -4989,7 +4989,7 @@
         <v>3</v>
       </c>
       <c r="Q57">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="R57">
         <v>1</v>
@@ -5036,10 +5036,10 @@
         <v>1</v>
       </c>
       <c r="P58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q58">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R58">
         <v>1</v>
@@ -5086,10 +5086,10 @@
         <v>1</v>
       </c>
       <c r="P59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q59">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R59">
         <v>1</v>
@@ -5136,10 +5136,10 @@
         <v>1</v>
       </c>
       <c r="P60">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q60">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="R60">
         <v>1</v>
@@ -5186,10 +5186,10 @@
         <v>1</v>
       </c>
       <c r="P61">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q61">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="R61">
         <v>1</v>
@@ -5239,10 +5239,10 @@
         <v>1</v>
       </c>
       <c r="P62">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Q62">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R62">
         <v>1</v>
@@ -5292,10 +5292,10 @@
         <v>1</v>
       </c>
       <c r="P63">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Q63">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R63">
         <v>1</v>
@@ -5345,10 +5345,10 @@
         <v>1</v>
       </c>
       <c r="P64">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="Q64">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R64">
         <v>1</v>
@@ -5398,10 +5398,10 @@
         <v>1</v>
       </c>
       <c r="P65">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="Q65">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R65">
         <v>1</v>
@@ -5451,10 +5451,10 @@
         <v>1</v>
       </c>
       <c r="P66">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="Q66">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R66">
         <v>1</v>
@@ -5501,10 +5501,10 @@
         <v>1</v>
       </c>
       <c r="P67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q67">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R67">
         <v>1</v>
@@ -5551,10 +5551,10 @@
         <v>1</v>
       </c>
       <c r="P68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q68">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R68">
         <v>1</v>
@@ -5604,7 +5604,7 @@
         <v>3</v>
       </c>
       <c r="Q69">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R69">
         <v>1</v>
@@ -5654,7 +5654,7 @@
         <v>3</v>
       </c>
       <c r="Q70">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R70">
         <v>1</v>
@@ -5701,10 +5701,10 @@
         <v>1</v>
       </c>
       <c r="P71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q71">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R71">
         <v>1</v>
@@ -5751,10 +5751,10 @@
         <v>1</v>
       </c>
       <c r="P72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q72">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R72">
         <v>1</v>
@@ -5801,10 +5801,10 @@
         <v>1</v>
       </c>
       <c r="P73">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q73">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R73">
         <v>1</v>
@@ -5851,10 +5851,10 @@
         <v>1</v>
       </c>
       <c r="P74">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q74">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R74">
         <v>1</v>
@@ -5904,10 +5904,10 @@
         <v>1</v>
       </c>
       <c r="P75">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Q75">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R75">
         <v>1</v>
@@ -5957,10 +5957,10 @@
         <v>1</v>
       </c>
       <c r="P76">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Q76">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R76">
         <v>1</v>
@@ -6010,10 +6010,10 @@
         <v>1</v>
       </c>
       <c r="P77">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="Q77">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R77">
         <v>1</v>
@@ -6063,10 +6063,10 @@
         <v>1</v>
       </c>
       <c r="P78">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="Q78">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R78">
         <v>1</v>
@@ -6116,10 +6116,10 @@
         <v>1</v>
       </c>
       <c r="P79">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="Q79">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R79">
         <v>1</v>
@@ -6166,10 +6166,10 @@
         <v>1</v>
       </c>
       <c r="P80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q80">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R80">
         <v>1</v>
@@ -6216,10 +6216,10 @@
         <v>1</v>
       </c>
       <c r="P81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q81">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R81">
         <v>1</v>
@@ -6269,7 +6269,7 @@
         <v>3</v>
       </c>
       <c r="Q82">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R82">
         <v>1</v>
@@ -6319,7 +6319,7 @@
         <v>3</v>
       </c>
       <c r="Q83">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R83">
         <v>1</v>
@@ -6366,10 +6366,10 @@
         <v>1</v>
       </c>
       <c r="P84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q84">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R84">
         <v>1</v>
@@ -6416,10 +6416,10 @@
         <v>1</v>
       </c>
       <c r="P85">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q85">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R85">
         <v>1</v>
@@ -6466,10 +6466,10 @@
         <v>1</v>
       </c>
       <c r="P86">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q86">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R86">
         <v>1</v>
@@ -6516,10 +6516,10 @@
         <v>1</v>
       </c>
       <c r="P87">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q87">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R87">
         <v>1</v>
@@ -6569,10 +6569,10 @@
         <v>1</v>
       </c>
       <c r="P88">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q88">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R88">
         <v>1</v>
@@ -6622,10 +6622,10 @@
         <v>1</v>
       </c>
       <c r="P89">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q89">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R89">
         <v>1</v>
@@ -6675,10 +6675,10 @@
         <v>1</v>
       </c>
       <c r="P90">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="Q90">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R90">
         <v>1</v>
@@ -6728,10 +6728,10 @@
         <v>1</v>
       </c>
       <c r="P91">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="Q91">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R91">
         <v>1</v>
@@ -6781,10 +6781,10 @@
         <v>1</v>
       </c>
       <c r="P92">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="Q92">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R92">
         <v>1</v>
@@ -6831,10 +6831,10 @@
         <v>1</v>
       </c>
       <c r="P93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q93">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R93">
         <v>1</v>
@@ -6881,10 +6881,10 @@
         <v>1</v>
       </c>
       <c r="P94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q94">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R94">
         <v>1</v>
@@ -6934,7 +6934,7 @@
         <v>3</v>
       </c>
       <c r="Q95">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R95">
         <v>1</v>
@@ -6984,7 +6984,7 @@
         <v>3</v>
       </c>
       <c r="Q96">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R96">
         <v>1</v>
@@ -7031,10 +7031,10 @@
         <v>1</v>
       </c>
       <c r="P97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q97">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R97">
         <v>1</v>
@@ -7081,10 +7081,10 @@
         <v>1</v>
       </c>
       <c r="P98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q98">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R98">
         <v>1</v>
@@ -7131,10 +7131,10 @@
         <v>1</v>
       </c>
       <c r="P99">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q99">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R99">
         <v>1</v>
@@ -7181,10 +7181,10 @@
         <v>1</v>
       </c>
       <c r="P100">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q100">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R100">
         <v>1</v>
@@ -7234,10 +7234,10 @@
         <v>3</v>
       </c>
       <c r="P101">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Q101">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R101">
         <v>1</v>
@@ -7287,10 +7287,10 @@
         <v>1</v>
       </c>
       <c r="P102">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q102">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R102">
         <v>1</v>
@@ -7340,10 +7340,10 @@
         <v>1</v>
       </c>
       <c r="P103">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="Q103">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R103">
         <v>1</v>
@@ -7393,10 +7393,10 @@
         <v>1</v>
       </c>
       <c r="P104">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="Q104">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R104">
         <v>1</v>
@@ -7446,10 +7446,10 @@
         <v>1</v>
       </c>
       <c r="P105">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="Q105">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R105">
         <v>1</v>
@@ -7496,10 +7496,10 @@
         <v>1</v>
       </c>
       <c r="P106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q106">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R106">
         <v>1</v>
@@ -7546,10 +7546,10 @@
         <v>1</v>
       </c>
       <c r="P107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q107">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R107">
         <v>1</v>
@@ -7596,10 +7596,10 @@
         <v>1</v>
       </c>
       <c r="P108">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q108">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R108">
         <v>1</v>
@@ -7646,10 +7646,10 @@
         <v>1</v>
       </c>
       <c r="P109">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q109">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R109">
         <v>1</v>
@@ -7696,10 +7696,10 @@
         <v>1</v>
       </c>
       <c r="P110">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q110">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R110">
         <v>1</v>
@@ -7746,10 +7746,10 @@
         <v>1</v>
       </c>
       <c r="P111">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q111">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R111">
         <v>1</v>
@@ -7796,10 +7796,10 @@
         <v>1</v>
       </c>
       <c r="P112">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q112">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R112">
         <v>1</v>
@@ -7846,10 +7846,10 @@
         <v>1</v>
       </c>
       <c r="P113">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q113">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R113">
         <v>1</v>
@@ -7899,10 +7899,10 @@
         <v>1</v>
       </c>
       <c r="P114">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q114">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R114">
         <v>1</v>
@@ -7952,10 +7952,10 @@
         <v>1</v>
       </c>
       <c r="P115">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q115">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R115">
         <v>1</v>
@@ -8005,10 +8005,10 @@
         <v>1</v>
       </c>
       <c r="P116">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="Q116">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R116">
         <v>1</v>
@@ -8058,10 +8058,10 @@
         <v>1</v>
       </c>
       <c r="P117">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="Q117">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R117">
         <v>1</v>
@@ -8111,10 +8111,10 @@
         <v>1</v>
       </c>
       <c r="P118">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="Q118">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R118">
         <v>1</v>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE334B2-86E6-4CCA-91A7-FC841474851D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273FAFE2-CF92-4BC2-B8EA-A91B47B4034B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -2582,7 +2582,7 @@
         <v>7</v>
       </c>
       <c r="Q10">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R10">
         <v>1</v>
@@ -2635,7 +2635,7 @@
         <v>7</v>
       </c>
       <c r="Q11">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R11">
         <v>1</v>
@@ -2685,10 +2685,10 @@
         <v>1</v>
       </c>
       <c r="P12">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q12">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R12">
         <v>1</v>
@@ -2738,10 +2738,10 @@
         <v>1</v>
       </c>
       <c r="P13">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q13">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R13">
         <v>1</v>
@@ -2791,7 +2791,7 @@
         <v>1</v>
       </c>
       <c r="P14">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q14">
         <v>50</v>
@@ -3350,7 +3350,7 @@
         <v>1</v>
       </c>
       <c r="P25">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q25">
         <v>50</v>
@@ -3403,7 +3403,7 @@
         <v>1</v>
       </c>
       <c r="P26">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q26">
         <v>50</v>
@@ -3456,7 +3456,7 @@
         <v>1</v>
       </c>
       <c r="P27">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q27">
         <v>50</v>
@@ -3912,7 +3912,7 @@
         <v>8</v>
       </c>
       <c r="Q36">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R36">
         <v>1</v>
@@ -3965,7 +3965,7 @@
         <v>8</v>
       </c>
       <c r="Q37">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R37">
         <v>1</v>
@@ -4015,10 +4015,10 @@
         <v>1</v>
       </c>
       <c r="P38">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Q38">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R38">
         <v>1</v>
@@ -4068,10 +4068,10 @@
         <v>1</v>
       </c>
       <c r="P39">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Q39">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R39">
         <v>1</v>
@@ -4121,7 +4121,7 @@
         <v>1</v>
       </c>
       <c r="P40">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q40">
         <v>50</v>
@@ -4680,7 +4680,7 @@
         <v>1</v>
       </c>
       <c r="P51">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q51">
         <v>50</v>
@@ -4733,7 +4733,7 @@
         <v>1</v>
       </c>
       <c r="P52">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q52">
         <v>50</v>
@@ -5242,7 +5242,7 @@
         <v>9</v>
       </c>
       <c r="Q62">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R62">
         <v>1</v>
@@ -5295,7 +5295,7 @@
         <v>9</v>
       </c>
       <c r="Q63">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R63">
         <v>1</v>
@@ -5345,10 +5345,10 @@
         <v>1</v>
       </c>
       <c r="P64">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q64">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R64">
         <v>1</v>
@@ -5398,10 +5398,10 @@
         <v>1</v>
       </c>
       <c r="P65">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q65">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R65">
         <v>1</v>
@@ -5904,7 +5904,7 @@
         <v>1</v>
       </c>
       <c r="P75">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q75">
         <v>50</v>
@@ -5957,7 +5957,7 @@
         <v>1</v>
       </c>
       <c r="P76">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q76">
         <v>50</v>
@@ -6010,7 +6010,7 @@
         <v>1</v>
       </c>
       <c r="P77">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q77">
         <v>50</v>
@@ -6063,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="P78">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q78">
         <v>50</v>
@@ -6569,10 +6569,10 @@
         <v>1</v>
       </c>
       <c r="P88">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q88">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R88">
         <v>1</v>
@@ -6622,10 +6622,10 @@
         <v>1</v>
       </c>
       <c r="P89">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q89">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R89">
         <v>1</v>
@@ -6675,7 +6675,7 @@
         <v>1</v>
       </c>
       <c r="P90">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q90">
         <v>50</v>
@@ -6728,7 +6728,7 @@
         <v>1</v>
       </c>
       <c r="P91">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q91">
         <v>50</v>
@@ -7234,7 +7234,7 @@
         <v>3</v>
       </c>
       <c r="P101">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q101">
         <v>50</v>
@@ -7287,7 +7287,7 @@
         <v>1</v>
       </c>
       <c r="P102">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q102">
         <v>50</v>
@@ -7340,7 +7340,7 @@
         <v>1</v>
       </c>
       <c r="P103">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q103">
         <v>50</v>
@@ -7393,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="P104">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q104">
         <v>50</v>
@@ -7799,7 +7799,7 @@
         <v>7</v>
       </c>
       <c r="Q112">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="R112">
         <v>1</v>
@@ -7849,7 +7849,7 @@
         <v>7</v>
       </c>
       <c r="Q113">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="R113">
         <v>1</v>
@@ -7899,10 +7899,10 @@
         <v>1</v>
       </c>
       <c r="P114">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q114">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R114">
         <v>1</v>
@@ -7952,10 +7952,10 @@
         <v>1</v>
       </c>
       <c r="P115">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q115">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R115">
         <v>1</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="P116">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q116">
         <v>50</v>
@@ -8058,7 +8058,7 @@
         <v>1</v>
       </c>
       <c r="P117">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q117">
         <v>50</v>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273FAFE2-CF92-4BC2-B8EA-A91B47B4034B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DEAFDD-6FB5-42F6-8D40-9ECD22287EA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -2173,7 +2173,7 @@
         <v>277</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="P2">
         <v>2</v>
@@ -2182,7 +2182,7 @@
         <v>10</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -2223,7 +2223,7 @@
         <v>319</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -2232,7 +2232,7 @@
         <v>10</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -2273,7 +2273,7 @@
         <v>271</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P4">
         <v>2</v>
@@ -2282,7 +2282,7 @@
         <v>50</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -2323,7 +2323,7 @@
         <v>144</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P5">
         <v>2</v>
@@ -2332,7 +2332,7 @@
         <v>50</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spa